--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>copyright</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation</t>
+          <t>hdurl</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>hdurl</t>
+          <t>media_type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>media_type</t>
+          <t>service_version</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>service_version</t>
+          <t>title</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -478,42 +473,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Evan Tsai</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>With spacecraft thrusters at top center, the rugged surface of the Moon lies below the Blue Ghost lander in this space age video frame. The view of the lunar far side was captured by the Firefly Aerospace lunar lander on February 24, following a maneuver to circularize its orbit about 100 kilometers above the lunar surface. The robotic lunar lander is scheduled to touch down tomorrow, Sunday, March 2, at 3:34am Eastern Time in the Mare Crisium impact basin on the lunar near side. In support of the Artemis campaign, Blue Ghost is set to deliver science and technology experiments to the Moon, part of NASA's Commercial Lunar Payload Services program. Blue Ghost's mission on the surface is planned to operate during the lunar daylight hours at the landing site, about 14 Earth days.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Framed in this single, starry, telescopic field of view are two open star clusters, M35 and NGC 2158. Located within the boundaries of the constellation Gemini, they do appear to be side by side. Its stars concentrated toward the upper right, M35 is relatively nearby, though. M35 (also cataloged as NGC 2168) is a mere 2800 light-years distant, with 400 or so stars spread out over a volume about 30 light-years across. Bright blue stars frequently distinguish younger open clusters like M35, whose age is estimated at 150 million years. At lower left, NGC 2158 is about four times more distant than M35 and much more compact, shining with the more yellowish light of a population of stars over 10 times older. In general, open star clusters are found along the plane of our Milky Way Galaxy. Loosely gravitationally bound, their member stars tend to be dispersed over billions of years as the open star clusters orbit the galactic center.</t>
+          <t>https://apod.nasa.gov/apod/image/2503/BlueGhost_lunar1067.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://apod.nasa.gov/apod/image/2502/M35_NGC2158_2048.jpg</t>
+          <t>image</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>v1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>v1</t>
+          <t>Blue Ghost to the Moon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Open Star Clusters M35 and NGC 2158</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://apod.nasa.gov/apod/image/2502/M35_NGC2158_1024.jpg</t>
+          <t>https://apod.nasa.gov/apod/image/2503/BlueGhost_lunar1067.jpg</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,40 +602,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83419</v>
+        <v>82898</v>
       </c>
       <c r="F2" t="n">
-        <v>1653964836688</v>
+        <v>1646503539338</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1653968172042</v>
+        <v>1646503539338</v>
       </c>
       <c r="I2" t="n">
-        <v>51418605600</v>
+        <v>50672934846</v>
       </c>
       <c r="J2" t="n">
-        <v>83458</v>
+        <v>83746</v>
       </c>
       <c r="K2" t="n">
-        <v>78895</v>
+        <v>79049</v>
       </c>
       <c r="L2" t="n">
-        <v>4498.5</v>
+        <v>3493.58</v>
       </c>
       <c r="M2" t="n">
-        <v>5.70008</v>
+        <v>4.39975</v>
       </c>
       <c r="N2" t="n">
-        <v>95886938604</v>
+        <v>77909196675</v>
       </c>
       <c r="O2" t="n">
-        <v>6.15418</v>
+        <v>4.96682</v>
       </c>
       <c r="P2" t="n">
-        <v>19835556</v>
+        <v>19835596</v>
       </c>
       <c r="Q2" t="n">
         <v>19835596</v>
@@ -647,7 +647,7 @@
         <v>108786</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.46299</v>
+        <v>-23.43312</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>67.81</v>
       </c>
       <c r="W2" t="n">
-        <v>122687.82546</v>
+        <v>122735.7454</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.315Z</t>
+          <t>2025-03-12T02:08:31.049Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,40 +697,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1923.12</v>
+        <v>1908.63</v>
       </c>
       <c r="F3" t="n">
-        <v>231968804329</v>
+        <v>230938728804</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>231973732643</v>
+        <v>230938728804</v>
       </c>
       <c r="I3" t="n">
-        <v>28852520410</v>
+        <v>28107566570</v>
       </c>
       <c r="J3" t="n">
         <v>1958.82</v>
       </c>
       <c r="K3" t="n">
-        <v>1840.88</v>
+        <v>1851.67</v>
       </c>
       <c r="L3" t="n">
-        <v>82.23999999999999</v>
+        <v>45.27</v>
       </c>
       <c r="M3" t="n">
-        <v>4.46752</v>
+        <v>2.4294</v>
       </c>
       <c r="N3" t="n">
-        <v>6221470175</v>
+        <v>6313420216</v>
       </c>
       <c r="O3" t="n">
-        <v>2.75594</v>
+        <v>2.81065</v>
       </c>
       <c r="P3" t="n">
-        <v>120606878.7886636</v>
+        <v>120609441.1527882</v>
       </c>
       <c r="Q3" t="n">
         <v>120609441.1527882</v>
@@ -740,7 +740,7 @@
         <v>4878.26</v>
       </c>
       <c r="T3" t="n">
-        <v>-60.63272</v>
+        <v>-60.61561</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>0.432979</v>
       </c>
       <c r="W3" t="n">
-        <v>443440.94561</v>
+        <v>443633.69421</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.527Z</t>
+          <t>2025-03-12T02:08:30.416Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>29.83487102934793</v>
+        <v>29.76594602124628</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2983.487102934793</v>
+        <v>2976.594602124628</v>
       </c>
     </row>
     <row r="4">
@@ -798,37 +798,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.999649</v>
+        <v>0.999685</v>
       </c>
       <c r="F4" t="n">
-        <v>143131246783</v>
+        <v>143135979734</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>143131246783</v>
+        <v>143135979734</v>
       </c>
       <c r="I4" t="n">
-        <v>44856055845</v>
+        <v>64509639425</v>
       </c>
       <c r="J4" t="n">
         <v>0.99983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999389</v>
+        <v>0.999413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002449</v>
+        <v>0.00027196</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0245</v>
+        <v>0.02721</v>
       </c>
       <c r="N4" t="n">
-        <v>282565217</v>
+        <v>224454473</v>
       </c>
       <c r="O4" t="n">
-        <v>0.19781</v>
+        <v>0.15706</v>
       </c>
       <c r="P4" t="n">
         <v>143182152538.009</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>-24.44701</v>
+        <v>-24.44474</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>0.5725209999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>74.60286000000001</v>
+        <v>74.60811</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:13.846Z</t>
+          <t>2025-03-12T02:08:36.940Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="F5" t="n">
-        <v>128558954531</v>
+        <v>128980077757</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>221457825493</v>
+        <v>222183259473</v>
       </c>
       <c r="I5" t="n">
-        <v>5841149808</v>
+        <v>5765050787</v>
       </c>
       <c r="J5" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="K5" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2061</v>
+        <v>0.184254</v>
       </c>
       <c r="M5" t="n">
-        <v>10.26307</v>
+        <v>9.045540000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>11419814493</v>
+        <v>11497873807</v>
       </c>
       <c r="O5" t="n">
-        <v>9.74893</v>
+        <v>9.786910000000001</v>
       </c>
       <c r="P5" t="n">
         <v>58043299826</v>
@@ -936,7 +936,7 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>-34.94136</v>
+        <v>-34.47767</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>0.00268621</v>
       </c>
       <c r="W5" t="n">
-        <v>82208.82656</v>
+        <v>82795.46463</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.006Z</t>
+          <t>2025-03-12T02:08:35.537Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>554.96</v>
+        <v>551.4</v>
       </c>
       <c r="F6" t="n">
-        <v>80954196357</v>
+        <v>80700010977</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>80954196357</v>
+        <v>80700010977</v>
       </c>
       <c r="I6" t="n">
-        <v>1692949807</v>
+        <v>1668433262</v>
       </c>
       <c r="J6" t="n">
         <v>564.39</v>
       </c>
       <c r="K6" t="n">
-        <v>527.7</v>
+        <v>533.34</v>
       </c>
       <c r="L6" t="n">
-        <v>27.25</v>
+        <v>17.76</v>
       </c>
       <c r="M6" t="n">
-        <v>5.16442</v>
+        <v>3.32763</v>
       </c>
       <c r="N6" t="n">
-        <v>3475590089</v>
+        <v>3217948616</v>
       </c>
       <c r="O6" t="n">
-        <v>4.48587</v>
+        <v>4.15315</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1031,7 +1031,7 @@
         <v>788.84</v>
       </c>
       <c r="T6" t="n">
-        <v>-29.78346</v>
+        <v>-29.68255</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>0.0398177</v>
       </c>
       <c r="W6" t="n">
-        <v>1390986.63774</v>
+        <v>1392985.93603</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.831Z</t>
+          <t>2025-03-12T02:08:36.940Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,40 +1081,40 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>126.05</v>
+        <v>125.3</v>
       </c>
       <c r="F7" t="n">
-        <v>64204646725</v>
+        <v>63918686611</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>75126751948</v>
+        <v>74792150423</v>
       </c>
       <c r="I7" t="n">
-        <v>5225250208</v>
+        <v>5091766641</v>
       </c>
       <c r="J7" t="n">
         <v>128.13</v>
       </c>
       <c r="K7" t="n">
-        <v>117.85</v>
+        <v>119.05</v>
       </c>
       <c r="L7" t="n">
-        <v>7.88</v>
+        <v>5.31</v>
       </c>
       <c r="M7" t="n">
-        <v>6.6724</v>
+        <v>4.42569</v>
       </c>
       <c r="N7" t="n">
-        <v>3928004891</v>
+        <v>3038357289</v>
       </c>
       <c r="O7" t="n">
-        <v>6.51663</v>
+        <v>4.9907</v>
       </c>
       <c r="P7" t="n">
-        <v>509385901.6957651</v>
+        <v>509385871.7989188</v>
       </c>
       <c r="Q7" t="n">
         <v>596039542.8459522</v>
@@ -1124,7 +1124,7 @@
         <v>293.31</v>
       </c>
       <c r="T7" t="n">
-        <v>-57.03868</v>
+        <v>-57.06051</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>0.5008010000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>25061.81688</v>
+        <v>25049.03258</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.415Z</t>
+          <t>2025-03-12T02:08:36.171Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999798</v>
+        <v>0.999887</v>
       </c>
       <c r="F8" t="n">
-        <v>58048468644</v>
+        <v>58044767261</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>58050520490</v>
+        <v>58055855050</v>
       </c>
       <c r="I8" t="n">
-        <v>7734815525</v>
+        <v>13205349643</v>
       </c>
       <c r="J8" t="n">
         <v>0.999939</v>
@@ -1195,19 +1195,19 @@
         <v>0.999792</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.9990858636753e-05</v>
+        <v>4.223e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.003</v>
+        <v>0.00422</v>
       </c>
       <c r="N8" t="n">
-        <v>186737792</v>
+        <v>185622627</v>
       </c>
       <c r="O8" t="n">
-        <v>0.32273</v>
+        <v>0.32082</v>
       </c>
       <c r="P8" t="n">
-        <v>58060178265.80794</v>
+        <v>58051141519.34828</v>
       </c>
       <c r="Q8" t="n">
         <v>58062230526.09732</v>
@@ -1217,7 +1217,7 @@
         <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>-14.74434</v>
+        <v>-14.73736</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>0.877647</v>
       </c>
       <c r="W8" t="n">
-        <v>13.9181</v>
+        <v>13.92742</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:18.457Z</t>
+          <t>2025-03-12T02:08:38.723Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,37 +1267,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.739866</v>
+        <v>0.7359290000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>26615085303</v>
+        <v>26557923062</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>33308350298</v>
+        <v>33236812675</v>
       </c>
       <c r="I9" t="n">
-        <v>1592877270</v>
+        <v>1583535804</v>
       </c>
       <c r="J9" t="n">
         <v>0.743774</v>
       </c>
       <c r="K9" t="n">
-        <v>0.68634</v>
+        <v>0.691232</v>
       </c>
       <c r="L9" t="n">
-        <v>0.053527</v>
+        <v>0.04245651</v>
       </c>
       <c r="M9" t="n">
-        <v>7.79884</v>
+        <v>6.12231</v>
       </c>
       <c r="N9" t="n">
-        <v>2453722119</v>
+        <v>1786844989</v>
       </c>
       <c r="O9" t="n">
-        <v>10.15556</v>
+        <v>7.21343</v>
       </c>
       <c r="P9" t="n">
         <v>35957314844.72886</v>
@@ -1312,7 +1312,7 @@
         <v>3.09</v>
       </c>
       <c r="T9" t="n">
-        <v>-76.05406000000001</v>
+        <v>-76.00346</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>0.01925275</v>
       </c>
       <c r="W9" t="n">
-        <v>3739.40021</v>
+        <v>3747.51217</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.072Z</t>
+          <t>2025-03-12T02:08:38.370Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1362,37 +1362,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.166068</v>
+        <v>0.165533</v>
       </c>
       <c r="F10" t="n">
-        <v>24645179687</v>
+        <v>24682149109</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>24650176469</v>
+        <v>24687153387</v>
       </c>
       <c r="I10" t="n">
-        <v>2006406107</v>
+        <v>2100838645</v>
       </c>
       <c r="J10" t="n">
         <v>0.16817</v>
       </c>
       <c r="K10" t="n">
-        <v>0.151252</v>
+        <v>0.153494</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01481617</v>
+        <v>0.01158583</v>
       </c>
       <c r="M10" t="n">
-        <v>9.7957</v>
+        <v>7.52584</v>
       </c>
       <c r="N10" t="n">
-        <v>1738075323</v>
+        <v>1949826159</v>
       </c>
       <c r="O10" t="n">
-        <v>7.58749</v>
+        <v>8.57733</v>
       </c>
       <c r="P10" t="n">
         <v>148360876383.7051</v>
@@ -1405,7 +1405,7 @@
         <v>0.731578</v>
       </c>
       <c r="T10" t="n">
-        <v>-77.35324</v>
+        <v>-77.18059</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>8.69e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>190546.22269</v>
+        <v>191999.66517</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.996Z</t>
+          <t>2025-03-12T02:08:28.244Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.225728</v>
+        <v>0.224603</v>
       </c>
       <c r="F11" t="n">
-        <v>21350042472</v>
+        <v>21339777713</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>21350054550</v>
+        <v>21339808517</v>
       </c>
       <c r="I11" t="n">
-        <v>1011522035</v>
+        <v>999511490</v>
       </c>
       <c r="J11" t="n">
         <v>0.232149</v>
@@ -1476,16 +1476,16 @@
         <v>0.222626</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.002858113929936096</v>
+        <v>-0.005260558964781281</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.25034</v>
+        <v>-2.28855</v>
       </c>
       <c r="N11" t="n">
-        <v>-389206436.1918831</v>
+        <v>-415905014.4403267</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.79034</v>
+        <v>-1.91171</v>
       </c>
       <c r="P11" t="n">
         <v>95035822392.85692</v>
@@ -1498,7 +1498,7 @@
         <v>0.431288</v>
       </c>
       <c r="T11" t="n">
-        <v>-47.71287</v>
+        <v>-47.77171</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>0.00180434</v>
       </c>
       <c r="W11" t="n">
-        <v>12398.09408</v>
+        <v>12384.0289</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:23.274Z</t>
+          <t>2025-03-12T02:08:37.677Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>117.8044337309884</v>
+        <v>117.2122333379084</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>11780.44337309884</v>
+        <v>11721.22333379084</v>
       </c>
     </row>
     <row r="12">
@@ -1556,37 +1556,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1922.44</v>
+        <v>1911.18</v>
       </c>
       <c r="F12" t="n">
-        <v>17948943168</v>
+        <v>17857690083</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>17948943168</v>
+        <v>17857690083</v>
       </c>
       <c r="I12" t="n">
-        <v>156602186</v>
+        <v>154082038</v>
       </c>
       <c r="J12" t="n">
         <v>1955.28</v>
       </c>
       <c r="K12" t="n">
-        <v>1833.17</v>
+        <v>1847.04</v>
       </c>
       <c r="L12" t="n">
-        <v>89.27</v>
+        <v>55.68</v>
       </c>
       <c r="M12" t="n">
-        <v>4.86989</v>
+        <v>3.00094</v>
       </c>
       <c r="N12" t="n">
-        <v>448089870</v>
+        <v>497315561</v>
       </c>
       <c r="O12" t="n">
-        <v>2.56039</v>
+        <v>2.86466</v>
       </c>
       <c r="P12" t="n">
         <v>9342618.42618371</v>
@@ -1599,7 +1599,7 @@
         <v>4829.57</v>
       </c>
       <c r="T12" t="n">
-        <v>-60.21611</v>
+        <v>-60.35116</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>482.9</v>
       </c>
       <c r="W12" t="n">
-        <v>297.88903</v>
+        <v>296.53832</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:13.567Z</t>
+          <t>2025-03-12T02:08:34.569Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,37 +1649,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>83182</v>
+        <v>82817</v>
       </c>
       <c r="F13" t="n">
-        <v>10723861565</v>
+        <v>10694591315</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10723861565</v>
+        <v>10694591315</v>
       </c>
       <c r="I13" t="n">
-        <v>373312470</v>
+        <v>365970294</v>
       </c>
       <c r="J13" t="n">
-        <v>83216</v>
+        <v>83392</v>
       </c>
       <c r="K13" t="n">
-        <v>78432</v>
+        <v>78873</v>
       </c>
       <c r="L13" t="n">
-        <v>4698.47</v>
+        <v>3747.06</v>
       </c>
       <c r="M13" t="n">
-        <v>5.98656</v>
+        <v>4.73895</v>
       </c>
       <c r="N13" t="n">
-        <v>593240648</v>
+        <v>498045398</v>
       </c>
       <c r="O13" t="n">
-        <v>5.85592</v>
+        <v>4.88445</v>
       </c>
       <c r="P13" t="n">
         <v>129015.15757878</v>
@@ -1694,7 +1694,7 @@
         <v>108368</v>
       </c>
       <c r="T13" t="n">
-        <v>-23.4222</v>
+        <v>-23.29288</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>3139.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2543.55361</v>
+        <v>2548.01795</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.857Z</t>
+          <t>2025-03-12T02:08:38.646Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1747,16 +1747,16 @@
         <v>1.42</v>
       </c>
       <c r="F14" t="n">
-        <v>10200803473</v>
+        <v>10181933002</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>15702071985</v>
+        <v>15673460622</v>
       </c>
       <c r="I14" t="n">
-        <v>349273194</v>
+        <v>345134829</v>
       </c>
       <c r="J14" t="n">
         <v>1.43</v>
@@ -1765,19 +1765,19 @@
         <v>1.35</v>
       </c>
       <c r="L14" t="n">
-        <v>0.053382</v>
+        <v>0.04148847</v>
       </c>
       <c r="M14" t="n">
-        <v>3.90831</v>
+        <v>3.009</v>
       </c>
       <c r="N14" t="n">
-        <v>342629476</v>
+        <v>217871226</v>
       </c>
       <c r="O14" t="n">
-        <v>3.47559</v>
+        <v>2.18657</v>
       </c>
       <c r="P14" t="n">
-        <v>7192367103.768958</v>
+        <v>7173895456.657312</v>
       </c>
       <c r="Q14" t="n">
         <v>11043066962.50405</v>
@@ -1789,7 +1789,7 @@
         <v>2.99</v>
       </c>
       <c r="T14" t="n">
-        <v>-52.5418</v>
+        <v>-52.45761</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>0.615725</v>
       </c>
       <c r="W14" t="n">
-        <v>130.27605</v>
+        <v>130.68455</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.270Z</t>
+          <t>2025-03-12T02:08:32.873Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.92</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>9166206219</v>
+        <v>9123182010</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>9774154142</v>
+        <v>9728276355</v>
       </c>
       <c r="I15" t="n">
-        <v>5020467</v>
+        <v>4893937</v>
       </c>
       <c r="J15" t="n">
         <v>9.93</v>
@@ -1860,16 +1860,16 @@
         <v>9.68</v>
       </c>
       <c r="L15" t="n">
-        <v>0.16115</v>
+        <v>0.102006</v>
       </c>
       <c r="M15" t="n">
-        <v>1.65075</v>
+        <v>1.0449</v>
       </c>
       <c r="N15" t="n">
-        <v>186484289</v>
+        <v>133588911</v>
       </c>
       <c r="O15" t="n">
-        <v>2.07673</v>
+        <v>1.48604</v>
       </c>
       <c r="P15" t="n">
         <v>923958056.9</v>
@@ -1882,7 +1882,7 @@
         <v>10.14</v>
       </c>
       <c r="T15" t="n">
-        <v>-2.26089</v>
+        <v>-2.69561</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>0.799859</v>
       </c>
       <c r="W15" t="n">
-        <v>1138.46368</v>
+        <v>1132.95539</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.220Z</t>
+          <t>2025-03-12T02:08:30.345Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1932,37 +1932,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.201437</v>
+        <v>0.200031</v>
       </c>
       <c r="F16" t="n">
-        <v>8507571419</v>
+        <v>8487541415</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>10075863248</v>
+        <v>10052140898</v>
       </c>
       <c r="I16" t="n">
-        <v>565991186</v>
+        <v>569987492</v>
       </c>
       <c r="J16" t="n">
-        <v>0.202903</v>
+        <v>0.20364</v>
       </c>
       <c r="K16" t="n">
-        <v>0.184606</v>
+        <v>0.188618</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01683074</v>
+        <v>0.009982909999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>9.117089999999999</v>
+        <v>5.25282</v>
       </c>
       <c r="N16" t="n">
-        <v>479075453</v>
+        <v>531160994</v>
       </c>
       <c r="O16" t="n">
-        <v>5.96719</v>
+        <v>6.67591</v>
       </c>
       <c r="P16" t="n">
         <v>42217580818.55675</v>
@@ -1977,7 +1977,7 @@
         <v>0.569229</v>
       </c>
       <c r="T16" t="n">
-        <v>-64.69177999999999</v>
+        <v>-64.33559</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>0.009861109999999999</v>
       </c>
       <c r="W16" t="n">
-        <v>1938.15412</v>
+        <v>1958.71508</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.500Z</t>
+          <t>2025-03-12T02:08:29.633Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2027,37 +2027,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.3</v>
+        <v>13.24</v>
       </c>
       <c r="F17" t="n">
-        <v>8381939998</v>
+        <v>8453436614</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>13135778697</v>
+        <v>13247824801</v>
       </c>
       <c r="I17" t="n">
-        <v>906616846</v>
+        <v>917716091</v>
       </c>
       <c r="J17" t="n">
         <v>13.6</v>
       </c>
       <c r="K17" t="n">
-        <v>12.39</v>
+        <v>12.45</v>
       </c>
       <c r="L17" t="n">
-        <v>0.894253</v>
+        <v>0.688323</v>
       </c>
       <c r="M17" t="n">
-        <v>7.20727</v>
+        <v>5.48178</v>
       </c>
       <c r="N17" t="n">
-        <v>292912303</v>
+        <v>468162032</v>
       </c>
       <c r="O17" t="n">
-        <v>3.62111</v>
+        <v>5.86282</v>
       </c>
       <c r="P17" t="n">
         <v>638099970.4505637</v>
@@ -2072,7 +2072,7 @@
         <v>52.7</v>
       </c>
       <c r="T17" t="n">
-        <v>-74.84416</v>
+        <v>-74.62932000000001</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>0.148183</v>
       </c>
       <c r="W17" t="n">
-        <v>8845.866609999999</v>
+        <v>8922.266820000001</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.647Z</t>
+          <t>2025-03-12T02:08:33.329Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2122,19 +2122,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.999084</v>
+        <v>0.999953</v>
       </c>
       <c r="F18" t="n">
-        <v>8177607172</v>
+        <v>8183518237</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>8177607172</v>
+        <v>8183518237</v>
       </c>
       <c r="I18" t="n">
-        <v>44744650</v>
+        <v>28625186</v>
       </c>
       <c r="J18" t="n">
         <v>1.003</v>
@@ -2143,16 +2143,16 @@
         <v>0.9969749999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.000744996308661316</v>
+        <v>0.00057905</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.07451000000000001</v>
+        <v>0.05794</v>
       </c>
       <c r="N18" t="n">
-        <v>20720920</v>
+        <v>9125009</v>
       </c>
       <c r="O18" t="n">
-        <v>0.25403</v>
+        <v>0.11163</v>
       </c>
       <c r="P18" t="n">
         <v>8184792624.241108</v>
@@ -2165,7 +2165,7 @@
         <v>1.057</v>
       </c>
       <c r="T18" t="n">
-        <v>-5.44456</v>
+        <v>-5.43511</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>0.948265</v>
       </c>
       <c r="W18" t="n">
-        <v>5.42997</v>
+        <v>5.4405</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:11.633Z</t>
+          <t>2025-03-12T02:08:36.621Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2196,90 +2196,92 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>wrapped-steth</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>wsteth</t>
+          <t>xlm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/18834/large/wstETH.png?1696518295</t>
+          <t>https://coin-images.coingecko.com/coins/images/100/large/fmpFRHHQ_400x400.jpg?1735231350</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2292.62</v>
+        <v>0.259279</v>
       </c>
       <c r="F19" t="n">
-        <v>7986258092</v>
+        <v>7979993900</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>7986258092</v>
+        <v>12990885086</v>
       </c>
       <c r="I19" t="n">
-        <v>48653446</v>
+        <v>258927953</v>
       </c>
       <c r="J19" t="n">
-        <v>2339.52</v>
+        <v>0.261386</v>
       </c>
       <c r="K19" t="n">
-        <v>2185.55</v>
+        <v>0.242171</v>
       </c>
       <c r="L19" t="n">
-        <v>107.07</v>
+        <v>0.01561311</v>
       </c>
       <c r="M19" t="n">
-        <v>4.899</v>
+        <v>6.40759</v>
       </c>
       <c r="N19" t="n">
-        <v>189515228</v>
+        <v>532702272</v>
       </c>
       <c r="O19" t="n">
-        <v>2.4307</v>
+        <v>7.15297</v>
       </c>
       <c r="P19" t="n">
-        <v>3483690.584377012</v>
+        <v>30714916786.77664</v>
       </c>
       <c r="Q19" t="n">
-        <v>3483690.584377012</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
+        <v>50001786894.44301</v>
+      </c>
+      <c r="R19" t="n">
+        <v>50001786894.44301</v>
+      </c>
       <c r="S19" t="n">
-        <v>7256.02</v>
+        <v>0.875563</v>
       </c>
       <c r="T19" t="n">
-        <v>-68.39975</v>
+        <v>-70.26138</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2022-05-13T15:09:54.509Z</t>
+          <t>2018-01-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>558.54</v>
+        <v>0.00047612</v>
       </c>
       <c r="W19" t="n">
-        <v>310.52037</v>
+        <v>54587.574</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2022-05-13T01:36:45.053Z</t>
+          <t>2015-03-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:14.470Z</t>
+          <t>2025-03-12T02:08:36.972Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2289,92 +2291,90 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>wrapped-steth</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>xlm</t>
+          <t>wsteth</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/100/large/fmpFRHHQ_400x400.jpg?1735231350</t>
+          <t>https://coin-images.coingecko.com/coins/images/18834/large/wstETH.png?1696518295</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.259855</v>
+        <v>2283.55</v>
       </c>
       <c r="F20" t="n">
-        <v>7978598658</v>
+        <v>7968563035</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>12988613610</v>
+        <v>7968563035</v>
       </c>
       <c r="I20" t="n">
-        <v>260739743</v>
+        <v>47335501</v>
       </c>
       <c r="J20" t="n">
-        <v>0.261386</v>
+        <v>2339.52</v>
       </c>
       <c r="K20" t="n">
-        <v>0.23954</v>
+        <v>2202.27</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02031515</v>
+        <v>71.58</v>
       </c>
       <c r="M20" t="n">
-        <v>8.480919999999999</v>
+        <v>3.23582</v>
       </c>
       <c r="N20" t="n">
-        <v>533446376</v>
+        <v>282253479</v>
       </c>
       <c r="O20" t="n">
-        <v>7.16502</v>
+        <v>3.67216</v>
       </c>
       <c r="P20" t="n">
-        <v>30714917065.05278</v>
+        <v>3483690.584377012</v>
       </c>
       <c r="Q20" t="n">
-        <v>50001786894.44301</v>
-      </c>
-      <c r="R20" t="n">
-        <v>50001786894.44301</v>
-      </c>
+        <v>3483690.584377012</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>0.875563</v>
+        <v>7256.02</v>
       </c>
       <c r="T20" t="n">
-        <v>-70.37706</v>
+        <v>-68.4712</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2018-01-03T00:00:00.000Z</t>
+          <t>2022-05-13T15:09:54.509Z</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>0.00047612</v>
+        <v>558.54</v>
       </c>
       <c r="W20" t="n">
-        <v>54374.84242</v>
+        <v>309.59209</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2015-03-05T00:00:00.000Z</t>
+          <t>2022-05-13T01:36:45.053Z</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:10.788Z</t>
+          <t>2025-03-12T02:08:37.432Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2403,40 +2403,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.59</v>
+        <v>17.54</v>
       </c>
       <c r="F21" t="n">
-        <v>7264047145</v>
+        <v>7269014955</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>7906949265</v>
+        <v>7912355685</v>
       </c>
       <c r="I21" t="n">
-        <v>596906627</v>
+        <v>583521130</v>
       </c>
       <c r="J21" t="n">
         <v>17.88</v>
       </c>
       <c r="K21" t="n">
-        <v>15.81</v>
+        <v>16.16</v>
       </c>
       <c r="L21" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>11.242</v>
+        <v>8.50475</v>
       </c>
       <c r="N21" t="n">
-        <v>491458996</v>
+        <v>602506814</v>
       </c>
       <c r="O21" t="n">
-        <v>7.25659</v>
+        <v>9.03782</v>
       </c>
       <c r="P21" t="n">
-        <v>414322666.4053355</v>
+        <v>414322854.0709287</v>
       </c>
       <c r="Q21" t="n">
         <v>450992302.289375</v>
@@ -2448,7 +2448,7 @@
         <v>144.96</v>
       </c>
       <c r="T21" t="n">
-        <v>-87.87049</v>
+        <v>-87.83723999999999</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>2.8</v>
       </c>
       <c r="W21" t="n">
-        <v>527.72888</v>
+        <v>529.44952</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.415Z</t>
+          <t>2025-03-12T02:08:35.154Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2498,37 +2498,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="F22" t="n">
-        <v>7189047747</v>
+        <v>7186134672</v>
       </c>
       <c r="G22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>22679492653</v>
+        <v>22670302695</v>
       </c>
       <c r="I22" t="n">
-        <v>1141726481</v>
+        <v>1131668683</v>
       </c>
       <c r="J22" t="n">
         <v>2.29</v>
       </c>
       <c r="K22" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="L22" t="n">
-        <v>0.203023</v>
+        <v>0.169932</v>
       </c>
       <c r="M22" t="n">
-        <v>9.83229</v>
+        <v>8.12327</v>
       </c>
       <c r="N22" t="n">
-        <v>561165919</v>
+        <v>591898183</v>
       </c>
       <c r="O22" t="n">
-        <v>8.466749999999999</v>
+        <v>8.975989999999999</v>
       </c>
       <c r="P22" t="n">
         <v>3169845047.483887</v>
@@ -2543,7 +2543,7 @@
         <v>5.35</v>
       </c>
       <c r="T22" t="n">
-        <v>-57.58121</v>
+        <v>-57.55428</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>0.364846</v>
       </c>
       <c r="W22" t="n">
-        <v>521.6177</v>
+        <v>522.01233</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:11.559Z</t>
+          <t>2025-03-12T02:08:38.957Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2593,37 +2593,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.222e-05</v>
+        <v>1.218e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>7107059668</v>
+        <v>7184432683</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>7110116599</v>
+        <v>7187522894</v>
       </c>
       <c r="I23" t="n">
-        <v>293508033</v>
+        <v>286251471</v>
       </c>
       <c r="J23" t="n">
-        <v>1.226e-05</v>
+        <v>1.23e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.124e-05</v>
+        <v>1.136e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>9.52217e-07</v>
+        <v>7.56731e-07</v>
       </c>
       <c r="M23" t="n">
-        <v>8.44754</v>
+        <v>6.62192</v>
       </c>
       <c r="N23" t="n">
-        <v>327449405</v>
+        <v>463552786</v>
       </c>
       <c r="O23" t="n">
-        <v>4.82991</v>
+        <v>6.8972</v>
       </c>
       <c r="P23" t="n">
         <v>589253496579189.5</v>
@@ -2636,7 +2636,7 @@
         <v>8.616e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>-85.83043000000001</v>
+        <v>-85.79848</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>5.6366e-11</v>
       </c>
       <c r="W23" t="n">
-        <v>21658779.38064</v>
+        <v>21707619.60142</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:10.310Z</t>
+          <t>2025-03-12T02:08:34.586Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2686,37 +2686,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>91.2</v>
+        <v>90.64</v>
       </c>
       <c r="F24" t="n">
-        <v>6899231909</v>
+        <v>6869257221</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>6899325992</v>
+        <v>6869350896</v>
       </c>
       <c r="I24" t="n">
-        <v>778801400</v>
+        <v>782692503</v>
       </c>
       <c r="J24" t="n">
         <v>93.02</v>
       </c>
       <c r="K24" t="n">
-        <v>86.34</v>
+        <v>86.44</v>
       </c>
       <c r="L24" t="n">
-        <v>4.87</v>
+        <v>2.99</v>
       </c>
       <c r="M24" t="n">
-        <v>5.63649</v>
+        <v>3.41619</v>
       </c>
       <c r="N24" t="n">
-        <v>267817231</v>
+        <v>250981121</v>
       </c>
       <c r="O24" t="n">
-        <v>4.03861</v>
+        <v>3.79224</v>
       </c>
       <c r="P24" t="n">
         <v>75622751.98347135</v>
@@ -2731,7 +2731,7 @@
         <v>410.26</v>
       </c>
       <c r="T24" t="n">
-        <v>-77.77762</v>
+        <v>-77.77804999999999</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>7835.77229</v>
+        <v>7835.61875</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.940Z</t>
+          <t>2025-03-12T02:08:33.279Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2781,19 +2781,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>342.97</v>
+        <v>341.44</v>
       </c>
       <c r="F25" t="n">
-        <v>6799792087</v>
+        <v>6788598548</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>6799801726</v>
+        <v>6788608171</v>
       </c>
       <c r="I25" t="n">
-        <v>225153850</v>
+        <v>235353535</v>
       </c>
       <c r="J25" t="n">
         <v>348.86</v>
@@ -2802,16 +2802,16 @@
         <v>326.65</v>
       </c>
       <c r="L25" t="n">
-        <v>15.01</v>
+        <v>9.06</v>
       </c>
       <c r="M25" t="n">
-        <v>4.57538</v>
+        <v>2.72536</v>
       </c>
       <c r="N25" t="n">
-        <v>226405698</v>
+        <v>249142152</v>
       </c>
       <c r="O25" t="n">
-        <v>3.44428</v>
+        <v>3.80983</v>
       </c>
       <c r="P25" t="n">
         <v>19840878.02165078</v>
@@ -2826,7 +2826,7 @@
         <v>3785.82</v>
       </c>
       <c r="T25" t="n">
-        <v>-90.96238</v>
+        <v>-90.93495</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>76.93000000000001</v>
       </c>
       <c r="W25" t="n">
-        <v>344.7249</v>
+        <v>346.07436</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.554Z</t>
+          <t>2025-03-12T02:08:35.308Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2876,40 +2876,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="F26" t="n">
-        <v>6554367084</v>
+        <v>6590267964</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>13537693778</v>
+        <v>13611818304</v>
       </c>
       <c r="I26" t="n">
-        <v>222389325</v>
+        <v>218437559</v>
       </c>
       <c r="J26" t="n">
         <v>2.73</v>
       </c>
       <c r="K26" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="L26" t="n">
-        <v>0.221273</v>
+        <v>0.148922</v>
       </c>
       <c r="M26" t="n">
-        <v>9.03173</v>
+        <v>5.93611</v>
       </c>
       <c r="N26" t="n">
-        <v>295147271</v>
+        <v>376365106</v>
       </c>
       <c r="O26" t="n">
-        <v>4.7154</v>
+        <v>6.05682</v>
       </c>
       <c r="P26" t="n">
-        <v>2481004678.760963</v>
+        <v>2481013411.850673</v>
       </c>
       <c r="Q26" t="n">
         <v>5124390078.519703</v>
@@ -2919,7 +2919,7 @@
         <v>8.25</v>
       </c>
       <c r="T26" t="n">
-        <v>-67.63974</v>
+        <v>-67.68567</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>0.519364</v>
       </c>
       <c r="W26" t="n">
-        <v>414.2616</v>
+        <v>413.53167</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:13.454Z</t>
+          <t>2025-03-12T02:08:37.591Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2969,19 +2969,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.33</v>
+        <v>6.35</v>
       </c>
       <c r="F27" t="n">
-        <v>6159770658</v>
+        <v>6190542318</v>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" t="n">
-        <v>11435127548</v>
+        <v>11492184683</v>
       </c>
       <c r="I27" t="n">
-        <v>122188159</v>
+        <v>118444131</v>
       </c>
       <c r="J27" t="n">
         <v>6.45</v>
@@ -2990,19 +2990,19 @@
         <v>6.18</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0753518902018655</v>
+        <v>-0.09885019808075413</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.17681</v>
+        <v>-1.53342</v>
       </c>
       <c r="N27" t="n">
-        <v>19517686</v>
+        <v>-80385091.01276207</v>
       </c>
       <c r="O27" t="n">
-        <v>0.31786</v>
+        <v>-1.28187</v>
       </c>
       <c r="P27" t="n">
-        <v>975762967.0200001</v>
+        <v>975774839.0200001</v>
       </c>
       <c r="Q27" t="n">
         <v>1811438171.79</v>
@@ -3012,7 +3012,7 @@
         <v>8.99</v>
       </c>
       <c r="T27" t="n">
-        <v>-29.54109</v>
+        <v>-29.52818</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>0.01726188</v>
       </c>
       <c r="W27" t="n">
-        <v>36576.13841</v>
+        <v>36582.86001</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.806Z</t>
+          <t>2025-03-12T02:08:33.134Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3062,37 +3062,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.06</v>
+        <v>4.04</v>
       </c>
       <c r="F28" t="n">
-        <v>6159195811</v>
+        <v>6155560663</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" t="n">
-        <v>6159195811</v>
+        <v>6155560663</v>
       </c>
       <c r="I28" t="n">
-        <v>226047068</v>
+        <v>220610498</v>
       </c>
       <c r="J28" t="n">
         <v>4.12</v>
       </c>
       <c r="K28" t="n">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="L28" t="n">
-        <v>0.235049</v>
+        <v>0.15885</v>
       </c>
       <c r="M28" t="n">
-        <v>6.13874</v>
+        <v>4.0881</v>
       </c>
       <c r="N28" t="n">
-        <v>259501485</v>
+        <v>246574412</v>
       </c>
       <c r="O28" t="n">
-        <v>4.39856</v>
+        <v>4.17287</v>
       </c>
       <c r="P28" t="n">
         <v>1522267060</v>
@@ -3105,7 +3105,7 @@
         <v>54.98</v>
       </c>
       <c r="T28" t="n">
-        <v>-92.61103</v>
+        <v>-92.61111</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>2.7</v>
       </c>
       <c r="W28" t="n">
-        <v>50.60576</v>
+        <v>50.60413</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.448Z</t>
+          <t>2025-03-12T02:08:33.293Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3136,90 +3136,90 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>lombard-staked-btc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>usde</t>
+          <t>lbtc</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Lombard Staked BTC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33613/large/usde.png?1733810059</t>
+          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.999424</v>
+        <v>82948</v>
       </c>
       <c r="F29" t="n">
-        <v>5449330114</v>
+        <v>5800871914</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5449330114</v>
+        <v>5800871914</v>
       </c>
       <c r="I29" t="n">
-        <v>65192251</v>
+        <v>5290272</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>83538</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9982490000000001</v>
+        <v>78976</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00068263</v>
+        <v>3643.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06834999999999999</v>
+        <v>4.59368</v>
       </c>
       <c r="N29" t="n">
-        <v>-962178.0544843674</v>
+        <v>2238313035</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.01765</v>
+        <v>62.8288</v>
       </c>
       <c r="P29" t="n">
-        <v>5453952524.243415</v>
+        <v>69786.01320212999</v>
       </c>
       <c r="Q29" t="n">
-        <v>5453962516.742186</v>
+        <v>69786.01320212999</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1.032</v>
+        <v>114576</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.1809</v>
+        <v>-27.6082</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2023-12-20T15:38:34.596Z</t>
+          <t>2025-02-04T01:47:44.052Z</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>0.929486</v>
+        <v>52119</v>
       </c>
       <c r="W29" t="n">
-        <v>7.50593</v>
+        <v>59.14123</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>2024-10-04T07:57:15.809Z</t>
+          <t>2024-09-06T21:01:52.094Z</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.548Z</t>
+          <t>2025-03-12T02:08:31.039Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3229,90 +3229,90 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>usde</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2518/large/weth.png?1696503332</t>
+          <t>https://coin-images.coingecko.com/coins/images/33613/large/usde.png?1733810059</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1920.27</v>
+        <v>0.999406</v>
       </c>
       <c r="F30" t="n">
-        <v>5386970153</v>
+        <v>5450721130</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5389210191</v>
+        <v>5450721130</v>
       </c>
       <c r="I30" t="n">
-        <v>1331719428</v>
+        <v>65298221</v>
       </c>
       <c r="J30" t="n">
-        <v>1956.97</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1836.43</v>
+        <v>0.9982490000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>83.63</v>
+        <v>0.0006733899999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>4.55356</v>
+        <v>0.06741999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>79401998</v>
+        <v>3387419</v>
       </c>
       <c r="O30" t="n">
-        <v>1.49601</v>
+        <v>0.06218</v>
       </c>
       <c r="P30" t="n">
-        <v>2806171.770642136</v>
+        <v>5453962516.742186</v>
       </c>
       <c r="Q30" t="n">
-        <v>2807338.647686369</v>
+        <v>5453962516.742186</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>4799.89</v>
+        <v>1.032</v>
       </c>
       <c r="T30" t="n">
-        <v>-60.0169</v>
+        <v>-3.22387</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2021-11-09T00:00:00.000Z</t>
+          <t>2023-12-20T15:38:34.596Z</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>82.09999999999999</v>
+        <v>0.929486</v>
       </c>
       <c r="W30" t="n">
-        <v>2237.47433</v>
+        <v>7.45822</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.000Z</t>
+          <t>2024-10-04T07:57:15.809Z</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.251Z</t>
+          <t>2025-03-12T02:08:27.658Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3322,90 +3322,90 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>binance-bridged-usdt-bnb-smart-chain</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bsc-usd</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Binance Bridged USDT (BNB Smart Chain)</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35021/large/USDT.png?1707233575</t>
+          <t>https://coin-images.coingecko.com/coins/images/2518/large/weth.png?1696503332</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.999938</v>
+        <v>1909.36</v>
       </c>
       <c r="F31" t="n">
-        <v>5196983083</v>
+        <v>5383783900</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5196983083</v>
+        <v>5383783900</v>
       </c>
       <c r="I31" t="n">
-        <v>428161254</v>
+        <v>1056923270</v>
       </c>
       <c r="J31" t="n">
-        <v>1.009</v>
+        <v>1956.97</v>
       </c>
       <c r="K31" t="n">
-        <v>0.986435</v>
+        <v>1849.06</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01168956</v>
+        <v>49.96</v>
       </c>
       <c r="M31" t="n">
-        <v>1.18286</v>
+        <v>2.68713</v>
       </c>
       <c r="N31" t="n">
-        <v>10471163</v>
+        <v>136635550</v>
       </c>
       <c r="O31" t="n">
-        <v>0.20189</v>
+        <v>2.604</v>
       </c>
       <c r="P31" t="n">
-        <v>5184994501.618546</v>
+        <v>2807338.647686369</v>
       </c>
       <c r="Q31" t="n">
-        <v>5184994501.618546</v>
+        <v>2807338.647686369</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>1.05</v>
+        <v>4799.89</v>
       </c>
       <c r="T31" t="n">
-        <v>-4.82138</v>
+        <v>-59.94714</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2024-08-05T14:21:42.527Z</t>
+          <t>2021-11-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>0.942186</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>6.06595</v>
+        <v>2241.55261</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:39.827Z</t>
+          <t>2018-12-15T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.859Z</t>
+          <t>2025-03-12T02:08:37.682Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3415,92 +3415,90 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bitget-token</t>
+          <t>binance-bridged-usdt-bnb-smart-chain</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bgb</t>
+          <t>bsc-usd</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Binance Bridged USDT (BNB Smart Chain)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11610/large/Bitget_logo.png?1736925727</t>
+          <t>https://coin-images.coingecko.com/coins/images/35021/large/USDT.png?1707233575</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4.21</v>
+        <v>1.001</v>
       </c>
       <c r="F32" t="n">
-        <v>5045972978</v>
+        <v>5189595253</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>5045972978</v>
+        <v>5189595253</v>
       </c>
       <c r="I32" t="n">
-        <v>296838638</v>
+        <v>99520872</v>
       </c>
       <c r="J32" t="n">
-        <v>4.24</v>
+        <v>1.009</v>
       </c>
       <c r="K32" t="n">
-        <v>3.89</v>
+        <v>0.98998</v>
       </c>
       <c r="L32" t="n">
-        <v>0.283889</v>
+        <v>0.00507795</v>
       </c>
       <c r="M32" t="n">
-        <v>7.23831</v>
+        <v>0.5099399999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>345383598</v>
+        <v>25237439</v>
       </c>
       <c r="O32" t="n">
-        <v>7.34767</v>
+        <v>0.48868</v>
       </c>
       <c r="P32" t="n">
-        <v>1199999994.2</v>
+        <v>5184994501.618546</v>
       </c>
       <c r="Q32" t="n">
-        <v>1199999994.2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2000000000</v>
-      </c>
+        <v>5184994501.618546</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>8.449999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>-50.28928</v>
+        <v>-4.67598</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2024-12-27T11:41:24.992Z</t>
+          <t>2024-08-05T14:21:42.527Z</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>0.0142795</v>
+        <v>0.942186</v>
       </c>
       <c r="W32" t="n">
-        <v>29317.80989</v>
+        <v>6.22798</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2020-06-25T04:17:05.895Z</t>
+          <t>2024-12-05T22:30:39.827Z</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.725Z</t>
+          <t>2025-03-12T02:08:35.940Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3510,92 +3508,92 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>bitget-token</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hype</t>
+          <t>bgb</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/50882/large/hyperliquid.jpg?1729431300</t>
+          <t>https://coin-images.coingecko.com/coins/images/11610/large/Bitget_logo.png?1736925727</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>14.03</v>
+        <v>4.21</v>
       </c>
       <c r="F33" t="n">
-        <v>4684695609</v>
+        <v>5062790771</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>14028916618</v>
+        <v>5062790771</v>
       </c>
       <c r="I33" t="n">
-        <v>145778460</v>
+        <v>288567165</v>
       </c>
       <c r="J33" t="n">
-        <v>14.73</v>
+        <v>4.24</v>
       </c>
       <c r="K33" t="n">
-        <v>13.55</v>
+        <v>3.89</v>
       </c>
       <c r="L33" t="n">
-        <v>0.364573</v>
+        <v>0.273628</v>
       </c>
       <c r="M33" t="n">
-        <v>2.66825</v>
+        <v>6.95132</v>
       </c>
       <c r="N33" t="n">
-        <v>186282589</v>
+        <v>299990615</v>
       </c>
       <c r="O33" t="n">
-        <v>4.14107</v>
+        <v>6.29862</v>
       </c>
       <c r="P33" t="n">
-        <v>333928180</v>
+        <v>1199999994.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>999990391</v>
+        <v>1199999994.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="S33" t="n">
-        <v>34.96</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="T33" t="n">
-        <v>-59.97152</v>
+        <v>-49.96128</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2024-12-22T03:56:00.276Z</t>
+          <t>2024-12-27T11:41:24.992Z</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>3.81</v>
+        <v>0.0142795</v>
       </c>
       <c r="W33" t="n">
-        <v>267.40974</v>
+        <v>29511.91237</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2024-11-29T09:30:30.871Z</t>
+          <t>2020-06-25T04:17:05.895Z</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:31.683Z</t>
+          <t>2025-03-12T02:08:35.509Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3605,92 +3603,92 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>whitebit</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>hype</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
+          <t>https://coin-images.coingecko.com/coins/images/50882/large/hyperliquid.jpg?1729431300</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.19</v>
+        <v>14.04</v>
       </c>
       <c r="F34" t="n">
-        <v>4206783173</v>
+        <v>4686892621</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9610129150</v>
+        <v>14035495852</v>
       </c>
       <c r="I34" t="n">
-        <v>86729398</v>
+        <v>144633943</v>
       </c>
       <c r="J34" t="n">
-        <v>29.27</v>
+        <v>14.73</v>
       </c>
       <c r="K34" t="n">
-        <v>28.38</v>
+        <v>13.55</v>
       </c>
       <c r="L34" t="n">
-        <v>0.674169</v>
+        <v>0.190486</v>
       </c>
       <c r="M34" t="n">
-        <v>2.36421</v>
+        <v>1.3751</v>
       </c>
       <c r="N34" t="n">
-        <v>111688222</v>
+        <v>129317886</v>
       </c>
       <c r="O34" t="n">
-        <v>2.72737</v>
+        <v>2.83743</v>
       </c>
       <c r="P34" t="n">
-        <v>144118517.1081541</v>
+        <v>333928180</v>
       </c>
       <c r="Q34" t="n">
-        <v>329229605</v>
+        <v>999990391</v>
       </c>
       <c r="R34" t="n">
-        <v>400000000</v>
+        <v>1000000000</v>
       </c>
       <c r="S34" t="n">
-        <v>31.28</v>
+        <v>34.96</v>
       </c>
       <c r="T34" t="n">
-        <v>-6.66885</v>
+        <v>-59.86333</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2025-03-02T22:22:36.852Z</t>
+          <t>2024-12-22T03:56:00.276Z</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>3.06</v>
+        <v>3.81</v>
       </c>
       <c r="W34" t="n">
-        <v>853.38512</v>
+        <v>268.40282</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2023-02-13T19:01:21.899Z</t>
+          <t>2024-11-29T09:30:30.871Z</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:11.835Z</t>
+          <t>2025-03-12T02:08:29.987Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3700,90 +3698,92 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>weeth</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
+          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2042.14</v>
+        <v>29.04</v>
       </c>
       <c r="F35" t="n">
-        <v>3946791581</v>
+        <v>4184976251</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>3946791581</v>
+        <v>9560312622</v>
       </c>
       <c r="I35" t="n">
-        <v>46110172</v>
+        <v>98267516</v>
       </c>
       <c r="J35" t="n">
-        <v>2081.65</v>
+        <v>29.27</v>
       </c>
       <c r="K35" t="n">
-        <v>1945.15</v>
+        <v>28.38</v>
       </c>
       <c r="L35" t="n">
-        <v>97</v>
+        <v>0.523056</v>
       </c>
       <c r="M35" t="n">
-        <v>4.98666</v>
+        <v>1.83394</v>
       </c>
       <c r="N35" t="n">
-        <v>86317568</v>
+        <v>68822816</v>
       </c>
       <c r="O35" t="n">
-        <v>2.23593</v>
+        <v>1.67202</v>
       </c>
       <c r="P35" t="n">
-        <v>1932693.686265605</v>
+        <v>144118517.1081541</v>
       </c>
       <c r="Q35" t="n">
-        <v>1931037.387228365</v>
-      </c>
-      <c r="R35" t="inlineStr"/>
+        <v>329229605</v>
+      </c>
+      <c r="R35" t="n">
+        <v>400000000</v>
+      </c>
       <c r="S35" t="n">
-        <v>4311.81</v>
+        <v>31.28</v>
       </c>
       <c r="T35" t="n">
-        <v>-52.74399</v>
+        <v>-7.15265</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2024-12-06T20:32:25.758Z</t>
+          <t>2025-03-02T22:22:36.852Z</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>1889.13</v>
+        <v>3.06</v>
       </c>
       <c r="W35" t="n">
-        <v>7.85858</v>
+        <v>848.44301</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2025-03-11T00:55:51.837Z</t>
+          <t>2023-02-13T19:01:21.899Z</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:12.492Z</t>
+          <t>2025-03-12T02:08:36.637Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3793,90 +3793,90 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>wrapped-eeth</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>xmr</t>
+          <t>weeth</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/69/large/monero_logo.png?1696501460</t>
+          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>211.4</v>
+        <v>2025.42</v>
       </c>
       <c r="F36" t="n">
-        <v>3897896046</v>
+        <v>3910149892</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>3897896046</v>
+        <v>3910149892</v>
       </c>
       <c r="I36" t="n">
-        <v>58323829</v>
+        <v>43464482</v>
       </c>
       <c r="J36" t="n">
-        <v>213.2</v>
+        <v>2081.65</v>
       </c>
       <c r="K36" t="n">
-        <v>199.41</v>
+        <v>1962.19</v>
       </c>
       <c r="L36" t="n">
-        <v>9.92</v>
+        <v>51.56</v>
       </c>
       <c r="M36" t="n">
-        <v>4.92201</v>
+        <v>2.61205</v>
       </c>
       <c r="N36" t="n">
-        <v>181354445</v>
+        <v>77637548</v>
       </c>
       <c r="O36" t="n">
-        <v>4.87966</v>
+        <v>2.02576</v>
       </c>
       <c r="P36" t="n">
-        <v>18446744.07370955</v>
+        <v>1931037.387228365</v>
       </c>
       <c r="Q36" t="n">
-        <v>18446744.07370955</v>
+        <v>1931037.387228365</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>542.33</v>
+        <v>4311.81</v>
       </c>
       <c r="T36" t="n">
-        <v>-61.07085</v>
+        <v>-52.98589</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2018-01-09T00:00:00.000Z</t>
+          <t>2024-12-06T20:32:25.758Z</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>0.216177</v>
+        <v>1889.13</v>
       </c>
       <c r="W36" t="n">
-        <v>97562.13082999999</v>
+        <v>7.30645</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2015-01-14T00:00:00.000Z</t>
+          <t>2025-03-11T00:55:51.837Z</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:31.152Z</t>
+          <t>2025-03-12T02:08:37.713Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3886,90 +3886,90 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lombard-staked-btc</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lbtc</t>
+          <t>xmr</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lombard Staked BTC</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
+          <t>https://coin-images.coingecko.com/coins/images/69/large/monero_logo.png?1696501460</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>83251</v>
+        <v>210.65</v>
       </c>
       <c r="F37" t="n">
-        <v>3755516448</v>
+        <v>3892482966</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>5808507232</v>
+        <v>3892482966</v>
       </c>
       <c r="I37" t="n">
-        <v>5303013</v>
+        <v>57906098</v>
       </c>
       <c r="J37" t="n">
-        <v>83260</v>
+        <v>213.2</v>
       </c>
       <c r="K37" t="n">
-        <v>78509</v>
+        <v>199.41</v>
       </c>
       <c r="L37" t="n">
-        <v>4741.73</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>6.03969</v>
+        <v>4.48319</v>
       </c>
       <c r="N37" t="n">
-        <v>219035129</v>
+        <v>156937968</v>
       </c>
       <c r="O37" t="n">
-        <v>6.19359</v>
+        <v>4.20121</v>
       </c>
       <c r="P37" t="n">
-        <v>45120.46037559</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="Q37" t="n">
-        <v>69786.01320212999</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>114576</v>
+        <v>542.33</v>
       </c>
       <c r="T37" t="n">
-        <v>-27.4516</v>
+        <v>-61.05006</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2025-02-04T01:47:44.052Z</t>
+          <t>2018-01-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>52119</v>
+        <v>0.216177</v>
       </c>
       <c r="W37" t="n">
-        <v>59.4855</v>
+        <v>97614.28692</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2024-09-06T21:01:52.094Z</t>
+          <t>2015-01-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.113Z</t>
+          <t>2025-03-12T02:08:31.771Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -3998,19 +3998,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F38" t="n">
-        <v>3666725579</v>
+        <v>3631143653</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>6106292983</v>
+        <v>6047037480</v>
       </c>
       <c r="I38" t="n">
-        <v>260156453</v>
+        <v>257935943</v>
       </c>
       <c r="J38" t="n">
         <v>6.23</v>
@@ -4019,16 +4019,16 @@
         <v>5.72</v>
       </c>
       <c r="L38" t="n">
-        <v>0.321201</v>
+        <v>0.19868</v>
       </c>
       <c r="M38" t="n">
-        <v>5.57943</v>
+        <v>3.39764</v>
       </c>
       <c r="N38" t="n">
-        <v>118607525</v>
+        <v>124090627</v>
       </c>
       <c r="O38" t="n">
-        <v>3.34283</v>
+        <v>3.53832</v>
       </c>
       <c r="P38" t="n">
         <v>600483073.71</v>
@@ -4043,7 +4043,7 @@
         <v>44.92</v>
       </c>
       <c r="T38" t="n">
-        <v>-86.47221</v>
+        <v>-86.45818</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>1.03</v>
       </c>
       <c r="W38" t="n">
-        <v>489.84574</v>
+        <v>490.45748</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:23.330Z</t>
+          <t>2025-03-12T02:08:37.980Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4093,19 +4093,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.043</v>
+        <v>1.041</v>
       </c>
       <c r="F39" t="n">
-        <v>3399311301</v>
+        <v>3397649495</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>3399311301</v>
+        <v>3397649495</v>
       </c>
       <c r="I39" t="n">
-        <v>2488699</v>
+        <v>2469617</v>
       </c>
       <c r="J39" t="n">
         <v>1.046</v>
@@ -4114,19 +4114,19 @@
         <v>1.039</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.001840710385444089</v>
+        <v>-0.000768387274958648</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.1762</v>
+        <v>-0.07373</v>
       </c>
       <c r="N39" t="n">
-        <v>58956493</v>
+        <v>53056305</v>
       </c>
       <c r="O39" t="n">
-        <v>1.76498</v>
+        <v>1.58633</v>
       </c>
       <c r="P39" t="n">
-        <v>3261808011.296186</v>
+        <v>3261476580.167772</v>
       </c>
       <c r="Q39" t="n">
         <v>3261476580.167772</v>
@@ -4136,7 +4136,7 @@
         <v>1.088</v>
       </c>
       <c r="T39" t="n">
-        <v>-4.13451</v>
+        <v>-4.26969</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>0.961716</v>
       </c>
       <c r="W39" t="n">
-        <v>8.44515</v>
+        <v>8.29223</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:10.860Z</t>
+          <t>2025-03-12T02:08:35.999Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4186,19 +4186,19 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.999703</v>
+        <v>0.999528</v>
       </c>
       <c r="F40" t="n">
-        <v>3204819223</v>
+        <v>3205146017</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>3204819223</v>
+        <v>3205146017</v>
       </c>
       <c r="I40" t="n">
-        <v>123730498</v>
+        <v>124607839</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -4207,16 +4207,16 @@
         <v>0.999131</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00022128</v>
+        <v>0.00011755</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02214</v>
+        <v>0.01176</v>
       </c>
       <c r="N40" t="n">
-        <v>19945848</v>
+        <v>-3117416.989639282</v>
       </c>
       <c r="O40" t="n">
-        <v>0.62627</v>
+        <v>-0.09717000000000001</v>
       </c>
       <c r="P40" t="n">
         <v>3206070524.335608</v>
@@ -4229,7 +4229,7 @@
         <v>1.22</v>
       </c>
       <c r="T40" t="n">
-        <v>-17.98591</v>
+        <v>-17.99742</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>0.88196</v>
       </c>
       <c r="W40" t="n">
-        <v>13.34923</v>
+        <v>13.33333</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.300Z</t>
+          <t>2025-03-12T02:08:28.025Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4279,40 +4279,40 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.32</v>
+        <v>5.29</v>
       </c>
       <c r="F41" t="n">
-        <v>3145395378</v>
+        <v>3131852682</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>6092452813</v>
+        <v>6066212469</v>
       </c>
       <c r="I41" t="n">
-        <v>248070790</v>
+        <v>250398441</v>
       </c>
       <c r="J41" t="n">
         <v>5.64</v>
       </c>
       <c r="K41" t="n">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="L41" t="n">
-        <v>0.17631</v>
+        <v>0.092086</v>
       </c>
       <c r="M41" t="n">
-        <v>3.42452</v>
+        <v>1.77222</v>
       </c>
       <c r="N41" t="n">
-        <v>76339159</v>
+        <v>65307462</v>
       </c>
       <c r="O41" t="n">
-        <v>2.48738</v>
+        <v>2.12968</v>
       </c>
       <c r="P41" t="n">
-        <v>590565355.2042366</v>
+        <v>590566222.4000226</v>
       </c>
       <c r="Q41" t="n">
         <v>1143891666.133289</v>
@@ -4322,7 +4322,7 @@
         <v>19.92</v>
       </c>
       <c r="T41" t="n">
-        <v>-73.25808000000001</v>
+        <v>-73.36836</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>3.08</v>
       </c>
       <c r="W41" t="n">
-        <v>72.96916</v>
+        <v>72.25587</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.741Z</t>
+          <t>2025-03-12T02:08:38.282Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4372,40 +4372,40 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="F42" t="n">
-        <v>2916594453</v>
+        <v>2945980132</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>3037782834</v>
+        <v>3068068247</v>
       </c>
       <c r="I42" t="n">
-        <v>252614754</v>
+        <v>258764020</v>
       </c>
       <c r="J42" t="n">
         <v>2.55</v>
       </c>
       <c r="K42" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="L42" t="n">
-        <v>0.220984</v>
+        <v>0.179711</v>
       </c>
       <c r="M42" t="n">
-        <v>9.74207</v>
+        <v>7.83148</v>
       </c>
       <c r="N42" t="n">
-        <v>192170550</v>
+        <v>217271443</v>
       </c>
       <c r="O42" t="n">
-        <v>7.05362</v>
+        <v>7.96243</v>
       </c>
       <c r="P42" t="n">
-        <v>1190067605</v>
+        <v>1190191932</v>
       </c>
       <c r="Q42" t="n">
         <v>1239516192</v>
@@ -4415,7 +4415,7 @@
         <v>20.44</v>
       </c>
       <c r="T42" t="n">
-        <v>-87.82847</v>
+        <v>-87.83277</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>0.526762</v>
       </c>
       <c r="W42" t="n">
-        <v>372.24929</v>
+        <v>372.08236</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:21.763Z</t>
+          <t>2025-03-12T02:08:32.754Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4465,19 +4465,19 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>182.45</v>
+        <v>180.6</v>
       </c>
       <c r="F43" t="n">
-        <v>2748124194</v>
+        <v>2728433589</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>2914195706</v>
+        <v>2893311083</v>
       </c>
       <c r="I43" t="n">
-        <v>553320018</v>
+        <v>551318727</v>
       </c>
       <c r="J43" t="n">
         <v>185.3</v>
@@ -4486,19 +4486,19 @@
         <v>168.84</v>
       </c>
       <c r="L43" t="n">
-        <v>10.26</v>
+        <v>4.39</v>
       </c>
       <c r="M43" t="n">
-        <v>5.95891</v>
+        <v>2.4942</v>
       </c>
       <c r="N43" t="n">
-        <v>18683890</v>
+        <v>71668641</v>
       </c>
       <c r="O43" t="n">
-        <v>0.68453</v>
+        <v>2.69759</v>
       </c>
       <c r="P43" t="n">
-        <v>15088206.67542981</v>
+        <v>15088228.0486168</v>
       </c>
       <c r="Q43" t="n">
         <v>16000000</v>
@@ -4510,7 +4510,7 @@
         <v>661.6900000000001</v>
       </c>
       <c r="T43" t="n">
-        <v>-72.45397</v>
+        <v>-72.46055</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>26.02</v>
       </c>
       <c r="W43" t="n">
-        <v>600.4123</v>
+        <v>600.245</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.973Z</t>
+          <t>2025-03-12T02:08:33.416Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4541,92 +4541,92 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/29850/large/pepe-token.jpeg?1696528776</t>
+          <t>https://coin-images.coingecko.com/coins/images/26580/large/ONDO.png?1696525656</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.44e-06</v>
+        <v>0.858191</v>
       </c>
       <c r="F44" t="n">
-        <v>2711409735</v>
+        <v>2716947014</v>
       </c>
       <c r="G44" t="n">
         <v>44</v>
       </c>
       <c r="H44" t="n">
-        <v>2711409735</v>
+        <v>8600362568</v>
       </c>
       <c r="I44" t="n">
-        <v>975418114</v>
+        <v>295363051</v>
       </c>
       <c r="J44" t="n">
-        <v>6.49e-06</v>
+        <v>0.864517</v>
       </c>
       <c r="K44" t="n">
-        <v>5.55e-06</v>
+        <v>0.780749</v>
       </c>
       <c r="L44" t="n">
-        <v>8.9261e-07</v>
+        <v>0.075789</v>
       </c>
       <c r="M44" t="n">
-        <v>16.08238</v>
+        <v>9.6867</v>
       </c>
       <c r="N44" t="n">
-        <v>302350956</v>
+        <v>250609335</v>
       </c>
       <c r="O44" t="n">
-        <v>12.55058</v>
+        <v>10.16119</v>
       </c>
       <c r="P44" t="n">
-        <v>420690000000000</v>
+        <v>3159107529</v>
       </c>
       <c r="Q44" t="n">
-        <v>420690000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="R44" t="n">
-        <v>420690000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="S44" t="n">
-        <v>2.803e-05</v>
+        <v>2.14</v>
       </c>
       <c r="T44" t="n">
-        <v>-77.21276</v>
+        <v>-59.76831</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2024-12-09T16:30:35.828Z</t>
+          <t>2024-12-16T00:36:00.777Z</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>5.5142e-08</v>
+        <v>0.08217099999999999</v>
       </c>
       <c r="W44" t="n">
-        <v>11482.46654</v>
+        <v>947.84059</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>2023-04-18T02:14:41.591Z</t>
+          <t>2024-01-18T12:14:30.524Z</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.585Z</t>
+          <t>2025-03-12T02:08:32.263Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4636,200 +4636,200 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>etc</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/453/large/ethereum-classic-logo.png?1696501717</t>
+          <t>https://coin-images.coingecko.com/coins/images/29850/large/pepe-token.jpeg?1696528776</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>17.87</v>
+        <v>6.43e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>2701033706</v>
+        <v>2712356567</v>
       </c>
       <c r="G45" t="n">
         <v>43</v>
       </c>
       <c r="H45" t="n">
-        <v>2701043255</v>
+        <v>2712356567</v>
       </c>
       <c r="I45" t="n">
-        <v>116672455</v>
+        <v>976190441</v>
       </c>
       <c r="J45" t="n">
-        <v>18.12</v>
+        <v>6.52e-06</v>
       </c>
       <c r="K45" t="n">
-        <v>16.52</v>
+        <v>5.62e-06</v>
       </c>
       <c r="L45" t="n">
-        <v>1.33</v>
+        <v>8.05467e-07</v>
       </c>
       <c r="M45" t="n">
-        <v>8.03032</v>
+        <v>14.32101</v>
       </c>
       <c r="N45" t="n">
-        <v>151865424</v>
+        <v>364638045</v>
       </c>
       <c r="O45" t="n">
-        <v>5.95745</v>
+        <v>15.53159</v>
       </c>
       <c r="P45" t="n">
-        <v>151080453.4293964</v>
+        <v>420690000000000</v>
       </c>
       <c r="Q45" t="n">
-        <v>151080987.5093964</v>
+        <v>420690000000000</v>
       </c>
       <c r="R45" t="n">
-        <v>210700000</v>
+        <v>420690000000000</v>
       </c>
       <c r="S45" t="n">
-        <v>167.09</v>
+        <v>2.803e-05</v>
       </c>
       <c r="T45" t="n">
-        <v>-89.30779</v>
+        <v>-76.99673</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2021-05-06T18:34:22.133Z</t>
+          <t>2024-12-09T16:30:35.828Z</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>0.615038</v>
+        <v>5.5142e-08</v>
       </c>
       <c r="W45" t="n">
-        <v>2804.71742</v>
+        <v>11592.27564</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>2016-07-25T00:00:00.000Z</t>
+          <t>2023-04-18T02:14:41.591Z</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.007Z</t>
-        </is>
-      </c>
-      <c r="AA45" t="n">
-        <v>38.71771550471233</v>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC45" t="n">
-        <v>3871.771550471233</v>
-      </c>
+          <t>2025-03-12T02:08:33.217Z</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>etc</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/26580/large/ONDO.png?1696525656</t>
+          <t>https://coin-images.coingecko.com/coins/images/453/large/ethereum-classic-logo.png?1696501717</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.853756</v>
+        <v>17.76</v>
       </c>
       <c r="F46" t="n">
-        <v>2697571598</v>
+        <v>2692223263</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>8539030639</v>
+        <v>2692223263</v>
       </c>
       <c r="I46" t="n">
-        <v>220116109</v>
+        <v>114285930</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8514389999999999</v>
+        <v>18.12</v>
       </c>
       <c r="K46" t="n">
-        <v>0.767269</v>
+        <v>16.81</v>
       </c>
       <c r="L46" t="n">
-        <v>0.08648599999999999</v>
+        <v>0.949515</v>
       </c>
       <c r="M46" t="n">
-        <v>11.27198</v>
+        <v>5.64781</v>
       </c>
       <c r="N46" t="n">
-        <v>201789187</v>
+        <v>152952981</v>
       </c>
       <c r="O46" t="n">
-        <v>8.08521</v>
+        <v>6.0235</v>
       </c>
       <c r="P46" t="n">
-        <v>3159107529</v>
+        <v>151080987.5093964</v>
       </c>
       <c r="Q46" t="n">
-        <v>10000000000</v>
+        <v>151080987.5093964</v>
       </c>
       <c r="R46" t="n">
-        <v>10000000000</v>
+        <v>210700000</v>
       </c>
       <c r="S46" t="n">
-        <v>2.14</v>
+        <v>167.09</v>
       </c>
       <c r="T46" t="n">
-        <v>-60.0927</v>
+        <v>-89.30934999999999</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>2024-12-16T00:36:00.777Z</t>
+          <t>2021-05-06T18:34:22.133Z</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>0.08217099999999999</v>
+        <v>0.615038</v>
       </c>
       <c r="W46" t="n">
-        <v>939.3919100000001</v>
+        <v>2804.29488</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>2024-01-18T12:14:30.524Z</t>
+          <t>2016-07-25T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:24.600Z</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
+          <t>2025-03-12T02:08:29.150Z</t>
+        </is>
+      </c>
+      <c r="AA46" t="n">
+        <v>38.4702239276086</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>3847.02239276086</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4853,40 +4853,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.49</v>
+        <v>5.45</v>
       </c>
       <c r="F47" t="n">
-        <v>2609580581</v>
+        <v>2624989203</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>2874519255</v>
+        <v>2891492209</v>
       </c>
       <c r="I47" t="n">
-        <v>83372573</v>
+        <v>90648787</v>
       </c>
       <c r="J47" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="K47" t="n">
-        <v>5.07</v>
+        <v>5.14</v>
       </c>
       <c r="L47" t="n">
-        <v>0.416145</v>
+        <v>0.311933</v>
       </c>
       <c r="M47" t="n">
-        <v>8.20722</v>
+        <v>6.06957</v>
       </c>
       <c r="N47" t="n">
-        <v>148721971</v>
+        <v>149055620</v>
       </c>
       <c r="O47" t="n">
-        <v>6.0435</v>
+        <v>6.02018</v>
       </c>
       <c r="P47" t="n">
-        <v>481416039.2014026</v>
+        <v>481416099.425076</v>
       </c>
       <c r="Q47" t="n">
         <v>530292048.1829401</v>
@@ -4896,7 +4896,7 @@
         <v>700.65</v>
       </c>
       <c r="T47" t="n">
-        <v>-99.21865</v>
+        <v>-99.21838</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>2.87</v>
       </c>
       <c r="W47" t="n">
-        <v>91.08049</v>
+        <v>91.14748</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.901Z</t>
+          <t>2025-03-12T02:08:31.297Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4927,92 +4927,90 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>gatechain-token</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4463/large/WeChat_Image_20220118095654.png?1696505053</t>
+          <t>https://coin-images.coingecko.com/coins/images/8183/large/200X200.png?1735246724</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.19</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>2469841336</v>
+        <v>2459069484</v>
       </c>
       <c r="G48" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="n">
-        <v>9712967410</v>
+        <v>6002093544</v>
       </c>
       <c r="I48" t="n">
-        <v>26931285</v>
+        <v>33888008</v>
       </c>
       <c r="J48" t="n">
-        <v>41.96</v>
+        <v>20.17</v>
       </c>
       <c r="K48" t="n">
-        <v>38.67</v>
+        <v>18.89</v>
       </c>
       <c r="L48" t="n">
-        <v>2.52</v>
+        <v>1.048</v>
       </c>
       <c r="M48" t="n">
-        <v>6.51772</v>
+        <v>5.53268</v>
       </c>
       <c r="N48" t="n">
-        <v>26493890</v>
+        <v>138712637</v>
       </c>
       <c r="O48" t="n">
-        <v>1.08433</v>
+        <v>5.97807</v>
       </c>
       <c r="P48" t="n">
-        <v>60000000</v>
+        <v>122910587.7676574</v>
       </c>
       <c r="Q48" t="n">
-        <v>235957685.3</v>
-      </c>
-      <c r="R48" t="n">
         <v>300000000</v>
       </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>73.8</v>
+        <v>25.94</v>
       </c>
       <c r="T48" t="n">
-        <v>-44.24212</v>
+        <v>-22.87217</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2024-03-14T00:30:12.502Z</t>
+          <t>2025-01-25T03:07:37.823Z</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>0.580608</v>
+        <v>0.25754</v>
       </c>
       <c r="W48" t="n">
-        <v>6987.60143</v>
+        <v>7668.30602</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>2019-01-14T00:00:00.000Z</t>
+          <t>2020-03-13T02:18:02.481Z</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:23.204Z</t>
+          <t>2025-03-12T02:08:28.523Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5022,90 +5020,92 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>gatechain-token</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/8183/large/200X200.png?1735246724</t>
+          <t>https://coin-images.coingecko.com/coins/images/4463/large/WeChat_Image_20220118095654.png?1696505053</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.02</v>
+        <v>40.88</v>
       </c>
       <c r="F49" t="n">
-        <v>2464887237</v>
+        <v>2458444150</v>
       </c>
       <c r="G49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="n">
-        <v>6016293507</v>
+        <v>9668146518</v>
       </c>
       <c r="I49" t="n">
-        <v>34781338</v>
+        <v>26520544</v>
       </c>
       <c r="J49" t="n">
-        <v>20.17</v>
+        <v>41.96</v>
       </c>
       <c r="K49" t="n">
-        <v>18.67</v>
+        <v>39.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="M49" t="n">
-        <v>7.24291</v>
+        <v>4.29141</v>
       </c>
       <c r="N49" t="n">
-        <v>141144276</v>
+        <v>132760636</v>
       </c>
       <c r="O49" t="n">
-        <v>6.07401</v>
+        <v>5.70846</v>
       </c>
       <c r="P49" t="n">
-        <v>122910587.7676574</v>
+        <v>60000000</v>
       </c>
       <c r="Q49" t="n">
+        <v>235957685.3</v>
+      </c>
+      <c r="R49" t="n">
         <v>300000000</v>
       </c>
-      <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>25.94</v>
+        <v>73.8</v>
       </c>
       <c r="T49" t="n">
-        <v>-22.64928</v>
+        <v>-44.39108</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2025-01-25T03:07:37.823Z</t>
+          <t>2024-03-14T00:30:12.502Z</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>0.25754</v>
+        <v>0.580608</v>
       </c>
       <c r="W49" t="n">
-        <v>7690.7563</v>
+        <v>6968.66701</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>2020-03-13T02:18:02.481Z</t>
+          <t>2019-01-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.717Z</t>
+          <t>2025-03-12T02:08:31.914Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5134,37 +5134,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>83440</v>
+        <v>83051</v>
       </c>
       <c r="F50" t="n">
-        <v>2447169915</v>
+        <v>2452709541</v>
       </c>
       <c r="G50" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H50" t="n">
-        <v>2447169915</v>
+        <v>2452709541</v>
       </c>
       <c r="I50" t="n">
-        <v>385848794</v>
+        <v>382622987</v>
       </c>
       <c r="J50" t="n">
-        <v>83421</v>
+        <v>83652</v>
       </c>
       <c r="K50" t="n">
-        <v>78746</v>
+        <v>79078</v>
       </c>
       <c r="L50" t="n">
-        <v>4694.08</v>
+        <v>3794.44</v>
       </c>
       <c r="M50" t="n">
-        <v>5.96105</v>
+        <v>4.78752</v>
       </c>
       <c r="N50" t="n">
-        <v>150306468</v>
+        <v>132571875</v>
       </c>
       <c r="O50" t="n">
-        <v>6.54399</v>
+        <v>5.71397</v>
       </c>
       <c r="P50" t="n">
         <v>29522.27949505</v>
@@ -5177,7 +5177,7 @@
         <v>108953</v>
       </c>
       <c r="T50" t="n">
-        <v>-23.68474</v>
+        <v>-23.78183</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>57439</v>
       </c>
       <c r="W50" t="n">
-        <v>44.75876</v>
+        <v>44.57459</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.939Z</t>
+          <t>2025-03-12T02:08:26.621Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5227,37 +5227,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.720193</v>
+        <v>0.716652</v>
       </c>
       <c r="F51" t="n">
-        <v>2406346945</v>
+        <v>2416076265</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>4447902920</v>
+        <v>4465886641</v>
       </c>
       <c r="I51" t="n">
-        <v>85333048</v>
+        <v>85839437</v>
       </c>
       <c r="J51" t="n">
-        <v>0.720054</v>
+        <v>0.721556</v>
       </c>
       <c r="K51" t="n">
         <v>0.67818</v>
       </c>
       <c r="L51" t="n">
-        <v>0.03820085</v>
+        <v>0.03325517</v>
       </c>
       <c r="M51" t="n">
-        <v>5.60137</v>
+        <v>4.86615</v>
       </c>
       <c r="N51" t="n">
-        <v>94293788</v>
+        <v>108282505</v>
       </c>
       <c r="O51" t="n">
-        <v>4.07836</v>
+        <v>4.69204</v>
       </c>
       <c r="P51" t="n">
         <v>3364694382.83684</v>
@@ -5272,7 +5272,7 @@
         <v>1.54</v>
       </c>
       <c r="T51" t="n">
-        <v>-53.27232</v>
+        <v>-53.33327</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>0.307978</v>
       </c>
       <c r="W51" t="n">
-        <v>133.46021</v>
+        <v>133.15569</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.265Z</t>
+          <t>2025-03-12T02:08:32.062Z</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr"/>
@@ -5322,37 +5322,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>263.51</v>
+        <v>260.93</v>
       </c>
       <c r="F52" t="n">
-        <v>2228193096</v>
+        <v>2211315480</v>
       </c>
       <c r="G52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>5533829029</v>
+        <v>5491912624</v>
       </c>
       <c r="I52" t="n">
-        <v>203128263</v>
+        <v>201669917</v>
       </c>
       <c r="J52" t="n">
         <v>270</v>
       </c>
       <c r="K52" t="n">
-        <v>224.32</v>
+        <v>227.2</v>
       </c>
       <c r="L52" t="n">
-        <v>38.68</v>
+        <v>33.5</v>
       </c>
       <c r="M52" t="n">
-        <v>17.20636</v>
+        <v>14.72839</v>
       </c>
       <c r="N52" t="n">
-        <v>319363025</v>
+        <v>296689491</v>
       </c>
       <c r="O52" t="n">
-        <v>16.73083</v>
+        <v>15.49595</v>
       </c>
       <c r="P52" t="n">
         <v>8455638</v>
@@ -5367,7 +5367,7 @@
         <v>757.6</v>
       </c>
       <c r="T52" t="n">
-        <v>-65.19673</v>
+        <v>-65.48074</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>30.83</v>
       </c>
       <c r="W52" t="n">
-        <v>755.24348</v>
+        <v>748.26438</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.023Z</t>
+          <t>2025-03-12T02:08:35.206Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5417,40 +5417,40 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.080455</v>
+        <v>0.08010100000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>2201571052</v>
+        <v>2195573961</v>
       </c>
       <c r="G53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2412965012</v>
+        <v>2406387983</v>
       </c>
       <c r="I53" t="n">
-        <v>40017251</v>
+        <v>40570895</v>
       </c>
       <c r="J53" t="n">
         <v>0.08296000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0.075581</v>
+        <v>0.076733</v>
       </c>
       <c r="L53" t="n">
-        <v>0.00487403</v>
+        <v>0.00306751</v>
       </c>
       <c r="M53" t="n">
-        <v>6.44872</v>
+        <v>3.98203</v>
       </c>
       <c r="N53" t="n">
-        <v>116357167</v>
+        <v>83389129</v>
       </c>
       <c r="O53" t="n">
-        <v>5.58011</v>
+        <v>3.948</v>
       </c>
       <c r="P53" t="n">
-        <v>27371773413.34449</v>
+        <v>27371820040.87291</v>
       </c>
       <c r="Q53" t="n">
         <v>30000000000</v>
@@ -5460,7 +5460,7 @@
         <v>0.965407</v>
       </c>
       <c r="T53" t="n">
-        <v>-91.69808999999999</v>
+        <v>-91.64404</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>0.0121196</v>
       </c>
       <c r="W53" t="n">
-        <v>561.3025699999999</v>
+        <v>565.60807</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:24.779Z</t>
+          <t>2025-03-12T02:08:38.346Z</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -5510,19 +5510,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.13</v>
+        <v>26.99</v>
       </c>
       <c r="F54" t="n">
-        <v>2172022496</v>
+        <v>2160901770</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>2715163910</v>
+        <v>2701262308</v>
       </c>
       <c r="I54" t="n">
-        <v>15044054</v>
+        <v>15035959</v>
       </c>
       <c r="J54" t="n">
         <v>27.23</v>
@@ -5531,16 +5531,16 @@
         <v>26.39</v>
       </c>
       <c r="L54" t="n">
-        <v>0.222316</v>
+        <v>0.177664</v>
       </c>
       <c r="M54" t="n">
-        <v>0.82618</v>
+        <v>0.66254</v>
       </c>
       <c r="N54" t="n">
-        <v>31603626</v>
+        <v>10491807</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47652</v>
+        <v>0.4879</v>
       </c>
       <c r="P54" t="n">
         <v>79995999.05112354</v>
@@ -5555,7 +5555,7 @@
         <v>50.43</v>
       </c>
       <c r="T54" t="n">
-        <v>-46.23508</v>
+        <v>-46.33317</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>0.111255</v>
       </c>
       <c r="W54" t="n">
-        <v>24271.4394</v>
+        <v>24226.97489</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5576,11 +5576,11 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:10.992Z</t>
+          <t>2025-03-12T02:08:36.937Z</t>
         </is>
       </c>
       <c r="AA54" t="n">
-        <v>92.39429509607893</v>
+        <v>91.91994046864296</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>9239.429509607893</v>
+        <v>9191.994046864296</v>
       </c>
     </row>
     <row r="55">
@@ -5613,19 +5613,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10.61</v>
+        <v>10.56</v>
       </c>
       <c r="F55" t="n">
-        <v>2098997299</v>
+        <v>2113744483</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>10494987692</v>
+        <v>10568723618</v>
       </c>
       <c r="I55" t="n">
-        <v>771483828</v>
+        <v>774971758</v>
       </c>
       <c r="J55" t="n">
         <v>10.86</v>
@@ -5634,16 +5634,16 @@
         <v>10.01</v>
       </c>
       <c r="L55" t="n">
-        <v>0.503648</v>
+        <v>0.411037</v>
       </c>
       <c r="M55" t="n">
-        <v>4.98331</v>
+        <v>4.04817</v>
       </c>
       <c r="N55" t="n">
-        <v>41627628</v>
+        <v>83831138</v>
       </c>
       <c r="O55" t="n">
-        <v>2.02334</v>
+        <v>4.12979</v>
       </c>
       <c r="P55" t="n">
         <v>199999977.236</v>
@@ -5658,7 +5658,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="T55" t="n">
-        <v>-85.62538000000001</v>
+        <v>-85.61263</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>4.29</v>
       </c>
       <c r="W55" t="n">
-        <v>146.0074</v>
+        <v>146.22546</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5679,7 +5679,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.360Z</t>
+          <t>2025-03-12T02:08:32.113Z</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr"/>
@@ -5708,19 +5708,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.999007</v>
+        <v>0.997741</v>
       </c>
       <c r="F56" t="n">
-        <v>2084107161</v>
+        <v>2083528502</v>
       </c>
       <c r="G56" t="n">
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>2084107161</v>
+        <v>2083528502</v>
       </c>
       <c r="I56" t="n">
-        <v>7933468940</v>
+        <v>7851777016</v>
       </c>
       <c r="J56" t="n">
         <v>1.011</v>
@@ -5729,16 +5729,16 @@
         <v>0.988316</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.000416367146546692</v>
+        <v>-0.002810858437095609</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.04166</v>
+        <v>-0.28093</v>
       </c>
       <c r="N56" t="n">
-        <v>-17966929.07484841</v>
+        <v>-24582547.41704869</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.85472</v>
+        <v>-1.16609</v>
       </c>
       <c r="P56" t="n">
         <v>2087717049.930472</v>
@@ -5751,7 +5751,7 @@
         <v>1.15</v>
       </c>
       <c r="T56" t="n">
-        <v>-13.24324</v>
+        <v>-13.31834</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>0.940377</v>
       </c>
       <c r="W56" t="n">
-        <v>6.21895</v>
+        <v>6.12701</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.570Z</t>
+          <t>2025-03-12T02:08:28.799Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5801,37 +5801,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.02418142</v>
+        <v>0.02395407</v>
       </c>
       <c r="F57" t="n">
-        <v>2060055285</v>
+        <v>2062138411</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>2060055285</v>
+        <v>2062138411</v>
       </c>
       <c r="I57" t="n">
-        <v>75422958</v>
+        <v>74502020</v>
       </c>
       <c r="J57" t="n">
         <v>0.02450997</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02237991</v>
+        <v>0.02245063</v>
       </c>
       <c r="L57" t="n">
-        <v>0.00180152</v>
+        <v>0.00125786</v>
       </c>
       <c r="M57" t="n">
-        <v>8.049709999999999</v>
+        <v>5.54216</v>
       </c>
       <c r="N57" t="n">
-        <v>110586396</v>
+        <v>121704196</v>
       </c>
       <c r="O57" t="n">
-        <v>5.67264</v>
+        <v>6.27201</v>
       </c>
       <c r="P57" t="n">
         <v>85985041177</v>
@@ -5846,7 +5846,7 @@
         <v>0.280991</v>
       </c>
       <c r="T57" t="n">
-        <v>-91.41188</v>
+        <v>-91.40271</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>0.00191713</v>
       </c>
       <c r="W57" t="n">
-        <v>1158.74698</v>
+        <v>1160.09034</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5867,11 +5867,11 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:19.024Z</t>
+          <t>2025-03-12T02:08:37.111Z</t>
         </is>
       </c>
       <c r="AA57" t="n">
-        <v>3.399999371109093</v>
+        <v>3.39259455340413</v>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>339.9999371109093</v>
+        <v>339.2594553404131</v>
       </c>
     </row>
     <row r="58">
@@ -5904,37 +5904,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.390258</v>
+        <v>0.386421</v>
       </c>
       <c r="F58" t="n">
-        <v>2056633918</v>
+        <v>2042597661</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>5836147091</v>
+        <v>5796316153</v>
       </c>
       <c r="I58" t="n">
-        <v>341824128</v>
+        <v>333701108</v>
       </c>
       <c r="J58" t="n">
-        <v>0.422258</v>
+        <v>0.416827</v>
       </c>
       <c r="K58" t="n">
         <v>0.372062</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.03199965026462492</v>
+        <v>-0.03040612134764059</v>
       </c>
       <c r="M58" t="n">
-        <v>-7.57822</v>
+        <v>-7.29466</v>
       </c>
       <c r="N58" t="n">
-        <v>-135772647.102602</v>
+        <v>-174782130.4644806</v>
       </c>
       <c r="O58" t="n">
-        <v>-6.19286</v>
+        <v>-7.88237</v>
       </c>
       <c r="P58" t="n">
         <v>5285937500</v>
@@ -5947,7 +5947,7 @@
         <v>1.52</v>
       </c>
       <c r="T58" t="n">
-        <v>-74.34435000000001</v>
+        <v>-74.49547</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>0.195078</v>
       </c>
       <c r="W58" t="n">
-        <v>99.60034</v>
+        <v>98.42462999999999</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.236Z</t>
+          <t>2025-03-12T02:08:27.873Z</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr"/>
@@ -5978,92 +5978,90 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>kas</t>
+          <t>pol</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>POL (ex-MATIC)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
+          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.071549</v>
+        <v>0.215346</v>
       </c>
       <c r="F59" t="n">
-        <v>1848622489</v>
+        <v>1850904776</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>1849832171</v>
+        <v>2234739288</v>
       </c>
       <c r="I59" t="n">
-        <v>186420062</v>
+        <v>98555386</v>
       </c>
       <c r="J59" t="n">
-        <v>0.074601</v>
+        <v>0.217722</v>
       </c>
       <c r="K59" t="n">
-        <v>0.05756</v>
+        <v>0.202808</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01394562</v>
+        <v>0.01252533</v>
       </c>
       <c r="M59" t="n">
-        <v>24.20991</v>
+        <v>6.17556</v>
       </c>
       <c r="N59" t="n">
-        <v>336957664</v>
+        <v>110591267</v>
       </c>
       <c r="O59" t="n">
-        <v>22.2905</v>
+        <v>6.35467</v>
       </c>
       <c r="P59" t="n">
-        <v>25826487850.01926</v>
+        <v>8593858000.455845</v>
       </c>
       <c r="Q59" t="n">
-        <v>25843387919.2322</v>
-      </c>
-      <c r="R59" t="n">
-        <v>28704026601</v>
-      </c>
+        <v>10376023854.8978</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>0.207411</v>
+        <v>1.29</v>
       </c>
       <c r="T59" t="n">
-        <v>-65.49312</v>
+        <v>-83.25624999999999</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2024-08-01T00:40:47.164Z</t>
+          <t>2024-03-13T18:55:06.692Z</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>0.00017105</v>
+        <v>0.194083</v>
       </c>
       <c r="W59" t="n">
-        <v>41742.29573</v>
+        <v>11.07904</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>2022-05-26T14:42:59.316Z</t>
+          <t>2025-03-11T01:10:51.470Z</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.532Z</t>
+          <t>2025-03-12T02:08:33.553Z</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
@@ -6073,90 +6071,92 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>kas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>POL (ex-MATIC)</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
+          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.216343</v>
+        <v>0.070865</v>
       </c>
       <c r="F60" t="n">
-        <v>1845495761</v>
+        <v>1838495113</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>2228208814</v>
+        <v>1839698168</v>
       </c>
       <c r="I60" t="n">
-        <v>95503945</v>
+        <v>185133533</v>
       </c>
       <c r="J60" t="n">
-        <v>0.217722</v>
+        <v>0.074601</v>
       </c>
       <c r="K60" t="n">
-        <v>0.200245</v>
+        <v>0.057999</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0159032</v>
+        <v>0.01244802</v>
       </c>
       <c r="M60" t="n">
-        <v>7.93415</v>
+        <v>21.30899</v>
       </c>
       <c r="N60" t="n">
-        <v>84357471</v>
+        <v>340423391</v>
       </c>
       <c r="O60" t="n">
-        <v>4.78994</v>
+        <v>22.7241</v>
       </c>
       <c r="P60" t="n">
-        <v>8593857060.241901</v>
+        <v>25826487850.01926</v>
       </c>
       <c r="Q60" t="n">
-        <v>10376023854.8978</v>
-      </c>
-      <c r="R60" t="inlineStr"/>
+        <v>25843387919.2322</v>
+      </c>
+      <c r="R60" t="n">
+        <v>28704026601</v>
+      </c>
       <c r="S60" t="n">
-        <v>1.29</v>
+        <v>0.207411</v>
       </c>
       <c r="T60" t="n">
-        <v>-83.24298</v>
+        <v>-65.67858</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2024-03-13T18:55:06.692Z</t>
+          <t>2024-08-01T00:40:47.164Z</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>0.194083</v>
+        <v>0.00017105</v>
       </c>
       <c r="W60" t="n">
-        <v>11.16702</v>
+        <v>41517.40798</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:51.470Z</t>
+          <t>2022-05-26T14:42:59.316Z</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.497Z</t>
+          <t>2025-03-12T02:08:30.382Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6185,40 +6185,40 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F61" t="n">
-        <v>1764137476</v>
+        <v>1778766752</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>5375173656</v>
+        <v>5419450049</v>
       </c>
       <c r="I61" t="n">
-        <v>175237776</v>
+        <v>172424618</v>
       </c>
       <c r="J61" t="n">
         <v>2.8</v>
       </c>
       <c r="K61" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="L61" t="n">
-        <v>0.200429</v>
+        <v>0.151487</v>
       </c>
       <c r="M61" t="n">
-        <v>7.78259</v>
+        <v>5.79456</v>
       </c>
       <c r="N61" t="n">
-        <v>61559194</v>
+        <v>99636463</v>
       </c>
       <c r="O61" t="n">
-        <v>3.61565</v>
+        <v>5.93381</v>
       </c>
       <c r="P61" t="n">
-        <v>643146167</v>
+        <v>643181498</v>
       </c>
       <c r="Q61" t="n">
         <v>1959610498</v>
@@ -6230,7 +6230,7 @@
         <v>236.84</v>
       </c>
       <c r="T61" t="n">
-        <v>-98.82761000000001</v>
+        <v>-98.82859999999999</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>2.48</v>
       </c>
       <c r="W61" t="n">
-        <v>12.08185</v>
+        <v>11.98767</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.914Z</t>
+          <t>2025-03-12T02:08:30.815Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6280,37 +6280,37 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="F62" t="n">
-        <v>1724665819</v>
+        <v>1769626126</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>3545743462</v>
+        <v>3638177436</v>
       </c>
       <c r="I62" t="n">
-        <v>129842421</v>
+        <v>127842322</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="K62" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L62" t="n">
-        <v>0.532596</v>
+        <v>0.485523</v>
       </c>
       <c r="M62" t="n">
-        <v>19.20654</v>
+        <v>17.31611</v>
       </c>
       <c r="N62" t="n">
-        <v>218070923</v>
+        <v>263601271</v>
       </c>
       <c r="O62" t="n">
-        <v>14.47442</v>
+        <v>17.50312</v>
       </c>
       <c r="P62" t="n">
         <v>537233712.821426</v>
@@ -6323,7 +6323,7 @@
         <v>20.85</v>
       </c>
       <c r="T62" t="n">
-        <v>-84.25872</v>
+        <v>-84.20788</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>2.08</v>
       </c>
       <c r="W62" t="n">
-        <v>57.53274</v>
+        <v>58.04149</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.967Z</t>
+          <t>2025-03-12T02:08:38.514Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6354,198 +6354,198 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fasttoken</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ftn</t>
+          <t>atom</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fasttoken</t>
+          <t>Cosmos Hub</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
+          <t>https://coin-images.coingecko.com/coins/images/1481/large/cosmos_hub.png?1696502525</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F63" t="n">
-        <v>1717891587</v>
+        <v>1713907060</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>3482544517</v>
+        <v>1713907060</v>
       </c>
       <c r="I63" t="n">
-        <v>51252079</v>
+        <v>155351898</v>
       </c>
       <c r="J63" t="n">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="K63" t="n">
-        <v>3.96</v>
+        <v>3.54</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.01450848230731383</v>
+        <v>0.326813</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.36141</v>
+        <v>9.15649</v>
       </c>
       <c r="N63" t="n">
-        <v>7002888</v>
+        <v>153568802</v>
       </c>
       <c r="O63" t="n">
-        <v>0.40931</v>
+        <v>9.84202</v>
       </c>
       <c r="P63" t="n">
-        <v>429525337</v>
+        <v>439920440.15581</v>
       </c>
       <c r="Q63" t="n">
-        <v>870742437</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>439920440.15581</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>4.07</v>
+        <v>44.45</v>
       </c>
       <c r="T63" t="n">
-        <v>-1.80311</v>
+        <v>-91.1848</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2025-03-04T14:41:31.962Z</t>
+          <t>2022-01-17T00:34:41.497Z</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>0.398142</v>
+        <v>1.16</v>
       </c>
       <c r="W63" t="n">
-        <v>904.65392</v>
+        <v>237.75725</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2023-01-21T10:15:39.503Z</t>
+          <t>2020-03-13T02:27:44.591Z</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.550Z</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
+          <t>2025-03-12T02:08:30.373Z</t>
+        </is>
+      </c>
+      <c r="AA63" t="n">
+        <v>37.96013989495992</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC63" t="n">
+        <v>3796.013989495992</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>fasttoken</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>atom</t>
+          <t>ftn</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cosmos Hub</t>
+          <t>Fasttoken</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1481/large/cosmos_hub.png?1696502525</t>
+          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3.92</v>
+        <v>3.97</v>
       </c>
       <c r="F64" t="n">
-        <v>1711344539</v>
+        <v>1707128309</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1711344539</v>
+        <v>3460724982</v>
       </c>
       <c r="I64" t="n">
-        <v>158499084</v>
+        <v>50708759</v>
       </c>
       <c r="J64" t="n">
-        <v>3.98</v>
+        <v>4.03</v>
       </c>
       <c r="K64" t="n">
-        <v>3.53</v>
+        <v>3.96</v>
       </c>
       <c r="L64" t="n">
-        <v>0.381642</v>
+        <v>-0.0278380961682938</v>
       </c>
       <c r="M64" t="n">
-        <v>10.79098</v>
+        <v>-0.69654</v>
       </c>
       <c r="N64" t="n">
-        <v>133731761</v>
+        <v>-12409080.26870298</v>
       </c>
       <c r="O64" t="n">
-        <v>8.476839999999999</v>
+        <v>-0.72165</v>
       </c>
       <c r="P64" t="n">
-        <v>439907807.760177</v>
+        <v>429525337</v>
       </c>
       <c r="Q64" t="n">
-        <v>439920440.15581</v>
-      </c>
-      <c r="R64" t="inlineStr"/>
+        <v>870742437</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S64" t="n">
-        <v>44.45</v>
+        <v>4.07</v>
       </c>
       <c r="T64" t="n">
-        <v>-91.20277</v>
+        <v>-2.42166</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2022-01-17T00:34:41.497Z</t>
+          <t>2025-03-04T14:41:31.962Z</t>
         </is>
       </c>
       <c r="V64" t="n">
-        <v>1.16</v>
+        <v>0.398142</v>
       </c>
       <c r="W64" t="n">
-        <v>237.06855</v>
+        <v>898.32552</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>2020-03-13T02:27:44.591Z</t>
+          <t>2023-01-21T10:15:39.503Z</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.497Z</t>
-        </is>
-      </c>
-      <c r="AA64" t="n">
-        <v>38.18314527192966</v>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC64" t="n">
-        <v>3818.314527192966</v>
-      </c>
+          <t>2025-03-12T02:08:27.845Z</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6569,37 +6569,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.19502</v>
+        <v>0.194296</v>
       </c>
       <c r="F65" t="n">
-        <v>1655439602</v>
+        <v>1653218025</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1655448969</v>
+        <v>1653227379</v>
       </c>
       <c r="I65" t="n">
-        <v>100547251</v>
+        <v>107722043</v>
       </c>
       <c r="J65" t="n">
         <v>0.199008</v>
       </c>
       <c r="K65" t="n">
-        <v>0.183536</v>
+        <v>0.185267</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01148393</v>
+        <v>0.0080486</v>
       </c>
       <c r="M65" t="n">
-        <v>6.25703</v>
+        <v>4.32146</v>
       </c>
       <c r="N65" t="n">
-        <v>93798927</v>
+        <v>80777272</v>
       </c>
       <c r="O65" t="n">
-        <v>6.00643</v>
+        <v>5.13706</v>
       </c>
       <c r="P65" t="n">
         <v>8485256162.495728</v>
@@ -6614,7 +6614,7 @@
         <v>3.56</v>
       </c>
       <c r="T65" t="n">
-        <v>-94.52988999999999</v>
+        <v>-94.50920000000001</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>0.08751299999999999</v>
       </c>
       <c r="W65" t="n">
-        <v>122.59316</v>
+        <v>123.43528</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6635,11 +6635,11 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.659Z</t>
+          <t>2025-03-12T02:08:34.550Z</t>
         </is>
       </c>
       <c r="AA65" t="n">
-        <v>-0.91874158308626</v>
+        <v>-0.9190433564553526</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>-91.87415830862599</v>
+        <v>-91.90433564553526</v>
       </c>
     </row>
     <row r="66">
@@ -6672,37 +6672,37 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="F66" t="n">
-        <v>1548690512</v>
+        <v>1549971176</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1592843897</v>
+        <v>1594161074</v>
       </c>
       <c r="I66" t="n">
-        <v>214560762</v>
+        <v>211058297</v>
       </c>
       <c r="J66" t="n">
         <v>3.05</v>
       </c>
       <c r="K66" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="L66" t="n">
-        <v>0.297052</v>
+        <v>0.265379</v>
       </c>
       <c r="M66" t="n">
-        <v>11.02254</v>
+        <v>9.77853</v>
       </c>
       <c r="N66" t="n">
-        <v>131279806</v>
+        <v>150347317</v>
       </c>
       <c r="O66" t="n">
-        <v>9.261950000000001</v>
+        <v>10.74198</v>
       </c>
       <c r="P66" t="n">
         <v>517716590.0562826</v>
@@ -6715,7 +6715,7 @@
         <v>13.53</v>
       </c>
       <c r="T66" t="n">
-        <v>-77.91587</v>
+        <v>-77.81704000000001</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>0.03665669</v>
       </c>
       <c r="W66" t="n">
-        <v>8054.08774</v>
+        <v>8090.57865</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.902Z</t>
+          <t>2025-03-12T02:08:33.282Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6765,37 +6765,37 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.340465</v>
+        <v>0.338396</v>
       </c>
       <c r="F67" t="n">
-        <v>1492157908</v>
+        <v>1494152485</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>3376447956</v>
+        <v>3380961276</v>
       </c>
       <c r="I67" t="n">
-        <v>256705933</v>
+        <v>259956370</v>
       </c>
       <c r="J67" t="n">
         <v>0.346055</v>
       </c>
       <c r="K67" t="n">
-        <v>0.314602</v>
+        <v>0.318519</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02586321</v>
+        <v>0.01800866</v>
       </c>
       <c r="M67" t="n">
-        <v>8.220940000000001</v>
+        <v>5.6209</v>
       </c>
       <c r="N67" t="n">
-        <v>73820967</v>
+        <v>84185094</v>
       </c>
       <c r="O67" t="n">
-        <v>5.20476</v>
+        <v>5.97071</v>
       </c>
       <c r="P67" t="n">
         <v>4419312625</v>
@@ -6810,7 +6810,7 @@
         <v>2.39</v>
       </c>
       <c r="T67" t="n">
-        <v>-85.7572</v>
+        <v>-85.77249</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>0.301972</v>
       </c>
       <c r="W67" t="n">
-        <v>12.74009</v>
+        <v>12.61901</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.234Z</t>
+          <t>2025-03-12T02:08:35.053Z</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr"/>
@@ -6860,19 +6860,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.002</v>
+        <v>0.996855</v>
       </c>
       <c r="F68" t="n">
-        <v>1442381704</v>
+        <v>1435908934</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>1442381704</v>
+        <v>1435908934</v>
       </c>
       <c r="I68" t="n">
-        <v>131807587</v>
+        <v>128331276</v>
       </c>
       <c r="J68" t="n">
         <v>1.009</v>
@@ -6881,19 +6881,19 @@
         <v>0.991692</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.000181434343557996</v>
+        <v>-0.003082261803048603</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.01811</v>
+        <v>-0.30825</v>
       </c>
       <c r="N68" t="n">
-        <v>20757609</v>
+        <v>8937072</v>
       </c>
       <c r="O68" t="n">
-        <v>1.46013</v>
+        <v>0.6263</v>
       </c>
       <c r="P68" t="n">
-        <v>1440441618.398061</v>
+        <v>1440439618.496061</v>
       </c>
       <c r="Q68" t="n">
         <v>1440439618.496061</v>
@@ -6903,7 +6903,7 @@
         <v>1.16</v>
       </c>
       <c r="T68" t="n">
-        <v>-13.6411</v>
+        <v>-13.87881</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>0.938168</v>
       </c>
       <c r="W68" t="n">
-        <v>6.71952</v>
+        <v>6.42575</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:24.216Z</t>
+          <t>2025-03-12T02:08:34.013Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6953,37 +6953,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.521359</v>
+        <v>0.519896</v>
       </c>
       <c r="F69" t="n">
-        <v>1387754136</v>
+        <v>1399066465</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>3610022254</v>
+        <v>3639449482</v>
       </c>
       <c r="I69" t="n">
-        <v>94170664</v>
+        <v>100068835</v>
       </c>
       <c r="J69" t="n">
         <v>0.5243139999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>0.470336</v>
+        <v>0.475032</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04958331</v>
+        <v>0.04422518</v>
       </c>
       <c r="M69" t="n">
-        <v>10.50994</v>
+        <v>9.29743</v>
       </c>
       <c r="N69" t="n">
-        <v>86779655</v>
+        <v>118865907</v>
       </c>
       <c r="O69" t="n">
-        <v>6.67036</v>
+        <v>9.284940000000001</v>
       </c>
       <c r="P69" t="n">
         <v>2690911111.1</v>
@@ -6998,7 +6998,7 @@
         <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>-74.03001</v>
+        <v>-73.96637</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>0.454413</v>
       </c>
       <c r="W69" t="n">
-        <v>14.30203</v>
+        <v>14.5821</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.796Z</t>
+          <t>2025-03-12T02:08:30.372Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7048,37 +7048,37 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.851461</v>
+        <v>0.84793</v>
       </c>
       <c r="F70" t="n">
-        <v>1379632733</v>
+        <v>1378408553</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>3656109146</v>
+        <v>3652864997</v>
       </c>
       <c r="I70" t="n">
-        <v>201005932</v>
+        <v>197009162</v>
       </c>
       <c r="J70" t="n">
         <v>0.877673</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7733640000000001</v>
+        <v>0.790269</v>
       </c>
       <c r="L70" t="n">
-        <v>0.076122</v>
+        <v>0.056799</v>
       </c>
       <c r="M70" t="n">
-        <v>9.817909999999999</v>
+        <v>7.17951</v>
       </c>
       <c r="N70" t="n">
-        <v>78151044</v>
+        <v>106180598</v>
       </c>
       <c r="O70" t="n">
-        <v>6.00477</v>
+        <v>8.34604</v>
       </c>
       <c r="P70" t="n">
         <v>1620705846</v>
@@ -7093,7 +7093,7 @@
         <v>4.84</v>
       </c>
       <c r="T70" t="n">
-        <v>-82.42725</v>
+        <v>-82.42604</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>0.402159</v>
       </c>
       <c r="W70" t="n">
-        <v>111.67703</v>
+        <v>111.69155</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.247Z</t>
+          <t>2025-03-12T02:08:33.192Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7124,90 +7124,90 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>story-2</t>
+          <t>sonic-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.44</v>
+        <v>0.42893</v>
       </c>
       <c r="F71" t="n">
-        <v>1365555626</v>
+        <v>1369637624</v>
       </c>
       <c r="G71" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H71" t="n">
-        <v>5454793760</v>
+        <v>1369637624</v>
       </c>
       <c r="I71" t="n">
-        <v>136812441</v>
+        <v>137011130</v>
       </c>
       <c r="J71" t="n">
-        <v>5.6</v>
+        <v>0.448642</v>
       </c>
       <c r="K71" t="n">
-        <v>5.07</v>
+        <v>0.418176</v>
       </c>
       <c r="L71" t="n">
-        <v>0.276168</v>
+        <v>0.00275797</v>
       </c>
       <c r="M71" t="n">
-        <v>5.34322</v>
+        <v>0.64715</v>
       </c>
       <c r="N71" t="n">
-        <v>67110617</v>
+        <v>32335631</v>
       </c>
       <c r="O71" t="n">
-        <v>5.16854</v>
+        <v>2.41798</v>
       </c>
       <c r="P71" t="n">
-        <v>250454218.15</v>
+        <v>3175000000</v>
       </c>
       <c r="Q71" t="n">
-        <v>1000460188.52</v>
+        <v>3175000000</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>7.31</v>
+        <v>1.029</v>
       </c>
       <c r="T71" t="n">
-        <v>-26.0022</v>
+        <v>-58.28872</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2025-02-26T16:11:25.410Z</t>
+          <t>2025-01-04T21:35:44.705Z</t>
         </is>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0.359647</v>
       </c>
       <c r="W71" t="n">
-        <v>441.02626</v>
+        <v>19.39649</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>2025-02-14T03:11:08.309Z</t>
+          <t>2025-02-03T02:11:37.229Z</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:09.822Z</t>
+          <t>2025-03-12T02:08:35.714Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7217,90 +7217,90 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sonic-3</t>
+          <t>story-2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.431628</v>
+        <v>5.46</v>
       </c>
       <c r="F72" t="n">
-        <v>1358077510</v>
+        <v>1367250927</v>
       </c>
       <c r="G72" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H72" t="n">
-        <v>1358077510</v>
+        <v>5461444978</v>
       </c>
       <c r="I72" t="n">
-        <v>137925664</v>
+        <v>134937756</v>
       </c>
       <c r="J72" t="n">
-        <v>0.448642</v>
+        <v>5.6</v>
       </c>
       <c r="K72" t="n">
-        <v>0.418176</v>
+        <v>5.07</v>
       </c>
       <c r="L72" t="n">
-        <v>0.012255</v>
+        <v>0.200945</v>
       </c>
       <c r="M72" t="n">
-        <v>2.92222</v>
+        <v>3.82416</v>
       </c>
       <c r="N72" t="n">
-        <v>5808021</v>
+        <v>47808420</v>
       </c>
       <c r="O72" t="n">
-        <v>0.4295</v>
+        <v>3.62338</v>
       </c>
       <c r="P72" t="n">
-        <v>3175000000</v>
+        <v>250461210.43</v>
       </c>
       <c r="Q72" t="n">
-        <v>3175000000</v>
+        <v>1000460188.52</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>1.029</v>
+        <v>7.31</v>
       </c>
       <c r="T72" t="n">
-        <v>-58.21746</v>
+        <v>-25.30376</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2025-01-04T21:35:44.705Z</t>
+          <t>2025-02-26T16:11:25.410Z</t>
         </is>
       </c>
       <c r="V72" t="n">
-        <v>0.359647</v>
+        <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>19.60045</v>
+        <v>446.13281</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2025-02-03T02:11:37.229Z</t>
+          <t>2025-02-14T03:11:08.309Z</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:18.011Z</t>
+          <t>2025-03-12T02:08:35.600Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.02</v>
+        <v>10.97</v>
       </c>
       <c r="F73" t="n">
-        <v>1351573432</v>
+        <v>1344229037</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>1572127299</v>
+        <v>1563584422</v>
       </c>
       <c r="I73" t="n">
-        <v>140439</v>
+        <v>59324</v>
       </c>
       <c r="J73" t="n">
         <v>11.2</v>
@@ -7350,16 +7350,16 @@
         <v>10.78</v>
       </c>
       <c r="L73" t="n">
-        <v>0.00071143</v>
+        <v>-0.1052507437853585</v>
       </c>
       <c r="M73" t="n">
-        <v>0.00646</v>
+        <v>-0.95067</v>
       </c>
       <c r="N73" t="n">
-        <v>2923320</v>
+        <v>-13712587.24621344</v>
       </c>
       <c r="O73" t="n">
-        <v>0.21676</v>
+        <v>-1.00981</v>
       </c>
       <c r="P73" t="n">
         <v>122561753.8513356</v>
@@ -7372,7 +7372,7 @@
         <v>28.83</v>
       </c>
       <c r="T73" t="n">
-        <v>-61.73915</v>
+        <v>-61.94346</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>0.342863</v>
       </c>
       <c r="W73" t="n">
-        <v>3117.19119</v>
+        <v>3100.01146</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.970Z</t>
+          <t>2025-03-12T02:08:30.961Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7422,37 +7422,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>83201</v>
+        <v>83244</v>
       </c>
       <c r="F74" t="n">
-        <v>1300875151</v>
+        <v>1311724596</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1300883395</v>
+        <v>1312107162</v>
       </c>
       <c r="I74" t="n">
-        <v>5535629</v>
+        <v>5895010</v>
       </c>
       <c r="J74" t="n">
-        <v>83069</v>
+        <v>83513</v>
       </c>
       <c r="K74" t="n">
-        <v>77751</v>
+        <v>78856</v>
       </c>
       <c r="L74" t="n">
-        <v>5177.1</v>
+        <v>4388.71</v>
       </c>
       <c r="M74" t="n">
-        <v>6.63528</v>
+        <v>5.56549</v>
       </c>
       <c r="N74" t="n">
-        <v>79729904</v>
+        <v>88910198</v>
       </c>
       <c r="O74" t="n">
-        <v>6.52911</v>
+        <v>7.27095</v>
       </c>
       <c r="P74" t="n">
         <v>15757.50807531728</v>
@@ -7467,7 +7467,7 @@
         <v>108929</v>
       </c>
       <c r="T74" t="n">
-        <v>-24.09414</v>
+        <v>-23.60698</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>49058</v>
       </c>
       <c r="W74" t="n">
-        <v>68.54347</v>
+        <v>69.62517</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:09.824Z</t>
+          <t>2025-03-12T02:08:34.743Z</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr"/>
@@ -7517,37 +7517,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.484283</v>
+        <v>0.478448</v>
       </c>
       <c r="F75" t="n">
-        <v>1261117905</v>
+        <v>1253317737</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1314146092</v>
+        <v>1306017938</v>
       </c>
       <c r="I75" t="n">
-        <v>239221506</v>
+        <v>237257934</v>
       </c>
       <c r="J75" t="n">
         <v>0.49514</v>
       </c>
       <c r="K75" t="n">
-        <v>0.444707</v>
+        <v>0.44616</v>
       </c>
       <c r="L75" t="n">
-        <v>0.03957628</v>
+        <v>0.02755122</v>
       </c>
       <c r="M75" t="n">
-        <v>8.89941</v>
+        <v>6.11032</v>
       </c>
       <c r="N75" t="n">
-        <v>51366893</v>
+        <v>90165621</v>
       </c>
       <c r="O75" t="n">
-        <v>4.24607</v>
+        <v>7.75183</v>
       </c>
       <c r="P75" t="n">
         <v>2604959126.672</v>
@@ -7562,7 +7562,7 @@
         <v>3.45</v>
       </c>
       <c r="T75" t="n">
-        <v>-86.03193</v>
+        <v>-86.01747</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>0.008169589999999999</v>
       </c>
       <c r="W75" t="n">
-        <v>5805.77715</v>
+        <v>5811.88907</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7583,11 +7583,11 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.730Z</t>
+          <t>2025-03-12T02:08:30.100Z</t>
         </is>
       </c>
       <c r="AA75" t="n">
-        <v>4.585735083426481</v>
+        <v>4.518427725261972</v>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="AC75" t="n">
-        <v>458.5735083426481</v>
+        <v>451.8427725261972</v>
       </c>
     </row>
     <row r="76">
@@ -7620,19 +7620,19 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.497072</v>
+        <v>0.494928</v>
       </c>
       <c r="F76" t="n">
-        <v>1194398322</v>
+        <v>1189006101</v>
       </c>
       <c r="G76" t="n">
         <v>75</v>
       </c>
       <c r="H76" t="n">
-        <v>4976659675</v>
+        <v>4954192086</v>
       </c>
       <c r="I76" t="n">
-        <v>164890280</v>
+        <v>162886844</v>
       </c>
       <c r="J76" t="n">
         <v>0.528939</v>
@@ -7641,16 +7641,16 @@
         <v>0.480275</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.003441909370641483</v>
+        <v>-0.01312427588710108</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.68768</v>
+        <v>-2.58325</v>
       </c>
       <c r="N76" t="n">
-        <v>1045850</v>
+        <v>-14767510.71318316</v>
       </c>
       <c r="O76" t="n">
-        <v>0.08764</v>
+        <v>-1.22677</v>
       </c>
       <c r="P76" t="n">
         <v>2400000000</v>
@@ -7665,7 +7665,7 @@
         <v>1.45</v>
       </c>
       <c r="T76" t="n">
-        <v>-65.52816</v>
+        <v>-65.87996</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>0.378282</v>
       </c>
       <c r="W76" t="n">
-        <v>32.1219</v>
+        <v>30.77352</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:20.730Z</t>
+          <t>2025-03-12T02:08:31.605Z</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr"/>
@@ -7715,37 +7715,37 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1921.9</v>
+        <v>1919.87</v>
       </c>
       <c r="F77" t="n">
-        <v>1162733939</v>
+        <v>1161666666</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>1162733939</v>
+        <v>1161666666</v>
       </c>
       <c r="I77" t="n">
-        <v>51519655</v>
+        <v>51914759</v>
       </c>
       <c r="J77" t="n">
         <v>1954.33</v>
       </c>
       <c r="K77" t="n">
-        <v>1811.89</v>
+        <v>1850.86</v>
       </c>
       <c r="L77" t="n">
-        <v>110.01</v>
+        <v>67.37</v>
       </c>
       <c r="M77" t="n">
-        <v>6.07178</v>
+        <v>3.63654</v>
       </c>
       <c r="N77" t="n">
-        <v>34673689</v>
+        <v>42736439</v>
       </c>
       <c r="O77" t="n">
-        <v>3.07374</v>
+        <v>3.8194</v>
       </c>
       <c r="P77" t="n">
         <v>604999.999959841</v>
@@ -7758,7 +7758,7 @@
         <v>4098.26</v>
       </c>
       <c r="T77" t="n">
-        <v>-53.16429</v>
+        <v>-53.17647</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>1790.63</v>
       </c>
       <c r="W77" t="n">
-        <v>7.19412</v>
+        <v>7.16625</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.677Z</t>
+          <t>2025-03-12T02:08:37.255Z</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr"/>
@@ -7808,37 +7808,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>77.31</v>
+        <v>76.88</v>
       </c>
       <c r="F78" t="n">
-        <v>1123357562</v>
+        <v>1120825974</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>1128634192</v>
+        <v>1126090712</v>
       </c>
       <c r="I78" t="n">
-        <v>38878822</v>
+        <v>37242983</v>
       </c>
       <c r="J78" t="n">
-        <v>77.09</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>68.15000000000001</v>
+        <v>70.69</v>
       </c>
       <c r="L78" t="n">
-        <v>9.16</v>
+        <v>6.07</v>
       </c>
       <c r="M78" t="n">
-        <v>13.44129</v>
+        <v>8.57114</v>
       </c>
       <c r="N78" t="n">
-        <v>91242947</v>
+        <v>113783075</v>
       </c>
       <c r="O78" t="n">
-        <v>8.840389999999999</v>
+        <v>11.29873</v>
       </c>
       <c r="P78" t="n">
         <v>14544176.16409109</v>
@@ -7853,7 +7853,7 @@
         <v>427.42</v>
       </c>
       <c r="T78" t="n">
-        <v>-81.9799</v>
+        <v>-81.97221999999999</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>0.215773</v>
       </c>
       <c r="W78" t="n">
-        <v>35595.76682</v>
+        <v>35610.9879</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7874,11 +7874,11 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:31.180Z</t>
+          <t>2025-03-12T02:08:33.151Z</t>
         </is>
       </c>
       <c r="AA78" t="n">
-        <v>16.28316178826435</v>
+        <v>16.31842654364958</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>1628.316178826435</v>
+        <v>1631.842654364958</v>
       </c>
     </row>
     <row r="79">
@@ -7911,40 +7911,40 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.06945800000000001</v>
+        <v>0.069326</v>
       </c>
       <c r="F79" t="n">
-        <v>1090265543</v>
+        <v>1090301307</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>2638284529</v>
+        <v>2638370400</v>
       </c>
       <c r="I79" t="n">
-        <v>38308381</v>
+        <v>37997103</v>
       </c>
       <c r="J79" t="n">
         <v>0.070331</v>
       </c>
       <c r="K79" t="n">
-        <v>0.064566</v>
+        <v>0.064916</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00468583</v>
+        <v>0.00437161</v>
       </c>
       <c r="M79" t="n">
-        <v>7.23434</v>
+        <v>6.73032</v>
       </c>
       <c r="N79" t="n">
-        <v>36947386</v>
+        <v>72349094</v>
       </c>
       <c r="O79" t="n">
-        <v>3.50771</v>
+        <v>7.10732</v>
       </c>
       <c r="P79" t="n">
-        <v>15694232240.7</v>
+        <v>15694236242.25</v>
       </c>
       <c r="Q79" t="n">
         <v>37977766416.45</v>
@@ -7954,7 +7954,7 @@
         <v>0.192754</v>
       </c>
       <c r="T79" t="n">
-        <v>-63.96316</v>
+        <v>-63.98725</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>0.00039532</v>
       </c>
       <c r="W79" t="n">
-        <v>17471.29322</v>
+        <v>17459.54541</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7975,11 +7975,11 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:12.113Z</t>
+          <t>2025-03-12T02:08:36.893Z</t>
         </is>
       </c>
       <c r="AA79" t="n">
-        <v>3.801821960900699</v>
+        <v>3.83002950710686</v>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="AC79" t="n">
-        <v>380.18219609007</v>
+        <v>383.002950710686</v>
       </c>
     </row>
     <row r="80">
@@ -8012,37 +8012,37 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1998.46</v>
+        <v>1980.11</v>
       </c>
       <c r="F80" t="n">
-        <v>1089381604</v>
+        <v>1081049274</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>1089381604</v>
+        <v>1081049274</v>
       </c>
       <c r="I80" t="n">
-        <v>2063084</v>
+        <v>1915470</v>
       </c>
       <c r="J80" t="n">
         <v>2029.4</v>
       </c>
       <c r="K80" t="n">
-        <v>1902.13</v>
+        <v>1919.51</v>
       </c>
       <c r="L80" t="n">
-        <v>96.34</v>
+        <v>50.39</v>
       </c>
       <c r="M80" t="n">
-        <v>5.06463</v>
+        <v>2.61127</v>
       </c>
       <c r="N80" t="n">
-        <v>31339130</v>
+        <v>30243801</v>
       </c>
       <c r="O80" t="n">
-        <v>2.96199</v>
+        <v>2.87815</v>
       </c>
       <c r="P80" t="n">
         <v>546097.6478105752</v>
@@ -8055,7 +8055,7 @@
         <v>4216.2</v>
       </c>
       <c r="T80" t="n">
-        <v>-52.74992</v>
+        <v>-52.8473</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>1862.59</v>
       </c>
       <c r="W80" t="n">
-        <v>6.95618</v>
+        <v>6.73575</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.771Z</t>
+          <t>2025-03-12T02:08:29.744Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8105,37 +8105,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.04</v>
+        <v>1.033</v>
       </c>
       <c r="F81" t="n">
-        <v>1039455530</v>
+        <v>1036188966</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1039455530</v>
+        <v>1036188966</v>
       </c>
       <c r="I81" t="n">
-        <v>15856770</v>
+        <v>15826254</v>
       </c>
       <c r="J81" t="n">
         <v>1.045</v>
       </c>
       <c r="K81" t="n">
-        <v>0.947478</v>
+        <v>0.963601</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09202399999999999</v>
+        <v>0.069408</v>
       </c>
       <c r="M81" t="n">
-        <v>9.71256</v>
+        <v>7.20299</v>
       </c>
       <c r="N81" t="n">
-        <v>46518782</v>
+        <v>85651185</v>
       </c>
       <c r="O81" t="n">
-        <v>4.68497</v>
+        <v>9.010809999999999</v>
       </c>
       <c r="P81" t="n">
         <v>1000000000</v>
@@ -8150,7 +8150,7 @@
         <v>4.07</v>
       </c>
       <c r="T81" t="n">
-        <v>-74.46843</v>
+        <v>-74.47338000000001</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>0.04515276</v>
       </c>
       <c r="W81" t="n">
-        <v>2200.22885</v>
+        <v>2199.78242</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8171,11 +8171,11 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:21.620Z</t>
+          <t>2025-03-12T02:08:31.505Z</t>
         </is>
       </c>
       <c r="AA81" t="n">
-        <v>9.395019783419681</v>
+        <v>9.33008797742985</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>939.501978341968</v>
+        <v>933.0087977429851</v>
       </c>
     </row>
     <row r="82">
@@ -8208,19 +8208,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17.42</v>
+        <v>17.34</v>
       </c>
       <c r="F82" t="n">
-        <v>1004319521</v>
+        <v>990337820</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>1697286278</v>
+        <v>1673657394</v>
       </c>
       <c r="I82" t="n">
-        <v>13980054</v>
+        <v>13823545</v>
       </c>
       <c r="J82" t="n">
         <v>17.71</v>
@@ -8229,16 +8229,16 @@
         <v>17.26</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.2225726635759315</v>
+        <v>-0.2890200500532849</v>
       </c>
       <c r="M82" t="n">
-        <v>-1.26135</v>
+        <v>-1.63899</v>
       </c>
       <c r="N82" t="n">
-        <v>9495033</v>
+        <v>-17238899.64782214</v>
       </c>
       <c r="O82" t="n">
-        <v>0.95444</v>
+        <v>-1.71093</v>
       </c>
       <c r="P82" t="n">
         <v>57103774.56313077</v>
@@ -8251,7 +8251,7 @@
         <v>32.38</v>
       </c>
       <c r="T82" t="n">
-        <v>-46.16818</v>
+        <v>-46.42099</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>0.671563</v>
       </c>
       <c r="W82" t="n">
-        <v>2495.62389</v>
+        <v>2483.43417</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.457Z</t>
+          <t>2025-03-12T02:08:38.646Z</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr"/>
@@ -8301,37 +8301,37 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.997599</v>
+        <v>0.99777</v>
       </c>
       <c r="F83" t="n">
-        <v>980639541</v>
+        <v>980561847</v>
       </c>
       <c r="G83" t="n">
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>980639541</v>
+        <v>980561847</v>
       </c>
       <c r="I83" t="n">
-        <v>16454435</v>
+        <v>15835633</v>
       </c>
       <c r="J83" t="n">
         <v>0.998055</v>
       </c>
       <c r="K83" t="n">
-        <v>0.997306</v>
+        <v>0.997357</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0002929</v>
+        <v>3.706e-05</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02937</v>
+        <v>0.00371</v>
       </c>
       <c r="N83" t="n">
-        <v>-8537011.369286656</v>
+        <v>-7404002.710211873</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.86304</v>
+        <v>-0.74942</v>
       </c>
       <c r="P83" t="n">
         <v>982896807.3589927</v>
@@ -8344,7 +8344,7 @@
         <v>1.33</v>
       </c>
       <c r="T83" t="n">
-        <v>-24.75158</v>
+        <v>-24.73634</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>0.976415</v>
       </c>
       <c r="W83" t="n">
-        <v>2.16644</v>
+        <v>2.18713</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:11.736Z</t>
+          <t>2025-03-12T02:08:36.483Z</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr"/>
@@ -8375,92 +8375,90 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>rocket-pool-eth</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mkr</t>
+          <t>reth</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Rocket Pool ETH</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1364/large/Mark_Maker.png?1696502423</t>
+          <t>https://coin-images.coingecko.com/coins/images/20764/large/reth.png?1696520159</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1112.9</v>
+        <v>2149.82</v>
       </c>
       <c r="F84" t="n">
-        <v>967455022</v>
+        <v>954175561</v>
       </c>
       <c r="G84" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H84" t="n">
-        <v>997247774</v>
+        <v>954175561</v>
       </c>
       <c r="I84" t="n">
-        <v>106460675</v>
+        <v>15986426</v>
       </c>
       <c r="J84" t="n">
-        <v>1173.37</v>
+        <v>2199.53</v>
       </c>
       <c r="K84" t="n">
-        <v>1092.81</v>
+        <v>2076.88</v>
       </c>
       <c r="L84" t="n">
-        <v>15.74</v>
+        <v>66.58</v>
       </c>
       <c r="M84" t="n">
-        <v>1.43492</v>
+        <v>3.19581</v>
       </c>
       <c r="N84" t="n">
-        <v>17820044</v>
+        <v>33362706</v>
       </c>
       <c r="O84" t="n">
-        <v>1.87652</v>
+        <v>3.62318</v>
       </c>
       <c r="P84" t="n">
-        <v>852068.6773188914</v>
+        <v>442543.8445416944</v>
       </c>
       <c r="Q84" t="n">
-        <v>878313.8273095463</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1005577</v>
-      </c>
+        <v>442543.8445416944</v>
+      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>6292.31</v>
+        <v>4814.31</v>
       </c>
       <c r="T84" t="n">
-        <v>-82.32470000000001</v>
+        <v>-55.21015</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2021-05-03T21:54:29.333Z</t>
+          <t>2021-12-01T08:03:50.749Z</t>
         </is>
       </c>
       <c r="V84" t="n">
-        <v>168.36</v>
+        <v>887.26</v>
       </c>
       <c r="W84" t="n">
-        <v>560.60896</v>
+        <v>143.03066</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2020-03-16T20:52:36.527Z</t>
+          <t>2022-06-18T20:55:45.957Z</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.070Z</t>
+          <t>2025-03-12T02:08:33.759Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8470,90 +8468,92 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rocket-pool-eth</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>reth</t>
+          <t>mkr</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rocket Pool ETH</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/20764/large/reth.png?1696520159</t>
+          <t>https://coin-images.coingecko.com/coins/images/1364/large/Mark_Maker.png?1696502423</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2160.38</v>
+        <v>1119.09</v>
       </c>
       <c r="F85" t="n">
-        <v>954846764</v>
+        <v>953049782</v>
       </c>
       <c r="G85" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H85" t="n">
-        <v>954674728</v>
+        <v>982404343</v>
       </c>
       <c r="I85" t="n">
-        <v>17048240</v>
+        <v>105927268</v>
       </c>
       <c r="J85" t="n">
-        <v>2199.53</v>
+        <v>1173.37</v>
       </c>
       <c r="K85" t="n">
-        <v>2059.95</v>
+        <v>1108.76</v>
       </c>
       <c r="L85" t="n">
-        <v>100.43</v>
+        <v>5.4</v>
       </c>
       <c r="M85" t="n">
-        <v>4.87549</v>
+        <v>0.4848</v>
       </c>
       <c r="N85" t="n">
-        <v>21822659</v>
+        <v>10504625</v>
       </c>
       <c r="O85" t="n">
-        <v>2.33892</v>
+        <v>1.1145</v>
       </c>
       <c r="P85" t="n">
-        <v>442623.5923279577</v>
+        <v>852069.524545112</v>
       </c>
       <c r="Q85" t="n">
-        <v>442543.8445416944</v>
-      </c>
-      <c r="R85" t="inlineStr"/>
+        <v>878313.8273095463</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1005577</v>
+      </c>
       <c r="S85" t="n">
-        <v>4814.31</v>
+        <v>6292.31</v>
       </c>
       <c r="T85" t="n">
-        <v>-55.19101</v>
+        <v>-82.15655</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2021-12-01T08:03:50.749Z</t>
+          <t>2021-05-03T21:54:29.333Z</t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>887.26</v>
+        <v>168.36</v>
       </c>
       <c r="W85" t="n">
-        <v>143.13453</v>
+        <v>566.89377</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2022-06-18T20:55:45.957Z</t>
+          <t>2020-03-16T20:52:36.527Z</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:30.452Z</t>
+          <t>2025-03-12T02:08:33.265Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8563,198 +8563,198 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>flare-networks</t>
+          <t>blockstack</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>flr</t>
+          <t>stx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28624/large/FLR-icon200x200.png?1696527609</t>
+          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01534063</v>
+        <v>0.612615</v>
       </c>
       <c r="F86" t="n">
-        <v>935221317</v>
+        <v>929272238</v>
       </c>
       <c r="G86" t="n">
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>1582044678</v>
+        <v>929272238</v>
       </c>
       <c r="I86" t="n">
-        <v>11594198</v>
+        <v>37026493</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01571767</v>
+        <v>0.627834</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01401096</v>
+        <v>0.575622</v>
       </c>
       <c r="L86" t="n">
-        <v>0.00128268</v>
+        <v>0.0312715</v>
       </c>
       <c r="M86" t="n">
-        <v>9.124230000000001</v>
+        <v>5.37918</v>
       </c>
       <c r="N86" t="n">
-        <v>70104771</v>
+        <v>54891729</v>
       </c>
       <c r="O86" t="n">
-        <v>8.10351</v>
+        <v>6.27779</v>
       </c>
       <c r="P86" t="n">
-        <v>60963544653.43787</v>
+        <v>1516530202.76344</v>
       </c>
       <c r="Q86" t="n">
-        <v>103127516074.4421</v>
-      </c>
-      <c r="R86" t="inlineStr"/>
+        <v>1516530202.76344</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1818000000</v>
+      </c>
       <c r="S86" t="n">
-        <v>0.150073</v>
+        <v>3.86</v>
       </c>
       <c r="T86" t="n">
-        <v>-89.69098</v>
+        <v>-84.03395999999999</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2023-01-10T03:14:05.921Z</t>
+          <t>2024-04-01T12:34:58.342Z</t>
         </is>
       </c>
       <c r="V86" t="n">
-        <v>0.00827405</v>
+        <v>0.04559639</v>
       </c>
       <c r="W86" t="n">
-        <v>86.98271</v>
+        <v>1253.13141</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2023-10-19T03:35:41.663Z</t>
+          <t>2020-03-13T02:29:26.415Z</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.007Z</t>
-        </is>
-      </c>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
+          <t>2025-03-12T02:08:35.244Z</t>
+        </is>
+      </c>
+      <c r="AA86" t="n">
+        <v>4.105122244792208</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
+        <v>410.5122244792208</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>blockstack</t>
+          <t>flare-networks</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>stx</t>
+          <t>flr</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
+          <t>https://coin-images.coingecko.com/coins/images/28624/large/FLR-icon200x200.png?1696527609</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.6168940000000001</v>
+        <v>0.01510518</v>
       </c>
       <c r="F87" t="n">
-        <v>934035049</v>
+        <v>920747704</v>
       </c>
       <c r="G87" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="n">
-        <v>934035049</v>
+        <v>1557560739</v>
       </c>
       <c r="I87" t="n">
-        <v>38388059</v>
+        <v>11973776</v>
       </c>
       <c r="J87" t="n">
-        <v>0.627834</v>
+        <v>0.01571767</v>
       </c>
       <c r="K87" t="n">
-        <v>0.566415</v>
+        <v>0.0141298</v>
       </c>
       <c r="L87" t="n">
-        <v>0.050479</v>
+        <v>0.00097538</v>
       </c>
       <c r="M87" t="n">
-        <v>8.91194</v>
+        <v>6.90302</v>
       </c>
       <c r="N87" t="n">
-        <v>45993612</v>
+        <v>60177497</v>
       </c>
       <c r="O87" t="n">
-        <v>5.17922</v>
+        <v>6.99275</v>
       </c>
       <c r="P87" t="n">
-        <v>1516512217.19676</v>
+        <v>60963544653.43787</v>
       </c>
       <c r="Q87" t="n">
-        <v>1516530202.76344</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1818000000</v>
-      </c>
+        <v>103127516074.4421</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>3.86</v>
+        <v>0.150073</v>
       </c>
       <c r="T87" t="n">
-        <v>-84.05618</v>
+        <v>-89.93210000000001</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2024-04-01T12:34:58.342Z</t>
+          <t>2023-01-10T03:14:05.921Z</t>
         </is>
       </c>
       <c r="V87" t="n">
-        <v>0.04559639</v>
+        <v>0.00827405</v>
       </c>
       <c r="W87" t="n">
-        <v>1251.2488</v>
+        <v>82.60942</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2020-03-13T02:29:26.415Z</t>
+          <t>2023-10-19T03:35:41.663Z</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.659Z</t>
-        </is>
-      </c>
-      <c r="AA87" t="n">
-        <v>4.140779190590007</v>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC87" t="n">
-        <v>414.0779190590007</v>
-      </c>
+          <t>2025-03-12T02:08:36.169Z</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8778,37 +8778,37 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.522702</v>
+        <v>0.518519</v>
       </c>
       <c r="F88" t="n">
-        <v>917476345</v>
+        <v>916929906</v>
       </c>
       <c r="G88" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88" t="n">
-        <v>1037682795</v>
+        <v>1037064762</v>
       </c>
       <c r="I88" t="n">
-        <v>41492345</v>
+        <v>41557277</v>
       </c>
       <c r="J88" t="n">
         <v>0.533377</v>
       </c>
       <c r="K88" t="n">
-        <v>0.476121</v>
+        <v>0.482557</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04630703</v>
+        <v>0.03538472</v>
       </c>
       <c r="M88" t="n">
-        <v>9.7203</v>
+        <v>7.324</v>
       </c>
       <c r="N88" t="n">
-        <v>49226880</v>
+        <v>65665127</v>
       </c>
       <c r="O88" t="n">
-        <v>5.66967</v>
+        <v>7.71383</v>
       </c>
       <c r="P88" t="n">
         <v>1768317543.389814</v>
@@ -8823,7 +8823,7 @@
         <v>9.52</v>
       </c>
       <c r="T88" t="n">
-        <v>-94.51626</v>
+        <v>-94.52043</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>0.378055</v>
       </c>
       <c r="W88" t="n">
-        <v>38.08802</v>
+        <v>37.98318</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:31.460Z</t>
+          <t>2025-03-12T02:08:29.805Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8873,37 +8873,37 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.193461</v>
+        <v>0.192983</v>
       </c>
       <c r="F89" t="n">
-        <v>901047774</v>
+        <v>900330250</v>
       </c>
       <c r="G89" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H89" t="n">
-        <v>1934616799</v>
+        <v>1933076222</v>
       </c>
       <c r="I89" t="n">
-        <v>94665439</v>
+        <v>93538254</v>
       </c>
       <c r="J89" t="n">
         <v>0.197606</v>
       </c>
       <c r="K89" t="n">
-        <v>0.17881</v>
+        <v>0.181617</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01355006</v>
+        <v>0.01136597</v>
       </c>
       <c r="M89" t="n">
-        <v>7.53156</v>
+        <v>6.25822</v>
       </c>
       <c r="N89" t="n">
-        <v>51066797</v>
+        <v>58897142</v>
       </c>
       <c r="O89" t="n">
-        <v>6.00799</v>
+        <v>6.99962</v>
       </c>
       <c r="P89" t="n">
         <v>4657499999</v>
@@ -8916,7 +8916,7 @@
         <v>1.14</v>
       </c>
       <c r="T89" t="n">
-        <v>-83.02558999999999</v>
+        <v>-83.03891</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>0.095364</v>
       </c>
       <c r="W89" t="n">
-        <v>102.86578</v>
+        <v>102.70653</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:19.429Z</t>
+          <t>2025-03-12T02:08:37.390Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8966,37 +8966,37 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>9.27</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>890362698</v>
+        <v>899398270</v>
       </c>
       <c r="G90" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H90" t="n">
-        <v>911069296</v>
+        <v>920315002</v>
       </c>
       <c r="I90" t="n">
-        <v>155928563</v>
+        <v>156349790</v>
       </c>
       <c r="J90" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>8.49</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="L90" t="n">
-        <v>0.739209</v>
+        <v>0.489189</v>
       </c>
       <c r="M90" t="n">
-        <v>8.66431</v>
+        <v>5.6156</v>
       </c>
       <c r="N90" t="n">
-        <v>29263274</v>
+        <v>53580531</v>
       </c>
       <c r="O90" t="n">
-        <v>3.39836</v>
+        <v>6.33476</v>
       </c>
       <c r="P90" t="n">
         <v>97727220.33</v>
@@ -9009,7 +9009,7 @@
         <v>52.62</v>
       </c>
       <c r="T90" t="n">
-        <v>-82.40839</v>
+        <v>-82.42514</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>0.657401</v>
       </c>
       <c r="W90" t="n">
-        <v>1308.09415</v>
+        <v>1306.75356</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:25.699Z</t>
+          <t>2025-03-12T02:08:30.985Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9059,40 +9059,40 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.805246</v>
+        <v>0.802076</v>
       </c>
       <c r="F91" t="n">
-        <v>875372261</v>
+        <v>882607582</v>
       </c>
       <c r="G91" t="n">
         <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>7977396615</v>
+        <v>8046183833</v>
       </c>
       <c r="I91" t="n">
-        <v>199881890</v>
+        <v>204920818</v>
       </c>
       <c r="J91" t="n">
         <v>0.827229</v>
       </c>
       <c r="K91" t="n">
-        <v>0.738421</v>
+        <v>0.758086</v>
       </c>
       <c r="L91" t="n">
-        <v>0.066825</v>
+        <v>0.04399024</v>
       </c>
       <c r="M91" t="n">
-        <v>9.04978</v>
+        <v>5.80281</v>
       </c>
       <c r="N91" t="n">
-        <v>45197828</v>
+        <v>55025758</v>
       </c>
       <c r="O91" t="n">
-        <v>5.44438</v>
+        <v>6.64898</v>
       </c>
       <c r="P91" t="n">
-        <v>1097315707.37486</v>
+        <v>1096926941.258963</v>
       </c>
       <c r="Q91" t="n">
         <v>10000000000</v>
@@ -9104,7 +9104,7 @@
         <v>11.74</v>
       </c>
       <c r="T91" t="n">
-        <v>-93.15804</v>
+        <v>-93.14667</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>0.708589</v>
       </c>
       <c r="W91" t="n">
-        <v>13.36454</v>
+        <v>13.55283</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.794Z</t>
+          <t>2025-03-12T02:08:37.451Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9135,288 +9135,288 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>theta-token</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>grt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2538/large/theta-token-logo.png?1696503349</t>
+          <t>https://coin-images.coingecko.com/coins/images/13397/large/Graph_Token.png?1696513159</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.8670639999999999</v>
+        <v>0.090999</v>
       </c>
       <c r="F92" t="n">
-        <v>866388082</v>
+        <v>869158722</v>
       </c>
       <c r="G92" t="n">
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>866388082</v>
+        <v>981982208</v>
       </c>
       <c r="I92" t="n">
-        <v>32717895</v>
+        <v>50778965</v>
       </c>
       <c r="J92" t="n">
-        <v>0.8764380000000001</v>
+        <v>0.092988</v>
       </c>
       <c r="K92" t="n">
-        <v>0.79486</v>
+        <v>0.08445</v>
       </c>
       <c r="L92" t="n">
-        <v>0.072204</v>
+        <v>0.00643454</v>
       </c>
       <c r="M92" t="n">
-        <v>9.083880000000001</v>
+        <v>7.60905</v>
       </c>
       <c r="N92" t="n">
-        <v>48869324</v>
+        <v>60894463</v>
       </c>
       <c r="O92" t="n">
-        <v>5.97776</v>
+        <v>7.53398</v>
       </c>
       <c r="P92" t="n">
-        <v>1000000000</v>
+        <v>9548531509.16547</v>
       </c>
       <c r="Q92" t="n">
-        <v>1000000000</v>
+        <v>10788004319</v>
       </c>
       <c r="R92" t="n">
-        <v>1000000000</v>
+        <v>10788004319</v>
       </c>
       <c r="S92" t="n">
-        <v>15.72</v>
+        <v>2.84</v>
       </c>
       <c r="T92" t="n">
-        <v>-94.50087000000001</v>
+        <v>-96.77955</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2021-04-16T13:15:11.190Z</t>
+          <t>2021-02-12T07:28:45.775Z</t>
         </is>
       </c>
       <c r="V92" t="n">
-        <v>0.04039979</v>
+        <v>0.052051</v>
       </c>
       <c r="W92" t="n">
-        <v>2039.73219</v>
+        <v>75.80695</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2020-03-13T02:24:16.483Z</t>
+          <t>2022-11-22T10:05:03.503Z</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:11.459Z</t>
-        </is>
-      </c>
-      <c r="AA92" t="n">
-        <v>4.780427726918028</v>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC92" t="n">
-        <v>478.0427726918027</v>
-      </c>
+          <t>2025-03-12T02:08:37.043Z</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>theta-token</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>grt</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/13397/large/Graph_Token.png?1696513159</t>
+          <t>https://coin-images.coingecko.com/coins/images/2538/large/theta-token-logo.png?1696503349</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.09159200000000001</v>
+        <v>0.864114</v>
       </c>
       <c r="F93" t="n">
-        <v>864000405</v>
+        <v>867713164</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>976154301</v>
+        <v>867713164</v>
       </c>
       <c r="I93" t="n">
-        <v>49678668</v>
+        <v>31974138</v>
       </c>
       <c r="J93" t="n">
-        <v>0.092988</v>
+        <v>0.8764380000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>0.08329</v>
+        <v>0.807236</v>
       </c>
       <c r="L93" t="n">
-        <v>0.00825029</v>
+        <v>0.053777</v>
       </c>
       <c r="M93" t="n">
-        <v>9.89931</v>
+        <v>6.63641</v>
       </c>
       <c r="N93" t="n">
-        <v>54554601</v>
+        <v>66353175</v>
       </c>
       <c r="O93" t="n">
-        <v>6.73975</v>
+        <v>8.28007</v>
       </c>
       <c r="P93" t="n">
-        <v>9548531509.16547</v>
+        <v>1000000000</v>
       </c>
       <c r="Q93" t="n">
-        <v>10788004319</v>
+        <v>1000000000</v>
       </c>
       <c r="R93" t="n">
-        <v>10788004319</v>
+        <v>1000000000</v>
       </c>
       <c r="S93" t="n">
-        <v>2.84</v>
+        <v>15.72</v>
       </c>
       <c r="T93" t="n">
-        <v>-96.78018</v>
+        <v>-94.46588</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>2021-02-12T07:28:45.775Z</t>
+          <t>2021-04-16T13:15:11.190Z</t>
         </is>
       </c>
       <c r="V93" t="n">
-        <v>0.052051</v>
+        <v>0.04039979</v>
       </c>
       <c r="W93" t="n">
-        <v>75.77218000000001</v>
+        <v>2053.34922</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>2022-11-22T10:05:03.503Z</t>
+          <t>2020-03-13T02:24:16.483Z</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:23.806Z</t>
-        </is>
-      </c>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
+          <t>2025-03-12T02:08:37.085Z</t>
+        </is>
+      </c>
+      <c r="AA93" t="n">
+        <v>4.760760559703157</v>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC93" t="n">
+        <v>476.0760559703157</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>polygon-bridged-usdt-polygon</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>usdt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>Polygon Bridged USDT (Polygon)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/35023/large/USDT.png?1707233644</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>130.84</v>
+        <v>0.999422</v>
       </c>
       <c r="F94" t="n">
-        <v>848773038</v>
+        <v>847018045</v>
       </c>
       <c r="G94" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H94" t="n">
-        <v>848773038</v>
+        <v>847018045</v>
       </c>
       <c r="I94" t="n">
-        <v>5195513</v>
+        <v>19003206</v>
       </c>
       <c r="J94" t="n">
-        <v>132.74</v>
+        <v>1.007</v>
       </c>
       <c r="K94" t="n">
-        <v>122.48</v>
+        <v>0.990774</v>
       </c>
       <c r="L94" t="n">
-        <v>8.359999999999999</v>
+        <v>5.35e-06</v>
       </c>
       <c r="M94" t="n">
-        <v>6.82955</v>
+        <v>0.00053</v>
       </c>
       <c r="N94" t="n">
-        <v>46975157</v>
+        <v>763558</v>
       </c>
       <c r="O94" t="n">
-        <v>5.85873</v>
+        <v>0.09023</v>
       </c>
       <c r="P94" t="n">
-        <v>6492280.848624357</v>
+        <v>847508144.66976</v>
       </c>
       <c r="Q94" t="n">
-        <v>6492280.848624357</v>
+        <v>847508144.66976</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>297.96</v>
+        <v>1.027</v>
       </c>
       <c r="T94" t="n">
-        <v>-56.10417</v>
+        <v>-2.68191</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2024-04-14T06:51:56.926Z</t>
         </is>
       </c>
       <c r="V94" t="n">
-        <v>118.29</v>
+        <v>0.945933</v>
       </c>
       <c r="W94" t="n">
-        <v>10.56403</v>
+        <v>5.63603</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:46.882Z</t>
+          <t>2024-12-05T22:30:30.789Z</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:26.153Z</t>
+          <t>2025-03-12T02:08:32.969Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9426,90 +9426,90 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>polygon-bridged-usdt-polygon</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>usdt</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Polygon Bridged USDT (Polygon)</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35023/large/USDT.png?1707233644</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.001</v>
+        <v>129.98</v>
       </c>
       <c r="F95" t="n">
-        <v>845654459</v>
+        <v>846297432</v>
       </c>
       <c r="G95" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H95" t="n">
-        <v>845654459</v>
+        <v>846297432</v>
       </c>
       <c r="I95" t="n">
-        <v>19396899</v>
+        <v>4340652</v>
       </c>
       <c r="J95" t="n">
-        <v>1.007</v>
+        <v>132.74</v>
       </c>
       <c r="K95" t="n">
-        <v>0.990774</v>
+        <v>123.61</v>
       </c>
       <c r="L95" t="n">
-        <v>0.00098499</v>
+        <v>5.36</v>
       </c>
       <c r="M95" t="n">
-        <v>0.09854</v>
+        <v>4.30242</v>
       </c>
       <c r="N95" t="n">
-        <v>228316</v>
+        <v>38839993</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02701</v>
+        <v>4.81016</v>
       </c>
       <c r="P95" t="n">
-        <v>845165818.01636</v>
+        <v>6492280.848624357</v>
       </c>
       <c r="Q95" t="n">
-        <v>847508144.66976</v>
+        <v>6492280.848624357</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>1.027</v>
+        <v>297.96</v>
       </c>
       <c r="T95" t="n">
-        <v>-2.56968</v>
+        <v>-56.38904</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2024-04-14T06:51:56.926Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V95" t="n">
-        <v>0.945933</v>
+        <v>118.29</v>
       </c>
       <c r="W95" t="n">
-        <v>5.75785</v>
+        <v>9.84652</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:30.789Z</t>
+          <t>2025-03-11T01:11:46.882Z</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.153Z</t>
+          <t>2025-03-12T02:08:35.957Z</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
@@ -9538,37 +9538,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.930606</v>
+        <v>0.92381</v>
       </c>
       <c r="F96" t="n">
-        <v>829598299</v>
+        <v>829617727</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>924237754</v>
+        <v>924259398</v>
       </c>
       <c r="I96" t="n">
-        <v>199614402</v>
+        <v>196572013</v>
       </c>
       <c r="J96" t="n">
         <v>0.970207</v>
       </c>
       <c r="K96" t="n">
-        <v>0.8425550000000001</v>
+        <v>0.850588</v>
       </c>
       <c r="L96" t="n">
-        <v>0.088051</v>
+        <v>0.05905</v>
       </c>
       <c r="M96" t="n">
-        <v>10.45051</v>
+        <v>6.82849</v>
       </c>
       <c r="N96" t="n">
-        <v>24774710</v>
+        <v>53004684</v>
       </c>
       <c r="O96" t="n">
-        <v>3.07828</v>
+        <v>6.82511</v>
       </c>
       <c r="P96" t="n">
         <v>897602695.87191</v>
@@ -9583,7 +9583,7 @@
         <v>7.3</v>
       </c>
       <c r="T96" t="n">
-        <v>-87.25923</v>
+        <v>-87.30321000000001</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>0.40615</v>
       </c>
       <c r="W96" t="n">
-        <v>129.08846</v>
+        <v>128.29762</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.205Z</t>
+          <t>2025-03-12T02:08:32.033Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9614,92 +9614,92 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>solv-protocol-solvbtc-bbn</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>solvbtc.bbn</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Solv Protocol SolvBTC.BBN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
+          <t>https://coin-images.coingecko.com/coins/images/39384/large/unnamed.png?1721961640</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.059e-05</v>
+        <v>82517</v>
       </c>
       <c r="F97" t="n">
-        <v>820084598</v>
+        <v>821208298</v>
       </c>
       <c r="G97" t="n">
         <v>97</v>
       </c>
       <c r="H97" t="n">
-        <v>941242051</v>
+        <v>821208298</v>
       </c>
       <c r="I97" t="n">
-        <v>103764722</v>
+        <v>1005755</v>
       </c>
       <c r="J97" t="n">
-        <v>1.077e-05</v>
+        <v>82534</v>
       </c>
       <c r="K97" t="n">
-        <v>9.42e-06</v>
+        <v>78439</v>
       </c>
       <c r="L97" t="n">
-        <v>1.17e-06</v>
+        <v>4077.39</v>
       </c>
       <c r="M97" t="n">
-        <v>12.41216</v>
+        <v>5.19815</v>
       </c>
       <c r="N97" t="n">
-        <v>66650122</v>
+        <v>38248345</v>
       </c>
       <c r="O97" t="n">
-        <v>8.846170000000001</v>
+        <v>4.8851</v>
       </c>
       <c r="P97" t="n">
-        <v>77419592329436.58</v>
+        <v>10005.18637774828</v>
       </c>
       <c r="Q97" t="n">
-        <v>88857388672316.88</v>
+        <v>10005.18637774828</v>
       </c>
       <c r="R97" t="n">
-        <v>88857388672316.88</v>
+        <v>21000000</v>
       </c>
       <c r="S97" t="n">
-        <v>5.825e-05</v>
+        <v>117077</v>
       </c>
       <c r="T97" t="n">
-        <v>-81.81823</v>
+        <v>-29.51108</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>2024-11-20T04:01:06.465Z</t>
+          <t>2025-01-20T07:15:49.114Z</t>
         </is>
       </c>
       <c r="V97" t="n">
-        <v>8.6142e-08</v>
+        <v>11402.13</v>
       </c>
       <c r="W97" t="n">
-        <v>12194.64457</v>
+        <v>623.77725</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>2022-12-29T22:48:46.755Z</t>
+          <t>2024-09-10T17:58:43.974Z</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:29.107Z</t>
+          <t>2025-03-12T02:08:34.817Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9709,92 +9709,92 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>solv-protocol-solvbtc-bbn</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>solvbtc.bbn</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Solv Protocol SolvBTC.BBN</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39384/large/unnamed.png?1721961640</t>
+          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>81947</v>
+        <v>1.055e-05</v>
       </c>
       <c r="F98" t="n">
-        <v>819732106</v>
+        <v>819763382</v>
       </c>
       <c r="G98" t="n">
         <v>96</v>
       </c>
       <c r="H98" t="n">
-        <v>819732106</v>
+        <v>940873379</v>
       </c>
       <c r="I98" t="n">
-        <v>422275</v>
+        <v>105924088</v>
       </c>
       <c r="J98" t="n">
-        <v>82534</v>
+        <v>1.077e-05</v>
       </c>
       <c r="K98" t="n">
-        <v>77100</v>
+        <v>9.56e-06</v>
       </c>
       <c r="L98" t="n">
-        <v>4844.61</v>
+        <v>9.80976e-07</v>
       </c>
       <c r="M98" t="n">
-        <v>6.28333</v>
+        <v>10.24928</v>
       </c>
       <c r="N98" t="n">
-        <v>41161107</v>
+        <v>79142914</v>
       </c>
       <c r="O98" t="n">
-        <v>5.28675</v>
+        <v>10.68603</v>
       </c>
       <c r="P98" t="n">
-        <v>10005.18637774828</v>
+        <v>77419592329436.58</v>
       </c>
       <c r="Q98" t="n">
-        <v>10005.18637774828</v>
+        <v>88857388672316.88</v>
       </c>
       <c r="R98" t="n">
-        <v>21000000</v>
+        <v>88857388672316.88</v>
       </c>
       <c r="S98" t="n">
-        <v>117077</v>
+        <v>5.825e-05</v>
       </c>
       <c r="T98" t="n">
-        <v>-29.79049</v>
+        <v>-81.8201</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>2025-01-20T07:15:49.114Z</t>
+          <t>2024-11-20T04:01:06.465Z</t>
         </is>
       </c>
       <c r="V98" t="n">
-        <v>11402.13</v>
+        <v>8.6142e-08</v>
       </c>
       <c r="W98" t="n">
-        <v>620.90827</v>
+        <v>12193.37912</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>2024-09-10T17:58:43.974Z</t>
+          <t>2022-12-29T22:48:46.755Z</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:09.827Z</t>
+          <t>2025-03-12T02:08:37.825Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9823,40 +9823,40 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2038.48</v>
+        <v>2023.39</v>
       </c>
       <c r="F99" t="n">
-        <v>766192488</v>
+        <v>761296488</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>766192488</v>
+        <v>761296488</v>
       </c>
       <c r="I99" t="n">
-        <v>12466806</v>
+        <v>12317701</v>
       </c>
       <c r="J99" t="n">
         <v>2071.4</v>
       </c>
       <c r="K99" t="n">
-        <v>1950.36</v>
+        <v>1964.54</v>
       </c>
       <c r="L99" t="n">
-        <v>88.12</v>
+        <v>53.8</v>
       </c>
       <c r="M99" t="n">
-        <v>4.51804</v>
+        <v>2.73157</v>
       </c>
       <c r="N99" t="n">
-        <v>17105413</v>
+        <v>19987320</v>
       </c>
       <c r="O99" t="n">
-        <v>2.2835</v>
+        <v>2.69622</v>
       </c>
       <c r="P99" t="n">
-        <v>376096.4114318937</v>
+        <v>376096.6142205596</v>
       </c>
       <c r="Q99" t="n">
         <v>376096.6142205596</v>
@@ -9866,7 +9866,7 @@
         <v>4729.53</v>
       </c>
       <c r="T99" t="n">
-        <v>-57.02197</v>
+        <v>-57.13292</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>1896.19</v>
       </c>
       <c r="W99" t="n">
-        <v>7.19667</v>
+        <v>6.91995</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:28.661Z</t>
+          <t>2025-03-12T02:08:30.916Z</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
@@ -9916,37 +9916,37 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.489929</v>
+        <v>0.487133</v>
       </c>
       <c r="F100" t="n">
-        <v>743014776</v>
+        <v>740084685</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>1028641075</v>
+        <v>1024584613</v>
       </c>
       <c r="I100" t="n">
-        <v>103454547</v>
+        <v>101462985</v>
       </c>
       <c r="J100" t="n">
         <v>0.498706</v>
       </c>
       <c r="K100" t="n">
-        <v>0.454362</v>
+        <v>0.460602</v>
       </c>
       <c r="L100" t="n">
-        <v>0.03556707</v>
+        <v>0.02566848</v>
       </c>
       <c r="M100" t="n">
-        <v>7.82791</v>
+        <v>5.5624</v>
       </c>
       <c r="N100" t="n">
-        <v>45242196</v>
+        <v>41191577</v>
       </c>
       <c r="O100" t="n">
-        <v>6.4838</v>
+        <v>5.89383</v>
       </c>
       <c r="P100" t="n">
         <v>1516885789.1746</v>
@@ -9961,7 +9961,7 @@
         <v>22.71</v>
       </c>
       <c r="T100" t="n">
-        <v>-97.84587000000001</v>
+        <v>-97.843</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>0.402746</v>
       </c>
       <c r="W100" t="n">
-        <v>21.47371</v>
+        <v>21.6353</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9982,11 +9982,11 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:27.929Z</t>
+          <t>2025-03-12T02:08:27.502Z</t>
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>-0.5051220616865298</v>
+        <v>-0.5079469087891423</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>-50.51220616865298</v>
+        <v>-50.79469087891423</v>
       </c>
     </row>
     <row r="101">
@@ -10019,37 +10019,37 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2910.85</v>
+        <v>2909.65</v>
       </c>
       <c r="F101" t="n">
-        <v>717428701</v>
+        <v>716556801</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>717428701</v>
+        <v>716556801</v>
       </c>
       <c r="I101" t="n">
-        <v>13843071</v>
+        <v>13643830</v>
       </c>
       <c r="J101" t="n">
         <v>2912.6</v>
       </c>
       <c r="K101" t="n">
-        <v>2883.16</v>
+        <v>2884.03</v>
       </c>
       <c r="L101" t="n">
-        <v>25.59</v>
+        <v>25.62</v>
       </c>
       <c r="M101" t="n">
-        <v>0.88685</v>
+        <v>0.88835</v>
       </c>
       <c r="N101" t="n">
-        <v>6555406</v>
+        <v>5648013</v>
       </c>
       <c r="O101" t="n">
-        <v>0.92216</v>
+        <v>0.79448</v>
       </c>
       <c r="P101" t="n">
         <v>246524.33</v>
@@ -10062,7 +10062,7 @@
         <v>2958.51</v>
       </c>
       <c r="T101" t="n">
-        <v>-1.65145</v>
+        <v>-1.64857</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>1447.84</v>
       </c>
       <c r="W101" t="n">
-        <v>100.9646</v>
+        <v>100.97049</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-03-12T01:45:12.650Z</t>
+          <t>2025-03-12T02:08:37.556Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,19 +602,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84379</v>
+        <v>84269</v>
       </c>
       <c r="F2" t="n">
-        <v>1674235591091</v>
+        <v>1671708458418</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1674235591091</v>
+        <v>1671708458418</v>
       </c>
       <c r="I2" t="n">
-        <v>30422579247</v>
+        <v>30137551087</v>
       </c>
       <c r="J2" t="n">
         <v>85140</v>
@@ -623,16 +623,16 @@
         <v>80857</v>
       </c>
       <c r="L2" t="n">
-        <v>3098.5</v>
+        <v>2950.13</v>
       </c>
       <c r="M2" t="n">
-        <v>3.81209</v>
+        <v>3.62786</v>
       </c>
       <c r="N2" t="n">
-        <v>62249025927</v>
+        <v>56479201245</v>
       </c>
       <c r="O2" t="n">
-        <v>3.86163</v>
+        <v>3.49667</v>
       </c>
       <c r="P2" t="n">
         <v>19836950</v>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:12.151Z</t>
+          <t>2025-03-14T23:12:19.806Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1925.7</v>
+        <v>1921.99</v>
       </c>
       <c r="F3" t="n">
-        <v>232341092600</v>
+        <v>231849826119</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>232341092600</v>
+        <v>231849826119</v>
       </c>
       <c r="I3" t="n">
-        <v>13167460207</v>
+        <v>13078132202</v>
       </c>
       <c r="J3" t="n">
         <v>1941.99</v>
@@ -718,16 +718,16 @@
         <v>1861.3</v>
       </c>
       <c r="L3" t="n">
-        <v>49.4</v>
+        <v>47.63</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63276</v>
+        <v>2.54133</v>
       </c>
       <c r="N3" t="n">
-        <v>6032039686</v>
+        <v>5023377043</v>
       </c>
       <c r="O3" t="n">
-        <v>2.6654</v>
+        <v>2.21463</v>
       </c>
       <c r="P3" t="n">
         <v>120614183.5975569</v>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:12.617Z</t>
+          <t>2025-03-14T23:12:19.371Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>29.50591678229562</v>
+        <v>29.49326469669403</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2950.591678229563</v>
+        <v>2949.326469669403</v>
       </c>
     </row>
     <row r="4">
@@ -801,16 +801,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>143348278379</v>
+        <v>143349647712</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>143348278379</v>
+        <v>143349647712</v>
       </c>
       <c r="I4" t="n">
-        <v>43568880546</v>
+        <v>49562238307</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>0.999506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00048863</v>
+        <v>0.00049087</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04889</v>
+        <v>0.04911</v>
       </c>
       <c r="N4" t="n">
-        <v>71292108</v>
+        <v>73269789</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04976</v>
+        <v>0.05114</v>
       </c>
       <c r="P4" t="n">
         <v>143346765715.551</v>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.447Z</t>
+          <t>2025-03-14T23:12:20.414Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -894,16 +894,16 @@
         <v>2.36</v>
       </c>
       <c r="F5" t="n">
-        <v>137399038189</v>
+        <v>137154482716</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>236418565822</v>
+        <v>235997766266</v>
       </c>
       <c r="I5" t="n">
-        <v>3772471876</v>
+        <v>3762926848</v>
       </c>
       <c r="J5" t="n">
         <v>2.39</v>
@@ -912,16 +912,16 @@
         <v>2.24</v>
       </c>
       <c r="L5" t="n">
-        <v>0.103206</v>
+        <v>0.093015</v>
       </c>
       <c r="M5" t="n">
-        <v>4.56441</v>
+        <v>4.10215</v>
       </c>
       <c r="N5" t="n">
-        <v>6058252196</v>
+        <v>5310980079</v>
       </c>
       <c r="O5" t="n">
-        <v>4.61262</v>
+        <v>4.02825</v>
       </c>
       <c r="P5" t="n">
         <v>58108919817</v>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.457Z</t>
+          <t>2025-03-14T23:12:20.467Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>587.58</v>
+        <v>587.33</v>
       </c>
       <c r="F6" t="n">
-        <v>85721245555</v>
+        <v>85684179756</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>85721245555</v>
+        <v>85684179756</v>
       </c>
       <c r="I6" t="n">
-        <v>857024348</v>
+        <v>845788971</v>
       </c>
       <c r="J6" t="n">
         <v>590.97</v>
@@ -1007,16 +1007,16 @@
         <v>577.0599999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>10.5</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>1.81972</v>
+        <v>1.71086</v>
       </c>
       <c r="N6" t="n">
-        <v>1478170912</v>
+        <v>1473700282</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75465</v>
+        <v>1.75002</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.072Z</t>
+          <t>2025-03-14T23:12:18.366Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>134.95</v>
+        <v>134.43</v>
       </c>
       <c r="F7" t="n">
-        <v>68878416903</v>
+        <v>68558692528</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>80565028879</v>
+        <v>80191056818</v>
       </c>
       <c r="I7" t="n">
-        <v>3682267516</v>
+        <v>3613697256</v>
       </c>
       <c r="J7" t="n">
         <v>135.3</v>
@@ -1102,16 +1102,16 @@
         <v>123</v>
       </c>
       <c r="L7" t="n">
-        <v>11.27</v>
+        <v>10.43</v>
       </c>
       <c r="M7" t="n">
-        <v>9.111359999999999</v>
+        <v>8.41038</v>
       </c>
       <c r="N7" t="n">
-        <v>5981016200</v>
+        <v>5378722576</v>
       </c>
       <c r="O7" t="n">
-        <v>9.50916</v>
+        <v>8.513339999999999</v>
       </c>
       <c r="P7" t="n">
         <v>509706883.4237605</v>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.584Z</t>
+          <t>2025-03-14T23:12:18.702Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999848</v>
+        <v>0.999865</v>
       </c>
       <c r="F8" t="n">
-        <v>58578603141</v>
+        <v>58576369068</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>58664027733</v>
+        <v>58661790403</v>
       </c>
       <c r="I8" t="n">
-        <v>9847341398</v>
+        <v>10022536169</v>
       </c>
       <c r="J8" t="n">
         <v>0.999907</v>
@@ -1195,16 +1195,16 @@
         <v>0.999787</v>
       </c>
       <c r="L8" t="n">
-        <v>5.163e-05</v>
+        <v>7.169e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00516</v>
+        <v>0.00717</v>
       </c>
       <c r="N8" t="n">
-        <v>243931603</v>
+        <v>238679220</v>
       </c>
       <c r="O8" t="n">
-        <v>0.41816</v>
+        <v>0.40913</v>
       </c>
       <c r="P8" t="n">
         <v>58587123916.07881</v>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.726Z</t>
+          <t>2025-03-14T23:12:20.466Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,19 +1267,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.744023</v>
+        <v>0.742438</v>
       </c>
       <c r="F9" t="n">
-        <v>26759881680</v>
+        <v>26695793072</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>33489560630</v>
+        <v>33409354770</v>
       </c>
       <c r="I9" t="n">
-        <v>958551593</v>
+        <v>953765661</v>
       </c>
       <c r="J9" t="n">
         <v>0.748387</v>
@@ -1288,16 +1288,16 @@
         <v>0.699803</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03852459</v>
+        <v>0.03706307</v>
       </c>
       <c r="M9" t="n">
-        <v>5.46062</v>
+        <v>5.25438</v>
       </c>
       <c r="N9" t="n">
-        <v>1369298545</v>
+        <v>1344724997</v>
       </c>
       <c r="O9" t="n">
-        <v>5.39294</v>
+        <v>5.30441</v>
       </c>
       <c r="P9" t="n">
         <v>35957314844.72886</v>
@@ -1333,7 +1333,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.185Z</t>
+          <t>2025-03-14T23:12:18.765Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1362,19 +1362,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.173223</v>
+        <v>0.172873</v>
       </c>
       <c r="F10" t="n">
-        <v>25714013418</v>
+        <v>25655323249</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>25716858326</v>
+        <v>25658161665</v>
       </c>
       <c r="I10" t="n">
-        <v>1104486689</v>
+        <v>1101324615</v>
       </c>
       <c r="J10" t="n">
         <v>0.175457</v>
@@ -1383,16 +1383,16 @@
         <v>0.164754</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007882159999999999</v>
+        <v>0.00688082</v>
       </c>
       <c r="M10" t="n">
-        <v>4.76722</v>
+        <v>4.14527</v>
       </c>
       <c r="N10" t="n">
-        <v>1183359033</v>
+        <v>1029081849</v>
       </c>
       <c r="O10" t="n">
-        <v>4.824</v>
+        <v>4.1788</v>
       </c>
       <c r="P10" t="n">
         <v>148413946383.7052</v>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.237Z</t>
+          <t>2025-03-14T23:12:18.735Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.221555</v>
+        <v>0.221438</v>
       </c>
       <c r="F11" t="n">
-        <v>21051369559</v>
+        <v>21042473064</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>21051374073</v>
+        <v>21042477576</v>
       </c>
       <c r="I11" t="n">
-        <v>662282201</v>
+        <v>659707311</v>
       </c>
       <c r="J11" t="n">
         <v>0.226245</v>
@@ -1476,16 +1476,16 @@
         <v>0.220757</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.002161564431617219</v>
+        <v>-0.002196492804423272</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.96621</v>
+        <v>-0.9821800000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>-208392139.3916588</v>
+        <v>-243100839.7998161</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.98022</v>
+        <v>-1.14209</v>
       </c>
       <c r="P11" t="n">
         <v>95027434572.19737</v>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.240Z</t>
+          <t>2025-03-14T23:12:18.141Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>115.6077641567326</v>
+        <v>115.5462750715334</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>11560.77641567326</v>
+        <v>11554.62750715334</v>
       </c>
     </row>
     <row r="12">
@@ -1556,19 +1556,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1922.18</v>
+        <v>1919.11</v>
       </c>
       <c r="F12" t="n">
-        <v>17955190026</v>
+        <v>17925957818</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>17955190026</v>
+        <v>17925957818</v>
       </c>
       <c r="I12" t="n">
-        <v>18373959</v>
+        <v>18535731</v>
       </c>
       <c r="J12" t="n">
         <v>1936.73</v>
@@ -1577,16 +1577,16 @@
         <v>1858.9</v>
       </c>
       <c r="L12" t="n">
-        <v>45.87</v>
+        <v>46</v>
       </c>
       <c r="M12" t="n">
-        <v>2.44486</v>
+        <v>2.45577</v>
       </c>
       <c r="N12" t="n">
-        <v>457011076</v>
+        <v>393027772</v>
       </c>
       <c r="O12" t="n">
-        <v>2.61176</v>
+        <v>2.24165</v>
       </c>
       <c r="P12" t="n">
         <v>9340293.739303932</v>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.874Z</t>
+          <t>2025-03-14T23:12:18.149Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>84311</v>
+        <v>84150</v>
       </c>
       <c r="F13" t="n">
-        <v>10880893484</v>
+        <v>10857261709</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10880893484</v>
+        <v>10857261709</v>
       </c>
       <c r="I13" t="n">
-        <v>203317626</v>
+        <v>202595362</v>
       </c>
       <c r="J13" t="n">
         <v>85076</v>
@@ -1670,16 +1670,16 @@
         <v>80786</v>
       </c>
       <c r="L13" t="n">
-        <v>3362.84</v>
+        <v>2922.08</v>
       </c>
       <c r="M13" t="n">
-        <v>4.15433</v>
+        <v>3.5974</v>
       </c>
       <c r="N13" t="n">
-        <v>438042275</v>
+        <v>399162134</v>
       </c>
       <c r="O13" t="n">
-        <v>4.19466</v>
+        <v>3.81678</v>
       </c>
       <c r="P13" t="n">
         <v>129015.05657878</v>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.134Z</t>
+          <t>2025-03-14T23:12:18.760Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1744,19 +1744,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="F14" t="n">
-        <v>10700239436</v>
+        <v>10735822015</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>16472439018</v>
+        <v>16527216472</v>
       </c>
       <c r="I14" t="n">
-        <v>631969070</v>
+        <v>632125756</v>
       </c>
       <c r="J14" t="n">
         <v>1.72</v>
@@ -1765,16 +1765,16 @@
         <v>1.47</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1261173583123103</v>
+        <v>-0.1219813299408323</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.67453</v>
+        <v>-7.4012</v>
       </c>
       <c r="N14" t="n">
-        <v>-985828987.8604565</v>
+        <v>-919460561.1075306</v>
       </c>
       <c r="O14" t="n">
-        <v>-8.435930000000001</v>
+        <v>-7.88879</v>
       </c>
       <c r="P14" t="n">
         <v>7054586146.165464</v>
@@ -1789,7 +1789,7 @@
         <v>2.99</v>
       </c>
       <c r="T14" t="n">
-        <v>-49.04026</v>
+        <v>-49.04306</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>0.615725</v>
       </c>
       <c r="W14" t="n">
-        <v>147.26618</v>
+        <v>147.25262</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.970Z</t>
+          <t>2025-03-14T23:12:17.418Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>9057538877</v>
+        <v>9045028091</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>9658486204</v>
+        <v>9645145355</v>
       </c>
       <c r="I15" t="n">
-        <v>3718111</v>
+        <v>3728733</v>
       </c>
       <c r="J15" t="n">
         <v>9.82</v>
@@ -1860,16 +1860,16 @@
         <v>9.65</v>
       </c>
       <c r="L15" t="n">
-        <v>0.088739</v>
+        <v>0.07145899999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.91376</v>
+        <v>0.73555</v>
       </c>
       <c r="N15" t="n">
-        <v>79556087</v>
+        <v>61525273</v>
       </c>
       <c r="O15" t="n">
-        <v>0.88612</v>
+        <v>0.68487</v>
       </c>
       <c r="P15" t="n">
         <v>923938277.9</v>
@@ -1903,7 +1903,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.531Z</t>
+          <t>2025-03-14T23:12:17.047Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1932,19 +1932,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.91</v>
+        <v>13.87</v>
       </c>
       <c r="F16" t="n">
-        <v>8878054758</v>
+        <v>8850952611</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>13913266190</v>
+        <v>13870792991</v>
       </c>
       <c r="I16" t="n">
-        <v>1260599190</v>
+        <v>1260730226</v>
       </c>
       <c r="J16" t="n">
         <v>14.61</v>
@@ -1953,16 +1953,16 @@
         <v>13.01</v>
       </c>
       <c r="L16" t="n">
-        <v>0.827521</v>
+        <v>0.735025</v>
       </c>
       <c r="M16" t="n">
-        <v>6.32645</v>
+        <v>5.59775</v>
       </c>
       <c r="N16" t="n">
-        <v>531486747</v>
+        <v>465358809</v>
       </c>
       <c r="O16" t="n">
-        <v>6.36773</v>
+        <v>5.5495</v>
       </c>
       <c r="P16" t="n">
         <v>638099971.4505637</v>
@@ -1998,7 +1998,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.941Z</t>
+          <t>2025-03-14T23:12:20.451Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2027,19 +2027,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.276508</v>
+        <v>0.276224</v>
       </c>
       <c r="F17" t="n">
-        <v>8494086844</v>
+        <v>8483407784</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>13830958863</v>
+        <v>13813570103</v>
       </c>
       <c r="I17" t="n">
-        <v>261023943</v>
+        <v>259531079</v>
       </c>
       <c r="J17" t="n">
         <v>0.283735</v>
@@ -2048,16 +2048,16 @@
         <v>0.271605</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00153069</v>
+        <v>0.00112918</v>
       </c>
       <c r="M17" t="n">
-        <v>0.55666</v>
+        <v>0.41047</v>
       </c>
       <c r="N17" t="n">
-        <v>41754637</v>
+        <v>12127307</v>
       </c>
       <c r="O17" t="n">
-        <v>0.494</v>
+        <v>0.14316</v>
       </c>
       <c r="P17" t="n">
         <v>30707886881.78767</v>
@@ -2093,7 +2093,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.869Z</t>
+          <t>2025-03-14T23:12:19.027Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2122,19 +2122,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2303.66</v>
+        <v>2299.59</v>
       </c>
       <c r="F18" t="n">
-        <v>8314459175</v>
+        <v>8301980357</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>8314459175</v>
+        <v>8301980357</v>
       </c>
       <c r="I18" t="n">
-        <v>14066277</v>
+        <v>14060550</v>
       </c>
       <c r="J18" t="n">
         <v>2321.79</v>
@@ -2143,16 +2143,16 @@
         <v>2227.62</v>
       </c>
       <c r="L18" t="n">
-        <v>59.39</v>
+        <v>54.59</v>
       </c>
       <c r="M18" t="n">
-        <v>2.64651</v>
+        <v>2.43148</v>
       </c>
       <c r="N18" t="n">
-        <v>477651154</v>
+        <v>457400905</v>
       </c>
       <c r="O18" t="n">
-        <v>6.09497</v>
+        <v>5.83079</v>
       </c>
       <c r="P18" t="n">
         <v>3608140.165739344</v>
@@ -2186,7 +2186,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.793Z</t>
+          <t>2025-03-14T23:12:18.005Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2215,19 +2215,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.999887</v>
+        <v>0.999999</v>
       </c>
       <c r="F19" t="n">
-        <v>8257684927</v>
+        <v>8257692853</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>8257684927</v>
+        <v>8257692853</v>
       </c>
       <c r="I19" t="n">
-        <v>19714535</v>
+        <v>27952858</v>
       </c>
       <c r="J19" t="n">
         <v>1.002</v>
@@ -2236,16 +2236,16 @@
         <v>0.998312</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.000209929452853141</v>
+        <v>0.00015592</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02099</v>
+        <v>0.01559</v>
       </c>
       <c r="N19" t="n">
-        <v>2769900</v>
+        <v>6951941</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03355</v>
+        <v>0.08426</v>
       </c>
       <c r="P19" t="n">
         <v>8259061281.663934</v>
@@ -2258,7 +2258,7 @@
         <v>1.057</v>
       </c>
       <c r="T19" t="n">
-        <v>-5.43279</v>
+        <v>-5.42723</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>0.948265</v>
       </c>
       <c r="W19" t="n">
-        <v>5.44309</v>
+        <v>5.44929</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.933Z</t>
+          <t>2025-03-14T23:12:18.636Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2308,19 +2308,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.192912</v>
+        <v>0.1924</v>
       </c>
       <c r="F20" t="n">
-        <v>8148928767</v>
+        <v>8123616444</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>9651108150</v>
+        <v>9621129735</v>
       </c>
       <c r="I20" t="n">
-        <v>313243945</v>
+        <v>290161183</v>
       </c>
       <c r="J20" t="n">
         <v>0.198565</v>
@@ -2329,19 +2329,19 @@
         <v>0.187896</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00219158</v>
+        <v>0.00168847</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14911</v>
+        <v>0.88535</v>
       </c>
       <c r="N20" t="n">
-        <v>91382001</v>
+        <v>55384732</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13412</v>
+        <v>0.68645</v>
       </c>
       <c r="P20" t="n">
-        <v>42217580820.66996</v>
+        <v>42217580820.67102</v>
       </c>
       <c r="Q20" t="n">
         <v>50000000000</v>
@@ -2374,7 +2374,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.413Z</t>
+          <t>2025-03-14T23:12:18.217Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2403,19 +2403,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.88</v>
+        <v>18.78</v>
       </c>
       <c r="F21" t="n">
-        <v>7830965209</v>
+        <v>7786630848</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>8523976462</v>
+        <v>8475718459</v>
       </c>
       <c r="I21" t="n">
-        <v>308164580</v>
+        <v>310059983</v>
       </c>
       <c r="J21" t="n">
         <v>19.27</v>
@@ -2424,19 +2424,19 @@
         <v>18.48</v>
       </c>
       <c r="L21" t="n">
-        <v>0.262884</v>
+        <v>0.075711</v>
       </c>
       <c r="M21" t="n">
-        <v>1.41217</v>
+        <v>0.40486</v>
       </c>
       <c r="N21" t="n">
-        <v>135956027</v>
+        <v>40134102</v>
       </c>
       <c r="O21" t="n">
-        <v>1.76681</v>
+        <v>0.5180900000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>414361651.4320641</v>
+        <v>414361662.0386043</v>
       </c>
       <c r="Q21" t="n">
         <v>451031114.2289694</v>
@@ -2469,7 +2469,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.991Z</t>
+          <t>2025-03-14T23:12:19.023Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2498,19 +2498,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.289e-05</v>
+        <v>1.288e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>7595719844</v>
+        <v>7588268711</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>7598992908</v>
+        <v>7591538565</v>
       </c>
       <c r="I22" t="n">
-        <v>188920387</v>
+        <v>172787530</v>
       </c>
       <c r="J22" t="n">
         <v>1.289e-05</v>
@@ -2519,16 +2519,16 @@
         <v>1.2e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>8.41082e-07</v>
+        <v>8.00902e-07</v>
       </c>
       <c r="M22" t="n">
-        <v>6.97961</v>
+        <v>6.63322</v>
       </c>
       <c r="N22" t="n">
-        <v>499588933</v>
+        <v>450691825</v>
       </c>
       <c r="O22" t="n">
-        <v>7.0403</v>
+        <v>6.31435</v>
       </c>
       <c r="P22" t="n">
         <v>589252986448602.9</v>
@@ -2562,7 +2562,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.120Z</t>
+          <t>2025-03-14T23:12:19.368Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2594,16 +2594,16 @@
         <v>2.35</v>
       </c>
       <c r="F23" t="n">
-        <v>7466272541</v>
+        <v>7438815738</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>23554061569</v>
+        <v>23467442814</v>
       </c>
       <c r="I23" t="n">
-        <v>811963446</v>
+        <v>807591872</v>
       </c>
       <c r="J23" t="n">
         <v>2.38</v>
@@ -2612,16 +2612,16 @@
         <v>2.16</v>
       </c>
       <c r="L23" t="n">
-        <v>0.164255</v>
+        <v>0.160609</v>
       </c>
       <c r="M23" t="n">
-        <v>7.50303</v>
+        <v>7.34941</v>
       </c>
       <c r="N23" t="n">
-        <v>511953174</v>
+        <v>499658033</v>
       </c>
       <c r="O23" t="n">
-        <v>7.36166</v>
+        <v>7.20056</v>
       </c>
       <c r="P23" t="n">
         <v>3169845047.483887</v>
@@ -2636,7 +2636,7 @@
         <v>5.35</v>
       </c>
       <c r="T23" t="n">
-        <v>-56.075</v>
+        <v>-55.98444</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>0.364846</v>
       </c>
       <c r="W23" t="n">
-        <v>543.69008</v>
+        <v>545.01722</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:13.449Z</t>
+          <t>2025-03-14T23:12:19.017Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2689,16 +2689,16 @@
         <v>2.94</v>
       </c>
       <c r="F24" t="n">
-        <v>7294652752</v>
+        <v>7284333525</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>15065935973</v>
+        <v>15044623264</v>
       </c>
       <c r="I24" t="n">
-        <v>161692275</v>
+        <v>160825981</v>
       </c>
       <c r="J24" t="n">
         <v>2.94</v>
@@ -2707,16 +2707,16 @@
         <v>2.75</v>
       </c>
       <c r="L24" t="n">
-        <v>0.169222</v>
+        <v>0.167927</v>
       </c>
       <c r="M24" t="n">
-        <v>6.10789</v>
+        <v>6.06775</v>
       </c>
       <c r="N24" t="n">
-        <v>423061699</v>
+        <v>415153100</v>
       </c>
       <c r="O24" t="n">
-        <v>6.15668</v>
+        <v>6.04371</v>
       </c>
       <c r="P24" t="n">
         <v>2481254229.637805</v>
@@ -2750,7 +2750,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.446Z</t>
+          <t>2025-03-14T23:12:21.450Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2779,19 +2779,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>91.98999999999999</v>
+        <v>91.91</v>
       </c>
       <c r="F25" t="n">
-        <v>6959660803</v>
+        <v>6950651884</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>6959695309</v>
+        <v>6950686346</v>
       </c>
       <c r="I25" t="n">
-        <v>446584420</v>
+        <v>465693054</v>
       </c>
       <c r="J25" t="n">
         <v>92.79000000000001</v>
@@ -2800,16 +2800,16 @@
         <v>87.84</v>
       </c>
       <c r="L25" t="n">
-        <v>3.68</v>
+        <v>3.56</v>
       </c>
       <c r="M25" t="n">
-        <v>4.16596</v>
+        <v>4.03066</v>
       </c>
       <c r="N25" t="n">
-        <v>283561624</v>
+        <v>254490200</v>
       </c>
       <c r="O25" t="n">
-        <v>4.24741</v>
+        <v>3.80054</v>
       </c>
       <c r="P25" t="n">
         <v>75633858.23347135</v>
@@ -2845,7 +2845,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.443Z</t>
+          <t>2025-03-14T23:12:18.972Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2874,19 +2874,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>331.58</v>
+        <v>331.44</v>
       </c>
       <c r="F26" t="n">
-        <v>6581079924</v>
+        <v>6575322405</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>6581079924</v>
+        <v>6575322405</v>
       </c>
       <c r="I26" t="n">
-        <v>194216147</v>
+        <v>197280306</v>
       </c>
       <c r="J26" t="n">
         <v>334.57</v>
@@ -2895,16 +2895,16 @@
         <v>325.71</v>
       </c>
       <c r="L26" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.84048</v>
+        <v>0.76136</v>
       </c>
       <c r="N26" t="n">
-        <v>44072115</v>
+        <v>50569987</v>
       </c>
       <c r="O26" t="n">
-        <v>0.67419</v>
+        <v>0.77505</v>
       </c>
       <c r="P26" t="n">
         <v>19842137.39665078</v>
@@ -2940,7 +2940,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.218Z</t>
+          <t>2025-03-14T23:12:19.636Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2969,19 +2969,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="F27" t="n">
-        <v>6419572253</v>
+        <v>6409045286</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>6419572253</v>
+        <v>6409045286</v>
       </c>
       <c r="I27" t="n">
-        <v>222231303</v>
+        <v>221933470</v>
       </c>
       <c r="J27" t="n">
         <v>4.22</v>
@@ -2990,16 +2990,16 @@
         <v>3.96</v>
       </c>
       <c r="L27" t="n">
-        <v>0.233677</v>
+        <v>0.221059</v>
       </c>
       <c r="M27" t="n">
-        <v>5.86766</v>
+        <v>5.542</v>
       </c>
       <c r="N27" t="n">
-        <v>357212030</v>
+        <v>329631595</v>
       </c>
       <c r="O27" t="n">
-        <v>5.89229</v>
+        <v>5.4221</v>
       </c>
       <c r="P27" t="n">
         <v>1522267060</v>
@@ -3033,7 +3033,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.053Z</t>
+          <t>2025-03-14T23:12:19.043Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3065,16 +3065,16 @@
         <v>6.26</v>
       </c>
       <c r="F28" t="n">
-        <v>6157381495</v>
+        <v>6154974682</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>11341222795</v>
+        <v>11336789709</v>
       </c>
       <c r="I28" t="n">
-        <v>84387061</v>
+        <v>84266546</v>
       </c>
       <c r="J28" t="n">
         <v>6.35</v>
@@ -3083,16 +3083,16 @@
         <v>6.17</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.05803418262019111</v>
+        <v>-0.03929395402147495</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.9184099999999999</v>
+        <v>-0.62418</v>
       </c>
       <c r="N28" t="n">
-        <v>-62598724.22166824</v>
+        <v>-34894979.40201569</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.00641</v>
+        <v>-0.56374</v>
       </c>
       <c r="P28" t="n">
         <v>983687408.4099998</v>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:09.891Z</t>
+          <t>2025-03-14T23:12:18.929Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,19 +3155,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.999995</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>5460772017</v>
+        <v>5459971474</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5460772017</v>
+        <v>5459971474</v>
       </c>
       <c r="I29" t="n">
-        <v>67325960</v>
+        <v>67362736</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -3176,16 +3176,16 @@
         <v>0.998594</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00076522</v>
+        <v>0.0008116</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07658</v>
+        <v>0.08122</v>
       </c>
       <c r="N29" t="n">
-        <v>4623099</v>
+        <v>5088942</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08473</v>
+        <v>0.09329</v>
       </c>
       <c r="P29" t="n">
         <v>5460568000.550031</v>
@@ -3198,7 +3198,7 @@
         <v>1.032</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.12046</v>
+        <v>-3.1219</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>0.929486</v>
       </c>
       <c r="W29" t="n">
-        <v>7.57305</v>
+        <v>7.57144</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.965Z</t>
+          <t>2025-03-14T23:12:18.512Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,19 +3248,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1926.04</v>
+        <v>1923.14</v>
       </c>
       <c r="F30" t="n">
-        <v>5379215789</v>
+        <v>5369076840</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5379215789</v>
+        <v>5369076840</v>
       </c>
       <c r="I30" t="n">
-        <v>435183951</v>
+        <v>538562217</v>
       </c>
       <c r="J30" t="n">
         <v>1942.99</v>
@@ -3269,16 +3269,16 @@
         <v>1860.56</v>
       </c>
       <c r="L30" t="n">
-        <v>52.06</v>
+        <v>44.77</v>
       </c>
       <c r="M30" t="n">
-        <v>2.77779</v>
+        <v>2.38371</v>
       </c>
       <c r="N30" t="n">
-        <v>116412929</v>
+        <v>109734850</v>
       </c>
       <c r="O30" t="n">
-        <v>2.21199</v>
+        <v>2.08647</v>
       </c>
       <c r="P30" t="n">
         <v>2792093.007624316</v>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:13.687Z</t>
+          <t>2025-03-14T23:12:20.832Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3344,16 +3344,16 @@
         <v>4.42</v>
       </c>
       <c r="F31" t="n">
-        <v>5309005092</v>
+        <v>5307066777</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5309005092</v>
+        <v>5307066777</v>
       </c>
       <c r="I31" t="n">
-        <v>207244866</v>
+        <v>206317621</v>
       </c>
       <c r="J31" t="n">
         <v>4.48</v>
@@ -3362,16 +3362,16 @@
         <v>4.16</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2539</v>
+        <v>0.249748</v>
       </c>
       <c r="M31" t="n">
-        <v>6.08963</v>
+        <v>5.98403</v>
       </c>
       <c r="N31" t="n">
-        <v>310806825</v>
+        <v>290547204</v>
       </c>
       <c r="O31" t="n">
-        <v>6.21838</v>
+        <v>5.79181</v>
       </c>
       <c r="P31" t="n">
         <v>1199999994.2</v>
@@ -3407,7 +3407,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.303Z</t>
+          <t>2025-03-14T23:12:18.875Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3436,19 +3436,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
       <c r="F32" t="n">
-        <v>5180766968</v>
+        <v>5184611722</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>5180766968</v>
+        <v>5184611722</v>
       </c>
       <c r="I32" t="n">
-        <v>262612302</v>
+        <v>253920911</v>
       </c>
       <c r="J32" t="n">
         <v>1.004</v>
@@ -3457,16 +3457,16 @@
         <v>0.9956199999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00126204</v>
+        <v>0.00087068</v>
       </c>
       <c r="M32" t="n">
-        <v>0.12634</v>
+        <v>0.08708</v>
       </c>
       <c r="N32" t="n">
-        <v>-6752948.884736061</v>
+        <v>2236058</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.13018</v>
+        <v>0.04315</v>
       </c>
       <c r="P32" t="n">
         <v>5184994501.618546</v>
@@ -3479,7 +3479,7 @@
         <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>-4.77161</v>
+        <v>-4.78018</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>0.942186</v>
       </c>
       <c r="W32" t="n">
-        <v>6.12142</v>
+        <v>6.11186</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.971Z</t>
+          <t>2025-03-14T23:12:18.529Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3529,19 +3529,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13.91</v>
+        <v>13.87</v>
       </c>
       <c r="F33" t="n">
-        <v>4649651072</v>
+        <v>4632517536</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>13923971297</v>
+        <v>13872662744</v>
       </c>
       <c r="I33" t="n">
-        <v>128908050</v>
+        <v>127870830</v>
       </c>
       <c r="J33" t="n">
         <v>14.47</v>
@@ -3550,16 +3550,16 @@
         <v>12.31</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
-        <v>10.85803</v>
+        <v>10.95761</v>
       </c>
       <c r="N33" t="n">
-        <v>458625597</v>
+        <v>437365788</v>
       </c>
       <c r="O33" t="n">
-        <v>10.94304</v>
+        <v>10.42551</v>
       </c>
       <c r="P33" t="n">
         <v>333928180</v>
@@ -3574,7 +3574,7 @@
         <v>34.96</v>
       </c>
       <c r="T33" t="n">
-        <v>-60.16787</v>
+        <v>-60.2139</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>3.81</v>
       </c>
       <c r="W33" t="n">
-        <v>265.60755</v>
+        <v>265.18502</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.980Z</t>
+          <t>2025-03-14T23:12:19.902Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3624,19 +3624,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.45</v>
+        <v>28.44</v>
       </c>
       <c r="F34" t="n">
-        <v>4100958694</v>
+        <v>4100223983</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9368379844</v>
+        <v>9366701445</v>
       </c>
       <c r="I34" t="n">
-        <v>47447985</v>
+        <v>47181800</v>
       </c>
       <c r="J34" t="n">
         <v>28.58</v>
@@ -3645,16 +3645,16 @@
         <v>28.09</v>
       </c>
       <c r="L34" t="n">
-        <v>0.236381</v>
+        <v>0.248911</v>
       </c>
       <c r="M34" t="n">
-        <v>0.83769</v>
+        <v>0.88281</v>
       </c>
       <c r="N34" t="n">
-        <v>37610448</v>
+        <v>35887572</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9256</v>
+        <v>0.8829900000000001</v>
       </c>
       <c r="P34" t="n">
         <v>144118517.1081541</v>
@@ -3669,7 +3669,7 @@
         <v>31.28</v>
       </c>
       <c r="T34" t="n">
-        <v>-8.974740000000001</v>
+        <v>-9.05353</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>3.06</v>
       </c>
       <c r="W34" t="n">
-        <v>829.83028</v>
+        <v>829.02537</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:09.905Z</t>
+          <t>2025-03-14T23:12:18.523Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3719,19 +3719,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2045.73</v>
+        <v>2043.84</v>
       </c>
       <c r="F35" t="n">
-        <v>3943054284</v>
+        <v>3936320525</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>3943054284</v>
+        <v>3936320525</v>
       </c>
       <c r="I35" t="n">
-        <v>9579957</v>
+        <v>9564315</v>
       </c>
       <c r="J35" t="n">
         <v>2061.21</v>
@@ -3740,16 +3740,16 @@
         <v>1972.56</v>
       </c>
       <c r="L35" t="n">
-        <v>55.25</v>
+        <v>49.69</v>
       </c>
       <c r="M35" t="n">
-        <v>2.77571</v>
+        <v>2.49185</v>
       </c>
       <c r="N35" t="n">
-        <v>115860864</v>
+        <v>106169045</v>
       </c>
       <c r="O35" t="n">
-        <v>3.02731</v>
+        <v>2.77193</v>
       </c>
       <c r="P35" t="n">
         <v>1926336.181001195</v>
@@ -3762,7 +3762,7 @@
         <v>4311.81</v>
       </c>
       <c r="T35" t="n">
-        <v>-52.55897</v>
+        <v>-52.57729</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>1889.13</v>
       </c>
       <c r="W35" t="n">
-        <v>8.280860000000001</v>
+        <v>8.23906</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.326Z</t>
+          <t>2025-03-14T23:12:17.698Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3812,19 +3812,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>210.98</v>
+        <v>210.43</v>
       </c>
       <c r="F36" t="n">
-        <v>3888832152</v>
+        <v>3882149456</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>3888832152</v>
+        <v>3882149456</v>
       </c>
       <c r="I36" t="n">
-        <v>50949434</v>
+        <v>50776979</v>
       </c>
       <c r="J36" t="n">
         <v>210.93</v>
@@ -3833,16 +3833,16 @@
         <v>205.83</v>
       </c>
       <c r="L36" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.90969</v>
+        <v>1.63359</v>
       </c>
       <c r="N36" t="n">
-        <v>69176853</v>
+        <v>64911099</v>
       </c>
       <c r="O36" t="n">
-        <v>1.81108</v>
+        <v>1.70047</v>
       </c>
       <c r="P36" t="n">
         <v>18446744.07370955</v>
@@ -3876,7 +3876,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.361Z</t>
+          <t>2025-03-14T23:12:17.883Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,19 +3905,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.1</v>
+        <v>6.08</v>
       </c>
       <c r="F37" t="n">
-        <v>3663234247</v>
+        <v>3654633929</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>6100478777</v>
+        <v>6086156445</v>
       </c>
       <c r="I37" t="n">
-        <v>164510685</v>
+        <v>163927815</v>
       </c>
       <c r="J37" t="n">
         <v>6.12</v>
@@ -3926,16 +3926,16 @@
         <v>5.84</v>
       </c>
       <c r="L37" t="n">
-        <v>0.19092</v>
+        <v>0.180395</v>
       </c>
       <c r="M37" t="n">
-        <v>3.23166</v>
+        <v>3.05529</v>
       </c>
       <c r="N37" t="n">
-        <v>112628192</v>
+        <v>107802309</v>
       </c>
       <c r="O37" t="n">
-        <v>3.17208</v>
+        <v>3.0394</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.250Z</t>
+          <t>2025-03-14T23:12:20.244Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -4003,16 +4003,16 @@
         <v>1.043</v>
       </c>
       <c r="F38" t="n">
-        <v>3488798568</v>
+        <v>3488534276</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3488798568</v>
+        <v>3488534276</v>
       </c>
       <c r="I38" t="n">
-        <v>1648368</v>
+        <v>1648381</v>
       </c>
       <c r="J38" t="n">
         <v>1.044</v>
@@ -4021,16 +4021,16 @@
         <v>1.041</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00035822</v>
+        <v>0.00086856</v>
       </c>
       <c r="M38" t="n">
-        <v>0.03435</v>
+        <v>0.08333</v>
       </c>
       <c r="N38" t="n">
-        <v>-18396252.19476795</v>
+        <v>-19933449.97254562</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.5245300000000001</v>
+        <v>-0.56815</v>
       </c>
       <c r="P38" t="n">
         <v>3343936764.842416</v>
@@ -4043,7 +4043,7 @@
         <v>1.088</v>
       </c>
       <c r="T38" t="n">
-        <v>-4.09853</v>
+        <v>-4.10784</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>0.961716</v>
       </c>
       <c r="W38" t="n">
-        <v>8.485860000000001</v>
+        <v>8.47532</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.341Z</t>
+          <t>2025-03-14T23:12:18.194Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4093,19 +4093,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.999749</v>
+        <v>0.999665</v>
       </c>
       <c r="F39" t="n">
-        <v>3175384709</v>
+        <v>3175286169</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>3175384709</v>
+        <v>3175286169</v>
       </c>
       <c r="I39" t="n">
-        <v>117223169</v>
+        <v>116461582</v>
       </c>
       <c r="J39" t="n">
         <v>0.999826</v>
@@ -4114,16 +4114,16 @@
         <v>0.999363</v>
       </c>
       <c r="L39" t="n">
-        <v>5.062e-05</v>
+        <v>-1.2101005411269e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00506</v>
+        <v>-0.00121</v>
       </c>
       <c r="N39" t="n">
-        <v>1760020</v>
+        <v>1994055</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05546</v>
+        <v>0.06283999999999999</v>
       </c>
       <c r="P39" t="n">
         <v>3176332234.451</v>
@@ -4157,7 +4157,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.403Z</t>
+          <t>2025-03-14T23:12:18.965Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4186,19 +4186,19 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="F40" t="n">
-        <v>3156662735</v>
+        <v>3149406636</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>5998258445</v>
+        <v>5984469203</v>
       </c>
       <c r="I40" t="n">
-        <v>125503954</v>
+        <v>127460856</v>
       </c>
       <c r="J40" t="n">
         <v>5.32</v>
@@ -4207,19 +4207,19 @@
         <v>5.12</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08101899999999999</v>
+        <v>0.075519</v>
       </c>
       <c r="M40" t="n">
-        <v>1.57002</v>
+        <v>1.46491</v>
       </c>
       <c r="N40" t="n">
-        <v>47195687</v>
+        <v>36580364</v>
       </c>
       <c r="O40" t="n">
-        <v>1.51781</v>
+        <v>1.17515</v>
       </c>
       <c r="P40" t="n">
-        <v>602111566.8514534</v>
+        <v>602111695.382233</v>
       </c>
       <c r="Q40" t="n">
         <v>1144126279.567275</v>
@@ -4229,7 +4229,7 @@
         <v>19.92</v>
       </c>
       <c r="T40" t="n">
-        <v>-73.69474</v>
+        <v>-73.68753</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>3.08</v>
       </c>
       <c r="W40" t="n">
-        <v>70.14485000000001</v>
+        <v>70.19149</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.567Z</t>
+          <t>2025-03-14T23:12:19.717Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4279,19 +4279,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F41" t="n">
-        <v>3154333928</v>
+        <v>3144173593</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>3273134651</v>
+        <v>3262591650</v>
       </c>
       <c r="I41" t="n">
-        <v>301288975</v>
+        <v>300112042</v>
       </c>
       <c r="J41" t="n">
         <v>2.71</v>
@@ -4300,16 +4300,16 @@
         <v>2.56</v>
       </c>
       <c r="L41" t="n">
-        <v>0.062457</v>
+        <v>0.04970126</v>
       </c>
       <c r="M41" t="n">
-        <v>2.42654</v>
+        <v>1.92564</v>
       </c>
       <c r="N41" t="n">
-        <v>95744611</v>
+        <v>67084660</v>
       </c>
       <c r="O41" t="n">
-        <v>3.13035</v>
+        <v>2.18013</v>
       </c>
       <c r="P41" t="n">
         <v>1194977992</v>
@@ -4343,7 +4343,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.000Z</t>
+          <t>2025-03-14T23:12:20.522Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7.18e-06</v>
+        <v>7.16e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>3024384688</v>
+        <v>3015116739</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>3024384688</v>
+        <v>3015116739</v>
       </c>
       <c r="I42" t="n">
-        <v>793366192</v>
+        <v>793578003</v>
       </c>
       <c r="J42" t="n">
         <v>7.3e-06</v>
@@ -4393,16 +4393,16 @@
         <v>6.67e-06</v>
       </c>
       <c r="L42" t="n">
-        <v>4.88375e-07</v>
+        <v>4.20736e-07</v>
       </c>
       <c r="M42" t="n">
-        <v>7.29378</v>
+        <v>6.24277</v>
       </c>
       <c r="N42" t="n">
-        <v>218663305</v>
+        <v>191353658</v>
       </c>
       <c r="O42" t="n">
-        <v>7.79348</v>
+        <v>6.77655</v>
       </c>
       <c r="P42" t="n">
         <v>420690000000000</v>
@@ -4417,7 +4417,7 @@
         <v>2.803e-05</v>
       </c>
       <c r="T42" t="n">
-        <v>-74.37805</v>
+        <v>-74.37812</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>5.5142e-08</v>
       </c>
       <c r="W42" t="n">
-        <v>12923.3159</v>
+        <v>12923.28246</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.995Z</t>
+          <t>2025-03-14T23:12:18.357Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4467,19 +4467,19 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>46.4</v>
+        <v>46.33</v>
       </c>
       <c r="F43" t="n">
-        <v>2785364628</v>
+        <v>2777972565</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>10953803173</v>
+        <v>10924732937</v>
       </c>
       <c r="I43" t="n">
-        <v>13082941</v>
+        <v>15837675</v>
       </c>
       <c r="J43" t="n">
         <v>46.59</v>
@@ -4488,16 +4488,16 @@
         <v>41.02</v>
       </c>
       <c r="L43" t="n">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="M43" t="n">
-        <v>12.83326</v>
+        <v>12.83455</v>
       </c>
       <c r="N43" t="n">
-        <v>320500532</v>
+        <v>307593165</v>
       </c>
       <c r="O43" t="n">
-        <v>13.00277</v>
+        <v>12.45125</v>
       </c>
       <c r="P43" t="n">
         <v>60000000</v>
@@ -4533,7 +4533,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.225Z</t>
+          <t>2025-03-14T23:12:19.793Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4562,19 +4562,19 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.876497</v>
+        <v>0.875342</v>
       </c>
       <c r="F44" t="n">
-        <v>2771879960</v>
+        <v>2766803756</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>8774250117</v>
+        <v>8758181641</v>
       </c>
       <c r="I44" t="n">
-        <v>144472392</v>
+        <v>144273296</v>
       </c>
       <c r="J44" t="n">
         <v>0.89352</v>
@@ -4583,16 +4583,16 @@
         <v>0.824812</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03926337</v>
+        <v>0.03252525</v>
       </c>
       <c r="M44" t="n">
-        <v>4.68965</v>
+        <v>3.85911</v>
       </c>
       <c r="N44" t="n">
-        <v>129949755</v>
+        <v>121189624</v>
       </c>
       <c r="O44" t="n">
-        <v>4.91874</v>
+        <v>4.58077</v>
       </c>
       <c r="P44" t="n">
         <v>3159107529</v>
@@ -4607,7 +4607,7 @@
         <v>2.14</v>
       </c>
       <c r="T44" t="n">
-        <v>-59.11886</v>
+        <v>-59.05182</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>0.08217099999999999</v>
       </c>
       <c r="W44" t="n">
-        <v>964.75568</v>
+        <v>966.50168</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.875Z</t>
+          <t>2025-03-14T23:12:18.557Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4657,19 +4657,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="F45" t="n">
-        <v>2744032922</v>
+        <v>2733166928</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>3022630628</v>
+        <v>3010661425</v>
       </c>
       <c r="I45" t="n">
-        <v>57633088</v>
+        <v>56879970</v>
       </c>
       <c r="J45" t="n">
         <v>5.73</v>
@@ -4678,16 +4678,16 @@
         <v>5.42</v>
       </c>
       <c r="L45" t="n">
-        <v>0.256704</v>
+        <v>0.22224</v>
       </c>
       <c r="M45" t="n">
-        <v>4.72268</v>
+        <v>4.07779</v>
       </c>
       <c r="N45" t="n">
-        <v>131791855</v>
+        <v>104479284</v>
       </c>
       <c r="O45" t="n">
-        <v>5.04516</v>
+        <v>3.97458</v>
       </c>
       <c r="P45" t="n">
         <v>481400993.9418285</v>
@@ -4721,7 +4721,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.406Z</t>
+          <t>2025-03-14T23:12:20.239Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4750,19 +4750,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.08</v>
+        <v>18.06</v>
       </c>
       <c r="F46" t="n">
-        <v>2732799427</v>
+        <v>2728656291</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>2732799427</v>
+        <v>2728656291</v>
       </c>
       <c r="I46" t="n">
-        <v>82974014</v>
+        <v>83016206</v>
       </c>
       <c r="J46" t="n">
         <v>18.45</v>
@@ -4771,16 +4771,16 @@
         <v>17.85</v>
       </c>
       <c r="L46" t="n">
-        <v>0.166519</v>
+        <v>0.147925</v>
       </c>
       <c r="M46" t="n">
-        <v>0.92939</v>
+        <v>0.82603</v>
       </c>
       <c r="N46" t="n">
-        <v>26072005</v>
+        <v>14688339</v>
       </c>
       <c r="O46" t="n">
-        <v>0.96323</v>
+        <v>0.54121</v>
       </c>
       <c r="P46" t="n">
         <v>151118372.1174495</v>
@@ -4816,11 +4816,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.153Z</t>
+          <t>2025-03-14T23:12:20.250Z</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>39.18580885613702</v>
+        <v>39.12422766806704</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>3918.580885613702</v>
+        <v>3912.422766806705</v>
       </c>
     </row>
     <row r="47">
@@ -4853,19 +4853,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>175.21</v>
+        <v>174.7</v>
       </c>
       <c r="F47" t="n">
-        <v>2643920226</v>
+        <v>2635783965</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>2803615829</v>
+        <v>2794988129</v>
       </c>
       <c r="I47" t="n">
-        <v>377706477</v>
+        <v>376114292</v>
       </c>
       <c r="J47" t="n">
         <v>175.65</v>
@@ -4874,16 +4874,16 @@
         <v>162.18</v>
       </c>
       <c r="L47" t="n">
-        <v>11.25</v>
+        <v>10.85</v>
       </c>
       <c r="M47" t="n">
-        <v>6.8621</v>
+        <v>6.62085</v>
       </c>
       <c r="N47" t="n">
-        <v>169787626</v>
+        <v>155221445</v>
       </c>
       <c r="O47" t="n">
-        <v>6.86251</v>
+        <v>6.25751</v>
       </c>
       <c r="P47" t="n">
         <v>15088630.60772985</v>
@@ -4919,7 +4919,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.772Z</t>
+          <t>2025-03-14T23:12:18.277Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4948,19 +4948,19 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.29</v>
+        <v>21.25</v>
       </c>
       <c r="F48" t="n">
-        <v>2617592313</v>
+        <v>2614106455</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>6389015853</v>
+        <v>6380507577</v>
       </c>
       <c r="I48" t="n">
-        <v>24774598</v>
+        <v>24794357</v>
       </c>
       <c r="J48" t="n">
         <v>21.47</v>
@@ -4969,16 +4969,16 @@
         <v>20</v>
       </c>
       <c r="L48" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="M48" t="n">
-        <v>5.80879</v>
+        <v>5.58937</v>
       </c>
       <c r="N48" t="n">
-        <v>148522157</v>
+        <v>138058312</v>
       </c>
       <c r="O48" t="n">
-        <v>6.01531</v>
+        <v>5.57575</v>
       </c>
       <c r="P48" t="n">
         <v>122910587.7676574</v>
@@ -5012,7 +5012,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.757Z</t>
+          <t>2025-03-14T23:12:18.488Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5041,19 +5041,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>84437</v>
+        <v>84286</v>
       </c>
       <c r="F49" t="n">
-        <v>2554505297</v>
+        <v>2550676341</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>2554505297</v>
+        <v>2550676341</v>
       </c>
       <c r="I49" t="n">
-        <v>239882644</v>
+        <v>239096608</v>
       </c>
       <c r="J49" t="n">
         <v>85171</v>
@@ -5062,16 +5062,16 @@
         <v>80826</v>
       </c>
       <c r="L49" t="n">
-        <v>3154.73</v>
+        <v>2948.55</v>
       </c>
       <c r="M49" t="n">
-        <v>3.88121</v>
+        <v>3.62509</v>
       </c>
       <c r="N49" t="n">
-        <v>80924098</v>
+        <v>72807883</v>
       </c>
       <c r="O49" t="n">
-        <v>3.27154</v>
+        <v>2.93833</v>
       </c>
       <c r="P49" t="n">
         <v>30238.96055587</v>
@@ -5084,7 +5084,7 @@
         <v>108953</v>
       </c>
       <c r="T49" t="n">
-        <v>-22.53753</v>
+        <v>-22.52651</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>57439</v>
       </c>
       <c r="W49" t="n">
-        <v>46.93484</v>
+        <v>46.95575</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.997Z</t>
+          <t>2025-03-14T23:12:19.091Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5134,19 +5134,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.7336819999999999</v>
+        <v>0.733405</v>
       </c>
       <c r="F50" t="n">
-        <v>2469008712</v>
+        <v>2467047423</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>4563727222</v>
+        <v>4560101967</v>
       </c>
       <c r="I50" t="n">
-        <v>44939557</v>
+        <v>44874934</v>
       </c>
       <c r="J50" t="n">
         <v>0.738152</v>
@@ -5155,16 +5155,16 @@
         <v>0.720938</v>
       </c>
       <c r="L50" t="n">
-        <v>0.00654466</v>
+        <v>0.00546563</v>
       </c>
       <c r="M50" t="n">
-        <v>0.90006</v>
+        <v>0.75084</v>
       </c>
       <c r="N50" t="n">
-        <v>18631288</v>
+        <v>15443191</v>
       </c>
       <c r="O50" t="n">
-        <v>0.76034</v>
+        <v>0.62992</v>
       </c>
       <c r="P50" t="n">
         <v>3364694382.83684</v>
@@ -5179,7 +5179,7 @@
         <v>1.54</v>
       </c>
       <c r="T50" t="n">
-        <v>-52.35272</v>
+        <v>-52.34228</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>0.307978</v>
       </c>
       <c r="W50" t="n">
-        <v>138.05472</v>
+        <v>138.10689</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.993Z</t>
+          <t>2025-03-14T23:12:19.052Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5229,19 +5229,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>2408173400</v>
+        <v>2401198241</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>12040868373</v>
+        <v>12005992574</v>
       </c>
       <c r="I51" t="n">
-        <v>1661158077</v>
+        <v>1509010213</v>
       </c>
       <c r="J51" t="n">
         <v>12.24</v>
@@ -5250,16 +5250,16 @@
         <v>10.67</v>
       </c>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
-        <v>12.75869</v>
+        <v>11.78032</v>
       </c>
       <c r="N51" t="n">
-        <v>275910998</v>
+        <v>251899425</v>
       </c>
       <c r="O51" t="n">
-        <v>12.93982</v>
+        <v>11.72007</v>
       </c>
       <c r="P51" t="n">
         <v>199999977.236</v>
@@ -5274,7 +5274,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="T51" t="n">
-        <v>-83.63602</v>
+        <v>-83.63818000000001</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>4.29</v>
       </c>
       <c r="W51" t="n">
-        <v>180.05322</v>
+        <v>180.01628</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.106Z</t>
+          <t>2025-03-14T23:12:17.911Z</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr"/>
@@ -5324,19 +5324,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.083106</v>
+        <v>0.082968</v>
       </c>
       <c r="F52" t="n">
-        <v>2278944347</v>
+        <v>2271781693</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2497061429</v>
+        <v>2489211009</v>
       </c>
       <c r="I52" t="n">
-        <v>30150503</v>
+        <v>29906132</v>
       </c>
       <c r="J52" t="n">
         <v>0.084107</v>
@@ -5345,19 +5345,19 @@
         <v>0.080745</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00185259</v>
+        <v>0.00178994</v>
       </c>
       <c r="M52" t="n">
-        <v>2.28001</v>
+        <v>2.20497</v>
       </c>
       <c r="N52" t="n">
-        <v>56372656</v>
+        <v>45707227</v>
       </c>
       <c r="O52" t="n">
-        <v>2.53637</v>
+        <v>2.05327</v>
       </c>
       <c r="P52" t="n">
-        <v>27379514826.40648</v>
+        <v>27379539357.11595</v>
       </c>
       <c r="Q52" t="n">
         <v>30000000000</v>
@@ -5388,7 +5388,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.619Z</t>
+          <t>2025-03-14T23:12:18.552Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5417,19 +5417,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.99</v>
+        <v>27.97</v>
       </c>
       <c r="F53" t="n">
-        <v>2240054113</v>
+        <v>2236992749</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2800207685</v>
+        <v>2796380789</v>
       </c>
       <c r="I53" t="n">
-        <v>15981599</v>
+        <v>15952198</v>
       </c>
       <c r="J53" t="n">
         <v>28.09</v>
@@ -5438,16 +5438,16 @@
         <v>26.8</v>
       </c>
       <c r="L53" t="n">
-        <v>1.067</v>
+        <v>1.052</v>
       </c>
       <c r="M53" t="n">
-        <v>3.96171</v>
+        <v>3.90822</v>
       </c>
       <c r="N53" t="n">
-        <v>89565483</v>
+        <v>80947983</v>
       </c>
       <c r="O53" t="n">
-        <v>4.16489</v>
+        <v>3.75447</v>
       </c>
       <c r="P53" t="n">
         <v>79995999.05112354</v>
@@ -5483,11 +5483,11 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.557Z</t>
+          <t>2025-03-14T23:12:17.875Z</t>
         </is>
       </c>
       <c r="AA53" t="n">
-        <v>95.36068371050341</v>
+        <v>95.26672515245831</v>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>9536.06837105034</v>
+        <v>9526.672515245831</v>
       </c>
     </row>
     <row r="54">
@@ -5520,19 +5520,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>260.67</v>
+        <v>258.82</v>
       </c>
       <c r="F54" t="n">
-        <v>2204897960</v>
+        <v>2195799372</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>5475504265</v>
+        <v>5452909408</v>
       </c>
       <c r="I54" t="n">
-        <v>99783966</v>
+        <v>99507217</v>
       </c>
       <c r="J54" t="n">
         <v>261.08</v>
@@ -5541,16 +5541,16 @@
         <v>237.85</v>
       </c>
       <c r="L54" t="n">
-        <v>21.21</v>
+        <v>19.33</v>
       </c>
       <c r="M54" t="n">
-        <v>8.856389999999999</v>
+        <v>8.07211</v>
       </c>
       <c r="N54" t="n">
-        <v>178022485</v>
+        <v>172191740</v>
       </c>
       <c r="O54" t="n">
-        <v>8.783099999999999</v>
+        <v>8.50915</v>
       </c>
       <c r="P54" t="n">
         <v>8456364</v>
@@ -5565,7 +5565,7 @@
         <v>757.6</v>
       </c>
       <c r="T54" t="n">
-        <v>-65.822</v>
+        <v>-65.62648</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>30.83</v>
       </c>
       <c r="W54" t="n">
-        <v>739.87825</v>
+        <v>744.68304</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.625Z</t>
+          <t>2025-03-14T23:12:17.794Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5615,19 +5615,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.02500548</v>
+        <v>0.02495304</v>
       </c>
       <c r="F55" t="n">
-        <v>2150764371</v>
+        <v>2145358546</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>2150764371</v>
+        <v>2145358546</v>
       </c>
       <c r="I55" t="n">
-        <v>53493020</v>
+        <v>53007557</v>
       </c>
       <c r="J55" t="n">
         <v>0.02504294</v>
@@ -5636,16 +5636,16 @@
         <v>0.02367063</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00122475</v>
+        <v>0.00107254</v>
       </c>
       <c r="M55" t="n">
-        <v>5.15019</v>
+        <v>4.49128</v>
       </c>
       <c r="N55" t="n">
-        <v>108262822</v>
+        <v>93825582</v>
       </c>
       <c r="O55" t="n">
-        <v>5.3005</v>
+        <v>4.57344</v>
       </c>
       <c r="P55" t="n">
         <v>85985041177</v>
@@ -5681,11 +5681,11 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.887Z</t>
+          <t>2025-03-14T23:12:18.744Z</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>3.544201682802894</v>
+        <v>3.543792991679053</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>354.4201682802894</v>
+        <v>354.3792991679053</v>
       </c>
     </row>
     <row r="56">
@@ -5718,19 +5718,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.998821</v>
+        <v>0.998922</v>
       </c>
       <c r="F56" t="n">
-        <v>2076077137</v>
+        <v>2076196001</v>
       </c>
       <c r="G56" t="n">
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>2076077137</v>
+        <v>2076196001</v>
       </c>
       <c r="I56" t="n">
-        <v>4291526620</v>
+        <v>4284228654</v>
       </c>
       <c r="J56" t="n">
         <v>1.003</v>
@@ -5739,16 +5739,16 @@
         <v>0.995407</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00133642</v>
+        <v>-0.001805435877427874</v>
       </c>
       <c r="M56" t="n">
-        <v>0.13398</v>
+        <v>-0.18041</v>
       </c>
       <c r="N56" t="n">
-        <v>16409009</v>
+        <v>18791345</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7966800000000001</v>
+        <v>0.91335</v>
       </c>
       <c r="P56" t="n">
         <v>2078518049.61862</v>
@@ -5761,7 +5761,7 @@
         <v>1.15</v>
       </c>
       <c r="T56" t="n">
-        <v>-13.30668</v>
+        <v>-13.24779</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>0.940377</v>
       </c>
       <c r="W56" t="n">
-        <v>6.14129</v>
+        <v>6.21338</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.855Z</t>
+          <t>2025-03-14T23:12:19.071Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5811,19 +5811,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.078579</v>
+        <v>0.078226</v>
       </c>
       <c r="F57" t="n">
-        <v>2033917576</v>
+        <v>2019621334</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>2036456672</v>
+        <v>2022142583</v>
       </c>
       <c r="I57" t="n">
-        <v>75088454</v>
+        <v>74919061</v>
       </c>
       <c r="J57" t="n">
         <v>0.07862</v>
@@ -5832,16 +5832,16 @@
         <v>0.07040299999999999</v>
       </c>
       <c r="L57" t="n">
-        <v>0.00701228</v>
+        <v>0.00670554</v>
       </c>
       <c r="M57" t="n">
-        <v>9.798249999999999</v>
+        <v>9.37567</v>
       </c>
       <c r="N57" t="n">
-        <v>179432156</v>
+        <v>170944389</v>
       </c>
       <c r="O57" t="n">
-        <v>9.67558</v>
+        <v>9.24685</v>
       </c>
       <c r="P57" t="n">
         <v>25826487850.01926</v>
@@ -5856,7 +5856,7 @@
         <v>0.207411</v>
       </c>
       <c r="T57" t="n">
-        <v>-62.38576</v>
+        <v>-62.11442</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>0.00017105</v>
       </c>
       <c r="W57" t="n">
-        <v>45510.20859</v>
+        <v>45839.23377</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.629Z</t>
+          <t>2025-03-14T23:12:18.718Z</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr"/>
@@ -5906,19 +5906,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="F58" t="n">
-        <v>1908138937</v>
+        <v>1902028554</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>3922946164</v>
+        <v>3910383817</v>
       </c>
       <c r="I58" t="n">
-        <v>85518476</v>
+        <v>84430763</v>
       </c>
       <c r="J58" t="n">
         <v>3.7</v>
@@ -5927,16 +5927,16 @@
         <v>3.53</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.1168284746938064</v>
+        <v>-0.1030879374659457</v>
       </c>
       <c r="M58" t="n">
-        <v>-3.19006</v>
+        <v>-2.83029</v>
       </c>
       <c r="N58" t="n">
-        <v>-66630526.38533998</v>
+        <v>-67680540.08280826</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.37409</v>
+        <v>-3.43607</v>
       </c>
       <c r="P58" t="n">
         <v>537233712.821426</v>
@@ -5949,7 +5949,7 @@
         <v>20.85</v>
       </c>
       <c r="T58" t="n">
-        <v>-82.90324</v>
+        <v>-83.004</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>2.08</v>
       </c>
       <c r="W58" t="n">
-        <v>71.09781</v>
+        <v>70.08946</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.715Z</t>
+          <t>2025-03-14T23:12:18.736Z</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr"/>
@@ -5999,19 +5999,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F59" t="n">
-        <v>1891807009</v>
+        <v>1891354155</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>1891807009</v>
+        <v>1891354155</v>
       </c>
       <c r="I59" t="n">
-        <v>121245466</v>
+        <v>121009895</v>
       </c>
       <c r="J59" t="n">
         <v>4.3</v>
@@ -6020,16 +6020,16 @@
         <v>3.9</v>
       </c>
       <c r="L59" t="n">
-        <v>0.380503</v>
+        <v>0.371254</v>
       </c>
       <c r="M59" t="n">
-        <v>9.71345</v>
+        <v>9.46693</v>
       </c>
       <c r="N59" t="n">
-        <v>166498404</v>
+        <v>165103690</v>
       </c>
       <c r="O59" t="n">
-        <v>9.65035</v>
+        <v>9.564299999999999</v>
       </c>
       <c r="P59" t="n">
         <v>440346986.195404</v>
@@ -6063,11 +6063,11 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.880Z</t>
+          <t>2025-03-14T23:12:19.203Z</t>
         </is>
       </c>
       <c r="AA59" t="n">
-        <v>41.97784136725364</v>
+        <v>41.92844415681563</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
@@ -6075,96 +6075,98 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>4197.784136725364</v>
+        <v>4192.844415681563</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ena</t>
+          <t>fil</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
+          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.354294</v>
+        <v>2.9</v>
       </c>
       <c r="F60" t="n">
-        <v>1878497888</v>
+        <v>1869136946</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>5330647273</v>
+        <v>5688411798</v>
       </c>
       <c r="I60" t="n">
-        <v>269798337</v>
+        <v>119429691</v>
       </c>
       <c r="J60" t="n">
-        <v>0.365213</v>
+        <v>2.91</v>
       </c>
       <c r="K60" t="n">
-        <v>0.333855</v>
+        <v>2.74</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01410641</v>
+        <v>0.144218</v>
       </c>
       <c r="M60" t="n">
-        <v>4.14666</v>
+        <v>5.22776</v>
       </c>
       <c r="N60" t="n">
-        <v>80180850</v>
+        <v>90007105</v>
       </c>
       <c r="O60" t="n">
-        <v>4.45866</v>
+        <v>5.05905</v>
       </c>
       <c r="P60" t="n">
-        <v>5285937500</v>
+        <v>643901370</v>
       </c>
       <c r="Q60" t="n">
-        <v>15000000000</v>
-      </c>
-      <c r="R60" t="inlineStr"/>
+        <v>1959608234</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1959608234</v>
+      </c>
       <c r="S60" t="n">
-        <v>1.52</v>
+        <v>236.84</v>
       </c>
       <c r="T60" t="n">
-        <v>-76.65336000000001</v>
+        <v>-98.77131</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2024-04-11T13:15:15.057Z</t>
+          <t>2021-04-01T13:29:41.564Z</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>0.195078</v>
+        <v>2.48</v>
       </c>
       <c r="W60" t="n">
-        <v>81.63627</v>
+        <v>17.46488</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2024-09-06T21:04:48.253Z</t>
+          <t>2025-03-11T01:10:57.279Z</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.160Z</t>
+          <t>2025-03-14T23:12:18.418Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6174,92 +6176,90 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fil</t>
+          <t>ena</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
+          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.91</v>
+        <v>0.352596</v>
       </c>
       <c r="F61" t="n">
-        <v>1872494135</v>
+        <v>1865132065</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>5698660492</v>
+        <v>5292718837</v>
       </c>
       <c r="I61" t="n">
-        <v>120996613</v>
+        <v>268399544</v>
       </c>
       <c r="J61" t="n">
-        <v>2.91</v>
+        <v>0.365213</v>
       </c>
       <c r="K61" t="n">
-        <v>2.74</v>
+        <v>0.333855</v>
       </c>
       <c r="L61" t="n">
-        <v>0.157634</v>
+        <v>0.01222389</v>
       </c>
       <c r="M61" t="n">
-        <v>5.73298</v>
+        <v>3.59134</v>
       </c>
       <c r="N61" t="n">
-        <v>102898882</v>
+        <v>58530731</v>
       </c>
       <c r="O61" t="n">
-        <v>5.81483</v>
+        <v>3.23983</v>
       </c>
       <c r="P61" t="n">
-        <v>643897795</v>
+        <v>5285937500</v>
       </c>
       <c r="Q61" t="n">
-        <v>1959608234</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1959608234</v>
-      </c>
+        <v>15000000000</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>236.84</v>
+        <v>1.52</v>
       </c>
       <c r="T61" t="n">
-        <v>-98.77131</v>
+        <v>-76.66802</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2021-04-01T13:29:41.564Z</t>
+          <t>2024-04-11T13:15:15.057Z</t>
         </is>
       </c>
       <c r="V61" t="n">
-        <v>2.48</v>
+        <v>0.195078</v>
       </c>
       <c r="W61" t="n">
-        <v>17.46488</v>
+        <v>81.52226</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:57.279Z</t>
+          <t>2024-09-06T21:04:48.253Z</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.945Z</t>
+          <t>2025-03-14T23:12:18.949Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6288,19 +6288,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.216469</v>
+        <v>0.215906</v>
       </c>
       <c r="F62" t="n">
-        <v>1861894874</v>
+        <v>1856152056</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>2249467689</v>
+        <v>2242529444</v>
       </c>
       <c r="I62" t="n">
-        <v>70540289</v>
+        <v>72802457</v>
       </c>
       <c r="J62" t="n">
         <v>0.218705</v>
@@ -6309,16 +6309,16 @@
         <v>0.210199</v>
       </c>
       <c r="L62" t="n">
-        <v>0.004278</v>
+        <v>0.00392075</v>
       </c>
       <c r="M62" t="n">
-        <v>2.01611</v>
+        <v>1.84954</v>
       </c>
       <c r="N62" t="n">
-        <v>37450455</v>
+        <v>29937270</v>
       </c>
       <c r="O62" t="n">
-        <v>2.0527</v>
+        <v>1.63931</v>
       </c>
       <c r="P62" t="n">
         <v>8593961128.192968</v>
@@ -6331,7 +6331,7 @@
         <v>1.29</v>
       </c>
       <c r="T62" t="n">
-        <v>-83.21442</v>
+        <v>-83.18957</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>0.194083</v>
       </c>
       <c r="W62" t="n">
-        <v>11.35653</v>
+        <v>11.52139</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.888Z</t>
+          <t>2025-03-14T23:12:19.213Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6384,16 +6384,16 @@
         <v>3.99</v>
       </c>
       <c r="F63" t="n">
-        <v>1715443129</v>
+        <v>1715648587</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>3475885597</v>
+        <v>3476301903</v>
       </c>
       <c r="I63" t="n">
-        <v>49812842</v>
+        <v>49752637</v>
       </c>
       <c r="J63" t="n">
         <v>4.02</v>
@@ -6402,16 +6402,16 @@
         <v>3.97</v>
       </c>
       <c r="L63" t="n">
-        <v>0.00209999</v>
+        <v>-0.001193956361132731</v>
       </c>
       <c r="M63" t="n">
-        <v>0.05263</v>
+        <v>-0.02992</v>
       </c>
       <c r="N63" t="n">
-        <v>-2117911.61583066</v>
+        <v>685190</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.12331</v>
+        <v>0.03995</v>
       </c>
       <c r="P63" t="n">
         <v>429734837</v>
@@ -6426,7 +6426,7 @@
         <v>4.07</v>
       </c>
       <c r="T63" t="n">
-        <v>-2.0148</v>
+        <v>-2.03864</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>0.398142</v>
       </c>
       <c r="W63" t="n">
-        <v>902.48802</v>
+        <v>902.2441700000001</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.382Z</t>
+          <t>2025-03-14T23:12:18.271Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6476,19 +6476,19 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.537087</v>
+        <v>0.535469</v>
       </c>
       <c r="F64" t="n">
-        <v>1706483587</v>
+        <v>1701138956</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1706483587</v>
+        <v>1701138956</v>
       </c>
       <c r="I64" t="n">
-        <v>221761679</v>
+        <v>221144702</v>
       </c>
       <c r="J64" t="n">
         <v>0.544347</v>
@@ -6497,16 +6497,16 @@
         <v>0.480976</v>
       </c>
       <c r="L64" t="n">
-        <v>0.051167</v>
+        <v>0.04760593</v>
       </c>
       <c r="M64" t="n">
-        <v>10.5299</v>
+        <v>9.75806</v>
       </c>
       <c r="N64" t="n">
-        <v>165673089</v>
+        <v>153328518</v>
       </c>
       <c r="O64" t="n">
-        <v>10.75233</v>
+        <v>9.90616</v>
       </c>
       <c r="P64" t="n">
         <v>3175000000</v>
@@ -6519,7 +6519,7 @@
         <v>1.029</v>
       </c>
       <c r="T64" t="n">
-        <v>-47.80628</v>
+        <v>-47.88118</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>0.359647</v>
       </c>
       <c r="W64" t="n">
-        <v>49.40194</v>
+        <v>49.18756</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.204Z</t>
+          <t>2025-03-14T23:12:19.047Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6569,19 +6569,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.200615</v>
+        <v>0.199918</v>
       </c>
       <c r="F65" t="n">
-        <v>1705694844</v>
+        <v>1698984274</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1705738268</v>
+        <v>1699027527</v>
       </c>
       <c r="I65" t="n">
-        <v>72530309</v>
+        <v>72108686</v>
       </c>
       <c r="J65" t="n">
         <v>0.204908</v>
@@ -6590,16 +6590,16 @@
         <v>0.194474</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00458208</v>
+        <v>0.00345207</v>
       </c>
       <c r="M65" t="n">
-        <v>2.33741</v>
+        <v>1.75708</v>
       </c>
       <c r="N65" t="n">
-        <v>40489397</v>
+        <v>27770864</v>
       </c>
       <c r="O65" t="n">
-        <v>2.4315</v>
+        <v>1.66172</v>
       </c>
       <c r="P65" t="n">
         <v>8497594805.82511</v>
@@ -6635,11 +6635,11 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:10.922Z</t>
+          <t>2025-03-14T23:12:19.722Z</t>
         </is>
       </c>
       <c r="AA65" t="n">
-        <v>-0.9164105322753805</v>
+        <v>-0.9167008728590633</v>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
@@ -6647,96 +6647,96 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>-91.64105322753805</v>
+        <v>-91.67008728590633</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>render-token</t>
+          <t>lombard-staked-btc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>lbtc</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Lombard Staked BTC</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.21</v>
+        <v>84333</v>
       </c>
       <c r="F66" t="n">
-        <v>1664504439</v>
+        <v>1660603920</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1711959696</v>
+        <v>1660603920</v>
       </c>
       <c r="I66" t="n">
-        <v>136365245</v>
+        <v>8567303</v>
       </c>
       <c r="J66" t="n">
-        <v>3.22</v>
+        <v>85285</v>
       </c>
       <c r="K66" t="n">
-        <v>2.95</v>
+        <v>80965</v>
       </c>
       <c r="L66" t="n">
-        <v>0.260096</v>
+        <v>3057.74</v>
       </c>
       <c r="M66" t="n">
-        <v>8.810090000000001</v>
+        <v>3.7622</v>
       </c>
       <c r="N66" t="n">
-        <v>136249790</v>
+        <v>1660603920</v>
       </c>
       <c r="O66" t="n">
-        <v>8.91539</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>517716590.0562826</v>
+        <v>19684.81531537</v>
       </c>
       <c r="Q66" t="n">
-        <v>532476763.3362826</v>
+        <v>19684.81531537</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>13.53</v>
+        <v>114576</v>
       </c>
       <c r="T66" t="n">
-        <v>-76.22001</v>
+        <v>-26.31172</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2024-03-17T16:30:24.636Z</t>
+          <t>2025-02-04T01:47:44.052Z</t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>0.03665669</v>
+        <v>52119</v>
       </c>
       <c r="W66" t="n">
-        <v>8680.24706</v>
+        <v>61.99132</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2020-06-16T13:22:25.900Z</t>
+          <t>2024-09-06T21:01:52.094Z</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.784Z</t>
+          <t>2025-03-14T23:12:19.437Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6746,90 +6746,90 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>lombard-staked-btc</t>
+          <t>render-token</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lbtc</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lombard Staked BTC</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>84507</v>
+        <v>3.19</v>
       </c>
       <c r="F67" t="n">
-        <v>1663729466</v>
+        <v>1653319828</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>1663729466</v>
+        <v>1700456210</v>
       </c>
       <c r="I67" t="n">
-        <v>8585675</v>
+        <v>135146400</v>
       </c>
       <c r="J67" t="n">
-        <v>85285</v>
+        <v>3.22</v>
       </c>
       <c r="K67" t="n">
-        <v>80965</v>
+        <v>2.95</v>
       </c>
       <c r="L67" t="n">
-        <v>3477.61</v>
+        <v>0.235398</v>
       </c>
       <c r="M67" t="n">
-        <v>4.29176</v>
+        <v>7.95876</v>
       </c>
       <c r="N67" t="n">
-        <v>1663729466</v>
+        <v>119922221</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>7.82069</v>
       </c>
       <c r="P67" t="n">
-        <v>19684.81531537</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="Q67" t="n">
-        <v>19684.81531537</v>
+        <v>532476763.3362826</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>114576</v>
+        <v>13.53</v>
       </c>
       <c r="T67" t="n">
-        <v>-26.27152</v>
+        <v>-76.22001</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2025-02-04T01:47:44.052Z</t>
+          <t>2024-03-17T16:30:24.636Z</t>
         </is>
       </c>
       <c r="V67" t="n">
-        <v>52119</v>
+        <v>0.03665669</v>
       </c>
       <c r="W67" t="n">
-        <v>62.07971</v>
+        <v>8680.24706</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>2024-09-06T21:01:52.094Z</t>
+          <t>2020-06-16T13:22:25.900Z</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.388Z</t>
+          <t>2025-03-14T23:12:20.299Z</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr"/>
@@ -6858,19 +6858,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.362421</v>
+        <v>0.361745</v>
       </c>
       <c r="F68" t="n">
-        <v>1601936718</v>
+        <v>1599420177</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>3624854936</v>
+        <v>3619160519</v>
       </c>
       <c r="I68" t="n">
-        <v>152223657</v>
+        <v>151268832</v>
       </c>
       <c r="J68" t="n">
         <v>0.365744</v>
@@ -6879,16 +6879,16 @@
         <v>0.342861</v>
       </c>
       <c r="L68" t="n">
-        <v>0.01917268</v>
+        <v>0.01738341</v>
       </c>
       <c r="M68" t="n">
-        <v>5.58566</v>
+        <v>5.04802</v>
       </c>
       <c r="N68" t="n">
-        <v>85826930</v>
+        <v>77250219</v>
       </c>
       <c r="O68" t="n">
-        <v>5.661</v>
+        <v>5.07501</v>
       </c>
       <c r="P68" t="n">
         <v>4419312625</v>
@@ -6924,7 +6924,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.887Z</t>
+          <t>2025-03-14T23:12:19.378Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6953,19 +6953,19 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F69" t="n">
-        <v>1532538396</v>
+        <v>1535059655</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>5952853308</v>
+        <v>5962646657</v>
       </c>
       <c r="I69" t="n">
-        <v>135583340</v>
+        <v>135520442</v>
       </c>
       <c r="J69" t="n">
         <v>6.36</v>
@@ -6974,16 +6974,16 @@
         <v>5.61</v>
       </c>
       <c r="L69" t="n">
-        <v>0.197451</v>
+        <v>0.206814</v>
       </c>
       <c r="M69" t="n">
-        <v>3.43045</v>
+        <v>3.60632</v>
       </c>
       <c r="N69" t="n">
-        <v>52658284</v>
+        <v>50576759</v>
       </c>
       <c r="O69" t="n">
-        <v>3.55828</v>
+        <v>3.40703</v>
       </c>
       <c r="P69" t="n">
         <v>257616835.95</v>
@@ -6996,7 +6996,7 @@
         <v>7.31</v>
       </c>
       <c r="T69" t="n">
-        <v>-19.26638</v>
+        <v>-18.51024</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>490.27446</v>
+        <v>495.80289</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.873Z</t>
+          <t>2025-03-14T23:12:18.438Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7046,19 +7046,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.999795</v>
+        <v>0.999759</v>
       </c>
       <c r="F70" t="n">
-        <v>1458763444</v>
+        <v>1457997019</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>1458763444</v>
+        <v>1457997019</v>
       </c>
       <c r="I70" t="n">
-        <v>70735006</v>
+        <v>70336898</v>
       </c>
       <c r="J70" t="n">
         <v>1.003</v>
@@ -7067,16 +7067,16 @@
         <v>0.997158</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00119298</v>
+        <v>-0.00095522492891098</v>
       </c>
       <c r="M70" t="n">
-        <v>0.11947</v>
+        <v>-0.09544999999999999</v>
       </c>
       <c r="N70" t="n">
-        <v>13477338</v>
+        <v>11343894</v>
       </c>
       <c r="O70" t="n">
-        <v>0.9325</v>
+        <v>0.78415</v>
       </c>
       <c r="P70" t="n">
         <v>1459186052.199359</v>
@@ -7089,7 +7089,7 @@
         <v>1.16</v>
       </c>
       <c r="T70" t="n">
-        <v>-13.74441</v>
+        <v>-13.76795</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>0.938168</v>
       </c>
       <c r="W70" t="n">
-        <v>6.59185</v>
+        <v>6.56276</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.983Z</t>
+          <t>2025-03-14T23:12:20.686Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7139,37 +7139,37 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.533075</v>
+        <v>0.531277</v>
       </c>
       <c r="F71" t="n">
-        <v>1435818416</v>
+        <v>1431734875</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>3735053828</v>
+        <v>3724431146</v>
       </c>
       <c r="I71" t="n">
-        <v>73419927</v>
+        <v>68936903</v>
       </c>
       <c r="J71" t="n">
         <v>0.534962</v>
       </c>
       <c r="K71" t="n">
-        <v>0.50076</v>
+        <v>0.500942</v>
       </c>
       <c r="L71" t="n">
-        <v>0.03231548</v>
+        <v>0.02769894</v>
       </c>
       <c r="M71" t="n">
-        <v>6.45329</v>
+        <v>5.50043</v>
       </c>
       <c r="N71" t="n">
-        <v>85871553</v>
+        <v>76786593</v>
       </c>
       <c r="O71" t="n">
-        <v>6.36111</v>
+        <v>5.66712</v>
       </c>
       <c r="P71" t="n">
         <v>2690911111.1</v>
@@ -7184,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="T71" t="n">
-        <v>-73.48905999999999</v>
+        <v>-73.34641999999999</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>0.454413</v>
       </c>
       <c r="W71" t="n">
-        <v>16.68293</v>
+        <v>17.31071</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:13.233Z</t>
+          <t>2025-03-14T23:12:21.079Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7234,19 +7234,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.878574</v>
+        <v>0.875896</v>
       </c>
       <c r="F72" t="n">
-        <v>1424635723</v>
+        <v>1419939495</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>3775369759</v>
+        <v>3762924475</v>
       </c>
       <c r="I72" t="n">
-        <v>98319279</v>
+        <v>98041775</v>
       </c>
       <c r="J72" t="n">
         <v>0.890665</v>
@@ -7255,16 +7255,16 @@
         <v>0.834273</v>
       </c>
       <c r="L72" t="n">
-        <v>0.03548634</v>
+        <v>0.03360032</v>
       </c>
       <c r="M72" t="n">
-        <v>4.20909</v>
+        <v>3.98914</v>
       </c>
       <c r="N72" t="n">
-        <v>59917354</v>
+        <v>53316196</v>
       </c>
       <c r="O72" t="n">
-        <v>4.39046</v>
+        <v>3.90131</v>
       </c>
       <c r="P72" t="n">
         <v>1620705846</v>
@@ -7279,7 +7279,7 @@
         <v>4.84</v>
       </c>
       <c r="T72" t="n">
-        <v>-81.88625999999999</v>
+        <v>-81.86381</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
         <v>0.402159</v>
       </c>
       <c r="W72" t="n">
-        <v>118.19367</v>
+        <v>118.46413</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.962Z</t>
+          <t>2025-03-14T23:12:20.771Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.14</v>
+        <v>11.13</v>
       </c>
       <c r="F73" t="n">
-        <v>1365010010</v>
+        <v>1364023373</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>1587756498</v>
+        <v>1586608858</v>
       </c>
       <c r="I73" t="n">
-        <v>31645</v>
+        <v>59616</v>
       </c>
       <c r="J73" t="n">
         <v>11.16</v>
@@ -7350,16 +7350,16 @@
         <v>10.9</v>
       </c>
       <c r="L73" t="n">
-        <v>0.190558</v>
+        <v>0.197853</v>
       </c>
       <c r="M73" t="n">
-        <v>1.74097</v>
+        <v>1.81003</v>
       </c>
       <c r="N73" t="n">
-        <v>23822349</v>
+        <v>18963541</v>
       </c>
       <c r="O73" t="n">
-        <v>1.77621</v>
+        <v>1.40987</v>
       </c>
       <c r="P73" t="n">
         <v>122561753.8513356</v>
@@ -7393,7 +7393,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.734Z</t>
+          <t>2025-03-14T23:12:18.528Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7422,37 +7422,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.521915</v>
+        <v>0.5214299999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1360111853</v>
+        <v>1358397087</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1417302593</v>
+        <v>1415515723</v>
       </c>
       <c r="I74" t="n">
-        <v>129215607</v>
+        <v>128639987</v>
       </c>
       <c r="J74" t="n">
         <v>0.522105</v>
       </c>
       <c r="K74" t="n">
-        <v>0.495723</v>
+        <v>0.495977</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02619195</v>
+        <v>0.02389698</v>
       </c>
       <c r="M74" t="n">
-        <v>5.28359</v>
+        <v>4.80309</v>
       </c>
       <c r="N74" t="n">
-        <v>68876375</v>
+        <v>62116131</v>
       </c>
       <c r="O74" t="n">
-        <v>5.33415</v>
+        <v>4.79187</v>
       </c>
       <c r="P74" t="n">
         <v>2604959126.672</v>
@@ -7488,11 +7488,11 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.865Z</t>
+          <t>2025-03-14T23:12:19.162Z</t>
         </is>
       </c>
       <c r="AA74" t="n">
-        <v>5.019780805369751</v>
+        <v>5.014185344322211</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>501.9780805369751</v>
+        <v>501.4185344322211</v>
       </c>
     </row>
     <row r="75">
@@ -7525,19 +7525,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>84247</v>
+        <v>84218</v>
       </c>
       <c r="F75" t="n">
-        <v>1339182866</v>
+        <v>1338114224</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1339182866</v>
+        <v>1338114224</v>
       </c>
       <c r="I75" t="n">
-        <v>3931882</v>
+        <v>3929027</v>
       </c>
       <c r="J75" t="n">
         <v>85015</v>
@@ -7546,16 +7546,16 @@
         <v>80742</v>
       </c>
       <c r="L75" t="n">
-        <v>3166.93</v>
+        <v>3125.71</v>
       </c>
       <c r="M75" t="n">
-        <v>3.90594</v>
+        <v>3.85451</v>
       </c>
       <c r="N75" t="n">
-        <v>62879688</v>
+        <v>60919645</v>
       </c>
       <c r="O75" t="n">
-        <v>4.9267</v>
+        <v>4.7698</v>
       </c>
       <c r="P75" t="n">
         <v>15900.76503849159</v>
@@ -7570,7 +7570,7 @@
         <v>108929</v>
       </c>
       <c r="T75" t="n">
-        <v>-22.70853</v>
+        <v>-22.71125</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>49058</v>
       </c>
       <c r="W75" t="n">
-        <v>71.62012</v>
+        <v>71.61407</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.887Z</t>
+          <t>2025-03-14T23:12:17.862Z</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr"/>
@@ -7684,7 +7684,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-03-14T22:55:04.928Z</t>
+          <t>2025-03-14T23:10:05.029Z</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr"/>
@@ -7713,19 +7713,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1927.66</v>
+        <v>1924.64</v>
       </c>
       <c r="F77" t="n">
-        <v>1165904790</v>
+        <v>1163970096</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>1165904790</v>
+        <v>1163970096</v>
       </c>
       <c r="I77" t="n">
-        <v>23965861</v>
+        <v>23963483</v>
       </c>
       <c r="J77" t="n">
         <v>1944.11</v>
@@ -7734,16 +7734,16 @@
         <v>1860.97</v>
       </c>
       <c r="L77" t="n">
-        <v>52.17</v>
+        <v>51.33</v>
       </c>
       <c r="M77" t="n">
-        <v>2.78189</v>
+        <v>2.7398</v>
       </c>
       <c r="N77" t="n">
-        <v>28952945</v>
+        <v>29648684</v>
       </c>
       <c r="O77" t="n">
-        <v>2.54654</v>
+        <v>2.61378</v>
       </c>
       <c r="P77" t="n">
         <v>604999.999959841</v>
@@ -7756,7 +7756,7 @@
         <v>4098.26</v>
       </c>
       <c r="T77" t="n">
-        <v>-53.03801</v>
+        <v>-52.99024</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>1790.63</v>
       </c>
       <c r="W77" t="n">
-        <v>7.48314</v>
+        <v>7.59249</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.822Z</t>
+          <t>2025-03-14T23:12:19.640Z</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr"/>
@@ -7806,19 +7806,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>76.70999999999999</v>
+        <v>76.34</v>
       </c>
       <c r="F78" t="n">
-        <v>1116374967</v>
+        <v>1110713693</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>1121618799</v>
+        <v>1115930932</v>
       </c>
       <c r="I78" t="n">
-        <v>25024759</v>
+        <v>24929643</v>
       </c>
       <c r="J78" t="n">
         <v>77.37</v>
@@ -7827,16 +7827,16 @@
         <v>74.44</v>
       </c>
       <c r="L78" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="M78" t="n">
-        <v>2.75322</v>
+        <v>2.20817</v>
       </c>
       <c r="N78" t="n">
-        <v>30031944</v>
+        <v>20576277</v>
       </c>
       <c r="O78" t="n">
-        <v>2.7645</v>
+        <v>1.88749</v>
       </c>
       <c r="P78" t="n">
         <v>14544176.16409109</v>
@@ -7872,11 +7872,11 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.922Z</t>
+          <t>2025-03-14T23:12:18.489Z</t>
         </is>
       </c>
       <c r="AA78" t="n">
-        <v>16.1263354429267</v>
+        <v>16.07869033033709</v>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>1612.63354429267</v>
+        <v>1607.869033033709</v>
       </c>
     </row>
     <row r="79">
@@ -7909,19 +7909,19 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.454978</v>
+        <v>0.453811</v>
       </c>
       <c r="F79" t="n">
-        <v>1093449593</v>
+        <v>1092891802</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>4556039971</v>
+        <v>4553715841</v>
       </c>
       <c r="I79" t="n">
-        <v>55655502</v>
+        <v>55427032</v>
       </c>
       <c r="J79" t="n">
         <v>0.46929</v>
@@ -7930,16 +7930,16 @@
         <v>0.442617</v>
       </c>
       <c r="L79" t="n">
-        <v>0.00832162</v>
+        <v>0.0057322</v>
       </c>
       <c r="M79" t="n">
-        <v>1.86309</v>
+        <v>1.27928</v>
       </c>
       <c r="N79" t="n">
-        <v>21531375</v>
+        <v>16982427</v>
       </c>
       <c r="O79" t="n">
-        <v>2.00868</v>
+        <v>1.57843</v>
       </c>
       <c r="P79" t="n">
         <v>2400000000</v>
@@ -7954,7 +7954,7 @@
         <v>1.45</v>
       </c>
       <c r="T79" t="n">
-        <v>-68.58436</v>
+        <v>-68.65277</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         <v>0.378282</v>
       </c>
       <c r="W79" t="n">
-        <v>20.40825</v>
+        <v>20.14603</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.449Z</t>
+          <t>2025-03-14T23:12:19.075Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -8004,19 +8004,19 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1998.91</v>
+        <v>1995.88</v>
       </c>
       <c r="F80" t="n">
-        <v>1090919231</v>
+        <v>1089996392</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>1090919231</v>
+        <v>1089996392</v>
       </c>
       <c r="I80" t="n">
-        <v>290752</v>
+        <v>290312</v>
       </c>
       <c r="J80" t="n">
         <v>2017.05</v>
@@ -8025,16 +8025,16 @@
         <v>1927.51</v>
       </c>
       <c r="L80" t="n">
-        <v>52.46</v>
+        <v>47.34</v>
       </c>
       <c r="M80" t="n">
-        <v>2.695</v>
+        <v>2.4296</v>
       </c>
       <c r="N80" t="n">
-        <v>25933675</v>
+        <v>25424828</v>
       </c>
       <c r="O80" t="n">
-        <v>2.43512</v>
+        <v>2.38827</v>
       </c>
       <c r="P80" t="n">
         <v>545706.3184496558</v>
@@ -8047,7 +8047,7 @@
         <v>4216.2</v>
       </c>
       <c r="T80" t="n">
-        <v>-52.615</v>
+        <v>-52.61214</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>1862.59</v>
       </c>
       <c r="W80" t="n">
-        <v>7.26157</v>
+        <v>7.26804</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.826Z</t>
+          <t>2025-03-14T23:12:18.493Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8097,19 +8097,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.082</v>
+        <v>1.08</v>
       </c>
       <c r="F81" t="n">
-        <v>1082605682</v>
+        <v>1080284451</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1082605682</v>
+        <v>1080284451</v>
       </c>
       <c r="I81" t="n">
-        <v>8898244</v>
+        <v>9022576</v>
       </c>
       <c r="J81" t="n">
         <v>1.099</v>
@@ -8118,16 +8118,16 @@
         <v>1.046</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03479812</v>
+        <v>0.03265434</v>
       </c>
       <c r="M81" t="n">
-        <v>3.32253</v>
+        <v>3.11721</v>
       </c>
       <c r="N81" t="n">
-        <v>34637808</v>
+        <v>31534712</v>
       </c>
       <c r="O81" t="n">
-        <v>3.30524</v>
+        <v>3.00689</v>
       </c>
       <c r="P81" t="n">
         <v>1000000000</v>
@@ -8163,11 +8163,11 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.046Z</t>
+          <t>2025-03-14T23:12:18.913Z</t>
         </is>
       </c>
       <c r="AA81" t="n">
-        <v>9.821368370869999</v>
+        <v>9.802054682550329</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>982.136837087</v>
+        <v>980.205468255033</v>
       </c>
     </row>
     <row r="82">
@@ -8200,19 +8200,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.068023</v>
+        <v>0.06797</v>
       </c>
       <c r="F82" t="n">
-        <v>1068219343</v>
+        <v>1066830392</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>2584873532</v>
+        <v>2581511920</v>
       </c>
       <c r="I82" t="n">
-        <v>35096695</v>
+        <v>35086629</v>
       </c>
       <c r="J82" t="n">
         <v>0.069342</v>
@@ -8221,19 +8221,19 @@
         <v>0.06633600000000001</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00163031</v>
+        <v>0.00156904</v>
       </c>
       <c r="M82" t="n">
-        <v>2.45555</v>
+        <v>2.36299</v>
       </c>
       <c r="N82" t="n">
-        <v>26130659</v>
+        <v>24099175</v>
       </c>
       <c r="O82" t="n">
-        <v>2.50753</v>
+        <v>2.31116</v>
       </c>
       <c r="P82" t="n">
-        <v>15694877733.45</v>
+        <v>15694881574.05</v>
       </c>
       <c r="Q82" t="n">
         <v>37978411737.15</v>
@@ -8264,11 +8264,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.176Z</t>
+          <t>2025-03-14T23:12:19.006Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>3.696710216816514</v>
+        <v>3.702447463542476</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>369.6710216816514</v>
+        <v>370.2447463542476</v>
       </c>
     </row>
     <row r="83">
@@ -8301,19 +8301,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1182.51</v>
+        <v>1182.78</v>
       </c>
       <c r="F83" t="n">
-        <v>1002815805</v>
+        <v>1003150060</v>
       </c>
       <c r="G83" t="n">
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>1033852655</v>
+        <v>1034197255</v>
       </c>
       <c r="I83" t="n">
-        <v>133286671</v>
+        <v>138260802</v>
       </c>
       <c r="J83" t="n">
         <v>1209.5</v>
@@ -8322,16 +8322,16 @@
         <v>1130.51</v>
       </c>
       <c r="L83" t="n">
-        <v>41.9</v>
+        <v>44.37</v>
       </c>
       <c r="M83" t="n">
-        <v>3.67322</v>
+        <v>3.89763</v>
       </c>
       <c r="N83" t="n">
-        <v>32917726</v>
+        <v>37243082</v>
       </c>
       <c r="O83" t="n">
-        <v>3.39394</v>
+        <v>3.85576</v>
       </c>
       <c r="P83" t="n">
         <v>847988.2148229232</v>
@@ -8367,7 +8367,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.159Z</t>
+          <t>2025-03-14T23:12:19.345Z</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr"/>
@@ -8396,19 +8396,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.3</v>
+        <v>17.27</v>
       </c>
       <c r="F84" t="n">
-        <v>987753552</v>
+        <v>986496805</v>
       </c>
       <c r="G84" t="n">
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>1669290017</v>
+        <v>1667166131</v>
       </c>
       <c r="I84" t="n">
-        <v>18490422</v>
+        <v>18350095</v>
       </c>
       <c r="J84" t="n">
         <v>17.41</v>
@@ -8417,16 +8417,16 @@
         <v>17.19</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.08587694535258095</v>
+        <v>-0.08749349509829685</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.49404</v>
+        <v>-0.5039400000000001</v>
       </c>
       <c r="N84" t="n">
-        <v>-5676914.840466619</v>
+        <v>-4254862.700758338</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.57145</v>
+        <v>-0.42946</v>
       </c>
       <c r="P84" t="n">
         <v>57103774.56313077</v>
@@ -8460,7 +8460,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.001Z</t>
+          <t>2025-03-14T23:12:18.824Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8489,19 +8489,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.556444</v>
+        <v>0.556038</v>
       </c>
       <c r="F85" t="n">
-        <v>984120372</v>
+        <v>983357386</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>1113058427</v>
+        <v>1112195477</v>
       </c>
       <c r="I85" t="n">
-        <v>31042357</v>
+        <v>30677834</v>
       </c>
       <c r="J85" t="n">
         <v>0.5566680000000001</v>
@@ -8510,16 +8510,16 @@
         <v>0.515305</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03836519</v>
+        <v>0.0366189</v>
       </c>
       <c r="M85" t="n">
-        <v>7.40528</v>
+        <v>7.04998</v>
       </c>
       <c r="N85" t="n">
-        <v>68366542</v>
+        <v>64683199</v>
       </c>
       <c r="O85" t="n">
-        <v>7.4656</v>
+        <v>7.04093</v>
       </c>
       <c r="P85" t="n">
         <v>1768317543.389814</v>
@@ -8555,7 +8555,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.974Z</t>
+          <t>2025-03-14T23:12:19.184Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8584,19 +8584,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.05</v>
+        <v>10.03</v>
       </c>
       <c r="F86" t="n">
-        <v>983362671</v>
+        <v>980885045</v>
       </c>
       <c r="G86" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H86" t="n">
-        <v>1006232109</v>
+        <v>1003696863</v>
       </c>
       <c r="I86" t="n">
-        <v>109488410</v>
+        <v>108630730</v>
       </c>
       <c r="J86" t="n">
         <v>10.29</v>
@@ -8605,16 +8605,16 @@
         <v>9.26</v>
       </c>
       <c r="L86" t="n">
-        <v>0.735806</v>
+        <v>0.68934</v>
       </c>
       <c r="M86" t="n">
-        <v>7.89663</v>
+        <v>7.37867</v>
       </c>
       <c r="N86" t="n">
-        <v>72076224</v>
+        <v>68362585</v>
       </c>
       <c r="O86" t="n">
-        <v>7.90928</v>
+        <v>7.49161</v>
       </c>
       <c r="P86" t="n">
         <v>97727220.33</v>
@@ -8648,7 +8648,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.240Z</t>
+          <t>2025-03-14T23:12:19.316Z</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr"/>
@@ -8677,19 +8677,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.647109</v>
+        <v>0.646584</v>
       </c>
       <c r="F87" t="n">
-        <v>981709211</v>
+        <v>980848726</v>
       </c>
       <c r="G87" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87" t="n">
-        <v>981709211</v>
+        <v>980848726</v>
       </c>
       <c r="I87" t="n">
-        <v>29825929</v>
+        <v>29772034</v>
       </c>
       <c r="J87" t="n">
         <v>0.660551</v>
@@ -8698,16 +8698,16 @@
         <v>0.615304</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02735419</v>
+        <v>0.02535906</v>
       </c>
       <c r="M87" t="n">
-        <v>4.41371</v>
+        <v>4.0821</v>
       </c>
       <c r="N87" t="n">
-        <v>43676349</v>
+        <v>38484991</v>
       </c>
       <c r="O87" t="n">
-        <v>4.65616</v>
+        <v>4.08388</v>
       </c>
       <c r="P87" t="n">
         <v>1516963059.52832</v>
@@ -8743,11 +8743,11 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.971Z</t>
+          <t>2025-03-14T23:12:20.231Z</t>
         </is>
       </c>
       <c r="AA87" t="n">
-        <v>4.392575358249855</v>
+        <v>4.388203596431229</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="AC87" t="n">
-        <v>439.2575358249854</v>
+        <v>438.8203596431229</v>
       </c>
     </row>
     <row r="88">
@@ -8780,19 +8780,19 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9976660000000001</v>
+        <v>0.997767</v>
       </c>
       <c r="F88" t="n">
-        <v>975910149</v>
+        <v>976033152</v>
       </c>
       <c r="G88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>975910149</v>
+        <v>976033152</v>
       </c>
       <c r="I88" t="n">
-        <v>54985942</v>
+        <v>54986276</v>
       </c>
       <c r="J88" t="n">
         <v>0.998092</v>
@@ -8801,16 +8801,16 @@
         <v>0.997421</v>
       </c>
       <c r="L88" t="n">
-        <v>-7.404869480232e-05</v>
+        <v>4.292e-05</v>
       </c>
       <c r="M88" t="n">
-        <v>-0.00742</v>
+        <v>0.0043</v>
       </c>
       <c r="N88" t="n">
-        <v>-22138647.50660169</v>
+        <v>-22020335.00521493</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.21819</v>
+        <v>-2.20633</v>
       </c>
       <c r="P88" t="n">
         <v>978194163.1626422</v>
@@ -8823,7 +8823,7 @@
         <v>1.33</v>
       </c>
       <c r="T88" t="n">
-        <v>-24.74166</v>
+        <v>-24.74393</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>0.976415</v>
       </c>
       <c r="W88" t="n">
-        <v>2.1799</v>
+        <v>2.17683</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:19.846Z</t>
+          <t>2025-03-14T23:12:19.204Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8854,92 +8854,90 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>worldcoin-wld</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>wld</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.880973</v>
+        <v>140.25</v>
       </c>
       <c r="F89" t="n">
-        <v>975289846</v>
+        <v>973477286</v>
       </c>
       <c r="G89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>8817833509</v>
+        <v>973477286</v>
       </c>
       <c r="I89" t="n">
-        <v>119894598</v>
+        <v>3237730</v>
       </c>
       <c r="J89" t="n">
-        <v>0.890367</v>
+        <v>140.35</v>
       </c>
       <c r="K89" t="n">
-        <v>0.831862</v>
+        <v>127.8</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04911048</v>
+        <v>11.5</v>
       </c>
       <c r="M89" t="n">
-        <v>5.90368</v>
+        <v>8.930820000000001</v>
       </c>
       <c r="N89" t="n">
-        <v>61087102</v>
+        <v>86258848</v>
       </c>
       <c r="O89" t="n">
-        <v>6.68201</v>
+        <v>9.722390000000001</v>
       </c>
       <c r="P89" t="n">
-        <v>1106042482.437029</v>
+        <v>6938922.183579208</v>
       </c>
       <c r="Q89" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="R89" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>6938922.183579208</v>
+      </c>
+      <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>11.74</v>
+        <v>297.96</v>
       </c>
       <c r="T89" t="n">
-        <v>-92.49957999999999</v>
+        <v>-52.97094</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2024-03-10T00:10:42.330Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V89" t="n">
-        <v>0.708589</v>
+        <v>118.29</v>
       </c>
       <c r="W89" t="n">
-        <v>24.27454</v>
+        <v>18.45596</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:28.418Z</t>
+          <t>2025-03-11T01:11:46.882Z</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.030Z</t>
+          <t>2025-03-14T23:12:19.208Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8949,90 +8947,92 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>worldcoin-wld</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>wld</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>140.2</v>
+        <v>0.8785230000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>973086712</v>
+        <v>971791147</v>
       </c>
       <c r="G90" t="n">
         <v>89</v>
       </c>
       <c r="H90" t="n">
-        <v>973086712</v>
+        <v>8786200917</v>
       </c>
       <c r="I90" t="n">
-        <v>3223732</v>
+        <v>119986445</v>
       </c>
       <c r="J90" t="n">
-        <v>140.35</v>
+        <v>0.890367</v>
       </c>
       <c r="K90" t="n">
-        <v>127.8</v>
+        <v>0.833964</v>
       </c>
       <c r="L90" t="n">
-        <v>12.14</v>
+        <v>0.04455896</v>
       </c>
       <c r="M90" t="n">
-        <v>9.481680000000001</v>
+        <v>5.34303</v>
       </c>
       <c r="N90" t="n">
-        <v>88089898</v>
+        <v>52029418</v>
       </c>
       <c r="O90" t="n">
-        <v>9.9537</v>
+        <v>5.65684</v>
       </c>
       <c r="P90" t="n">
-        <v>6938922.183579208</v>
+        <v>1106042482.437029</v>
       </c>
       <c r="Q90" t="n">
-        <v>6938922.183579208</v>
-      </c>
-      <c r="R90" t="inlineStr"/>
+        <v>10000000000</v>
+      </c>
+      <c r="R90" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S90" t="n">
-        <v>297.96</v>
+        <v>11.74</v>
       </c>
       <c r="T90" t="n">
-        <v>-52.93175</v>
+        <v>-92.50448</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2024-03-10T00:10:42.330Z</t>
         </is>
       </c>
       <c r="V90" t="n">
-        <v>118.29</v>
+        <v>0.708589</v>
       </c>
       <c r="W90" t="n">
-        <v>18.55467</v>
+        <v>24.19339</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:46.882Z</t>
+          <t>2025-03-11T01:11:28.418Z</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.672Z</t>
+          <t>2025-03-14T23:12:19.443Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2162.53</v>
+        <v>2160.44</v>
       </c>
       <c r="F91" t="n">
-        <v>958301794</v>
+        <v>956470911</v>
       </c>
       <c r="G91" t="n">
         <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>958301794</v>
+        <v>956470911</v>
       </c>
       <c r="I91" t="n">
-        <v>3001865</v>
+        <v>2996701</v>
       </c>
       <c r="J91" t="n">
         <v>2179.87</v>
@@ -9082,16 +9082,16 @@
         <v>2087.2</v>
       </c>
       <c r="L91" t="n">
-        <v>56.06</v>
+        <v>52.61</v>
       </c>
       <c r="M91" t="n">
-        <v>2.6612</v>
+        <v>2.4957</v>
       </c>
       <c r="N91" t="n">
-        <v>24287857</v>
+        <v>24498430</v>
       </c>
       <c r="O91" t="n">
-        <v>2.60037</v>
+        <v>2.62866</v>
       </c>
       <c r="P91" t="n">
         <v>442634.2341755985</v>
@@ -9125,7 +9125,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.927Z</t>
+          <t>2025-03-14T23:12:19.324Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9154,37 +9154,37 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.205236</v>
+        <v>0.205098</v>
       </c>
       <c r="F92" t="n">
-        <v>955880204</v>
+        <v>955685871</v>
       </c>
       <c r="G92" t="n">
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>2052346116</v>
+        <v>2051928870</v>
       </c>
       <c r="I92" t="n">
-        <v>105651814</v>
+        <v>104487945</v>
       </c>
       <c r="J92" t="n">
         <v>0.206625</v>
       </c>
       <c r="K92" t="n">
-        <v>0.188714</v>
+        <v>0.188836</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01652251</v>
+        <v>0.01541095</v>
       </c>
       <c r="M92" t="n">
-        <v>8.755319999999999</v>
+        <v>8.1244</v>
       </c>
       <c r="N92" t="n">
-        <v>77543667</v>
+        <v>73026443</v>
       </c>
       <c r="O92" t="n">
-        <v>8.828469999999999</v>
+        <v>8.27346</v>
       </c>
       <c r="P92" t="n">
         <v>4657499999</v>
@@ -9197,7 +9197,7 @@
         <v>1.14</v>
       </c>
       <c r="T92" t="n">
-        <v>-82.00896</v>
+        <v>-81.99842</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>0.095364</v>
       </c>
       <c r="W92" t="n">
-        <v>115.01575</v>
+        <v>115.14171</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.843Z</t>
+          <t>2025-03-14T23:12:19.012Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9247,19 +9247,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.01514784</v>
+        <v>0.015097</v>
       </c>
       <c r="F93" t="n">
-        <v>924331312</v>
+        <v>921602398</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>1562721849</v>
+        <v>1558108208</v>
       </c>
       <c r="I93" t="n">
-        <v>11675714</v>
+        <v>11649170</v>
       </c>
       <c r="J93" t="n">
         <v>0.01562408</v>
@@ -9268,16 +9268,16 @@
         <v>0.01415318</v>
       </c>
       <c r="L93" t="n">
-        <v>0.00088793</v>
+        <v>0.00080577</v>
       </c>
       <c r="M93" t="n">
-        <v>6.22677</v>
+        <v>5.63821</v>
       </c>
       <c r="N93" t="n">
-        <v>55154672</v>
+        <v>51104831</v>
       </c>
       <c r="O93" t="n">
-        <v>6.34562</v>
+        <v>5.87076</v>
       </c>
       <c r="P93" t="n">
         <v>61011114124.34916</v>
@@ -9290,7 +9290,7 @@
         <v>0.150073</v>
       </c>
       <c r="T93" t="n">
-        <v>-89.92983</v>
+        <v>-89.92089</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>0.00827405</v>
       </c>
       <c r="W93" t="n">
-        <v>82.65049</v>
+        <v>82.81263</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.867Z</t>
+          <t>2025-03-14T23:12:18.819Z</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -9340,19 +9340,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.095496</v>
+        <v>0.09522799999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>911951904</v>
+        <v>909556288</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>1030330273</v>
+        <v>1027623688</v>
       </c>
       <c r="I94" t="n">
-        <v>38401087</v>
+        <v>39764335</v>
       </c>
       <c r="J94" t="n">
         <v>0.095779</v>
@@ -9361,16 +9361,16 @@
         <v>0.08884400000000001</v>
       </c>
       <c r="L94" t="n">
-        <v>0.00609826</v>
+        <v>0.00557563</v>
       </c>
       <c r="M94" t="n">
-        <v>6.82151</v>
+        <v>6.21916</v>
       </c>
       <c r="N94" t="n">
-        <v>57506396</v>
+        <v>53628031</v>
       </c>
       <c r="O94" t="n">
-        <v>6.73026</v>
+        <v>6.26548</v>
       </c>
       <c r="P94" t="n">
         <v>9548531509.16547</v>
@@ -9406,7 +9406,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.977Z</t>
+          <t>2025-03-14T23:12:20.245Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9435,19 +9435,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.905935</v>
+        <v>0.901756</v>
       </c>
       <c r="F95" t="n">
-        <v>907266165</v>
+        <v>903424786</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>907266165</v>
+        <v>903424786</v>
       </c>
       <c r="I95" t="n">
-        <v>22101190</v>
+        <v>22380051</v>
       </c>
       <c r="J95" t="n">
         <v>0.909891</v>
@@ -9456,16 +9456,16 @@
         <v>0.863927</v>
       </c>
       <c r="L95" t="n">
-        <v>0.03649842</v>
+        <v>0.03021055</v>
       </c>
       <c r="M95" t="n">
-        <v>4.19794</v>
+        <v>3.46632</v>
       </c>
       <c r="N95" t="n">
-        <v>37981731</v>
+        <v>31689721</v>
       </c>
       <c r="O95" t="n">
-        <v>4.36931</v>
+        <v>3.63525</v>
       </c>
       <c r="P95" t="n">
         <v>1000000000</v>
@@ -9501,11 +9501,11 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.687Z</t>
+          <t>2025-03-14T23:12:19.187Z</t>
         </is>
       </c>
       <c r="AA95" t="n">
-        <v>5.039566546588342</v>
+        <v>5.011705105458876</v>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         </is>
       </c>
       <c r="AC95" t="n">
-        <v>503.9566546588343</v>
+        <v>501.1705105458876</v>
       </c>
     </row>
     <row r="96">
@@ -9538,19 +9538,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.958201</v>
+        <v>0.954807</v>
       </c>
       <c r="F96" t="n">
-        <v>860246185</v>
+        <v>857822521</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>958869721</v>
+        <v>956168194</v>
       </c>
       <c r="I96" t="n">
-        <v>98254390</v>
+        <v>97963007</v>
       </c>
       <c r="J96" t="n">
         <v>0.959855</v>
@@ -9559,16 +9559,16 @@
         <v>0.89694</v>
       </c>
       <c r="L96" t="n">
-        <v>0.060581</v>
+        <v>0.057868</v>
       </c>
       <c r="M96" t="n">
-        <v>6.74913</v>
+        <v>6.45167</v>
       </c>
       <c r="N96" t="n">
-        <v>56331718</v>
+        <v>50505037</v>
       </c>
       <c r="O96" t="n">
-        <v>7.00718</v>
+        <v>6.25591</v>
       </c>
       <c r="P96" t="n">
         <v>897146051.8587132</v>
@@ -9604,7 +9604,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.915Z</t>
+          <t>2025-03-14T23:12:20.613Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9633,19 +9633,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.102e-05</v>
+        <v>1.099e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>852550950</v>
+        <v>851209296</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>978487747</v>
+        <v>976947907</v>
       </c>
       <c r="I97" t="n">
-        <v>72983176</v>
+        <v>73451326</v>
       </c>
       <c r="J97" t="n">
         <v>1.13e-05</v>
@@ -9654,16 +9654,16 @@
         <v>1.039e-05</v>
       </c>
       <c r="L97" t="n">
-        <v>5.81737e-07</v>
+        <v>5.34622e-07</v>
       </c>
       <c r="M97" t="n">
-        <v>5.57519</v>
+        <v>5.1147</v>
       </c>
       <c r="N97" t="n">
-        <v>45203618</v>
+        <v>43112114</v>
       </c>
       <c r="O97" t="n">
-        <v>5.59903</v>
+        <v>5.33502</v>
       </c>
       <c r="P97" t="n">
         <v>77419592329436.58</v>
@@ -9678,7 +9678,7 @@
         <v>5.825e-05</v>
       </c>
       <c r="T97" t="n">
-        <v>-81.16437999999999</v>
+        <v>-81.09977000000001</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>8.6142e-08</v>
       </c>
       <c r="W97" t="n">
-        <v>12636.78222</v>
+        <v>12680.47108</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:11.768Z</t>
+          <t>2025-03-14T23:12:20.359Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9728,19 +9728,19 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.999728</v>
+        <v>0.999796</v>
       </c>
       <c r="F98" t="n">
-        <v>847216138</v>
+        <v>847403587</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>847216138</v>
+        <v>847403587</v>
       </c>
       <c r="I98" t="n">
-        <v>13752719</v>
+        <v>12074151</v>
       </c>
       <c r="J98" t="n">
         <v>1.003</v>
@@ -9749,16 +9749,16 @@
         <v>0.997761</v>
       </c>
       <c r="L98" t="n">
-        <v>0.00095949</v>
+        <v>0.0008951</v>
       </c>
       <c r="M98" t="n">
-        <v>0.09607</v>
+        <v>0.08961</v>
       </c>
       <c r="N98" t="n">
-        <v>-448357.8923557997</v>
+        <v>-1495547.466370821</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.05289</v>
+        <v>-0.17617</v>
       </c>
       <c r="P98" t="n">
         <v>847867485.723502</v>
@@ -9771,7 +9771,7 @@
         <v>1.027</v>
       </c>
       <c r="T98" t="n">
-        <v>-2.60109</v>
+        <v>-2.67947</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>0.945933</v>
       </c>
       <c r="W98" t="n">
-        <v>5.72375</v>
+        <v>5.63867</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.918Z</t>
+          <t>2025-03-14T23:12:19.104Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9821,19 +9821,19 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>84004</v>
+        <v>83607</v>
       </c>
       <c r="F99" t="n">
-        <v>840337314</v>
+        <v>836448026</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>840337314</v>
+        <v>836448026</v>
       </c>
       <c r="I99" t="n">
-        <v>307760</v>
+        <v>306305</v>
       </c>
       <c r="J99" t="n">
         <v>85624</v>
@@ -9842,16 +9842,16 @@
         <v>75809</v>
       </c>
       <c r="L99" t="n">
-        <v>3203.06</v>
+        <v>2798.35</v>
       </c>
       <c r="M99" t="n">
-        <v>3.96415</v>
+        <v>3.46295</v>
       </c>
       <c r="N99" t="n">
-        <v>32118887</v>
+        <v>27684208</v>
       </c>
       <c r="O99" t="n">
-        <v>3.97404</v>
+        <v>3.42303</v>
       </c>
       <c r="P99" t="n">
         <v>10007.4237229502</v>
@@ -9866,7 +9866,7 @@
         <v>117077</v>
       </c>
       <c r="T99" t="n">
-        <v>-28.25246</v>
+        <v>-28.60346</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>11402.13</v>
       </c>
       <c r="W99" t="n">
-        <v>636.70066</v>
+        <v>633.09667</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:20.023Z</t>
+          <t>2025-03-14T23:12:18.457Z</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
@@ -9916,19 +9916,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.507045</v>
+        <v>0.50642</v>
       </c>
       <c r="F100" t="n">
-        <v>769231858</v>
+        <v>768227443</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>1064936407</v>
+        <v>1063545879</v>
       </c>
       <c r="I100" t="n">
-        <v>65199502</v>
+        <v>64898554</v>
       </c>
       <c r="J100" t="n">
         <v>0.512246</v>
@@ -9937,16 +9937,16 @@
         <v>0.495412</v>
       </c>
       <c r="L100" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.008091340000000001</v>
       </c>
       <c r="M100" t="n">
-        <v>1.63565</v>
+        <v>1.6237</v>
       </c>
       <c r="N100" t="n">
-        <v>12514551</v>
+        <v>10127176</v>
       </c>
       <c r="O100" t="n">
-        <v>1.65379</v>
+        <v>1.33586</v>
       </c>
       <c r="P100" t="n">
         <v>1516885789.1746</v>
@@ -9982,11 +9982,11 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:12.294Z</t>
+          <t>2025-03-14T23:12:18.821Z</t>
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>-0.4878332447915315</v>
+        <v>-0.4884646112431204</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>-48.78332447915315</v>
+        <v>-48.84646112431204</v>
       </c>
     </row>
     <row r="101">
@@ -10019,19 +10019,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2044.57</v>
+        <v>2041.78</v>
       </c>
       <c r="F101" t="n">
-        <v>767268167</v>
+        <v>766691652</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>767268167</v>
+        <v>766691652</v>
       </c>
       <c r="I101" t="n">
-        <v>6219138</v>
+        <v>6195175</v>
       </c>
       <c r="J101" t="n">
         <v>2059.04</v>
@@ -10040,16 +10040,16 @@
         <v>1972.91</v>
       </c>
       <c r="L101" t="n">
-        <v>54.52</v>
+        <v>49.83</v>
       </c>
       <c r="M101" t="n">
-        <v>2.73959</v>
+        <v>2.50159</v>
       </c>
       <c r="N101" t="n">
-        <v>20183537</v>
+        <v>19233624</v>
       </c>
       <c r="O101" t="n">
-        <v>2.70164</v>
+        <v>2.5732</v>
       </c>
       <c r="P101" t="n">
         <v>375409.5237997835</v>
@@ -10062,7 +10062,7 @@
         <v>4729.53</v>
       </c>
       <c r="T101" t="n">
-        <v>-56.82439</v>
+        <v>-56.83127</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>1896.19</v>
       </c>
       <c r="W101" t="n">
-        <v>7.68948</v>
+        <v>7.67233</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-03-14T23:04:21.017Z</t>
+          <t>2025-03-14T23:12:19.333Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,43 +602,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84269</v>
+        <v>83408</v>
       </c>
       <c r="F2" t="n">
-        <v>1671708458418</v>
+        <v>1652598344143</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1671708458418</v>
+        <v>1652598344143</v>
       </c>
       <c r="I2" t="n">
-        <v>30137551087</v>
+        <v>12068963060</v>
       </c>
       <c r="J2" t="n">
-        <v>85140</v>
+        <v>84504</v>
       </c>
       <c r="K2" t="n">
-        <v>80857</v>
+        <v>82421</v>
       </c>
       <c r="L2" t="n">
-        <v>2950.13</v>
+        <v>-892.4476851661748</v>
       </c>
       <c r="M2" t="n">
-        <v>3.62786</v>
+        <v>-1.05865</v>
       </c>
       <c r="N2" t="n">
-        <v>56479201245</v>
+        <v>-19342850509.82812</v>
       </c>
       <c r="O2" t="n">
-        <v>3.49667</v>
+        <v>-1.15691</v>
       </c>
       <c r="P2" t="n">
-        <v>19836950</v>
+        <v>19837700</v>
       </c>
       <c r="Q2" t="n">
-        <v>19836950</v>
+        <v>19837700</v>
       </c>
       <c r="R2" t="n">
         <v>21000000</v>
@@ -647,7 +647,7 @@
         <v>108786</v>
       </c>
       <c r="T2" t="n">
-        <v>-22.39008</v>
+        <v>-23.3641</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>67.81</v>
       </c>
       <c r="W2" t="n">
-        <v>124409.07332</v>
+        <v>122846.46686</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.806Z</t>
+          <t>2025-03-16T15:05:27.110Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,50 +697,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1921.99</v>
+        <v>1897.04</v>
       </c>
       <c r="F3" t="n">
-        <v>231849826119</v>
+        <v>228553210240</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>231849826119</v>
+        <v>228553210240</v>
       </c>
       <c r="I3" t="n">
-        <v>13078132202</v>
+        <v>7789090971</v>
       </c>
       <c r="J3" t="n">
-        <v>1941.99</v>
+        <v>1951.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1861.3</v>
+        <v>1871.08</v>
       </c>
       <c r="L3" t="n">
-        <v>47.63</v>
+        <v>-33.96224449732244</v>
       </c>
       <c r="M3" t="n">
-        <v>2.54133</v>
+        <v>-1.75879</v>
       </c>
       <c r="N3" t="n">
-        <v>5023377043</v>
+        <v>-4305960439.787506</v>
       </c>
       <c r="O3" t="n">
-        <v>2.21463</v>
+        <v>-1.84917</v>
       </c>
       <c r="P3" t="n">
-        <v>120614183.5975569</v>
+        <v>120619170.8322542</v>
       </c>
       <c r="Q3" t="n">
-        <v>120614183.5975569</v>
+        <v>120619170.8322542</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
         <v>4878.26</v>
       </c>
       <c r="T3" t="n">
-        <v>-60.4924</v>
+        <v>-61.10987</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>0.432979</v>
       </c>
       <c r="W3" t="n">
-        <v>445021.90215</v>
+        <v>438064.94936</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.371Z</t>
+          <t>2025-03-16T15:05:25.018Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>29.49326469669403</v>
+        <v>29.42915807625088</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2949.326469669403</v>
+        <v>2942.915807625087</v>
       </c>
     </row>
     <row r="4">
@@ -798,50 +798,50 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.999802</v>
       </c>
       <c r="F4" t="n">
-        <v>143349647712</v>
+        <v>143436564950</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>143349647712</v>
+        <v>143436564950</v>
       </c>
       <c r="I4" t="n">
-        <v>49562238307</v>
+        <v>13975575019</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999506</v>
+        <v>0.999898</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00049087</v>
+        <v>-0.00011558859379901</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04911</v>
+        <v>-0.01156</v>
       </c>
       <c r="N4" t="n">
-        <v>73269789</v>
+        <v>-15165930.95074463</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05114</v>
+        <v>-0.01057</v>
       </c>
       <c r="P4" t="n">
-        <v>143346765715.551</v>
+        <v>143465026352.8368</v>
       </c>
       <c r="Q4" t="n">
-        <v>143346765715.551</v>
+        <v>143465026352.8368</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
         <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>-24.4193</v>
+        <v>-24.42586</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>0.5725209999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>74.66691</v>
+        <v>74.65175000000001</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.414Z</t>
+          <t>2025-03-16T15:05:22.733Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
-        <v>137154482716</v>
+        <v>133502299095</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>235997766266</v>
+        <v>229713559149</v>
       </c>
       <c r="I5" t="n">
-        <v>3762926848</v>
+        <v>2805448527</v>
       </c>
       <c r="J5" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="K5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="L5" t="n">
-        <v>0.093015</v>
+        <v>-0.1321597746176457</v>
       </c>
       <c r="M5" t="n">
-        <v>4.10215</v>
+        <v>-5.43166</v>
       </c>
       <c r="N5" t="n">
-        <v>5310980079</v>
+        <v>-7791232152.721008</v>
       </c>
       <c r="O5" t="n">
-        <v>4.02825</v>
+        <v>-5.51422</v>
       </c>
       <c r="P5" t="n">
         <v>58108919817</v>
@@ -936,7 +936,7 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>-30.37766</v>
+        <v>-32.31762</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>0.00268621</v>
       </c>
       <c r="W5" t="n">
-        <v>87982.58577000001</v>
+        <v>85528.25627</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.467Z</t>
+          <t>2025-03-16T15:05:27.301Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>587.33</v>
+        <v>602.05</v>
       </c>
       <c r="F6" t="n">
-        <v>85684179756</v>
+        <v>87758735778</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>85684179756</v>
+        <v>87758735778</v>
       </c>
       <c r="I6" t="n">
-        <v>845788971</v>
+        <v>1187070656</v>
       </c>
       <c r="J6" t="n">
-        <v>590.97</v>
+        <v>621.16</v>
       </c>
       <c r="K6" t="n">
-        <v>577.0599999999999</v>
+        <v>594.02</v>
       </c>
       <c r="L6" t="n">
-        <v>9.880000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.71086</v>
+        <v>0.6010799999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>1473700282</v>
+        <v>487090677</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75002</v>
+        <v>0.55813</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1031,7 +1031,7 @@
         <v>788.84</v>
       </c>
       <c r="T6" t="n">
-        <v>-25.51805</v>
+        <v>-23.66024</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>0.0398177</v>
       </c>
       <c r="W6" t="n">
-        <v>1475490.34659</v>
+        <v>1512296.1745</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.366Z</t>
+          <t>2025-03-16T15:05:26.072Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,50 +1081,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>134.43</v>
+        <v>129.33</v>
       </c>
       <c r="F7" t="n">
-        <v>68558692528</v>
+        <v>65881316246</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>80191056818</v>
+        <v>77045574028</v>
       </c>
       <c r="I7" t="n">
-        <v>3613697256</v>
+        <v>2374063659</v>
       </c>
       <c r="J7" t="n">
-        <v>135.3</v>
+        <v>136.35</v>
       </c>
       <c r="K7" t="n">
-        <v>123</v>
+        <v>127.97</v>
       </c>
       <c r="L7" t="n">
-        <v>10.43</v>
+        <v>-5.576290649306685</v>
       </c>
       <c r="M7" t="n">
-        <v>8.41038</v>
+        <v>-4.13355</v>
       </c>
       <c r="N7" t="n">
-        <v>5378722576</v>
+        <v>-2772835905.310867</v>
       </c>
       <c r="O7" t="n">
-        <v>8.513339999999999</v>
+        <v>-4.03885</v>
       </c>
       <c r="P7" t="n">
-        <v>509706883.4237605</v>
+        <v>509927094.2044639</v>
       </c>
       <c r="Q7" t="n">
-        <v>596188931.5834248</v>
+        <v>596339416.4506609</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>293.31</v>
       </c>
       <c r="T7" t="n">
-        <v>-53.90521</v>
+        <v>-55.94314</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>0.5008010000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>26897.04585</v>
+        <v>25703.46059</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.702Z</t>
+          <t>2025-03-16T15:05:26.601Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,50 +1174,50 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999865</v>
+        <v>0.999797</v>
       </c>
       <c r="F8" t="n">
-        <v>58576369068</v>
+        <v>58758255593</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>58661790403</v>
+        <v>58748454123</v>
       </c>
       <c r="I8" t="n">
-        <v>10022536169</v>
+        <v>3676621921</v>
       </c>
       <c r="J8" t="n">
-        <v>0.999907</v>
+        <v>0.999903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.999787</v>
+        <v>0.999793</v>
       </c>
       <c r="L8" t="n">
-        <v>7.169e-05</v>
+        <v>-5.7055595811484e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00717</v>
+        <v>-0.00571</v>
       </c>
       <c r="N8" t="n">
-        <v>238679220</v>
+        <v>-8299583.794395447</v>
       </c>
       <c r="O8" t="n">
-        <v>0.40913</v>
+        <v>-0.01412</v>
       </c>
       <c r="P8" t="n">
-        <v>58587123916.07881</v>
+        <v>58765868170.22848</v>
       </c>
       <c r="Q8" t="n">
-        <v>58672560934.60122</v>
+        <v>58756065430.36231</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>-14.73818</v>
+        <v>-14.73831</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>0.877647</v>
       </c>
       <c r="W8" t="n">
-        <v>13.92633</v>
+        <v>13.92616</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.466Z</t>
+          <t>2025-03-16T15:05:30.362Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,40 +1267,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.742438</v>
+        <v>0.705977</v>
       </c>
       <c r="F9" t="n">
-        <v>26695793072</v>
+        <v>25353169205</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>33409354770</v>
+        <v>31722292972</v>
       </c>
       <c r="I9" t="n">
-        <v>953765661</v>
+        <v>637488549</v>
       </c>
       <c r="J9" t="n">
-        <v>0.748387</v>
+        <v>0.758128</v>
       </c>
       <c r="K9" t="n">
-        <v>0.699803</v>
+        <v>0.699425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03706307</v>
+        <v>-0.04241033738709432</v>
       </c>
       <c r="M9" t="n">
-        <v>5.25438</v>
+        <v>-5.6669</v>
       </c>
       <c r="N9" t="n">
-        <v>1344724997</v>
+        <v>-1541287339.391335</v>
       </c>
       <c r="O9" t="n">
-        <v>5.30441</v>
+        <v>-5.73087</v>
       </c>
       <c r="P9" t="n">
-        <v>35957314844.72886</v>
+        <v>35965010953.76304</v>
       </c>
       <c r="Q9" t="n">
         <v>45000000000</v>
@@ -1312,7 +1312,7 @@
         <v>3.09</v>
       </c>
       <c r="T9" t="n">
-        <v>-75.88011</v>
+        <v>-77.13643</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>0.01925275</v>
       </c>
       <c r="W9" t="n">
-        <v>3767.29005</v>
+        <v>3565.85615</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.765Z</t>
+          <t>2025-03-16T15:05:28.350Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1362,50 +1362,50 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.172873</v>
+        <v>0.168778</v>
       </c>
       <c r="F10" t="n">
-        <v>25655323249</v>
+        <v>25011295293</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>25658161665</v>
+        <v>25013598621</v>
       </c>
       <c r="I10" t="n">
-        <v>1101324615</v>
+        <v>827070817</v>
       </c>
       <c r="J10" t="n">
-        <v>0.175457</v>
+        <v>0.177359</v>
       </c>
       <c r="K10" t="n">
-        <v>0.164754</v>
+        <v>0.166634</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00688082</v>
+        <v>-0.007391215132497297</v>
       </c>
       <c r="M10" t="n">
-        <v>4.14527</v>
+        <v>-4.19552</v>
       </c>
       <c r="N10" t="n">
-        <v>1029081849</v>
+        <v>-1122630007.035774</v>
       </c>
       <c r="O10" t="n">
-        <v>4.1788</v>
+        <v>-4.29568</v>
       </c>
       <c r="P10" t="n">
-        <v>148413946383.7052</v>
+        <v>148439336383.7052</v>
       </c>
       <c r="Q10" t="n">
-        <v>148430366383.7052</v>
+        <v>148453006383.7052</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
         <v>0.731578</v>
       </c>
       <c r="T10" t="n">
-        <v>-76.29985000000001</v>
+        <v>-76.94862000000001</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>8.69e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>199413.91841</v>
+        <v>193952.41804</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.735Z</t>
+          <t>2025-03-16T15:05:21.659Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,50 +1455,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.221438</v>
+        <v>0.214894</v>
       </c>
       <c r="F11" t="n">
-        <v>21042473064</v>
+        <v>20423030905</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>21042477576</v>
+        <v>20423046657</v>
       </c>
       <c r="I11" t="n">
-        <v>659707311</v>
+        <v>607354705</v>
       </c>
       <c r="J11" t="n">
-        <v>0.226245</v>
+        <v>0.223769</v>
       </c>
       <c r="K11" t="n">
-        <v>0.220757</v>
+        <v>0.213163</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.002196492804423272</v>
+        <v>-0.008875009703632863</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.9821800000000001</v>
+        <v>-3.96616</v>
       </c>
       <c r="N11" t="n">
-        <v>-243100839.7998161</v>
+        <v>-838392978.8441811</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.14209</v>
+        <v>-3.94326</v>
       </c>
       <c r="P11" t="n">
-        <v>95027434572.19737</v>
+        <v>95026713604.11618</v>
       </c>
       <c r="Q11" t="n">
-        <v>95027454947.63734</v>
+        <v>95026786896.91399</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>0.431288</v>
       </c>
       <c r="T11" t="n">
-        <v>-48.66045</v>
+        <v>-50.22361</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>0.00180434</v>
       </c>
       <c r="W11" t="n">
-        <v>12171.59436</v>
+        <v>11797.95541</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.141Z</t>
+          <t>2025-03-16T15:05:29.447Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>115.5462750715334</v>
+        <v>112.1018456526941</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>11554.62750715334</v>
+        <v>11210.18456526941</v>
       </c>
     </row>
     <row r="12">
@@ -1556,50 +1556,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1919.11</v>
+        <v>1894.38</v>
       </c>
       <c r="F12" t="n">
-        <v>17925957818</v>
+        <v>17618610088</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>17925957818</v>
+        <v>17618610088</v>
       </c>
       <c r="I12" t="n">
-        <v>18535731</v>
+        <v>20174342</v>
       </c>
       <c r="J12" t="n">
-        <v>1936.73</v>
+        <v>1950.36</v>
       </c>
       <c r="K12" t="n">
-        <v>1858.9</v>
+        <v>1868.48</v>
       </c>
       <c r="L12" t="n">
-        <v>46</v>
+        <v>-34.75224890046411</v>
       </c>
       <c r="M12" t="n">
-        <v>2.45577</v>
+        <v>-1.80145</v>
       </c>
       <c r="N12" t="n">
-        <v>393027772</v>
+        <v>-343442617.8400841</v>
       </c>
       <c r="O12" t="n">
-        <v>2.24165</v>
+        <v>-1.91205</v>
       </c>
       <c r="P12" t="n">
-        <v>9340293.739303932</v>
+        <v>9310203.733314028</v>
       </c>
       <c r="Q12" t="n">
-        <v>9340293.739303932</v>
+        <v>9310203.733314028</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>4829.57</v>
       </c>
       <c r="T12" t="n">
-        <v>-60.17671</v>
+        <v>-60.81623</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>482.9</v>
       </c>
       <c r="W12" t="n">
-        <v>298.28309</v>
+        <v>291.88704</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.149Z</t>
+          <t>2025-03-16T15:05:27.191Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,37 +1649,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>84150</v>
+        <v>83128</v>
       </c>
       <c r="F13" t="n">
-        <v>10857261709</v>
+        <v>10715203161</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10857261709</v>
+        <v>10715203161</v>
       </c>
       <c r="I13" t="n">
-        <v>202595362</v>
+        <v>105539988</v>
       </c>
       <c r="J13" t="n">
-        <v>85076</v>
+        <v>84336</v>
       </c>
       <c r="K13" t="n">
-        <v>80786</v>
+        <v>82218</v>
       </c>
       <c r="L13" t="n">
-        <v>2922.08</v>
+        <v>-1067.862823565374</v>
       </c>
       <c r="M13" t="n">
-        <v>3.5974</v>
+        <v>-1.26831</v>
       </c>
       <c r="N13" t="n">
-        <v>399162134</v>
+        <v>-129978622.3046341</v>
       </c>
       <c r="O13" t="n">
-        <v>3.81678</v>
+        <v>-1.19849</v>
       </c>
       <c r="P13" t="n">
         <v>129015.05657878</v>
@@ -1694,7 +1694,7 @@
         <v>108368</v>
       </c>
       <c r="T13" t="n">
-        <v>-22.16764</v>
+        <v>-23.35941</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>3139.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2586.86237</v>
+        <v>2545.72108</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.760Z</t>
+          <t>2025-03-16T15:05:25.304Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1744,43 +1744,43 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="F14" t="n">
-        <v>10735822015</v>
+        <v>9874190085</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>16527216472</v>
+        <v>15191061670</v>
       </c>
       <c r="I14" t="n">
-        <v>632125756</v>
+        <v>401153773</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="K14" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1219813299408323</v>
+        <v>-0.04768295258591104</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.4012</v>
+        <v>-3.27699</v>
       </c>
       <c r="N14" t="n">
-        <v>-919460561.1075306</v>
+        <v>-370094256.17383</v>
       </c>
       <c r="O14" t="n">
-        <v>-7.88879</v>
+        <v>-3.61269</v>
       </c>
       <c r="P14" t="n">
-        <v>7054586146.165464</v>
+        <v>6993838613.093536</v>
       </c>
       <c r="Q14" t="n">
-        <v>10860153250.77484</v>
+        <v>10759751712.45159</v>
       </c>
       <c r="R14" t="n">
         <v>100000000000</v>
@@ -1789,7 +1789,7 @@
         <v>2.99</v>
       </c>
       <c r="T14" t="n">
-        <v>-49.04306</v>
+        <v>-53.66341</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>0.615725</v>
       </c>
       <c r="W14" t="n">
-        <v>147.25262</v>
+        <v>124.83382</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.418Z</t>
+          <t>2025-03-16T15:05:23.369Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>9045028091</v>
+        <v>9033334860</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>9645145355</v>
+        <v>9632788164</v>
       </c>
       <c r="I15" t="n">
-        <v>3728733</v>
+        <v>2803194</v>
       </c>
       <c r="J15" t="n">
-        <v>9.82</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>9.65</v>
+        <v>9.56</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07145899999999999</v>
+        <v>0.04048188</v>
       </c>
       <c r="M15" t="n">
-        <v>0.73555</v>
+        <v>0.41561</v>
       </c>
       <c r="N15" t="n">
-        <v>61525273</v>
+        <v>42705159</v>
       </c>
       <c r="O15" t="n">
-        <v>0.68487</v>
+        <v>0.475</v>
       </c>
       <c r="P15" t="n">
-        <v>923938277.9</v>
+        <v>923927548.9</v>
       </c>
       <c r="Q15" t="n">
         <v>985239504</v>
@@ -1882,7 +1882,7 @@
         <v>10.14</v>
       </c>
       <c r="T15" t="n">
-        <v>-3.3254</v>
+        <v>-3.53234</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>0.799859</v>
       </c>
       <c r="W15" t="n">
-        <v>1124.97522</v>
+        <v>1122.35305</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.047Z</t>
+          <t>2025-03-16T15:05:19.852Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1932,37 +1932,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.87</v>
+        <v>13.55</v>
       </c>
       <c r="F16" t="n">
-        <v>8850952611</v>
+        <v>8647571553</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>13870792991</v>
+        <v>13552063845</v>
       </c>
       <c r="I16" t="n">
-        <v>1260730226</v>
+        <v>335232793</v>
       </c>
       <c r="J16" t="n">
-        <v>14.61</v>
+        <v>14.16</v>
       </c>
       <c r="K16" t="n">
-        <v>13.01</v>
+        <v>13.38</v>
       </c>
       <c r="L16" t="n">
-        <v>0.735025</v>
+        <v>-0.516112856001488</v>
       </c>
       <c r="M16" t="n">
-        <v>5.59775</v>
+        <v>-3.6686</v>
       </c>
       <c r="N16" t="n">
-        <v>465358809</v>
+        <v>-325537903.9119148</v>
       </c>
       <c r="O16" t="n">
-        <v>5.5495</v>
+        <v>-3.62793</v>
       </c>
       <c r="P16" t="n">
         <v>638099971.4505637</v>
@@ -1977,7 +1977,7 @@
         <v>52.7</v>
       </c>
       <c r="T16" t="n">
-        <v>-73.59148999999999</v>
+        <v>-74.30828</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>0.148183</v>
       </c>
       <c r="W16" t="n">
-        <v>9291.341130000001</v>
+        <v>9036.43505</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.451Z</t>
+          <t>2025-03-16T15:05:27.913Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2008,92 +2008,90 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>xlm</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/100/large/fmpFRHHQ_400x400.jpg?1735231350</t>
+          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.276224</v>
+        <v>3.39</v>
       </c>
       <c r="F17" t="n">
-        <v>8483407784</v>
+        <v>8414215797</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>13813570103</v>
+        <v>17377707765</v>
       </c>
       <c r="I17" t="n">
-        <v>259531079</v>
+        <v>677658433</v>
       </c>
       <c r="J17" t="n">
-        <v>0.283735</v>
+        <v>3.59</v>
       </c>
       <c r="K17" t="n">
-        <v>0.271605</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00112918</v>
+        <v>0.116021</v>
       </c>
       <c r="M17" t="n">
-        <v>0.41047</v>
+        <v>3.54294</v>
       </c>
       <c r="N17" t="n">
-        <v>12127307</v>
+        <v>218314018</v>
       </c>
       <c r="O17" t="n">
-        <v>0.14316</v>
+        <v>2.6637</v>
       </c>
       <c r="P17" t="n">
-        <v>30707886881.78767</v>
+        <v>2481395599.313929</v>
       </c>
       <c r="Q17" t="n">
-        <v>50001786894.44301</v>
-      </c>
-      <c r="R17" t="n">
-        <v>50001786894.44301</v>
-      </c>
+        <v>5124775572.093337</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>0.875563</v>
+        <v>8.25</v>
       </c>
       <c r="T17" t="n">
-        <v>-68.38988999999999</v>
+        <v>-59.02304</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2018-01-03T00:00:00.000Z</t>
+          <t>2024-06-15T00:36:51.509Z</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>0.00047612</v>
+        <v>0.519364</v>
       </c>
       <c r="W17" t="n">
-        <v>58029.13066</v>
+        <v>551.19615</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2015-03-05T00:00:00.000Z</t>
+          <t>2021-09-21T00:33:11.092Z</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.027Z</t>
+          <t>2025-03-16T15:05:30.381Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2103,90 +2101,90 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wrapped-steth</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wsteth</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wrapped stETH</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/18834/large/wstETH.png?1696518295</t>
+          <t>https://coin-images.coingecko.com/coins/images/39926/large/usds.webp?1726666683</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2299.59</v>
+        <v>0.999572</v>
       </c>
       <c r="F18" t="n">
-        <v>8301980357</v>
+        <v>8299977064</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>8301980357</v>
+        <v>8299977064</v>
       </c>
       <c r="I18" t="n">
-        <v>14060550</v>
+        <v>9547492</v>
       </c>
       <c r="J18" t="n">
-        <v>2321.79</v>
+        <v>1.001</v>
       </c>
       <c r="K18" t="n">
-        <v>2227.62</v>
+        <v>0.99891</v>
       </c>
       <c r="L18" t="n">
-        <v>54.59</v>
+        <v>-9.8241324640425e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>2.43148</v>
+        <v>-0.00983</v>
       </c>
       <c r="N18" t="n">
-        <v>457400905</v>
+        <v>43457666</v>
       </c>
       <c r="O18" t="n">
-        <v>5.83079</v>
+        <v>0.52634</v>
       </c>
       <c r="P18" t="n">
-        <v>3608140.165739344</v>
+        <v>8303533258.762503</v>
       </c>
       <c r="Q18" t="n">
-        <v>3608140.165739344</v>
+        <v>8303533258.762503</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>7256.02</v>
+        <v>1.057</v>
       </c>
       <c r="T18" t="n">
-        <v>-68.24813</v>
+        <v>-5.45116</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2022-05-13T15:09:54.509Z</t>
+          <t>2024-10-29T05:40:51.197Z</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>558.54</v>
+        <v>0.948265</v>
       </c>
       <c r="W18" t="n">
-        <v>312.49001</v>
+        <v>5.4226</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2022-05-13T01:36:45.053Z</t>
+          <t>2024-10-03T13:19:28.826Z</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.005Z</t>
+          <t>2025-03-16T15:05:28.924Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2196,90 +2194,92 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>xlm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39926/large/usds.webp?1726666683</t>
+          <t>https://coin-images.coingecko.com/coins/images/100/large/fmpFRHHQ_400x400.jpg?1735231350</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.999999</v>
+        <v>0.265843</v>
       </c>
       <c r="F19" t="n">
-        <v>8257692853</v>
+        <v>8167772454</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>8257692853</v>
+        <v>13289236417</v>
       </c>
       <c r="I19" t="n">
-        <v>27952858</v>
+        <v>127903678</v>
       </c>
       <c r="J19" t="n">
-        <v>1.002</v>
+        <v>0.277301</v>
       </c>
       <c r="K19" t="n">
-        <v>0.998312</v>
+        <v>0.262206</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00015592</v>
+        <v>-0.01113604152846559</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01559</v>
+        <v>-4.02054</v>
       </c>
       <c r="N19" t="n">
-        <v>6951941</v>
+        <v>-338710545.9529037</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08426</v>
+        <v>-3.98179</v>
       </c>
       <c r="P19" t="n">
-        <v>8259061281.663934</v>
+        <v>30731879908.74315</v>
       </c>
       <c r="Q19" t="n">
-        <v>8259061281.663934</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
+        <v>50001786894.44301</v>
+      </c>
+      <c r="R19" t="n">
+        <v>50001786894.44301</v>
+      </c>
       <c r="S19" t="n">
-        <v>1.057</v>
+        <v>0.875563</v>
       </c>
       <c r="T19" t="n">
-        <v>-5.42723</v>
+        <v>-69.64932</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2024-10-29T05:40:51.197Z</t>
+          <t>2018-01-03T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>0.948265</v>
+        <v>0.00047612</v>
       </c>
       <c r="W19" t="n">
-        <v>5.44929</v>
+        <v>55713.12597</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2024-10-03T13:19:28.826Z</t>
+          <t>2015-03-05T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.636Z</t>
+          <t>2025-03-16T15:05:26.807Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2289,92 +2289,90 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>wrapped-steth</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hbar</t>
+          <t>wsteth</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Wrapped stETH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/3688/large/hbar.png?1696504364</t>
+          <t>https://coin-images.coingecko.com/coins/images/18834/large/wstETH.png?1696518295</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1924</v>
+        <v>2262.72</v>
       </c>
       <c r="F20" t="n">
-        <v>8123616444</v>
+        <v>8140271401</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>9621129735</v>
+        <v>8140271401</v>
       </c>
       <c r="I20" t="n">
-        <v>290161183</v>
+        <v>15535447</v>
       </c>
       <c r="J20" t="n">
-        <v>0.198565</v>
+        <v>2333.76</v>
       </c>
       <c r="K20" t="n">
-        <v>0.187896</v>
+        <v>2237.11</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00168847</v>
+        <v>-46.64635842670759</v>
       </c>
       <c r="M20" t="n">
-        <v>0.88535</v>
+        <v>-2.01988</v>
       </c>
       <c r="N20" t="n">
-        <v>55384732</v>
+        <v>-168699918.5958319</v>
       </c>
       <c r="O20" t="n">
-        <v>0.68645</v>
+        <v>-2.03033</v>
       </c>
       <c r="P20" t="n">
-        <v>42217580820.67102</v>
+        <v>3597568.004172673</v>
       </c>
       <c r="Q20" t="n">
-        <v>50000000000</v>
-      </c>
-      <c r="R20" t="n">
-        <v>50000000000</v>
-      </c>
+        <v>3597568.004172673</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>0.569229</v>
+        <v>7256.02</v>
       </c>
       <c r="T20" t="n">
-        <v>-66.05301</v>
+        <v>-68.84835</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2021-09-15T10:40:28.318Z</t>
+          <t>2022-05-13T15:09:54.509Z</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>0.009861109999999999</v>
+        <v>558.54</v>
       </c>
       <c r="W20" t="n">
-        <v>1859.57743</v>
+        <v>304.69251</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2020-01-02T17:30:24.852Z</t>
+          <t>2022-05-13T01:36:45.053Z</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.217Z</t>
+          <t>2025-03-16T15:05:30.494Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2384,92 +2382,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>avax</t>
+          <t>hbar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12559/large/Avalanche_Circle_RedWhite_Trans.png?1696512369</t>
+          <t>https://coin-images.coingecko.com/coins/images/3688/large/hbar.png?1696504364</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.78</v>
+        <v>0.187834</v>
       </c>
       <c r="F21" t="n">
-        <v>7786630848</v>
+        <v>7921782600</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>8475718459</v>
+        <v>9381685543</v>
       </c>
       <c r="I21" t="n">
-        <v>310059983</v>
+        <v>209178789</v>
       </c>
       <c r="J21" t="n">
-        <v>19.27</v>
+        <v>0.194773</v>
       </c>
       <c r="K21" t="n">
-        <v>18.48</v>
+        <v>0.185415</v>
       </c>
       <c r="L21" t="n">
-        <v>0.075711</v>
+        <v>-0.005248211746310405</v>
       </c>
       <c r="M21" t="n">
-        <v>0.40486</v>
+        <v>-2.71813</v>
       </c>
       <c r="N21" t="n">
-        <v>40134102</v>
+        <v>-213474574.4126377</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5180900000000001</v>
+        <v>-2.62407</v>
       </c>
       <c r="P21" t="n">
-        <v>414361662.0386043</v>
+        <v>42219399509.16869</v>
       </c>
       <c r="Q21" t="n">
-        <v>451031114.2289694</v>
+        <v>50000000000</v>
       </c>
       <c r="R21" t="n">
-        <v>720000000</v>
+        <v>50000000000</v>
       </c>
       <c r="S21" t="n">
-        <v>144.96</v>
+        <v>0.569229</v>
       </c>
       <c r="T21" t="n">
-        <v>-86.95565999999999</v>
+        <v>-67.03846</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2021-11-21T14:18:56.538Z</t>
+          <t>2021-09-15T10:40:28.318Z</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2.8</v>
+        <v>0.009861109999999999</v>
       </c>
       <c r="W21" t="n">
-        <v>575.07309</v>
+        <v>1802.69283</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2020-12-31T13:15:21.540Z</t>
+          <t>2020-01-02T17:30:24.852Z</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.023Z</t>
+          <t>2025-03-16T15:05:18.798Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2479,90 +2477,92 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>shib</t>
+          <t>avax</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11939/large/shiba.png?1696511800</t>
+          <t>https://coin-images.coingecko.com/coins/images/12559/large/Avalanche_Circle_RedWhite_Trans.png?1696512369</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.288e-05</v>
+        <v>18.53</v>
       </c>
       <c r="F22" t="n">
-        <v>7588268711</v>
+        <v>7670116404</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>7591538565</v>
+        <v>8348877039</v>
       </c>
       <c r="I22" t="n">
-        <v>172787530</v>
+        <v>285423166</v>
       </c>
       <c r="J22" t="n">
-        <v>1.289e-05</v>
+        <v>19.77</v>
       </c>
       <c r="K22" t="n">
-        <v>1.2e-05</v>
+        <v>18.28</v>
       </c>
       <c r="L22" t="n">
-        <v>8.00902e-07</v>
+        <v>-0.000161870646369522</v>
       </c>
       <c r="M22" t="n">
-        <v>6.63322</v>
+        <v>-0.00087</v>
       </c>
       <c r="N22" t="n">
-        <v>450691825</v>
+        <v>311662</v>
       </c>
       <c r="O22" t="n">
-        <v>6.31435</v>
+        <v>0.00406</v>
       </c>
       <c r="P22" t="n">
-        <v>589252986448602.9</v>
+        <v>414371916.2177874</v>
       </c>
       <c r="Q22" t="n">
-        <v>589506900916172.9</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
+        <v>451041417.6763065</v>
+      </c>
+      <c r="R22" t="n">
+        <v>720000000</v>
+      </c>
       <c r="S22" t="n">
-        <v>8.616e-05</v>
+        <v>144.96</v>
       </c>
       <c r="T22" t="n">
-        <v>-85.05937</v>
+        <v>-87.22838</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2021-10-28T03:54:55.568Z</t>
+          <t>2021-11-21T14:18:56.538Z</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>5.6366e-11</v>
+        <v>2.8</v>
       </c>
       <c r="W22" t="n">
-        <v>22837388.87745</v>
+        <v>560.95914</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2020-11-28T11:26:25.838Z</t>
+          <t>2020-12-31T13:15:21.540Z</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.368Z</t>
+          <t>2025-03-16T15:05:25.029Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2572,92 +2572,90 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shib</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/26375/large/sui-ocean-square.png?1727791290</t>
+          <t>https://coin-images.coingecko.com/coins/images/11939/large/shiba.png?1696511800</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.35</v>
+        <v>1.277e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>7438815738</v>
+        <v>7519158717</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>23467442814</v>
+        <v>7522398791</v>
       </c>
       <c r="I23" t="n">
-        <v>807591872</v>
+        <v>150820479</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>1.312e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.16</v>
+        <v>1.261e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.160609</v>
+        <v>5.488e-09</v>
       </c>
       <c r="M23" t="n">
-        <v>7.34941</v>
+        <v>0.04299</v>
       </c>
       <c r="N23" t="n">
-        <v>499658033</v>
+        <v>5769390</v>
       </c>
       <c r="O23" t="n">
-        <v>7.20056</v>
+        <v>0.07679</v>
       </c>
       <c r="P23" t="n">
-        <v>3169845047.483887</v>
+        <v>589252984741934.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="R23" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>589506899235154.9</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>5.35</v>
+        <v>8.616e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>-55.98444</v>
+        <v>-85.19974999999999</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2025-01-04T22:56:18.063Z</t>
+          <t>2021-10-28T03:54:55.568Z</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>0.364846</v>
+        <v>5.6366e-11</v>
       </c>
       <c r="W23" t="n">
-        <v>545.01722</v>
+        <v>22622803.27591</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2023-10-19T10:40:30.078Z</t>
+          <t>2020-11-28T11:26:25.838Z</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.017Z</t>
+          <t>2025-03-16T15:05:26.759Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2667,90 +2665,92 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
+          <t>https://coin-images.coingecko.com/coins/images/26375/large/sui-ocean-square.png?1727791290</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.94</v>
+        <v>2.24</v>
       </c>
       <c r="F24" t="n">
-        <v>7284333525</v>
+        <v>7088675605</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>15044623264</v>
+        <v>22362845813</v>
       </c>
       <c r="I24" t="n">
-        <v>160825981</v>
+        <v>482953086</v>
       </c>
       <c r="J24" t="n">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="L24" t="n">
-        <v>0.167927</v>
+        <v>-0.1184036535789015</v>
       </c>
       <c r="M24" t="n">
-        <v>6.06775</v>
+        <v>-5.01726</v>
       </c>
       <c r="N24" t="n">
-        <v>415153100</v>
+        <v>-372383308.1324501</v>
       </c>
       <c r="O24" t="n">
-        <v>6.04371</v>
+        <v>-4.99102</v>
       </c>
       <c r="P24" t="n">
-        <v>2481254229.637805</v>
+        <v>3169845047.483887</v>
       </c>
       <c r="Q24" t="n">
-        <v>5124632881.855118</v>
-      </c>
-      <c r="R24" t="inlineStr"/>
+        <v>10000000000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S24" t="n">
-        <v>8.25</v>
+        <v>5.35</v>
       </c>
       <c r="T24" t="n">
-        <v>-64.37584</v>
+        <v>-58.08609</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2024-06-15T00:36:51.509Z</t>
+          <t>2025-01-04T22:56:18.063Z</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>0.519364</v>
+        <v>0.364846</v>
       </c>
       <c r="W24" t="n">
-        <v>466.1307</v>
+        <v>514.21907</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2021-09-21T00:33:11.092Z</t>
+          <t>2023-10-19T10:40:30.078Z</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:21.450Z</t>
+          <t>2025-03-16T15:05:28.625Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2779,43 +2779,43 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>91.91</v>
+        <v>89.66</v>
       </c>
       <c r="F25" t="n">
-        <v>6950651884</v>
+        <v>6772455193</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>6950686346</v>
+        <v>6772469183</v>
       </c>
       <c r="I25" t="n">
-        <v>465693054</v>
+        <v>344692407</v>
       </c>
       <c r="J25" t="n">
-        <v>92.79000000000001</v>
+        <v>93.55</v>
       </c>
       <c r="K25" t="n">
-        <v>87.84</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>3.56</v>
+        <v>-3.397496713561679</v>
       </c>
       <c r="M25" t="n">
-        <v>4.03066</v>
+        <v>-3.65091</v>
       </c>
       <c r="N25" t="n">
-        <v>254490200</v>
+        <v>-262636962.7030725</v>
       </c>
       <c r="O25" t="n">
-        <v>3.80054</v>
+        <v>-3.73324</v>
       </c>
       <c r="P25" t="n">
-        <v>75633858.23347135</v>
+        <v>75640245.73347135</v>
       </c>
       <c r="Q25" t="n">
-        <v>75634233.23347135</v>
+        <v>75640401.98347135</v>
       </c>
       <c r="R25" t="n">
         <v>84000000</v>
@@ -2824,7 +2824,7 @@
         <v>410.26</v>
       </c>
       <c r="T25" t="n">
-        <v>-77.57552</v>
+        <v>-78.14763000000001</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>7907.94218</v>
+        <v>7703.63757</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.972Z</t>
+          <t>2025-03-16T15:05:23.394Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2874,43 +2874,43 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>331.44</v>
+        <v>330.87</v>
       </c>
       <c r="F26" t="n">
-        <v>6575322405</v>
+        <v>6561511441</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>6575322405</v>
+        <v>6561519708</v>
       </c>
       <c r="I26" t="n">
-        <v>197280306</v>
+        <v>142647786</v>
       </c>
       <c r="J26" t="n">
-        <v>334.57</v>
+        <v>346.71</v>
       </c>
       <c r="K26" t="n">
-        <v>325.71</v>
+        <v>325.64</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>-7.571085651974784</v>
       </c>
       <c r="M26" t="n">
-        <v>0.76136</v>
+        <v>-2.23703</v>
       </c>
       <c r="N26" t="n">
-        <v>50569987</v>
+        <v>-156289738.3020687</v>
       </c>
       <c r="O26" t="n">
-        <v>0.77505</v>
+        <v>-2.3265</v>
       </c>
       <c r="P26" t="n">
-        <v>19842137.39665078</v>
+        <v>19842890.52165078</v>
       </c>
       <c r="Q26" t="n">
-        <v>19842137.39665078</v>
+        <v>19842915.52165078</v>
       </c>
       <c r="R26" t="n">
         <v>21000000</v>
@@ -2919,7 +2919,7 @@
         <v>3785.82</v>
       </c>
       <c r="T26" t="n">
-        <v>-91.24615</v>
+        <v>-91.26376</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>76.93000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>330.7609</v>
+        <v>329.89406</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.636Z</t>
+          <t>2025-03-16T15:05:25.249Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2950,90 +2950,90 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>om</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>MANTRA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
+          <t>https://coin-images.coingecko.com/coins/images/12151/large/OM_Token.png?1696511991</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.21</v>
+        <v>6.67</v>
       </c>
       <c r="F27" t="n">
-        <v>6409045286</v>
+        <v>6554161638</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>6409045286</v>
+        <v>12070830691</v>
       </c>
       <c r="I27" t="n">
-        <v>221933470</v>
+        <v>190348022</v>
       </c>
       <c r="J27" t="n">
-        <v>4.22</v>
+        <v>6.68</v>
       </c>
       <c r="K27" t="n">
-        <v>3.96</v>
+        <v>6.52</v>
       </c>
       <c r="L27" t="n">
-        <v>0.221059</v>
+        <v>0.140387</v>
       </c>
       <c r="M27" t="n">
-        <v>5.542</v>
+        <v>2.15001</v>
       </c>
       <c r="N27" t="n">
-        <v>329631595</v>
+        <v>135985352</v>
       </c>
       <c r="O27" t="n">
-        <v>5.4221</v>
+        <v>2.11875</v>
       </c>
       <c r="P27" t="n">
-        <v>1522267060</v>
+        <v>983914307.9699998</v>
       </c>
       <c r="Q27" t="n">
-        <v>1522267060</v>
+        <v>1812079665.22</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>54.98</v>
+        <v>8.99</v>
       </c>
       <c r="T27" t="n">
-        <v>-92.32579</v>
+        <v>-25.85108</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2021-11-04T14:10:09.301Z</t>
+          <t>2025-02-23T01:52:21.073Z</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.7</v>
+        <v>0.01726188</v>
       </c>
       <c r="W27" t="n">
-        <v>56.41971</v>
+        <v>38496.90715</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2020-08-20T05:48:11.359Z</t>
+          <t>2023-10-12T17:25:09.068Z</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.043Z</t>
+          <t>2025-03-16T15:05:20.922Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3043,90 +3043,90 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>om</t>
+          <t>dot</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MANTRA</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12151/large/OM_Token.png?1696511991</t>
+          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.26</v>
+        <v>4.25</v>
       </c>
       <c r="F28" t="n">
-        <v>6154974682</v>
+        <v>6462391694</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>11336789709</v>
+        <v>6462391694</v>
       </c>
       <c r="I28" t="n">
-        <v>84266546</v>
+        <v>138857371</v>
       </c>
       <c r="J28" t="n">
-        <v>6.35</v>
+        <v>4.42</v>
       </c>
       <c r="K28" t="n">
-        <v>6.17</v>
+        <v>4.19</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.03929395402147495</v>
+        <v>-0.1634710906480317</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.62418</v>
+        <v>-3.70328</v>
       </c>
       <c r="N28" t="n">
-        <v>-34894979.40201569</v>
+        <v>-242880977.1009302</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.56374</v>
+        <v>-3.62224</v>
       </c>
       <c r="P28" t="n">
-        <v>983687408.4099998</v>
+        <v>1522267060</v>
       </c>
       <c r="Q28" t="n">
-        <v>1811844542.82</v>
+        <v>1522267060</v>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>8.99</v>
+        <v>54.98</v>
       </c>
       <c r="T28" t="n">
-        <v>-30.35699</v>
+        <v>-92.27718</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2025-02-23T01:52:21.073Z</t>
+          <t>2021-11-04T14:10:09.301Z</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>0.01726188</v>
+        <v>2.7</v>
       </c>
       <c r="W28" t="n">
-        <v>36151.43425</v>
+        <v>57.4105</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2023-10-12T17:25:09.068Z</t>
+          <t>2020-08-20T05:48:11.359Z</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.929Z</t>
+          <t>2025-03-16T15:05:23.738Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,50 +3155,50 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.999192</v>
       </c>
       <c r="F29" t="n">
-        <v>5459971474</v>
+        <v>5458878729</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5459971474</v>
+        <v>5458878729</v>
       </c>
       <c r="I29" t="n">
-        <v>67362736</v>
+        <v>40094644</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>1.001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.998594</v>
+        <v>0.999045</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0008116</v>
+        <v>-2.5207445140674e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08122</v>
+        <v>-0.00252</v>
       </c>
       <c r="N29" t="n">
-        <v>5088942</v>
+        <v>615107</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09329</v>
+        <v>0.01127</v>
       </c>
       <c r="P29" t="n">
-        <v>5460568000.550031</v>
+        <v>5460882970.701</v>
       </c>
       <c r="Q29" t="n">
-        <v>5460568000.550031</v>
+        <v>5460882970.701</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>1.032</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.1219</v>
+        <v>-3.13296</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>0.929486</v>
       </c>
       <c r="W29" t="n">
-        <v>7.57144</v>
+        <v>7.55916</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.512Z</t>
+          <t>2025-03-16T15:05:29.166Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,50 +3248,50 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1923.14</v>
+        <v>1895.82</v>
       </c>
       <c r="F30" t="n">
-        <v>5369076840</v>
+        <v>5354790847</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5369076840</v>
+        <v>5354790847</v>
       </c>
       <c r="I30" t="n">
-        <v>538562217</v>
+        <v>259481328</v>
       </c>
       <c r="J30" t="n">
-        <v>1942.99</v>
+        <v>1952.68</v>
       </c>
       <c r="K30" t="n">
-        <v>1860.56</v>
+        <v>1870.24</v>
       </c>
       <c r="L30" t="n">
-        <v>44.77</v>
+        <v>-34.80042227891499</v>
       </c>
       <c r="M30" t="n">
-        <v>2.38371</v>
+        <v>-1.80255</v>
       </c>
       <c r="N30" t="n">
-        <v>109734850</v>
+        <v>-40121436.62456131</v>
       </c>
       <c r="O30" t="n">
-        <v>2.08647</v>
+        <v>-0.74369</v>
       </c>
       <c r="P30" t="n">
-        <v>2792093.007624316</v>
+        <v>2824228.865609744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2792093.007624316</v>
+        <v>2824228.865609744</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
         <v>4799.89</v>
       </c>
       <c r="T30" t="n">
-        <v>-59.8421</v>
+        <v>-60.50165</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="W30" t="n">
-        <v>2247.69341</v>
+        <v>2209.13521</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.832Z</t>
+          <t>2025-03-16T15:05:29.850Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3341,37 +3341,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="F31" t="n">
-        <v>5307066777</v>
+        <v>5273623998</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5307066777</v>
+        <v>5273623998</v>
       </c>
       <c r="I31" t="n">
-        <v>206317621</v>
+        <v>143465751</v>
       </c>
       <c r="J31" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.16</v>
+        <v>4.33</v>
       </c>
       <c r="L31" t="n">
-        <v>0.249748</v>
+        <v>-0.0823247097147064</v>
       </c>
       <c r="M31" t="n">
-        <v>5.98403</v>
+        <v>-1.83796</v>
       </c>
       <c r="N31" t="n">
-        <v>290547204</v>
+        <v>-100475229.2530022</v>
       </c>
       <c r="O31" t="n">
-        <v>5.79181</v>
+        <v>-1.86962</v>
       </c>
       <c r="P31" t="n">
         <v>1199999994.2</v>
@@ -3386,7 +3386,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>-47.62706</v>
+        <v>-47.98434</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>0.0142795</v>
       </c>
       <c r="W31" t="n">
-        <v>30893.25863</v>
+        <v>30681.82798</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.875Z</t>
+          <t>2025-03-16T15:05:25.229Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3436,37 +3436,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.001</v>
+        <v>0.998261</v>
       </c>
       <c r="F32" t="n">
-        <v>5184611722</v>
+        <v>5171168571</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>5184611722</v>
+        <v>5171168571</v>
       </c>
       <c r="I32" t="n">
-        <v>253920911</v>
+        <v>279882486</v>
       </c>
       <c r="J32" t="n">
-        <v>1.004</v>
+        <v>1.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9956199999999999</v>
+        <v>0.994364</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00087068</v>
+        <v>-0.003319296785118331</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08708</v>
+        <v>-0.33141</v>
       </c>
       <c r="N32" t="n">
-        <v>2236058</v>
+        <v>-27549122.4614954</v>
       </c>
       <c r="O32" t="n">
-        <v>0.04315</v>
+        <v>-0.5299199999999999</v>
       </c>
       <c r="P32" t="n">
         <v>5184994501.618546</v>
@@ -3479,7 +3479,7 @@
         <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>-4.78018</v>
+        <v>-4.77691</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>0.942186</v>
       </c>
       <c r="W32" t="n">
-        <v>6.11186</v>
+        <v>6.1155</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.529Z</t>
+          <t>2025-03-16T15:05:28.243Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3529,37 +3529,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13.87</v>
+        <v>13.45</v>
       </c>
       <c r="F33" t="n">
-        <v>4632517536</v>
+        <v>4490542273</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>13872662744</v>
+        <v>13447499768</v>
       </c>
       <c r="I33" t="n">
-        <v>127870830</v>
+        <v>53950594</v>
       </c>
       <c r="J33" t="n">
-        <v>14.47</v>
+        <v>14.77</v>
       </c>
       <c r="K33" t="n">
-        <v>12.31</v>
+        <v>13.28</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>-1.17831538231977</v>
       </c>
       <c r="M33" t="n">
-        <v>10.95761</v>
+        <v>-8.052379999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>437365788</v>
+        <v>-388387042.3855362</v>
       </c>
       <c r="O33" t="n">
-        <v>10.42551</v>
+        <v>-7.9605</v>
       </c>
       <c r="P33" t="n">
         <v>333928180</v>
@@ -3574,7 +3574,7 @@
         <v>34.96</v>
       </c>
       <c r="T33" t="n">
-        <v>-60.2139</v>
+        <v>-61.81063</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>3.81</v>
       </c>
       <c r="W33" t="n">
-        <v>265.18502</v>
+        <v>250.52916</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.902Z</t>
+          <t>2025-03-16T15:05:19.079Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3624,37 +3624,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.44</v>
+        <v>28.74</v>
       </c>
       <c r="F34" t="n">
-        <v>4100223983</v>
+        <v>4139330782</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9366701445</v>
+        <v>9456038444</v>
       </c>
       <c r="I34" t="n">
-        <v>47181800</v>
+        <v>16705432</v>
       </c>
       <c r="J34" t="n">
-        <v>28.58</v>
+        <v>28.96</v>
       </c>
       <c r="K34" t="n">
-        <v>28.09</v>
+        <v>28.55</v>
       </c>
       <c r="L34" t="n">
-        <v>0.248911</v>
+        <v>-0.1142242273344003</v>
       </c>
       <c r="M34" t="n">
-        <v>0.88281</v>
+        <v>-0.39591</v>
       </c>
       <c r="N34" t="n">
-        <v>35887572</v>
+        <v>-11877973.88089323</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8829900000000001</v>
+        <v>-0.28613</v>
       </c>
       <c r="P34" t="n">
         <v>144118517.1081541</v>
@@ -3669,7 +3669,7 @@
         <v>31.28</v>
       </c>
       <c r="T34" t="n">
-        <v>-9.05353</v>
+        <v>-8.11734</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>3.06</v>
       </c>
       <c r="W34" t="n">
-        <v>829.02537</v>
+        <v>838.58868</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.523Z</t>
+          <t>2025-03-16T15:05:29.759Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3719,50 +3719,50 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2043.84</v>
+        <v>2012.67</v>
       </c>
       <c r="F35" t="n">
-        <v>3936320525</v>
+        <v>3963236332</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>3936320525</v>
+        <v>3963236332</v>
       </c>
       <c r="I35" t="n">
-        <v>9564315</v>
+        <v>4323915</v>
       </c>
       <c r="J35" t="n">
-        <v>2061.21</v>
+        <v>2072.22</v>
       </c>
       <c r="K35" t="n">
-        <v>1972.56</v>
+        <v>1986.66</v>
       </c>
       <c r="L35" t="n">
-        <v>49.69</v>
+        <v>-37.28361854766285</v>
       </c>
       <c r="M35" t="n">
-        <v>2.49185</v>
+        <v>-1.81876</v>
       </c>
       <c r="N35" t="n">
-        <v>106169045</v>
+        <v>9430775</v>
       </c>
       <c r="O35" t="n">
-        <v>2.77193</v>
+        <v>0.23852</v>
       </c>
       <c r="P35" t="n">
-        <v>1926336.181001195</v>
+        <v>1969838.795248732</v>
       </c>
       <c r="Q35" t="n">
-        <v>1926336.181001195</v>
+        <v>1969838.795248732</v>
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
         <v>4311.81</v>
       </c>
       <c r="T35" t="n">
-        <v>-52.57729</v>
+        <v>-53.49608</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>1889.13</v>
       </c>
       <c r="W35" t="n">
-        <v>8.23906</v>
+        <v>6.14199</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.698Z</t>
+          <t>2025-03-16T15:05:30.265Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3812,37 +3812,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>210.43</v>
+        <v>210.13</v>
       </c>
       <c r="F36" t="n">
-        <v>3882149456</v>
+        <v>3872595838</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>3882149456</v>
+        <v>3872595838</v>
       </c>
       <c r="I36" t="n">
-        <v>50776979</v>
+        <v>35923165</v>
       </c>
       <c r="J36" t="n">
-        <v>210.93</v>
+        <v>214.57</v>
       </c>
       <c r="K36" t="n">
-        <v>205.83</v>
+        <v>208.83</v>
       </c>
       <c r="L36" t="n">
-        <v>3.38</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>1.63359</v>
+        <v>0.6228399999999999</v>
       </c>
       <c r="N36" t="n">
-        <v>64911099</v>
+        <v>20620913</v>
       </c>
       <c r="O36" t="n">
-        <v>1.70047</v>
+        <v>0.53533</v>
       </c>
       <c r="P36" t="n">
         <v>18446744.07370955</v>
@@ -3855,7 +3855,7 @@
         <v>542.33</v>
       </c>
       <c r="T36" t="n">
-        <v>-61.11542</v>
+        <v>-61.26857</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>0.216177</v>
       </c>
       <c r="W36" t="n">
-        <v>97450.31140000001</v>
+        <v>97066.08997</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.883Z</t>
+          <t>2025-03-16T15:05:21.433Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,37 +3905,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.08</v>
+        <v>6.05</v>
       </c>
       <c r="F37" t="n">
-        <v>3654633929</v>
+        <v>3626131832</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>6086156445</v>
+        <v>6038691165</v>
       </c>
       <c r="I37" t="n">
-        <v>163927815</v>
+        <v>139078023</v>
       </c>
       <c r="J37" t="n">
-        <v>6.12</v>
+        <v>6.31</v>
       </c>
       <c r="K37" t="n">
-        <v>5.84</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>0.180395</v>
+        <v>-0.06024820455150959</v>
       </c>
       <c r="M37" t="n">
-        <v>3.05529</v>
+        <v>-0.9857399999999999</v>
       </c>
       <c r="N37" t="n">
-        <v>107802309</v>
+        <v>-38525007.00852156</v>
       </c>
       <c r="O37" t="n">
-        <v>3.0394</v>
+        <v>-1.05126</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3950,7 +3950,7 @@
         <v>44.92</v>
       </c>
       <c r="T37" t="n">
-        <v>-86.41059</v>
+        <v>-86.55297</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>1.03</v>
       </c>
       <c r="W37" t="n">
-        <v>492.53264</v>
+        <v>486.32437</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.244Z</t>
+          <t>2025-03-16T15:05:30.487Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -4003,47 +4003,47 @@
         <v>1.043</v>
       </c>
       <c r="F38" t="n">
-        <v>3488534276</v>
+        <v>3503202935</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3488534276</v>
+        <v>3503202935</v>
       </c>
       <c r="I38" t="n">
-        <v>1648381</v>
+        <v>466544</v>
       </c>
       <c r="J38" t="n">
         <v>1.044</v>
       </c>
       <c r="K38" t="n">
-        <v>1.041</v>
+        <v>1.043</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00086856</v>
+        <v>0.00054751</v>
       </c>
       <c r="M38" t="n">
-        <v>0.08333</v>
+        <v>0.0525</v>
       </c>
       <c r="N38" t="n">
-        <v>-19933449.97254562</v>
+        <v>16344868</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.56815</v>
+        <v>0.46876</v>
       </c>
       <c r="P38" t="n">
-        <v>3343936764.842416</v>
+        <v>3357143755.204838</v>
       </c>
       <c r="Q38" t="n">
-        <v>3343936764.842416</v>
+        <v>3357143755.204838</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
         <v>1.088</v>
       </c>
       <c r="T38" t="n">
-        <v>-4.10784</v>
+        <v>-4.11127</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>0.961716</v>
       </c>
       <c r="W38" t="n">
-        <v>8.47532</v>
+        <v>8.471439999999999</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.194Z</t>
+          <t>2025-03-16T15:05:27.297Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4093,50 +4093,50 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.999665</v>
+        <v>0.999539</v>
       </c>
       <c r="F39" t="n">
-        <v>3175286169</v>
+        <v>3209069148</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>3175286169</v>
+        <v>3209069148</v>
       </c>
       <c r="I39" t="n">
-        <v>116461582</v>
+        <v>113650848</v>
       </c>
       <c r="J39" t="n">
-        <v>0.999826</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.999363</v>
+        <v>0.999312</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.2101005411269e-05</v>
+        <v>-6.8713727420677e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.00121</v>
+        <v>-0.00687</v>
       </c>
       <c r="N39" t="n">
-        <v>1994055</v>
+        <v>29201037</v>
       </c>
       <c r="O39" t="n">
-        <v>0.06283999999999999</v>
+        <v>0.91831</v>
       </c>
       <c r="P39" t="n">
-        <v>3176332234.451</v>
+        <v>3210400332.170407</v>
       </c>
       <c r="Q39" t="n">
-        <v>3176332234.451</v>
+        <v>3210400332.170407</v>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
         <v>1.22</v>
       </c>
       <c r="T39" t="n">
-        <v>-17.98073</v>
+        <v>-17.99482</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>0.88196</v>
       </c>
       <c r="W39" t="n">
-        <v>13.3564</v>
+        <v>13.33692</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.965Z</t>
+          <t>2025-03-16T15:05:28.870Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4186,50 +4186,50 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.23</v>
+        <v>5.19</v>
       </c>
       <c r="F40" t="n">
-        <v>3149406636</v>
+        <v>3127414945</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>5984469203</v>
+        <v>5941480241</v>
       </c>
       <c r="I40" t="n">
-        <v>127460856</v>
+        <v>100215654</v>
       </c>
       <c r="J40" t="n">
-        <v>5.32</v>
+        <v>5.42</v>
       </c>
       <c r="K40" t="n">
-        <v>5.12</v>
+        <v>5.15</v>
       </c>
       <c r="L40" t="n">
-        <v>0.075519</v>
+        <v>-0.1576701143328085</v>
       </c>
       <c r="M40" t="n">
-        <v>1.46491</v>
+        <v>-2.94619</v>
       </c>
       <c r="N40" t="n">
-        <v>36580364</v>
+        <v>-90473601.19897127</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17515</v>
+        <v>-2.81158</v>
       </c>
       <c r="P40" t="n">
-        <v>602111695.382233</v>
+        <v>602369633.2708842</v>
       </c>
       <c r="Q40" t="n">
-        <v>1144126279.567275</v>
+        <v>1144385166.888829</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
         <v>19.92</v>
       </c>
       <c r="T40" t="n">
-        <v>-73.68753</v>
+        <v>-73.91136</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>3.08</v>
       </c>
       <c r="W40" t="n">
-        <v>70.19149</v>
+        <v>68.7437</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.717Z</t>
+          <t>2025-03-16T15:05:24.959Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4279,50 +4279,50 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="F41" t="n">
-        <v>3144173593</v>
+        <v>3025985748</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>3262591650</v>
+        <v>3139446815</v>
       </c>
       <c r="I41" t="n">
-        <v>300112042</v>
+        <v>124516771</v>
       </c>
       <c r="J41" t="n">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="K41" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04970126</v>
+        <v>-0.1152272338048337</v>
       </c>
       <c r="M41" t="n">
-        <v>1.92564</v>
+        <v>-4.34433</v>
       </c>
       <c r="N41" t="n">
-        <v>67084660</v>
+        <v>-135456392.1624327</v>
       </c>
       <c r="O41" t="n">
-        <v>2.18013</v>
+        <v>-4.28464</v>
       </c>
       <c r="P41" t="n">
-        <v>1194977992</v>
+        <v>1195435997</v>
       </c>
       <c r="Q41" t="n">
-        <v>1239984086</v>
+        <v>1240259554</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
         <v>20.44</v>
       </c>
       <c r="T41" t="n">
-        <v>-87.07351</v>
+        <v>-87.61479</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>0.526762</v>
       </c>
       <c r="W41" t="n">
-        <v>401.54154</v>
+        <v>380.54016</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.522Z</t>
+          <t>2025-03-16T15:05:22.393Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4372,37 +4372,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7.16e-06</v>
+        <v>6.73e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>3015116739</v>
+        <v>2827527405</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>3015116739</v>
+        <v>2827527405</v>
       </c>
       <c r="I42" t="n">
-        <v>793578003</v>
+        <v>584910474</v>
       </c>
       <c r="J42" t="n">
-        <v>7.3e-06</v>
+        <v>7.32e-06</v>
       </c>
       <c r="K42" t="n">
-        <v>6.67e-06</v>
+        <v>6.65e-06</v>
       </c>
       <c r="L42" t="n">
-        <v>4.20736e-07</v>
+        <v>-4.1461860411e-07</v>
       </c>
       <c r="M42" t="n">
-        <v>6.24277</v>
+        <v>-5.80088</v>
       </c>
       <c r="N42" t="n">
-        <v>191353658</v>
+        <v>-171637872.9854069</v>
       </c>
       <c r="O42" t="n">
-        <v>6.77655</v>
+        <v>-5.72285</v>
       </c>
       <c r="P42" t="n">
         <v>420690000000000</v>
@@ -4417,7 +4417,7 @@
         <v>2.803e-05</v>
       </c>
       <c r="T42" t="n">
-        <v>-74.37812</v>
+        <v>-76.16637</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>5.5142e-08</v>
       </c>
       <c r="W42" t="n">
-        <v>12923.28246</v>
+        <v>12014.33435</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.357Z</t>
+          <t>2025-03-16T15:05:25.356Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4467,37 +4467,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>46.33</v>
+        <v>47.07</v>
       </c>
       <c r="F43" t="n">
-        <v>2777972565</v>
+        <v>2824095800</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>10924732937</v>
+        <v>11106118466</v>
       </c>
       <c r="I43" t="n">
-        <v>15837675</v>
+        <v>8087711</v>
       </c>
       <c r="J43" t="n">
-        <v>46.59</v>
+        <v>47.09</v>
       </c>
       <c r="K43" t="n">
-        <v>41.02</v>
+        <v>44.94</v>
       </c>
       <c r="L43" t="n">
-        <v>5.27</v>
+        <v>0.64153</v>
       </c>
       <c r="M43" t="n">
-        <v>12.83455</v>
+        <v>1.38176</v>
       </c>
       <c r="N43" t="n">
-        <v>307593165</v>
+        <v>43841092</v>
       </c>
       <c r="O43" t="n">
-        <v>12.45125</v>
+        <v>1.57687</v>
       </c>
       <c r="P43" t="n">
         <v>60000000</v>
@@ -4512,7 +4512,7 @@
         <v>73.8</v>
       </c>
       <c r="T43" t="n">
-        <v>-37.11666</v>
+        <v>-36.19607</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>0.580608</v>
       </c>
       <c r="W43" t="n">
-        <v>7893.34607</v>
+        <v>8010.36659</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.793Z</t>
+          <t>2025-03-16T15:05:25.585Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4543,92 +4543,92 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>mnt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/26580/large/ONDO.png?1696525656</t>
+          <t>https://coin-images.coingecko.com/coins/images/30980/large/Mantle-Logo-mark.png?1739213200</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.875342</v>
+        <v>0.816591</v>
       </c>
       <c r="F44" t="n">
-        <v>2766803756</v>
+        <v>2744972383</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>8758181641</v>
+        <v>5073819759</v>
       </c>
       <c r="I44" t="n">
-        <v>144273296</v>
+        <v>77392304</v>
       </c>
       <c r="J44" t="n">
-        <v>0.89352</v>
+        <v>0.820581</v>
       </c>
       <c r="K44" t="n">
-        <v>0.824812</v>
+        <v>0.7421489999999999</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03252525</v>
+        <v>0.071829</v>
       </c>
       <c r="M44" t="n">
-        <v>3.85911</v>
+        <v>9.64461</v>
       </c>
       <c r="N44" t="n">
-        <v>121189624</v>
+        <v>240035322</v>
       </c>
       <c r="O44" t="n">
-        <v>4.58077</v>
+        <v>9.58249</v>
       </c>
       <c r="P44" t="n">
-        <v>3159107529</v>
+        <v>3364694382.83684</v>
       </c>
       <c r="Q44" t="n">
-        <v>10000000000</v>
+        <v>6219316794.99</v>
       </c>
       <c r="R44" t="n">
-        <v>10000000000</v>
+        <v>6219316794.99</v>
       </c>
       <c r="S44" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="T44" t="n">
-        <v>-59.05182</v>
+        <v>-46.75452</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2024-12-16T00:36:00.777Z</t>
+          <t>2024-04-08T09:45:25.482Z</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>0.08217099999999999</v>
+        <v>0.307978</v>
       </c>
       <c r="W44" t="n">
-        <v>966.50168</v>
+        <v>166.02437</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>2024-01-18T12:14:30.524Z</t>
+          <t>2023-10-18T02:50:46.942Z</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.557Z</t>
+          <t>2025-03-16T15:05:20.558Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4657,50 +4657,50 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="F45" t="n">
-        <v>2733166928</v>
+        <v>2702748457</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>3010661425</v>
+        <v>2976960661</v>
       </c>
       <c r="I45" t="n">
-        <v>56879970</v>
+        <v>63868617</v>
       </c>
       <c r="J45" t="n">
-        <v>5.73</v>
+        <v>5.87</v>
       </c>
       <c r="K45" t="n">
-        <v>5.42</v>
+        <v>5.56</v>
       </c>
       <c r="L45" t="n">
-        <v>0.22224</v>
+        <v>-0.1181067022296682</v>
       </c>
       <c r="M45" t="n">
-        <v>4.07779</v>
+        <v>-2.05871</v>
       </c>
       <c r="N45" t="n">
-        <v>104479284</v>
+        <v>-56788842.06151295</v>
       </c>
       <c r="O45" t="n">
-        <v>3.97458</v>
+        <v>-2.05791</v>
       </c>
       <c r="P45" t="n">
-        <v>481400993.9418285</v>
+        <v>481741613.5959851</v>
       </c>
       <c r="Q45" t="n">
-        <v>530276942.6996925</v>
+        <v>530617575.0196607</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
         <v>700.65</v>
       </c>
       <c r="T45" t="n">
-        <v>-99.18641</v>
+        <v>-99.20001999999999</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>2.87</v>
       </c>
       <c r="W45" t="n">
-        <v>98.9662</v>
+        <v>95.63795</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.239Z</t>
+          <t>2025-03-16T15:05:19.721Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4750,43 +4750,43 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.06</v>
+        <v>17.42</v>
       </c>
       <c r="F46" t="n">
-        <v>2728656291</v>
+        <v>2628798603</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>2728656291</v>
+        <v>2628798603</v>
       </c>
       <c r="I46" t="n">
-        <v>83016206</v>
+        <v>64794596</v>
       </c>
       <c r="J46" t="n">
-        <v>18.45</v>
+        <v>18.1</v>
       </c>
       <c r="K46" t="n">
-        <v>17.85</v>
+        <v>17.25</v>
       </c>
       <c r="L46" t="n">
-        <v>0.147925</v>
+        <v>-0.5344002925412923</v>
       </c>
       <c r="M46" t="n">
-        <v>0.82603</v>
+        <v>-2.9767</v>
       </c>
       <c r="N46" t="n">
-        <v>14688339</v>
+        <v>-83164760.04837942</v>
       </c>
       <c r="O46" t="n">
-        <v>0.54121</v>
+        <v>-3.06659</v>
       </c>
       <c r="P46" t="n">
-        <v>151118372.1174495</v>
+        <v>151140215.8293832</v>
       </c>
       <c r="Q46" t="n">
-        <v>151118372.1174495</v>
+        <v>151140215.8293832</v>
       </c>
       <c r="R46" t="n">
         <v>210700000</v>
@@ -4795,7 +4795,7 @@
         <v>167.09</v>
       </c>
       <c r="T46" t="n">
-        <v>-89.17402</v>
+        <v>-89.58278</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>0.615038</v>
       </c>
       <c r="W46" t="n">
-        <v>2841.05915</v>
+        <v>2730.0119</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -4816,11 +4816,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.250Z</t>
+          <t>2025-03-16T15:05:29.275Z</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>39.12422766806704</v>
+        <v>37.70743777070869</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -4828,98 +4828,98 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>3912.422766806705</v>
+        <v>3770.743777070869</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
+          <t>https://coin-images.coingecko.com/coins/images/26580/large/ONDO.png?1696525656</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>174.7</v>
+        <v>0.8319299999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>2635783965</v>
+        <v>2626614206</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>2794988129</v>
+        <v>8314418492</v>
       </c>
       <c r="I47" t="n">
-        <v>376114292</v>
+        <v>117915959</v>
       </c>
       <c r="J47" t="n">
-        <v>175.65</v>
+        <v>0.890516</v>
       </c>
       <c r="K47" t="n">
-        <v>162.18</v>
+        <v>0.819124</v>
       </c>
       <c r="L47" t="n">
-        <v>10.85</v>
+        <v>-0.0427994161534756</v>
       </c>
       <c r="M47" t="n">
-        <v>6.62085</v>
+        <v>-4.89288</v>
       </c>
       <c r="N47" t="n">
-        <v>155221445</v>
+        <v>-135972829.7816424</v>
       </c>
       <c r="O47" t="n">
-        <v>6.25751</v>
+        <v>-4.92194</v>
       </c>
       <c r="P47" t="n">
-        <v>15088630.60772985</v>
+        <v>3159107529</v>
       </c>
       <c r="Q47" t="n">
-        <v>16000000</v>
+        <v>10000000000</v>
       </c>
       <c r="R47" t="n">
-        <v>16000000</v>
+        <v>10000000000</v>
       </c>
       <c r="S47" t="n">
-        <v>661.6900000000001</v>
+        <v>2.14</v>
       </c>
       <c r="T47" t="n">
-        <v>-73.51364</v>
+        <v>-61.07992</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2021-05-18T21:19:59.514Z</t>
+          <t>2024-12-16T00:36:00.777Z</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>26.02</v>
+        <v>0.08217099999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>573.46812</v>
+        <v>913.67961</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>2020-11-05T09:20:11.928Z</t>
+          <t>2024-01-18T12:14:30.524Z</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.277Z</t>
+          <t>2025-03-16T15:05:26.812Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4948,37 +4948,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.25</v>
+        <v>21.28</v>
       </c>
       <c r="F48" t="n">
-        <v>2614106455</v>
+        <v>2612817483</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>6380507577</v>
+        <v>6377361455</v>
       </c>
       <c r="I48" t="n">
-        <v>24794357</v>
+        <v>16187941</v>
       </c>
       <c r="J48" t="n">
-        <v>21.47</v>
+        <v>21.8</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>20.83</v>
       </c>
       <c r="L48" t="n">
-        <v>1.12</v>
+        <v>-0.1077475859702801</v>
       </c>
       <c r="M48" t="n">
-        <v>5.58937</v>
+        <v>-0.50373</v>
       </c>
       <c r="N48" t="n">
-        <v>138058312</v>
+        <v>-12538812.87238026</v>
       </c>
       <c r="O48" t="n">
-        <v>5.57575</v>
+        <v>-0.4776</v>
       </c>
       <c r="P48" t="n">
         <v>122910587.7676574</v>
@@ -4991,7 +4991,7 @@
         <v>25.94</v>
       </c>
       <c r="T48" t="n">
-        <v>-17.96225</v>
+        <v>-18.01588</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>0.25754</v>
       </c>
       <c r="W48" t="n">
-        <v>8162.83296</v>
+        <v>8157.4319</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.488Z</t>
+          <t>2025-03-16T15:05:29.376Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5041,50 +5041,50 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>84286</v>
+        <v>83344</v>
       </c>
       <c r="F49" t="n">
-        <v>2550676341</v>
+        <v>2532588420</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>2550676341</v>
+        <v>2532588420</v>
       </c>
       <c r="I49" t="n">
-        <v>239096608</v>
+        <v>124727699</v>
       </c>
       <c r="J49" t="n">
-        <v>85171</v>
+        <v>84511</v>
       </c>
       <c r="K49" t="n">
-        <v>80826</v>
+        <v>82419</v>
       </c>
       <c r="L49" t="n">
-        <v>2948.55</v>
+        <v>-940.1679894175177</v>
       </c>
       <c r="M49" t="n">
-        <v>3.62509</v>
+        <v>-1.11548</v>
       </c>
       <c r="N49" t="n">
-        <v>72807883</v>
+        <v>-19153216.889853</v>
       </c>
       <c r="O49" t="n">
-        <v>2.93833</v>
+        <v>-0.75059</v>
       </c>
       <c r="P49" t="n">
-        <v>30238.96055587</v>
+        <v>30373.48931676</v>
       </c>
       <c r="Q49" t="n">
-        <v>30238.96055587</v>
+        <v>30373.48931676</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
         <v>108953</v>
       </c>
       <c r="T49" t="n">
-        <v>-22.52651</v>
+        <v>-23.88467</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>57439</v>
       </c>
       <c r="W49" t="n">
-        <v>46.95575</v>
+        <v>44.37952</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.091Z</t>
+          <t>2025-03-16T15:05:26.898Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5115,92 +5115,92 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mnt</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/30980/large/Mantle-Logo-mark.png?1739213200</t>
+          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.733405</v>
+        <v>166.13</v>
       </c>
       <c r="F50" t="n">
-        <v>2467047423</v>
+        <v>2502399812</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>4560101967</v>
+        <v>2653504357</v>
       </c>
       <c r="I50" t="n">
-        <v>44874934</v>
+        <v>206257372</v>
       </c>
       <c r="J50" t="n">
-        <v>0.738152</v>
+        <v>175.31</v>
       </c>
       <c r="K50" t="n">
-        <v>0.720938</v>
+        <v>164.29</v>
       </c>
       <c r="L50" t="n">
-        <v>0.00546563</v>
+        <v>-6.255142162638833</v>
       </c>
       <c r="M50" t="n">
-        <v>0.75084</v>
+        <v>-3.62853</v>
       </c>
       <c r="N50" t="n">
-        <v>15443191</v>
+        <v>-96098314.15080452</v>
       </c>
       <c r="O50" t="n">
-        <v>0.62992</v>
+        <v>-3.69823</v>
       </c>
       <c r="P50" t="n">
-        <v>3364694382.83684</v>
+        <v>15088875.54447579</v>
       </c>
       <c r="Q50" t="n">
-        <v>6219316794.99</v>
+        <v>16000000</v>
       </c>
       <c r="R50" t="n">
-        <v>6219316794.99</v>
+        <v>16000000</v>
       </c>
       <c r="S50" t="n">
-        <v>1.54</v>
+        <v>661.6900000000001</v>
       </c>
       <c r="T50" t="n">
-        <v>-52.34228</v>
+        <v>-74.92964000000001</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2024-04-08T09:45:25.482Z</t>
+          <t>2021-05-18T21:19:59.514Z</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>0.307978</v>
+        <v>26.02</v>
       </c>
       <c r="W50" t="n">
-        <v>138.10689</v>
+        <v>537.46349</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>2023-10-18T02:50:46.942Z</t>
+          <t>2020-11-05T09:20:11.928Z</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.052Z</t>
+          <t>2025-03-16T15:05:23.461Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5210,185 +5210,195 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>tokenize-xchange</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>trump</t>
+          <t>tkx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Official Trump</t>
+          <t>Tokenize Xchange</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/53746/large/trump.png?1737171561</t>
+          <t>https://coin-images.coingecko.com/coins/images/4984/large/TKX_-_Logo_-_RGB-15.png?1696505519</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>29.97</v>
       </c>
       <c r="F51" t="n">
-        <v>2401198241</v>
+        <v>2397335838</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>12005992574</v>
+        <v>2996819674</v>
       </c>
       <c r="I51" t="n">
-        <v>1509010213</v>
+        <v>14321980</v>
       </c>
       <c r="J51" t="n">
-        <v>12.24</v>
+        <v>30</v>
       </c>
       <c r="K51" t="n">
-        <v>10.67</v>
+        <v>29.3</v>
       </c>
       <c r="L51" t="n">
-        <v>1.26</v>
+        <v>0.637922</v>
       </c>
       <c r="M51" t="n">
-        <v>11.78032</v>
+        <v>2.17454</v>
       </c>
       <c r="N51" t="n">
-        <v>251899425</v>
+        <v>51574247</v>
       </c>
       <c r="O51" t="n">
-        <v>11.72007</v>
+        <v>2.19861</v>
       </c>
       <c r="P51" t="n">
-        <v>199999977.236</v>
+        <v>79995999.05112354</v>
       </c>
       <c r="Q51" t="n">
-        <v>1000000000</v>
+        <v>100000000</v>
       </c>
       <c r="R51" t="n">
-        <v>1000000000</v>
+        <v>100000000</v>
       </c>
       <c r="S51" t="n">
-        <v>73.43000000000001</v>
+        <v>50.43</v>
       </c>
       <c r="T51" t="n">
-        <v>-83.63818000000001</v>
+        <v>-40.57395</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2025-01-19T11:50:34.806Z</t>
+          <t>2025-01-03T19:12:43.038Z</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>4.29</v>
+        <v>0.111255</v>
       </c>
       <c r="W51" t="n">
-        <v>180.01628</v>
+        <v>26837.60714</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>2025-01-18T03:40:29.231Z</t>
+          <t>2019-04-28T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.911Z</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
+          <t>2025-03-16T15:05:28.393Z</t>
+        </is>
+      </c>
+      <c r="AA51" t="n">
+        <v>102.1803585880215</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>10218.03585880216</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cro</t>
+          <t>trump</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Official Trump</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
+          <t>https://coin-images.coingecko.com/coins/images/53746/large/trump.png?1737171561</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.082968</v>
+        <v>11.47</v>
       </c>
       <c r="F52" t="n">
-        <v>2271781693</v>
+        <v>2294901400</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2489211009</v>
+        <v>11474508306</v>
       </c>
       <c r="I52" t="n">
-        <v>29906132</v>
+        <v>649919365</v>
       </c>
       <c r="J52" t="n">
-        <v>0.084107</v>
+        <v>12.33</v>
       </c>
       <c r="K52" t="n">
-        <v>0.080745</v>
+        <v>11.31</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00178994</v>
+        <v>-0.6009172044963638</v>
       </c>
       <c r="M52" t="n">
-        <v>2.20497</v>
+        <v>-4.97712</v>
       </c>
       <c r="N52" t="n">
-        <v>45707227</v>
+        <v>-114101094.3272781</v>
       </c>
       <c r="O52" t="n">
-        <v>2.05327</v>
+        <v>-4.73645</v>
       </c>
       <c r="P52" t="n">
-        <v>27379539357.11595</v>
+        <v>199999977.236</v>
       </c>
       <c r="Q52" t="n">
-        <v>30000000000</v>
-      </c>
-      <c r="R52" t="inlineStr"/>
+        <v>1000000000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S52" t="n">
-        <v>0.965407</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="T52" t="n">
-        <v>-91.37775000000001</v>
+        <v>-84.55843</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2021-11-24T15:53:54.855Z</t>
+          <t>2025-01-19T11:50:34.806Z</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>0.0121196</v>
+        <v>4.29</v>
       </c>
       <c r="W52" t="n">
-        <v>586.82006</v>
+        <v>164.26719</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>2019-02-08T00:00:00.000Z</t>
+          <t>2025-01-18T03:40:29.231Z</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.552Z</t>
+          <t>2025-03-16T15:05:22.596Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5398,105 +5408,95 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tokenize-xchange</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tkx</t>
+          <t>cro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tokenize Xchange</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4984/large/TKX_-_Logo_-_RGB-15.png?1696505519</t>
+          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.97</v>
+        <v>0.081789</v>
       </c>
       <c r="F53" t="n">
-        <v>2236992749</v>
+        <v>2240069665</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2796380789</v>
+        <v>2454065964</v>
       </c>
       <c r="I53" t="n">
-        <v>15952198</v>
+        <v>24053855</v>
       </c>
       <c r="J53" t="n">
-        <v>28.09</v>
+        <v>0.085248</v>
       </c>
       <c r="K53" t="n">
-        <v>26.8</v>
+        <v>0.080702</v>
       </c>
       <c r="L53" t="n">
-        <v>1.052</v>
+        <v>-0.002598997141170081</v>
       </c>
       <c r="M53" t="n">
-        <v>3.90822</v>
+        <v>-3.07981</v>
       </c>
       <c r="N53" t="n">
-        <v>80947983</v>
+        <v>-64344459.53044605</v>
       </c>
       <c r="O53" t="n">
-        <v>3.75447</v>
+        <v>-2.79223</v>
       </c>
       <c r="P53" t="n">
-        <v>79995999.05112354</v>
+        <v>27383978645.694</v>
       </c>
       <c r="Q53" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="R53" t="n">
-        <v>100000000</v>
-      </c>
+        <v>30000000000</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>50.43</v>
+        <v>0.965407</v>
       </c>
       <c r="T53" t="n">
-        <v>-44.51017</v>
+        <v>-91.52301</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2025-01-03T19:12:43.038Z</t>
+          <t>2021-11-24T15:53:54.855Z</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>0.111255</v>
+        <v>0.0121196</v>
       </c>
       <c r="W53" t="n">
-        <v>25053.33609</v>
+        <v>575.24913</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>2019-04-28T00:00:00.000Z</t>
+          <t>2019-02-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.875Z</t>
-        </is>
-      </c>
-      <c r="AA53" t="n">
-        <v>95.26672515245831</v>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC53" t="n">
-        <v>9526.672515245831</v>
-      </c>
+          <t>2025-03-16T15:05:30.264Z</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5520,37 +5520,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>258.82</v>
+        <v>247.54</v>
       </c>
       <c r="F54" t="n">
-        <v>2195799372</v>
+        <v>2091430140</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>5452909408</v>
+        <v>5193725453</v>
       </c>
       <c r="I54" t="n">
-        <v>99507217</v>
+        <v>72663412</v>
       </c>
       <c r="J54" t="n">
-        <v>261.08</v>
+        <v>262.6</v>
       </c>
       <c r="K54" t="n">
-        <v>237.85</v>
+        <v>243.94</v>
       </c>
       <c r="L54" t="n">
-        <v>19.33</v>
+        <v>-11.71925161608345</v>
       </c>
       <c r="M54" t="n">
-        <v>8.07211</v>
+        <v>-4.52032</v>
       </c>
       <c r="N54" t="n">
-        <v>172191740</v>
+        <v>-96390392.34459186</v>
       </c>
       <c r="O54" t="n">
-        <v>8.50915</v>
+        <v>-4.40577</v>
       </c>
       <c r="P54" t="n">
         <v>8456364</v>
@@ -5565,7 +5565,7 @@
         <v>757.6</v>
       </c>
       <c r="T54" t="n">
-        <v>-65.62648</v>
+        <v>-67.57612</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>30.83</v>
       </c>
       <c r="W54" t="n">
-        <v>744.68304</v>
+        <v>696.77308</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.794Z</t>
+          <t>2025-03-16T15:05:25.455Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5615,37 +5615,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.02495304</v>
+        <v>0.02424087</v>
       </c>
       <c r="F55" t="n">
-        <v>2145358546</v>
+        <v>2085502159</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>2145358546</v>
+        <v>2085502159</v>
       </c>
       <c r="I55" t="n">
-        <v>53007557</v>
+        <v>47041126</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02504294</v>
+        <v>0.02545411</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02367063</v>
+        <v>0.02396051</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00107254</v>
+        <v>-0.001012235441493748</v>
       </c>
       <c r="M55" t="n">
-        <v>4.49128</v>
+        <v>-4.00836</v>
       </c>
       <c r="N55" t="n">
-        <v>93825582</v>
+        <v>-83840699.68637705</v>
       </c>
       <c r="O55" t="n">
-        <v>4.57344</v>
+        <v>-3.8648</v>
       </c>
       <c r="P55" t="n">
         <v>85985041177</v>
@@ -5660,7 +5660,7 @@
         <v>0.280991</v>
       </c>
       <c r="T55" t="n">
-        <v>-91.09572</v>
+        <v>-91.38542</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>0.00191713</v>
       </c>
       <c r="W55" t="n">
-        <v>1205.08509</v>
+        <v>1162.6253</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5681,11 +5681,11 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.744Z</t>
+          <t>2025-03-16T15:05:29.960Z</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>3.543792991679053</v>
+        <v>3.471679892051946</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>354.3792991679053</v>
+        <v>347.1679892051946</v>
       </c>
     </row>
     <row r="56">
@@ -5718,50 +5718,50 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.998922</v>
+        <v>0.999563</v>
       </c>
       <c r="F56" t="n">
-        <v>2076196001</v>
+        <v>2077640685</v>
       </c>
       <c r="G56" t="n">
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>2076196001</v>
+        <v>2077640685</v>
       </c>
       <c r="I56" t="n">
-        <v>4284228654</v>
+        <v>2167978439</v>
       </c>
       <c r="J56" t="n">
         <v>1.003</v>
       </c>
       <c r="K56" t="n">
-        <v>0.995407</v>
+        <v>0.995746</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.001805435877427874</v>
+        <v>0.00141784</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.18041</v>
+        <v>0.14205</v>
       </c>
       <c r="N56" t="n">
-        <v>18791345</v>
+        <v>1635133</v>
       </c>
       <c r="O56" t="n">
-        <v>0.91335</v>
+        <v>0.07876</v>
       </c>
       <c r="P56" t="n">
-        <v>2078518049.61862</v>
+        <v>2078518049.612143</v>
       </c>
       <c r="Q56" t="n">
-        <v>2078518049.61862</v>
+        <v>2078518049.612143</v>
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
         <v>1.15</v>
       </c>
       <c r="T56" t="n">
-        <v>-13.24779</v>
+        <v>-13.2007</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>0.940377</v>
       </c>
       <c r="W56" t="n">
-        <v>6.21338</v>
+        <v>6.27105</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.071Z</t>
+          <t>2025-03-16T15:05:29.292Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5792,185 +5792,193 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>kas</t>
+          <t>atom</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Cosmos Hub</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
+          <t>https://coin-images.coingecko.com/coins/images/1481/large/cosmos_hub.png?1696502525</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.078226</v>
+        <v>4.6</v>
       </c>
       <c r="F57" t="n">
-        <v>2019621334</v>
+        <v>2024689345</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>2022142583</v>
+        <v>2024689345</v>
       </c>
       <c r="I57" t="n">
-        <v>74919061</v>
+        <v>149018625</v>
       </c>
       <c r="J57" t="n">
-        <v>0.07862</v>
+        <v>4.71</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07040299999999999</v>
+        <v>4.52</v>
       </c>
       <c r="L57" t="n">
-        <v>0.00670554</v>
+        <v>0.009900320000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>9.37567</v>
+        <v>0.21592</v>
       </c>
       <c r="N57" t="n">
-        <v>170944389</v>
+        <v>5609813</v>
       </c>
       <c r="O57" t="n">
-        <v>9.24685</v>
+        <v>0.27784</v>
       </c>
       <c r="P57" t="n">
-        <v>25826487850.01926</v>
+        <v>440595276.517636</v>
       </c>
       <c r="Q57" t="n">
-        <v>25858729045.79426</v>
-      </c>
-      <c r="R57" t="n">
-        <v>28704026601</v>
-      </c>
+        <v>440595276.517636</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>0.207411</v>
+        <v>44.45</v>
       </c>
       <c r="T57" t="n">
-        <v>-62.11442</v>
+        <v>-89.67101</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2024-08-01T00:40:47.164Z</t>
+          <t>2022-01-17T00:34:41.497Z</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>0.00017105</v>
+        <v>1.16</v>
       </c>
       <c r="W57" t="n">
-        <v>45839.23377</v>
+        <v>295.75868</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>2022-05-26T14:42:59.316Z</t>
+          <t>2020-03-13T02:27:44.591Z</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.718Z</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
+          <t>2025-03-16T15:05:28.478Z</t>
+        </is>
+      </c>
+      <c r="AA57" t="n">
+        <v>44.9508283797545</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>4495.08283797545</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tia</t>
+          <t>kas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.54</v>
+        <v>0.07559100000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1902028554</v>
+        <v>1947644238</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>3910383817</v>
+        <v>1950746179</v>
       </c>
       <c r="I58" t="n">
-        <v>84430763</v>
+        <v>53952343</v>
       </c>
       <c r="J58" t="n">
-        <v>3.7</v>
+        <v>0.081705</v>
       </c>
       <c r="K58" t="n">
-        <v>3.53</v>
+        <v>0.07507900000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.1030879374659457</v>
+        <v>-0.00546075681650135</v>
       </c>
       <c r="M58" t="n">
-        <v>-2.83029</v>
+        <v>-6.73739</v>
       </c>
       <c r="N58" t="n">
-        <v>-67680540.08280826</v>
+        <v>-134719558.4901485</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.43607</v>
+        <v>-6.46955</v>
       </c>
       <c r="P58" t="n">
-        <v>537233712.821426</v>
+        <v>25826487850.01926</v>
       </c>
       <c r="Q58" t="n">
-        <v>1104499726.027065</v>
-      </c>
-      <c r="R58" t="inlineStr"/>
+        <v>25867620735.55347</v>
+      </c>
+      <c r="R58" t="n">
+        <v>28704026601</v>
+      </c>
       <c r="S58" t="n">
-        <v>20.85</v>
+        <v>0.207411</v>
       </c>
       <c r="T58" t="n">
-        <v>-83.004</v>
+        <v>-63.54454</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2024-02-10T14:30:02.495Z</t>
+          <t>2024-08-01T00:40:47.164Z</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>2.08</v>
+        <v>0.00017105</v>
       </c>
       <c r="W58" t="n">
-        <v>70.08946</v>
+        <v>44105.09539</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>2023-10-31T15:14:31.951Z</t>
+          <t>2022-05-26T14:42:59.316Z</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.736Z</t>
+          <t>2025-03-16T15:05:19.780Z</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr"/>
@@ -5980,193 +5988,183 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>atom</t>
+          <t>ena</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cosmos Hub</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1481/large/cosmos_hub.png?1696502525</t>
+          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.29</v>
+        <v>0.358861</v>
       </c>
       <c r="F59" t="n">
-        <v>1891354155</v>
+        <v>1895818134</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>1891354155</v>
+        <v>5379797248</v>
       </c>
       <c r="I59" t="n">
-        <v>121009895</v>
+        <v>149419272</v>
       </c>
       <c r="J59" t="n">
-        <v>4.3</v>
+        <v>0.377274</v>
       </c>
       <c r="K59" t="n">
-        <v>3.9</v>
+        <v>0.348967</v>
       </c>
       <c r="L59" t="n">
-        <v>0.371254</v>
+        <v>-0.00684202262878747</v>
       </c>
       <c r="M59" t="n">
-        <v>9.46693</v>
+        <v>-1.87092</v>
       </c>
       <c r="N59" t="n">
-        <v>165103690</v>
+        <v>-36144825.53655243</v>
       </c>
       <c r="O59" t="n">
-        <v>9.564299999999999</v>
+        <v>-1.87089</v>
       </c>
       <c r="P59" t="n">
-        <v>440346986.195404</v>
+        <v>5285937500</v>
       </c>
       <c r="Q59" t="n">
-        <v>440346986.195404</v>
+        <v>15000000000</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>44.45</v>
+        <v>1.52</v>
       </c>
       <c r="T59" t="n">
-        <v>-90.33902</v>
+        <v>-76.52942</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2022-01-17T00:34:41.497Z</t>
+          <t>2024-04-11T13:15:15.057Z</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>1.16</v>
+        <v>0.195078</v>
       </c>
       <c r="W59" t="n">
-        <v>270.16364</v>
+        <v>82.60056</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>2020-03-13T02:27:44.591Z</t>
+          <t>2024-09-06T21:04:48.253Z</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.203Z</t>
-        </is>
-      </c>
-      <c r="AA59" t="n">
-        <v>41.92844415681563</v>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC59" t="n">
-        <v>4192.844415681563</v>
-      </c>
+          <t>2025-03-16T15:05:29.517Z</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fil</t>
+          <t>tia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="F60" t="n">
-        <v>1869136946</v>
+        <v>1853010100</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>5688411798</v>
+        <v>3809606692</v>
       </c>
       <c r="I60" t="n">
-        <v>119429691</v>
+        <v>45342444</v>
       </c>
       <c r="J60" t="n">
-        <v>2.91</v>
+        <v>3.69</v>
       </c>
       <c r="K60" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="L60" t="n">
-        <v>0.144218</v>
+        <v>-0.1975934965031496</v>
       </c>
       <c r="M60" t="n">
-        <v>5.22776</v>
+        <v>-5.41615</v>
       </c>
       <c r="N60" t="n">
-        <v>90007105</v>
+        <v>-103369076.0365939</v>
       </c>
       <c r="O60" t="n">
-        <v>5.05905</v>
+        <v>-5.28369</v>
       </c>
       <c r="P60" t="n">
-        <v>643901370</v>
+        <v>537233712.821426</v>
       </c>
       <c r="Q60" t="n">
-        <v>1959608234</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1959608234</v>
-      </c>
+        <v>1104499726.027065</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>236.84</v>
+        <v>20.85</v>
       </c>
       <c r="T60" t="n">
-        <v>-98.77131</v>
+        <v>-83.44426</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2021-04-01T13:29:41.564Z</t>
+          <t>2024-02-10T14:30:02.495Z</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="W60" t="n">
-        <v>17.46488</v>
+        <v>65.68351</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:57.279Z</t>
+          <t>2023-10-31T15:14:31.951Z</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.418Z</t>
+          <t>2025-03-16T15:05:28.338Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6176,90 +6174,92 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ena</t>
+          <t>fil</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
+          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.352596</v>
+        <v>2.86</v>
       </c>
       <c r="F61" t="n">
-        <v>1865132065</v>
+        <v>1838926055</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>5292718837</v>
+        <v>5594180740</v>
       </c>
       <c r="I61" t="n">
-        <v>268399544</v>
+        <v>79536844</v>
       </c>
       <c r="J61" t="n">
-        <v>0.365213</v>
+        <v>2.97</v>
       </c>
       <c r="K61" t="n">
-        <v>0.333855</v>
+        <v>2.83</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01222389</v>
+        <v>-0.07652698741676245</v>
       </c>
       <c r="M61" t="n">
-        <v>3.59134</v>
+        <v>-2.60522</v>
       </c>
       <c r="N61" t="n">
-        <v>58530731</v>
+        <v>-50015078.78622341</v>
       </c>
       <c r="O61" t="n">
-        <v>3.23983</v>
+        <v>-2.64778</v>
       </c>
       <c r="P61" t="n">
-        <v>5285937500</v>
+        <v>644164601</v>
       </c>
       <c r="Q61" t="n">
-        <v>15000000000</v>
-      </c>
-      <c r="R61" t="inlineStr"/>
+        <v>1959607454</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1959607454</v>
+      </c>
       <c r="S61" t="n">
-        <v>1.52</v>
+        <v>236.84</v>
       </c>
       <c r="T61" t="n">
-        <v>-76.66802</v>
+        <v>-98.79464</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2024-04-11T13:15:15.057Z</t>
+          <t>2021-04-01T13:29:41.564Z</t>
         </is>
       </c>
       <c r="V61" t="n">
-        <v>0.195078</v>
+        <v>2.48</v>
       </c>
       <c r="W61" t="n">
-        <v>81.52226</v>
+        <v>15.23452</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2024-09-06T21:04:48.253Z</t>
+          <t>2025-03-11T01:10:57.279Z</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.949Z</t>
+          <t>2025-03-16T15:05:30.022Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6288,40 +6288,40 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.215906</v>
+        <v>0.21275</v>
       </c>
       <c r="F62" t="n">
-        <v>1856152056</v>
+        <v>1833723366</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>2242529444</v>
+        <v>2207933926</v>
       </c>
       <c r="I62" t="n">
-        <v>72802457</v>
+        <v>64544963</v>
       </c>
       <c r="J62" t="n">
-        <v>0.218705</v>
+        <v>0.219301</v>
       </c>
       <c r="K62" t="n">
-        <v>0.210199</v>
+        <v>0.21006</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00392075</v>
+        <v>-0.002972869703014136</v>
       </c>
       <c r="M62" t="n">
-        <v>1.84954</v>
+        <v>-1.3781</v>
       </c>
       <c r="N62" t="n">
-        <v>29937270</v>
+        <v>-20939631.52111077</v>
       </c>
       <c r="O62" t="n">
-        <v>1.63931</v>
+        <v>-1.12903</v>
       </c>
       <c r="P62" t="n">
-        <v>8593961128.192968</v>
+        <v>8623145902.140886</v>
       </c>
       <c r="Q62" t="n">
         <v>10382883669.11985</v>
@@ -6331,7 +6331,7 @@
         <v>1.29</v>
       </c>
       <c r="T62" t="n">
-        <v>-83.18957</v>
+        <v>-83.59997</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>0.194083</v>
       </c>
       <c r="W62" t="n">
-        <v>11.52139</v>
+        <v>8.79874</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.213Z</t>
+          <t>2025-03-16T15:05:24.124Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6384,34 +6384,34 @@
         <v>3.99</v>
       </c>
       <c r="F63" t="n">
-        <v>1715648587</v>
+        <v>1716486250</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>3476301903</v>
+        <v>3477999203</v>
       </c>
       <c r="I63" t="n">
-        <v>49752637</v>
+        <v>48228138</v>
       </c>
       <c r="J63" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.001193956361132731</v>
+        <v>-0.00527010656844551</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.02992</v>
+        <v>-0.13199</v>
       </c>
       <c r="N63" t="n">
-        <v>685190</v>
+        <v>2624041</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03995</v>
+        <v>0.15311</v>
       </c>
       <c r="P63" t="n">
         <v>429734837</v>
@@ -6426,7 +6426,7 @@
         <v>4.07</v>
       </c>
       <c r="T63" t="n">
-        <v>-2.03864</v>
+        <v>-2.05368</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>0.398142</v>
       </c>
       <c r="W63" t="n">
-        <v>902.2441700000001</v>
+        <v>902.09027</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.271Z</t>
+          <t>2025-03-16T15:05:29.835Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6457,90 +6457,90 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sonic-3</t>
+          <t>lombard-staked-btc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>lbtc</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Lombard Staked BTC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.535469</v>
+        <v>83157</v>
       </c>
       <c r="F64" t="n">
-        <v>1701138956</v>
+        <v>1633564493</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1701138956</v>
+        <v>1633564493</v>
       </c>
       <c r="I64" t="n">
-        <v>221144702</v>
+        <v>1746735</v>
       </c>
       <c r="J64" t="n">
-        <v>0.544347</v>
+        <v>84601</v>
       </c>
       <c r="K64" t="n">
-        <v>0.480976</v>
+        <v>82332</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04760593</v>
+        <v>-1116.382294681971</v>
       </c>
       <c r="M64" t="n">
-        <v>9.75806</v>
+        <v>-1.32472</v>
       </c>
       <c r="N64" t="n">
-        <v>153328518</v>
+        <v>-24128884.03712964</v>
       </c>
       <c r="O64" t="n">
-        <v>9.90616</v>
+        <v>-1.45557</v>
       </c>
       <c r="P64" t="n">
-        <v>3175000000</v>
+        <v>19684.81531537</v>
       </c>
       <c r="Q64" t="n">
-        <v>3175000000</v>
+        <v>19684.81531537</v>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>1.029</v>
+        <v>114576</v>
       </c>
       <c r="T64" t="n">
-        <v>-47.88118</v>
+        <v>-27.66928</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2025-01-04T21:35:44.705Z</t>
+          <t>2025-02-04T01:47:44.052Z</t>
         </is>
       </c>
       <c r="V64" t="n">
-        <v>0.359647</v>
+        <v>52119</v>
       </c>
       <c r="W64" t="n">
-        <v>49.18756</v>
+        <v>59.00696</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>2025-02-03T02:11:37.229Z</t>
+          <t>2024-09-06T21:01:52.094Z</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.047Z</t>
+          <t>2025-03-16T15:05:20.491Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6550,286 +6550,286 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>render-token</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>algo</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4380/large/download.png?1696504978</t>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.199918</v>
+        <v>3.11</v>
       </c>
       <c r="F65" t="n">
-        <v>1698984274</v>
+        <v>1610265944</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1699027527</v>
+        <v>1656174854</v>
       </c>
       <c r="I65" t="n">
-        <v>72108686</v>
+        <v>101322627</v>
       </c>
       <c r="J65" t="n">
-        <v>0.204908</v>
+        <v>3.32</v>
       </c>
       <c r="K65" t="n">
-        <v>0.194474</v>
+        <v>3.09</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00345207</v>
+        <v>-0.121084384268983</v>
       </c>
       <c r="M65" t="n">
-        <v>1.75708</v>
+        <v>-3.74544</v>
       </c>
       <c r="N65" t="n">
-        <v>27770864</v>
+        <v>-60078876.22539949</v>
       </c>
       <c r="O65" t="n">
-        <v>1.66172</v>
+        <v>-3.59679</v>
       </c>
       <c r="P65" t="n">
-        <v>8497594805.82511</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="Q65" t="n">
-        <v>8497811136.933578</v>
-      </c>
-      <c r="R65" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>532476763.3362826</v>
+      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>3.56</v>
+        <v>13.53</v>
       </c>
       <c r="T65" t="n">
-        <v>-94.3638</v>
+        <v>-77.01451</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2019-06-20T14:51:19.480Z</t>
+          <t>2024-03-17T16:30:24.636Z</t>
         </is>
       </c>
       <c r="V65" t="n">
-        <v>0.08751299999999999</v>
+        <v>0.03665669</v>
       </c>
       <c r="W65" t="n">
-        <v>129.35167</v>
+        <v>8386.898069999999</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2023-09-11T19:42:08.247Z</t>
+          <t>2020-06-16T13:22:25.900Z</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.722Z</t>
-        </is>
-      </c>
-      <c r="AA65" t="n">
-        <v>-0.9167008728590633</v>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC65" t="n">
-        <v>-91.67008728590633</v>
-      </c>
+          <t>2025-03-16T15:05:25.610Z</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lombard-staked-btc</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lbtc</t>
+          <t>algo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lombard Staked BTC</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39969/large/LBTC_Logo.png?1724959872</t>
+          <t>https://coin-images.coingecko.com/coins/images/4380/large/download.png?1696504978</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>84333</v>
+        <v>0.189502</v>
       </c>
       <c r="F66" t="n">
-        <v>1660603920</v>
+        <v>1606781254</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1660603920</v>
+        <v>1606807026</v>
       </c>
       <c r="I66" t="n">
-        <v>8567303</v>
+        <v>72121647</v>
       </c>
       <c r="J66" t="n">
-        <v>85285</v>
+        <v>0.201659</v>
       </c>
       <c r="K66" t="n">
-        <v>80965</v>
+        <v>0.187036</v>
       </c>
       <c r="L66" t="n">
-        <v>3057.74</v>
+        <v>-0.01136934690968699</v>
       </c>
       <c r="M66" t="n">
-        <v>3.7622</v>
+        <v>-5.66003</v>
       </c>
       <c r="N66" t="n">
-        <v>1660603920</v>
+        <v>-95522672.77593684</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>-5.61138</v>
       </c>
       <c r="P66" t="n">
-        <v>19684.81531537</v>
+        <v>8497971079.240776</v>
       </c>
       <c r="Q66" t="n">
-        <v>19684.81531537</v>
-      </c>
-      <c r="R66" t="inlineStr"/>
+        <v>8498107383.873459</v>
+      </c>
+      <c r="R66" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S66" t="n">
-        <v>114576</v>
+        <v>3.56</v>
       </c>
       <c r="T66" t="n">
-        <v>-26.31172</v>
+        <v>-94.69513000000001</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2025-02-04T01:47:44.052Z</t>
+          <t>2019-06-20T14:51:19.480Z</t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>52119</v>
+        <v>0.08751299999999999</v>
       </c>
       <c r="W66" t="n">
-        <v>61.99132</v>
+        <v>115.86902</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2024-09-06T21:01:52.094Z</t>
+          <t>2023-09-11T19:42:08.247Z</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.437Z</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
+          <t>2025-03-16T15:05:23.092Z</t>
+        </is>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.9210410291434966</v>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC66" t="n">
+        <v>-92.10410291434967</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>render-token</t>
+          <t>sonic-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3.19</v>
+        <v>0.499524</v>
       </c>
       <c r="F67" t="n">
-        <v>1653319828</v>
+        <v>1585324282</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>1700456210</v>
+        <v>1585324282</v>
       </c>
       <c r="I67" t="n">
-        <v>135146400</v>
+        <v>142965456</v>
       </c>
       <c r="J67" t="n">
-        <v>3.22</v>
+        <v>0.557659</v>
       </c>
       <c r="K67" t="n">
-        <v>2.95</v>
+        <v>0.491545</v>
       </c>
       <c r="L67" t="n">
-        <v>0.235398</v>
+        <v>-0.03374716145349771</v>
       </c>
       <c r="M67" t="n">
-        <v>7.95876</v>
+        <v>-6.32833</v>
       </c>
       <c r="N67" t="n">
-        <v>119922221</v>
+        <v>-107346677.2899911</v>
       </c>
       <c r="O67" t="n">
-        <v>7.82069</v>
+        <v>-6.34185</v>
       </c>
       <c r="P67" t="n">
-        <v>517716590.0562826</v>
+        <v>3175000000</v>
       </c>
       <c r="Q67" t="n">
-        <v>532476763.3362826</v>
+        <v>3175000000</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>13.53</v>
+        <v>1.029</v>
       </c>
       <c r="T67" t="n">
-        <v>-76.22001</v>
+        <v>-52.01831</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2024-03-17T16:30:24.636Z</t>
+          <t>2025-01-04T21:35:44.705Z</t>
         </is>
       </c>
       <c r="V67" t="n">
-        <v>0.03665669</v>
+        <v>0.359647</v>
       </c>
       <c r="W67" t="n">
-        <v>8680.24706</v>
+        <v>37.34523</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>2020-06-16T13:22:25.900Z</t>
+          <t>2025-02-03T02:11:37.229Z</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.299Z</t>
+          <t>2025-03-16T15:05:26.661Z</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr"/>
@@ -6858,37 +6858,37 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.361745</v>
+        <v>0.349413</v>
       </c>
       <c r="F68" t="n">
-        <v>1599420177</v>
+        <v>1545966409</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>3619160519</v>
+        <v>3498205581</v>
       </c>
       <c r="I68" t="n">
-        <v>151268832</v>
+        <v>110946456</v>
       </c>
       <c r="J68" t="n">
-        <v>0.365744</v>
+        <v>0.369514</v>
       </c>
       <c r="K68" t="n">
-        <v>0.342861</v>
+        <v>0.346328</v>
       </c>
       <c r="L68" t="n">
-        <v>0.01738341</v>
+        <v>-0.01113480835331743</v>
       </c>
       <c r="M68" t="n">
-        <v>5.04802</v>
+        <v>-3.0883</v>
       </c>
       <c r="N68" t="n">
-        <v>77250219</v>
+        <v>-47478717.14453197</v>
       </c>
       <c r="O68" t="n">
-        <v>5.07501</v>
+        <v>-2.97963</v>
       </c>
       <c r="P68" t="n">
         <v>4419312625</v>
@@ -6903,7 +6903,7 @@
         <v>2.39</v>
       </c>
       <c r="T68" t="n">
-        <v>-84.83015</v>
+        <v>-85.39135</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>0.301972</v>
       </c>
       <c r="W68" t="n">
-        <v>20.07823</v>
+        <v>15.636</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.378Z</t>
+          <t>2025-03-16T15:05:24.674Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6934,90 +6934,90 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>story-2</t>
+          <t>arbitrum-bridged-usdt-arbitrum</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>usdt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Arbitrum Bridged USDT (Arbitrum)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
+          <t>https://coin-images.coingecko.com/coins/images/35073/large/logo.png?1707292836</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.94</v>
+        <v>1.001</v>
       </c>
       <c r="F69" t="n">
-        <v>1535059655</v>
+        <v>1470795255</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>5962646657</v>
+        <v>1470795255</v>
       </c>
       <c r="I69" t="n">
-        <v>135520442</v>
+        <v>90015706</v>
       </c>
       <c r="J69" t="n">
-        <v>6.36</v>
+        <v>1.002</v>
       </c>
       <c r="K69" t="n">
-        <v>5.61</v>
+        <v>0.997532</v>
       </c>
       <c r="L69" t="n">
-        <v>0.206814</v>
+        <v>-0.000751645562145242</v>
       </c>
       <c r="M69" t="n">
-        <v>3.60632</v>
+        <v>-0.07506</v>
       </c>
       <c r="N69" t="n">
-        <v>50576759</v>
+        <v>5433042</v>
       </c>
       <c r="O69" t="n">
-        <v>3.40703</v>
+        <v>0.37076</v>
       </c>
       <c r="P69" t="n">
-        <v>257616835.95</v>
+        <v>1469535991.375987</v>
       </c>
       <c r="Q69" t="n">
-        <v>1000663499.06</v>
+        <v>1469535991.375987</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>7.31</v>
+        <v>1.16</v>
       </c>
       <c r="T69" t="n">
-        <v>-18.51024</v>
+        <v>-13.72876</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2025-02-26T16:11:25.410Z</t>
+          <t>2025-02-03T02:27:35.484Z</t>
         </is>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>0.938168</v>
       </c>
       <c r="W69" t="n">
-        <v>495.80289</v>
+        <v>6.61118</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2025-02-14T03:11:08.309Z</t>
+          <t>2024-08-05T01:11:45.298Z</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.438Z</t>
+          <t>2025-03-16T15:05:25.434Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7027,90 +7027,90 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>arbitrum-bridged-usdt-arbitrum</t>
+          <t>story-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>usdt</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Arbitrum Bridged USDT (Arbitrum)</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35073/large/logo.png?1707292836</t>
+          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.999759</v>
+        <v>5.51</v>
       </c>
       <c r="F70" t="n">
-        <v>1457997019</v>
+        <v>1420745454</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>1457997019</v>
+        <v>5516723104</v>
       </c>
       <c r="I70" t="n">
-        <v>70336898</v>
+        <v>62628045</v>
       </c>
       <c r="J70" t="n">
-        <v>1.003</v>
+        <v>5.8</v>
       </c>
       <c r="K70" t="n">
-        <v>0.997158</v>
+        <v>5.44</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.00095522492891098</v>
+        <v>-0.2398878373292623</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.09544999999999999</v>
+        <v>-4.17382</v>
       </c>
       <c r="N70" t="n">
-        <v>11343894</v>
+        <v>-59237971.10252023</v>
       </c>
       <c r="O70" t="n">
-        <v>0.78415</v>
+        <v>-4.00261</v>
       </c>
       <c r="P70" t="n">
-        <v>1459186052.199359</v>
+        <v>257735732.93</v>
       </c>
       <c r="Q70" t="n">
-        <v>1459186052.199359</v>
+        <v>1000782137.47</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>1.16</v>
+        <v>7.31</v>
       </c>
       <c r="T70" t="n">
-        <v>-13.76795</v>
+        <v>-25.16681</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>2025-02-03T02:27:35.484Z</t>
+          <t>2025-02-26T16:11:25.410Z</t>
         </is>
       </c>
       <c r="V70" t="n">
-        <v>0.938168</v>
+        <v>1</v>
       </c>
       <c r="W70" t="n">
-        <v>6.56276</v>
+        <v>447.13411</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>2024-08-05T01:11:45.298Z</t>
+          <t>2025-02-14T03:11:08.309Z</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.686Z</t>
+          <t>2025-03-16T15:05:26.657Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7120,92 +7120,90 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>jupiter-exchange-solana</t>
+          <t>kucoin-shares</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jup</t>
+          <t>kcs</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>KuCoin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
+          <t>https://coin-images.coingecko.com/coins/images/1047/large/sa9z79.png?1696502152</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.531277</v>
+        <v>11.06</v>
       </c>
       <c r="F71" t="n">
-        <v>1431734875</v>
+        <v>1355641028</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>3724431146</v>
+        <v>1576858656</v>
       </c>
       <c r="I71" t="n">
-        <v>68936903</v>
+        <v>45983</v>
       </c>
       <c r="J71" t="n">
-        <v>0.534962</v>
+        <v>11.25</v>
       </c>
       <c r="K71" t="n">
-        <v>0.500942</v>
+        <v>11.01</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02769894</v>
+        <v>-0.1338808352442626</v>
       </c>
       <c r="M71" t="n">
-        <v>5.50043</v>
+        <v>-1.19612</v>
       </c>
       <c r="N71" t="n">
-        <v>76786593</v>
+        <v>-13638202.71909475</v>
       </c>
       <c r="O71" t="n">
-        <v>5.66712</v>
+        <v>-0.99601</v>
       </c>
       <c r="P71" t="n">
-        <v>2690911111.1</v>
+        <v>122561753.8513356</v>
       </c>
       <c r="Q71" t="n">
-        <v>6999978366.874938</v>
-      </c>
-      <c r="R71" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>142561753.8513356</v>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>28.83</v>
       </c>
       <c r="T71" t="n">
-        <v>-73.34641999999999</v>
+        <v>-61.60411</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2024-01-31T15:02:47.304Z</t>
+          <t>2021-12-01T15:09:35.541Z</t>
         </is>
       </c>
       <c r="V71" t="n">
-        <v>0.454413</v>
+        <v>0.342863</v>
       </c>
       <c r="W71" t="n">
-        <v>17.31071</v>
+        <v>3128.54659</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:59.343Z</t>
+          <t>2019-02-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:21.079Z</t>
+          <t>2025-03-16T15:05:20.002Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7215,92 +7213,92 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>jupiter-exchange-solana</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>jup</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
+          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.875896</v>
+        <v>0.504933</v>
       </c>
       <c r="F72" t="n">
-        <v>1419939495</v>
+        <v>1355441195</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>3762924475</v>
+        <v>3525965239</v>
       </c>
       <c r="I72" t="n">
-        <v>98041775</v>
+        <v>52892999</v>
       </c>
       <c r="J72" t="n">
-        <v>0.890665</v>
+        <v>0.537457</v>
       </c>
       <c r="K72" t="n">
-        <v>0.834273</v>
+        <v>0.496647</v>
       </c>
       <c r="L72" t="n">
-        <v>0.03360032</v>
+        <v>-0.02620751804057031</v>
       </c>
       <c r="M72" t="n">
-        <v>3.98914</v>
+        <v>-4.93419</v>
       </c>
       <c r="N72" t="n">
-        <v>53316196</v>
+        <v>-71477320.10873747</v>
       </c>
       <c r="O72" t="n">
-        <v>3.90131</v>
+        <v>-5.00921</v>
       </c>
       <c r="P72" t="n">
-        <v>1620705846</v>
+        <v>2690911111.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>4294967296</v>
+        <v>6999978364.880762</v>
       </c>
       <c r="R72" t="n">
-        <v>4294967296</v>
+        <v>10000000000</v>
       </c>
       <c r="S72" t="n">
-        <v>4.84</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
-        <v>-81.86381</v>
+        <v>-74.98267</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2024-03-06T08:35:50.817Z</t>
+          <t>2024-01-31T15:02:47.304Z</t>
         </is>
       </c>
       <c r="V72" t="n">
-        <v>0.402159</v>
+        <v>0.454413</v>
       </c>
       <c r="W72" t="n">
-        <v>118.46413</v>
+        <v>10.10905</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2022-06-18T20:54:52.178Z</t>
+          <t>2025-03-11T01:10:59.343Z</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.771Z</t>
+          <t>2025-03-16T15:05:19.962Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7310,90 +7308,92 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>kucoin-shares</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>kcs</t>
+          <t>op</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KuCoin</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1047/large/sa9z79.png?1696502152</t>
+          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.13</v>
+        <v>0.831005</v>
       </c>
       <c r="F73" t="n">
-        <v>1364023373</v>
+        <v>1345316074</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>1586608858</v>
+        <v>3565167950</v>
       </c>
       <c r="I73" t="n">
-        <v>59616</v>
+        <v>98190337</v>
       </c>
       <c r="J73" t="n">
-        <v>11.16</v>
+        <v>0.891578</v>
       </c>
       <c r="K73" t="n">
-        <v>10.9</v>
+        <v>0.825639</v>
       </c>
       <c r="L73" t="n">
-        <v>0.197853</v>
+        <v>-0.03636968541627705</v>
       </c>
       <c r="M73" t="n">
-        <v>1.81003</v>
+        <v>-4.19308</v>
       </c>
       <c r="N73" t="n">
-        <v>18963541</v>
+        <v>-58039192.53055048</v>
       </c>
       <c r="O73" t="n">
-        <v>1.40987</v>
+        <v>-4.13574</v>
       </c>
       <c r="P73" t="n">
-        <v>122561753.8513356</v>
+        <v>1620705846</v>
       </c>
       <c r="Q73" t="n">
-        <v>142561753.8513356</v>
-      </c>
-      <c r="R73" t="inlineStr"/>
+        <v>4294967296</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4294967296</v>
+      </c>
       <c r="S73" t="n">
-        <v>28.83</v>
+        <v>4.84</v>
       </c>
       <c r="T73" t="n">
-        <v>-61.3208</v>
+        <v>-82.84226</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2021-12-01T15:09:35.541Z</t>
+          <t>2024-03-06T08:35:50.817Z</t>
         </is>
       </c>
       <c r="V73" t="n">
-        <v>0.342863</v>
+        <v>0.402159</v>
       </c>
       <c r="W73" t="n">
-        <v>3152.36813</v>
+        <v>106.67788</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>2019-02-07T00:00:00.000Z</t>
+          <t>2022-06-18T20:54:52.178Z</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.528Z</t>
+          <t>2025-03-16T15:05:23.338Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7422,37 +7422,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.5103490000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1358397087</v>
+        <v>1326314342</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1415515723</v>
+        <v>1382083945</v>
       </c>
       <c r="I74" t="n">
-        <v>128639987</v>
+        <v>101383531</v>
       </c>
       <c r="J74" t="n">
-        <v>0.522105</v>
+        <v>0.533016</v>
       </c>
       <c r="K74" t="n">
-        <v>0.495977</v>
+        <v>0.502727</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02389698</v>
+        <v>-0.01110940682506789</v>
       </c>
       <c r="M74" t="n">
-        <v>4.80309</v>
+        <v>-2.13045</v>
       </c>
       <c r="N74" t="n">
-        <v>62116131</v>
+        <v>-28000224.54209447</v>
       </c>
       <c r="O74" t="n">
-        <v>4.79187</v>
+        <v>-2.06748</v>
       </c>
       <c r="P74" t="n">
         <v>2604959126.672</v>
@@ -7467,7 +7467,7 @@
         <v>3.45</v>
       </c>
       <c r="T74" t="n">
-        <v>-84.88916999999999</v>
+        <v>-85.26115</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>0.008169589999999999</v>
       </c>
       <c r="W74" t="n">
-        <v>6288.94065</v>
+        <v>6131.66454</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7488,11 +7488,11 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.162Z</t>
+          <t>2025-03-16T15:05:28.863Z</t>
         </is>
       </c>
       <c r="AA74" t="n">
-        <v>5.014185344322211</v>
+        <v>4.886377602689106</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>501.4185344322211</v>
+        <v>488.6377602689106</v>
       </c>
     </row>
     <row r="75">
@@ -7525,43 +7525,43 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>84218</v>
+        <v>83055</v>
       </c>
       <c r="F75" t="n">
-        <v>1338114224</v>
+        <v>1322834979</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1338114224</v>
+        <v>1322835325</v>
       </c>
       <c r="I75" t="n">
-        <v>3929027</v>
+        <v>987518</v>
       </c>
       <c r="J75" t="n">
-        <v>85015</v>
+        <v>84408</v>
       </c>
       <c r="K75" t="n">
-        <v>80742</v>
+        <v>82241</v>
       </c>
       <c r="L75" t="n">
-        <v>3125.71</v>
+        <v>-1192.821967151744</v>
       </c>
       <c r="M75" t="n">
-        <v>3.85451</v>
+        <v>-1.41585</v>
       </c>
       <c r="N75" t="n">
-        <v>60919645</v>
+        <v>-18740480.62686825</v>
       </c>
       <c r="O75" t="n">
-        <v>4.7698</v>
+        <v>-1.3969</v>
       </c>
       <c r="P75" t="n">
-        <v>15900.76503849159</v>
+        <v>15927.48222927647</v>
       </c>
       <c r="Q75" t="n">
-        <v>15900.76503849159</v>
+        <v>15927.48639024647</v>
       </c>
       <c r="R75" t="n">
         <v>21000000</v>
@@ -7570,7 +7570,7 @@
         <v>108929</v>
       </c>
       <c r="T75" t="n">
-        <v>-22.71125</v>
+        <v>-24.10977</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>49058</v>
       </c>
       <c r="W75" t="n">
-        <v>71.61407</v>
+        <v>68.50877</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:17.862Z</t>
+          <t>2025-03-16T15:05:27.698Z</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr"/>
@@ -7647,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>619937187</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>99.2504</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>1244556519.69</v>
@@ -7684,7 +7684,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-03-14T23:10:05.029Z</t>
+          <t>2025-03-16T15:05:01.840Z</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr"/>
@@ -7694,288 +7694,286 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>binance-peg-weth</t>
+          <t>quant-network</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>qnt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Binance-Peg WETH</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
+          <t>https://coin-images.coingecko.com/coins/images/3370/large/5ZOu7brX_400x400.jpg?1696504070</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1924.64</v>
+        <v>78.59</v>
       </c>
       <c r="F77" t="n">
-        <v>1163970096</v>
+        <v>1143324614</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>1163970096</v>
+        <v>1148695033</v>
       </c>
       <c r="I77" t="n">
-        <v>23963483</v>
+        <v>22554368</v>
       </c>
       <c r="J77" t="n">
-        <v>1944.11</v>
+        <v>79.88</v>
       </c>
       <c r="K77" t="n">
-        <v>1860.97</v>
+        <v>77.39</v>
       </c>
       <c r="L77" t="n">
-        <v>51.33</v>
+        <v>0.244411</v>
       </c>
       <c r="M77" t="n">
-        <v>2.7398</v>
+        <v>0.31196</v>
       </c>
       <c r="N77" t="n">
-        <v>29648684</v>
+        <v>6724293</v>
       </c>
       <c r="O77" t="n">
-        <v>2.61378</v>
+        <v>0.59161</v>
       </c>
       <c r="P77" t="n">
-        <v>604999.999959841</v>
+        <v>14544176.16409109</v>
       </c>
       <c r="Q77" t="n">
-        <v>604999.999959841</v>
-      </c>
-      <c r="R77" t="inlineStr"/>
+        <v>14612493</v>
+      </c>
+      <c r="R77" t="n">
+        <v>14612493</v>
+      </c>
       <c r="S77" t="n">
-        <v>4098.26</v>
+        <v>427.42</v>
       </c>
       <c r="T77" t="n">
-        <v>-52.99024</v>
+        <v>-81.61064</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024-12-06T20:27:27.286Z</t>
+          <t>2021-09-11T09:15:00.668Z</t>
         </is>
       </c>
       <c r="V77" t="n">
-        <v>1790.63</v>
+        <v>0.215773</v>
       </c>
       <c r="W77" t="n">
-        <v>7.59249</v>
+        <v>36327.22764</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2025-03-11T01:17:39.749Z</t>
+          <t>2018-08-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.640Z</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+          <t>2025-03-16T15:05:24.327Z</t>
+        </is>
+      </c>
+      <c r="AA77" t="n">
+        <v>16.81136412326806</v>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>1681.136412326806</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant-network</t>
+          <t>binance-peg-weth</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>qnt</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Binance-Peg WETH</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/3370/large/5ZOu7brX_400x400.jpg?1696504070</t>
+          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>76.34</v>
+        <v>1888.43</v>
       </c>
       <c r="F78" t="n">
-        <v>1110713693</v>
+        <v>1142692758</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>1115930932</v>
+        <v>1142692758</v>
       </c>
       <c r="I78" t="n">
-        <v>24929643</v>
+        <v>22481330</v>
       </c>
       <c r="J78" t="n">
-        <v>77.37</v>
+        <v>1952.27</v>
       </c>
       <c r="K78" t="n">
-        <v>74.44</v>
+        <v>1869.76</v>
       </c>
       <c r="L78" t="n">
-        <v>1.65</v>
+        <v>-46.1197213722096</v>
       </c>
       <c r="M78" t="n">
-        <v>2.20817</v>
+        <v>-2.384</v>
       </c>
       <c r="N78" t="n">
-        <v>20576277</v>
+        <v>-27650736.31785631</v>
       </c>
       <c r="O78" t="n">
-        <v>1.88749</v>
+        <v>-2.36262</v>
       </c>
       <c r="P78" t="n">
-        <v>14544176.16409109</v>
+        <v>604999.999959841</v>
       </c>
       <c r="Q78" t="n">
-        <v>14612493</v>
-      </c>
-      <c r="R78" t="n">
-        <v>14612493</v>
-      </c>
+        <v>604999.999959841</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>427.42</v>
+        <v>4098.26</v>
       </c>
       <c r="T78" t="n">
-        <v>-82.03998</v>
+        <v>-53.93783</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2021-09-11T09:15:00.668Z</t>
+          <t>2024-12-06T20:27:27.286Z</t>
         </is>
       </c>
       <c r="V78" t="n">
-        <v>0.215773</v>
+        <v>1790.63</v>
       </c>
       <c r="W78" t="n">
-        <v>35476.74556</v>
+        <v>5.42371</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2018-08-23T00:00:00.000Z</t>
+          <t>2025-03-11T01:17:39.749Z</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.489Z</t>
-        </is>
-      </c>
-      <c r="AA78" t="n">
-        <v>16.07869033033709</v>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="AC78" t="n">
-        <v>1607.869033033709</v>
-      </c>
+          <t>2025-03-16T15:05:25.601Z</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>kelp-dao-restaked-eth</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>rseth</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Kelp DAO Restaked ETH</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39345/large/movement-testnet-token.png?1721878759</t>
+          <t>https://coin-images.coingecko.com/coins/images/33800/large/Icon___Dark.png?1702991855</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.453811</v>
+        <v>1970.05</v>
       </c>
       <c r="F79" t="n">
-        <v>1092891802</v>
+        <v>1072248237</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>4553715841</v>
+        <v>1072248237</v>
       </c>
       <c r="I79" t="n">
-        <v>55427032</v>
+        <v>561703</v>
       </c>
       <c r="J79" t="n">
-        <v>0.46929</v>
+        <v>2022.88</v>
       </c>
       <c r="K79" t="n">
-        <v>0.442617</v>
+        <v>1941.89</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0057322</v>
+        <v>-32.18698029508914</v>
       </c>
       <c r="M79" t="n">
-        <v>1.27928</v>
+        <v>-1.60755</v>
       </c>
       <c r="N79" t="n">
-        <v>16982427</v>
+        <v>-17118765.85843325</v>
       </c>
       <c r="O79" t="n">
-        <v>1.57843</v>
+        <v>-1.57144</v>
       </c>
       <c r="P79" t="n">
-        <v>2400000000</v>
+        <v>544329.9270965939</v>
       </c>
       <c r="Q79" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="R79" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>544329.9270965939</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>1.45</v>
+        <v>4216.2</v>
       </c>
       <c r="T79" t="n">
-        <v>-68.65277</v>
+        <v>-53.49504</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2024-12-10T04:05:51.093Z</t>
+          <t>2024-12-06T20:31:16.142Z</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>0.378282</v>
+        <v>1862.59</v>
       </c>
       <c r="W79" t="n">
-        <v>20.14603</v>
+        <v>5.26949</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2025-03-04T16:40:46.804Z</t>
+          <t>2025-03-11T01:10:28.160Z</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.075Z</t>
+          <t>2025-03-16T15:05:19.632Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -7985,90 +7983,92 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>kelp-dao-restaked-eth</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rseth</t>
+          <t>move</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kelp DAO Restaked ETH</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33800/large/Icon___Dark.png?1702991855</t>
+          <t>https://coin-images.coingecko.com/coins/images/39345/large/movement-testnet-token.png?1721878759</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1995.88</v>
+        <v>0.447397</v>
       </c>
       <c r="F80" t="n">
-        <v>1089996392</v>
+        <v>1070847810</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>1089996392</v>
+        <v>4461865877</v>
       </c>
       <c r="I80" t="n">
-        <v>290312</v>
+        <v>73121327</v>
       </c>
       <c r="J80" t="n">
-        <v>2017.05</v>
+        <v>0.483488</v>
       </c>
       <c r="K80" t="n">
-        <v>1927.51</v>
+        <v>0.442574</v>
       </c>
       <c r="L80" t="n">
-        <v>47.34</v>
+        <v>-0.01905431264588825</v>
       </c>
       <c r="M80" t="n">
-        <v>2.4296</v>
+        <v>-4.08495</v>
       </c>
       <c r="N80" t="n">
-        <v>25424828</v>
+        <v>-48623551.39354372</v>
       </c>
       <c r="O80" t="n">
-        <v>2.38827</v>
+        <v>-4.34344</v>
       </c>
       <c r="P80" t="n">
-        <v>545706.3184496558</v>
+        <v>2400000000</v>
       </c>
       <c r="Q80" t="n">
-        <v>545706.3184496558</v>
-      </c>
-      <c r="R80" t="inlineStr"/>
+        <v>10000000000</v>
+      </c>
+      <c r="R80" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S80" t="n">
-        <v>4216.2</v>
+        <v>1.45</v>
       </c>
       <c r="T80" t="n">
-        <v>-52.61214</v>
+        <v>-69.47298000000001</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2024-12-06T20:31:16.142Z</t>
+          <t>2024-12-10T04:05:51.093Z</t>
         </is>
       </c>
       <c r="V80" t="n">
-        <v>1862.59</v>
+        <v>0.378282</v>
       </c>
       <c r="W80" t="n">
-        <v>7.26804</v>
+        <v>17.00239</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:28.160Z</t>
+          <t>2025-03-04T16:40:46.804Z</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.493Z</t>
+          <t>2025-03-16T15:05:21.620Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8097,37 +8097,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.08</v>
+        <v>1.065</v>
       </c>
       <c r="F81" t="n">
-        <v>1080284451</v>
+        <v>1064639337</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1080284451</v>
+        <v>1064639337</v>
       </c>
       <c r="I81" t="n">
-        <v>9022576</v>
+        <v>7765461</v>
       </c>
       <c r="J81" t="n">
-        <v>1.099</v>
+        <v>1.097</v>
       </c>
       <c r="K81" t="n">
-        <v>1.046</v>
+        <v>1.054</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03265434</v>
+        <v>-0.01415574360713023</v>
       </c>
       <c r="M81" t="n">
-        <v>3.11721</v>
+        <v>-1.31172</v>
       </c>
       <c r="N81" t="n">
-        <v>31534712</v>
+        <v>-14671221.31308198</v>
       </c>
       <c r="O81" t="n">
-        <v>3.00689</v>
+        <v>-1.35931</v>
       </c>
       <c r="P81" t="n">
         <v>1000000000</v>
@@ -8142,7 +8142,7 @@
         <v>4.07</v>
       </c>
       <c r="T81" t="n">
-        <v>-73.39185000000001</v>
+        <v>-73.8188</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>0.04515276</v>
       </c>
       <c r="W81" t="n">
-        <v>2297.221</v>
+        <v>2258.75573</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8163,11 +8163,11 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.913Z</t>
+          <t>2025-03-16T15:05:21.668Z</t>
         </is>
       </c>
       <c r="AA81" t="n">
-        <v>9.802054682550329</v>
+        <v>9.650156100703651</v>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>980.205468255033</v>
+        <v>965.015610070365</v>
       </c>
     </row>
     <row r="82">
@@ -8200,50 +8200,50 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.06797</v>
+        <v>0.067524</v>
       </c>
       <c r="F82" t="n">
-        <v>1066830392</v>
+        <v>1061858963</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>2581511920</v>
+        <v>2569446920</v>
       </c>
       <c r="I82" t="n">
-        <v>35086629</v>
+        <v>22507045</v>
       </c>
       <c r="J82" t="n">
-        <v>0.069342</v>
+        <v>0.068383</v>
       </c>
       <c r="K82" t="n">
-        <v>0.06633600000000001</v>
+        <v>0.067339</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00156904</v>
+        <v>-0.0006367707620702629</v>
       </c>
       <c r="M82" t="n">
-        <v>2.36299</v>
+        <v>-0.9342200000000001</v>
       </c>
       <c r="N82" t="n">
-        <v>24099175</v>
+        <v>-9402882.12659359</v>
       </c>
       <c r="O82" t="n">
-        <v>2.31116</v>
+        <v>-0.87774</v>
       </c>
       <c r="P82" t="n">
-        <v>15694881574.05</v>
+        <v>15695250726.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>37978411737.15</v>
+        <v>37978785352.05</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
         <v>0.192754</v>
       </c>
       <c r="T82" t="n">
-        <v>-64.69344</v>
+        <v>-64.90764</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>0.00039532</v>
       </c>
       <c r="W82" t="n">
-        <v>17115.21415</v>
+        <v>17010.77008</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8264,11 +8264,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.006Z</t>
+          <t>2025-03-16T15:05:30.624Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>3.702447463542476</v>
+        <v>3.732563321137261</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>370.2447463542476</v>
+        <v>373.256332113726</v>
       </c>
     </row>
     <row r="83">
@@ -8301,43 +8301,43 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1182.78</v>
+        <v>1176.59</v>
       </c>
       <c r="F83" t="n">
-        <v>1003150060</v>
+        <v>997993018</v>
       </c>
       <c r="G83" t="n">
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>1034197255</v>
+        <v>1028879308</v>
       </c>
       <c r="I83" t="n">
-        <v>138260802</v>
+        <v>141955643</v>
       </c>
       <c r="J83" t="n">
-        <v>1209.5</v>
+        <v>1232.97</v>
       </c>
       <c r="K83" t="n">
-        <v>1130.51</v>
+        <v>1159.59</v>
       </c>
       <c r="L83" t="n">
-        <v>44.37</v>
+        <v>-4.233226665198572</v>
       </c>
       <c r="M83" t="n">
-        <v>3.89763</v>
+        <v>-0.3585</v>
       </c>
       <c r="N83" t="n">
-        <v>37243082</v>
+        <v>-2966468.474418402</v>
       </c>
       <c r="O83" t="n">
-        <v>3.85576</v>
+        <v>-0.29636</v>
       </c>
       <c r="P83" t="n">
-        <v>847988.2148229232</v>
+        <v>848009.7468731442</v>
       </c>
       <c r="Q83" t="n">
-        <v>874233.1972400738</v>
+        <v>874254.2941797895</v>
       </c>
       <c r="R83" t="n">
         <v>1005577</v>
@@ -8346,7 +8346,7 @@
         <v>6292.31</v>
       </c>
       <c r="T83" t="n">
-        <v>-81.2062</v>
+        <v>-81.29997</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>168.36</v>
       </c>
       <c r="W83" t="n">
-        <v>602.41284</v>
+        <v>598.90805</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.345Z</t>
+          <t>2025-03-16T15:05:22.947Z</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr"/>
@@ -8396,37 +8396,37 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>17.27</v>
+        <v>17.4</v>
       </c>
       <c r="F84" t="n">
-        <v>986496805</v>
+        <v>992847672</v>
       </c>
       <c r="G84" t="n">
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>1667166131</v>
+        <v>1677899010</v>
       </c>
       <c r="I84" t="n">
-        <v>18350095</v>
+        <v>7219372</v>
       </c>
       <c r="J84" t="n">
-        <v>17.41</v>
+        <v>17.65</v>
       </c>
       <c r="K84" t="n">
-        <v>17.19</v>
+        <v>17.27</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.08749349509829685</v>
+        <v>0.07269100000000001</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.5039400000000001</v>
+        <v>0.4195</v>
       </c>
       <c r="N84" t="n">
-        <v>-4254862.700758338</v>
+        <v>4080567</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.42946</v>
+        <v>0.41269</v>
       </c>
       <c r="P84" t="n">
         <v>57103774.56313077</v>
@@ -8439,7 +8439,7 @@
         <v>32.38</v>
       </c>
       <c r="T84" t="n">
-        <v>-46.58277</v>
+        <v>-46.30497</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>0.671563</v>
       </c>
       <c r="W84" t="n">
-        <v>2475.63331</v>
+        <v>2489.02827</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.824Z</t>
+          <t>2025-03-16T15:05:28.049Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8470,92 +8470,92 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>worldcoin-wld</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>imx</t>
+          <t>wld</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Immutable</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/17233/large/immutableX-symbol-BLK-RGB.png?1696516787</t>
+          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.556038</v>
+        <v>0.849897</v>
       </c>
       <c r="F85" t="n">
-        <v>983357386</v>
+        <v>986737933</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>1112195477</v>
+        <v>8478334464</v>
       </c>
       <c r="I85" t="n">
-        <v>30677834</v>
+        <v>116925957</v>
       </c>
       <c r="J85" t="n">
-        <v>0.5566680000000001</v>
+        <v>0.895207</v>
       </c>
       <c r="K85" t="n">
-        <v>0.515305</v>
+        <v>0.838904</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0366189</v>
+        <v>-0.02828194058278044</v>
       </c>
       <c r="M85" t="n">
-        <v>7.04998</v>
+        <v>-3.22052</v>
       </c>
       <c r="N85" t="n">
-        <v>64683199</v>
+        <v>15906060</v>
       </c>
       <c r="O85" t="n">
-        <v>7.04093</v>
+        <v>1.63839</v>
       </c>
       <c r="P85" t="n">
-        <v>1768317543.389814</v>
+        <v>1163834639.412156</v>
       </c>
       <c r="Q85" t="n">
-        <v>2000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="R85" t="n">
-        <v>2000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="S85" t="n">
-        <v>9.52</v>
+        <v>11.74</v>
       </c>
       <c r="T85" t="n">
-        <v>-94.15299</v>
+        <v>-92.83672</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2021-11-26T01:03:01.536Z</t>
+          <t>2024-03-10T00:10:42.330Z</t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>0.378055</v>
+        <v>0.708589</v>
       </c>
       <c r="W85" t="n">
-        <v>47.23579</v>
+        <v>18.68846</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2022-12-31T07:36:37.649Z</t>
+          <t>2025-03-11T01:11:28.418Z</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.184Z</t>
+          <t>2025-03-16T15:05:23.930Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8565,90 +8565,90 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>sei-network</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>inj</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12882/large/Other_200x200.png?1738782212</t>
+          <t>https://coin-images.coingecko.com/coins/images/28205/large/Sei_Logo_-_Transparent.png?1696527207</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.03</v>
+        <v>0.201977</v>
       </c>
       <c r="F86" t="n">
-        <v>980885045</v>
+        <v>985726519</v>
       </c>
       <c r="G86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>1003696863</v>
+        <v>2018954553</v>
       </c>
       <c r="I86" t="n">
-        <v>108630730</v>
+        <v>67564781</v>
       </c>
       <c r="J86" t="n">
-        <v>10.29</v>
+        <v>0.206893</v>
       </c>
       <c r="K86" t="n">
-        <v>9.26</v>
+        <v>0.198543</v>
       </c>
       <c r="L86" t="n">
-        <v>0.68934</v>
+        <v>-0.00287878987971768</v>
       </c>
       <c r="M86" t="n">
-        <v>7.37867</v>
+        <v>-1.40528</v>
       </c>
       <c r="N86" t="n">
-        <v>68362585</v>
+        <v>-13552911.76920986</v>
       </c>
       <c r="O86" t="n">
-        <v>7.49161</v>
+        <v>-1.35627</v>
       </c>
       <c r="P86" t="n">
-        <v>97727220.33</v>
+        <v>4882361111</v>
       </c>
       <c r="Q86" t="n">
-        <v>100000000</v>
+        <v>10000000000</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>52.62</v>
+        <v>1.14</v>
       </c>
       <c r="T86" t="n">
-        <v>-80.86785</v>
+        <v>-82.27834</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2024-03-14T15:06:22.124Z</t>
+          <t>2024-03-16T02:30:23.904Z</t>
         </is>
       </c>
       <c r="V86" t="n">
-        <v>0.657401</v>
+        <v>0.095364</v>
       </c>
       <c r="W86" t="n">
-        <v>1431.40436</v>
+        <v>111.79628</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2020-11-03T16:19:30.576Z</t>
+          <t>2023-10-19T08:05:30.655Z</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.316Z</t>
+          <t>2025-03-16T15:05:25.903Z</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr"/>
@@ -8658,193 +8658,185 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>blockstack</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>stx</t>
+          <t>usd0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
+          <t>https://coin-images.coingecko.com/coins/images/38272/large/USD0LOGO.png?1716962811</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.646584</v>
+        <v>0.9976390000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>980848726</v>
+        <v>975839455</v>
       </c>
       <c r="G87" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>980848726</v>
+        <v>975839455</v>
       </c>
       <c r="I87" t="n">
-        <v>29772034</v>
+        <v>2861215</v>
       </c>
       <c r="J87" t="n">
-        <v>0.660551</v>
+        <v>0.99813</v>
       </c>
       <c r="K87" t="n">
-        <v>0.615304</v>
+        <v>0.997486</v>
       </c>
       <c r="L87" t="n">
-        <v>0.02535906</v>
+        <v>0.0001081</v>
       </c>
       <c r="M87" t="n">
-        <v>4.0821</v>
+        <v>0.01084</v>
       </c>
       <c r="N87" t="n">
-        <v>38484991</v>
+        <v>158151</v>
       </c>
       <c r="O87" t="n">
-        <v>4.08388</v>
+        <v>0.01621</v>
       </c>
       <c r="P87" t="n">
-        <v>1516963059.52832</v>
+        <v>978080695.2848897</v>
       </c>
       <c r="Q87" t="n">
-        <v>1516963059.52832</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1818000000</v>
-      </c>
+        <v>978080695.2848897</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>3.86</v>
+        <v>1.33</v>
       </c>
       <c r="T87" t="n">
-        <v>-83.24619</v>
+        <v>-24.73235</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2024-04-01T12:34:58.342Z</t>
+          <t>2024-07-12T08:28:59.311Z</t>
         </is>
       </c>
       <c r="V87" t="n">
-        <v>0.04559639</v>
+        <v>0.976415</v>
       </c>
       <c r="W87" t="n">
-        <v>1319.89578</v>
+        <v>2.19255</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2020-03-13T02:29:26.415Z</t>
+          <t>2025-01-20T17:07:15.786Z</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.231Z</t>
-        </is>
-      </c>
-      <c r="AA87" t="n">
-        <v>4.388203596431229</v>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC87" t="n">
-        <v>438.8203596431229</v>
-      </c>
+          <t>2025-03-16T15:05:28.906Z</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>usd0</t>
+          <t>imx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Immutable</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38272/large/USD0LOGO.png?1716962811</t>
+          <t>https://coin-images.coingecko.com/coins/images/17233/large/immutableX-symbol-BLK-RGB.png?1696516787</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.997767</v>
+        <v>0.549339</v>
       </c>
       <c r="F88" t="n">
-        <v>976033152</v>
+        <v>971609581</v>
       </c>
       <c r="G88" t="n">
         <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>976033152</v>
+        <v>1098908490</v>
       </c>
       <c r="I88" t="n">
-        <v>54986276</v>
+        <v>29154106</v>
       </c>
       <c r="J88" t="n">
-        <v>0.998092</v>
+        <v>0.588439</v>
       </c>
       <c r="K88" t="n">
-        <v>0.997421</v>
+        <v>0.544871</v>
       </c>
       <c r="L88" t="n">
-        <v>4.292e-05</v>
+        <v>-0.0160836199668557</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0043</v>
+        <v>-2.84453</v>
       </c>
       <c r="N88" t="n">
-        <v>-22020335.00521493</v>
+        <v>-28237585.72890866</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.20633</v>
+        <v>-2.82419</v>
       </c>
       <c r="P88" t="n">
-        <v>978194163.1626422</v>
+        <v>1768317543.389814</v>
       </c>
       <c r="Q88" t="n">
-        <v>978194163.1626422</v>
-      </c>
-      <c r="R88" t="inlineStr"/>
+        <v>2000000000</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2000000000</v>
+      </c>
       <c r="S88" t="n">
-        <v>1.33</v>
+        <v>9.52</v>
       </c>
       <c r="T88" t="n">
-        <v>-24.74393</v>
+        <v>-94.24047</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2024-07-12T08:28:59.311Z</t>
+          <t>2021-11-26T01:03:01.536Z</t>
         </is>
       </c>
       <c r="V88" t="n">
-        <v>0.976415</v>
+        <v>0.378055</v>
       </c>
       <c r="W88" t="n">
-        <v>2.17683</v>
+        <v>45.03277</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2025-01-20T17:07:15.786Z</t>
+          <t>2022-12-31T07:36:37.649Z</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.204Z</t>
+          <t>2025-03-16T15:05:22.577Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8854,185 +8846,193 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>blockstack</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>stx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>140.25</v>
+        <v>0.625963</v>
       </c>
       <c r="F89" t="n">
-        <v>973477286</v>
+        <v>949914697</v>
       </c>
       <c r="G89" t="n">
         <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>973477286</v>
+        <v>949914697</v>
       </c>
       <c r="I89" t="n">
-        <v>3237730</v>
+        <v>18149898</v>
       </c>
       <c r="J89" t="n">
-        <v>140.35</v>
+        <v>0.662911</v>
       </c>
       <c r="K89" t="n">
-        <v>127.8</v>
+        <v>0.618544</v>
       </c>
       <c r="L89" t="n">
-        <v>11.5</v>
+        <v>-0.02570545559706627</v>
       </c>
       <c r="M89" t="n">
-        <v>8.930820000000001</v>
+        <v>-3.94456</v>
       </c>
       <c r="N89" t="n">
-        <v>86258848</v>
+        <v>-37930243.45410442</v>
       </c>
       <c r="O89" t="n">
-        <v>9.722390000000001</v>
+        <v>-3.8397</v>
       </c>
       <c r="P89" t="n">
-        <v>6938922.183579208</v>
+        <v>1517186865.21314</v>
       </c>
       <c r="Q89" t="n">
-        <v>6938922.183579208</v>
-      </c>
-      <c r="R89" t="inlineStr"/>
+        <v>1517186865.21314</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1818000000</v>
+      </c>
       <c r="S89" t="n">
-        <v>297.96</v>
+        <v>3.86</v>
       </c>
       <c r="T89" t="n">
-        <v>-52.97094</v>
+        <v>-83.82581999999999</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2024-04-01T12:34:58.342Z</t>
         </is>
       </c>
       <c r="V89" t="n">
-        <v>118.29</v>
+        <v>0.04559639</v>
       </c>
       <c r="W89" t="n">
-        <v>18.45596</v>
+        <v>1270.77196</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:46.882Z</t>
+          <t>2020-03-13T02:29:26.415Z</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.208Z</t>
-        </is>
-      </c>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
+          <t>2025-03-16T15:05:25.545Z</t>
+        </is>
+      </c>
+      <c r="AA89" t="n">
+        <v>4.216354635234711</v>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC89" t="n">
+        <v>421.6354635234711</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>worldcoin-wld</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>wld</t>
+          <t>inj</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
+          <t>https://coin-images.coingecko.com/coins/images/12882/large/Other_200x200.png?1738782212</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.8785230000000001</v>
+        <v>9.68</v>
       </c>
       <c r="F90" t="n">
-        <v>971791147</v>
+        <v>943548255</v>
       </c>
       <c r="G90" t="n">
         <v>89</v>
       </c>
       <c r="H90" t="n">
-        <v>8786200917</v>
+        <v>965491756</v>
       </c>
       <c r="I90" t="n">
-        <v>119986445</v>
+        <v>71811542</v>
       </c>
       <c r="J90" t="n">
-        <v>0.890367</v>
+        <v>10.37</v>
       </c>
       <c r="K90" t="n">
-        <v>0.833964</v>
+        <v>9.51</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04455896</v>
+        <v>-0.4829143337135147</v>
       </c>
       <c r="M90" t="n">
-        <v>5.34303</v>
+        <v>-4.75351</v>
       </c>
       <c r="N90" t="n">
-        <v>52029418</v>
+        <v>-47247732.77174842</v>
       </c>
       <c r="O90" t="n">
-        <v>5.65684</v>
+        <v>-4.76866</v>
       </c>
       <c r="P90" t="n">
-        <v>1106042482.437029</v>
+        <v>97727220.33</v>
       </c>
       <c r="Q90" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="R90" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>100000000</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>11.74</v>
+        <v>52.62</v>
       </c>
       <c r="T90" t="n">
-        <v>-92.50448</v>
+        <v>-81.68366</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2024-03-10T00:10:42.330Z</t>
+          <t>2024-03-14T15:06:22.124Z</t>
         </is>
       </c>
       <c r="V90" t="n">
-        <v>0.708589</v>
+        <v>0.657401</v>
       </c>
       <c r="W90" t="n">
-        <v>24.19339</v>
+        <v>1366.10434</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:28.418Z</t>
+          <t>2020-11-03T16:19:30.576Z</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.443Z</t>
+          <t>2025-03-16T15:05:20.630Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9061,50 +9061,50 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2160.44</v>
+        <v>2128.28</v>
       </c>
       <c r="F91" t="n">
-        <v>956470911</v>
+        <v>941869972</v>
       </c>
       <c r="G91" t="n">
         <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>956470911</v>
+        <v>941869972</v>
       </c>
       <c r="I91" t="n">
-        <v>2996701</v>
+        <v>2608933</v>
       </c>
       <c r="J91" t="n">
-        <v>2179.87</v>
+        <v>2189.67</v>
       </c>
       <c r="K91" t="n">
-        <v>2087.2</v>
+        <v>2099.44</v>
       </c>
       <c r="L91" t="n">
-        <v>52.61</v>
+        <v>-37.82478674014828</v>
       </c>
       <c r="M91" t="n">
-        <v>2.4957</v>
+        <v>-1.74621</v>
       </c>
       <c r="N91" t="n">
-        <v>24498430</v>
+        <v>-16622767.32371485</v>
       </c>
       <c r="O91" t="n">
-        <v>2.62866</v>
+        <v>-1.73426</v>
       </c>
       <c r="P91" t="n">
-        <v>442634.2341755985</v>
+        <v>442549.5874177981</v>
       </c>
       <c r="Q91" t="n">
-        <v>442634.2341755985</v>
+        <v>442549.5874177981</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
         <v>4814.31</v>
       </c>
       <c r="T91" t="n">
-        <v>-55.07486</v>
+        <v>-55.81362</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>887.26</v>
       </c>
       <c r="W91" t="n">
-        <v>143.76477</v>
+        <v>139.75623</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.324Z</t>
+          <t>2025-03-16T15:05:25.206Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9135,90 +9135,90 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sei-network</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28205/large/Sei_Logo_-_Transparent.png?1696527207</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.205098</v>
+        <v>134.71</v>
       </c>
       <c r="F92" t="n">
-        <v>955685871</v>
+        <v>928964218</v>
       </c>
       <c r="G92" t="n">
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>2051928870</v>
+        <v>928964218</v>
       </c>
       <c r="I92" t="n">
-        <v>104487945</v>
+        <v>2854696</v>
       </c>
       <c r="J92" t="n">
-        <v>0.206625</v>
+        <v>141.84</v>
       </c>
       <c r="K92" t="n">
-        <v>0.188836</v>
+        <v>133.26</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01541095</v>
+        <v>-5.748343090279434</v>
       </c>
       <c r="M92" t="n">
-        <v>8.1244</v>
+        <v>-4.09257</v>
       </c>
       <c r="N92" t="n">
-        <v>73026443</v>
+        <v>-35975073.31988418</v>
       </c>
       <c r="O92" t="n">
-        <v>8.27346</v>
+        <v>-3.72822</v>
       </c>
       <c r="P92" t="n">
-        <v>4657499999</v>
+        <v>6896610.70048773</v>
       </c>
       <c r="Q92" t="n">
-        <v>10000000000</v>
+        <v>6896610.70048773</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>1.14</v>
+        <v>297.96</v>
       </c>
       <c r="T92" t="n">
-        <v>-81.99842</v>
+        <v>-55.19081</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2024-03-16T02:30:23.904Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V92" t="n">
-        <v>0.095364</v>
+        <v>118.29</v>
       </c>
       <c r="W92" t="n">
-        <v>115.14171</v>
+        <v>12.86459</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2023-10-19T08:05:30.655Z</t>
+          <t>2025-03-11T01:11:46.882Z</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.012Z</t>
+          <t>2025-03-16T15:05:25.787Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9247,50 +9247,50 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.015097</v>
+        <v>0.01509529</v>
       </c>
       <c r="F93" t="n">
-        <v>921602398</v>
+        <v>920125479</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>1558108208</v>
+        <v>1555570428</v>
       </c>
       <c r="I93" t="n">
-        <v>11649170</v>
+        <v>6407680</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01562408</v>
+        <v>0.01610524</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01415318</v>
+        <v>0.01492219</v>
       </c>
       <c r="L93" t="n">
-        <v>0.00080577</v>
+        <v>-0.001009949102716528</v>
       </c>
       <c r="M93" t="n">
-        <v>5.63821</v>
+        <v>-6.27093</v>
       </c>
       <c r="N93" t="n">
-        <v>51104831</v>
+        <v>-50080374.25224447</v>
       </c>
       <c r="O93" t="n">
-        <v>5.87076</v>
+        <v>-5.16183</v>
       </c>
       <c r="P93" t="n">
-        <v>61011114124.34916</v>
+        <v>61017277658.4485</v>
       </c>
       <c r="Q93" t="n">
-        <v>103148513770.7698</v>
+        <v>103156226943.8156</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
         <v>0.150073</v>
       </c>
       <c r="T93" t="n">
-        <v>-89.92089</v>
+        <v>-90.01922999999999</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>0.00827405</v>
       </c>
       <c r="W93" t="n">
-        <v>82.81263</v>
+        <v>81.02898999999999</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.819Z</t>
+          <t>2025-03-16T15:05:29.241Z</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -9340,37 +9340,37 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.09522799999999999</v>
+        <v>0.09221699999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>909556288</v>
+        <v>879505462</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>1027623688</v>
+        <v>993672034</v>
       </c>
       <c r="I94" t="n">
-        <v>39764335</v>
+        <v>26704522</v>
       </c>
       <c r="J94" t="n">
-        <v>0.095779</v>
+        <v>0.097108</v>
       </c>
       <c r="K94" t="n">
-        <v>0.08884400000000001</v>
+        <v>0.09111</v>
       </c>
       <c r="L94" t="n">
-        <v>0.00557563</v>
+        <v>-0.003450469170170861</v>
       </c>
       <c r="M94" t="n">
-        <v>6.21916</v>
+        <v>-3.60674</v>
       </c>
       <c r="N94" t="n">
-        <v>53628031</v>
+        <v>-33719752.55019307</v>
       </c>
       <c r="O94" t="n">
-        <v>6.26548</v>
+        <v>-3.69238</v>
       </c>
       <c r="P94" t="n">
         <v>9548531509.16547</v>
@@ -9385,7 +9385,7 @@
         <v>2.84</v>
       </c>
       <c r="T94" t="n">
-        <v>-96.63791999999999</v>
+        <v>-96.75721</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>0.052051</v>
       </c>
       <c r="W94" t="n">
-        <v>83.53872</v>
+        <v>77.0265</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.245Z</t>
+          <t>2025-03-16T15:05:29.275Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9435,37 +9435,37 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.901756</v>
+        <v>0.865218</v>
       </c>
       <c r="F95" t="n">
-        <v>903424786</v>
+        <v>863228793</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>903424786</v>
+        <v>863228793</v>
       </c>
       <c r="I95" t="n">
-        <v>22380051</v>
+        <v>13352645</v>
       </c>
       <c r="J95" t="n">
-        <v>0.909891</v>
+        <v>0.924324</v>
       </c>
       <c r="K95" t="n">
-        <v>0.863927</v>
+        <v>0.853185</v>
       </c>
       <c r="L95" t="n">
-        <v>0.03021055</v>
+        <v>-0.02920611497811842</v>
       </c>
       <c r="M95" t="n">
-        <v>3.46632</v>
+        <v>-3.26535</v>
       </c>
       <c r="N95" t="n">
-        <v>31689721</v>
+        <v>-31002227.11520278</v>
       </c>
       <c r="O95" t="n">
-        <v>3.63525</v>
+        <v>-3.46691</v>
       </c>
       <c r="P95" t="n">
         <v>1000000000</v>
@@ -9480,7 +9480,7 @@
         <v>15.72</v>
       </c>
       <c r="T95" t="n">
-        <v>-94.22387999999999</v>
+        <v>-94.50803999999999</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>0.04039979</v>
       </c>
       <c r="W95" t="n">
-        <v>2147.51105</v>
+        <v>2036.94298</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9501,11 +9501,11 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.187Z</t>
+          <t>2025-03-16T15:05:24.111Z</t>
         </is>
       </c>
       <c r="AA95" t="n">
-        <v>5.011705105458876</v>
+        <v>4.7681204103185</v>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
@@ -9513,98 +9513,96 @@
         </is>
       </c>
       <c r="AC95" t="n">
-        <v>501.1705105458876</v>
+        <v>476.81204103185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>polygon-bridged-usdt-polygon</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ldo</t>
+          <t>usdt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Polygon Bridged USDT (Polygon)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/13573/large/Lido_DAO.png?1696513326</t>
+          <t>https://coin-images.coingecko.com/coins/images/35023/large/USDT.png?1707233644</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.954807</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>857822521</v>
+        <v>848149913</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>956168194</v>
+        <v>848149913</v>
       </c>
       <c r="I96" t="n">
-        <v>97963007</v>
+        <v>9644670</v>
       </c>
       <c r="J96" t="n">
-        <v>0.959855</v>
+        <v>1.002</v>
       </c>
       <c r="K96" t="n">
-        <v>0.89694</v>
+        <v>0.998209</v>
       </c>
       <c r="L96" t="n">
-        <v>0.057868</v>
+        <v>-6.839545665227001e-05</v>
       </c>
       <c r="M96" t="n">
-        <v>6.45167</v>
+        <v>-0.00684</v>
       </c>
       <c r="N96" t="n">
-        <v>50505037</v>
+        <v>-624257.6001814604</v>
       </c>
       <c r="O96" t="n">
-        <v>6.25591</v>
+        <v>-0.07355</v>
       </c>
       <c r="P96" t="n">
-        <v>897146051.8587132</v>
+        <v>847891617.426466</v>
       </c>
       <c r="Q96" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>847891617.426466</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>7.3</v>
+        <v>1.027</v>
       </c>
       <c r="T96" t="n">
-        <v>-86.86756</v>
+        <v>-2.60924</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>2021-08-20T08:35:20.158Z</t>
+          <t>2024-04-14T06:51:56.926Z</t>
         </is>
       </c>
       <c r="V96" t="n">
-        <v>0.40615</v>
+        <v>0.945933</v>
       </c>
       <c r="W96" t="n">
-        <v>136.13101</v>
+        <v>5.71491</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>2022-06-18T20:55:12.035Z</t>
+          <t>2024-12-05T22:30:30.789Z</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.613Z</t>
+          <t>2025-03-16T15:05:25.628Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9614,92 +9612,92 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>solv-protocol-solvbtc-bbn</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>solvbtc.bbn</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Solv Protocol SolvBTC.BBN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
+          <t>https://coin-images.coingecko.com/coins/images/39384/large/unnamed.png?1721961640</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.099e-05</v>
+        <v>82737</v>
       </c>
       <c r="F97" t="n">
-        <v>851209296</v>
+        <v>828273897</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>976947907</v>
+        <v>828273897</v>
       </c>
       <c r="I97" t="n">
-        <v>73451326</v>
+        <v>288285</v>
       </c>
       <c r="J97" t="n">
-        <v>1.13e-05</v>
+        <v>84344</v>
       </c>
       <c r="K97" t="n">
-        <v>1.039e-05</v>
+        <v>81946</v>
       </c>
       <c r="L97" t="n">
-        <v>5.34622e-07</v>
+        <v>-1075.901398326008</v>
       </c>
       <c r="M97" t="n">
-        <v>5.1147</v>
+        <v>-1.2837</v>
       </c>
       <c r="N97" t="n">
-        <v>43112114</v>
+        <v>-8856035.599543333</v>
       </c>
       <c r="O97" t="n">
-        <v>5.33502</v>
+        <v>-1.0579</v>
       </c>
       <c r="P97" t="n">
-        <v>77419592329436.58</v>
+        <v>10008.05083781197</v>
       </c>
       <c r="Q97" t="n">
-        <v>88855830239837.38</v>
+        <v>10008.05083781197</v>
       </c>
       <c r="R97" t="n">
-        <v>88855830239837.38</v>
+        <v>21000000</v>
       </c>
       <c r="S97" t="n">
-        <v>5.825e-05</v>
+        <v>117077</v>
       </c>
       <c r="T97" t="n">
-        <v>-81.09977000000001</v>
+        <v>-29.51743</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>2024-11-20T04:01:06.465Z</t>
+          <t>2025-01-20T07:15:49.114Z</t>
         </is>
       </c>
       <c r="V97" t="n">
-        <v>8.6142e-08</v>
+        <v>11402.13</v>
       </c>
       <c r="W97" t="n">
-        <v>12680.47108</v>
+        <v>623.71208</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>2022-12-29T22:48:46.755Z</t>
+          <t>2024-09-10T17:58:43.974Z</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:20.359Z</t>
+          <t>2025-03-16T15:05:26.230Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9709,90 +9707,92 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>polygon-bridged-usdt-polygon</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>usdt</t>
+          <t>ldo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Polygon Bridged USDT (Polygon)</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35023/large/USDT.png?1707233644</t>
+          <t>https://coin-images.coingecko.com/coins/images/13573/large/Lido_DAO.png?1696513326</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.999796</v>
+        <v>0.9195719999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>847403587</v>
+        <v>824520383</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>847403587</v>
+        <v>919048109</v>
       </c>
       <c r="I98" t="n">
-        <v>12074151</v>
+        <v>52984212</v>
       </c>
       <c r="J98" t="n">
-        <v>1.003</v>
+        <v>0.975279</v>
       </c>
       <c r="K98" t="n">
-        <v>0.997761</v>
+        <v>0.904596</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0008951</v>
+        <v>-0.03161439705111158</v>
       </c>
       <c r="M98" t="n">
-        <v>0.08961</v>
+        <v>-3.32368</v>
       </c>
       <c r="N98" t="n">
-        <v>-1495547.466370821</v>
+        <v>-28511255.18535554</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.17617</v>
+        <v>-3.34234</v>
       </c>
       <c r="P98" t="n">
-        <v>847867485.723502</v>
+        <v>897146051.8587132</v>
       </c>
       <c r="Q98" t="n">
-        <v>847867485.723502</v>
-      </c>
-      <c r="R98" t="inlineStr"/>
+        <v>1000000000</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S98" t="n">
-        <v>1.027</v>
+        <v>7.3</v>
       </c>
       <c r="T98" t="n">
-        <v>-2.67947</v>
+        <v>-87.42178</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>2024-04-14T06:51:56.926Z</t>
+          <t>2021-08-20T08:35:20.158Z</t>
         </is>
       </c>
       <c r="V98" t="n">
-        <v>0.945933</v>
+        <v>0.40615</v>
       </c>
       <c r="W98" t="n">
-        <v>5.63867</v>
+        <v>126.16559</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:30.789Z</t>
+          <t>2022-06-18T20:55:12.035Z</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.104Z</t>
+          <t>2025-03-16T15:05:22.284Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9802,92 +9802,92 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>solv-protocol-solvbtc-bbn</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>solvbtc.bbn</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Solv Protocol SolvBTC.BBN</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39384/large/unnamed.png?1721961640</t>
+          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>83607</v>
+        <v>1.06e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>836448026</v>
+        <v>819050557</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>836448026</v>
+        <v>940029402</v>
       </c>
       <c r="I99" t="n">
-        <v>306305</v>
+        <v>44182149</v>
       </c>
       <c r="J99" t="n">
-        <v>85624</v>
+        <v>1.115e-05</v>
       </c>
       <c r="K99" t="n">
-        <v>75809</v>
+        <v>1.049e-05</v>
       </c>
       <c r="L99" t="n">
-        <v>2798.35</v>
+        <v>-4.32133216819e-07</v>
       </c>
       <c r="M99" t="n">
-        <v>3.46295</v>
+        <v>-3.91697</v>
       </c>
       <c r="N99" t="n">
-        <v>27684208</v>
+        <v>-34289427.03814876</v>
       </c>
       <c r="O99" t="n">
-        <v>3.42303</v>
+        <v>-4.01826</v>
       </c>
       <c r="P99" t="n">
-        <v>10007.4237229502</v>
+        <v>77419592329436.58</v>
       </c>
       <c r="Q99" t="n">
-        <v>10007.4237229502</v>
+        <v>88854946081870.22</v>
       </c>
       <c r="R99" t="n">
-        <v>21000000</v>
+        <v>88854946081870.22</v>
       </c>
       <c r="S99" t="n">
-        <v>117077</v>
+        <v>5.825e-05</v>
       </c>
       <c r="T99" t="n">
-        <v>-28.60346</v>
+        <v>-81.96543</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>2025-01-20T07:15:49.114Z</t>
+          <t>2024-11-20T04:01:06.465Z</t>
         </is>
       </c>
       <c r="V99" t="n">
-        <v>11402.13</v>
+        <v>8.6142e-08</v>
       </c>
       <c r="W99" t="n">
-        <v>633.09667</v>
+        <v>12095.10785</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>2024-09-10T17:58:43.974Z</t>
+          <t>2022-12-29T22:48:46.755Z</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.457Z</t>
+          <t>2025-03-16T15:05:28.523Z</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
@@ -9897,105 +9897,95 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>pyusd</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
+          <t>https://coin-images.coingecko.com/coins/images/31212/large/PYUSD_Logo_%282%29.png?1696530039</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.50642</v>
+        <v>1.001</v>
       </c>
       <c r="F100" t="n">
-        <v>768227443</v>
+        <v>761743272</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>1063545879</v>
+        <v>761743272</v>
       </c>
       <c r="I100" t="n">
-        <v>64898554</v>
+        <v>114189128</v>
       </c>
       <c r="J100" t="n">
-        <v>0.512246</v>
+        <v>1.001</v>
       </c>
       <c r="K100" t="n">
-        <v>0.495412</v>
+        <v>0.998429</v>
       </c>
       <c r="L100" t="n">
-        <v>0.008091340000000001</v>
+        <v>0.00078267</v>
       </c>
       <c r="M100" t="n">
-        <v>1.6237</v>
+        <v>0.07822999999999999</v>
       </c>
       <c r="N100" t="n">
-        <v>10127176</v>
+        <v>1362470</v>
       </c>
       <c r="O100" t="n">
-        <v>1.33586</v>
+        <v>0.17918</v>
       </c>
       <c r="P100" t="n">
-        <v>1516885789.1746</v>
+        <v>760806600.619554</v>
       </c>
       <c r="Q100" t="n">
-        <v>2100000000</v>
-      </c>
-      <c r="R100" t="n">
-        <v>2100000000</v>
-      </c>
+        <v>760806600.619554</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>22.71</v>
+        <v>1.021</v>
       </c>
       <c r="T100" t="n">
-        <v>-97.7664</v>
+        <v>-2.05744</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>2018-04-29T07:50:33.540Z</t>
+          <t>2023-10-23T22:44:57.056Z</t>
         </is>
       </c>
       <c r="V100" t="n">
-        <v>0.402746</v>
+        <v>0.959426</v>
       </c>
       <c r="W100" t="n">
-        <v>25.9553</v>
+        <v>4.20148</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>2024-11-04T21:55:59.771Z</t>
+          <t>2024-12-05T22:31:13.430Z</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:18.821Z</t>
-        </is>
-      </c>
-      <c r="AA100" t="n">
-        <v>-0.4884646112431204</v>
-      </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC100" t="n">
-        <v>-48.84646112431204</v>
-      </c>
+          <t>2025-03-16T15:05:23.284Z</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10019,50 +10009,50 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2041.78</v>
+        <v>2009.03</v>
       </c>
       <c r="F101" t="n">
-        <v>766691652</v>
+        <v>751715630</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>766691652</v>
+        <v>751715630</v>
       </c>
       <c r="I101" t="n">
-        <v>6195175</v>
+        <v>6174981</v>
       </c>
       <c r="J101" t="n">
-        <v>2059.04</v>
+        <v>2073.19</v>
       </c>
       <c r="K101" t="n">
-        <v>1972.91</v>
+        <v>1982.86</v>
       </c>
       <c r="L101" t="n">
-        <v>49.83</v>
+        <v>-37.85634769126796</v>
       </c>
       <c r="M101" t="n">
-        <v>2.50159</v>
+        <v>-1.84946</v>
       </c>
       <c r="N101" t="n">
-        <v>19233624</v>
+        <v>-15577400.53023446</v>
       </c>
       <c r="O101" t="n">
-        <v>2.5732</v>
+        <v>-2.03018</v>
       </c>
       <c r="P101" t="n">
-        <v>375409.5237997835</v>
+        <v>375203.9239999211</v>
       </c>
       <c r="Q101" t="n">
-        <v>375409.5237997835</v>
+        <v>375203.9239999211</v>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
         <v>4729.53</v>
       </c>
       <c r="T101" t="n">
-        <v>-56.83127</v>
+        <v>-57.56312</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -10073,7 +10063,7 @@
         <v>1896.19</v>
       </c>
       <c r="W101" t="n">
-        <v>7.67233</v>
+        <v>5.84692</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -10083,7 +10073,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-03-14T23:12:19.333Z</t>
+          <t>2025-03-16T15:05:22.835Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,19 +602,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86946</v>
+        <v>86848</v>
       </c>
       <c r="F2" t="n">
-        <v>1725191528442</v>
+        <v>1723029295711</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1725191528442</v>
+        <v>1723029295711</v>
       </c>
       <c r="I2" t="n">
-        <v>21203194630</v>
+        <v>23058356921</v>
       </c>
       <c r="J2" t="n">
         <v>88268</v>
@@ -623,22 +623,22 @@
         <v>85863</v>
       </c>
       <c r="L2" t="n">
-        <v>-697.645447644245</v>
+        <v>-473.5499653206789</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.796</v>
+        <v>-0.54231</v>
       </c>
       <c r="N2" t="n">
-        <v>-13260411572.31372</v>
+        <v>-13359815335.04468</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.7627699999999999</v>
+        <v>-0.7694</v>
       </c>
       <c r="P2" t="n">
-        <v>19842421</v>
+        <v>19842440</v>
       </c>
       <c r="Q2" t="n">
-        <v>19842421</v>
+        <v>19842440</v>
       </c>
       <c r="R2" t="n">
         <v>21000000</v>
@@ -647,7 +647,7 @@
         <v>108786</v>
       </c>
       <c r="T2" t="n">
-        <v>-19.88325</v>
+        <v>-20.17993</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>67.81</v>
       </c>
       <c r="W2" t="n">
-        <v>128430.77207</v>
+        <v>127954.81371</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.579Z</t>
+          <t>2025-03-26T23:04:45.026Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2002.57</v>
+        <v>2001.5</v>
       </c>
       <c r="F3" t="n">
-        <v>241691608206</v>
+        <v>241346806524</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>241691608206</v>
+        <v>241346806524</v>
       </c>
       <c r="I3" t="n">
-        <v>13946308410</v>
+        <v>13871503761</v>
       </c>
       <c r="J3" t="n">
         <v>2078.19</v>
@@ -718,16 +718,16 @@
         <v>1985.69</v>
       </c>
       <c r="L3" t="n">
-        <v>-60.13937933120428</v>
+        <v>-56.96015872408498</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.91555</v>
+        <v>-2.76712</v>
       </c>
       <c r="N3" t="n">
-        <v>-7171905784.680237</v>
+        <v>-6989778284.660583</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.88186</v>
+        <v>-2.81464</v>
       </c>
       <c r="P3" t="n">
         <v>120644368.0205498</v>
@@ -740,7 +740,7 @@
         <v>4878.26</v>
       </c>
       <c r="T3" t="n">
-        <v>-58.81071</v>
+        <v>-58.98416</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>0.432979</v>
       </c>
       <c r="W3" t="n">
-        <v>463969.0675</v>
+        <v>462014.82605</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.672Z</t>
+          <t>2025-03-26T23:04:46.873Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>29.79499691251086</v>
+        <v>29.81370364469382</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2979.499691251086</v>
+        <v>2981.370364469382</v>
       </c>
     </row>
     <row r="4">
@@ -801,16 +801,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>144024880756</v>
+        <v>144030543936</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>144024880756</v>
+        <v>144030543936</v>
       </c>
       <c r="I4" t="n">
-        <v>27535771319</v>
+        <v>45251345850</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>0.9999670000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.00011062338267176</v>
+        <v>-6.7403810721123e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01106</v>
+        <v>-0.00674</v>
       </c>
       <c r="N4" t="n">
-        <v>215297303</v>
+        <v>228227231</v>
       </c>
       <c r="O4" t="n">
-        <v>0.14971</v>
+        <v>0.15871</v>
       </c>
       <c r="P4" t="n">
         <v>144016138601.388</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>-24.41646</v>
+        <v>-24.41216</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>0.5725209999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>74.67346999999999</v>
+        <v>74.68340000000001</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.998Z</t>
+          <t>2025-03-26T23:04:49.598Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -891,43 +891,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="F5" t="n">
-        <v>136913772930</v>
+        <v>136500880875</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>235191835121</v>
+        <v>234482519767</v>
       </c>
       <c r="I5" t="n">
-        <v>2683836002</v>
+        <v>3184570432</v>
       </c>
       <c r="J5" t="n">
         <v>2.48</v>
       </c>
       <c r="K5" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.09016441601171765</v>
+        <v>-0.09461910751164071</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.69181</v>
+        <v>-3.8786</v>
       </c>
       <c r="N5" t="n">
-        <v>-5183334509.16861</v>
+        <v>-5554286807.366211</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.64774</v>
+        <v>-3.90995</v>
       </c>
       <c r="P5" t="n">
         <v>58205697378</v>
       </c>
       <c r="Q5" t="n">
-        <v>99986323420</v>
+        <v>99986304107</v>
       </c>
       <c r="R5" t="n">
         <v>100000000000</v>
@@ -936,7 +936,7 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>-30.37995</v>
+        <v>-31.02093</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>0.00268621</v>
       </c>
       <c r="W5" t="n">
-        <v>87979.69517000001</v>
+        <v>87168.76154000001</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.703Z</t>
+          <t>2025-03-26T23:04:44.783Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>617.12</v>
+        <v>617.76</v>
       </c>
       <c r="F6" t="n">
-        <v>90037671828</v>
+        <v>90105433417</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>90037671828</v>
+        <v>90105433417</v>
       </c>
       <c r="I6" t="n">
-        <v>750018797</v>
+        <v>751295619</v>
       </c>
       <c r="J6" t="n">
         <v>634.9400000000001</v>
@@ -1007,16 +1007,16 @@
         <v>615.0599999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.95428121997656</v>
+        <v>-10.51898723447312</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.74409</v>
+        <v>-1.67425</v>
       </c>
       <c r="N6" t="n">
-        <v>-1593866776.211243</v>
+        <v>-1540879544.565445</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.73943</v>
+        <v>-1.68133</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1031,7 +1031,7 @@
         <v>788.84</v>
       </c>
       <c r="T6" t="n">
-        <v>-21.40069</v>
+        <v>-21.71102</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>0.0398177</v>
       </c>
       <c r="W6" t="n">
-        <v>1557061.03385</v>
+        <v>1550912.80916</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.783Z</t>
+          <t>2025-03-26T23:04:45.643Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,50 +1081,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>136.61</v>
+        <v>136.84</v>
       </c>
       <c r="F7" t="n">
-        <v>69838947644</v>
+        <v>69972853287</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>81531750861</v>
+        <v>81688092881</v>
       </c>
       <c r="I7" t="n">
-        <v>3510868588</v>
+        <v>3477439894</v>
       </c>
       <c r="J7" t="n">
         <v>145.2</v>
       </c>
       <c r="K7" t="n">
-        <v>136.39</v>
+        <v>136.29</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.320800894321337</v>
+        <v>-6.395291018016621</v>
       </c>
       <c r="M7" t="n">
-        <v>-4.42228</v>
+        <v>-4.46477</v>
       </c>
       <c r="N7" t="n">
-        <v>-3471769265.747986</v>
+        <v>-3259852801.793045</v>
       </c>
       <c r="O7" t="n">
-        <v>-4.73569</v>
+        <v>-4.45136</v>
       </c>
       <c r="P7" t="n">
-        <v>511457471.0159113</v>
+        <v>511457329.6337033</v>
       </c>
       <c r="Q7" t="n">
-        <v>597088365.5833424</v>
+        <v>597088326.1885351</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>293.31</v>
       </c>
       <c r="T7" t="n">
-        <v>-53.17882</v>
+        <v>-53.36896</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>0.5008010000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>27322.48503</v>
+        <v>27211.12104</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.472Z</t>
+          <t>2025-03-26T23:04:47.054Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999837</v>
+        <v>0.999853</v>
       </c>
       <c r="F8" t="n">
-        <v>60149582287</v>
+        <v>60147524340</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>60154889012</v>
+        <v>60150156350</v>
       </c>
       <c r="I8" t="n">
-        <v>8731790127</v>
+        <v>8455653244</v>
       </c>
       <c r="J8" t="n">
         <v>0.99992</v>
@@ -1195,29 +1195,29 @@
         <v>0.999783</v>
       </c>
       <c r="L8" t="n">
-        <v>-6.132224849875201e-05</v>
+        <v>-3.6265458608575e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00613</v>
+        <v>-0.00363</v>
       </c>
       <c r="N8" t="n">
-        <v>86247222</v>
+        <v>94996111</v>
       </c>
       <c r="O8" t="n">
-        <v>0.14359</v>
+        <v>0.15819</v>
       </c>
       <c r="P8" t="n">
-        <v>60159301808.34589</v>
+        <v>60157133275.08496</v>
       </c>
       <c r="Q8" t="n">
-        <v>60164609390.97936</v>
+        <v>60159765705.62277</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>-14.73768</v>
+        <v>-14.74506</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>0.877647</v>
       </c>
       <c r="W8" t="n">
-        <v>13.92701</v>
+        <v>13.91713</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.884Z</t>
+          <t>2025-03-26T23:04:49.075Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,19 +1267,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.194338</v>
+        <v>0.194938</v>
       </c>
       <c r="F9" t="n">
-        <v>28877743737</v>
+        <v>28958876949</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>28877749567</v>
+        <v>28959013370</v>
       </c>
       <c r="I9" t="n">
-        <v>2248090768</v>
+        <v>2253829760</v>
       </c>
       <c r="J9" t="n">
         <v>0.205268</v>
@@ -1288,29 +1288,29 @@
         <v>0.189196</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0034068</v>
+        <v>0.00565262</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7843</v>
+        <v>2.98629</v>
       </c>
       <c r="N9" t="n">
-        <v>482166410</v>
+        <v>759418750</v>
       </c>
       <c r="O9" t="n">
-        <v>1.69803</v>
+        <v>2.69303</v>
       </c>
       <c r="P9" t="n">
         <v>148593956383.7052</v>
       </c>
       <c r="Q9" t="n">
-        <v>148593986383.7051</v>
+        <v>148594656383.7052</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
         <v>0.731578</v>
       </c>
       <c r="T9" t="n">
-        <v>-73.28447</v>
+        <v>-73.35299999999999</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>8.69e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>224798.16745</v>
+        <v>224221.2901</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.959Z</t>
+          <t>2025-03-26T23:04:48.711Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1360,19 +1360,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.725318</v>
+        <v>0.724496</v>
       </c>
       <c r="F10" t="n">
-        <v>26096567190</v>
+        <v>26062324870</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>32638517312</v>
+        <v>32595691044</v>
       </c>
       <c r="I10" t="n">
-        <v>953942973</v>
+        <v>895428817</v>
       </c>
       <c r="J10" t="n">
         <v>0.773231</v>
@@ -1381,16 +1381,16 @@
         <v>0.721982</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01842097750558636</v>
+        <v>-0.01755292889944893</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.47681</v>
+        <v>-2.36547</v>
       </c>
       <c r="N10" t="n">
-        <v>-659802003.7345581</v>
+        <v>-697016263.4591255</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.46596</v>
+        <v>-2.60476</v>
       </c>
       <c r="P10" t="n">
         <v>35980357573.51544</v>
@@ -1405,7 +1405,7 @@
         <v>3.09</v>
       </c>
       <c r="T10" t="n">
-        <v>-76.36085</v>
+        <v>-76.52905</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>0.01925275</v>
       </c>
       <c r="W10" t="n">
-        <v>3690.21003</v>
+        <v>3663.24121</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.484Z</t>
+          <t>2025-03-26T23:04:45.802Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,50 +1455,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.23061</v>
+        <v>0.231005</v>
       </c>
       <c r="F11" t="n">
-        <v>21893256414</v>
+        <v>21947109398</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>21893255515</v>
+        <v>21947116338</v>
       </c>
       <c r="I11" t="n">
-        <v>492864945</v>
+        <v>498092803</v>
       </c>
       <c r="J11" t="n">
-        <v>0.230919</v>
+        <v>0.231606</v>
       </c>
       <c r="K11" t="n">
         <v>0.226672</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00302312</v>
+        <v>0.00430946</v>
       </c>
       <c r="M11" t="n">
-        <v>1.32833</v>
+        <v>1.90099</v>
       </c>
       <c r="N11" t="n">
-        <v>224627112</v>
+        <v>369649166</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03665</v>
+        <v>1.71313</v>
       </c>
       <c r="P11" t="n">
         <v>95001013780.30502</v>
       </c>
       <c r="Q11" t="n">
-        <v>95001009879.71844</v>
+        <v>95001043818.92155</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>0.431288</v>
       </c>
       <c r="T11" t="n">
-        <v>-46.52817</v>
+        <v>-46.37546</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>0.00180434</v>
       </c>
       <c r="W11" t="n">
-        <v>12681.26907</v>
+        <v>12717.77289</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.922Z</t>
+          <t>2025-03-26T23:04:49.809Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>120.3739108737652</v>
+        <v>120.5816477333272</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>12037.39108737652</v>
+        <v>12058.16477333272</v>
       </c>
     </row>
     <row r="12">
@@ -1556,19 +1556,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1999</v>
+        <v>1998.97</v>
       </c>
       <c r="F12" t="n">
-        <v>18682451870</v>
+        <v>18696684282</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>18682451870</v>
+        <v>18696684282</v>
       </c>
       <c r="I12" t="n">
-        <v>11329386</v>
+        <v>9161682</v>
       </c>
       <c r="J12" t="n">
         <v>2077.49</v>
@@ -1577,29 +1577,29 @@
         <v>1983.19</v>
       </c>
       <c r="L12" t="n">
-        <v>-60.81710841821382</v>
+        <v>-54.93972411483219</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.95256</v>
+        <v>-2.67488</v>
       </c>
       <c r="N12" t="n">
-        <v>-610041162.7472878</v>
+        <v>-529512764.6413879</v>
       </c>
       <c r="O12" t="n">
-        <v>-3.16206</v>
+        <v>-2.75412</v>
       </c>
       <c r="P12" t="n">
-        <v>9351854.981315276</v>
+        <v>9353360.089074338</v>
       </c>
       <c r="Q12" t="n">
-        <v>9351854.981315276</v>
+        <v>9353360.089074338</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>4829.57</v>
       </c>
       <c r="T12" t="n">
-        <v>-58.50638</v>
+        <v>-58.62482</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>482.9</v>
       </c>
       <c r="W12" t="n">
-        <v>314.9885</v>
+        <v>313.80389</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:25.723Z</t>
+          <t>2025-03-26T23:04:46.181Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>86826</v>
+        <v>86801</v>
       </c>
       <c r="F13" t="n">
-        <v>11193258055</v>
+        <v>11190198006</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>11193258055</v>
+        <v>11190198006</v>
       </c>
       <c r="I13" t="n">
-        <v>231537919</v>
+        <v>217535720</v>
       </c>
       <c r="J13" t="n">
         <v>88129</v>
@@ -1670,16 +1670,16 @@
         <v>85776</v>
       </c>
       <c r="L13" t="n">
-        <v>-721.1341592182434</v>
+        <v>-342.8107118114713</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.8237100000000001</v>
+        <v>-0.39339</v>
       </c>
       <c r="N13" t="n">
-        <v>-95778734.23778343</v>
+        <v>-66333080.51422691</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.84842</v>
+        <v>-0.58929</v>
       </c>
       <c r="P13" t="n">
         <v>128915.05657878</v>
@@ -1694,7 +1694,7 @@
         <v>108368</v>
       </c>
       <c r="T13" t="n">
-        <v>-19.72216</v>
+        <v>-19.93452</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>3139.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2671.28319</v>
+        <v>2663.9521</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.385Z</t>
+          <t>2025-03-26T23:04:49.773Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1744,19 +1744,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.12</v>
+        <v>15.18</v>
       </c>
       <c r="F14" t="n">
-        <v>9652912950</v>
+        <v>9678651383</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>15127587183</v>
+        <v>15167923234</v>
       </c>
       <c r="I14" t="n">
-        <v>454798226</v>
+        <v>445614527</v>
       </c>
       <c r="J14" t="n">
         <v>15.98</v>
@@ -1765,16 +1765,16 @@
         <v>14.98</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3299397641811854</v>
+        <v>-0.2128381986672441</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.13556</v>
+        <v>-1.38312</v>
       </c>
       <c r="N14" t="n">
-        <v>-234595504.4769115</v>
+        <v>-139798546.709753</v>
       </c>
       <c r="O14" t="n">
-        <v>-2.37265</v>
+        <v>-1.42384</v>
       </c>
       <c r="P14" t="n">
         <v>638099971.4505637</v>
@@ -1789,7 +1789,7 @@
         <v>52.7</v>
       </c>
       <c r="T14" t="n">
-        <v>-71.10124</v>
+        <v>-71.22708</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>0.148183</v>
       </c>
       <c r="W14" t="n">
-        <v>10176.9173</v>
+        <v>10132.16575</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.395Z</t>
+          <t>2025-03-26T23:04:44.803Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1820,92 +1820,90 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>avax</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12559/large/Avalanche_Circle_RedWhite_Trans.png?1696512369</t>
+          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.04</v>
+        <v>3.69</v>
       </c>
       <c r="F15" t="n">
-        <v>9146068520</v>
+        <v>9178069581</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>9954373133</v>
+        <v>18950793114</v>
       </c>
       <c r="I15" t="n">
-        <v>308042375</v>
+        <v>153854769</v>
       </c>
       <c r="J15" t="n">
-        <v>23.18</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>21.87</v>
+        <v>3.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9350047112430886</v>
+        <v>0.116383</v>
       </c>
       <c r="M15" t="n">
-        <v>-4.06943</v>
+        <v>3.25236</v>
       </c>
       <c r="N15" t="n">
-        <v>-414150415.7734489</v>
+        <v>257937491</v>
       </c>
       <c r="O15" t="n">
-        <v>-4.33202</v>
+        <v>2.89163</v>
       </c>
       <c r="P15" t="n">
-        <v>414806807.827856</v>
+        <v>2482409758.053714</v>
       </c>
       <c r="Q15" t="n">
-        <v>451466303.1594201</v>
-      </c>
-      <c r="R15" t="n">
-        <v>720000000</v>
-      </c>
+        <v>5125656689.77786</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>144.96</v>
+        <v>8.25</v>
       </c>
       <c r="T15" t="n">
-        <v>-84.77244</v>
+        <v>-55.20822</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2021-11-21T14:18:56.538Z</t>
+          <t>2024-06-15T00:36:51.509Z</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.8</v>
+        <v>0.519364</v>
       </c>
       <c r="W15" t="n">
-        <v>688.05971</v>
+        <v>611.82042</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2020-12-31T13:15:21.540Z</t>
+          <t>2021-09-21T00:33:11.092Z</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.055Z</t>
+          <t>2025-03-26T23:04:48.358Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1915,90 +1913,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>avax</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
+          <t>https://coin-images.coingecko.com/coins/images/12559/large/Avalanche_Circle_RedWhite_Trans.png?1696512369</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.67</v>
+        <v>22.03</v>
       </c>
       <c r="F16" t="n">
-        <v>9088121169</v>
+        <v>9135243801</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>18765073367</v>
+        <v>9942810800</v>
       </c>
       <c r="I16" t="n">
-        <v>137085074</v>
+        <v>295239033</v>
       </c>
       <c r="J16" t="n">
-        <v>3.66</v>
+        <v>23.18</v>
       </c>
       <c r="K16" t="n">
-        <v>3.53</v>
+        <v>21.87</v>
       </c>
       <c r="L16" t="n">
-        <v>0.073897</v>
+        <v>-0.8074913626508966</v>
       </c>
       <c r="M16" t="n">
-        <v>2.05771</v>
+        <v>-3.53512</v>
       </c>
       <c r="N16" t="n">
-        <v>170233814</v>
+        <v>-337696299.1087646</v>
       </c>
       <c r="O16" t="n">
-        <v>1.9089</v>
+        <v>-3.56485</v>
       </c>
       <c r="P16" t="n">
-        <v>2482406250.365311</v>
+        <v>414807489.7241553</v>
       </c>
       <c r="Q16" t="n">
-        <v>5125650786.334571</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
+        <v>451476991.5809629</v>
+      </c>
+      <c r="R16" t="n">
+        <v>720000000</v>
+      </c>
       <c r="S16" t="n">
-        <v>8.25</v>
+        <v>144.96</v>
       </c>
       <c r="T16" t="n">
-        <v>-55.65585</v>
+        <v>-84.81108</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2024-06-15T00:36:51.509Z</t>
+          <t>2021-11-21T14:18:56.538Z</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>0.519364</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
-        <v>604.7068</v>
+        <v>686.06005</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2021-09-21T00:33:11.092Z</t>
+          <t>2020-12-31T13:15:21.540Z</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.427Z</t>
+          <t>2025-03-26T23:04:43.228Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2027,19 +2027,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.81</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>9061222504</v>
+        <v>9042403641</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>9663204513</v>
+        <v>9643135419</v>
       </c>
       <c r="I17" t="n">
-        <v>10080114</v>
+        <v>10009700</v>
       </c>
       <c r="J17" t="n">
         <v>9.869999999999999</v>
@@ -2048,16 +2048,16 @@
         <v>9.720000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0380037</v>
+        <v>0.03698877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.389</v>
+        <v>0.37919</v>
       </c>
       <c r="N17" t="n">
-        <v>35764734</v>
+        <v>14893745</v>
       </c>
       <c r="O17" t="n">
-        <v>0.39627</v>
+        <v>0.16498</v>
       </c>
       <c r="P17" t="n">
         <v>923862715.9</v>
@@ -2070,7 +2070,7 @@
         <v>10.14</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.27663</v>
+        <v>-3.39275</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>0.799859</v>
       </c>
       <c r="W17" t="n">
-        <v>1125.59319</v>
+        <v>1124.12181</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:26.225Z</t>
+          <t>2025-03-26T23:04:50.040Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2120,19 +2120,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.285327</v>
+        <v>0.28476</v>
       </c>
       <c r="F18" t="n">
-        <v>8787233808</v>
+        <v>8763626406</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>14274539829</v>
+        <v>14236190588</v>
       </c>
       <c r="I18" t="n">
-        <v>197934501</v>
+        <v>191954462</v>
       </c>
       <c r="J18" t="n">
         <v>0.301482</v>
@@ -2141,19 +2141,19 @@
         <v>0.284024</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.00527252199252326</v>
+        <v>-0.006020711216703334</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.81436</v>
+        <v>-2.07053</v>
       </c>
       <c r="N18" t="n">
-        <v>-157308716.8356705</v>
+        <v>-193120354.324522</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.75871</v>
+        <v>-2.15614</v>
       </c>
       <c r="P18" t="n">
-        <v>30780494326.10946</v>
+        <v>30780494069.46847</v>
       </c>
       <c r="Q18" t="n">
         <v>50001786892.81798</v>
@@ -2165,7 +2165,7 @@
         <v>0.875563</v>
       </c>
       <c r="T18" t="n">
-        <v>-67.19711</v>
+        <v>-67.48195</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>0.00047612</v>
       </c>
       <c r="W18" t="n">
-        <v>60222.59778</v>
+        <v>59698.78686</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:28.572Z</t>
+          <t>2025-03-26T23:04:47.351Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2215,19 +2215,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2395.87</v>
+        <v>2398.48</v>
       </c>
       <c r="F19" t="n">
-        <v>8595268184</v>
+        <v>8600549138</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>8595268184</v>
+        <v>8600549138</v>
       </c>
       <c r="I19" t="n">
-        <v>17092303</v>
+        <v>17625792</v>
       </c>
       <c r="J19" t="n">
         <v>2483.68</v>
@@ -2236,29 +2236,29 @@
         <v>2379.26</v>
       </c>
       <c r="L19" t="n">
-        <v>-72.33249482902283</v>
+        <v>-69.00978200260579</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.93058</v>
+        <v>-2.79676</v>
       </c>
       <c r="N19" t="n">
-        <v>-262589341.5223122</v>
+        <v>-248768412.4384727</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.96448</v>
+        <v>-2.81116</v>
       </c>
       <c r="P19" t="n">
-        <v>3588093.229282153</v>
+        <v>3588106.104788121</v>
       </c>
       <c r="Q19" t="n">
-        <v>3588093.229282153</v>
+        <v>3588106.104788121</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
         <v>7256.02</v>
       </c>
       <c r="T19" t="n">
-        <v>-66.94192</v>
+        <v>-67.08296</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>558.54</v>
       </c>
       <c r="W19" t="n">
-        <v>329.45906</v>
+        <v>327.62684</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.532Z</t>
+          <t>2025-03-26T23:04:49.063Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2308,19 +2308,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.431e-05</v>
+        <v>1.425e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>8435594966</v>
+        <v>8395984760</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>8439230145</v>
+        <v>8399602869</v>
       </c>
       <c r="I20" t="n">
-        <v>591919893</v>
+        <v>594013750</v>
       </c>
       <c r="J20" t="n">
         <v>1.561e-05</v>
@@ -2329,29 +2329,29 @@
         <v>1.379e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.07912e-07</v>
+        <v>4.442e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>2.93471</v>
+        <v>3.21701</v>
       </c>
       <c r="N20" t="n">
-        <v>230139556</v>
+        <v>250362874</v>
       </c>
       <c r="O20" t="n">
-        <v>2.80471</v>
+        <v>3.07359</v>
       </c>
       <c r="P20" t="n">
-        <v>589251858523885.9</v>
+        <v>589251858521649.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>589505786798027.4</v>
+        <v>589505786795791</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
         <v>8.616e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>-83.2604</v>
+        <v>-83.45466999999999</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>5.6366e-11</v>
       </c>
       <c r="W20" t="n">
-        <v>25587203.29919</v>
+        <v>25290256.63755</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:24.644Z</t>
+          <t>2025-03-26T23:04:45.999Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2401,37 +2401,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="F21" t="n">
-        <v>8311689071</v>
+        <v>8342881274</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>26221121052</v>
+        <v>26319523982</v>
       </c>
       <c r="I21" t="n">
-        <v>816533357</v>
+        <v>1093333357</v>
       </c>
       <c r="J21" t="n">
         <v>2.64</v>
       </c>
       <c r="K21" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="L21" t="n">
-        <v>0.173986</v>
+        <v>0.186083</v>
       </c>
       <c r="M21" t="n">
-        <v>7.1228</v>
+        <v>7.61227</v>
       </c>
       <c r="N21" t="n">
-        <v>546761143</v>
+        <v>570540453</v>
       </c>
       <c r="O21" t="n">
-        <v>7.04142</v>
+        <v>7.34065</v>
       </c>
       <c r="P21" t="n">
         <v>3169845047.483887</v>
@@ -2446,7 +2446,7 @@
         <v>5.35</v>
       </c>
       <c r="T21" t="n">
-        <v>-52.10609</v>
+        <v>-50.79779</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>0.364846</v>
       </c>
       <c r="W21" t="n">
-        <v>601.85181</v>
+        <v>621.0239</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:29.325Z</t>
+          <t>2025-03-26T23:04:48.433Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0.999891</v>
       </c>
       <c r="F22" t="n">
-        <v>8294028546</v>
+        <v>8297646156</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>8294028546</v>
+        <v>8297646156</v>
       </c>
       <c r="I22" t="n">
-        <v>13309276</v>
+        <v>13093754</v>
       </c>
       <c r="J22" t="n">
         <v>1.001</v>
@@ -2517,29 +2517,29 @@
         <v>0.998763</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00032456</v>
+        <v>-0.00071260389195793</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03246</v>
+        <v>-0.07122000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>10472578</v>
+        <v>12924940</v>
       </c>
       <c r="O22" t="n">
-        <v>0.12643</v>
+        <v>0.15601</v>
       </c>
       <c r="P22" t="n">
-        <v>8292678919.172747</v>
+        <v>8296667283.354039</v>
       </c>
       <c r="Q22" t="n">
-        <v>8292678919.172747</v>
+        <v>8296667283.354039</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
         <v>1.057</v>
       </c>
       <c r="T22" t="n">
-        <v>-5.40252</v>
+        <v>-5.43274</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>0.948265</v>
       </c>
       <c r="W22" t="n">
-        <v>5.47684</v>
+        <v>5.44315</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.437Z</t>
+          <t>2025-03-26T23:04:48.477Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2589,19 +2589,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.191728</v>
+        <v>0.191729</v>
       </c>
       <c r="F23" t="n">
-        <v>8095177596</v>
+        <v>8093305255</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>9587035451</v>
+        <v>9584818056</v>
       </c>
       <c r="I23" t="n">
-        <v>220448354</v>
+        <v>208446468</v>
       </c>
       <c r="J23" t="n">
         <v>0.200519</v>
@@ -2610,16 +2610,16 @@
         <v>0.1903</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.002385552578932526</v>
+        <v>-0.002264943649256029</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.22895</v>
+        <v>-1.16753</v>
       </c>
       <c r="N23" t="n">
-        <v>-99119434.02394295</v>
+        <v>-127013007.2680492</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.20961</v>
+        <v>-1.54511</v>
       </c>
       <c r="P23" t="n">
         <v>42219399509.40285</v>
@@ -2634,7 +2634,7 @@
         <v>0.569229</v>
       </c>
       <c r="T23" t="n">
-        <v>-66.14023</v>
+        <v>-66.32854</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0.009861109999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>1854.54252</v>
+        <v>1843.67268</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.891Z</t>
+          <t>2025-03-26T23:04:47.815Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2687,16 +2687,16 @@
         <v>4.69</v>
       </c>
       <c r="F24" t="n">
-        <v>7140161650</v>
+        <v>7143485823</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>7140161650</v>
+        <v>7143485823</v>
       </c>
       <c r="I24" t="n">
-        <v>203300168</v>
+        <v>200265761</v>
       </c>
       <c r="J24" t="n">
         <v>4.76</v>
@@ -2705,16 +2705,16 @@
         <v>4.61</v>
       </c>
       <c r="L24" t="n">
-        <v>0.055206</v>
+        <v>0.07308099999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>1.19082</v>
+        <v>1.58208</v>
       </c>
       <c r="N24" t="n">
-        <v>66095107</v>
+        <v>111861579</v>
       </c>
       <c r="O24" t="n">
-        <v>0.93433</v>
+        <v>1.59084</v>
       </c>
       <c r="P24" t="n">
         <v>1522267060</v>
@@ -2727,7 +2727,7 @@
         <v>54.98</v>
       </c>
       <c r="T24" t="n">
-        <v>-91.43514999999999</v>
+        <v>-91.46017999999999</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>2.7</v>
       </c>
       <c r="W24" t="n">
-        <v>74.57321</v>
+        <v>74.06288000000001</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.703Z</t>
+          <t>2025-03-26T23:04:43.536Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2777,19 +2777,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>92.20999999999999</v>
+        <v>92.11</v>
       </c>
       <c r="F25" t="n">
-        <v>6979348745</v>
+        <v>6969873807</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>6979368343</v>
+        <v>6969916403</v>
       </c>
       <c r="I25" t="n">
-        <v>440902141</v>
+        <v>452118073</v>
       </c>
       <c r="J25" t="n">
         <v>96.42</v>
@@ -2798,22 +2798,22 @@
         <v>91.15000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.472843440420903</v>
+        <v>-1.42551124518323</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.57219</v>
+        <v>-1.52398</v>
       </c>
       <c r="N25" t="n">
-        <v>-99857925.25405598</v>
+        <v>-131327633.7276449</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.41058</v>
+        <v>-1.84937</v>
       </c>
       <c r="P25" t="n">
         <v>75677583.23347135</v>
       </c>
       <c r="Q25" t="n">
-        <v>75677795.73347135</v>
+        <v>75678045.73347135</v>
       </c>
       <c r="R25" t="n">
         <v>84000000</v>
@@ -2822,7 +2822,7 @@
         <v>410.26</v>
       </c>
       <c r="T25" t="n">
-        <v>-77.39448</v>
+        <v>-77.54454</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>7972.59257</v>
+        <v>7919.00659</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.005Z</t>
+          <t>2025-03-26T23:04:42.872Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2872,19 +2872,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>334.22</v>
+        <v>333.84</v>
       </c>
       <c r="F26" t="n">
-        <v>6632716413</v>
+        <v>6624792963</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>6632733122</v>
+        <v>6624813825</v>
       </c>
       <c r="I26" t="n">
-        <v>277042146</v>
+        <v>275700078</v>
       </c>
       <c r="J26" t="n">
         <v>340.45</v>
@@ -2893,22 +2893,22 @@
         <v>329.27</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.796407688212696</v>
+        <v>0.160387</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.23772</v>
+        <v>0.04807</v>
       </c>
       <c r="N26" t="n">
-        <v>-17095129.10687351</v>
+        <v>-14780550.65113163</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.25708</v>
+        <v>-0.22261</v>
       </c>
       <c r="P26" t="n">
         <v>19847465.52165078</v>
       </c>
       <c r="Q26" t="n">
-        <v>19847515.52165078</v>
+        <v>19847528.02165078</v>
       </c>
       <c r="R26" t="n">
         <v>21000000</v>
@@ -2917,7 +2917,7 @@
         <v>3785.82</v>
       </c>
       <c r="T26" t="n">
-        <v>-91.1289</v>
+        <v>-91.18452000000001</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>76.93000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>336.53033</v>
+        <v>333.79339</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.613Z</t>
+          <t>2025-03-26T23:04:43.235Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2970,16 +2970,16 @@
         <v>6.46</v>
       </c>
       <c r="F27" t="n">
-        <v>6360596074</v>
+        <v>6370035559</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>11701204956</v>
+        <v>11718552672</v>
       </c>
       <c r="I27" t="n">
-        <v>76195704</v>
+        <v>76177848</v>
       </c>
       <c r="J27" t="n">
         <v>6.84</v>
@@ -2988,29 +2988,29 @@
         <v>6.45</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3220225734039825</v>
+        <v>-0.3325914144189666</v>
       </c>
       <c r="M27" t="n">
-        <v>-4.74746</v>
+        <v>-4.89397</v>
       </c>
       <c r="N27" t="n">
-        <v>-328374838.0748024</v>
+        <v>-325062979.4725456</v>
       </c>
       <c r="O27" t="n">
-        <v>-4.9092</v>
+        <v>-4.85524</v>
       </c>
       <c r="P27" t="n">
-        <v>985806812.2399998</v>
+        <v>985811302.5700002</v>
       </c>
       <c r="Q27" t="n">
-        <v>1813529333.4</v>
+        <v>1813534880.26</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
         <v>8.99</v>
       </c>
       <c r="T27" t="n">
-        <v>-28.14762</v>
+        <v>-28.10291</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>0.01726188</v>
       </c>
       <c r="W27" t="n">
-        <v>37301.48684</v>
+        <v>37324.75597</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:27.397Z</t>
+          <t>2025-03-26T23:04:50.160Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3060,19 +3060,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>5991526216</v>
+        <v>5995725713</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>5991526216</v>
+        <v>5995725713</v>
       </c>
       <c r="I28" t="n">
-        <v>180701625</v>
+        <v>180121582</v>
       </c>
       <c r="J28" t="n">
         <v>5.14</v>
@@ -3081,16 +3081,16 @@
         <v>4.93</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04401413</v>
+        <v>0.06296400000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>0.88967</v>
+        <v>1.2763</v>
       </c>
       <c r="N28" t="n">
-        <v>50284357</v>
+        <v>73371772</v>
       </c>
       <c r="O28" t="n">
-        <v>0.84636</v>
+        <v>1.2389</v>
       </c>
       <c r="P28" t="n">
         <v>1199999994.2</v>
@@ -3105,7 +3105,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>-40.95677</v>
+        <v>-40.86985</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>0.0142795</v>
       </c>
       <c r="W28" t="n">
-        <v>34840.60498</v>
+        <v>34892.04374</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.507Z</t>
+          <t>2025-03-26T23:04:43.531Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,19 +3155,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2001.27</v>
+        <v>2000.08</v>
       </c>
       <c r="F29" t="n">
-        <v>5716778801</v>
+        <v>5717269436</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5716778801</v>
+        <v>5717269436</v>
       </c>
       <c r="I29" t="n">
-        <v>567185448</v>
+        <v>154608407</v>
       </c>
       <c r="J29" t="n">
         <v>2080.33</v>
@@ -3176,29 +3176,29 @@
         <v>1985.02</v>
       </c>
       <c r="L29" t="n">
-        <v>-61.7977981629258</v>
+        <v>-56.5596465169333</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.99544</v>
+        <v>-2.7501</v>
       </c>
       <c r="N29" t="n">
-        <v>-103873765.1613436</v>
+        <v>-100657999.2043905</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.78457</v>
+        <v>-1.73014</v>
       </c>
       <c r="P29" t="n">
-        <v>2857440.331751087</v>
+        <v>2858696.101466166</v>
       </c>
       <c r="Q29" t="n">
-        <v>2857440.331751087</v>
+        <v>2858696.101466166</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>4799.89</v>
       </c>
       <c r="T29" t="n">
-        <v>-58.15058</v>
+        <v>-58.33247</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>2346.58223</v>
+        <v>2335.94853</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.209Z</t>
+          <t>2025-03-26T23:04:50.921Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,19 +3248,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.999754</v>
+        <v>0.999584</v>
       </c>
       <c r="F30" t="n">
-        <v>5372364370</v>
+        <v>5372301735</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5372364370</v>
+        <v>5372301735</v>
       </c>
       <c r="I30" t="n">
-        <v>73775931</v>
+        <v>75467496</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -3269,29 +3269,29 @@
         <v>0.998776</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00042062</v>
+        <v>0.00015704</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04209</v>
+        <v>0.01571</v>
       </c>
       <c r="N30" t="n">
-        <v>-628083.2459316254</v>
+        <v>-1615528.336150169</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.01169</v>
+        <v>-0.03006</v>
       </c>
       <c r="P30" t="n">
-        <v>5373945624.700545</v>
+        <v>5373945629.312148</v>
       </c>
       <c r="Q30" t="n">
-        <v>5373945624.700545</v>
+        <v>5373945629.312148</v>
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
         <v>1.032</v>
       </c>
       <c r="T30" t="n">
-        <v>-3.09278</v>
+        <v>-3.1251</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>0.929486</v>
       </c>
       <c r="W30" t="n">
-        <v>7.60378</v>
+        <v>7.56789</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.306Z</t>
+          <t>2025-03-26T23:04:46.265Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3341,19 +3341,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.786311</v>
+        <v>0.791405</v>
       </c>
       <c r="F31" t="n">
-        <v>5304617504</v>
+        <v>5343293632</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>8160950007</v>
+        <v>8220451741</v>
       </c>
       <c r="I31" t="n">
-        <v>338970081</v>
+        <v>338162197</v>
       </c>
       <c r="J31" t="n">
         <v>0.877566</v>
@@ -3362,16 +3362,16 @@
         <v>0.775257</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.07844516811467472</v>
+        <v>-0.0684809701370932</v>
       </c>
       <c r="M31" t="n">
-        <v>-9.07136</v>
+        <v>-7.96396</v>
       </c>
       <c r="N31" t="n">
-        <v>-554435029.7096262</v>
+        <v>-519857149.8673868</v>
       </c>
       <c r="O31" t="n">
-        <v>-9.46288</v>
+        <v>-8.86652</v>
       </c>
       <c r="P31" t="n">
         <v>6763876079.296083</v>
@@ -3386,7 +3386,7 @@
         <v>2.99</v>
       </c>
       <c r="T31" t="n">
-        <v>-73.83721</v>
+        <v>-73.56044</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>0.615725</v>
       </c>
       <c r="W31" t="n">
-        <v>26.94674</v>
+        <v>28.2897</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.920Z</t>
+          <t>2025-03-26T23:04:43.192Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3439,16 +3439,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>5188567626</v>
+        <v>5185380112</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>5188567626</v>
+        <v>5185380112</v>
       </c>
       <c r="I32" t="n">
-        <v>141553271</v>
+        <v>179190138</v>
       </c>
       <c r="J32" t="n">
         <v>1.004</v>
@@ -3457,16 +3457,16 @@
         <v>0.998411</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00142653</v>
+        <v>-0.000507512439469338</v>
       </c>
       <c r="M32" t="n">
-        <v>0.14282</v>
+        <v>-0.05071</v>
       </c>
       <c r="N32" t="n">
-        <v>883652</v>
+        <v>-744080.0652332306</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01703</v>
+        <v>-0.01435</v>
       </c>
       <c r="P32" t="n">
         <v>5184994501.618546</v>
@@ -3479,7 +3479,7 @@
         <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>-4.69191</v>
+        <v>-4.76969</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>0.942186</v>
       </c>
       <c r="W32" t="n">
-        <v>6.21023</v>
+        <v>6.12355</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.609Z</t>
+          <t>2025-03-26T23:04:45.378Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3529,19 +3529,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13.92</v>
+        <v>13.81</v>
       </c>
       <c r="F33" t="n">
-        <v>4647870545</v>
+        <v>4606092462</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>13918639282</v>
+        <v>13793529501</v>
       </c>
       <c r="I33" t="n">
-        <v>459162393</v>
+        <v>460396721</v>
       </c>
       <c r="J33" t="n">
         <v>16.37</v>
@@ -3550,16 +3550,16 @@
         <v>12.91</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.123732240485284</v>
+        <v>-2.164686278100188</v>
       </c>
       <c r="M33" t="n">
-        <v>-13.23864</v>
+        <v>-13.55479</v>
       </c>
       <c r="N33" t="n">
-        <v>-708214870.0468235</v>
+        <v>-734328357.1382322</v>
       </c>
       <c r="O33" t="n">
-        <v>-13.22262</v>
+        <v>-13.75038</v>
       </c>
       <c r="P33" t="n">
         <v>333928180</v>
@@ -3574,7 +3574,7 @@
         <v>34.96</v>
       </c>
       <c r="T33" t="n">
-        <v>-60.08366</v>
+        <v>-60.30352</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>3.81</v>
       </c>
       <c r="W33" t="n">
-        <v>266.3805</v>
+        <v>264.36239</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.439Z</t>
+          <t>2025-03-26T23:04:48.124Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3624,19 +3624,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2128.44</v>
+        <v>2126.85</v>
       </c>
       <c r="F34" t="n">
-        <v>4475274727</v>
+        <v>4474314325</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>4475274727</v>
+        <v>4474314325</v>
       </c>
       <c r="I34" t="n">
-        <v>12176910</v>
+        <v>12099848</v>
       </c>
       <c r="J34" t="n">
         <v>2209.73</v>
@@ -3645,29 +3645,29 @@
         <v>2110.4</v>
       </c>
       <c r="L34" t="n">
-        <v>-65.77355400150282</v>
+        <v>-62.17804790013815</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.99759</v>
+        <v>-2.84044</v>
       </c>
       <c r="N34" t="n">
-        <v>-113458855.274436</v>
+        <v>-119087790.9385757</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.47255</v>
+        <v>-2.59258</v>
       </c>
       <c r="P34" t="n">
-        <v>2102908.151480301</v>
+        <v>2103594.686551958</v>
       </c>
       <c r="Q34" t="n">
-        <v>2102908.151480301</v>
+        <v>2103594.686551958</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
         <v>4311.81</v>
       </c>
       <c r="T34" t="n">
-        <v>-50.47577</v>
+        <v>-50.67929</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>1889.13</v>
       </c>
       <c r="W34" t="n">
-        <v>13.03564</v>
+        <v>12.57112</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.850Z</t>
+          <t>2025-03-26T23:04:49.046Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3717,19 +3717,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.98</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n">
-        <v>4172903076</v>
+        <v>4177288083</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>9508160047</v>
+        <v>9518151497</v>
       </c>
       <c r="I35" t="n">
-        <v>18898762</v>
+        <v>18564874</v>
       </c>
       <c r="J35" t="n">
         <v>29.3</v>
@@ -3738,16 +3738,16 @@
         <v>28.93</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.1898060722408239</v>
+        <v>-0.06220180000938313</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.65077</v>
+        <v>-0.21404</v>
       </c>
       <c r="N35" t="n">
-        <v>-34232349.37188244</v>
+        <v>-24410131.05088806</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.81367</v>
+        <v>-0.58096</v>
       </c>
       <c r="P35" t="n">
         <v>144118517.1081541</v>
@@ -3762,7 +3762,7 @@
         <v>31.28</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.46689</v>
+        <v>-7.30913</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>3.06</v>
       </c>
       <c r="W35" t="n">
-        <v>855.44817</v>
+        <v>846.84459</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.356Z</t>
+          <t>2025-03-26T23:04:48.942Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3812,19 +3812,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>223.3</v>
+        <v>223.9</v>
       </c>
       <c r="F36" t="n">
-        <v>4118372229</v>
+        <v>4131695234</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>4118372229</v>
+        <v>4131695234</v>
       </c>
       <c r="I36" t="n">
-        <v>69330876</v>
+        <v>69792877</v>
       </c>
       <c r="J36" t="n">
         <v>229.02</v>
@@ -3833,16 +3833,16 @@
         <v>218.6</v>
       </c>
       <c r="L36" t="n">
-        <v>3.9</v>
+        <v>5.22</v>
       </c>
       <c r="M36" t="n">
-        <v>1.77875</v>
+        <v>2.38879</v>
       </c>
       <c r="N36" t="n">
-        <v>75959428</v>
+        <v>95109505</v>
       </c>
       <c r="O36" t="n">
-        <v>1.87906</v>
+        <v>2.35619</v>
       </c>
       <c r="P36" t="n">
         <v>18446744.07370955</v>
@@ -3855,7 +3855,7 @@
         <v>542.33</v>
       </c>
       <c r="T36" t="n">
-        <v>-58.84536</v>
+        <v>-58.73321</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>0.216177</v>
       </c>
       <c r="W36" t="n">
-        <v>103145.24297</v>
+        <v>103426.59642</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:29.784Z</t>
+          <t>2025-03-26T23:04:41.314Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,37 +3905,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="F37" t="n">
-        <v>4025782715</v>
+        <v>4013069292</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>6704240122</v>
+        <v>6683068130</v>
       </c>
       <c r="I37" t="n">
-        <v>147591580</v>
+        <v>149645732</v>
       </c>
       <c r="J37" t="n">
         <v>7.11</v>
       </c>
       <c r="K37" t="n">
-        <v>6.69</v>
+        <v>6.68</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.2450048444850594</v>
+        <v>-0.2501009610559137</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.52495</v>
+        <v>-3.60591</v>
       </c>
       <c r="N37" t="n">
-        <v>-155482290.810442</v>
+        <v>-150649276.6976023</v>
       </c>
       <c r="O37" t="n">
-        <v>-3.71855</v>
+        <v>-3.61814</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3950,7 +3950,7 @@
         <v>44.92</v>
       </c>
       <c r="T37" t="n">
-        <v>-85.00232</v>
+        <v>-85.11709</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>1.03</v>
       </c>
       <c r="W37" t="n">
-        <v>553.93691</v>
+        <v>548.9326</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.596Z</t>
+          <t>2025-03-26T23:04:49.314Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -4003,16 +4003,16 @@
         <v>2.99</v>
       </c>
       <c r="F38" t="n">
-        <v>3579926024</v>
+        <v>3576343462</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3712876704</v>
+        <v>3709160686</v>
       </c>
       <c r="I38" t="n">
-        <v>173881401</v>
+        <v>165462052</v>
       </c>
       <c r="J38" t="n">
         <v>3.07</v>
@@ -4021,29 +4021,29 @@
         <v>2.94</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0417021916326541</v>
+        <v>-0.03804071596997982</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.37506</v>
+        <v>-1.25794</v>
       </c>
       <c r="N38" t="n">
-        <v>-62094276.71576977</v>
+        <v>-43726484.72921658</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.70494</v>
+        <v>-1.20789</v>
       </c>
       <c r="P38" t="n">
         <v>1197475444</v>
       </c>
       <c r="Q38" t="n">
-        <v>1241947082</v>
+        <v>1241946946</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
         <v>20.44</v>
       </c>
       <c r="T38" t="n">
-        <v>-85.31775</v>
+        <v>-85.37983</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>0.526762</v>
       </c>
       <c r="W38" t="n">
-        <v>469.66404</v>
+        <v>467.25541</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.462Z</t>
+          <t>2025-03-26T23:04:50.896Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4074,92 +4074,90 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>apt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/29850/large/pepe-token.jpeg?1696528776</t>
+          <t>https://coin-images.coingecko.com/coins/images/26455/large/aptos_round.png?1696525528</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.49e-06</v>
+        <v>5.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3574333822</v>
+        <v>3561667568</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>3574333822</v>
+        <v>6760048302</v>
       </c>
       <c r="I39" t="n">
-        <v>1135472906</v>
+        <v>98642056</v>
       </c>
       <c r="J39" t="n">
-        <v>9.15e-06</v>
+        <v>6.04</v>
       </c>
       <c r="K39" t="n">
-        <v>7.98e-06</v>
+        <v>5.8</v>
       </c>
       <c r="L39" t="n">
-        <v>4.72085e-07</v>
+        <v>0.02818783</v>
       </c>
       <c r="M39" t="n">
-        <v>5.89065</v>
+        <v>0.47986</v>
       </c>
       <c r="N39" t="n">
-        <v>198793797</v>
+        <v>10133492</v>
       </c>
       <c r="O39" t="n">
-        <v>5.88924</v>
+        <v>0.28533</v>
       </c>
       <c r="P39" t="n">
-        <v>420690000000000</v>
+        <v>603580078.5156718</v>
       </c>
       <c r="Q39" t="n">
-        <v>420690000000000</v>
-      </c>
-      <c r="R39" t="n">
-        <v>420690000000000</v>
-      </c>
+        <v>1145595541.256314</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>2.803e-05</v>
+        <v>19.92</v>
       </c>
       <c r="T39" t="n">
-        <v>-69.49827000000001</v>
+        <v>-70.37247000000001</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2024-12-09T16:30:35.828Z</t>
+          <t>2023-01-26T14:25:17.390Z</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>5.5142e-08</v>
+        <v>3.08</v>
       </c>
       <c r="W39" t="n">
-        <v>15403.64785</v>
+        <v>91.63357999999999</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2023-04-18T02:14:41.591Z</t>
+          <t>2022-12-29T21:35:14.796Z</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.753Z</t>
+          <t>2025-03-26T23:04:42.909Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4169,90 +4167,92 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>apt</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/26455/large/aptos_round.png?1696525528</t>
+          <t>https://coin-images.coingecko.com/coins/images/29850/large/pepe-token.jpeg?1696528776</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.91</v>
+        <v>8.47e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>3565946143</v>
+        <v>3559721405</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>6768030970</v>
+        <v>3559721405</v>
       </c>
       <c r="I40" t="n">
-        <v>104060386</v>
+        <v>1110528491</v>
       </c>
       <c r="J40" t="n">
-        <v>6.04</v>
+        <v>9.15e-06</v>
       </c>
       <c r="K40" t="n">
-        <v>5.8</v>
+        <v>7.98e-06</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01129216</v>
+        <v>4.84854e-07</v>
       </c>
       <c r="M40" t="n">
-        <v>0.19136</v>
+        <v>6.07236</v>
       </c>
       <c r="N40" t="n">
-        <v>3366727</v>
+        <v>184308671</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0945</v>
+        <v>5.46033</v>
       </c>
       <c r="P40" t="n">
-        <v>603582320.5576884</v>
+        <v>420690000000000</v>
       </c>
       <c r="Q40" t="n">
-        <v>1145576426.203814</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
+        <v>420690000000000</v>
+      </c>
+      <c r="R40" t="n">
+        <v>420690000000000</v>
+      </c>
       <c r="S40" t="n">
-        <v>19.92</v>
+        <v>2.803e-05</v>
       </c>
       <c r="T40" t="n">
-        <v>-69.93604000000001</v>
+        <v>-69.84781</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2023-01-26T14:25:17.390Z</t>
+          <t>2024-12-09T16:30:35.828Z</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>3.08</v>
+        <v>5.5142e-08</v>
       </c>
       <c r="W40" t="n">
-        <v>94.45646000000001</v>
+        <v>15225.9802</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>2022-12-29T21:35:14.796Z</t>
+          <t>2023-04-18T02:14:41.591Z</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.327Z</t>
+          <t>2025-03-26T23:04:43.396Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4281,19 +4281,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.99939</v>
+        <v>0.999813</v>
       </c>
       <c r="F41" t="n">
-        <v>3290292370</v>
+        <v>3291761345</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>3290292370</v>
+        <v>3291761345</v>
       </c>
       <c r="I41" t="n">
-        <v>144502785</v>
+        <v>149168475</v>
       </c>
       <c r="J41" t="n">
         <v>1.001</v>
@@ -4302,29 +4302,29 @@
         <v>0.9981989999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.000595679885394551</v>
+        <v>-9.8892247058613e-05</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.05957</v>
+        <v>-0.009889999999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>25229968</v>
+        <v>24146763</v>
       </c>
       <c r="O41" t="n">
-        <v>0.77273</v>
+        <v>0.73897</v>
       </c>
       <c r="P41" t="n">
-        <v>3292382353.467319</v>
+        <v>3292662361.694145</v>
       </c>
       <c r="Q41" t="n">
-        <v>3292382353.467319</v>
+        <v>3292662361.694145</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
         <v>1.22</v>
       </c>
       <c r="T41" t="n">
-        <v>-18.00184</v>
+        <v>-17.97668</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>0.88196</v>
       </c>
       <c r="W41" t="n">
-        <v>13.32722</v>
+        <v>13.362</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.829Z</t>
+          <t>2025-03-26T23:04:46.335Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4374,19 +4374,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.042</v>
+        <v>1.046</v>
       </c>
       <c r="F42" t="n">
-        <v>3218369360</v>
+        <v>3229641539</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>3218369360</v>
+        <v>3229641539</v>
       </c>
       <c r="I42" t="n">
-        <v>1840294</v>
+        <v>1781992</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -4395,29 +4395,29 @@
         <v>1.041</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.002787206261499753</v>
+        <v>-0.00029445347543211</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.26669</v>
+        <v>-0.02815</v>
       </c>
       <c r="N42" t="n">
-        <v>-52269181.8703475</v>
+        <v>-44603500.45005083</v>
       </c>
       <c r="O42" t="n">
-        <v>-1.59813</v>
+        <v>-1.36225</v>
       </c>
       <c r="P42" t="n">
-        <v>3089110662.400126</v>
+        <v>3088696379.173953</v>
       </c>
       <c r="Q42" t="n">
-        <v>3089110662.400126</v>
+        <v>3088696379.173953</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
         <v>1.088</v>
       </c>
       <c r="T42" t="n">
-        <v>-4.10411</v>
+        <v>-3.86697</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>0.961716</v>
       </c>
       <c r="W42" t="n">
-        <v>8.47954</v>
+        <v>8.7478</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:27.290Z</t>
+          <t>2025-03-26T23:04:46.725Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4470,16 +4470,16 @@
         <v>1.16</v>
       </c>
       <c r="F43" t="n">
-        <v>3126086836</v>
+        <v>3126101827</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>3126086836</v>
+        <v>3126101827</v>
       </c>
       <c r="I43" t="n">
-        <v>16217971</v>
+        <v>16738437</v>
       </c>
       <c r="J43" t="n">
         <v>1.25</v>
@@ -4488,29 +4488,29 @@
         <v>1.16</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00136561</v>
+        <v>0.002703</v>
       </c>
       <c r="M43" t="n">
-        <v>0.11783</v>
+        <v>0.23358</v>
       </c>
       <c r="N43" t="n">
-        <v>-40054254.38765383</v>
+        <v>-39469786.51199865</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.26508</v>
+        <v>-1.24685</v>
       </c>
       <c r="P43" t="n">
-        <v>2695698794.568918</v>
+        <v>2695613911.070279</v>
       </c>
       <c r="Q43" t="n">
-        <v>2695698794.568918</v>
+        <v>2695613911.070279</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
         <v>1.29</v>
       </c>
       <c r="T43" t="n">
-        <v>-10.07176</v>
+        <v>-10.13412</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>1.012</v>
       </c>
       <c r="W43" t="n">
-        <v>14.68292</v>
+        <v>14.6034</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.013Z</t>
+          <t>2025-03-26T23:04:46.167Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4560,19 +4560,19 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50.02</v>
+        <v>50.07</v>
       </c>
       <c r="F44" t="n">
-        <v>3001044208</v>
+        <v>3003862016</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>11801990746</v>
+        <v>11813072137</v>
       </c>
       <c r="I44" t="n">
-        <v>6580071</v>
+        <v>7232860</v>
       </c>
       <c r="J44" t="n">
         <v>51.09</v>
@@ -4581,16 +4581,16 @@
         <v>49.68</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.5720747451508146</v>
+        <v>-0.5966037518797762</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.13085</v>
+        <v>-1.17741</v>
       </c>
       <c r="N44" t="n">
-        <v>-35859867.63763475</v>
+        <v>-41618147.93280888</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.1808</v>
+        <v>-1.36655</v>
       </c>
       <c r="P44" t="n">
         <v>60000000</v>
@@ -4605,7 +4605,7 @@
         <v>73.8</v>
       </c>
       <c r="T44" t="n">
-        <v>-32.16311</v>
+        <v>-32.16202</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>0.580608</v>
       </c>
       <c r="W44" t="n">
-        <v>8523.011399999999</v>
+        <v>8523.15007</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.699Z</t>
+          <t>2025-03-26T23:04:41.850Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4655,19 +4655,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F45" t="n">
-        <v>2911819798</v>
+        <v>2924590846</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>3207051937</v>
+        <v>3221118140</v>
       </c>
       <c r="I45" t="n">
-        <v>74438833</v>
+        <v>66779658</v>
       </c>
       <c r="J45" t="n">
         <v>6.36</v>
@@ -4676,29 +4676,29 @@
         <v>6.02</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.1270900833392412</v>
+        <v>-0.08657855076734222</v>
       </c>
       <c r="M45" t="n">
-        <v>-2.05874</v>
+        <v>-1.40698</v>
       </c>
       <c r="N45" t="n">
-        <v>-67958991.96947002</v>
+        <v>-49759004.1891489</v>
       </c>
       <c r="O45" t="n">
-        <v>-2.28067</v>
+        <v>-1.67294</v>
       </c>
       <c r="P45" t="n">
         <v>482054168.0436438</v>
       </c>
       <c r="Q45" t="n">
-        <v>530930092.0920139</v>
+        <v>530930139.3307032</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
         <v>700.65</v>
       </c>
       <c r="T45" t="n">
-        <v>-99.13402000000001</v>
+        <v>-99.13432</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>2.87</v>
       </c>
       <c r="W45" t="n">
-        <v>111.77775</v>
+        <v>111.70458</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.029Z</t>
+          <t>2025-03-26T23:04:48.997Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4748,19 +4748,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.63</v>
+        <v>23.64</v>
       </c>
       <c r="F46" t="n">
-        <v>2902107644</v>
+        <v>2905269912</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>7083460499</v>
+        <v>7091178957</v>
       </c>
       <c r="I46" t="n">
-        <v>16219017</v>
+        <v>16319632</v>
       </c>
       <c r="J46" t="n">
         <v>24.19</v>
@@ -4769,16 +4769,16 @@
         <v>23.45</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.2748419221815297</v>
+        <v>-0.2474437926500599</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.14996</v>
+        <v>-1.03586</v>
       </c>
       <c r="N46" t="n">
-        <v>-33154950.54479408</v>
+        <v>-34592602.23765612</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.12954</v>
+        <v>-1.17667</v>
       </c>
       <c r="P46" t="n">
         <v>122910587.7676574</v>
@@ -4791,7 +4791,7 @@
         <v>25.94</v>
       </c>
       <c r="T46" t="n">
-        <v>-8.848649999999999</v>
+        <v>-8.891920000000001</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>0.25754</v>
       </c>
       <c r="W46" t="n">
-        <v>9080.75433</v>
+        <v>9076.39551</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.213Z</t>
+          <t>2025-03-26T23:04:46.981Z</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr"/>
@@ -4841,19 +4841,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.17</v>
+        <v>36.18</v>
       </c>
       <c r="F47" t="n">
-        <v>2893733679</v>
+        <v>2893877887</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>3617348009</v>
+        <v>3617528278</v>
       </c>
       <c r="I47" t="n">
-        <v>23703863</v>
+        <v>13452908</v>
       </c>
       <c r="J47" t="n">
         <v>36.33</v>
@@ -4862,16 +4862,16 @@
         <v>35.08</v>
       </c>
       <c r="L47" t="n">
-        <v>0.962662</v>
+        <v>1.063</v>
       </c>
       <c r="M47" t="n">
-        <v>2.73414</v>
+        <v>3.02719</v>
       </c>
       <c r="N47" t="n">
-        <v>77182100</v>
+        <v>79067649</v>
       </c>
       <c r="O47" t="n">
-        <v>2.7403</v>
+        <v>2.80899</v>
       </c>
       <c r="P47" t="n">
         <v>79995999.05112354</v>
@@ -4886,7 +4886,7 @@
         <v>50.43</v>
       </c>
       <c r="T47" t="n">
-        <v>-28.13595</v>
+        <v>-28.25857</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>0.111255</v>
       </c>
       <c r="W47" t="n">
-        <v>32475.70686</v>
+        <v>32420.12636</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -4907,11 +4907,11 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:29.745Z</t>
+          <t>2025-03-26T23:04:47.747Z</t>
         </is>
       </c>
       <c r="AA47" t="n">
-        <v>123.5149205530749</v>
+        <v>123.5450328705059</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>12351.49205530749</v>
+        <v>12354.50328705059</v>
       </c>
     </row>
     <row r="48">
@@ -4944,19 +4944,19 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.905288</v>
+        <v>0.90325</v>
       </c>
       <c r="F48" t="n">
-        <v>2859973664</v>
+        <v>2849545891</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>9053106415</v>
+        <v>9020097811</v>
       </c>
       <c r="I48" t="n">
-        <v>165071703</v>
+        <v>168548814</v>
       </c>
       <c r="J48" t="n">
         <v>0.9574009999999999</v>
@@ -4965,16 +4965,16 @@
         <v>0.892819</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.01513524544129696</v>
+        <v>-0.01477307085338675</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.64438</v>
+        <v>-1.60923</v>
       </c>
       <c r="N48" t="n">
-        <v>-50190254.05857515</v>
+        <v>-62799667.70517921</v>
       </c>
       <c r="O48" t="n">
-        <v>-1.72465</v>
+        <v>-2.15633</v>
       </c>
       <c r="P48" t="n">
         <v>3159107529</v>
@@ -4989,7 +4989,7 @@
         <v>2.14</v>
       </c>
       <c r="T48" t="n">
-        <v>-55.59152</v>
+        <v>-57.8329</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         <v>0.08217099999999999</v>
       </c>
       <c r="W48" t="n">
-        <v>1056.62591</v>
+        <v>998.24875</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.002Z</t>
+          <t>2025-03-26T23:04:42.841Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.843019</v>
+        <v>0.843209</v>
       </c>
       <c r="F49" t="n">
-        <v>2833076903</v>
+        <v>2835793917</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>5236672566</v>
+        <v>5241694707</v>
       </c>
       <c r="I49" t="n">
-        <v>170618108</v>
+        <v>172020749</v>
       </c>
       <c r="J49" t="n">
         <v>0.852714</v>
@@ -5060,16 +5060,16 @@
         <v>0.837736</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00024887</v>
+        <v>-0.0007328945802367311</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02953</v>
+        <v>-0.08684</v>
       </c>
       <c r="N49" t="n">
-        <v>-2978907.162966251</v>
+        <v>-4624125.240956306</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.10504</v>
+        <v>-0.1628</v>
       </c>
       <c r="P49" t="n">
         <v>3364694382.83684</v>
@@ -5084,7 +5084,7 @@
         <v>1.54</v>
       </c>
       <c r="T49" t="n">
-        <v>-45.23223</v>
+        <v>-45.21579</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>0.307978</v>
       </c>
       <c r="W49" t="n">
-        <v>173.62999</v>
+        <v>173.71213</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:27.411Z</t>
+          <t>2025-03-26T23:04:50.104Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5115,90 +5115,90 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>coinbase-wrapped-btc</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cbbtc</t>
+          <t>cro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coinbase Wrapped BTC</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40143/large/cbbtc.webp?1726136727</t>
+          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>87015</v>
+        <v>0.101908</v>
       </c>
       <c r="F50" t="n">
-        <v>2770661550</v>
+        <v>2782773600</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>2770661550</v>
+        <v>9889309321</v>
       </c>
       <c r="I50" t="n">
-        <v>224341400</v>
+        <v>162845764</v>
       </c>
       <c r="J50" t="n">
-        <v>88356</v>
+        <v>0.112418</v>
       </c>
       <c r="K50" t="n">
-        <v>85859</v>
+        <v>0.098327</v>
       </c>
       <c r="L50" t="n">
-        <v>-685.7834078642045</v>
+        <v>0.0006184</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.78196</v>
+        <v>0.61053</v>
       </c>
       <c r="N50" t="n">
-        <v>-22009393.25291348</v>
+        <v>560553723</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.78811</v>
+        <v>25.22494</v>
       </c>
       <c r="P50" t="n">
-        <v>31860.25557564</v>
+        <v>27410563966.67053</v>
       </c>
       <c r="Q50" t="n">
-        <v>31860.25557564</v>
+        <v>97410563966.67053</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>108953</v>
+        <v>0.965407</v>
       </c>
       <c r="T50" t="n">
-        <v>-20.122</v>
+        <v>-89.45990999999999</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2025-01-20T09:20:53.854Z</t>
+          <t>2021-11-24T15:53:54.855Z</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>57439</v>
+        <v>0.0121196</v>
       </c>
       <c r="W50" t="n">
-        <v>51.51674</v>
+        <v>739.58857</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>2024-09-12T14:07:41.775Z</t>
+          <t>2019-02-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.563Z</t>
+          <t>2025-03-26T23:04:45.662Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5208,90 +5208,90 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>coinbase-wrapped-btc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cro</t>
+          <t>cbbtc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Coinbase Wrapped BTC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
+          <t>https://coin-images.coingecko.com/coins/images/40143/large/cbbtc.webp?1726136727</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.10141</v>
+        <v>86826</v>
       </c>
       <c r="F51" t="n">
-        <v>2769543306</v>
+        <v>2767435665</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>9842319633</v>
+        <v>2767435665</v>
       </c>
       <c r="I51" t="n">
-        <v>164361923</v>
+        <v>216326564</v>
       </c>
       <c r="J51" t="n">
-        <v>0.112418</v>
+        <v>88356</v>
       </c>
       <c r="K51" t="n">
-        <v>0.098327</v>
+        <v>85859</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.00141960627790691</v>
+        <v>-452.3076295330102</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.38055</v>
+        <v>-0.51824</v>
       </c>
       <c r="N51" t="n">
-        <v>547323429</v>
+        <v>-13033934.95159006</v>
       </c>
       <c r="O51" t="n">
-        <v>24.62958</v>
+        <v>-0.46877</v>
       </c>
       <c r="P51" t="n">
-        <v>27410457000.56154</v>
+        <v>31860.25557564</v>
       </c>
       <c r="Q51" t="n">
-        <v>97410457000.56154</v>
+        <v>31860.25557564</v>
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>0.965407</v>
+        <v>108953</v>
       </c>
       <c r="T51" t="n">
-        <v>-89.44786999999999</v>
+        <v>-20.22214</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2021-11-24T15:53:54.855Z</t>
+          <t>2025-01-20T09:20:53.854Z</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>0.0121196</v>
+        <v>57439</v>
       </c>
       <c r="W51" t="n">
-        <v>740.54817</v>
+        <v>51.32679</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>2019-02-08T00:00:00.000Z</t>
+          <t>2024-09-12T14:07:41.775Z</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.158Z</t>
+          <t>2025-03-26T23:04:46.315Z</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr"/>
@@ -5320,19 +5320,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>18.03</v>
+        <v>17.98</v>
       </c>
       <c r="F52" t="n">
-        <v>2727645797</v>
+        <v>2720164330</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2727882447</v>
+        <v>2720410934</v>
       </c>
       <c r="I52" t="n">
-        <v>71915677</v>
+        <v>67991659</v>
       </c>
       <c r="J52" t="n">
         <v>18.66</v>
@@ -5341,22 +5341,22 @@
         <v>17.87</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.3645912071351454</v>
+        <v>-0.4152401915269408</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.9822</v>
+        <v>-2.25711</v>
       </c>
       <c r="N52" t="n">
-        <v>-54523523.83768082</v>
+        <v>-61507240.29522705</v>
       </c>
       <c r="O52" t="n">
-        <v>-1.95975</v>
+        <v>-2.21116</v>
       </c>
       <c r="P52" t="n">
         <v>151260617.0327686</v>
       </c>
       <c r="Q52" t="n">
-        <v>151273740.3555871</v>
+        <v>151274329.9875871</v>
       </c>
       <c r="R52" t="n">
         <v>210700000</v>
@@ -5365,7 +5365,7 @@
         <v>167.09</v>
       </c>
       <c r="T52" t="n">
-        <v>-89.16811</v>
+        <v>-89.2414</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>0.615038</v>
       </c>
       <c r="W52" t="n">
-        <v>2842.66551</v>
+        <v>2822.75374</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5386,11 +5386,11 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.471Z</t>
+          <t>2025-03-26T23:04:47.305Z</t>
         </is>
       </c>
       <c r="AA52" t="n">
-        <v>39.06361240574438</v>
+        <v>38.959372638837</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>3906.361240574438</v>
+        <v>3895.9372638837</v>
       </c>
     </row>
     <row r="53">
@@ -5423,19 +5423,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>177.52</v>
+        <v>177.01</v>
       </c>
       <c r="F53" t="n">
-        <v>2676857897</v>
+        <v>2670992761</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2837867003</v>
+        <v>2831648542</v>
       </c>
       <c r="I53" t="n">
-        <v>315044840</v>
+        <v>319142584</v>
       </c>
       <c r="J53" t="n">
         <v>189.74</v>
@@ -5444,19 +5444,19 @@
         <v>175.96</v>
       </c>
       <c r="L53" t="n">
-        <v>-8.814735536083845</v>
+        <v>-9.110617702005072</v>
       </c>
       <c r="M53" t="n">
-        <v>-4.73062</v>
+        <v>-4.89495</v>
       </c>
       <c r="N53" t="n">
-        <v>-142797394.6251631</v>
+        <v>-138265922.1200004</v>
       </c>
       <c r="O53" t="n">
-        <v>-5.06436</v>
+        <v>-4.92179</v>
       </c>
       <c r="P53" t="n">
-        <v>15092224.65745433</v>
+        <v>15092227.56022854</v>
       </c>
       <c r="Q53" t="n">
         <v>16000000</v>
@@ -5468,7 +5468,7 @@
         <v>661.6900000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>-73.06766</v>
+        <v>-73.24808</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>26.02</v>
       </c>
       <c r="W53" t="n">
-        <v>584.80816</v>
+        <v>580.22045</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:28.814Z</t>
+          <t>2025-03-26T23:04:41.659Z</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -5518,19 +5518,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9958939999999999</v>
+        <v>0.997982</v>
       </c>
       <c r="F54" t="n">
-        <v>2482623675</v>
+        <v>2483798454</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>2482623675</v>
+        <v>2483798454</v>
       </c>
       <c r="I54" t="n">
-        <v>4561576905</v>
+        <v>2267186992</v>
       </c>
       <c r="J54" t="n">
         <v>1.001</v>
@@ -5539,16 +5539,16 @@
         <v>0.99538</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.002800902162448993</v>
+        <v>0.00061595</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.28046</v>
+        <v>0.06176</v>
       </c>
       <c r="N54" t="n">
-        <v>26319944</v>
+        <v>31253163</v>
       </c>
       <c r="O54" t="n">
-        <v>1.07153</v>
+        <v>1.27432</v>
       </c>
       <c r="P54" t="n">
         <v>2487656654.257888</v>
@@ -5561,7 +5561,7 @@
         <v>1.15</v>
       </c>
       <c r="T54" t="n">
-        <v>-13.30458</v>
+        <v>-13.08667</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>0.940377</v>
       </c>
       <c r="W54" t="n">
-        <v>6.14386</v>
+        <v>6.41065</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.292Z</t>
+          <t>2025-03-26T23:04:47.808Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5614,16 +5614,16 @@
         <v>11.4</v>
       </c>
       <c r="F55" t="n">
-        <v>2279069835</v>
+        <v>2280735033</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>11395350501</v>
+        <v>11403676491</v>
       </c>
       <c r="I55" t="n">
-        <v>514458582</v>
+        <v>514495432</v>
       </c>
       <c r="J55" t="n">
         <v>12.01</v>
@@ -5632,16 +5632,16 @@
         <v>11.29</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.1337393866340992</v>
+        <v>-0.1561810020217553</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.15913</v>
+        <v>-1.35107</v>
       </c>
       <c r="N55" t="n">
-        <v>-36800746.66937065</v>
+        <v>-33798675.33764029</v>
       </c>
       <c r="O55" t="n">
-        <v>-1.58907</v>
+        <v>-1.46028</v>
       </c>
       <c r="P55" t="n">
         <v>199999976.736</v>
@@ -5656,7 +5656,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="T55" t="n">
-        <v>-84.41372</v>
+        <v>-84.49847</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>4.29</v>
       </c>
       <c r="W55" t="n">
-        <v>166.74362</v>
+        <v>165.29333</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.615Z</t>
+          <t>2025-03-26T23:04:42.357Z</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr"/>
@@ -5706,19 +5706,19 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.02628908</v>
+        <v>0.0262132</v>
       </c>
       <c r="F56" t="n">
-        <v>2259535211</v>
+        <v>2253007352</v>
       </c>
       <c r="G56" t="n">
         <v>55</v>
       </c>
       <c r="H56" t="n">
-        <v>2259535211</v>
+        <v>2253007352</v>
       </c>
       <c r="I56" t="n">
-        <v>61454940</v>
+        <v>58962310</v>
       </c>
       <c r="J56" t="n">
         <v>0.02755385</v>
@@ -5727,16 +5727,16 @@
         <v>0.02606216</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.000308797646733968</v>
+        <v>-0.000328276065533518</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.16099</v>
+        <v>-1.23684</v>
       </c>
       <c r="N56" t="n">
-        <v>-35646500.15029955</v>
+        <v>-35840151.50197744</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.5531</v>
+        <v>-1.56586</v>
       </c>
       <c r="P56" t="n">
         <v>85985041177</v>
@@ -5751,7 +5751,7 @@
         <v>0.280991</v>
       </c>
       <c r="T56" t="n">
-        <v>-90.59752</v>
+        <v>-90.67236</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>0.00191713</v>
       </c>
       <c r="W56" t="n">
-        <v>1278.10622</v>
+        <v>1267.13754</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5772,11 +5772,11 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.819Z</t>
+          <t>2025-03-26T23:04:48.642Z</t>
         </is>
       </c>
       <c r="AA56" t="n">
-        <v>3.593396924744099</v>
+        <v>3.584254817774163</v>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>359.33969247441</v>
+        <v>358.4254817774163</v>
       </c>
     </row>
     <row r="57">
@@ -5809,19 +5809,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>260.76</v>
+        <v>260.69</v>
       </c>
       <c r="F57" t="n">
-        <v>2222618980</v>
+        <v>2219921963</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>5478281074</v>
+        <v>5471633504</v>
       </c>
       <c r="I57" t="n">
-        <v>89633026</v>
+        <v>87573017</v>
       </c>
       <c r="J57" t="n">
         <v>279.03</v>
@@ -5830,16 +5830,16 @@
         <v>256.32</v>
       </c>
       <c r="L57" t="n">
-        <v>-7.518404024348456</v>
+        <v>-7.675156400811545</v>
       </c>
       <c r="M57" t="n">
-        <v>-2.80243</v>
+        <v>-2.85997</v>
       </c>
       <c r="N57" t="n">
-        <v>-66252410.9208746</v>
+        <v>-68477167.57651567</v>
       </c>
       <c r="O57" t="n">
-        <v>-2.89454</v>
+        <v>-2.99236</v>
       </c>
       <c r="P57" t="n">
         <v>8520008</v>
@@ -5854,7 +5854,7 @@
         <v>757.6</v>
       </c>
       <c r="T57" t="n">
-        <v>-65.47190999999999</v>
+        <v>-65.59025</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>30.83</v>
       </c>
       <c r="W57" t="n">
-        <v>748.48116</v>
+        <v>745.57328</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.303Z</t>
+          <t>2025-03-26T23:04:44.320Z</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr"/>
@@ -5904,19 +5904,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.91</v>
+        <v>4.89</v>
       </c>
       <c r="F58" t="n">
-        <v>2167771573</v>
+        <v>2162048687</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>2167771573</v>
+        <v>2162048687</v>
       </c>
       <c r="I58" t="n">
-        <v>146187724</v>
+        <v>144253523</v>
       </c>
       <c r="J58" t="n">
         <v>4.97</v>
@@ -5925,29 +5925,29 @@
         <v>4.78</v>
       </c>
       <c r="L58" t="n">
-        <v>0.088725</v>
+        <v>0.084756</v>
       </c>
       <c r="M58" t="n">
-        <v>1.8419</v>
+        <v>1.76374</v>
       </c>
       <c r="N58" t="n">
-        <v>27762920</v>
+        <v>35518717</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29733</v>
+        <v>1.67027</v>
       </c>
       <c r="P58" t="n">
-        <v>442124151.018041</v>
+        <v>442130417.867701</v>
       </c>
       <c r="Q58" t="n">
-        <v>442124151.018041</v>
+        <v>442130417.867701</v>
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
         <v>44.45</v>
       </c>
       <c r="T58" t="n">
-        <v>-88.91986</v>
+        <v>-88.99218999999999</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>1.16</v>
       </c>
       <c r="W58" t="n">
-        <v>324.53904</v>
+        <v>321.76795</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -5968,11 +5968,11 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.758Z</t>
+          <t>2025-03-26T23:04:45.990Z</t>
         </is>
       </c>
       <c r="AA58" t="n">
-        <v>48.05766623134117</v>
+        <v>47.90243233903759</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>4805.766623134117</v>
+        <v>4790.243233903759</v>
       </c>
     </row>
     <row r="59">
@@ -6005,19 +6005,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.408509</v>
+        <v>0.408476</v>
       </c>
       <c r="F59" t="n">
-        <v>2160891894</v>
+        <v>2156813015</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>6132001828</v>
+        <v>6120427120</v>
       </c>
       <c r="I59" t="n">
-        <v>210826942</v>
+        <v>210564089</v>
       </c>
       <c r="J59" t="n">
         <v>0.434701</v>
@@ -6026,16 +6026,16 @@
         <v>0.40268</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.009254285085415037</v>
+        <v>-0.01161273187931122</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.2152</v>
+        <v>-2.76435</v>
       </c>
       <c r="N59" t="n">
-        <v>-50203995.26314449</v>
+        <v>-70212633.06707478</v>
       </c>
       <c r="O59" t="n">
-        <v>-2.27055</v>
+        <v>-3.15275</v>
       </c>
       <c r="P59" t="n">
         <v>5285937500</v>
@@ -6048,7 +6048,7 @@
         <v>1.52</v>
       </c>
       <c r="T59" t="n">
-        <v>-73.01662</v>
+        <v>-73.17261999999999</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>0.195078</v>
       </c>
       <c r="W59" t="n">
-        <v>109.93001</v>
+        <v>108.71638</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.333Z</t>
+          <t>2025-03-26T23:04:46.497Z</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
@@ -6079,90 +6079,90 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render-token</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>tia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="F60" t="n">
-        <v>2043587549</v>
+        <v>2034246213</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>3958833910</v>
+        <v>2092242860</v>
       </c>
       <c r="I60" t="n">
-        <v>71488262</v>
+        <v>236083394</v>
       </c>
       <c r="J60" t="n">
-        <v>3.72</v>
+        <v>4.2</v>
       </c>
       <c r="K60" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.08560770935548057</v>
+        <v>-0.08786663366637493</v>
       </c>
       <c r="M60" t="n">
-        <v>-2.34373</v>
+        <v>-2.18673</v>
       </c>
       <c r="N60" t="n">
-        <v>-58527417.86670232</v>
+        <v>-53581501.36908555</v>
       </c>
       <c r="O60" t="n">
-        <v>-2.78422</v>
+        <v>-2.56638</v>
       </c>
       <c r="P60" t="n">
-        <v>573452431.6227421</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="Q60" t="n">
-        <v>1110890958.903765</v>
+        <v>532476763.3362826</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>20.85</v>
+        <v>13.53</v>
       </c>
       <c r="T60" t="n">
-        <v>-82.75136000000001</v>
+        <v>-70.96250999999999</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2024-02-10T14:30:02.495Z</t>
+          <t>2024-03-17T16:30:24.636Z</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>2.08</v>
+        <v>0.03665669</v>
       </c>
       <c r="W60" t="n">
-        <v>72.61785</v>
+        <v>10621.46597</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2023-10-31T15:14:31.951Z</t>
+          <t>2020-06-16T13:22:25.900Z</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.370Z</t>
+          <t>2025-03-26T23:04:44.107Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6172,90 +6172,90 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>render-token</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>tia</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3.94</v>
+        <v>3.55</v>
       </c>
       <c r="F61" t="n">
-        <v>2038721735</v>
+        <v>2030454758</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>2096845980</v>
+        <v>3933393092</v>
       </c>
       <c r="I61" t="n">
-        <v>238815558</v>
+        <v>74461363</v>
       </c>
       <c r="J61" t="n">
-        <v>4.2</v>
+        <v>3.72</v>
       </c>
       <c r="K61" t="n">
-        <v>3.9</v>
+        <v>3.48</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.1183588134689271</v>
+        <v>-0.1312921515114245</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.91492</v>
+        <v>-3.56837</v>
       </c>
       <c r="N61" t="n">
-        <v>-71610347.98913097</v>
+        <v>-84414032.86381626</v>
       </c>
       <c r="O61" t="n">
-        <v>-3.39332</v>
+        <v>-3.99145</v>
       </c>
       <c r="P61" t="n">
-        <v>517716590.0562826</v>
+        <v>573452431.6227421</v>
       </c>
       <c r="Q61" t="n">
-        <v>532476763.3362826</v>
+        <v>1110890958.903765</v>
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>13.53</v>
+        <v>20.85</v>
       </c>
       <c r="T61" t="n">
-        <v>-70.79765999999999</v>
+        <v>-82.9546</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2024-03-17T16:30:24.636Z</t>
+          <t>2024-02-10T14:30:02.495Z</t>
         </is>
       </c>
       <c r="V61" t="n">
-        <v>0.03665669</v>
+        <v>2.08</v>
       </c>
       <c r="W61" t="n">
-        <v>10682.33547</v>
+        <v>70.58382</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2020-06-16T13:22:25.900Z</t>
+          <t>2023-10-31T15:14:31.951Z</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.394Z</t>
+          <t>2025-03-26T23:04:44.664Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6284,19 +6284,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.234905</v>
+        <v>0.233579</v>
       </c>
       <c r="F62" t="n">
-        <v>2027177779</v>
+        <v>2017041555</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>2438995860</v>
+        <v>2426800478</v>
       </c>
       <c r="I62" t="n">
-        <v>124070976</v>
+        <v>123747736</v>
       </c>
       <c r="J62" t="n">
         <v>0.24617</v>
@@ -6305,16 +6305,16 @@
         <v>0.227575</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00596292</v>
+        <v>0.00570372</v>
       </c>
       <c r="M62" t="n">
-        <v>2.60455</v>
+        <v>2.50299</v>
       </c>
       <c r="N62" t="n">
-        <v>46593160</v>
+        <v>38951718</v>
       </c>
       <c r="O62" t="n">
-        <v>2.3525</v>
+        <v>1.96916</v>
       </c>
       <c r="P62" t="n">
         <v>8637420724.15497</v>
@@ -6327,7 +6327,7 @@
         <v>1.29</v>
       </c>
       <c r="T62" t="n">
-        <v>-81.66070000000001</v>
+        <v>-81.83078</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>0.194083</v>
       </c>
       <c r="W62" t="n">
-        <v>21.66399</v>
+        <v>20.53567</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.471Z</t>
+          <t>2025-03-26T23:04:43.646Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6358,92 +6358,92 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>kas</t>
+          <t>fil</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
+          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.075562</v>
+        <v>3.03</v>
       </c>
       <c r="F63" t="n">
-        <v>1957056730</v>
+        <v>1955954483</v>
       </c>
       <c r="G63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>1958753861</v>
+        <v>5933785387</v>
       </c>
       <c r="I63" t="n">
-        <v>53910977</v>
+        <v>108258323</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07974100000000001</v>
+        <v>3.21</v>
       </c>
       <c r="K63" t="n">
-        <v>0.07466</v>
+        <v>3.02</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.001632441078847593</v>
+        <v>-0.08842664612354145</v>
       </c>
       <c r="M63" t="n">
-        <v>-2.1147</v>
+        <v>-2.83665</v>
       </c>
       <c r="N63" t="n">
-        <v>-42295749.1740303</v>
+        <v>-58253602.06592083</v>
       </c>
       <c r="O63" t="n">
-        <v>-2.11547</v>
+        <v>-2.89213</v>
       </c>
       <c r="P63" t="n">
-        <v>25900045779.39798</v>
+        <v>645941959</v>
       </c>
       <c r="Q63" t="n">
-        <v>25922505924.85042</v>
+        <v>1959596192</v>
       </c>
       <c r="R63" t="n">
-        <v>28704026601</v>
+        <v>1959596192</v>
       </c>
       <c r="S63" t="n">
-        <v>0.207411</v>
+        <v>236.84</v>
       </c>
       <c r="T63" t="n">
-        <v>-63.53061</v>
+        <v>-98.72132000000001</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2024-08-01T00:40:47.164Z</t>
+          <t>2021-04-01T13:29:41.564Z</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>0.00017105</v>
+        <v>2.48</v>
       </c>
       <c r="W63" t="n">
-        <v>44121.99149</v>
+        <v>22.24332</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2022-05-26T14:42:59.316Z</t>
+          <t>2025-03-11T01:10:57.279Z</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.641Z</t>
+          <t>2025-03-26T23:04:47.205Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6478,7 +6478,7 @@
         <v>1955277111</v>
       </c>
       <c r="G64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H64" t="n">
         <v>1955277111</v>
@@ -6536,7 +6536,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-03-26T22:15:09.581Z</t>
+          <t>2025-03-26T23:00:04.208Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6546,92 +6546,92 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fil</t>
+          <t>kas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
+          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.03</v>
+        <v>0.075476</v>
       </c>
       <c r="F65" t="n">
-        <v>1952977292</v>
+        <v>1953890404</v>
       </c>
       <c r="G65" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>5924753573</v>
+        <v>1955601984</v>
       </c>
       <c r="I65" t="n">
-        <v>108311339</v>
+        <v>54193140</v>
       </c>
       <c r="J65" t="n">
-        <v>3.21</v>
+        <v>0.07974100000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>3.02</v>
+        <v>0.07466</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.1036378584139297</v>
+        <v>-0.001487392421094899</v>
       </c>
       <c r="M65" t="n">
-        <v>-3.30908</v>
+        <v>-1.93259</v>
       </c>
       <c r="N65" t="n">
-        <v>-75153205.18056321</v>
+        <v>-46203112.51772881</v>
       </c>
       <c r="O65" t="n">
-        <v>-3.70554</v>
+        <v>-2.31005</v>
       </c>
       <c r="P65" t="n">
-        <v>645941959</v>
+        <v>25900045779.39798</v>
       </c>
       <c r="Q65" t="n">
-        <v>1959596225</v>
+        <v>25922733852.22392</v>
       </c>
       <c r="R65" t="n">
-        <v>1959596225</v>
+        <v>28704026601</v>
       </c>
       <c r="S65" t="n">
-        <v>236.84</v>
+        <v>0.207411</v>
       </c>
       <c r="T65" t="n">
-        <v>-98.71366999999999</v>
+        <v>-63.62764</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2021-04-01T13:29:41.564Z</t>
+          <t>2024-08-01T00:40:47.164Z</t>
         </is>
       </c>
       <c r="V65" t="n">
-        <v>2.48</v>
+        <v>0.00017105</v>
       </c>
       <c r="W65" t="n">
-        <v>22.9751</v>
+        <v>44004.33975</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:57.279Z</t>
+          <t>2022-05-26T14:42:59.316Z</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.037Z</t>
+          <t>2025-03-26T23:04:49.760Z</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr"/>
@@ -6660,19 +6660,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.598671</v>
+        <v>0.6008</v>
       </c>
       <c r="F66" t="n">
-        <v>1901351161</v>
+        <v>1908466562</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1901351161</v>
+        <v>1908466562</v>
       </c>
       <c r="I66" t="n">
-        <v>170606542</v>
+        <v>169623986</v>
       </c>
       <c r="J66" t="n">
         <v>0.634362</v>
@@ -6681,16 +6681,16 @@
         <v>0.590139</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.008205290092446971</v>
+        <v>-0.004634475274744032</v>
       </c>
       <c r="M66" t="n">
-        <v>-1.35205</v>
+        <v>-0.76548</v>
       </c>
       <c r="N66" t="n">
-        <v>-27395741.34924006</v>
+        <v>-18723421.36595225</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.42039</v>
+        <v>-0.97154</v>
       </c>
       <c r="P66" t="n">
         <v>3175000000</v>
@@ -6703,7 +6703,7 @@
         <v>1.029</v>
       </c>
       <c r="T66" t="n">
-        <v>-41.74506</v>
+        <v>-41.91107</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>0.359647</v>
       </c>
       <c r="W66" t="n">
-        <v>66.75189</v>
+        <v>66.27668</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.555Z</t>
+          <t>2025-03-26T23:04:46.145Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>87075</v>
+        <v>87021</v>
       </c>
       <c r="F67" t="n">
-        <v>1846634483</v>
+        <v>1841154147</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>1846634483</v>
+        <v>1841154147</v>
       </c>
       <c r="I67" t="n">
-        <v>3824638</v>
+        <v>4422334</v>
       </c>
       <c r="J67" t="n">
         <v>88640</v>
@@ -6774,29 +6774,29 @@
         <v>85906</v>
       </c>
       <c r="L67" t="n">
-        <v>-509.2651901110075</v>
+        <v>-167.4580780113902</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.58146</v>
+        <v>-0.19206</v>
       </c>
       <c r="N67" t="n">
-        <v>-14041698.87608862</v>
+        <v>-13260909.02057791</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.75466</v>
+        <v>-0.7151</v>
       </c>
       <c r="P67" t="n">
-        <v>21223.99876958866</v>
+        <v>21224.50976958878</v>
       </c>
       <c r="Q67" t="n">
-        <v>21223.99876958866</v>
+        <v>21224.50976958878</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
         <v>114576</v>
       </c>
       <c r="T67" t="n">
-        <v>-24.04543</v>
+        <v>-24.06698</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>52119</v>
       </c>
       <c r="W67" t="n">
-        <v>66.97338999999999</v>
+        <v>66.92601999999999</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:28.543Z</t>
+          <t>2025-03-26T23:04:50.071Z</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr"/>
@@ -6846,19 +6846,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.206641</v>
+        <v>0.2069</v>
       </c>
       <c r="F68" t="n">
-        <v>1761824445</v>
+        <v>1762259394</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>1761862849</v>
+        <v>1762299090</v>
       </c>
       <c r="I68" t="n">
-        <v>67822391</v>
+        <v>62962073</v>
       </c>
       <c r="J68" t="n">
         <v>0.217649</v>
@@ -6867,22 +6867,22 @@
         <v>0.203779</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.004844563277746433</v>
+        <v>-0.003565147980346045</v>
       </c>
       <c r="M68" t="n">
-        <v>-2.29073</v>
+        <v>-1.69394</v>
       </c>
       <c r="N68" t="n">
-        <v>-39780538.52002454</v>
+        <v>-35122673.501091</v>
       </c>
       <c r="O68" t="n">
-        <v>-2.20806</v>
+        <v>-1.9541</v>
       </c>
       <c r="P68" t="n">
         <v>8521943311.574026</v>
       </c>
       <c r="Q68" t="n">
-        <v>8522129072.186702</v>
+        <v>8522135270.518819</v>
       </c>
       <c r="R68" t="n">
         <v>10000000000</v>
@@ -6891,7 +6891,7 @@
         <v>3.56</v>
       </c>
       <c r="T68" t="n">
-        <v>-94.16906</v>
+        <v>-94.19311999999999</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>0.08751299999999999</v>
       </c>
       <c r="W68" t="n">
-        <v>137.27641</v>
+        <v>136.29716</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6912,11 +6912,11 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:29.033Z</t>
+          <t>2025-03-26T23:04:42.340Z</t>
         </is>
       </c>
       <c r="AA68" t="n">
-        <v>-0.9138993927897184</v>
+        <v>-0.9137915802958594</v>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>-91.38993927897185</v>
+        <v>-91.37915802958594</v>
       </c>
     </row>
     <row r="69">
@@ -6949,19 +6949,19 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.380934</v>
+        <v>0.380578</v>
       </c>
       <c r="F69" t="n">
-        <v>1758873883</v>
+        <v>1756981968</v>
       </c>
       <c r="G69" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>3808806608</v>
+        <v>3804709704</v>
       </c>
       <c r="I69" t="n">
-        <v>113825508</v>
+        <v>112754240</v>
       </c>
       <c r="J69" t="n">
         <v>0.401722</v>
@@ -6970,16 +6970,16 @@
         <v>0.378518</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.01090756161456413</v>
+        <v>-0.01077799904209009</v>
       </c>
       <c r="M69" t="n">
-        <v>-2.78366</v>
+        <v>-2.75401</v>
       </c>
       <c r="N69" t="n">
-        <v>-55092979.69243836</v>
+        <v>-56114142.07519317</v>
       </c>
       <c r="O69" t="n">
-        <v>-3.03715</v>
+        <v>-3.09493</v>
       </c>
       <c r="P69" t="n">
         <v>4617913336</v>
@@ -6994,7 +6994,7 @@
         <v>2.39</v>
       </c>
       <c r="T69" t="n">
-        <v>-83.99233</v>
+        <v>-84.07778</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>0.301972</v>
       </c>
       <c r="W69" t="n">
-        <v>26.71</v>
+        <v>26.03362</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:29.003Z</t>
+          <t>2025-03-26T23:04:43.149Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7047,16 +7047,16 @@
         <v>4.02</v>
       </c>
       <c r="F70" t="n">
-        <v>1728930615</v>
+        <v>1729810367</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>3501087981</v>
+        <v>3502869481</v>
       </c>
       <c r="I70" t="n">
-        <v>50339958</v>
+        <v>50383955</v>
       </c>
       <c r="J70" t="n">
         <v>4.04</v>
@@ -7065,16 +7065,16 @@
         <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0049846</v>
+        <v>0.00694555</v>
       </c>
       <c r="M70" t="n">
-        <v>0.12409</v>
+        <v>0.17292</v>
       </c>
       <c r="N70" t="n">
-        <v>-729279.7026085854</v>
+        <v>754546</v>
       </c>
       <c r="O70" t="n">
-        <v>-0.04216</v>
+        <v>0.04364</v>
       </c>
       <c r="P70" t="n">
         <v>429995837</v>
@@ -7089,7 +7089,7 @@
         <v>4.07</v>
       </c>
       <c r="T70" t="n">
-        <v>-1.29996</v>
+        <v>-1.22702</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>0.398142</v>
       </c>
       <c r="W70" t="n">
-        <v>909.80161</v>
+        <v>910.5479</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.699Z</t>
+          <t>2025-03-26T23:04:46.680Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7139,19 +7139,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.001</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1573545439</v>
+        <v>1572286353</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>1573545439</v>
+        <v>1572286353</v>
       </c>
       <c r="I71" t="n">
-        <v>68606435</v>
+        <v>67098509</v>
       </c>
       <c r="J71" t="n">
         <v>1.003</v>
@@ -7160,29 +7160,29 @@
         <v>0.99616</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0004478</v>
+        <v>0.00252813</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04476</v>
+        <v>0.25344</v>
       </c>
       <c r="N71" t="n">
-        <v>-8776880.964536905</v>
+        <v>-10265898.84705138</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.55468</v>
+        <v>-0.64869</v>
       </c>
       <c r="P71" t="n">
-        <v>1572174579.838518</v>
+        <v>1572174719.838518</v>
       </c>
       <c r="Q71" t="n">
-        <v>1572174579.838518</v>
+        <v>1572174719.838518</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
         <v>1.052</v>
       </c>
       <c r="T71" t="n">
-        <v>-5.02554</v>
+        <v>-4.91446</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>0.975737</v>
       </c>
       <c r="W71" t="n">
-        <v>2.40129</v>
+        <v>2.52105</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.204Z</t>
+          <t>2025-03-26T23:04:49.907Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7232,50 +7232,50 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="F72" t="n">
-        <v>1486343515</v>
+        <v>1476276167</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>5759098196</v>
+        <v>5720037918</v>
       </c>
       <c r="I72" t="n">
-        <v>76967942</v>
+        <v>79039816</v>
       </c>
       <c r="J72" t="n">
         <v>6.33</v>
       </c>
       <c r="K72" t="n">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.415237133738465</v>
+        <v>-0.4927089565432574</v>
       </c>
       <c r="M72" t="n">
-        <v>-6.74032</v>
+        <v>-7.94027</v>
       </c>
       <c r="N72" t="n">
-        <v>-95958263.66041231</v>
+        <v>-126675556.1550777</v>
       </c>
       <c r="O72" t="n">
-        <v>-6.06447</v>
+        <v>-7.90264</v>
       </c>
       <c r="P72" t="n">
-        <v>258480207.25</v>
+        <v>258483401.03</v>
       </c>
       <c r="Q72" t="n">
-        <v>1001526821.05</v>
+        <v>1001529990.21</v>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
         <v>7.31</v>
       </c>
       <c r="T72" t="n">
-        <v>-21.38817</v>
+        <v>-21.8144</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>474.76123</v>
+        <v>471.64485</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:26.872Z</t>
+          <t>2025-03-26T23:04:46.345Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7325,19 +7325,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.538204</v>
+        <v>0.538125</v>
       </c>
       <c r="F73" t="n">
-        <v>1447259463</v>
+        <v>1447313269</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>3764815781</v>
+        <v>3764955750</v>
       </c>
       <c r="I73" t="n">
-        <v>78104904</v>
+        <v>76370980</v>
       </c>
       <c r="J73" t="n">
         <v>0.578032</v>
@@ -7346,16 +7346,16 @@
         <v>0.534923</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.02108279960753368</v>
+        <v>-0.02113010329211451</v>
       </c>
       <c r="M73" t="n">
-        <v>-3.76958</v>
+        <v>-3.77826</v>
       </c>
       <c r="N73" t="n">
-        <v>-61527757.71292973</v>
+        <v>-61451709.78126621</v>
       </c>
       <c r="O73" t="n">
-        <v>-4.07796</v>
+        <v>-4.07298</v>
       </c>
       <c r="P73" t="n">
         <v>2690911111.1</v>
@@ -7370,7 +7370,7 @@
         <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>-73.00311000000001</v>
+        <v>-73.10509999999999</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>0.454413</v>
       </c>
       <c r="W73" t="n">
-        <v>18.82174</v>
+        <v>18.37285</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:24.965Z</t>
+          <t>2025-03-26T23:04:49.085Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7420,19 +7420,19 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.552498</v>
+        <v>0.551841</v>
       </c>
       <c r="F74" t="n">
-        <v>1439153668</v>
+        <v>1436790424</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1499668002</v>
+        <v>1497205387</v>
       </c>
       <c r="I74" t="n">
-        <v>125909473</v>
+        <v>123096149</v>
       </c>
       <c r="J74" t="n">
         <v>0.582371</v>
@@ -7441,16 +7441,16 @@
         <v>0.54332</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.01117939487858099</v>
+        <v>-0.009076492799689029</v>
       </c>
       <c r="M74" t="n">
-        <v>-1.9833</v>
+        <v>-1.61815</v>
       </c>
       <c r="N74" t="n">
-        <v>-29210293.96496177</v>
+        <v>-30795043.76194215</v>
       </c>
       <c r="O74" t="n">
-        <v>-1.98931</v>
+        <v>-2.09835</v>
       </c>
       <c r="P74" t="n">
         <v>2604959126.672</v>
@@ -7465,7 +7465,7 @@
         <v>3.45</v>
       </c>
       <c r="T74" t="n">
-        <v>-83.9366</v>
+        <v>-84.03308</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>0.008169589999999999</v>
       </c>
       <c r="W74" t="n">
-        <v>6691.69206</v>
+        <v>6650.90195</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7486,11 +7486,11 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.067Z</t>
+          <t>2025-03-26T23:04:47.672Z</t>
         </is>
       </c>
       <c r="AA74" t="n">
-        <v>5.372520419725426</v>
+        <v>5.364951900665212</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>537.2520419725425</v>
+        <v>536.4951900665212</v>
       </c>
     </row>
     <row r="75">
@@ -7523,19 +7523,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.885185</v>
+        <v>0.883188</v>
       </c>
       <c r="F75" t="n">
-        <v>1434271493</v>
+        <v>1431134862</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>3800905126</v>
+        <v>3792592866</v>
       </c>
       <c r="I75" t="n">
-        <v>103043473</v>
+        <v>98936798</v>
       </c>
       <c r="J75" t="n">
         <v>0.928894</v>
@@ -7544,16 +7544,16 @@
         <v>0.876962</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.02307331604727647</v>
+        <v>-0.02089929721131578</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.54039</v>
+        <v>-2.31165</v>
       </c>
       <c r="N75" t="n">
-        <v>-38263670.92887092</v>
+        <v>-38613389.70175219</v>
       </c>
       <c r="O75" t="n">
-        <v>-2.59849</v>
+        <v>-2.62721</v>
       </c>
       <c r="P75" t="n">
         <v>1620705846</v>
@@ -7568,7 +7568,7 @@
         <v>4.84</v>
       </c>
       <c r="T75" t="n">
-        <v>-81.60847</v>
+        <v>-81.77076</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>0.402159</v>
       </c>
       <c r="W75" t="n">
-        <v>121.5398</v>
+        <v>119.58495</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.680Z</t>
+          <t>2025-03-26T23:04:42.884Z</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr"/>
@@ -7618,19 +7618,19 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11.29</v>
+        <v>11.24</v>
       </c>
       <c r="F76" t="n">
-        <v>1382166636</v>
+        <v>1379098537</v>
       </c>
       <c r="G76" t="n">
         <v>75</v>
       </c>
       <c r="H76" t="n">
-        <v>1607712794</v>
+        <v>1604144033</v>
       </c>
       <c r="I76" t="n">
-        <v>84299</v>
+        <v>65934</v>
       </c>
       <c r="J76" t="n">
         <v>11.38</v>
@@ -7639,16 +7639,16 @@
         <v>11.2</v>
       </c>
       <c r="L76" t="n">
-        <v>0.01939717</v>
+        <v>0.03950616</v>
       </c>
       <c r="M76" t="n">
-        <v>0.1721</v>
+        <v>0.35277</v>
       </c>
       <c r="N76" t="n">
-        <v>-756435.2732880116</v>
+        <v>1623333</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.0547</v>
+        <v>0.11785</v>
       </c>
       <c r="P76" t="n">
         <v>122561753.8513356</v>
@@ -7661,7 +7661,7 @@
         <v>28.83</v>
       </c>
       <c r="T76" t="n">
-        <v>-60.85896</v>
+        <v>-60.96077</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>0.342863</v>
       </c>
       <c r="W76" t="n">
-        <v>3191.20299</v>
+        <v>3182.64209</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:25.621Z</t>
+          <t>2025-03-26T23:04:49.752Z</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr"/>
@@ -7711,19 +7711,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>86874</v>
+        <v>86618</v>
       </c>
       <c r="F77" t="n">
-        <v>1355580708</v>
+        <v>1352166513</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>1355606959</v>
+        <v>1352192699</v>
       </c>
       <c r="I77" t="n">
-        <v>2561999</v>
+        <v>2732795</v>
       </c>
       <c r="J77" t="n">
         <v>88152</v>
@@ -7732,22 +7732,22 @@
         <v>86024</v>
       </c>
       <c r="L77" t="n">
-        <v>-535.8796702192922</v>
+        <v>-616.9701430145506</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.61306</v>
+        <v>-0.70725</v>
       </c>
       <c r="N77" t="n">
-        <v>-20967241.97397709</v>
+        <v>-24186363.27895427</v>
       </c>
       <c r="O77" t="n">
-        <v>-1.52318</v>
+        <v>-1.75728</v>
       </c>
       <c r="P77" t="n">
         <v>15607.19629536914</v>
       </c>
       <c r="Q77" t="n">
-        <v>15607.49853169915</v>
+        <v>15607.49854210915</v>
       </c>
       <c r="R77" t="n">
         <v>21000000</v>
@@ -7756,7 +7756,7 @@
         <v>108929</v>
       </c>
       <c r="T77" t="n">
-        <v>-20.34471</v>
+        <v>-20.35466</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>49058</v>
       </c>
       <c r="W77" t="n">
-        <v>76.86881</v>
+        <v>76.84672</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.401Z</t>
+          <t>2025-03-26T23:04:45.307Z</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr"/>
@@ -7806,19 +7806,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.513981</v>
+        <v>0.513868</v>
       </c>
       <c r="F78" t="n">
-        <v>1259564750</v>
+        <v>1259253040</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>5141080613</v>
+        <v>5139808325</v>
       </c>
       <c r="I78" t="n">
-        <v>205560794</v>
+        <v>331853171</v>
       </c>
       <c r="J78" t="n">
         <v>0.587261</v>
@@ -7827,16 +7827,16 @@
         <v>0.506267</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.04051630247932081</v>
+        <v>-0.05574988755171406</v>
       </c>
       <c r="M78" t="n">
-        <v>-7.30686</v>
+        <v>-9.787240000000001</v>
       </c>
       <c r="N78" t="n">
-        <v>-98783818.08898735</v>
+        <v>-126045332.6193626</v>
       </c>
       <c r="O78" t="n">
-        <v>-7.27235</v>
+        <v>-9.098789999999999</v>
       </c>
       <c r="P78" t="n">
         <v>2450000000</v>
@@ -7851,7 +7851,7 @@
         <v>1.45</v>
       </c>
       <c r="T78" t="n">
-        <v>-64.36251</v>
+        <v>-64.33344</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>0.378282</v>
       </c>
       <c r="W78" t="n">
-        <v>36.58955</v>
+        <v>36.70095</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.442Z</t>
+          <t>2025-03-26T23:04:41.602Z</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr"/>
@@ -7901,19 +7901,19 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2001.94</v>
+        <v>2000.25</v>
       </c>
       <c r="F79" t="n">
-        <v>1211121926</v>
+        <v>1210608290</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>1211121926</v>
+        <v>1210608290</v>
       </c>
       <c r="I79" t="n">
-        <v>20027656</v>
+        <v>20004835</v>
       </c>
       <c r="J79" t="n">
         <v>2077.53</v>
@@ -7922,16 +7922,16 @@
         <v>1989.58</v>
       </c>
       <c r="L79" t="n">
-        <v>-56.39366793400904</v>
+        <v>-60.85083959987651</v>
       </c>
       <c r="M79" t="n">
-        <v>-2.73977</v>
+        <v>-2.95235</v>
       </c>
       <c r="N79" t="n">
-        <v>-36465510.007761</v>
+        <v>-38151188.91996431</v>
       </c>
       <c r="O79" t="n">
-        <v>-2.92288</v>
+        <v>-3.05513</v>
       </c>
       <c r="P79" t="n">
         <v>604999.999959841</v>
@@ -7944,7 +7944,7 @@
         <v>4098.26</v>
       </c>
       <c r="T79" t="n">
-        <v>-51.1169</v>
+        <v>-51.1754</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>1790.63</v>
       </c>
       <c r="W79" t="n">
-        <v>11.88003</v>
+        <v>11.74616</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.062Z</t>
+          <t>2025-03-26T23:04:44.347Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -7994,19 +7994,19 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2081.39</v>
+        <v>2080.35</v>
       </c>
       <c r="F80" t="n">
-        <v>1200322938</v>
+        <v>1199892939</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>1200322938</v>
+        <v>1199892939</v>
       </c>
       <c r="I80" t="n">
-        <v>3789945</v>
+        <v>3830421</v>
       </c>
       <c r="J80" t="n">
         <v>2163.34</v>
@@ -8015,16 +8015,16 @@
         <v>2068</v>
       </c>
       <c r="L80" t="n">
-        <v>-63.13025639600892</v>
+        <v>-59.83659768858251</v>
       </c>
       <c r="M80" t="n">
-        <v>-2.9438</v>
+        <v>-2.79585</v>
       </c>
       <c r="N80" t="n">
-        <v>-38094618.4577024</v>
+        <v>-39910025.43755126</v>
       </c>
       <c r="O80" t="n">
-        <v>-3.07607</v>
+        <v>-3.21906</v>
       </c>
       <c r="P80" t="n">
         <v>576776.5193583765</v>
@@ -8037,7 +8037,7 @@
         <v>4216.2</v>
       </c>
       <c r="T80" t="n">
-        <v>-50.42825</v>
+        <v>-50.65625</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>1862.59</v>
       </c>
       <c r="W80" t="n">
-        <v>12.21154</v>
+        <v>11.69543</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.396Z</t>
+          <t>2025-03-26T23:04:49.753Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8087,43 +8087,43 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1377.63</v>
+        <v>1376.53</v>
       </c>
       <c r="F81" t="n">
-        <v>1167332658</v>
+        <v>1166200179</v>
       </c>
       <c r="G81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" t="n">
-        <v>1203435588</v>
+        <v>1202265131</v>
       </c>
       <c r="I81" t="n">
-        <v>111768273</v>
+        <v>114315055</v>
       </c>
       <c r="J81" t="n">
         <v>1382.34</v>
       </c>
       <c r="K81" t="n">
-        <v>1276.88</v>
+        <v>1278.73</v>
       </c>
       <c r="L81" t="n">
-        <v>99.84999999999999</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="M81" t="n">
-        <v>7.81409</v>
+        <v>7.55383</v>
       </c>
       <c r="N81" t="n">
-        <v>81871398</v>
+        <v>81607230</v>
       </c>
       <c r="O81" t="n">
-        <v>7.54254</v>
+        <v>7.52423</v>
       </c>
       <c r="P81" t="n">
-        <v>847819.2908845365</v>
+        <v>847813.8623325082</v>
       </c>
       <c r="Q81" t="n">
-        <v>874040.4031988947</v>
+        <v>874032.6596391535</v>
       </c>
       <c r="R81" t="n">
         <v>1005577</v>
@@ -8132,7 +8132,7 @@
         <v>6292.31</v>
       </c>
       <c r="T81" t="n">
-        <v>-78.06241</v>
+        <v>-78.14910999999999</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>168.36</v>
       </c>
       <c r="W81" t="n">
-        <v>719.91096</v>
+        <v>716.67075</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:27.285Z</t>
+          <t>2025-03-26T23:04:50.659Z</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr"/>
@@ -8182,19 +8182,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="F82" t="n">
-        <v>1164217527</v>
+        <v>1165484374</v>
       </c>
       <c r="G82" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H82" t="n">
-        <v>1164217527</v>
+        <v>1165484374</v>
       </c>
       <c r="I82" t="n">
-        <v>13094821</v>
+        <v>13036571</v>
       </c>
       <c r="J82" t="n">
         <v>1.18</v>
@@ -8203,16 +8203,16 @@
         <v>1.15</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00481566</v>
+        <v>0.00878581</v>
       </c>
       <c r="M82" t="n">
-        <v>0.41538</v>
+        <v>0.75943</v>
       </c>
       <c r="N82" t="n">
-        <v>4737587</v>
+        <v>6715842</v>
       </c>
       <c r="O82" t="n">
-        <v>0.4086</v>
+        <v>0.57957</v>
       </c>
       <c r="P82" t="n">
         <v>1000000000</v>
@@ -8227,7 +8227,7 @@
         <v>4.07</v>
       </c>
       <c r="T82" t="n">
-        <v>-71.315</v>
+        <v>-71.34775999999999</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>0.04515276</v>
       </c>
       <c r="W82" t="n">
-        <v>2484.33228</v>
+        <v>2481.38105</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8248,11 +8248,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.196Z</t>
+          <t>2025-03-26T23:04:41.198Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>10.64154678146034</v>
+        <v>10.65681002096562</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>1064.154678146034</v>
+        <v>1065.681002096562</v>
       </c>
     </row>
     <row r="83">
@@ -8285,37 +8285,37 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.648043</v>
+        <v>0.643312</v>
       </c>
       <c r="F83" t="n">
-        <v>1162858829</v>
+        <v>1153267335</v>
       </c>
       <c r="G83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>1297229229</v>
+        <v>1286529421</v>
       </c>
       <c r="I83" t="n">
-        <v>84638315</v>
+        <v>81225438</v>
       </c>
       <c r="J83" t="n">
-        <v>0.72368</v>
+        <v>0.722154</v>
       </c>
       <c r="K83" t="n">
         <v>0.638386</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.07245257333599975</v>
+        <v>-0.05749963899848609</v>
       </c>
       <c r="M83" t="n">
-        <v>-10.05594</v>
+        <v>-8.20472</v>
       </c>
       <c r="N83" t="n">
-        <v>-134368818.4074638</v>
+        <v>-102145128.2669568</v>
       </c>
       <c r="O83" t="n">
-        <v>-10.35815</v>
+        <v>-8.136380000000001</v>
       </c>
       <c r="P83" t="n">
         <v>1792834764.389814</v>
@@ -8330,7 +8330,7 @@
         <v>9.52</v>
       </c>
       <c r="T83" t="n">
-        <v>-93.17677</v>
+        <v>-93.2435</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>0.378055</v>
       </c>
       <c r="W83" t="n">
-        <v>71.81816999999999</v>
+        <v>70.13782</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.360Z</t>
+          <t>2025-03-26T23:04:48.244Z</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr"/>
@@ -8380,50 +8380,50 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.07185</v>
       </c>
       <c r="F84" t="n">
-        <v>1127828285</v>
+        <v>1127734668</v>
       </c>
       <c r="G84" t="n">
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>2728844454</v>
+        <v>2728617047</v>
       </c>
       <c r="I84" t="n">
-        <v>19592946</v>
+        <v>19165472</v>
       </c>
       <c r="J84" t="n">
-        <v>0.07446999999999999</v>
+        <v>0.074265</v>
       </c>
       <c r="K84" t="n">
-        <v>0.071853</v>
+        <v>0.07179000000000001</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.002570147888409702</v>
+        <v>-0.002128158846008324</v>
       </c>
       <c r="M84" t="n">
-        <v>-3.45127</v>
+        <v>-2.87672</v>
       </c>
       <c r="N84" t="n">
-        <v>-44596168.45474195</v>
+        <v>-34606607.65976214</v>
       </c>
       <c r="O84" t="n">
-        <v>-3.80376</v>
+        <v>-2.97732</v>
       </c>
       <c r="P84" t="n">
-        <v>15697527852.9</v>
+        <v>15697537365.6</v>
       </c>
       <c r="Q84" t="n">
-        <v>37981058282.4</v>
+        <v>37981068832.95</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
         <v>0.192754</v>
       </c>
       <c r="T84" t="n">
-        <v>-62.52598</v>
+        <v>-62.73623</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>0.00039532</v>
       </c>
       <c r="W84" t="n">
-        <v>18172.05353</v>
+        <v>18069.53505</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8444,11 +8444,11 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.537Z</t>
+          <t>2025-03-26T23:04:50.088Z</t>
         </is>
       </c>
       <c r="AA84" t="n">
-        <v>3.774379049218524</v>
+        <v>3.774110003958697</v>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="AC84" t="n">
-        <v>377.4379049218524</v>
+        <v>377.4110003958697</v>
       </c>
     </row>
     <row r="85">
@@ -8481,19 +8481,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.935134</v>
+        <v>0.932733</v>
       </c>
       <c r="F85" t="n">
-        <v>1124144787</v>
+        <v>1122042438</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>9351142809</v>
+        <v>9333654524</v>
       </c>
       <c r="I85" t="n">
-        <v>137801203</v>
+        <v>124026122</v>
       </c>
       <c r="J85" t="n">
         <v>0.975534</v>
@@ -8502,16 +8502,16 @@
         <v>0.924204</v>
       </c>
       <c r="L85" t="n">
-        <v>0.00178922</v>
+        <v>0.008065360000000001</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1917</v>
+        <v>0.87224</v>
       </c>
       <c r="N85" t="n">
-        <v>3101051</v>
+        <v>6864090</v>
       </c>
       <c r="O85" t="n">
-        <v>0.27662</v>
+        <v>0.61551</v>
       </c>
       <c r="P85" t="n">
         <v>1202146956.802283</v>
@@ -8526,7 +8526,7 @@
         <v>11.74</v>
       </c>
       <c r="T85" t="n">
-        <v>-91.99627</v>
+        <v>-92.0504</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>0.708589</v>
       </c>
       <c r="W85" t="n">
-        <v>32.61383</v>
+        <v>31.71694</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:35.211Z</t>
+          <t>2025-03-26T23:04:49.765Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8576,19 +8576,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>76.44</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>1111781625</v>
+        <v>1109531223</v>
       </c>
       <c r="G86" t="n">
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>1117003880</v>
+        <v>1114742907</v>
       </c>
       <c r="I86" t="n">
-        <v>25714502</v>
+        <v>25376605</v>
       </c>
       <c r="J86" t="n">
         <v>80.13</v>
@@ -8597,16 +8597,16 @@
         <v>75.78</v>
       </c>
       <c r="L86" t="n">
-        <v>-2.063532941501336</v>
+        <v>-2.861582462072846</v>
       </c>
       <c r="M86" t="n">
-        <v>-2.62869</v>
+        <v>-3.61415</v>
       </c>
       <c r="N86" t="n">
-        <v>-33219900.05470037</v>
+        <v>-45482776.77787924</v>
       </c>
       <c r="O86" t="n">
-        <v>-2.9013</v>
+        <v>-3.93786</v>
       </c>
       <c r="P86" t="n">
         <v>14544176.16409109</v>
@@ -8621,7 +8621,7 @@
         <v>427.42</v>
       </c>
       <c r="T86" t="n">
-        <v>-81.99518</v>
+        <v>-82.14952</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>0.215773</v>
       </c>
       <c r="W86" t="n">
-        <v>35565.49654</v>
+        <v>35259.77728</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8642,11 +8642,11 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.712Z</t>
+          <t>2025-03-26T23:04:44.099Z</t>
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>15.40821075786521</v>
+        <v>15.39692447701502</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>1540.821075786521</v>
+        <v>1539.692447701502</v>
       </c>
     </row>
     <row r="87">
@@ -8679,19 +8679,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.7221030000000001</v>
+        <v>0.7214469999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>1094371274</v>
+        <v>1093876216</v>
       </c>
       <c r="G87" t="n">
         <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>1094371274</v>
+        <v>1093876216</v>
       </c>
       <c r="I87" t="n">
-        <v>79167224</v>
+        <v>79743161</v>
       </c>
       <c r="J87" t="n">
         <v>0.753172</v>
@@ -8700,22 +8700,22 @@
         <v>0.694522</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0254785</v>
+        <v>0.02521943</v>
       </c>
       <c r="M87" t="n">
-        <v>3.65742</v>
+        <v>3.6223</v>
       </c>
       <c r="N87" t="n">
-        <v>34720197</v>
+        <v>36748661</v>
       </c>
       <c r="O87" t="n">
-        <v>3.27657</v>
+        <v>3.47627</v>
       </c>
       <c r="P87" t="n">
-        <v>1518689942.52862</v>
+        <v>1518704928.06824</v>
       </c>
       <c r="Q87" t="n">
-        <v>1518689942.52862</v>
+        <v>1518704928.06824</v>
       </c>
       <c r="R87" t="n">
         <v>1818000000</v>
@@ -8724,7 +8724,7 @@
         <v>3.86</v>
       </c>
       <c r="T87" t="n">
-        <v>-81.24328</v>
+        <v>-81.3733</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>0.04559639</v>
       </c>
       <c r="W87" t="n">
-        <v>1489.64389</v>
+        <v>1478.62414</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8745,11 +8745,11 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:31.290Z</t>
+          <t>2025-03-26T23:04:44.518Z</t>
         </is>
       </c>
       <c r="AA87" t="n">
-        <v>5.017527705031902</v>
+        <v>5.01205572656901</v>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
@@ -8757,98 +8757,96 @@
         </is>
       </c>
       <c r="AC87" t="n">
-        <v>501.7527705031903</v>
+        <v>501.205572656901</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.407e-05</v>
+        <v>142.75</v>
       </c>
       <c r="F88" t="n">
-        <v>1091759864</v>
+        <v>1091146839</v>
       </c>
       <c r="G88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>1252955540</v>
+        <v>1091146839</v>
       </c>
       <c r="I88" t="n">
-        <v>159581211</v>
+        <v>3793721</v>
       </c>
       <c r="J88" t="n">
-        <v>1.539e-05</v>
+        <v>151.58</v>
       </c>
       <c r="K88" t="n">
-        <v>1.377e-05</v>
+        <v>142.43</v>
       </c>
       <c r="L88" t="n">
-        <v>1.54949e-07</v>
+        <v>-6.782226333980816</v>
       </c>
       <c r="M88" t="n">
-        <v>1.11326</v>
+        <v>-4.53575</v>
       </c>
       <c r="N88" t="n">
-        <v>13627402</v>
+        <v>-45543553.86948109</v>
       </c>
       <c r="O88" t="n">
-        <v>1.26398</v>
+        <v>-4.00668</v>
       </c>
       <c r="P88" t="n">
-        <v>77419592329436.58</v>
+        <v>7644849.476916068</v>
       </c>
       <c r="Q88" t="n">
-        <v>88850405926625.36</v>
-      </c>
-      <c r="R88" t="n">
-        <v>88850405926625.36</v>
-      </c>
+        <v>7644849.476916068</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>5.825e-05</v>
+        <v>297.96</v>
       </c>
       <c r="T88" t="n">
-        <v>-75.65419</v>
+        <v>-52.12404</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2024-11-20T04:01:06.465Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V88" t="n">
-        <v>8.6142e-08</v>
+        <v>118.29</v>
       </c>
       <c r="W88" t="n">
-        <v>16362.8148</v>
+        <v>20.58912</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2022-12-29T22:48:46.755Z</t>
+          <t>2025-03-11T01:11:46.882Z</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.151Z</t>
+          <t>2025-03-26T23:04:42.750Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8858,90 +8856,92 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>142.79</v>
+        <v>1.399e-05</v>
       </c>
       <c r="F89" t="n">
-        <v>1091672094</v>
+        <v>1083011813</v>
       </c>
       <c r="G89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>1091672094</v>
+        <v>1242915860</v>
       </c>
       <c r="I89" t="n">
-        <v>3832450</v>
+        <v>162065741</v>
       </c>
       <c r="J89" t="n">
-        <v>151.58</v>
+        <v>1.539e-05</v>
       </c>
       <c r="K89" t="n">
-        <v>142.73</v>
+        <v>1.377e-05</v>
       </c>
       <c r="L89" t="n">
-        <v>-6.902698420981125</v>
+        <v>9.346299999999999e-08</v>
       </c>
       <c r="M89" t="n">
-        <v>-4.61122</v>
+        <v>0.6726</v>
       </c>
       <c r="N89" t="n">
-        <v>-46498616.08932519</v>
+        <v>4986577</v>
       </c>
       <c r="O89" t="n">
-        <v>-4.08538</v>
+        <v>0.46257</v>
       </c>
       <c r="P89" t="n">
-        <v>7644849.476916068</v>
+        <v>77419592329436.58</v>
       </c>
       <c r="Q89" t="n">
-        <v>7644849.476916068</v>
-      </c>
-      <c r="R89" t="inlineStr"/>
+        <v>88850405926625.36</v>
+      </c>
+      <c r="R89" t="n">
+        <v>88850405926625.36</v>
+      </c>
       <c r="S89" t="n">
-        <v>297.96</v>
+        <v>5.825e-05</v>
       </c>
       <c r="T89" t="n">
-        <v>-51.84494</v>
+        <v>-75.98264</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2024-11-20T04:01:06.465Z</t>
         </is>
       </c>
       <c r="V89" t="n">
-        <v>118.29</v>
+        <v>8.6142e-08</v>
       </c>
       <c r="W89" t="n">
-        <v>21.29212</v>
+        <v>16140.71196</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2025-03-11T01:11:46.882Z</t>
+          <t>2022-12-29T22:48:46.755Z</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.273Z</t>
+          <t>2025-03-26T23:04:45.123Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8970,19 +8970,19 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.9988320000000001</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>1034618763</v>
+        <v>1035351471</v>
       </c>
       <c r="G90" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H90" t="n">
-        <v>1034618763</v>
+        <v>1037544770</v>
       </c>
       <c r="I90" t="n">
-        <v>10787048</v>
+        <v>10864616</v>
       </c>
       <c r="J90" t="n">
         <v>1.004</v>
@@ -8991,29 +8991,29 @@
         <v>0.994471</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0001682</v>
+        <v>0.0009137699999999999</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01684</v>
+        <v>0.09143</v>
       </c>
       <c r="N90" t="n">
-        <v>26038448</v>
+        <v>19613808</v>
       </c>
       <c r="O90" t="n">
-        <v>2.58169</v>
+        <v>1.93099</v>
       </c>
       <c r="P90" t="n">
         <v>1035679075.885129</v>
       </c>
       <c r="Q90" t="n">
-        <v>1035679075.885129</v>
+        <v>1037873069.009786</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
         <v>1.031</v>
       </c>
       <c r="T90" t="n">
-        <v>-3.06196</v>
+        <v>-2.97073</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>0.97659</v>
       </c>
       <c r="W90" t="n">
-        <v>2.31708</v>
+        <v>2.41337</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.619Z</t>
+          <t>2025-03-26T23:04:46.077Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9063,19 +9063,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.57</v>
+        <v>10.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1032654002</v>
+        <v>1035238840</v>
       </c>
       <c r="G91" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91" t="n">
-        <v>1056669778</v>
+        <v>1059314730</v>
       </c>
       <c r="I91" t="n">
-        <v>134719738</v>
+        <v>129777391</v>
       </c>
       <c r="J91" t="n">
         <v>11.06</v>
@@ -9084,16 +9084,16 @@
         <v>10.48</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.1134609010426502</v>
+        <v>-0.05103570698870818</v>
       </c>
       <c r="M91" t="n">
-        <v>-1.06198</v>
+        <v>-0.47932</v>
       </c>
       <c r="N91" t="n">
-        <v>-15260114.5291127</v>
+        <v>-6333100.364189386</v>
       </c>
       <c r="O91" t="n">
-        <v>-1.45624</v>
+        <v>-0.60803</v>
       </c>
       <c r="P91" t="n">
         <v>97727220.33</v>
@@ -9106,7 +9106,7 @@
         <v>52.62</v>
       </c>
       <c r="T91" t="n">
-        <v>-79.80694</v>
+        <v>-79.88129000000001</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>0.657401</v>
       </c>
       <c r="W91" t="n">
-        <v>1516.32315</v>
+        <v>1510.37182</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:37.009Z</t>
+          <t>2025-03-26T23:04:49.278Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9156,19 +9156,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.208887</v>
+        <v>0.2081</v>
       </c>
       <c r="F92" t="n">
-        <v>1019022858</v>
+        <v>1016176527</v>
       </c>
       <c r="G92" t="n">
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>2087151758</v>
+        <v>2081321935</v>
       </c>
       <c r="I92" t="n">
-        <v>82857497</v>
+        <v>75896530</v>
       </c>
       <c r="J92" t="n">
         <v>0.217847</v>
@@ -9177,16 +9177,16 @@
         <v>0.205156</v>
       </c>
       <c r="L92" t="n">
-        <v>0.00123469</v>
+        <v>0.00106259</v>
       </c>
       <c r="M92" t="n">
-        <v>0.5946</v>
+        <v>0.51324</v>
       </c>
       <c r="N92" t="n">
-        <v>6094472</v>
+        <v>3043682</v>
       </c>
       <c r="O92" t="n">
-        <v>0.60167</v>
+        <v>0.30042</v>
       </c>
       <c r="P92" t="n">
         <v>4882361111</v>
@@ -9199,7 +9199,7 @@
         <v>1.14</v>
       </c>
       <c r="T92" t="n">
-        <v>-81.60465000000001</v>
+        <v>-81.74173</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>0.095364</v>
       </c>
       <c r="W92" t="n">
-        <v>119.84773</v>
+        <v>118.20951</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.022Z</t>
+          <t>2025-03-26T23:04:45.745Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9249,19 +9249,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.997912</v>
+        <v>1.002</v>
       </c>
       <c r="F93" t="n">
-        <v>998014496</v>
+        <v>1001726196</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>998014496</v>
+        <v>1001726196</v>
       </c>
       <c r="I93" t="n">
-        <v>21911733</v>
+        <v>20225240</v>
       </c>
       <c r="J93" t="n">
         <v>1.025</v>
@@ -9270,16 +9270,16 @@
         <v>0.979498</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01153448</v>
+        <v>0.0159396</v>
       </c>
       <c r="M93" t="n">
-        <v>1.16938</v>
+        <v>1.61718</v>
       </c>
       <c r="N93" t="n">
-        <v>11130373</v>
+        <v>13032034</v>
       </c>
       <c r="O93" t="n">
-        <v>1.12783</v>
+        <v>1.31811</v>
       </c>
       <c r="P93" t="n">
         <v>1000000000</v>
@@ -9294,7 +9294,7 @@
         <v>15.72</v>
       </c>
       <c r="T93" t="n">
-        <v>-93.62365</v>
+        <v>-93.63171</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>0.04039979</v>
       </c>
       <c r="W93" t="n">
-        <v>2381.06285</v>
+        <v>2377.92681</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9315,11 +9315,11 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.109Z</t>
+          <t>2025-03-26T23:04:47.621Z</t>
         </is>
       </c>
       <c r="AA93" t="n">
-        <v>5.652744635074379</v>
+        <v>5.677206187136107</v>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="AC93" t="n">
-        <v>565.274463507438</v>
+        <v>567.7206187136106</v>
       </c>
     </row>
     <row r="94">
@@ -9352,19 +9352,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.42</v>
+        <v>17.44</v>
       </c>
       <c r="F94" t="n">
-        <v>994860377</v>
+        <v>995443778</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>1681300453</v>
+        <v>1682286393</v>
       </c>
       <c r="I94" t="n">
-        <v>6563741</v>
+        <v>6469610</v>
       </c>
       <c r="J94" t="n">
         <v>17.61</v>
@@ -9373,16 +9373,16 @@
         <v>17.28</v>
       </c>
       <c r="L94" t="n">
-        <v>0.058798</v>
+        <v>0.01515162</v>
       </c>
       <c r="M94" t="n">
-        <v>0.33873</v>
+        <v>0.08696</v>
       </c>
       <c r="N94" t="n">
-        <v>2324016</v>
+        <v>389941</v>
       </c>
       <c r="O94" t="n">
-        <v>0.23415</v>
+        <v>0.03919</v>
       </c>
       <c r="P94" t="n">
         <v>57103774.56313077</v>
@@ -9395,7 +9395,7 @@
         <v>32.38</v>
       </c>
       <c r="T94" t="n">
-        <v>-46.16775</v>
+        <v>-46.19499</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>0.671563</v>
       </c>
       <c r="W94" t="n">
-        <v>2495.64459</v>
+        <v>2494.33097</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:33.160Z</t>
+          <t>2025-03-26T23:04:45.544Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9445,19 +9445,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.103936</v>
+        <v>0.104182</v>
       </c>
       <c r="F95" t="n">
-        <v>991906425</v>
+        <v>994816811</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>1120663506</v>
+        <v>1123951683</v>
       </c>
       <c r="I95" t="n">
-        <v>41278350</v>
+        <v>39919568</v>
       </c>
       <c r="J95" t="n">
         <v>0.108275</v>
@@ -9466,16 +9466,16 @@
         <v>0.102995</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.001495659233323246</v>
+        <v>-0.000431360230165767</v>
       </c>
       <c r="M95" t="n">
-        <v>-1.41861</v>
+        <v>-0.41234</v>
       </c>
       <c r="N95" t="n">
-        <v>-17434698.42725086</v>
+        <v>-7733565.297994494</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.72733</v>
+        <v>-0.77139</v>
       </c>
       <c r="P95" t="n">
         <v>9548531509.16547</v>
@@ -9490,7 +9490,7 @@
         <v>2.84</v>
       </c>
       <c r="T95" t="n">
-        <v>-96.32763</v>
+        <v>-96.33525</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>0.052051</v>
       </c>
       <c r="W95" t="n">
-        <v>100.47745</v>
+        <v>100.06163</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:30.886Z</t>
+          <t>2025-03-26T23:04:48.236Z</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
@@ -9540,19 +9540,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2267.16</v>
+        <v>2266.46</v>
       </c>
       <c r="F96" t="n">
-        <v>985791188</v>
+        <v>985443443</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>985791188</v>
+        <v>985443443</v>
       </c>
       <c r="I96" t="n">
-        <v>5751391</v>
+        <v>4338816</v>
       </c>
       <c r="J96" t="n">
         <v>2353.15</v>
@@ -9561,29 +9561,29 @@
         <v>2248.38</v>
       </c>
       <c r="L96" t="n">
-        <v>-67.18598883427148</v>
+        <v>-63.39450054447343</v>
       </c>
       <c r="M96" t="n">
-        <v>-2.87815</v>
+        <v>-2.72097</v>
       </c>
       <c r="N96" t="n">
-        <v>-27918173.21994257</v>
+        <v>-27578468.27080274</v>
       </c>
       <c r="O96" t="n">
-        <v>-2.75406</v>
+        <v>-2.7224</v>
       </c>
       <c r="P96" t="n">
-        <v>435005.1102950626</v>
+        <v>435005.3045157267</v>
       </c>
       <c r="Q96" t="n">
-        <v>435005.1102950626</v>
+        <v>435005.3045157267</v>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
         <v>4814.31</v>
       </c>
       <c r="T96" t="n">
-        <v>-52.77391</v>
+        <v>-52.95155</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>887.26</v>
       </c>
       <c r="W96" t="n">
-        <v>156.24977</v>
+        <v>155.28587</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.977Z</t>
+          <t>2025-03-26T23:04:45.862Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9633,19 +9633,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.997605</v>
+        <v>0.997807</v>
       </c>
       <c r="F97" t="n">
-        <v>952449391</v>
+        <v>952641994</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>952449391</v>
+        <v>948696382</v>
       </c>
       <c r="I97" t="n">
-        <v>43097999</v>
+        <v>43105730</v>
       </c>
       <c r="J97" t="n">
         <v>0.998062</v>
@@ -9654,29 +9654,29 @@
         <v>0.9974420000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>-3.836171496796e-06</v>
+        <v>0.00019492</v>
       </c>
       <c r="M97" t="n">
-        <v>-0.00038</v>
+        <v>0.01954</v>
       </c>
       <c r="N97" t="n">
-        <v>1576828</v>
+        <v>1798673</v>
       </c>
       <c r="O97" t="n">
-        <v>0.16583</v>
+        <v>0.18917</v>
       </c>
       <c r="P97" t="n">
         <v>954735744.1192056</v>
       </c>
       <c r="Q97" t="n">
-        <v>954735744.1192056</v>
+        <v>950781460.442379</v>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
         <v>1.33</v>
       </c>
       <c r="T97" t="n">
-        <v>-24.74915</v>
+        <v>-24.7342</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>0.976415</v>
       </c>
       <c r="W97" t="n">
-        <v>2.16974</v>
+        <v>2.19003</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:32.393Z</t>
+          <t>2025-03-26T23:04:48.903Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9726,19 +9726,19 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1.023</v>
+        <v>1.021</v>
       </c>
       <c r="F98" t="n">
-        <v>917207306</v>
+        <v>916570581</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>1021528625</v>
+        <v>1020819480</v>
       </c>
       <c r="I98" t="n">
-        <v>79224185</v>
+        <v>78256311</v>
       </c>
       <c r="J98" t="n">
         <v>1.085</v>
@@ -9747,16 +9747,16 @@
         <v>1.007</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.03222086442280525</v>
+        <v>-0.03222865928239016</v>
       </c>
       <c r="M98" t="n">
-        <v>-3.05352</v>
+        <v>-3.06052</v>
       </c>
       <c r="N98" t="n">
-        <v>-33774406.87814653</v>
+        <v>-31361919.45064867</v>
       </c>
       <c r="O98" t="n">
-        <v>-3.55153</v>
+        <v>-3.30845</v>
       </c>
       <c r="P98" t="n">
         <v>897877243.8587132</v>
@@ -9771,7 +9771,7 @@
         <v>7.3</v>
       </c>
       <c r="T98" t="n">
-        <v>-85.96436</v>
+        <v>-86.03099</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>0.40615</v>
       </c>
       <c r="W98" t="n">
-        <v>152.3711</v>
+        <v>151.17314</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:26.320Z</t>
+          <t>2025-03-26T23:04:50.409Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9821,50 +9821,50 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.01460507</v>
+        <v>0.01460869</v>
       </c>
       <c r="F99" t="n">
-        <v>892557587</v>
+        <v>892190837</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>1507715536</v>
+        <v>1507096015</v>
       </c>
       <c r="I99" t="n">
-        <v>6906948</v>
+        <v>7033265</v>
       </c>
       <c r="J99" t="n">
         <v>0.01513547</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01448574</v>
+        <v>0.01449995</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00010139</v>
+        <v>0.00010875</v>
       </c>
       <c r="M99" t="n">
-        <v>0.69908</v>
+        <v>0.74997</v>
       </c>
       <c r="N99" t="n">
-        <v>6089830</v>
+        <v>5074440</v>
       </c>
       <c r="O99" t="n">
-        <v>0.68698</v>
+        <v>0.57202</v>
       </c>
       <c r="P99" t="n">
         <v>61101979199.1218</v>
       </c>
       <c r="Q99" t="n">
-        <v>103213960276.1314</v>
+        <v>103213959992.0569</v>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
         <v>0.150073</v>
       </c>
       <c r="T99" t="n">
-        <v>-90.25138</v>
+        <v>-90.26568</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>0.00827405</v>
       </c>
       <c r="W99" t="n">
-        <v>76.81831</v>
+        <v>76.55903000000001</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.482Z</t>
+          <t>2025-03-26T23:04:46.384Z</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr"/>
@@ -9914,19 +9914,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.578078</v>
+        <v>0.578894</v>
       </c>
       <c r="F100" t="n">
-        <v>876871144</v>
+        <v>877694012</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>1213953889</v>
+        <v>1215093080</v>
       </c>
       <c r="I100" t="n">
-        <v>98927456</v>
+        <v>90536778</v>
       </c>
       <c r="J100" t="n">
         <v>0.592547</v>
@@ -9935,16 +9935,16 @@
         <v>0.56815</v>
       </c>
       <c r="L100" t="n">
-        <v>0.00471136</v>
+        <v>0.00857951</v>
       </c>
       <c r="M100" t="n">
-        <v>0.8217</v>
+        <v>1.50435</v>
       </c>
       <c r="N100" t="n">
-        <v>6725122</v>
+        <v>12583888</v>
       </c>
       <c r="O100" t="n">
-        <v>0.7728699999999999</v>
+        <v>1.4546</v>
       </c>
       <c r="P100" t="n">
         <v>1516885789.1746</v>
@@ -9959,7 +9959,7 @@
         <v>22.71</v>
       </c>
       <c r="T100" t="n">
-        <v>-97.44126</v>
+        <v>-97.45121</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>0.402746</v>
       </c>
       <c r="W100" t="n">
-        <v>44.29021</v>
+        <v>43.72896</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9980,11 +9980,11 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:34.253Z</t>
+          <t>2025-03-26T23:04:46.332Z</t>
         </is>
       </c>
       <c r="AA100" t="n">
-        <v>-0.4160827547058998</v>
+        <v>-0.4152587859391202</v>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="AC100" t="n">
-        <v>-41.60827547058998</v>
+        <v>-41.52587859391202</v>
       </c>
     </row>
     <row r="101">
@@ -10017,19 +10017,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>86363</v>
+        <v>86360</v>
       </c>
       <c r="F101" t="n">
-        <v>832651324</v>
+        <v>832639437</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>832651324</v>
+        <v>832639437</v>
       </c>
       <c r="I101" t="n">
-        <v>295406</v>
+        <v>295531</v>
       </c>
       <c r="J101" t="n">
         <v>89166</v>
@@ -10038,22 +10038,22 @@
         <v>77528</v>
       </c>
       <c r="L101" t="n">
-        <v>-361.7726732309966</v>
+        <v>-1197.241653626756</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.41715</v>
+        <v>-1.36738</v>
       </c>
       <c r="N101" t="n">
-        <v>-3390798.719900131</v>
+        <v>-11230774.30525053</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.40558</v>
+        <v>-1.33087</v>
       </c>
       <c r="P101" t="n">
-        <v>9640.819070202244</v>
+        <v>9640.819186253048</v>
       </c>
       <c r="Q101" t="n">
-        <v>9640.819070202244</v>
+        <v>9640.819186253048</v>
       </c>
       <c r="R101" t="n">
         <v>21000000</v>
@@ -10062,7 +10062,7 @@
         <v>117077</v>
       </c>
       <c r="T101" t="n">
-        <v>-26.17289</v>
+        <v>-26.24029</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>11402.13</v>
       </c>
       <c r="W101" t="n">
-        <v>658.0536</v>
+        <v>657.36161</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-03-26T22:19:36.876Z</t>
+          <t>2025-03-26T23:04:45.989Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,43 +602,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>82908</v>
+        <v>83335</v>
       </c>
       <c r="F2" t="n">
-        <v>1645021034817</v>
+        <v>1655411990034</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1645021034817</v>
+        <v>1655411990034</v>
       </c>
       <c r="I2" t="n">
-        <v>14006336757</v>
+        <v>14622042825</v>
       </c>
       <c r="J2" t="n">
-        <v>84204</v>
+        <v>84040</v>
       </c>
       <c r="K2" t="n">
         <v>82395</v>
       </c>
       <c r="L2" t="n">
-        <v>-1253.802130032156</v>
+        <v>-543.0427231206559</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.48974</v>
+        <v>-0.64742</v>
       </c>
       <c r="N2" t="n">
-        <v>-25211741471.67163</v>
+        <v>-10433868436.28027</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.50947</v>
+        <v>-0.62634</v>
       </c>
       <c r="P2" t="n">
-        <v>19847212</v>
+        <v>19847275</v>
       </c>
       <c r="Q2" t="n">
-        <v>19847212</v>
+        <v>19847275</v>
       </c>
       <c r="R2" t="n">
         <v>21000000</v>
@@ -647,7 +647,7 @@
         <v>108786</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.80648</v>
+        <v>-23.34073</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>67.81</v>
       </c>
       <c r="W2" t="n">
-        <v>122136.76527</v>
+        <v>122883.95315</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.177Z</t>
+          <t>2025-04-06T02:14:36.056Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,50 +697,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1788.74</v>
+        <v>1809.94</v>
       </c>
       <c r="F3" t="n">
-        <v>215817927578</v>
+        <v>218483516881</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>215817927578</v>
+        <v>218483516881</v>
       </c>
       <c r="I3" t="n">
-        <v>6922042509</v>
+        <v>6861795146</v>
       </c>
       <c r="J3" t="n">
-        <v>1826.05</v>
+        <v>1821.42</v>
       </c>
       <c r="K3" t="n">
         <v>1778.36</v>
       </c>
       <c r="L3" t="n">
-        <v>-29.2974742799222</v>
+        <v>-5.803274541833161</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.61149</v>
+        <v>-0.31961</v>
       </c>
       <c r="N3" t="n">
-        <v>-3550601775.548157</v>
+        <v>-768330899.4096375</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.61856</v>
+        <v>-0.35043</v>
       </c>
       <c r="P3" t="n">
-        <v>120669506.1018683</v>
+        <v>120672033.7083664</v>
       </c>
       <c r="Q3" t="n">
-        <v>120669506.1018683</v>
+        <v>120672033.7083664</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
         <v>4878.26</v>
       </c>
       <c r="T3" t="n">
-        <v>-63.34061</v>
+        <v>-62.92173</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>0.432979</v>
       </c>
       <c r="W3" t="n">
-        <v>412931.86847</v>
+        <v>417651.26102</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.354Z</t>
+          <t>2025-04-06T02:14:28.732Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>27.84821767410295</v>
+        <v>28.02277961564897</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2784.821767410295</v>
+        <v>2802.277961564897</v>
       </c>
     </row>
     <row r="4">
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.999577</v>
+        <v>0.999617</v>
       </c>
       <c r="F4" t="n">
-        <v>144025900122</v>
+        <v>144030703701</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>144025900122</v>
+        <v>144030703701</v>
       </c>
       <c r="I4" t="n">
-        <v>13404172714</v>
+        <v>14253380816</v>
       </c>
       <c r="J4" t="n">
         <v>0.999759</v>
@@ -819,16 +819,16 @@
         <v>0.999529</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.7814821635941e-05</v>
+        <v>-2.44589892007e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.00278</v>
+        <v>-2e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>-3844034.492431641</v>
+        <v>366208</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.00267</v>
+        <v>0.00025</v>
       </c>
       <c r="P4" t="n">
         <v>144086679997.8651</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>-24.4516</v>
+        <v>-24.44806</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>0.5725209999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>74.59225000000001</v>
+        <v>74.60043</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.373Z</t>
+          <t>2025-04-06T02:14:27.818Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="F5" t="n">
-        <v>123893908948</v>
+        <v>124817732744</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>212573078905</v>
+        <v>214158145277</v>
       </c>
       <c r="I5" t="n">
-        <v>1925395040</v>
+        <v>1899104899</v>
       </c>
       <c r="J5" t="n">
         <v>2.17</v>
@@ -912,16 +912,16 @@
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01788523878866233</v>
+        <v>0.01616187</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.83397</v>
+        <v>0.76111</v>
       </c>
       <c r="N5" t="n">
-        <v>-1056758297.047867</v>
+        <v>929763655</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.84574</v>
+        <v>0.75049</v>
       </c>
       <c r="P5" t="n">
         <v>58274974538</v>
@@ -936,7 +936,7 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>-37.43538</v>
+        <v>-36.89152</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>0.00268621</v>
       </c>
       <c r="W5" t="n">
-        <v>79053.52508000001</v>
+        <v>79741.58817</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.981Z</t>
+          <t>2025-04-06T02:14:34.353Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>590.7</v>
+        <v>591.25</v>
       </c>
       <c r="F6" t="n">
-        <v>86156541750</v>
+        <v>86316088836</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>86156541750</v>
+        <v>86316088836</v>
       </c>
       <c r="I6" t="n">
-        <v>364886479</v>
+        <v>346144593</v>
       </c>
       <c r="J6" t="n">
-        <v>599.22</v>
+        <v>598.1799999999999</v>
       </c>
       <c r="K6" t="n">
         <v>590.4299999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>-8.00369825438213</v>
+        <v>-5.810019081248811</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.33685</v>
+        <v>-0.9731</v>
       </c>
       <c r="N6" t="n">
-        <v>-1241789171.13797</v>
+        <v>-852112965.3990784</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.42084</v>
+        <v>-0.97755</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1031,7 +1031,7 @@
         <v>788.84</v>
       </c>
       <c r="T6" t="n">
-        <v>-25.13553</v>
+        <v>-25.0384</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>0.0398177</v>
       </c>
       <c r="W6" t="n">
-        <v>1483068.63239</v>
+        <v>1484992.81594</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.388Z</t>
+          <t>2025-04-06T02:14:35.285Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,50 +1081,50 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>118.85</v>
+        <v>120.39</v>
       </c>
       <c r="F7" t="n">
-        <v>61125409055</v>
+        <v>62030296769</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>71015033631</v>
+        <v>72065042060</v>
       </c>
       <c r="I7" t="n">
-        <v>1949498601</v>
+        <v>1884022297</v>
       </c>
       <c r="J7" t="n">
-        <v>123.7</v>
+        <v>121.84</v>
       </c>
       <c r="K7" t="n">
         <v>117.2</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.475867326506076</v>
+        <v>-1.056104895119063</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.62933</v>
+        <v>-0.86964</v>
       </c>
       <c r="N7" t="n">
-        <v>-2368424848.278572</v>
+        <v>-628210776.1413956</v>
       </c>
       <c r="O7" t="n">
-        <v>-3.73017</v>
+        <v>-1.00259</v>
       </c>
       <c r="P7" t="n">
-        <v>514580156.615654</v>
+        <v>514589183.2837851</v>
       </c>
       <c r="Q7" t="n">
-        <v>597835297.8403233</v>
+        <v>597835139.7453557</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>293.31</v>
       </c>
       <c r="T7" t="n">
-        <v>-59.40043</v>
+        <v>-58.97715</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>0.5008010000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>23678.57772</v>
+        <v>23926.48522</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.138Z</t>
+          <t>2025-04-06T02:14:34.124Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,50 +1174,50 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999949</v>
+        <v>0.999951</v>
       </c>
       <c r="F8" t="n">
-        <v>60530144411</v>
+        <v>60529678112</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>60530014166</v>
+        <v>60529701666</v>
       </c>
       <c r="I8" t="n">
-        <v>3644275356</v>
+        <v>4541444103</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.999864</v>
+        <v>0.9998629999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.659612246798e-06</v>
+        <v>-2.5552661432005e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00037</v>
+        <v>-0.00256</v>
       </c>
       <c r="N8" t="n">
-        <v>-25452217.81388855</v>
+        <v>-35265897.10974884</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04203</v>
+        <v>-0.05823</v>
       </c>
       <c r="P8" t="n">
-        <v>60533287795.81084</v>
+        <v>60532972417.32211</v>
       </c>
       <c r="Q8" t="n">
-        <v>60533175823.48787</v>
+        <v>60532995972.75019</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>-14.73724</v>
+        <v>-14.73639</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>0.877647</v>
       </c>
       <c r="W8" t="n">
-        <v>13.92759</v>
+        <v>13.92873</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.502Z</t>
+          <t>2025-04-06T02:14:28.312Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,50 +1267,50 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.167489</v>
+        <v>0.1686</v>
       </c>
       <c r="F9" t="n">
-        <v>24898848492</v>
+        <v>25080147636</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>24903598782</v>
+        <v>25085318746</v>
       </c>
       <c r="I9" t="n">
-        <v>641231173</v>
+        <v>593513716</v>
       </c>
       <c r="J9" t="n">
-        <v>0.172255</v>
+        <v>0.170693</v>
       </c>
       <c r="K9" t="n">
         <v>0.166499</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.003967027238541088</v>
+        <v>-0.001862067195406769</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.31373</v>
+        <v>-1.09236</v>
       </c>
       <c r="N9" t="n">
-        <v>-606818721.2705841</v>
+        <v>-281878468.524704</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.37915</v>
+        <v>-1.11142</v>
       </c>
       <c r="P9" t="n">
         <v>148702566383.7052</v>
       </c>
       <c r="Q9" t="n">
-        <v>148730936383.7052</v>
+        <v>148733226383.7052</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
         <v>0.731578</v>
       </c>
       <c r="T9" t="n">
-        <v>-77.11064</v>
+        <v>-76.9472</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>8.69e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>192588.50778</v>
+        <v>193964.40069</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.970Z</t>
+          <t>2025-04-06T02:14:27.714Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1360,37 +1360,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.647467</v>
+        <v>0.648671</v>
       </c>
       <c r="F10" t="n">
-        <v>23302971649</v>
+        <v>23374988053</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>29131985730</v>
+        <v>29222016344</v>
       </c>
       <c r="I10" t="n">
-        <v>391063491</v>
+        <v>383564277</v>
       </c>
       <c r="J10" t="n">
-        <v>0.666492</v>
+        <v>0.662964</v>
       </c>
       <c r="K10" t="n">
         <v>0.646239</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01624881785078469</v>
+        <v>-0.01243986354746052</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.44816</v>
+        <v>-1.88166</v>
       </c>
       <c r="N10" t="n">
-        <v>-630617299.6474838</v>
+        <v>-443532726.5281601</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.63486</v>
+        <v>-1.86213</v>
       </c>
       <c r="P10" t="n">
         <v>35995957636.81128</v>
@@ -1405,7 +1405,7 @@
         <v>3.09</v>
       </c>
       <c r="T10" t="n">
-        <v>-79.02838</v>
+        <v>-78.93691</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>0.01925275</v>
       </c>
       <c r="W10" t="n">
-        <v>3262.50823</v>
+        <v>3277.17503</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.980Z</t>
+          <t>2025-04-06T02:14:35.900Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,50 +1455,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.237293</v>
+        <v>0.236141</v>
       </c>
       <c r="F11" t="n">
-        <v>22529445074</v>
+        <v>22434067925</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>22529459038</v>
+        <v>22434179788</v>
       </c>
       <c r="I11" t="n">
-        <v>343124934</v>
+        <v>330895613</v>
       </c>
       <c r="J11" t="n">
-        <v>0.239216</v>
+        <v>0.238844</v>
       </c>
       <c r="K11" t="n">
         <v>0.235916</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001564212388368957</v>
+        <v>-0.002215057456237235</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.65487</v>
+        <v>-0.9293</v>
       </c>
       <c r="N11" t="n">
-        <v>-171034471.9519577</v>
+        <v>-227891884.8082733</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.75344</v>
+        <v>-1.00561</v>
       </c>
       <c r="P11" t="n">
         <v>94979380176.64734</v>
       </c>
       <c r="Q11" t="n">
-        <v>94979439045.7883</v>
+        <v>94979853772.37912</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>0.431288</v>
       </c>
       <c r="T11" t="n">
-        <v>-44.99687</v>
+        <v>-45.22993</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>0.00180434</v>
       </c>
       <c r="W11" t="n">
-        <v>13047.29344</v>
+        <v>12991.58574</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.937Z</t>
+          <t>2025-04-06T02:14:27.153Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>123.8909339812056</v>
+        <v>123.2849967075216</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>12389.09339812056</v>
+        <v>12328.49967075216</v>
       </c>
     </row>
     <row r="12">
@@ -1556,50 +1556,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1787.18</v>
+        <v>1805.96</v>
       </c>
       <c r="F12" t="n">
-        <v>16739520256</v>
+        <v>16932406875</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>16739525873</v>
+        <v>16932406875</v>
       </c>
       <c r="I12" t="n">
-        <v>13088523</v>
+        <v>15436702</v>
       </c>
       <c r="J12" t="n">
-        <v>1825.3</v>
+        <v>1820.17</v>
       </c>
       <c r="K12" t="n">
         <v>1778.27</v>
       </c>
       <c r="L12" t="n">
-        <v>-29.77038770616764</v>
+        <v>-11.44638520273088</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.63848</v>
+        <v>-0.62982</v>
       </c>
       <c r="N12" t="n">
-        <v>-326739504.0000553</v>
+        <v>-108380445.6433849</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.91453</v>
+        <v>-0.63601</v>
       </c>
       <c r="P12" t="n">
-        <v>9370493.332460631</v>
+        <v>9370767.051120227</v>
       </c>
       <c r="Q12" t="n">
-        <v>9370496.476675136</v>
+        <v>9370767.051120227</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>4829.57</v>
       </c>
       <c r="T12" t="n">
-        <v>-62.9419</v>
+        <v>-62.58766</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>482.9</v>
       </c>
       <c r="W12" t="n">
-        <v>270.62773</v>
+        <v>274.17057</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.359Z</t>
+          <t>2025-04-06T02:14:34.372Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,37 +1649,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>82927</v>
+        <v>83319</v>
       </c>
       <c r="F13" t="n">
-        <v>10697971028</v>
+        <v>10742675274</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10697971028</v>
+        <v>10742675274</v>
       </c>
       <c r="I13" t="n">
-        <v>272355318</v>
+        <v>260970003</v>
       </c>
       <c r="J13" t="n">
-        <v>84199</v>
+        <v>83929</v>
       </c>
       <c r="K13" t="n">
         <v>82237</v>
       </c>
       <c r="L13" t="n">
-        <v>-1267.709122249813</v>
+        <v>-602.2442376643594</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.50569</v>
+        <v>-0.71763</v>
       </c>
       <c r="N13" t="n">
-        <v>-163313669.37187</v>
+        <v>-82879445.86790276</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.50363</v>
+        <v>-0.76559</v>
       </c>
       <c r="P13" t="n">
         <v>128915.05657878</v>
@@ -1694,7 +1694,7 @@
         <v>108368</v>
       </c>
       <c r="T13" t="n">
-        <v>-23.30482</v>
+        <v>-23.10542</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>3139.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2547.60565</v>
+        <v>2554.48917</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.568Z</t>
+          <t>2025-04-06T02:14:28.294Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1744,40 +1744,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.050000000000001</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>8361137302</v>
+        <v>8440889694</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>8917322078</v>
+        <v>9002380835</v>
       </c>
       <c r="I14" t="n">
-        <v>2037343</v>
+        <v>2128395</v>
       </c>
       <c r="J14" t="n">
-        <v>9.539999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="K14" t="n">
         <v>8.9</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.4730584335104187</v>
+        <v>-0.055301746634008</v>
       </c>
       <c r="M14" t="n">
-        <v>-4.96578</v>
+        <v>-0.60165</v>
       </c>
       <c r="N14" t="n">
-        <v>-444440047.013958</v>
+        <v>-46455266.71581841</v>
       </c>
       <c r="O14" t="n">
-        <v>-5.04726</v>
+        <v>-0.54735</v>
       </c>
       <c r="P14" t="n">
-        <v>923788856.9</v>
+        <v>923788731.9</v>
       </c>
       <c r="Q14" t="n">
         <v>985239504</v>
@@ -1787,7 +1787,7 @@
         <v>10.14</v>
       </c>
       <c r="T14" t="n">
-        <v>-10.64226</v>
+        <v>-9.86233</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>0.799859</v>
       </c>
       <c r="W14" t="n">
-        <v>1032.26244</v>
+        <v>1042.14498</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.347Z</t>
+          <t>2025-04-06T02:14:29.507Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1837,19 +1837,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.63</v>
+        <v>12.82</v>
       </c>
       <c r="F15" t="n">
-        <v>8055221589</v>
+        <v>8182438779</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>12623761087</v>
+        <v>12823129831</v>
       </c>
       <c r="I15" t="n">
-        <v>223762306</v>
+        <v>213435145</v>
       </c>
       <c r="J15" t="n">
         <v>13.02</v>
@@ -1858,16 +1858,16 @@
         <v>12.59</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.3803120954857331</v>
+        <v>-0.09347088098846612</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.924</v>
+        <v>-0.7237</v>
       </c>
       <c r="N15" t="n">
-        <v>-253433443.8566389</v>
+        <v>-66542249.92780304</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.05023</v>
+        <v>-0.80667</v>
       </c>
       <c r="P15" t="n">
         <v>638099971.4505637</v>
@@ -1882,7 +1882,7 @@
         <v>52.7</v>
       </c>
       <c r="T15" t="n">
-        <v>-76.04468</v>
+        <v>-75.67892000000001</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>0.148183</v>
       </c>
       <c r="W15" t="n">
-        <v>8418.939410000001</v>
+        <v>8549.011469999999</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.978Z</t>
+          <t>2025-04-06T02:14:25.202Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1932,50 +1932,50 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="F16" t="n">
-        <v>8047036917</v>
+        <v>8018156235</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>16680336174</v>
+        <v>16620411616</v>
       </c>
       <c r="I16" t="n">
-        <v>144449830</v>
+        <v>127876600</v>
       </c>
       <c r="J16" t="n">
-        <v>3.42</v>
+        <v>3.33</v>
       </c>
       <c r="K16" t="n">
         <v>3.22</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1407766527207075</v>
+        <v>-0.08286694062907429</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.14561</v>
+        <v>-2.49066</v>
       </c>
       <c r="N16" t="n">
-        <v>-359271282.4973879</v>
+        <v>-227422626.0723886</v>
       </c>
       <c r="O16" t="n">
-        <v>-4.27383</v>
+        <v>-2.75812</v>
       </c>
       <c r="P16" t="n">
-        <v>2473156067.338862</v>
+        <v>2473171370.653241</v>
       </c>
       <c r="Q16" t="n">
-        <v>5126492526.388204</v>
+        <v>5126506015.987388</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
         <v>8.25</v>
       </c>
       <c r="T16" t="n">
-        <v>-60.5567</v>
+        <v>-60.76233</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>0.519364</v>
       </c>
       <c r="W16" t="n">
-        <v>526.82364</v>
+        <v>523.55578</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.271Z</t>
+          <t>2025-04-06T02:14:26.922Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2025,19 +2025,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.999955</v>
       </c>
       <c r="F17" t="n">
-        <v>7966481607</v>
+        <v>7966470789</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>7966481607</v>
+        <v>7966470789</v>
       </c>
       <c r="I17" t="n">
-        <v>7468555</v>
+        <v>4911280</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2046,29 +2046,29 @@
         <v>0.999619</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00019252</v>
+        <v>-0.000273197988556073</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01925</v>
+        <v>-0.02731</v>
       </c>
       <c r="N17" t="n">
-        <v>37004361</v>
+        <v>45856167</v>
       </c>
       <c r="O17" t="n">
-        <v>0.46667</v>
+        <v>0.57895</v>
       </c>
       <c r="P17" t="n">
-        <v>7967125609.392083</v>
+        <v>7966345532.087534</v>
       </c>
       <c r="Q17" t="n">
-        <v>7967125609.392083</v>
+        <v>7966345532.087534</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
         <v>1.057</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.43744</v>
+        <v>-5.44154</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>0.948265</v>
       </c>
       <c r="W17" t="n">
-        <v>5.43791</v>
+        <v>5.43333</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.389Z</t>
+          <t>2025-04-06T02:14:26.611Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2118,40 +2118,40 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.250003</v>
+        <v>0.252548</v>
       </c>
       <c r="F18" t="n">
-        <v>7696866965</v>
+        <v>7776588515</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>12503720965</v>
+        <v>12633231172</v>
       </c>
       <c r="I18" t="n">
-        <v>142576104</v>
+        <v>130542423</v>
       </c>
       <c r="J18" t="n">
-        <v>0.261114</v>
+        <v>0.260093</v>
       </c>
       <c r="K18" t="n">
         <v>0.248809</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0106035938829635</v>
+        <v>-0.007196232738529096</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.06882</v>
+        <v>-2.77051</v>
       </c>
       <c r="N18" t="n">
-        <v>-337060863.2282639</v>
+        <v>-226758364.6515379</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.19547</v>
+        <v>-2.83329</v>
       </c>
       <c r="P18" t="n">
-        <v>30779405809.34086</v>
+        <v>30779403653.5592</v>
       </c>
       <c r="Q18" t="n">
         <v>50001786892.81792</v>
@@ -2163,7 +2163,7 @@
         <v>0.875563</v>
       </c>
       <c r="T18" t="n">
-        <v>-71.4603</v>
+        <v>-71.14042999999999</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>0.00047612</v>
       </c>
       <c r="W18" t="n">
-        <v>52382.83819</v>
+        <v>52971.06274</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.349Z</t>
+          <t>2025-04-06T02:14:34.640Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2213,50 +2213,50 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2144.46</v>
+        <v>2169.74</v>
       </c>
       <c r="F19" t="n">
-        <v>7691557310</v>
+        <v>7776260607</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>7691557310</v>
+        <v>7776260607</v>
       </c>
       <c r="I19" t="n">
-        <v>13895288</v>
+        <v>14113615</v>
       </c>
       <c r="J19" t="n">
-        <v>2185.42</v>
+        <v>2180.76</v>
       </c>
       <c r="K19" t="n">
         <v>2134.8</v>
       </c>
       <c r="L19" t="n">
-        <v>-33.77360985801897</v>
+        <v>-9.027550806395084</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.55051</v>
+        <v>-0.41434</v>
       </c>
       <c r="N19" t="n">
-        <v>-118802059.2282715</v>
+        <v>-40949753.01813793</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.52108</v>
+        <v>-0.52384</v>
       </c>
       <c r="P19" t="n">
-        <v>3586073.024738074</v>
+        <v>3585585.128889133</v>
       </c>
       <c r="Q19" t="n">
-        <v>3586073.024738074</v>
+        <v>3585585.128889133</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
         <v>7256.02</v>
       </c>
       <c r="T19" t="n">
-        <v>-70.44548</v>
+        <v>-70.08999</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>558.54</v>
       </c>
       <c r="W19" t="n">
-        <v>283.94421</v>
+        <v>288.5624</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.081Z</t>
+          <t>2025-04-06T02:14:27.629Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2306,43 +2306,43 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.77</v>
+        <v>17.57</v>
       </c>
       <c r="F20" t="n">
-        <v>7372996077</v>
+        <v>7303826183</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>8024043972</v>
+        <v>7948763732</v>
       </c>
       <c r="I20" t="n">
-        <v>123340183</v>
+        <v>150637893</v>
       </c>
       <c r="J20" t="n">
-        <v>18.33</v>
+        <v>18.32</v>
       </c>
       <c r="K20" t="n">
-        <v>17.75</v>
+        <v>17.6</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.4755728216303829</v>
+        <v>-0.6701531120157682</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.60669</v>
+        <v>-3.67371</v>
       </c>
       <c r="N20" t="n">
-        <v>-209565617.2253752</v>
+        <v>-275830045.2409182</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.76378</v>
+        <v>-3.63908</v>
       </c>
       <c r="P20" t="n">
-        <v>415275253.3803718</v>
+        <v>415276786.5199986</v>
       </c>
       <c r="Q20" t="n">
-        <v>451944753.3803718</v>
+        <v>451946278.1432614</v>
       </c>
       <c r="R20" t="n">
         <v>720000000</v>
@@ -2351,7 +2351,7 @@
         <v>144.96</v>
       </c>
       <c r="T20" t="n">
-        <v>-87.7321</v>
+        <v>-87.82566</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>2.8</v>
       </c>
       <c r="W20" t="n">
-        <v>534.8908300000001</v>
+        <v>530.04887</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.911Z</t>
+          <t>2025-04-06T02:14:33.752Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2401,37 +2401,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.225e-05</v>
+        <v>1.23e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>7219418619</v>
+        <v>7252978269</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>7222531052</v>
+        <v>7256105171</v>
       </c>
       <c r="I21" t="n">
-        <v>101810066</v>
+        <v>98801408</v>
       </c>
       <c r="J21" t="n">
-        <v>1.242e-05</v>
+        <v>1.24e-05</v>
       </c>
       <c r="K21" t="n">
         <v>1.208e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.9057704365e-08</v>
+        <v>-5.2647831013e-08</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.47965</v>
+        <v>-0.42613</v>
       </c>
       <c r="N21" t="n">
-        <v>-43217555.64301777</v>
+        <v>-39572731.35680676</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.59507</v>
+        <v>-0.54265</v>
       </c>
       <c r="P21" t="n">
         <v>589250627953270.5</v>
@@ -2444,7 +2444,7 @@
         <v>8.616e-05</v>
       </c>
       <c r="T21" t="n">
-        <v>-85.74652</v>
+        <v>-85.71392</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>5.6366e-11</v>
       </c>
       <c r="W21" t="n">
-        <v>21787038.54145</v>
+        <v>21836879.87154</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.486Z</t>
+          <t>2025-04-06T02:14:34.370Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2494,37 +2494,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="F22" t="n">
-        <v>7126098908</v>
+        <v>7153227885</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>21926573543</v>
+        <v>22010047756</v>
       </c>
       <c r="I22" t="n">
-        <v>447322891</v>
+        <v>427693815</v>
       </c>
       <c r="J22" t="n">
-        <v>2.29</v>
+        <v>2.26</v>
       </c>
       <c r="K22" t="n">
         <v>2.18</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.08937902928202712</v>
+        <v>-0.0558738901320317</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.91665</v>
+        <v>-2.47856</v>
       </c>
       <c r="N22" t="n">
-        <v>-289964128.9394464</v>
+        <v>-178768850.019268</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.90995</v>
+        <v>-2.4382</v>
       </c>
       <c r="P22" t="n">
         <v>3249982900.458887</v>
@@ -2539,7 +2539,7 @@
         <v>5.35</v>
       </c>
       <c r="T22" t="n">
-        <v>-58.87232</v>
+        <v>-58.80033</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>0.364846</v>
       </c>
       <c r="W22" t="n">
-        <v>502.69734</v>
+        <v>503.75241</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.169Z</t>
+          <t>2025-04-06T02:14:36.208Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2589,40 +2589,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.160439</v>
+        <v>0.161401</v>
       </c>
       <c r="F23" t="n">
-        <v>6773789242</v>
+        <v>6822051274</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>8020436945</v>
+        <v>8077581117</v>
       </c>
       <c r="I23" t="n">
-        <v>108772393</v>
+        <v>100460969</v>
       </c>
       <c r="J23" t="n">
-        <v>0.165449</v>
+        <v>0.163565</v>
       </c>
       <c r="K23" t="n">
         <v>0.15903</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.005010292970946961</v>
+        <v>-0.001951353563980657</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.0283</v>
+        <v>-1.19456</v>
       </c>
       <c r="N23" t="n">
-        <v>-222056212.4374647</v>
+        <v>-87466626.8973465</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.17412</v>
+        <v>-1.26589</v>
       </c>
       <c r="P23" t="n">
-        <v>42228305571.09811</v>
+        <v>42228305571.10435</v>
       </c>
       <c r="Q23" t="n">
         <v>50000000000</v>
@@ -2634,7 +2634,7 @@
         <v>0.569229</v>
       </c>
       <c r="T23" t="n">
-        <v>-71.81506</v>
+        <v>-71.60101</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0.009861109999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.96512</v>
+        <v>1539.32093</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.853Z</t>
+          <t>2025-04-06T02:14:28.923Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2684,19 +2684,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>82.01000000000001</v>
+        <v>82.59</v>
       </c>
       <c r="F24" t="n">
-        <v>6208173481</v>
+        <v>6256281455</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>6208198592</v>
+        <v>6256281455</v>
       </c>
       <c r="I24" t="n">
-        <v>208212028</v>
+        <v>195473301</v>
       </c>
       <c r="J24" t="n">
         <v>84.87</v>
@@ -2705,22 +2705,22 @@
         <v>81.88</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.505380812031916</v>
+        <v>-1.905026338141852</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.96452</v>
+        <v>-2.25456</v>
       </c>
       <c r="N24" t="n">
-        <v>-191153898.2759571</v>
+        <v>-149025545.4704809</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.98709</v>
+        <v>-2.32659</v>
       </c>
       <c r="P24" t="n">
-        <v>75713358.23347135</v>
+        <v>75714351.98347135</v>
       </c>
       <c r="Q24" t="n">
-        <v>75713664.48347135</v>
+        <v>75714351.98347135</v>
       </c>
       <c r="R24" t="n">
         <v>84000000</v>
@@ -2729,7 +2729,7 @@
         <v>410.26</v>
       </c>
       <c r="T24" t="n">
-        <v>-80.01474</v>
+        <v>-79.87116</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>7036.87993</v>
+        <v>7088.15168</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.137Z</t>
+          <t>2025-04-06T02:14:30.297Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2779,19 +2779,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="F25" t="n">
-        <v>6035526733</v>
+        <v>6024044124</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>11342647390</v>
+        <v>11320907716</v>
       </c>
       <c r="I25" t="n">
-        <v>38859644</v>
+        <v>40181678</v>
       </c>
       <c r="J25" t="n">
         <v>6.3</v>
@@ -2800,29 +2800,29 @@
         <v>6.19</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.04349623331826624</v>
+        <v>-0.02802734024097475</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.69109</v>
+        <v>-0.44723</v>
       </c>
       <c r="N25" t="n">
-        <v>-48958259.35512733</v>
+        <v>-35230637.04942417</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.80464</v>
+        <v>-0.58143</v>
       </c>
       <c r="P25" t="n">
-        <v>965748370.4899999</v>
+        <v>965773412.7300001</v>
       </c>
       <c r="Q25" t="n">
-        <v>1814944033.64</v>
+        <v>1814965404.39</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
         <v>8.99</v>
       </c>
       <c r="T25" t="n">
-        <v>-30.33884</v>
+        <v>-30.45478</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>0.01726188</v>
       </c>
       <c r="W25" t="n">
-        <v>36160.88564</v>
+        <v>36100.53131</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.856Z</t>
+          <t>2025-04-06T02:14:30.338Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2853,90 +2853,92 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>bch</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
+          <t>https://coin-images.coingecko.com/coins/images/780/large/bitcoin-cash-circle.png?1696501932</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.93</v>
+        <v>301.98</v>
       </c>
       <c r="F26" t="n">
-        <v>5977515037</v>
+        <v>6000187411</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>5977515037</v>
+        <v>6000218580</v>
       </c>
       <c r="I26" t="n">
-        <v>108912275</v>
+        <v>91275932</v>
       </c>
       <c r="J26" t="n">
-        <v>4.06</v>
+        <v>306.64</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>297.07</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1271501895154223</v>
+        <v>0.097084</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.13579</v>
+        <v>0.03216</v>
       </c>
       <c r="N26" t="n">
-        <v>-200755528.798996</v>
+        <v>13287060</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.24938</v>
+        <v>0.22194</v>
       </c>
       <c r="P26" t="n">
-        <v>1522267060</v>
+        <v>19852024.89665078</v>
       </c>
       <c r="Q26" t="n">
-        <v>1522267060</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+        <v>19852128.02165078</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21000000</v>
+      </c>
       <c r="S26" t="n">
-        <v>54.98</v>
+        <v>3785.82</v>
       </c>
       <c r="T26" t="n">
-        <v>-92.83738</v>
+        <v>-92.01213</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2021-11-04T14:10:09.301Z</t>
+          <t>2017-12-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2.7</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="W26" t="n">
-        <v>45.99218</v>
+        <v>293.06839</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2020-08-20T05:48:11.359Z</t>
+          <t>2018-12-16T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.194Z</t>
+          <t>2025-04-06T02:14:35.320Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2946,92 +2948,90 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bch</t>
+          <t>dot</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/780/large/bitcoin-cash-circle.png?1696501932</t>
+          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>299.54</v>
+        <v>3.94</v>
       </c>
       <c r="F27" t="n">
-        <v>5947628220</v>
+        <v>5997567000</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>5947629156</v>
+        <v>5997567000</v>
       </c>
       <c r="I27" t="n">
-        <v>84181084</v>
+        <v>106429768</v>
       </c>
       <c r="J27" t="n">
-        <v>303.76</v>
+        <v>4.04</v>
       </c>
       <c r="K27" t="n">
-        <v>297.07</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.450311131112642</v>
+        <v>-0.09878610316765579</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.81138</v>
+        <v>-2.44693</v>
       </c>
       <c r="N27" t="n">
-        <v>-52927709.81715012</v>
+        <v>-155567425.8299627</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.88205</v>
+        <v>-2.52826</v>
       </c>
       <c r="P27" t="n">
-        <v>19852018.64665078</v>
+        <v>1522267060</v>
       </c>
       <c r="Q27" t="n">
-        <v>19852024.89665078</v>
-      </c>
-      <c r="R27" t="n">
-        <v>21000000</v>
-      </c>
+        <v>1522267060</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>3785.82</v>
+        <v>54.98</v>
       </c>
       <c r="T27" t="n">
-        <v>-92.08883</v>
+        <v>-92.82476</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2017-12-20T00:00:00.000Z</t>
+          <t>2021-11-04T14:10:09.301Z</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>76.93000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="W27" t="n">
-        <v>289.29396</v>
+        <v>46.24943</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2018-12-16T00:00:00.000Z</t>
+          <t>2020-08-20T05:48:11.359Z</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.491Z</t>
+          <t>2025-04-06T02:14:32.819Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3063,16 +3063,16 @@
         <v>4.45</v>
       </c>
       <c r="F28" t="n">
-        <v>5338173662</v>
+        <v>5341326655</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>5338173662</v>
+        <v>5341326655</v>
       </c>
       <c r="I28" t="n">
-        <v>33525948</v>
+        <v>33556523</v>
       </c>
       <c r="J28" t="n">
         <v>4.55</v>
@@ -3081,16 +3081,16 @@
         <v>4.41</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.08323612547415227</v>
+        <v>-0.0739994565785187</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.83534</v>
+        <v>-1.63476</v>
       </c>
       <c r="N28" t="n">
-        <v>-99009978.22882271</v>
+        <v>-91267927.88787365</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.82098</v>
+        <v>-1.68001</v>
       </c>
       <c r="P28" t="n">
         <v>1199999994.2</v>
@@ -3105,7 +3105,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>-47.36076</v>
+        <v>-47.29782</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>0.0142795</v>
       </c>
       <c r="W28" t="n">
-        <v>31050.85048</v>
+        <v>31088.09415</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:53.856Z</t>
+          <t>2025-04-06T02:14:33.659Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,19 +3155,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.998802</v>
+        <v>0.998908</v>
       </c>
       <c r="F29" t="n">
-        <v>5224498762</v>
+        <v>5220501384</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5224498762</v>
+        <v>5220501384</v>
       </c>
       <c r="I29" t="n">
-        <v>59416415</v>
+        <v>55508254</v>
       </c>
       <c r="J29" t="n">
         <v>0.999543</v>
@@ -3176,29 +3176,29 @@
         <v>0.998435</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.217333935354e-06</v>
+        <v>-0.000203704341662392</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.00062</v>
+        <v>-0.02039</v>
       </c>
       <c r="N29" t="n">
-        <v>-19534820.59655094</v>
+        <v>-22809935.73746586</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.37252</v>
+        <v>-0.43503</v>
       </c>
       <c r="P29" t="n">
-        <v>5230251999.014564</v>
+        <v>5226655940.584564</v>
       </c>
       <c r="Q29" t="n">
-        <v>5230251999.014564</v>
+        <v>5226655940.584564</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>1.032</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.19079</v>
+        <v>-3.22431</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>0.929486</v>
       </c>
       <c r="W29" t="n">
-        <v>7.49495</v>
+        <v>7.45773</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.010Z</t>
+          <t>2025-04-06T02:14:26.840Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,19 +3248,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9997740000000001</v>
+        <v>0.998978</v>
       </c>
       <c r="F30" t="n">
-        <v>5187077408</v>
+        <v>5182184782</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5187077408</v>
+        <v>5182184782</v>
       </c>
       <c r="I30" t="n">
-        <v>87892253</v>
+        <v>88477932</v>
       </c>
       <c r="J30" t="n">
         <v>1.002</v>
@@ -3269,16 +3269,16 @@
         <v>0.996806</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00036379</v>
+        <v>3.527e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0364</v>
+        <v>0.00353</v>
       </c>
       <c r="N30" t="n">
-        <v>21726320</v>
+        <v>-6540523.687609673</v>
       </c>
       <c r="O30" t="n">
-        <v>0.42062</v>
+        <v>-0.12605</v>
       </c>
       <c r="P30" t="n">
         <v>5184994301.618546</v>
@@ -3291,7 +3291,7 @@
         <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>-4.83018</v>
+        <v>-4.79693</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>0.942186</v>
       </c>
       <c r="W30" t="n">
-        <v>6.05614</v>
+        <v>6.0932</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.095Z</t>
+          <t>2025-04-06T02:14:35.309Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3341,50 +3341,50 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1787.96</v>
+        <v>1809.35</v>
       </c>
       <c r="F31" t="n">
-        <v>5112454666</v>
+        <v>5176427218</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5112454666</v>
+        <v>5176427218</v>
       </c>
       <c r="I31" t="n">
-        <v>122942189</v>
+        <v>192787799</v>
       </c>
       <c r="J31" t="n">
-        <v>1827.3</v>
+        <v>1821.08</v>
       </c>
       <c r="K31" t="n">
         <v>1780.07</v>
       </c>
       <c r="L31" t="n">
-        <v>-30.90290077452642</v>
+        <v>-9.170566814605309</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.69903</v>
+        <v>-0.50429</v>
       </c>
       <c r="N31" t="n">
-        <v>-108799563.0272017</v>
+        <v>-34861860.6446867</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.08378</v>
+        <v>-0.66897</v>
       </c>
       <c r="P31" t="n">
-        <v>2857862.712021595</v>
+        <v>2860033.103552378</v>
       </c>
       <c r="Q31" t="n">
-        <v>2857862.712021595</v>
+        <v>2860033.103552378</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
         <v>4799.89</v>
       </c>
       <c r="T31" t="n">
-        <v>-62.75531</v>
+        <v>-62.3302</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>2077.3828</v>
+        <v>2102.23484</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.382Z</t>
+          <t>2025-04-06T02:14:29.903Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3415,90 +3415,92 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>pi-network</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>weeth</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>Pi Network</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
+          <t>https://coin-images.coingecko.com/coins/images/54342/large/pi_network.jpg?1739347576</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1902.08</v>
+        <v>0.661936</v>
       </c>
       <c r="F32" t="n">
-        <v>4062819424</v>
+        <v>4518089568</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>4062819424</v>
+        <v>6950907027</v>
       </c>
       <c r="I32" t="n">
-        <v>4709589</v>
+        <v>1518829889</v>
       </c>
       <c r="J32" t="n">
-        <v>1940.69</v>
+        <v>0.7604</v>
       </c>
       <c r="K32" t="n">
-        <v>1894.35</v>
+        <v>0.406999</v>
       </c>
       <c r="L32" t="n">
-        <v>-31.32954944485641</v>
+        <v>0.166129</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.62043</v>
+        <v>33.50672</v>
       </c>
       <c r="N32" t="n">
-        <v>-80001016.54467297</v>
+        <v>1127676436</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.93108</v>
+        <v>33.26074</v>
       </c>
       <c r="P32" t="n">
-        <v>2135501.227266558</v>
+        <v>6825568879.840378</v>
       </c>
       <c r="Q32" t="n">
-        <v>2135501.227266558</v>
-      </c>
-      <c r="R32" t="inlineStr"/>
+        <v>10500875199.75442</v>
+      </c>
+      <c r="R32" t="n">
+        <v>100000000000</v>
+      </c>
       <c r="S32" t="n">
-        <v>4311.81</v>
+        <v>2.99</v>
       </c>
       <c r="T32" t="n">
-        <v>-55.83527</v>
+        <v>-78.06792</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2024-12-06T20:32:25.758Z</t>
+          <t>2025-02-26T16:41:03.732Z</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>1863.73</v>
+        <v>0.406999</v>
       </c>
       <c r="W32" t="n">
-        <v>2.17687</v>
+        <v>60.99443</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2025-04-03T15:11:50.320Z</t>
+          <t>2025-04-05T04:50:37.033Z</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.128Z</t>
+          <t>2025-04-06T02:14:31.224Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3508,92 +3510,90 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>whitebit</t>
+          <t>wrapped-eeth</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>weeth</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
+          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.05</v>
+        <v>1924.06</v>
       </c>
       <c r="F33" t="n">
-        <v>4042065242</v>
+        <v>4109061769</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>9199278224</v>
+        <v>4109061769</v>
       </c>
       <c r="I33" t="n">
-        <v>16772944</v>
+        <v>4832929</v>
       </c>
       <c r="J33" t="n">
-        <v>28.14</v>
+        <v>1935.45</v>
       </c>
       <c r="K33" t="n">
-        <v>27.25</v>
+        <v>1894.35</v>
       </c>
       <c r="L33" t="n">
-        <v>0.482446</v>
+        <v>-10.24806637349775</v>
       </c>
       <c r="M33" t="n">
-        <v>1.75028</v>
+        <v>-0.52981</v>
       </c>
       <c r="N33" t="n">
-        <v>70064406</v>
+        <v>-30244080.10313463</v>
       </c>
       <c r="O33" t="n">
-        <v>1.76396</v>
+        <v>-0.73066</v>
       </c>
       <c r="P33" t="n">
-        <v>144118517.1081541</v>
+        <v>2135503.57141975</v>
       </c>
       <c r="Q33" t="n">
-        <v>327997263</v>
-      </c>
-      <c r="R33" t="n">
-        <v>400000000</v>
-      </c>
+        <v>2135503.57141975</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>31.28</v>
+        <v>4311.81</v>
       </c>
       <c r="T33" t="n">
-        <v>-10.31359</v>
+        <v>-55.38161</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2025-03-02T22:22:36.852Z</t>
+          <t>2024-12-06T20:32:25.758Z</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>3.06</v>
+        <v>1863.73</v>
       </c>
       <c r="W33" t="n">
-        <v>816.1538399999999</v>
+        <v>3.22644</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2023-02-13T19:01:21.899Z</t>
+          <t>2025-04-03T15:11:50.320Z</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.131Z</t>
+          <t>2025-04-06T02:14:27.496Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3603,92 +3603,92 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pi-network</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pi Network</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/54342/large/pi_network.jpg?1739347576</t>
+          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.579808</v>
+        <v>28.06</v>
       </c>
       <c r="F34" t="n">
-        <v>3955684200</v>
+        <v>4043428115</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>6085668000</v>
+        <v>9202379969</v>
       </c>
       <c r="I34" t="n">
-        <v>1419972758</v>
+        <v>16978888</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7604</v>
+        <v>28.22</v>
       </c>
       <c r="K34" t="n">
-        <v>0.406999</v>
+        <v>27.25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.051617</v>
+        <v>0.537871</v>
       </c>
       <c r="M34" t="n">
-        <v>9.77233</v>
+        <v>1.95401</v>
       </c>
       <c r="N34" t="n">
-        <v>358129630</v>
+        <v>76435134</v>
       </c>
       <c r="O34" t="n">
-        <v>9.95481</v>
+        <v>1.92678</v>
       </c>
       <c r="P34" t="n">
-        <v>6822393998.369321</v>
+        <v>144118517.1081541</v>
       </c>
       <c r="Q34" t="n">
-        <v>10495990766.72203</v>
+        <v>327997263</v>
       </c>
       <c r="R34" t="n">
-        <v>100000000000</v>
+        <v>400000000</v>
       </c>
       <c r="S34" t="n">
-        <v>2.99</v>
+        <v>31.28</v>
       </c>
       <c r="T34" t="n">
-        <v>-80.44573</v>
+        <v>-10.25417</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2025-02-26T16:41:03.732Z</t>
+          <t>2025-03-02T22:22:36.852Z</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>0.406999</v>
+        <v>3.06</v>
       </c>
       <c r="W34" t="n">
-        <v>43.53989</v>
+        <v>816.7607400000001</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2025-04-05T04:50:37.033Z</t>
+          <t>2023-02-13T19:01:21.899Z</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:53.912Z</t>
+          <t>2025-04-06T02:14:27.515Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3717,37 +3717,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.77</v>
+        <v>11.91</v>
       </c>
       <c r="F35" t="n">
-        <v>3930483417</v>
+        <v>3975876610</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>11770332319</v>
+        <v>11906268007</v>
       </c>
       <c r="I35" t="n">
-        <v>51402850</v>
+        <v>43406003</v>
       </c>
       <c r="J35" t="n">
-        <v>12.29</v>
+        <v>12.18</v>
       </c>
       <c r="K35" t="n">
         <v>11.44</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.4131694363653011</v>
+        <v>-0.2335950103829614</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.39159</v>
+        <v>-1.92432</v>
       </c>
       <c r="N35" t="n">
-        <v>-154623048.9819784</v>
+        <v>-83045948.00714922</v>
       </c>
       <c r="O35" t="n">
-        <v>-3.78504</v>
+        <v>-2.04601</v>
       </c>
       <c r="P35" t="n">
         <v>333928180</v>
@@ -3762,7 +3762,7 @@
         <v>34.96</v>
       </c>
       <c r="T35" t="n">
-        <v>-66.19417</v>
+        <v>-65.81927</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>3.81</v>
       </c>
       <c r="W35" t="n">
-        <v>210.2939</v>
+        <v>213.73501</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.786Z</t>
+          <t>2025-04-06T02:14:29.014Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3812,37 +3812,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>212.52</v>
+        <v>215.5</v>
       </c>
       <c r="F36" t="n">
-        <v>3921040648</v>
+        <v>3971329846</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>3921040648</v>
+        <v>3971329846</v>
       </c>
       <c r="I36" t="n">
-        <v>48311678</v>
+        <v>47192823</v>
       </c>
       <c r="J36" t="n">
         <v>218.98</v>
       </c>
       <c r="K36" t="n">
-        <v>212.04</v>
+        <v>210.93</v>
       </c>
       <c r="L36" t="n">
-        <v>-4.092177336674951</v>
+        <v>-1.410901579052506</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.8892</v>
+        <v>-0.65046</v>
       </c>
       <c r="N36" t="n">
-        <v>-73881422.14736509</v>
+        <v>-28935155.77831554</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.84938</v>
+        <v>-0.72333</v>
       </c>
       <c r="P36" t="n">
         <v>18446744.07370955</v>
@@ -3855,7 +3855,7 @@
         <v>542.33</v>
       </c>
       <c r="T36" t="n">
-        <v>-60.80528</v>
+        <v>-60.23685</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>0.216177</v>
       </c>
       <c r="W36" t="n">
-        <v>98228.37068000001</v>
+        <v>99654.3888</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.182Z</t>
+          <t>2025-04-06T02:14:30.678Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,37 +3905,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="F37" t="n">
-        <v>3472451654</v>
+        <v>3512416965</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>5782763588</v>
+        <v>5849318855</v>
       </c>
       <c r="I37" t="n">
-        <v>70407857</v>
+        <v>65193507</v>
       </c>
       <c r="J37" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="K37" t="n">
         <v>5.77</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.1639912806279487</v>
+        <v>-0.04693589506700224</v>
       </c>
       <c r="M37" t="n">
-        <v>-2.75783</v>
+        <v>-0.7962</v>
       </c>
       <c r="N37" t="n">
-        <v>-105898073.040689</v>
+        <v>-33460834.47622108</v>
       </c>
       <c r="O37" t="n">
-        <v>-2.95941</v>
+        <v>-0.94365</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3950,7 +3950,7 @@
         <v>44.92</v>
       </c>
       <c r="T37" t="n">
-        <v>-87.0763</v>
+        <v>-86.97256</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>1.03</v>
       </c>
       <c r="W37" t="n">
-        <v>463.50601</v>
+        <v>468.0292</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.364Z</t>
+          <t>2025-04-06T02:14:27.257Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -4000,19 +4000,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.999855</v>
+        <v>0.999963</v>
       </c>
       <c r="F38" t="n">
-        <v>3157631890</v>
+        <v>3158527813</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3157631890</v>
+        <v>3158527813</v>
       </c>
       <c r="I38" t="n">
-        <v>54933069</v>
+        <v>54306747</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -4021,29 +4021,29 @@
         <v>0.999711</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.000202810424942301</v>
+        <v>-1.6555315699218e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.02028</v>
+        <v>-0.00166</v>
       </c>
       <c r="N38" t="n">
-        <v>29917718</v>
+        <v>20362773</v>
       </c>
       <c r="O38" t="n">
-        <v>0.9565399999999999</v>
+        <v>0.64888</v>
       </c>
       <c r="P38" t="n">
-        <v>3158025936.552428</v>
+        <v>3158646971.849539</v>
       </c>
       <c r="Q38" t="n">
-        <v>3158025936.552428</v>
+        <v>3158646971.849539</v>
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
         <v>1.22</v>
       </c>
       <c r="T38" t="n">
-        <v>-17.96394</v>
+        <v>-17.9625</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>0.88196</v>
       </c>
       <c r="W38" t="n">
-        <v>13.37961</v>
+        <v>13.38158</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.375Z</t>
+          <t>2025-04-06T02:14:26.385Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4093,37 +4093,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>51.81</v>
+        <v>52.39</v>
       </c>
       <c r="F39" t="n">
-        <v>3108558958</v>
+        <v>3143909739</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>12224806272</v>
+        <v>12363827746</v>
       </c>
       <c r="I39" t="n">
-        <v>18596166</v>
+        <v>18266223</v>
       </c>
       <c r="J39" t="n">
-        <v>51.82</v>
+        <v>52.79</v>
       </c>
       <c r="K39" t="n">
-        <v>48.98</v>
+        <v>50.34</v>
       </c>
       <c r="L39" t="n">
-        <v>2.82</v>
+        <v>1.69</v>
       </c>
       <c r="M39" t="n">
-        <v>5.75488</v>
+        <v>3.33226</v>
       </c>
       <c r="N39" t="n">
-        <v>168558552</v>
+        <v>105647842</v>
       </c>
       <c r="O39" t="n">
-        <v>5.73328</v>
+        <v>3.47725</v>
       </c>
       <c r="P39" t="n">
         <v>60000000</v>
@@ -4138,7 +4138,7 @@
         <v>73.8</v>
       </c>
       <c r="T39" t="n">
-        <v>-29.80193</v>
+        <v>-28.96433</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>0.580608</v>
       </c>
       <c r="W39" t="n">
-        <v>8823.149590000001</v>
+        <v>8929.620779999999</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.217Z</t>
+          <t>2025-04-06T02:14:30.782Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4191,47 +4191,47 @@
         <v>1.047</v>
       </c>
       <c r="F40" t="n">
-        <v>3037694764</v>
+        <v>3038227428</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>3037694764</v>
+        <v>3038227428</v>
       </c>
       <c r="I40" t="n">
-        <v>11258772</v>
+        <v>10850175</v>
       </c>
       <c r="J40" t="n">
-        <v>1.047</v>
+        <v>1.048</v>
       </c>
       <c r="K40" t="n">
         <v>1.045</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00168409</v>
+        <v>0.00092484</v>
       </c>
       <c r="M40" t="n">
-        <v>0.16114</v>
+        <v>0.08839</v>
       </c>
       <c r="N40" t="n">
-        <v>15899952</v>
+        <v>15333172</v>
       </c>
       <c r="O40" t="n">
-        <v>0.52618</v>
+        <v>0.50723</v>
       </c>
       <c r="P40" t="n">
-        <v>2902057662.717721</v>
+        <v>2901183766.747292</v>
       </c>
       <c r="Q40" t="n">
-        <v>2902097289.892826</v>
+        <v>2901183766.747292</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
         <v>1.088</v>
       </c>
       <c r="T40" t="n">
-        <v>-3.78411</v>
+        <v>-3.74466</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>0.961716</v>
       </c>
       <c r="W40" t="n">
-        <v>8.841530000000001</v>
+        <v>8.88616</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.579Z</t>
+          <t>2025-04-06T02:14:34.684Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4281,37 +4281,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7e-06</v>
+        <v>7.04e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>2944109078</v>
+        <v>2967079108</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>2944109078</v>
+        <v>2967079108</v>
       </c>
       <c r="I41" t="n">
-        <v>441890062</v>
+        <v>391043362</v>
       </c>
       <c r="J41" t="n">
-        <v>7.35e-06</v>
+        <v>7.27e-06</v>
       </c>
       <c r="K41" t="n">
         <v>6.95e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.83800055765e-07</v>
+        <v>-1.884359709e-07</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.55904</v>
+        <v>-2.60549</v>
       </c>
       <c r="N41" t="n">
-        <v>-77451203.91259289</v>
+        <v>-83044882.31920719</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.56329</v>
+        <v>-2.72267</v>
       </c>
       <c r="P41" t="n">
         <v>420690000000000</v>
@@ -4326,7 +4326,7 @@
         <v>2.803e-05</v>
       </c>
       <c r="T41" t="n">
-        <v>-74.96751999999999</v>
+        <v>-74.82655</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>5.5142e-08</v>
       </c>
       <c r="W41" t="n">
-        <v>12623.6958</v>
+        <v>12695.3484</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.383Z</t>
+          <t>2025-04-06T02:14:32.285Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4376,19 +4376,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.81</v>
+        <v>4.87</v>
       </c>
       <c r="F42" t="n">
-        <v>2905845380</v>
+        <v>2945599922</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>5510662725</v>
+        <v>5585921553</v>
       </c>
       <c r="I42" t="n">
-        <v>82981557</v>
+        <v>81660169</v>
       </c>
       <c r="J42" t="n">
         <v>4.93</v>
@@ -4397,29 +4397,29 @@
         <v>4.79</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.1152384312530108</v>
+        <v>-0.02288372469085242</v>
       </c>
       <c r="M42" t="n">
-        <v>-2.3418</v>
+        <v>-0.46816</v>
       </c>
       <c r="N42" t="n">
-        <v>-69071295.8201704</v>
+        <v>-10031215.83299589</v>
       </c>
       <c r="O42" t="n">
-        <v>-2.32179</v>
+        <v>-0.33939</v>
       </c>
       <c r="P42" t="n">
-        <v>604654692.3418235</v>
+        <v>604693139.5470227</v>
       </c>
       <c r="Q42" t="n">
-        <v>1146670809.613106</v>
+        <v>1146716638.485991</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
         <v>19.92</v>
       </c>
       <c r="T42" t="n">
-        <v>-75.78671</v>
+        <v>-75.54617</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>3.08</v>
       </c>
       <c r="W42" t="n">
-        <v>56.61376</v>
+        <v>58.16962</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.016Z</t>
+          <t>2025-04-06T02:14:33.247Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4469,50 +4469,50 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="F43" t="n">
-        <v>2883668602</v>
+        <v>2928215356</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>2989502893</v>
+        <v>3035392633</v>
       </c>
       <c r="I43" t="n">
-        <v>85089367</v>
+        <v>86293471</v>
       </c>
       <c r="J43" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="K43" t="n">
         <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.1064247499148467</v>
+        <v>-0.06083509250893604</v>
       </c>
       <c r="M43" t="n">
-        <v>-4.23934</v>
+        <v>-2.43369</v>
       </c>
       <c r="N43" t="n">
-        <v>-131759161.556931</v>
+        <v>-75197428.61391258</v>
       </c>
       <c r="O43" t="n">
-        <v>-4.3695</v>
+        <v>-2.50373</v>
       </c>
       <c r="P43" t="n">
-        <v>1199614769</v>
+        <v>1199729377</v>
       </c>
       <c r="Q43" t="n">
-        <v>1243642151</v>
+        <v>1243641355</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
         <v>20.44</v>
       </c>
       <c r="T43" t="n">
-        <v>-88.21535</v>
+        <v>-88.07144</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>0.526762</v>
       </c>
       <c r="W43" t="n">
-        <v>357.23854</v>
+        <v>362.82215</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.312Z</t>
+          <t>2025-04-06T02:14:31.187Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4562,37 +4562,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.29</v>
+        <v>22.54</v>
       </c>
       <c r="F44" t="n">
-        <v>2737226587</v>
+        <v>2773610514</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>6681019032</v>
+        <v>6769824872</v>
       </c>
       <c r="I44" t="n">
-        <v>3931307</v>
+        <v>5364520</v>
       </c>
       <c r="J44" t="n">
-        <v>22.7</v>
+        <v>22.61</v>
       </c>
       <c r="K44" t="n">
         <v>22.12</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.2309363772728084</v>
+        <v>-0.01030612771948114</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.02525</v>
+        <v>-0.04569</v>
       </c>
       <c r="N44" t="n">
-        <v>-32290632.64239502</v>
+        <v>2368475</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.16593</v>
+        <v>0.08547</v>
       </c>
       <c r="P44" t="n">
         <v>122910587.7676574</v>
@@ -4605,7 +4605,7 @@
         <v>25.94</v>
       </c>
       <c r="T44" t="n">
-        <v>-13.97235</v>
+        <v>-13.04173</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>0.25754</v>
       </c>
       <c r="W44" t="n">
-        <v>8564.69533</v>
+        <v>8658.42769</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.137Z</t>
+          <t>2025-04-06T02:14:28.324Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4655,37 +4655,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>83042</v>
+        <v>83313</v>
       </c>
       <c r="F45" t="n">
-        <v>2699175607</v>
+        <v>2709441731</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>2699175607</v>
+        <v>2709441731</v>
       </c>
       <c r="I45" t="n">
-        <v>177347981</v>
+        <v>173141999</v>
       </c>
       <c r="J45" t="n">
-        <v>84195</v>
+        <v>84060</v>
       </c>
       <c r="K45" t="n">
         <v>82295</v>
       </c>
       <c r="L45" t="n">
-        <v>-1141.471577982215</v>
+        <v>-697.8192557226284</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.35594</v>
+        <v>-0.83063</v>
       </c>
       <c r="N45" t="n">
-        <v>-114204077.9987168</v>
+        <v>-49448855.39236975</v>
       </c>
       <c r="O45" t="n">
-        <v>-4.05932</v>
+        <v>-1.79235</v>
       </c>
       <c r="P45" t="n">
         <v>32502.22396771</v>
@@ -4698,7 +4698,7 @@
         <v>108953</v>
       </c>
       <c r="T45" t="n">
-        <v>-23.89525</v>
+        <v>-23.45043</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>57439</v>
       </c>
       <c r="W45" t="n">
-        <v>44.35944</v>
+        <v>45.2032</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:57.941Z</t>
+          <t>2025-04-06T02:14:35.390Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4748,37 +4748,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.41</v>
+        <v>32.37</v>
       </c>
       <c r="F46" t="n">
-        <v>2592503568</v>
+        <v>2591187817</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>3240791538</v>
+        <v>3239146768</v>
       </c>
       <c r="I46" t="n">
-        <v>20520809</v>
+        <v>20709426</v>
       </c>
       <c r="J46" t="n">
-        <v>33.49</v>
+        <v>33.46</v>
       </c>
       <c r="K46" t="n">
         <v>32.28</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.937623592019591</v>
+        <v>-0.9774877149616259</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.81191</v>
+        <v>-2.9312</v>
       </c>
       <c r="N46" t="n">
-        <v>-74489551.96958113</v>
+        <v>-79400005.2141099</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.79302</v>
+        <v>-2.97313</v>
       </c>
       <c r="P46" t="n">
         <v>79995999.05112354</v>
@@ -4793,7 +4793,7 @@
         <v>50.43</v>
       </c>
       <c r="T46" t="n">
-        <v>-35.75413</v>
+        <v>-35.58679</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>0.111255</v>
       </c>
       <c r="W46" t="n">
-        <v>29022.41471</v>
+        <v>29098.27141</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -4814,11 +4814,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.318Z</t>
+          <t>2025-04-06T02:14:36.095Z</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>110.5561227734998</v>
+        <v>110.4291209273309</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>11055.61227734998</v>
+        <v>11042.91209273309</v>
       </c>
     </row>
     <row r="47">
@@ -4851,37 +4851,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.800573</v>
+        <v>0.80821</v>
       </c>
       <c r="F47" t="n">
-        <v>2529098223</v>
+        <v>2553460118</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>8005736430</v>
+        <v>8082852813</v>
       </c>
       <c r="I47" t="n">
-        <v>70381762</v>
+        <v>78239161</v>
       </c>
       <c r="J47" t="n">
-        <v>0.82626</v>
+        <v>0.820931</v>
       </c>
       <c r="K47" t="n">
         <v>0.795376</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.02354346705238863</v>
+        <v>-0.009866803525394596</v>
       </c>
       <c r="M47" t="n">
-        <v>-2.85681</v>
+        <v>-1.2061</v>
       </c>
       <c r="N47" t="n">
-        <v>-74810987.68266153</v>
+        <v>-32893507.88409042</v>
       </c>
       <c r="O47" t="n">
-        <v>-2.87303</v>
+        <v>-1.27181</v>
       </c>
       <c r="P47" t="n">
         <v>3159107529</v>
@@ -4896,7 +4896,7 @@
         <v>2.14</v>
       </c>
       <c r="T47" t="n">
-        <v>-62.45529</v>
+        <v>-62.19382</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>0.08217099999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>877.8579</v>
+        <v>884.66779</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:57.358Z</t>
+          <t>2025-04-06T02:14:31.784Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4927,90 +4927,92 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>crypto-com-chain</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cro</t>
+          <t>mnt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
+          <t>https://coin-images.coingecko.com/coins/images/30980/large/Mantle-Logo-mark.png?1739213200</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.090695</v>
+        <v>0.74033</v>
       </c>
       <c r="F48" t="n">
-        <v>2491698538</v>
+        <v>2491897426</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>8848985994</v>
+        <v>4606034829</v>
       </c>
       <c r="I48" t="n">
-        <v>21776993</v>
+        <v>173313845</v>
       </c>
       <c r="J48" t="n">
-        <v>0.094995</v>
+        <v>0.744278</v>
       </c>
       <c r="K48" t="n">
-        <v>0.09063300000000001</v>
+        <v>0.730614</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.004110535445633362</v>
+        <v>0.00272268</v>
       </c>
       <c r="M48" t="n">
-        <v>-4.33577</v>
+        <v>0.36912</v>
       </c>
       <c r="N48" t="n">
-        <v>-112629096.3106108</v>
+        <v>9158199</v>
       </c>
       <c r="O48" t="n">
-        <v>-4.32469</v>
+        <v>0.36887</v>
       </c>
       <c r="P48" t="n">
-        <v>27436056468.80244</v>
+        <v>3364694382.83684</v>
       </c>
       <c r="Q48" t="n">
-        <v>97436056468.80244</v>
-      </c>
-      <c r="R48" t="inlineStr"/>
+        <v>6219316794.99</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6219316794.99</v>
+      </c>
       <c r="S48" t="n">
-        <v>0.965407</v>
+        <v>1.54</v>
       </c>
       <c r="T48" t="n">
-        <v>-90.56999</v>
+        <v>-51.8411</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2021-11-24T15:53:54.855Z</t>
+          <t>2024-04-08T09:45:25.482Z</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>0.0121196</v>
+        <v>0.307978</v>
       </c>
       <c r="W48" t="n">
-        <v>651.16339</v>
+        <v>140.61084</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>2019-02-08T00:00:00.000Z</t>
+          <t>2023-10-18T02:50:46.942Z</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.265Z</t>
+          <t>2025-04-06T02:14:29.964Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5020,92 +5022,90 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-chain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mnt</t>
+          <t>cro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/30980/large/Mantle-Logo-mark.png?1739213200</t>
+          <t>https://coin-images.coingecko.com/coins/images/7310/large/cro_token_logo.png?1696507599</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.736215</v>
+        <v>0.090688</v>
       </c>
       <c r="F49" t="n">
-        <v>2476915146</v>
+        <v>2490465181</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>4578341512</v>
+        <v>8844502919</v>
       </c>
       <c r="I49" t="n">
-        <v>180938248</v>
+        <v>23021916</v>
       </c>
       <c r="J49" t="n">
-        <v>0.744278</v>
+        <v>0.094995</v>
       </c>
       <c r="K49" t="n">
-        <v>0.730614</v>
+        <v>0.09055000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.000551002556037017</v>
+        <v>-0.002727136845546679</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.07479</v>
+        <v>-2.91938</v>
       </c>
       <c r="N49" t="n">
-        <v>-1979297.643931866</v>
+        <v>-75543521.52614403</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.07985</v>
+        <v>-2.94401</v>
       </c>
       <c r="P49" t="n">
-        <v>3364694382.83684</v>
+        <v>27436500990.17432</v>
       </c>
       <c r="Q49" t="n">
-        <v>6219316794.99</v>
-      </c>
-      <c r="R49" t="n">
-        <v>6219316794.99</v>
-      </c>
+        <v>97436500990.17432</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>1.54</v>
+        <v>0.965407</v>
       </c>
       <c r="T49" t="n">
-        <v>-52.08866</v>
+        <v>-90.58548</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2024-04-08T09:45:25.482Z</t>
+          <t>2021-11-24T15:53:54.855Z</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>0.307978</v>
+        <v>0.0121196</v>
       </c>
       <c r="W49" t="n">
-        <v>139.37398</v>
+        <v>649.9291899999999</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>2023-10-18T02:50:46.942Z</t>
+          <t>2019-02-08T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.598Z</t>
+          <t>2025-04-06T02:14:35.312Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5134,19 +5134,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.97</v>
+        <v>5.03</v>
       </c>
       <c r="F50" t="n">
-        <v>2401319509</v>
+        <v>2431496961</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>2644320439</v>
+        <v>2677551608</v>
       </c>
       <c r="I50" t="n">
-        <v>46010815</v>
+        <v>50914335</v>
       </c>
       <c r="J50" t="n">
         <v>5.09</v>
@@ -5155,29 +5155,29 @@
         <v>4.96</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.1076605960609651</v>
+        <v>-0.04423423382949654</v>
       </c>
       <c r="M50" t="n">
-        <v>-2.11854</v>
+        <v>-0.8711</v>
       </c>
       <c r="N50" t="n">
-        <v>-54504500.32097483</v>
+        <v>-21403986.27477646</v>
       </c>
       <c r="O50" t="n">
-        <v>-2.2194</v>
+        <v>-0.8726</v>
       </c>
       <c r="P50" t="n">
-        <v>482989289.5447331</v>
+        <v>482989219.9683003</v>
       </c>
       <c r="Q50" t="n">
-        <v>531865270.4480199</v>
+        <v>531865177.3995068</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
         <v>700.65</v>
       </c>
       <c r="T50" t="n">
-        <v>-99.28932</v>
+        <v>-99.28049</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>2.87</v>
       </c>
       <c r="W50" t="n">
-        <v>73.79872</v>
+        <v>75.95749000000001</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.071Z</t>
+          <t>2025-04-06T02:14:29.875Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5227,43 +5227,43 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.72</v>
+        <v>15.87</v>
       </c>
       <c r="F51" t="n">
-        <v>2379335845</v>
+        <v>2401816539</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>2379344295</v>
+        <v>2401842181</v>
       </c>
       <c r="I51" t="n">
-        <v>47935830</v>
+        <v>46434364</v>
       </c>
       <c r="J51" t="n">
         <v>16.36</v>
       </c>
       <c r="K51" t="n">
-        <v>15.73</v>
+        <v>15.72</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.5648066896622428</v>
+        <v>-0.3725527320425055</v>
       </c>
       <c r="M51" t="n">
-        <v>-3.46858</v>
+        <v>-2.29431</v>
       </c>
       <c r="N51" t="n">
-        <v>-85961823.19827652</v>
+        <v>-56267870.64668274</v>
       </c>
       <c r="O51" t="n">
-        <v>-3.48687</v>
+        <v>-2.28909</v>
       </c>
       <c r="P51" t="n">
-        <v>151405957.7431831</v>
+        <v>151406495.4711831</v>
       </c>
       <c r="Q51" t="n">
-        <v>151406495.4711831</v>
+        <v>151408111.9191831</v>
       </c>
       <c r="R51" t="n">
         <v>210700000</v>
@@ -5272,7 +5272,7 @@
         <v>167.09</v>
       </c>
       <c r="T51" t="n">
-        <v>-90.59405</v>
+        <v>-90.51049</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>0.615038</v>
       </c>
       <c r="W51" t="n">
-        <v>2455.28277</v>
+        <v>2477.98354</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5293,11 +5293,11 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.237Z</t>
+          <t>2025-04-06T02:14:26.998Z</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>33.93041963827967</v>
+        <v>34.25675272604264</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -5305,96 +5305,98 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>3393.041963827967</v>
+        <v>3425.675272604265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ethena-staked-usde</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>susde</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ethena Staked USDe</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33669/large/sUSDe-Symbol-Color.png?1716307680</t>
+          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.16</v>
+        <v>151.18</v>
       </c>
       <c r="F52" t="n">
-        <v>2260815482</v>
+        <v>2284526979</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2260815482</v>
+        <v>2421096372</v>
       </c>
       <c r="I52" t="n">
-        <v>5666891</v>
+        <v>149304894</v>
       </c>
       <c r="J52" t="n">
-        <v>1.17</v>
+        <v>154.74</v>
       </c>
       <c r="K52" t="n">
-        <v>1.16</v>
+        <v>149.56</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00038523</v>
+        <v>-1.568622401379031</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03313</v>
+        <v>-1.02696</v>
       </c>
       <c r="N52" t="n">
-        <v>-7841301.910378933</v>
+        <v>-22995128.70437193</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.34564</v>
+        <v>-0.99653</v>
       </c>
       <c r="P52" t="n">
-        <v>1944703108.114663</v>
+        <v>15097470.75411124</v>
       </c>
       <c r="Q52" t="n">
-        <v>1944703108.114663</v>
-      </c>
-      <c r="R52" t="inlineStr"/>
+        <v>16000000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>16000000</v>
+      </c>
       <c r="S52" t="n">
-        <v>1.29</v>
+        <v>661.6900000000001</v>
       </c>
       <c r="T52" t="n">
-        <v>-9.877079999999999</v>
+        <v>-77.13554000000001</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2025-01-29T17:52:32.991Z</t>
+          <t>2021-05-18T21:19:59.514Z</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>1.012</v>
+        <v>26.02</v>
       </c>
       <c r="W52" t="n">
-        <v>14.93119</v>
+        <v>481.3741</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>2024-04-03T14:23:03.162Z</t>
+          <t>2020-11-05T09:20:11.928Z</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.131Z</t>
+          <t>2025-04-06T02:14:34.618Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5404,92 +5406,90 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>susde</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
+          <t>https://coin-images.coingecko.com/coins/images/33669/large/sUSDe-Symbol-Color.png?1716307680</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>149.58</v>
+        <v>1.16</v>
       </c>
       <c r="F53" t="n">
-        <v>2258571805</v>
+        <v>2262357139</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2393590425</v>
+        <v>2262357139</v>
       </c>
       <c r="I53" t="n">
-        <v>155778437</v>
+        <v>5749582</v>
       </c>
       <c r="J53" t="n">
-        <v>154.74</v>
+        <v>1.17</v>
       </c>
       <c r="K53" t="n">
-        <v>149.56</v>
+        <v>1.16</v>
       </c>
       <c r="L53" t="n">
-        <v>-3.336198280488162</v>
+        <v>-0.000303546166818824</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.18172</v>
+        <v>-0.02609</v>
       </c>
       <c r="N53" t="n">
-        <v>-54476437.05083752</v>
+        <v>-6351456.101997375</v>
       </c>
       <c r="O53" t="n">
-        <v>-2.35518</v>
+        <v>-0.27996</v>
       </c>
       <c r="P53" t="n">
-        <v>15097465.5094265</v>
+        <v>1944687253.066791</v>
       </c>
       <c r="Q53" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="R53" t="n">
-        <v>16000000</v>
-      </c>
+        <v>1944687253.066791</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>661.6900000000001</v>
+        <v>1.29</v>
       </c>
       <c r="T53" t="n">
-        <v>-77.33194</v>
+        <v>-9.8581</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2021-05-18T21:19:59.514Z</t>
+          <t>2025-01-29T17:52:32.991Z</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>26.02</v>
+        <v>1.012</v>
       </c>
       <c r="W53" t="n">
-        <v>476.38027</v>
+        <v>14.9554</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>2020-11-05T09:20:11.928Z</t>
+          <t>2024-04-03T14:23:03.162Z</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.246Z</t>
+          <t>2025-04-06T02:14:26.920Z</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -5518,37 +5518,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.994854</v>
+        <v>0.994638</v>
       </c>
       <c r="F54" t="n">
-        <v>2176872274</v>
+        <v>2176459721</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>2176872274</v>
+        <v>2176459721</v>
       </c>
       <c r="I54" t="n">
-        <v>1329430873</v>
+        <v>1339689288</v>
       </c>
       <c r="J54" t="n">
-        <v>0.997539</v>
+        <v>0.9965079999999999</v>
       </c>
       <c r="K54" t="n">
         <v>0.991821</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.002684739147875703</v>
+        <v>-0.00072307042984554</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.26914</v>
+        <v>-0.07264</v>
       </c>
       <c r="N54" t="n">
-        <v>-5831793.236069679</v>
+        <v>-1518250.789221287</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.26718</v>
+        <v>-0.06970999999999999</v>
       </c>
       <c r="P54" t="n">
         <v>2188129088.971388</v>
@@ -5561,7 +5561,7 @@
         <v>1.15</v>
       </c>
       <c r="T54" t="n">
-        <v>-13.5817</v>
+        <v>-13.55776</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>0.940377</v>
       </c>
       <c r="W54" t="n">
-        <v>5.80457</v>
+        <v>5.83389</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.965Z</t>
+          <t>2025-04-06T02:14:27.432Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5611,50 +5611,50 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="F55" t="n">
-        <v>2119286073</v>
+        <v>2124874791</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>2119299294</v>
+        <v>2124874791</v>
       </c>
       <c r="I55" t="n">
-        <v>122339028</v>
+        <v>116086981</v>
       </c>
       <c r="J55" t="n">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="K55" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.2309339786903406</v>
+        <v>-0.1889358315179459</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.60977</v>
+        <v>-3.79433</v>
       </c>
       <c r="N55" t="n">
-        <v>-104095781.190377</v>
+        <v>-82808017.11834812</v>
       </c>
       <c r="O55" t="n">
-        <v>-4.68187</v>
+        <v>-3.7509</v>
       </c>
       <c r="P55" t="n">
-        <v>443620047.459825</v>
+        <v>443645515.642958</v>
       </c>
       <c r="Q55" t="n">
-        <v>443622815.006201</v>
+        <v>443645515.642958</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
         <v>44.45</v>
       </c>
       <c r="T55" t="n">
-        <v>-89.25096000000001</v>
+        <v>-89.23623000000001</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>311.85278</v>
+        <v>312.41733</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5675,11 +5675,11 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.821Z</t>
+          <t>2025-04-06T02:14:27.561Z</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>46.78728435519126</v>
+        <v>46.9049298654142</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>4678.728435519126</v>
+        <v>4690.49298654142</v>
       </c>
     </row>
     <row r="56">
@@ -5776,7 +5776,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:08.644Z</t>
+          <t>2025-04-06T02:05:05.687Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>218.22</v>
+        <v>218.61</v>
       </c>
       <c r="F57" t="n">
-        <v>1869005495</v>
+        <v>1873095843</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>4584627520</v>
+        <v>4594661049</v>
       </c>
       <c r="I57" t="n">
-        <v>43325647</v>
+        <v>41916362</v>
       </c>
       <c r="J57" t="n">
-        <v>222.13</v>
+        <v>220.29</v>
       </c>
       <c r="K57" t="n">
         <v>212.94</v>
       </c>
       <c r="L57" t="n">
-        <v>-2.902722660482567</v>
+        <v>0.089959</v>
       </c>
       <c r="M57" t="n">
-        <v>-1.31271</v>
+        <v>0.04117</v>
       </c>
       <c r="N57" t="n">
-        <v>-26587462.13933873</v>
+        <v>2245221</v>
       </c>
       <c r="O57" t="n">
-        <v>-1.40259</v>
+        <v>0.12001</v>
       </c>
       <c r="P57" t="n">
         <v>8561026</v>
@@ -5850,7 +5850,7 @@
         <v>757.6</v>
       </c>
       <c r="T57" t="n">
-        <v>-71.06235</v>
+        <v>-71.11947000000001</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>30.83</v>
       </c>
       <c r="W57" t="n">
-        <v>611.10378</v>
+        <v>609.70016</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:57.906Z</t>
+          <t>2025-04-06T02:14:33.992Z</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr"/>
@@ -5900,37 +5900,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.02155061</v>
+        <v>0.02166326</v>
       </c>
       <c r="F58" t="n">
-        <v>1853178127</v>
+        <v>1863464392</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>1853178127</v>
+        <v>1863464392</v>
       </c>
       <c r="I58" t="n">
-        <v>29061393</v>
+        <v>29704372</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02223514</v>
+        <v>0.02223187</v>
       </c>
       <c r="K58" t="n">
         <v>0.02151757</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.000659804958347263</v>
+        <v>-0.00045703059572981</v>
       </c>
       <c r="M58" t="n">
-        <v>-2.9707</v>
+        <v>-2.06611</v>
       </c>
       <c r="N58" t="n">
-        <v>-57556920.34612584</v>
+        <v>-38601286.63915896</v>
       </c>
       <c r="O58" t="n">
-        <v>-3.01229</v>
+        <v>-2.02944</v>
       </c>
       <c r="P58" t="n">
         <v>85985041177</v>
@@ -5945,7 +5945,7 @@
         <v>0.280991</v>
       </c>
       <c r="T58" t="n">
-        <v>-92.33193</v>
+        <v>-92.28363</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>0.00191713</v>
       </c>
       <c r="W58" t="n">
-        <v>1023.89703</v>
+        <v>1030.976</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -5966,11 +5966,11 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.176Z</t>
+          <t>2025-04-06T02:14:26.945Z</t>
         </is>
       </c>
       <c r="AA58" t="n">
-        <v>3.21696794079133</v>
+        <v>3.188860012016925</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>321.6967940791329</v>
+        <v>318.8860012016925</v>
       </c>
     </row>
     <row r="59">
@@ -6003,37 +6003,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.1</v>
+        <v>9.18</v>
       </c>
       <c r="F59" t="n">
-        <v>1819777845</v>
+        <v>1835846999</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>9098890290</v>
+        <v>9179236065</v>
       </c>
       <c r="I59" t="n">
-        <v>170290219</v>
+        <v>164196497</v>
       </c>
       <c r="J59" t="n">
-        <v>9.44</v>
+        <v>9.4</v>
       </c>
       <c r="K59" t="n">
         <v>9.08</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.2509110743038789</v>
+        <v>-0.2207661395769289</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.68259</v>
+        <v>-2.34961</v>
       </c>
       <c r="N59" t="n">
-        <v>-54353930.71780443</v>
+        <v>-43848198.69005227</v>
       </c>
       <c r="O59" t="n">
-        <v>-2.90022</v>
+        <v>-2.33273</v>
       </c>
       <c r="P59" t="n">
         <v>199999976.636</v>
@@ -6048,7 +6048,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="T59" t="n">
-        <v>-87.58583</v>
+        <v>-87.47702</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>4.29</v>
       </c>
       <c r="W59" t="n">
-        <v>112.45626</v>
+        <v>114.31833</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.103Z</t>
+          <t>2025-04-06T02:14:31.574Z</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
@@ -6098,50 +6098,50 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>82552</v>
+        <v>83166</v>
       </c>
       <c r="F60" t="n">
-        <v>1760232846</v>
+        <v>1769124760</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>1760232846</v>
+        <v>1769124760</v>
       </c>
       <c r="I60" t="n">
-        <v>22147883</v>
+        <v>17757253</v>
       </c>
       <c r="J60" t="n">
-        <v>84082</v>
+        <v>83836</v>
       </c>
       <c r="K60" t="n">
         <v>82164</v>
       </c>
       <c r="L60" t="n">
-        <v>-1364.017692166861</v>
+        <v>-469.6272812807874</v>
       </c>
       <c r="M60" t="n">
-        <v>-1.62546</v>
+        <v>-0.56152</v>
       </c>
       <c r="N60" t="n">
-        <v>-22973159.05949426</v>
+        <v>-9511015.920071125</v>
       </c>
       <c r="O60" t="n">
-        <v>-1.28831</v>
+        <v>-0.53474</v>
       </c>
       <c r="P60" t="n">
-        <v>21265.66648188803</v>
+        <v>21271.7536461179</v>
       </c>
       <c r="Q60" t="n">
-        <v>21265.66648188803</v>
+        <v>21271.7536461179</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
         <v>114576</v>
       </c>
       <c r="T60" t="n">
-        <v>-27.66341</v>
+        <v>-27.41765</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>52119</v>
       </c>
       <c r="W60" t="n">
-        <v>59.01987</v>
+        <v>59.56012</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:53.972Z</t>
+          <t>2025-04-06T02:14:29.832Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6191,37 +6191,37 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.316855</v>
+        <v>0.314378</v>
       </c>
       <c r="F61" t="n">
-        <v>1759484631</v>
+        <v>1748079668</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>4752687803</v>
+        <v>4721880926</v>
       </c>
       <c r="I61" t="n">
-        <v>134476001</v>
+        <v>131972769</v>
       </c>
       <c r="J61" t="n">
         <v>0.331774</v>
       </c>
       <c r="K61" t="n">
-        <v>0.315425</v>
+        <v>0.314472</v>
       </c>
       <c r="L61" t="n">
-        <v>0.00143026</v>
+        <v>-0.008811048913652308</v>
       </c>
       <c r="M61" t="n">
-        <v>0.45344</v>
+        <v>-2.72628</v>
       </c>
       <c r="N61" t="n">
-        <v>90305402</v>
+        <v>-49734679.77878261</v>
       </c>
       <c r="O61" t="n">
-        <v>5.41017</v>
+        <v>-2.7664</v>
       </c>
       <c r="P61" t="n">
         <v>5553125000</v>
@@ -6234,7 +6234,7 @@
         <v>1.52</v>
       </c>
       <c r="T61" t="n">
-        <v>-79.00917</v>
+        <v>-79.26434</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>0.195078</v>
       </c>
       <c r="W61" t="n">
-        <v>63.30818</v>
+        <v>61.32293</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.897Z</t>
+          <t>2025-04-06T02:14:26.949Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6265,92 +6265,92 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>fasttoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ftn</t>
+          <t>fil</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fasttoken</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
+          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.03</v>
+        <v>2.69</v>
       </c>
       <c r="F62" t="n">
-        <v>1735134595</v>
+        <v>1739638519</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>3512288600</v>
+        <v>5266840980</v>
       </c>
       <c r="I62" t="n">
-        <v>46376484</v>
+        <v>96516060</v>
       </c>
       <c r="J62" t="n">
-        <v>4.05</v>
+        <v>2.76</v>
       </c>
       <c r="K62" t="n">
-        <v>4.02</v>
+        <v>2.66</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.004212932506342248</v>
+        <v>-0.07199225804561848</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.10433</v>
+        <v>-2.60927</v>
       </c>
       <c r="N62" t="n">
-        <v>-2536399.754429579</v>
+        <v>-48032242.45096469</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.14597</v>
+        <v>-2.68686</v>
       </c>
       <c r="P62" t="n">
-        <v>430162637</v>
+        <v>647248540</v>
       </c>
       <c r="Q62" t="n">
-        <v>870742437</v>
+        <v>1959576715</v>
       </c>
       <c r="R62" t="n">
-        <v>1000000000</v>
+        <v>1959576715</v>
       </c>
       <c r="S62" t="n">
-        <v>4.09</v>
+        <v>236.84</v>
       </c>
       <c r="T62" t="n">
-        <v>-1.44048</v>
+        <v>-98.86363</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>2025-04-02T20:15:55.922Z</t>
+          <t>2021-04-01T13:29:41.564Z</t>
         </is>
       </c>
       <c r="V62" t="n">
-        <v>0.398142</v>
+        <v>2.48</v>
       </c>
       <c r="W62" t="n">
-        <v>913.47117</v>
+        <v>8.63888</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>2023-01-21T10:15:39.503Z</t>
+          <t>2025-03-11T01:10:57.279Z</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.953Z</t>
+          <t>2025-04-06T02:14:28.021Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6360,92 +6360,92 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>fasttoken</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fil</t>
+          <t>ftn</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Fasttoken</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12817/large/filecoin.png?1696512609</t>
+          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.68</v>
+        <v>4.04</v>
       </c>
       <c r="F63" t="n">
-        <v>1734576658</v>
+        <v>1735839046</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>5251607856</v>
+        <v>3513714561</v>
       </c>
       <c r="I63" t="n">
-        <v>106531274</v>
+        <v>48674296</v>
       </c>
       <c r="J63" t="n">
-        <v>2.79</v>
+        <v>4.05</v>
       </c>
       <c r="K63" t="n">
-        <v>2.66</v>
+        <v>4.02</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.1101910252359759</v>
+        <v>-0.005271430417851164</v>
       </c>
       <c r="M63" t="n">
-        <v>-3.9498</v>
+        <v>-0.13044</v>
       </c>
       <c r="N63" t="n">
-        <v>-71796560.45550561</v>
+        <v>-3404522.20476222</v>
       </c>
       <c r="O63" t="n">
-        <v>-3.97462</v>
+        <v>-0.19575</v>
       </c>
       <c r="P63" t="n">
-        <v>647237239</v>
+        <v>430162637</v>
       </c>
       <c r="Q63" t="n">
-        <v>1959576788</v>
+        <v>870742437</v>
       </c>
       <c r="R63" t="n">
-        <v>1959576796</v>
+        <v>1000000000</v>
       </c>
       <c r="S63" t="n">
-        <v>236.84</v>
+        <v>4.09</v>
       </c>
       <c r="T63" t="n">
-        <v>-98.86396999999999</v>
+        <v>-1.35931</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2021-04-01T13:29:41.564Z</t>
+          <t>2025-04-02T20:15:55.922Z</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>2.48</v>
+        <v>0.398142</v>
       </c>
       <c r="W63" t="n">
-        <v>8.60627</v>
+        <v>914.30584</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2025-03-11T01:10:57.279Z</t>
+          <t>2023-01-21T10:15:39.503Z</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.879Z</t>
+          <t>2025-04-06T02:14:29.814Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6474,43 +6474,43 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.06336700000000001</v>
+        <v>0.06357699999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>1640952169</v>
+        <v>1647585604</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1645746461</v>
+        <v>1652452490</v>
       </c>
       <c r="I64" t="n">
-        <v>41689799</v>
+        <v>43015255</v>
       </c>
       <c r="J64" t="n">
-        <v>0.065815</v>
+        <v>0.065138</v>
       </c>
       <c r="K64" t="n">
         <v>0.062958</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.001917213868012718</v>
+        <v>-0.001263430161559845</v>
       </c>
       <c r="M64" t="n">
-        <v>-2.93674</v>
+        <v>-1.94853</v>
       </c>
       <c r="N64" t="n">
-        <v>-49779526.44702363</v>
+        <v>-36698389.85136938</v>
       </c>
       <c r="O64" t="n">
-        <v>-2.94426</v>
+        <v>-2.17887</v>
       </c>
       <c r="P64" t="n">
         <v>25900045779.39798</v>
       </c>
       <c r="Q64" t="n">
-        <v>25975716702.64175</v>
+        <v>25976553233.51165</v>
       </c>
       <c r="R64" t="n">
         <v>28704026601</v>
@@ -6519,7 +6519,7 @@
         <v>0.207411</v>
       </c>
       <c r="T64" t="n">
-        <v>-69.44908</v>
+        <v>-69.28869</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>0.00017105</v>
       </c>
       <c r="W64" t="n">
-        <v>36945.38162</v>
+        <v>37139.87243</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.048Z</t>
+          <t>2025-04-06T02:14:29.339Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6550,90 +6550,90 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>render-token</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>POL (ex-MATIC)</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.186717</v>
+        <v>3.14</v>
       </c>
       <c r="F65" t="n">
-        <v>1615870355</v>
+        <v>1628584640</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1942165228</v>
+        <v>1675015819</v>
       </c>
       <c r="I65" t="n">
-        <v>40846816</v>
+        <v>87070462</v>
       </c>
       <c r="J65" t="n">
-        <v>0.191661</v>
+        <v>3.22</v>
       </c>
       <c r="K65" t="n">
-        <v>0.186379</v>
+        <v>3.1</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.004943672169489738</v>
+        <v>-0.06828579879276564</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.57939</v>
+        <v>-2.12563</v>
       </c>
       <c r="N65" t="n">
-        <v>-41091913.87843204</v>
+        <v>-40005346.88455415</v>
       </c>
       <c r="O65" t="n">
-        <v>-2.47995</v>
+        <v>-2.39755</v>
       </c>
       <c r="P65" t="n">
-        <v>8651781057.03301</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="Q65" t="n">
-        <v>10398846835.30774</v>
+        <v>532476763.3362826</v>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>1.29</v>
+        <v>13.53</v>
       </c>
       <c r="T65" t="n">
-        <v>-85.49095</v>
+        <v>-76.78727000000001</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2024-03-13T18:55:06.692Z</t>
+          <t>2024-03-17T16:30:24.636Z</t>
         </is>
       </c>
       <c r="V65" t="n">
-        <v>0.179065</v>
+        <v>0.03665669</v>
       </c>
       <c r="W65" t="n">
-        <v>4.32705</v>
+        <v>8470.79868</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2025-04-03T13:07:44.614Z</t>
+          <t>2020-06-16T13:22:25.900Z</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:57.312Z</t>
+          <t>2025-04-06T02:14:34.676Z</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr"/>
@@ -6643,90 +6643,90 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>render-token</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>pol</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>POL (ex-MATIC)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.12</v>
+        <v>0.187233</v>
       </c>
       <c r="F66" t="n">
-        <v>1614499842</v>
+        <v>1622861346</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1660529461</v>
+        <v>1950565432</v>
       </c>
       <c r="I66" t="n">
-        <v>88039642</v>
+        <v>40177560</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>0.190957</v>
       </c>
       <c r="K66" t="n">
-        <v>3.1</v>
+        <v>0.186379</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.1313133148347592</v>
+        <v>-0.00250049403058597</v>
       </c>
       <c r="M66" t="n">
-        <v>-4.04203</v>
+        <v>-1.31789</v>
       </c>
       <c r="N66" t="n">
-        <v>-71897589.50848508</v>
+        <v>-17853522.25465965</v>
       </c>
       <c r="O66" t="n">
-        <v>-4.26338</v>
+        <v>-1.08816</v>
       </c>
       <c r="P66" t="n">
-        <v>517716590.0562826</v>
+        <v>8651792087.256233</v>
       </c>
       <c r="Q66" t="n">
-        <v>532476763.3362826</v>
+        <v>10398846835.30774</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>13.53</v>
+        <v>1.29</v>
       </c>
       <c r="T66" t="n">
-        <v>-76.82616</v>
+        <v>-85.43577999999999</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2024-03-17T16:30:24.636Z</t>
+          <t>2024-03-13T18:55:06.692Z</t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>0.03665669</v>
+        <v>0.179065</v>
       </c>
       <c r="W66" t="n">
-        <v>8456.442129999999</v>
+        <v>4.72378</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2020-06-16T13:22:25.900Z</t>
+          <t>2025-04-03T13:07:44.614Z</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.764Z</t>
+          <t>2025-04-06T02:14:32.098Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6736,183 +6736,193 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tia</t>
+          <t>algo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+          <t>https://coin-images.coingecko.com/coins/images/4380/large/download.png?1696504978</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2.66</v>
+        <v>0.184243</v>
       </c>
       <c r="F67" t="n">
-        <v>1564235672</v>
+        <v>1577986872</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>2962367696</v>
+        <v>1577991978</v>
       </c>
       <c r="I67" t="n">
-        <v>42536321</v>
+        <v>51285283</v>
       </c>
       <c r="J67" t="n">
-        <v>2.79</v>
+        <v>0.189656</v>
       </c>
       <c r="K67" t="n">
-        <v>2.64</v>
+        <v>0.180705</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.08196966047774668</v>
+        <v>-0.002269424478438697</v>
       </c>
       <c r="M67" t="n">
-        <v>-2.99179</v>
+        <v>-1.21677</v>
       </c>
       <c r="N67" t="n">
-        <v>-46193585.57941747</v>
+        <v>-15894346.80593657</v>
       </c>
       <c r="O67" t="n">
-        <v>-2.8684</v>
+        <v>-0.99721</v>
       </c>
       <c r="P67" t="n">
-        <v>587939919.143268</v>
+        <v>8558640568.187729</v>
       </c>
       <c r="Q67" t="n">
-        <v>1113447452.054445</v>
-      </c>
-      <c r="R67" t="inlineStr"/>
+        <v>8558668261.538824</v>
+      </c>
+      <c r="R67" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S67" t="n">
-        <v>20.85</v>
+        <v>3.56</v>
       </c>
       <c r="T67" t="n">
-        <v>-87.21693999999999</v>
+        <v>-94.82854</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2024-02-10T14:30:02.495Z</t>
+          <t>2019-06-20T14:51:19.480Z</t>
         </is>
       </c>
       <c r="V67" t="n">
-        <v>2.08</v>
+        <v>0.08751299999999999</v>
       </c>
       <c r="W67" t="n">
-        <v>27.92799</v>
+        <v>110.44037</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>2023-10-31T15:14:31.951Z</t>
+          <t>2023-09-11T19:42:08.247Z</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.928Z</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
+          <t>2025-04-06T02:14:32.055Z</t>
+        </is>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.923232170468389</v>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
+        <v>-92.32321704683889</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sonic-3</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>tia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.492273</v>
+        <v>2.66</v>
       </c>
       <c r="F68" t="n">
-        <v>1563616082</v>
+        <v>1567177217</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>1563616082</v>
+        <v>2967938428</v>
       </c>
       <c r="I68" t="n">
-        <v>89673080</v>
+        <v>43820853</v>
       </c>
       <c r="J68" t="n">
-        <v>0.508373</v>
+        <v>2.79</v>
       </c>
       <c r="K68" t="n">
-        <v>0.490128</v>
+        <v>2.64</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.009067078318162392</v>
+        <v>-0.06989450739747305</v>
       </c>
       <c r="M68" t="n">
-        <v>-1.80857</v>
+        <v>-2.55782</v>
       </c>
       <c r="N68" t="n">
-        <v>-29335240.7943418</v>
+        <v>-36489547.29414225</v>
       </c>
       <c r="O68" t="n">
-        <v>-1.84157</v>
+        <v>-2.27538</v>
       </c>
       <c r="P68" t="n">
-        <v>3175000000</v>
+        <v>587939919.143268</v>
       </c>
       <c r="Q68" t="n">
-        <v>3175000000</v>
+        <v>1113447452.054445</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>1.029</v>
+        <v>20.85</v>
       </c>
       <c r="T68" t="n">
-        <v>-52.11899</v>
+        <v>-87.20635</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2025-01-04T21:35:44.705Z</t>
+          <t>2024-02-10T14:30:02.495Z</t>
         </is>
       </c>
       <c r="V68" t="n">
-        <v>0.359647</v>
+        <v>2.08</v>
       </c>
       <c r="W68" t="n">
-        <v>37.05704</v>
+        <v>28.034</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>2025-02-03T02:11:37.229Z</t>
+          <t>2023-10-31T15:14:31.951Z</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.826Z</t>
+          <t>2025-04-06T02:14:34.982Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6922,105 +6932,95 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>sonic-3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>algo</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4380/large/download.png?1696504978</t>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.180697</v>
+        <v>0.493244</v>
       </c>
       <c r="F69" t="n">
-        <v>1546411117</v>
+        <v>1566466338</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>1546413878</v>
+        <v>1566466338</v>
       </c>
       <c r="I69" t="n">
-        <v>50630823</v>
+        <v>82803590</v>
       </c>
       <c r="J69" t="n">
-        <v>0.189656</v>
+        <v>0.507891</v>
       </c>
       <c r="K69" t="n">
-        <v>0.180705</v>
+        <v>0.490128</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.00762551594356356</v>
+        <v>-0.009722393241893779</v>
       </c>
       <c r="M69" t="n">
-        <v>-4.04918</v>
+        <v>-1.93301</v>
       </c>
       <c r="N69" t="n">
-        <v>-64129204.79151416</v>
+        <v>-32966049.43929148</v>
       </c>
       <c r="O69" t="n">
-        <v>-3.98184</v>
+        <v>-2.06111</v>
       </c>
       <c r="P69" t="n">
-        <v>8558625288.959131</v>
+        <v>3175000000</v>
       </c>
       <c r="Q69" t="n">
-        <v>8558640568.187729</v>
-      </c>
-      <c r="R69" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>3175000000</v>
+      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>3.56</v>
+        <v>1.029</v>
       </c>
       <c r="T69" t="n">
-        <v>-94.92589</v>
+        <v>-52.05907</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2019-06-20T14:51:19.480Z</t>
+          <t>2025-01-04T21:35:44.705Z</t>
         </is>
       </c>
       <c r="V69" t="n">
-        <v>0.08751299999999999</v>
+        <v>0.359647</v>
       </c>
       <c r="W69" t="n">
-        <v>106.47885</v>
+        <v>37.22855</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2023-09-11T19:42:08.247Z</t>
+          <t>2025-02-03T02:11:37.229Z</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.184Z</t>
-        </is>
-      </c>
-      <c r="AA69" t="n">
-        <v>-0.9247096558428579</v>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC69" t="n">
-        <v>-92.47096558428579</v>
-      </c>
+          <t>2025-04-06T02:14:34.224Z</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7044,19 +7044,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.306271</v>
+        <v>0.306618</v>
       </c>
       <c r="F70" t="n">
-        <v>1414595573</v>
+        <v>1416759271</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>3063278736</v>
+        <v>3067964182</v>
       </c>
       <c r="I70" t="n">
-        <v>59579061</v>
+        <v>57978869</v>
       </c>
       <c r="J70" t="n">
         <v>0.31501</v>
@@ -7065,16 +7065,16 @@
         <v>0.306116</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.008202912395734063</v>
+        <v>-0.006449936661598432</v>
       </c>
       <c r="M70" t="n">
-        <v>-2.60845</v>
+        <v>-2.06024</v>
       </c>
       <c r="N70" t="n">
-        <v>-40326332.53522658</v>
+        <v>-31699002.68670678</v>
       </c>
       <c r="O70" t="n">
-        <v>-2.77172</v>
+        <v>-2.18847</v>
       </c>
       <c r="P70" t="n">
         <v>4617913336</v>
@@ -7089,7 +7089,7 @@
         <v>2.39</v>
       </c>
       <c r="T70" t="n">
-        <v>-87.15846000000001</v>
+        <v>-87.15665</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>0.295397</v>
       </c>
       <c r="W70" t="n">
-        <v>3.91064</v>
+        <v>3.92522</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.167Z</t>
+          <t>2025-04-06T02:14:32.981Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7139,43 +7139,43 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>82339</v>
+        <v>83245</v>
       </c>
       <c r="F71" t="n">
-        <v>1300585601</v>
+        <v>1313925714</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>1300585601</v>
+        <v>1313925714</v>
       </c>
       <c r="I71" t="n">
-        <v>2323672</v>
+        <v>1296252</v>
       </c>
       <c r="J71" t="n">
-        <v>84072</v>
+        <v>83851</v>
       </c>
       <c r="K71" t="n">
         <v>82210</v>
       </c>
       <c r="L71" t="n">
-        <v>-1511.359506305482</v>
+        <v>-586.7590510158043</v>
       </c>
       <c r="M71" t="n">
-        <v>-1.80246</v>
+        <v>-0.69992</v>
       </c>
       <c r="N71" t="n">
-        <v>-15279846.41344047</v>
+        <v>-2654682.605297089</v>
       </c>
       <c r="O71" t="n">
-        <v>-1.1612</v>
+        <v>-0.20163</v>
       </c>
       <c r="P71" t="n">
-        <v>15764.26169823795</v>
+        <v>15766.06345339603</v>
       </c>
       <c r="Q71" t="n">
-        <v>15764.26169823795</v>
+        <v>15766.06345339603</v>
       </c>
       <c r="R71" t="n">
         <v>21000000</v>
@@ -7184,7 +7184,7 @@
         <v>108929</v>
       </c>
       <c r="T71" t="n">
-        <v>-24.37321</v>
+        <v>-23.5398</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>49058</v>
       </c>
       <c r="W71" t="n">
-        <v>67.92382000000001</v>
+        <v>69.77433000000001</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.605Z</t>
+          <t>2025-04-06T02:14:34.133Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7234,37 +7234,37 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.69</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>1211919086</v>
+        <v>1206961512</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>1381528167</v>
+        <v>1375876777</v>
       </c>
       <c r="I72" t="n">
-        <v>31850</v>
+        <v>80893</v>
       </c>
       <c r="J72" t="n">
-        <v>10.21</v>
+        <v>10.2</v>
       </c>
       <c r="K72" t="n">
-        <v>9.69</v>
+        <v>9.65</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.4146553808710998</v>
+        <v>-0.4925295707835016</v>
       </c>
       <c r="M72" t="n">
-        <v>-4.10281</v>
+        <v>-4.86082</v>
       </c>
       <c r="N72" t="n">
-        <v>-51851317.01441693</v>
+        <v>-60100918.52323055</v>
       </c>
       <c r="O72" t="n">
-        <v>-4.10291</v>
+        <v>-4.74333</v>
       </c>
       <c r="P72" t="n">
         <v>125043917.8513356</v>
@@ -7277,7 +7277,7 @@
         <v>28.83</v>
       </c>
       <c r="T72" t="n">
-        <v>-66.38655</v>
+        <v>-66.47189</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>0.342863</v>
       </c>
       <c r="W72" t="n">
-        <v>2726.41112</v>
+        <v>2719.23509</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.547Z</t>
+          <t>2025-04-06T02:14:29.675Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7308,200 +7308,200 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>op</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
+          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.75637</v>
+        <v>0.692015</v>
       </c>
       <c r="F73" t="n">
-        <v>1147034695</v>
+        <v>1146194964</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>1587972461</v>
+        <v>2970736933</v>
       </c>
       <c r="I73" t="n">
-        <v>265471564</v>
+        <v>66858309</v>
       </c>
       <c r="J73" t="n">
-        <v>0.806329</v>
+        <v>0.7140879999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>0.756363</v>
+        <v>0.687344</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.03473839635546461</v>
+        <v>-0.01641461145922574</v>
       </c>
       <c r="M73" t="n">
-        <v>-4.3911</v>
+        <v>-2.31704</v>
       </c>
       <c r="N73" t="n">
-        <v>-53781901.57621717</v>
+        <v>-30196776.05124187</v>
       </c>
       <c r="O73" t="n">
-        <v>-4.47878</v>
+        <v>-2.5669</v>
       </c>
       <c r="P73" t="n">
-        <v>1516885789.1746</v>
+        <v>1657120774</v>
       </c>
       <c r="Q73" t="n">
-        <v>2100000000</v>
+        <v>4294967296</v>
       </c>
       <c r="R73" t="n">
-        <v>2100000000</v>
+        <v>4294967296</v>
       </c>
       <c r="S73" t="n">
-        <v>22.71</v>
+        <v>4.84</v>
       </c>
       <c r="T73" t="n">
-        <v>-96.67084</v>
+        <v>-85.72131</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2018-04-29T07:50:33.540Z</t>
+          <t>2024-03-06T08:35:50.817Z</t>
         </is>
       </c>
       <c r="V73" t="n">
-        <v>0.402746</v>
+        <v>0.402159</v>
       </c>
       <c r="W73" t="n">
-        <v>87.73501</v>
+        <v>71.99763</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>2024-11-04T21:55:59.771Z</t>
+          <t>2022-06-18T20:54:52.178Z</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.957Z</t>
-        </is>
-      </c>
-      <c r="AA73" t="n">
-        <v>-0.235989675094406</v>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC73" t="n">
-        <v>-23.59896750944061</v>
-      </c>
+          <t>2025-04-06T02:14:31.739Z</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
+          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.68957</v>
+        <v>0.753109</v>
       </c>
       <c r="F74" t="n">
-        <v>1142643271</v>
+        <v>1143166779</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>2961531565</v>
+        <v>1582617658</v>
       </c>
       <c r="I74" t="n">
-        <v>71368990</v>
+        <v>226906993</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7140879999999999</v>
+        <v>0.806179</v>
       </c>
       <c r="K74" t="n">
-        <v>0.687344</v>
+        <v>0.748765</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.02254794913545466</v>
+        <v>-0.05096326517411764</v>
       </c>
       <c r="M74" t="n">
-        <v>-3.16632</v>
+        <v>-6.33814</v>
       </c>
       <c r="N74" t="n">
-        <v>-37327457.92062283</v>
+        <v>-77106727.08407688</v>
       </c>
       <c r="O74" t="n">
-        <v>-3.16342</v>
+        <v>-6.31881</v>
       </c>
       <c r="P74" t="n">
-        <v>1657120774</v>
+        <v>1516885789.1746</v>
       </c>
       <c r="Q74" t="n">
-        <v>4294967296</v>
+        <v>2100000000</v>
       </c>
       <c r="R74" t="n">
-        <v>4294967296</v>
+        <v>2100000000</v>
       </c>
       <c r="S74" t="n">
-        <v>4.84</v>
+        <v>22.71</v>
       </c>
       <c r="T74" t="n">
-        <v>-85.72230999999999</v>
+        <v>-96.68531</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2024-03-06T08:35:50.817Z</t>
+          <t>2018-04-29T07:50:33.540Z</t>
         </is>
       </c>
       <c r="V74" t="n">
-        <v>0.402159</v>
+        <v>0.402746</v>
       </c>
       <c r="W74" t="n">
-        <v>71.98551</v>
+        <v>86.91916999999999</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>2022-06-18T20:54:52.178Z</t>
+          <t>2024-11-04T21:55:59.771Z</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.389Z</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
+          <t>2025-04-06T02:14:27.377Z</t>
+        </is>
+      </c>
+      <c r="AA74" t="n">
+        <v>-0.2392834577388757</v>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>-23.92834577388756</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7525,43 +7525,43 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1330.86</v>
+        <v>1349.08</v>
       </c>
       <c r="F75" t="n">
-        <v>1124281399</v>
+        <v>1138308808</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1159173028</v>
+        <v>1173642454</v>
       </c>
       <c r="I75" t="n">
-        <v>51387865</v>
+        <v>51016345</v>
       </c>
       <c r="J75" t="n">
-        <v>1353</v>
+        <v>1359.42</v>
       </c>
       <c r="K75" t="n">
         <v>1309.31</v>
       </c>
       <c r="L75" t="n">
-        <v>-22.14229641517204</v>
+        <v>20.19</v>
       </c>
       <c r="M75" t="n">
-        <v>-1.63653</v>
+        <v>1.51963</v>
       </c>
       <c r="N75" t="n">
-        <v>-20158788.03338647</v>
+        <v>14696152</v>
       </c>
       <c r="O75" t="n">
-        <v>-1.76145</v>
+        <v>1.30794</v>
       </c>
       <c r="P75" t="n">
-        <v>844824.5967822537</v>
+        <v>844816.8962146143</v>
       </c>
       <c r="Q75" t="n">
-        <v>871043.394088899</v>
+        <v>871040.4143447198</v>
       </c>
       <c r="R75" t="n">
         <v>1005577</v>
@@ -7570,7 +7570,7 @@
         <v>6292.31</v>
       </c>
       <c r="T75" t="n">
-        <v>-78.85361</v>
+        <v>-78.55103</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>168.36</v>
       </c>
       <c r="W75" t="n">
-        <v>690.34006</v>
+        <v>701.64906</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.037Z</t>
+          <t>2025-04-06T02:14:30.853Z</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr"/>
@@ -7620,37 +7620,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.427326</v>
+        <v>0.427897</v>
       </c>
       <c r="F76" t="n">
-        <v>1112886304</v>
+        <v>1114913172</v>
       </c>
       <c r="G76" t="n">
         <v>75</v>
       </c>
       <c r="H76" t="n">
-        <v>1159681566</v>
+        <v>1161793661</v>
       </c>
       <c r="I76" t="n">
-        <v>66023464</v>
+        <v>61409582</v>
       </c>
       <c r="J76" t="n">
-        <v>0.448337</v>
+        <v>0.444148</v>
       </c>
       <c r="K76" t="n">
-        <v>0.427146</v>
+        <v>0.426708</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.01878733121977333</v>
+        <v>-0.01548641953631547</v>
       </c>
       <c r="M76" t="n">
-        <v>-4.21133</v>
+        <v>-3.49278</v>
       </c>
       <c r="N76" t="n">
-        <v>-49857592.72582412</v>
+        <v>-40102451.53040886</v>
       </c>
       <c r="O76" t="n">
-        <v>-4.28793</v>
+        <v>-3.47203</v>
       </c>
       <c r="P76" t="n">
         <v>2604959126.672</v>
@@ -7665,7 +7665,7 @@
         <v>3.45</v>
       </c>
       <c r="T76" t="n">
-        <v>-87.59133</v>
+        <v>-87.61877</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>0.008169589999999999</v>
       </c>
       <c r="W76" t="n">
-        <v>5146.4545</v>
+        <v>5134.85164</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7686,11 +7686,11 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.943Z</t>
+          <t>2025-04-06T02:14:27.570Z</t>
         </is>
       </c>
       <c r="AA76" t="n">
-        <v>3.928793289622448</v>
+        <v>3.935372265895008</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
@@ -7698,191 +7698,197 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>392.8793289622448</v>
+        <v>393.5372265895008</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jupiter-exchange-solana</t>
+          <t>xdce-crowd-sale</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jup</t>
+          <t>xdc</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>XDC Network</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
+          <t>https://coin-images.coingecko.com/coins/images/2912/large/xdc-icon.png?1696503661</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.386851</v>
+        <v>0.070164</v>
       </c>
       <c r="F77" t="n">
-        <v>1100437277</v>
+        <v>1102603257</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>2708157090</v>
+        <v>2667585170</v>
       </c>
       <c r="I77" t="n">
-        <v>37832011</v>
+        <v>29718368</v>
       </c>
       <c r="J77" t="n">
-        <v>0.408052</v>
+        <v>0.07026300000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>0.384895</v>
+        <v>0.067193</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.01797727948035949</v>
+        <v>0.0021355</v>
       </c>
       <c r="M77" t="n">
-        <v>-4.44072</v>
+        <v>3.13911</v>
       </c>
       <c r="N77" t="n">
-        <v>-52254326.39003992</v>
+        <v>33366465</v>
       </c>
       <c r="O77" t="n">
-        <v>-4.53324</v>
+        <v>3.12059</v>
       </c>
       <c r="P77" t="n">
-        <v>2844383333.32</v>
+        <v>15699793640.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>6999978144.445098</v>
-      </c>
-      <c r="R77" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>37983323931.15</v>
+      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>0.192754</v>
       </c>
       <c r="T77" t="n">
-        <v>-80.62933</v>
+        <v>-63.71254</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024-01-31T15:02:47.304Z</t>
+          <t>2021-08-21T04:39:48.324Z</t>
         </is>
       </c>
       <c r="V77" t="n">
-        <v>0.359458</v>
+        <v>0.00039532</v>
       </c>
       <c r="W77" t="n">
-        <v>7.77796</v>
+        <v>17593.49292</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2025-04-03T14:56:10.674Z</t>
+          <t>2019-07-22T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.975Z</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
+          <t>2025-04-06T02:14:27.804Z</t>
+        </is>
+      </c>
+      <c r="AA77" t="n">
+        <v>4.154688799526135</v>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>415.4688799526136</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binance-peg-weth</t>
+          <t>story-2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Binance-Peg WETH</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
+          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1789.08</v>
+        <v>4.23</v>
       </c>
       <c r="F78" t="n">
-        <v>1083548584</v>
+        <v>1095814286</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>1083548584</v>
+        <v>4236951486</v>
       </c>
       <c r="I78" t="n">
-        <v>19928195</v>
+        <v>42333196</v>
       </c>
       <c r="J78" t="n">
-        <v>1826.91</v>
+        <v>4.33</v>
       </c>
       <c r="K78" t="n">
-        <v>1776.91</v>
+        <v>4.09</v>
       </c>
       <c r="L78" t="n">
-        <v>-29.65814445862884</v>
+        <v>0.063735</v>
       </c>
       <c r="M78" t="n">
-        <v>-1.6307</v>
+        <v>1.53135</v>
       </c>
       <c r="N78" t="n">
-        <v>-15935972.84591579</v>
+        <v>16180943</v>
       </c>
       <c r="O78" t="n">
-        <v>-1.4494</v>
+        <v>1.49874</v>
       </c>
       <c r="P78" t="n">
-        <v>604999.999959841</v>
+        <v>259218618.17</v>
       </c>
       <c r="Q78" t="n">
-        <v>604999.999959841</v>
+        <v>1002265368.43</v>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>4098.26</v>
+        <v>7.31</v>
       </c>
       <c r="T78" t="n">
-        <v>-56.27348</v>
+        <v>-42.04166</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2024-12-06T20:27:27.286Z</t>
+          <t>2025-02-26T16:11:25.410Z</t>
         </is>
       </c>
       <c r="V78" t="n">
-        <v>1755.76</v>
+        <v>1</v>
       </c>
       <c r="W78" t="n">
-        <v>2.06538</v>
+        <v>323.75564</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2025-04-03T14:57:46.428Z</t>
+          <t>2025-02-14T03:11:08.309Z</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.334Z</t>
+          <t>2025-04-06T02:14:34.596Z</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr"/>
@@ -7892,90 +7898,92 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>story-2</t>
+          <t>jupiter-exchange-solana</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>jup</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
+          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4.15</v>
+        <v>0.384724</v>
       </c>
       <c r="F79" t="n">
-        <v>1075981581</v>
+        <v>1095804839</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>4160438475</v>
+        <v>2696756739</v>
       </c>
       <c r="I79" t="n">
-        <v>40610375</v>
+        <v>38849074</v>
       </c>
       <c r="J79" t="n">
-        <v>4.33</v>
+        <v>0.403322</v>
       </c>
       <c r="K79" t="n">
-        <v>4.09</v>
+        <v>0.379246</v>
       </c>
       <c r="L79" t="n">
-        <v>0.01537794</v>
+        <v>-0.01823183485825358</v>
       </c>
       <c r="M79" t="n">
-        <v>0.37169</v>
+        <v>-4.52452</v>
       </c>
       <c r="N79" t="n">
-        <v>3682189</v>
+        <v>-48996285.54678631</v>
       </c>
       <c r="O79" t="n">
-        <v>0.34339</v>
+        <v>-4.27989</v>
       </c>
       <c r="P79" t="n">
-        <v>259205174.92</v>
+        <v>2844383333.32</v>
       </c>
       <c r="Q79" t="n">
-        <v>1002254314.82</v>
-      </c>
-      <c r="R79" t="inlineStr"/>
+        <v>6999978144.445098</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S79" t="n">
-        <v>7.31</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
-        <v>-42.92774</v>
+        <v>-80.75774</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2025-02-26T16:11:25.410Z</t>
+          <t>2024-01-31T15:02:47.304Z</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>1</v>
+        <v>0.359458</v>
       </c>
       <c r="W79" t="n">
-        <v>317.27719</v>
+        <v>7.06347</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2025-02-14T03:11:08.309Z</t>
+          <t>2025-04-03T14:56:10.674Z</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.839Z</t>
+          <t>2025-04-06T02:14:30.275Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -7985,103 +7993,95 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>xdce-crowd-sale</t>
+          <t>binance-peg-weth</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>xdc</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>XDC Network</t>
+          <t>Binance-Peg WETH</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2912/large/xdc-icon.png?1696503661</t>
+          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.067675</v>
+        <v>1809.93</v>
       </c>
       <c r="F80" t="n">
-        <v>1062373485</v>
+        <v>1095150435</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>2570259403</v>
+        <v>1095150435</v>
       </c>
       <c r="I80" t="n">
-        <v>27507490</v>
+        <v>20640448</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06865499999999999</v>
+        <v>1820.25</v>
       </c>
       <c r="K80" t="n">
-        <v>0.067193</v>
+        <v>1776.91</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.000366958532188974</v>
+        <v>-7.151140189068201</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.53931</v>
+        <v>-0.39355</v>
       </c>
       <c r="N80" t="n">
-        <v>-5009496.016366363</v>
+        <v>-5430357.719687223</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.46933</v>
+        <v>-0.49341</v>
       </c>
       <c r="P80" t="n">
-        <v>15699752137.5</v>
+        <v>604999.999959841</v>
       </c>
       <c r="Q80" t="n">
-        <v>37983285669.45</v>
+        <v>604999.999959841</v>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>0.192754</v>
+        <v>4098.26</v>
       </c>
       <c r="T80" t="n">
-        <v>-64.89530000000001</v>
+        <v>-55.83173</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2021-08-21T04:39:48.324Z</t>
+          <t>2024-12-06T20:27:27.286Z</t>
         </is>
       </c>
       <c r="V80" t="n">
-        <v>0.00039532</v>
+        <v>1755.76</v>
       </c>
       <c r="W80" t="n">
-        <v>17016.78842</v>
+        <v>3.09649</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>2019-07-22T00:00:00.000Z</t>
+          <t>2025-04-03T14:57:46.428Z</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.214Z</t>
-        </is>
-      </c>
-      <c r="AA80" t="n">
-        <v>4.031350151658349</v>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="AC80" t="n">
-        <v>403.1350151658348</v>
-      </c>
+          <t>2025-04-06T02:14:33.876Z</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8105,50 +8105,50 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1858.31</v>
+        <v>1880.81</v>
       </c>
       <c r="F81" t="n">
-        <v>1051574959</v>
+        <v>1063459700</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1051574959</v>
+        <v>1063459700</v>
       </c>
       <c r="I81" t="n">
-        <v>1478407</v>
+        <v>1595866</v>
       </c>
       <c r="J81" t="n">
-        <v>1899.74</v>
+        <v>1893.88</v>
       </c>
       <c r="K81" t="n">
         <v>1851.29</v>
       </c>
       <c r="L81" t="n">
-        <v>-35.18364966477429</v>
+        <v>-10.12107054378794</v>
       </c>
       <c r="M81" t="n">
-        <v>-1.85813</v>
+        <v>-0.53524</v>
       </c>
       <c r="N81" t="n">
-        <v>-21419541.83167267</v>
+        <v>-5948214.172766328</v>
       </c>
       <c r="O81" t="n">
-        <v>-1.99624</v>
+        <v>-0.55622</v>
       </c>
       <c r="P81" t="n">
-        <v>565327.8421112347</v>
+        <v>565329.8323006504</v>
       </c>
       <c r="Q81" t="n">
-        <v>565327.8422072816</v>
+        <v>565329.8323006504</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
         <v>4216.2</v>
       </c>
       <c r="T81" t="n">
-        <v>-55.85223</v>
+        <v>-55.38077</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>1825.99</v>
       </c>
       <c r="W81" t="n">
-        <v>1.93724</v>
+        <v>3.02585</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.628Z</t>
+          <t>2025-04-06T02:14:29.302Z</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr"/>
@@ -8198,37 +8198,37 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.051</v>
+        <v>1.057</v>
       </c>
       <c r="F82" t="n">
-        <v>1050334632</v>
+        <v>1057383289</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>1050334632</v>
+        <v>1057383289</v>
       </c>
       <c r="I82" t="n">
-        <v>9480571</v>
+        <v>9815446</v>
       </c>
       <c r="J82" t="n">
-        <v>1.089</v>
+        <v>1.083</v>
       </c>
       <c r="K82" t="n">
         <v>1.04</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.03610778692370187</v>
+        <v>-0.02277284685700276</v>
       </c>
       <c r="M82" t="n">
-        <v>-3.3225</v>
+        <v>-2.10861</v>
       </c>
       <c r="N82" t="n">
-        <v>-37144466.54592907</v>
+        <v>-24466232.6059891</v>
       </c>
       <c r="O82" t="n">
-        <v>-3.41565</v>
+        <v>-2.26152</v>
       </c>
       <c r="P82" t="n">
         <v>1000000000</v>
@@ -8243,7 +8243,7 @@
         <v>4.07</v>
       </c>
       <c r="T82" t="n">
-        <v>-74.17251</v>
+        <v>-74.05548</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>0.04515276</v>
       </c>
       <c r="W82" t="n">
-        <v>2226.8888</v>
+        <v>2237.4327</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8264,11 +8264,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.665Z</t>
+          <t>2025-04-06T02:14:30.836Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>9.506594171251519</v>
+        <v>9.572191147413889</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>950.659417125152</v>
+        <v>957.219114741389</v>
       </c>
     </row>
     <row r="83">
@@ -8301,19 +8301,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>67.44</v>
+        <v>68.14</v>
       </c>
       <c r="F83" t="n">
-        <v>980680986</v>
+        <v>991900845</v>
       </c>
       <c r="G83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>985287436</v>
+        <v>996559997</v>
       </c>
       <c r="I83" t="n">
-        <v>18912938</v>
+        <v>18156543</v>
       </c>
       <c r="J83" t="n">
         <v>69.19</v>
@@ -8322,16 +8322,16 @@
         <v>67.20999999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>-1.021040007370473</v>
+        <v>0.298999</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.49134</v>
+        <v>0.44076</v>
       </c>
       <c r="N83" t="n">
-        <v>-16305827.35719144</v>
+        <v>4868509</v>
       </c>
       <c r="O83" t="n">
-        <v>-1.63551</v>
+        <v>0.49325</v>
       </c>
       <c r="P83" t="n">
         <v>14544176.16409109</v>
@@ -8346,7 +8346,7 @@
         <v>427.42</v>
       </c>
       <c r="T83" t="n">
-        <v>-84.22087000000001</v>
+        <v>-84.044</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>0.215773</v>
       </c>
       <c r="W83" t="n">
-        <v>31156.65506</v>
+        <v>31507.0253</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.446Z</t>
+          <t>2025-04-06T02:14:33.311Z</t>
         </is>
       </c>
       <c r="AA83" t="n">
-        <v>15.213712184256</v>
+        <v>15.19378336132732</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -8379,96 +8379,96 @@
         </is>
       </c>
       <c r="AC83" t="n">
-        <v>1521.3712184256</v>
+        <v>1519.378336132732</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>usdt0</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>usdt0</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>USDT0</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/53705/large/usdt0.jpg?1737086183</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.998772</v>
+        <v>125.4</v>
       </c>
       <c r="F84" t="n">
-        <v>979914979</v>
+        <v>981302665</v>
       </c>
       <c r="G84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>979914979</v>
+        <v>981302665</v>
       </c>
       <c r="I84" t="n">
-        <v>40971001</v>
+        <v>3490241</v>
       </c>
       <c r="J84" t="n">
-        <v>1.005</v>
+        <v>127.06</v>
       </c>
       <c r="K84" t="n">
-        <v>0.997578</v>
+        <v>122.33</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.001110809270834734</v>
+        <v>-1.633846344176632</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.11109</v>
+        <v>-1.2862</v>
       </c>
       <c r="N84" t="n">
-        <v>4596176</v>
+        <v>-10500981.62534201</v>
       </c>
       <c r="O84" t="n">
-        <v>0.47125</v>
+        <v>-1.05878</v>
       </c>
       <c r="P84" t="n">
-        <v>981354264.723068</v>
+        <v>7821819.123379225</v>
       </c>
       <c r="Q84" t="n">
-        <v>981354264.723068</v>
+        <v>7821819.123379225</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>1.052</v>
+        <v>297.96</v>
       </c>
       <c r="T84" t="n">
-        <v>-5.03487</v>
+        <v>-57.87244</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2025-01-23T22:34:53.341Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V84" t="n">
-        <v>0.975737</v>
+        <v>117.19</v>
       </c>
       <c r="W84" t="n">
-        <v>2.39122</v>
+        <v>7.10573</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2025-02-28T01:35:58.101Z</t>
+          <t>2025-04-03T14:51:22.777Z</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.659Z</t>
+          <t>2025-04-06T02:14:33.359Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8478,90 +8478,90 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>usdt0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>usdt0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>USDT0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/53705/large/usdt0.jpg?1737086183</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>123.95</v>
+        <v>0.998679</v>
       </c>
       <c r="F85" t="n">
-        <v>969715469</v>
+        <v>979958893</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>969715469</v>
+        <v>979958893</v>
       </c>
       <c r="I85" t="n">
-        <v>3458575</v>
+        <v>40603306</v>
       </c>
       <c r="J85" t="n">
-        <v>128.76</v>
+        <v>1.005</v>
       </c>
       <c r="K85" t="n">
-        <v>122.33</v>
+        <v>0.997779</v>
       </c>
       <c r="L85" t="n">
-        <v>-4.808122138653729</v>
+        <v>-9.869263472017699e-05</v>
       </c>
       <c r="M85" t="n">
-        <v>-3.73422</v>
+        <v>-0.00988</v>
       </c>
       <c r="N85" t="n">
-        <v>-36751443.14306641</v>
+        <v>3788642</v>
       </c>
       <c r="O85" t="n">
-        <v>-3.65153</v>
+        <v>0.38811</v>
       </c>
       <c r="P85" t="n">
-        <v>7821819.123379225</v>
+        <v>981253938.184608</v>
       </c>
       <c r="Q85" t="n">
-        <v>7821819.123379225</v>
+        <v>981253938.184608</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>297.96</v>
+        <v>1.052</v>
       </c>
       <c r="T85" t="n">
-        <v>-58.33013</v>
+        <v>-5.07553</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2025-01-23T22:34:53.341Z</t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>117.19</v>
+        <v>0.975737</v>
       </c>
       <c r="W85" t="n">
-        <v>5.9421</v>
+        <v>2.34739</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2025-04-03T14:51:22.777Z</t>
+          <t>2025-02-28T01:35:58.101Z</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.297Z</t>
+          <t>2025-04-06T02:14:27.330Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8571,154 +8571,162 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>blockstack</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>stx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39345/large/movement-testnet-token.png?1721878759</t>
+          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.370267</v>
+        <v>0.600936</v>
       </c>
       <c r="F86" t="n">
-        <v>906575426</v>
+        <v>914535162</v>
       </c>
       <c r="G86" t="n">
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>3700307861</v>
+        <v>914535162</v>
       </c>
       <c r="I86" t="n">
-        <v>25695306</v>
+        <v>26919920</v>
       </c>
       <c r="J86" t="n">
-        <v>0.387882</v>
+        <v>0.614383</v>
       </c>
       <c r="K86" t="n">
-        <v>0.370039</v>
+        <v>0.591054</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.009652994219579047</v>
+        <v>-0.00362705129330676</v>
       </c>
       <c r="M86" t="n">
-        <v>-2.5408</v>
+        <v>-0.59995</v>
       </c>
       <c r="N86" t="n">
-        <v>-25016932.18955648</v>
+        <v>-6596849.716976762</v>
       </c>
       <c r="O86" t="n">
-        <v>-2.68539</v>
+        <v>-0.71617</v>
       </c>
       <c r="P86" t="n">
-        <v>2450000000</v>
+        <v>1520233864.63612</v>
       </c>
       <c r="Q86" t="n">
-        <v>10000000000</v>
+        <v>1520233864.63612</v>
       </c>
       <c r="R86" t="n">
-        <v>10000000000</v>
+        <v>1818000000</v>
       </c>
       <c r="S86" t="n">
-        <v>1.45</v>
+        <v>3.86</v>
       </c>
       <c r="T86" t="n">
-        <v>-74.39873</v>
+        <v>-84.44239</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2024-12-10T04:05:51.093Z</t>
+          <t>2024-04-01T12:34:58.342Z</t>
         </is>
       </c>
       <c r="V86" t="n">
-        <v>0.369212</v>
+        <v>0.04559639</v>
       </c>
       <c r="W86" t="n">
-        <v>0.53357</v>
+        <v>1218.51686</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2025-04-04T12:10:49.917Z</t>
+          <t>2020-03-13T02:29:26.415Z</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.629Z</t>
-        </is>
-      </c>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
+          <t>2025-04-06T02:14:34.126Z</t>
+        </is>
+      </c>
+      <c r="AA86" t="n">
+        <v>4.007799485693423</v>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
+        <v>400.7799485693423</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>worldcoin-wld</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>wld</t>
+          <t>move</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
+          <t>https://coin-images.coingecko.com/coins/images/39345/large/movement-testnet-token.png?1721878759</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.73219</v>
+        <v>0.372298</v>
       </c>
       <c r="F87" t="n">
-        <v>901725609</v>
+        <v>912806503</v>
       </c>
       <c r="G87" t="n">
         <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>7321853760</v>
+        <v>3725740830</v>
       </c>
       <c r="I87" t="n">
-        <v>54324320</v>
+        <v>25174543</v>
       </c>
       <c r="J87" t="n">
-        <v>0.763107</v>
+        <v>0.387882</v>
       </c>
       <c r="K87" t="n">
-        <v>0.730341</v>
+        <v>0.370039</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.03091664755791135</v>
+        <v>-0.005013744644653206</v>
       </c>
       <c r="M87" t="n">
-        <v>-4.05142</v>
+        <v>-1.32881</v>
       </c>
       <c r="N87" t="n">
-        <v>-37181535.05425775</v>
+        <v>-12459642.65908337</v>
       </c>
       <c r="O87" t="n">
-        <v>-3.96009</v>
+        <v>-1.3466</v>
       </c>
       <c r="P87" t="n">
-        <v>1231553699.796177</v>
+        <v>2450000000</v>
       </c>
       <c r="Q87" t="n">
         <v>10000000000</v>
@@ -8727,31 +8735,31 @@
         <v>10000000000</v>
       </c>
       <c r="S87" t="n">
-        <v>11.74</v>
+        <v>1.45</v>
       </c>
       <c r="T87" t="n">
-        <v>-93.74638</v>
+        <v>-74.30988000000001</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2024-03-10T00:10:42.330Z</t>
+          <t>2024-12-10T04:05:51.093Z</t>
         </is>
       </c>
       <c r="V87" t="n">
-        <v>0.707238</v>
+        <v>0.369212</v>
       </c>
       <c r="W87" t="n">
-        <v>3.81421</v>
+        <v>0.88248</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2025-04-03T14:55:50.534Z</t>
+          <t>2025-04-04T12:10:49.917Z</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.962Z</t>
+          <t>2025-04-06T02:14:30.824Z</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr"/>
@@ -8761,105 +8769,97 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>blockstack</t>
+          <t>worldcoin-wld</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>stx</t>
+          <t>wld</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2069/large/Stacks_Logo_png.png?1709979332</t>
+          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.591294</v>
+        <v>0.734461</v>
       </c>
       <c r="F88" t="n">
-        <v>898358333</v>
+        <v>906305181</v>
       </c>
       <c r="G88" t="n">
         <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>898366605</v>
+        <v>7347207305</v>
       </c>
       <c r="I88" t="n">
-        <v>26906031</v>
+        <v>54593455</v>
       </c>
       <c r="J88" t="n">
-        <v>0.614383</v>
+        <v>0.7586540000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>0.591054</v>
+        <v>0.730341</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.01461634918718391</v>
+        <v>-0.02151430502340024</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.4123</v>
+        <v>-2.8459</v>
       </c>
       <c r="N88" t="n">
-        <v>-23727642.07962775</v>
+        <v>-24080114.36696041</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.57326</v>
+        <v>-2.58819</v>
       </c>
       <c r="P88" t="n">
-        <v>1520206875.30252</v>
+        <v>1233536966.006985</v>
       </c>
       <c r="Q88" t="n">
-        <v>1520220873.56924</v>
+        <v>10000000000</v>
       </c>
       <c r="R88" t="n">
-        <v>1818000000</v>
+        <v>10000000000</v>
       </c>
       <c r="S88" t="n">
-        <v>3.86</v>
+        <v>11.74</v>
       </c>
       <c r="T88" t="n">
-        <v>-84.70728</v>
+        <v>-93.73672999999999</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2024-04-01T12:34:58.342Z</t>
+          <t>2024-03-10T00:10:42.330Z</t>
         </is>
       </c>
       <c r="V88" t="n">
-        <v>0.04559639</v>
+        <v>0.707238</v>
       </c>
       <c r="W88" t="n">
-        <v>1196.06713</v>
+        <v>3.97437</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2020-03-13T02:29:26.415Z</t>
+          <t>2025-04-03T14:55:50.534Z</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.317Z</t>
-        </is>
-      </c>
-      <c r="AA88" t="n">
-        <v>3.927448290694687</v>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC88" t="n">
-        <v>392.7448290694687</v>
-      </c>
+          <t>2025-04-06T02:14:27.722Z</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8883,50 +8883,50 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2023.6</v>
+        <v>2047.7</v>
       </c>
       <c r="F89" t="n">
-        <v>880144707</v>
+        <v>888551781</v>
       </c>
       <c r="G89" t="n">
         <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>880143672</v>
+        <v>888551781</v>
       </c>
       <c r="I89" t="n">
-        <v>4579014</v>
+        <v>7424019</v>
       </c>
       <c r="J89" t="n">
-        <v>2064.22</v>
+        <v>2057.02</v>
       </c>
       <c r="K89" t="n">
         <v>2013.14</v>
       </c>
       <c r="L89" t="n">
-        <v>-33.40443691167457</v>
+        <v>-7.599899639306159</v>
       </c>
       <c r="M89" t="n">
-        <v>-1.62394</v>
+        <v>-0.36977</v>
       </c>
       <c r="N89" t="n">
-        <v>-15011226.48007953</v>
+        <v>-5318229.923535824</v>
       </c>
       <c r="O89" t="n">
-        <v>-1.67694</v>
+        <v>-0.59497</v>
       </c>
       <c r="P89" t="n">
-        <v>434788.2906788343</v>
+        <v>433662.2520111651</v>
       </c>
       <c r="Q89" t="n">
-        <v>434787.7795296912</v>
+        <v>433662.2520111651</v>
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
         <v>4814.31</v>
       </c>
       <c r="T89" t="n">
-        <v>-57.90505</v>
+        <v>-57.44844</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         <v>887.26</v>
       </c>
       <c r="W89" t="n">
-        <v>128.40806</v>
+        <v>130.88563</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.361Z</t>
+          <t>2025-04-06T02:14:32.985Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8957,90 +8957,90 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>binance-bridged-usdc-bnb-smart-chain</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Binance Bridged USDC (BNB Smart Chain)</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35220/large/USDC.jpg?1707919050</t>
+          <t>https://coin-images.coingecko.com/coins/images/12713/large/DEXE_token_logo.png?1696512514</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>14.9</v>
       </c>
       <c r="F90" t="n">
-        <v>849324308</v>
+        <v>851032083</v>
       </c>
       <c r="G90" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H90" t="n">
-        <v>849324308</v>
+        <v>1438232601</v>
       </c>
       <c r="I90" t="n">
-        <v>17737182</v>
+        <v>8404030</v>
       </c>
       <c r="J90" t="n">
-        <v>1.002</v>
+        <v>14.93</v>
       </c>
       <c r="K90" t="n">
-        <v>0.997231</v>
+        <v>14.41</v>
       </c>
       <c r="L90" t="n">
-        <v>0.00019422</v>
+        <v>0.287114</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01943</v>
+        <v>1.96421</v>
       </c>
       <c r="N90" t="n">
-        <v>508854</v>
+        <v>14911718</v>
       </c>
       <c r="O90" t="n">
-        <v>0.05995</v>
+        <v>1.78344</v>
       </c>
       <c r="P90" t="n">
-        <v>848999999.8398039</v>
+        <v>57103774.56313077</v>
       </c>
       <c r="Q90" t="n">
-        <v>848999999.8398039</v>
+        <v>96504599.33609451</v>
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>1.031</v>
+        <v>32.38</v>
       </c>
       <c r="T90" t="n">
-        <v>-3.03111</v>
+        <v>-54.14572</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2024-03-05T20:15:29.285Z</t>
+          <t>2021-03-08T13:29:57.935Z</t>
         </is>
       </c>
       <c r="V90" t="n">
-        <v>0.942892</v>
+        <v>0.671563</v>
       </c>
       <c r="W90" t="n">
-        <v>6.03633</v>
+        <v>2110.96843</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:25.440Z</t>
+          <t>2020-11-06T19:31:40.144Z</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.776Z</t>
+          <t>2025-04-06T02:14:36.015Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9069,52 +9069,52 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.096e-05</v>
+        <v>1.097e-05</v>
       </c>
       <c r="F91" t="n">
-        <v>849088278</v>
+        <v>850579000</v>
       </c>
       <c r="G91" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91" t="n">
-        <v>974396154</v>
+        <v>976105984</v>
       </c>
       <c r="I91" t="n">
-        <v>52873028</v>
+        <v>47866512</v>
       </c>
       <c r="J91" t="n">
-        <v>1.151e-05</v>
+        <v>1.135e-05</v>
       </c>
       <c r="K91" t="n">
         <v>1.092e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>-3.97550597359e-07</v>
+        <v>-3.16276953952e-07</v>
       </c>
       <c r="M91" t="n">
-        <v>-3.49928</v>
+        <v>-2.80157</v>
       </c>
       <c r="N91" t="n">
-        <v>-31844437.96749949</v>
+        <v>-25101047.01274896</v>
       </c>
       <c r="O91" t="n">
-        <v>-3.61485</v>
+        <v>-2.86646</v>
       </c>
       <c r="P91" t="n">
         <v>77419592329436.58</v>
       </c>
       <c r="Q91" t="n">
-        <v>88845123524243.84</v>
+        <v>88845042464439.94</v>
       </c>
       <c r="R91" t="n">
-        <v>88845123524243.84</v>
+        <v>88845042464439.94</v>
       </c>
       <c r="S91" t="n">
         <v>5.825e-05</v>
       </c>
       <c r="T91" t="n">
-        <v>-81.12839</v>
+        <v>-81.12178</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>8.6142e-08</v>
       </c>
       <c r="W91" t="n">
-        <v>12661.11905</v>
+        <v>12665.59048</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.101Z</t>
+          <t>2025-04-06T02:14:34.532Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9145,90 +9145,90 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>binance-bridged-usdc-bnb-smart-chain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Binance Bridged USDC (BNB Smart Chain)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12713/large/DEXE_token_logo.png?1696512514</t>
+          <t>https://coin-images.coingecko.com/coins/images/35220/large/USDC.jpg?1707919050</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.73</v>
+        <v>0.999387</v>
       </c>
       <c r="F92" t="n">
-        <v>841331943</v>
+        <v>848941823</v>
       </c>
       <c r="G92" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H92" t="n">
-        <v>1421839497</v>
+        <v>848941823</v>
       </c>
       <c r="I92" t="n">
-        <v>9824672</v>
+        <v>16342595</v>
       </c>
       <c r="J92" t="n">
-        <v>14.86</v>
+        <v>1.002</v>
       </c>
       <c r="K92" t="n">
-        <v>14.41</v>
+        <v>0.997636</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.130047579286698</v>
+        <v>-0.00074421946772496</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.87498</v>
+        <v>-0.07441</v>
       </c>
       <c r="N92" t="n">
-        <v>-8289166.330733061</v>
+        <v>-940958.7596414089</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.97563</v>
+        <v>-0.11072</v>
       </c>
       <c r="P92" t="n">
-        <v>57103774.56313077</v>
+        <v>848999999.8398039</v>
       </c>
       <c r="Q92" t="n">
-        <v>96504599.33609451</v>
+        <v>848999999.8398039</v>
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>32.38</v>
+        <v>1.031</v>
       </c>
       <c r="T92" t="n">
-        <v>-54.40634</v>
+        <v>-3.0123</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2021-03-08T13:29:57.935Z</t>
+          <t>2024-03-05T20:15:29.285Z</t>
         </is>
       </c>
       <c r="V92" t="n">
-        <v>0.671563</v>
+        <v>0.942892</v>
       </c>
       <c r="W92" t="n">
-        <v>2098.40218</v>
+        <v>6.0569</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2020-11-06T19:31:40.144Z</t>
+          <t>2024-12-05T22:30:25.440Z</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.768Z</t>
+          <t>2025-04-06T02:14:34.001Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9257,50 +9257,50 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.997515</v>
+        <v>0.997719</v>
       </c>
       <c r="F93" t="n">
-        <v>816411677</v>
+        <v>815637844</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>816411677</v>
+        <v>815637844</v>
       </c>
       <c r="I93" t="n">
-        <v>25544302</v>
+        <v>26248800</v>
       </c>
       <c r="J93" t="n">
-        <v>0.99819</v>
+        <v>0.998074</v>
       </c>
       <c r="K93" t="n">
         <v>0.997403</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.000435390296704918</v>
+        <v>-6.111997977720201e-05</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.04363</v>
+        <v>-0.00613</v>
       </c>
       <c r="N93" t="n">
-        <v>-8217213.094891548</v>
+        <v>-8148300.867354512</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.99647</v>
+        <v>-0.98913</v>
       </c>
       <c r="P93" t="n">
-        <v>818350259.7220893</v>
+        <v>817494402.340997</v>
       </c>
       <c r="Q93" t="n">
-        <v>818350259.7220893</v>
+        <v>817494402.340997</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
         <v>1.33</v>
       </c>
       <c r="T93" t="n">
-        <v>-24.74925</v>
+        <v>-24.74181</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>0.976415</v>
       </c>
       <c r="W93" t="n">
-        <v>2.16961</v>
+        <v>2.1797</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.077Z</t>
+          <t>2025-04-06T02:14:26.442Z</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -9350,19 +9350,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.999853</v>
+        <v>0.999046</v>
       </c>
       <c r="F94" t="n">
-        <v>814380479</v>
+        <v>814599332</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>814656937</v>
+        <v>814599332</v>
       </c>
       <c r="I94" t="n">
-        <v>8400008</v>
+        <v>8282507</v>
       </c>
       <c r="J94" t="n">
         <v>1.001</v>
@@ -9371,29 +9371,29 @@
         <v>0.997638</v>
       </c>
       <c r="L94" t="n">
-        <v>0.00032543</v>
+        <v>0.00033041</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03256</v>
+        <v>0.03308</v>
       </c>
       <c r="N94" t="n">
-        <v>-292804.463953495</v>
+        <v>45257</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.03594</v>
+        <v>0.00556</v>
       </c>
       <c r="P94" t="n">
-        <v>814696383.950689</v>
+        <v>815001581.802994</v>
       </c>
       <c r="Q94" t="n">
-        <v>814972948.284482</v>
+        <v>815001581.802994</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
         <v>1.027</v>
       </c>
       <c r="T94" t="n">
-        <v>-2.65856</v>
+        <v>-2.66734</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>0.945933</v>
       </c>
       <c r="W94" t="n">
-        <v>5.66137</v>
+        <v>5.65184</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.130Z</t>
+          <t>2025-04-06T02:14:32.368Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9443,19 +9443,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01301262</v>
+        <v>0.0130961</v>
       </c>
       <c r="F95" t="n">
-        <v>801486910</v>
+        <v>806139005</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>1343245804</v>
+        <v>1351042440</v>
       </c>
       <c r="I95" t="n">
-        <v>10895300</v>
+        <v>11137592</v>
       </c>
       <c r="J95" t="n">
         <v>0.01361337</v>
@@ -9464,29 +9464,29 @@
         <v>0.01293927</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.000413441319539644</v>
+        <v>-0.000307305979264767</v>
       </c>
       <c r="M95" t="n">
-        <v>-3.07939</v>
+        <v>-2.29274</v>
       </c>
       <c r="N95" t="n">
-        <v>-19205694.63347876</v>
+        <v>-13559313.26382887</v>
       </c>
       <c r="O95" t="n">
-        <v>-2.34018</v>
+        <v>-1.65418</v>
       </c>
       <c r="P95" t="n">
         <v>61590752031.68212</v>
       </c>
       <c r="Q95" t="n">
-        <v>103222545837.2948</v>
+        <v>103222545189.3694</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
         <v>0.150073</v>
       </c>
       <c r="T95" t="n">
-        <v>-91.30906</v>
+        <v>-91.27144</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>0.00827405</v>
       </c>
       <c r="W95" t="n">
-        <v>57.63444</v>
+        <v>58.31663</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.335Z</t>
+          <t>2025-04-06T02:14:27.307Z</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
@@ -9536,37 +9536,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
       <c r="F96" t="n">
-        <v>795234629</v>
+        <v>799583845</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>813728894</v>
+        <v>818179257</v>
       </c>
       <c r="I96" t="n">
-        <v>41475994</v>
+        <v>39517334</v>
       </c>
       <c r="J96" t="n">
-        <v>8.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K96" t="n">
         <v>8.09</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.2439468041187727</v>
+        <v>-0.0769752048675123</v>
       </c>
       <c r="M96" t="n">
-        <v>-2.90792</v>
+        <v>-0.93121</v>
       </c>
       <c r="N96" t="n">
-        <v>-25503495.09563863</v>
+        <v>-10099184.64021194</v>
       </c>
       <c r="O96" t="n">
-        <v>-3.10739</v>
+        <v>-1.2473</v>
       </c>
       <c r="P96" t="n">
         <v>97727220.33</v>
@@ -9579,7 +9579,7 @@
         <v>52.62</v>
       </c>
       <c r="T96" t="n">
-        <v>-84.49083</v>
+        <v>-84.40734999999999</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>0.657401</v>
       </c>
       <c r="W96" t="n">
-        <v>1141.40873</v>
+        <v>1148.09076</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.795Z</t>
+          <t>2025-04-06T02:14:29.518Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9629,19 +9629,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.161747</v>
+        <v>0.162265</v>
       </c>
       <c r="F97" t="n">
-        <v>789707790</v>
+        <v>792640309</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>1617471081</v>
+        <v>1623477435</v>
       </c>
       <c r="I97" t="n">
-        <v>31926606</v>
+        <v>29905579</v>
       </c>
       <c r="J97" t="n">
         <v>0.165753</v>
@@ -9650,16 +9650,16 @@
         <v>0.161572</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.003943653708189221</v>
+        <v>-0.002343433829857022</v>
       </c>
       <c r="M97" t="n">
-        <v>-2.38013</v>
+        <v>-1.42365</v>
       </c>
       <c r="N97" t="n">
-        <v>-19185358.1944989</v>
+        <v>-11035293.31348491</v>
       </c>
       <c r="O97" t="n">
-        <v>-2.3718</v>
+        <v>-1.3731</v>
       </c>
       <c r="P97" t="n">
         <v>4882361111</v>
@@ -9672,7 +9672,7 @@
         <v>1.14</v>
       </c>
       <c r="T97" t="n">
-        <v>-85.78979</v>
+        <v>-85.75285</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>0.095364</v>
       </c>
       <c r="W97" t="n">
-        <v>69.83008</v>
+        <v>70.27158</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.935Z</t>
+          <t>2025-04-06T02:14:33.496Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9722,37 +9722,37 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.080815</v>
+        <v>0.081593</v>
       </c>
       <c r="F98" t="n">
-        <v>771701488</v>
+        <v>778996463</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>871874275</v>
+        <v>880116194</v>
       </c>
       <c r="I98" t="n">
-        <v>28377467</v>
+        <v>27738751</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08387799999999999</v>
+        <v>0.083314</v>
       </c>
       <c r="K98" t="n">
         <v>0.080349</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.002852838164033339</v>
+        <v>-0.001658358390331932</v>
       </c>
       <c r="M98" t="n">
-        <v>-3.40971</v>
+        <v>-1.992</v>
       </c>
       <c r="N98" t="n">
-        <v>-28186709.44779587</v>
+        <v>-16132810.91096413</v>
       </c>
       <c r="O98" t="n">
-        <v>-3.52383</v>
+        <v>-2.02895</v>
       </c>
       <c r="P98" t="n">
         <v>9548531509.16547</v>
@@ -9767,7 +9767,7 @@
         <v>2.84</v>
       </c>
       <c r="T98" t="n">
-        <v>-97.15253</v>
+        <v>-97.12752</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>0.052051</v>
       </c>
       <c r="W98" t="n">
-        <v>55.44564</v>
+        <v>56.81073</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.296Z</t>
+          <t>2025-04-06T02:14:36.101Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9817,19 +9817,19 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.769899</v>
+        <v>0.77599</v>
       </c>
       <c r="F99" t="n">
-        <v>769767704</v>
+        <v>775894718</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>769767704</v>
+        <v>775894718</v>
       </c>
       <c r="I99" t="n">
-        <v>14538328</v>
+        <v>12993913</v>
       </c>
       <c r="J99" t="n">
         <v>0.799049</v>
@@ -9838,16 +9838,16 @@
         <v>0.764868</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.01822730533834005</v>
+        <v>-0.01598288282117177</v>
       </c>
       <c r="M99" t="n">
-        <v>-2.31274</v>
+        <v>-2.01811</v>
       </c>
       <c r="N99" t="n">
-        <v>-18207477.27542651</v>
+        <v>-15884416.79001129</v>
       </c>
       <c r="O99" t="n">
-        <v>-2.31067</v>
+        <v>-2.00617</v>
       </c>
       <c r="P99" t="n">
         <v>1000000000</v>
@@ -9862,7 +9862,7 @@
         <v>15.72</v>
       </c>
       <c r="T99" t="n">
-        <v>-95.10356</v>
+        <v>-95.06056</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>0.04039979</v>
       </c>
       <c r="W99" t="n">
-        <v>1805.22476</v>
+        <v>1821.95697</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9883,11 +9883,11 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:54.371Z</t>
+          <t>2025-04-06T02:14:29.283Z</t>
         </is>
       </c>
       <c r="AA99" t="n">
-        <v>4.132660489881204</v>
+        <v>4.173263981822756</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="AC99" t="n">
-        <v>413.2660489881205</v>
+        <v>417.3263981822756</v>
       </c>
     </row>
     <row r="100">
@@ -9920,37 +9920,37 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3047.69</v>
+        <v>3048.78</v>
       </c>
       <c r="F100" t="n">
-        <v>751344881</v>
+        <v>751600804</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>751344881</v>
+        <v>751600804</v>
       </c>
       <c r="I100" t="n">
-        <v>24795343</v>
+        <v>23576628</v>
       </c>
       <c r="J100" t="n">
-        <v>3052.41</v>
+        <v>3052.62</v>
       </c>
       <c r="K100" t="n">
         <v>3038.32</v>
       </c>
       <c r="L100" t="n">
-        <v>-3.961411517792385</v>
+        <v>3.69</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.12981</v>
+        <v>0.1213</v>
       </c>
       <c r="N100" t="n">
-        <v>-1106132.663507223</v>
+        <v>913022</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.147</v>
+        <v>0.12162</v>
       </c>
       <c r="P100" t="n">
         <v>246524.33</v>
@@ -9963,7 +9963,7 @@
         <v>3190.62</v>
       </c>
       <c r="T100" t="n">
-        <v>-4.4682</v>
+        <v>-4.4139</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>1447.84</v>
       </c>
       <c r="W100" t="n">
-        <v>110.52424</v>
+        <v>110.6439</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:55.148Z</t>
+          <t>2025-04-06T02:14:25.639Z</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr"/>
@@ -10013,37 +10013,37 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.418079</v>
+        <v>0.418626</v>
       </c>
       <c r="F101" t="n">
-        <v>750278893</v>
+        <v>751215664</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>836974949</v>
+        <v>838019966</v>
       </c>
       <c r="I101" t="n">
-        <v>46593021</v>
+        <v>46427913</v>
       </c>
       <c r="J101" t="n">
-        <v>0.447141</v>
+        <v>0.445928</v>
       </c>
       <c r="K101" t="n">
-        <v>0.418473</v>
+        <v>0.417536</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.02875492758750109</v>
+        <v>-0.02246358442734042</v>
       </c>
       <c r="M101" t="n">
-        <v>-6.43527</v>
+        <v>-5.09274</v>
       </c>
       <c r="N101" t="n">
-        <v>-51736364.71134257</v>
+        <v>-43487699.74982083</v>
       </c>
       <c r="O101" t="n">
-        <v>-6.4508</v>
+        <v>-5.47219</v>
       </c>
       <c r="P101" t="n">
         <v>1792834764.389814</v>
@@ -10058,7 +10058,7 @@
         <v>9.52</v>
       </c>
       <c r="T101" t="n">
-        <v>-95.59228</v>
+        <v>-95.59378</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>0.378055</v>
       </c>
       <c r="W101" t="n">
-        <v>10.99244</v>
+        <v>10.95458</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-04-05T22:00:56.104Z</t>
+          <t>2025-04-06T02:14:29.290Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,19 +602,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83335</v>
+        <v>83352</v>
       </c>
       <c r="F2" t="n">
-        <v>1655411990034</v>
+        <v>1654458378418</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1655411990034</v>
+        <v>1654458378418</v>
       </c>
       <c r="I2" t="n">
-        <v>14622042825</v>
+        <v>14729830395</v>
       </c>
       <c r="J2" t="n">
         <v>84040</v>
@@ -623,16 +623,16 @@
         <v>82395</v>
       </c>
       <c r="L2" t="n">
-        <v>-543.0427231206559</v>
+        <v>-528.0367113004613</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.64742</v>
+        <v>-0.62951</v>
       </c>
       <c r="N2" t="n">
-        <v>-10433868436.28027</v>
+        <v>-10167555348.60278</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.62634</v>
+        <v>-0.6108</v>
       </c>
       <c r="P2" t="n">
         <v>19847275</v>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:36.056Z</t>
+          <t>2025-04-06T02:20:12.341Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1809.94</v>
+        <v>1808.34</v>
       </c>
       <c r="F3" t="n">
-        <v>218483516881</v>
+        <v>218323536164</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>218483516881</v>
+        <v>218323536164</v>
       </c>
       <c r="I3" t="n">
-        <v>6861795146</v>
+        <v>6745421071</v>
       </c>
       <c r="J3" t="n">
         <v>1821.42</v>
@@ -718,16 +718,16 @@
         <v>1778.36</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.803274541833161</v>
+        <v>-7.270935364847901</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.31961</v>
+        <v>-0.40047</v>
       </c>
       <c r="N3" t="n">
-        <v>-768330899.4096375</v>
+        <v>-776801973.2576294</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.35043</v>
+        <v>-0.35454</v>
       </c>
       <c r="P3" t="n">
         <v>120672033.7083664</v>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.732Z</t>
+          <t>2025-04-06T02:20:14.207Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>28.02277961564897</v>
+        <v>28.00538836416485</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2802.277961564897</v>
+        <v>2800.538836416485</v>
       </c>
     </row>
     <row r="4">
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.999617</v>
+        <v>0.99962</v>
       </c>
       <c r="F4" t="n">
-        <v>144030703701</v>
+        <v>144031459424</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>144030703701</v>
+        <v>144031459424</v>
       </c>
       <c r="I4" t="n">
-        <v>14253380816</v>
+        <v>25168602786</v>
       </c>
       <c r="J4" t="n">
         <v>0.999759</v>
@@ -819,16 +819,16 @@
         <v>0.999529</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.44589892007e-07</v>
+        <v>6.58e-06</v>
       </c>
       <c r="M4" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-35157.6494140625</v>
+      </c>
+      <c r="O4" t="n">
         <v>-2e-05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>366208</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.00025</v>
       </c>
       <c r="P4" t="n">
         <v>144086679997.8651</v>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.818Z</t>
+          <t>2025-04-06T02:20:06.615Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -894,16 +894,16 @@
         <v>2.14</v>
       </c>
       <c r="F5" t="n">
-        <v>124817732744</v>
+        <v>124695149607</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>214158145277</v>
+        <v>213947821177</v>
       </c>
       <c r="I5" t="n">
-        <v>1899104899</v>
+        <v>1893368650</v>
       </c>
       <c r="J5" t="n">
         <v>2.17</v>
@@ -912,16 +912,16 @@
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01616187</v>
+        <v>0.01571056</v>
       </c>
       <c r="M5" t="n">
-        <v>0.76111</v>
+        <v>0.7400099999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>929763655</v>
+        <v>974794503</v>
       </c>
       <c r="O5" t="n">
-        <v>0.75049</v>
+        <v>0.7879</v>
       </c>
       <c r="P5" t="n">
         <v>58274974538</v>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.353Z</t>
+          <t>2025-04-06T02:20:03.697Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>591.25</v>
+        <v>591.38</v>
       </c>
       <c r="F6" t="n">
-        <v>86316088836</v>
+        <v>86276943242</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>86316088836</v>
+        <v>86276943242</v>
       </c>
       <c r="I6" t="n">
-        <v>346144593</v>
+        <v>335632358</v>
       </c>
       <c r="J6" t="n">
         <v>598.1799999999999</v>
@@ -1007,16 +1007,16 @@
         <v>590.4299999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.810019081248811</v>
+        <v>-5.466353134939027</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.9731</v>
+        <v>-0.91588</v>
       </c>
       <c r="N6" t="n">
-        <v>-852112965.3990784</v>
+        <v>-802230330.4858551</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.97755</v>
+        <v>-0.92127</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.285Z</t>
+          <t>2025-04-06T02:20:11.982Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120.39</v>
+        <v>120.23</v>
       </c>
       <c r="F7" t="n">
-        <v>62030296769</v>
+        <v>61883798272</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>72065042060</v>
+        <v>71894845423</v>
       </c>
       <c r="I7" t="n">
-        <v>1884022297</v>
+        <v>1882319798</v>
       </c>
       <c r="J7" t="n">
         <v>121.84</v>
@@ -1102,19 +1102,19 @@
         <v>117.2</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.056104895119063</v>
+        <v>-1.102417123154609</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.86964</v>
+        <v>-0.90857</v>
       </c>
       <c r="N7" t="n">
-        <v>-628210776.1413956</v>
+        <v>-618023418.4528885</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.00259</v>
+        <v>-0.98881</v>
       </c>
       <c r="P7" t="n">
-        <v>514589183.2837851</v>
+        <v>514589174.9243327</v>
       </c>
       <c r="Q7" t="n">
         <v>597835139.7453557</v>
@@ -1145,7 +1145,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.124Z</t>
+          <t>2025-04-06T02:20:04.201Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999951</v>
+        <v>0.999931</v>
       </c>
       <c r="F8" t="n">
-        <v>60529678112</v>
+        <v>60530564701</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>60529701666</v>
+        <v>60530588256</v>
       </c>
       <c r="I8" t="n">
-        <v>4541444103</v>
+        <v>4896445848</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1195,16 +1195,16 @@
         <v>0.9998629999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.5552661432005e-05</v>
+        <v>-4.5635389939958e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00256</v>
+        <v>-0.00456</v>
       </c>
       <c r="N8" t="n">
-        <v>-35265897.10974884</v>
+        <v>-34268001.62757111</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.05823</v>
+        <v>-0.05658</v>
       </c>
       <c r="P8" t="n">
         <v>60532972417.32211</v>
@@ -1238,7 +1238,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.312Z</t>
+          <t>2025-04-06T02:20:07.465Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,19 +1267,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1686</v>
+        <v>0.168429</v>
       </c>
       <c r="F9" t="n">
-        <v>25080147636</v>
+        <v>25057697797</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>25085318746</v>
+        <v>25062864278</v>
       </c>
       <c r="I9" t="n">
-        <v>593513716</v>
+        <v>600608211</v>
       </c>
       <c r="J9" t="n">
         <v>0.170693</v>
@@ -1288,16 +1288,16 @@
         <v>0.166499</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001862067195406769</v>
+        <v>-0.001689564515439945</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.09236</v>
+        <v>-0.99317</v>
       </c>
       <c r="N9" t="n">
-        <v>-281878468.524704</v>
+        <v>-267915323.336338</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.11142</v>
+        <v>-1.05788</v>
       </c>
       <c r="P9" t="n">
         <v>148702566383.7052</v>
@@ -1331,7 +1331,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.714Z</t>
+          <t>2025-04-06T02:20:13.441Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1360,19 +1360,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.648671</v>
+        <v>0.648027</v>
       </c>
       <c r="F10" t="n">
-        <v>23374988053</v>
+        <v>23348153302</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>29222016344</v>
+        <v>29188469139</v>
       </c>
       <c r="I10" t="n">
-        <v>383564277</v>
+        <v>384879012</v>
       </c>
       <c r="J10" t="n">
         <v>0.662964</v>
@@ -1381,16 +1381,16 @@
         <v>0.646239</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01243986354746052</v>
+        <v>-0.01338816913418628</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.88166</v>
+        <v>-2.02417</v>
       </c>
       <c r="N10" t="n">
-        <v>-443532726.5281601</v>
+        <v>-456229155.6594925</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.86213</v>
+        <v>-1.91658</v>
       </c>
       <c r="P10" t="n">
         <v>35995957636.81128</v>
@@ -1426,7 +1426,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.900Z</t>
+          <t>2025-04-06T02:20:11.971Z</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
@@ -1455,19 +1455,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.236141</v>
+        <v>0.236002</v>
       </c>
       <c r="F11" t="n">
-        <v>22434067925</v>
+        <v>22423591263</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>22434179788</v>
+        <v>22423703074</v>
       </c>
       <c r="I11" t="n">
-        <v>330895613</v>
+        <v>334309099</v>
       </c>
       <c r="J11" t="n">
         <v>0.238844</v>
@@ -1476,16 +1476,16 @@
         <v>0.235916</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.002215057456237235</v>
+        <v>-0.00243689676508721</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.9293</v>
+        <v>-1.02202</v>
       </c>
       <c r="N11" t="n">
-        <v>-227891884.8082733</v>
+        <v>-214251378.4805794</v>
       </c>
       <c r="O11" t="n">
-        <v>-1.00561</v>
+        <v>-0.94643</v>
       </c>
       <c r="P11" t="n">
         <v>94979380176.64734</v>
@@ -1519,11 +1519,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.153Z</t>
+          <t>2025-04-06T02:20:05.929Z</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>123.2849967075216</v>
+        <v>123.2113691020883</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>12328.49967075216</v>
+        <v>12321.13691020883</v>
       </c>
     </row>
     <row r="12">
@@ -1556,19 +1556,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1805.96</v>
+        <v>1807.44</v>
       </c>
       <c r="F12" t="n">
-        <v>16932406875</v>
+        <v>16922830264</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>16932406875</v>
+        <v>16922830264</v>
       </c>
       <c r="I12" t="n">
-        <v>15436702</v>
+        <v>15453838</v>
       </c>
       <c r="J12" t="n">
         <v>1820.17</v>
@@ -1577,16 +1577,16 @@
         <v>1778.27</v>
       </c>
       <c r="L12" t="n">
-        <v>-11.44638520273088</v>
+        <v>-8.349953936470229</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.62982</v>
+        <v>-0.45985</v>
       </c>
       <c r="N12" t="n">
-        <v>-108380445.6433849</v>
+        <v>-131564218.2286968</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.63601</v>
+        <v>-0.77144</v>
       </c>
       <c r="P12" t="n">
         <v>9370767.051120227</v>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.372Z</t>
+          <t>2025-04-06T02:20:03.365Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>83319</v>
+        <v>83316</v>
       </c>
       <c r="F13" t="n">
-        <v>10742675274</v>
+        <v>10735026110</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10742675274</v>
+        <v>10735026110</v>
       </c>
       <c r="I13" t="n">
-        <v>260970003</v>
+        <v>260879051</v>
       </c>
       <c r="J13" t="n">
         <v>83929</v>
@@ -1670,16 +1670,16 @@
         <v>82237</v>
       </c>
       <c r="L13" t="n">
-        <v>-602.2442376643594</v>
+        <v>-526.9373266981565</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.71763</v>
+        <v>-0.62848</v>
       </c>
       <c r="N13" t="n">
-        <v>-82879445.86790276</v>
+        <v>-74460077.90328026</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.76559</v>
+        <v>-0.68884</v>
       </c>
       <c r="P13" t="n">
         <v>128915.05657878</v>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.294Z</t>
+          <t>2025-04-06T02:20:07.069Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1747,16 +1747,16 @@
         <v>9.140000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>8440889694</v>
+        <v>8438041301</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>9002380835</v>
+        <v>8999342965</v>
       </c>
       <c r="I14" t="n">
-        <v>2128395</v>
+        <v>2114724</v>
       </c>
       <c r="J14" t="n">
         <v>9.23</v>
@@ -1765,16 +1765,16 @@
         <v>8.9</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.055301746634008</v>
+        <v>-0.0517905529583782</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.60165</v>
+        <v>-0.56358</v>
       </c>
       <c r="N14" t="n">
-        <v>-46455266.71581841</v>
+        <v>-45859925.7747364</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.54735</v>
+        <v>-0.54055</v>
       </c>
       <c r="P14" t="n">
         <v>923788731.9</v>
@@ -1808,7 +1808,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.507Z</t>
+          <t>2025-04-06T02:20:14.048Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1837,19 +1837,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.82</v>
+        <v>12.81</v>
       </c>
       <c r="F15" t="n">
-        <v>8182438779</v>
+        <v>8177450033</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>12823129831</v>
+        <v>12815311705</v>
       </c>
       <c r="I15" t="n">
-        <v>213435145</v>
+        <v>205761682</v>
       </c>
       <c r="J15" t="n">
         <v>13.02</v>
@@ -1858,16 +1858,16 @@
         <v>12.59</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.09347088098846612</v>
+        <v>-0.1085592848990515</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7237</v>
+        <v>-0.84051</v>
       </c>
       <c r="N15" t="n">
-        <v>-66542249.92780304</v>
+        <v>-63582488.09615231</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.80667</v>
+        <v>-0.77154</v>
       </c>
       <c r="P15" t="n">
         <v>638099971.4505637</v>
@@ -1903,7 +1903,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:25.202Z</t>
+          <t>2025-04-06T02:20:12.473Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1935,16 +1935,16 @@
         <v>3.24</v>
       </c>
       <c r="F16" t="n">
-        <v>8018156235</v>
+        <v>8022247224</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>16620411616</v>
+        <v>16628891610</v>
       </c>
       <c r="I16" t="n">
-        <v>127876600</v>
+        <v>126392289</v>
       </c>
       <c r="J16" t="n">
         <v>3.33</v>
@@ -1953,16 +1953,16 @@
         <v>3.22</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08286694062907429</v>
+        <v>-0.08300955225948803</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.49066</v>
+        <v>-2.49525</v>
       </c>
       <c r="N16" t="n">
-        <v>-227422626.0723886</v>
+        <v>-207812961.8624811</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.75812</v>
+        <v>-2.52505</v>
       </c>
       <c r="P16" t="n">
         <v>2473171370.653241</v>
@@ -1996,7 +1996,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.922Z</t>
+          <t>2025-04-06T02:20:05.639Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2025,19 +2025,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.999955</v>
+        <v>0.999954</v>
       </c>
       <c r="F17" t="n">
-        <v>7966470789</v>
+        <v>7968142969</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>7966470789</v>
+        <v>7968142969</v>
       </c>
       <c r="I17" t="n">
-        <v>4911280</v>
+        <v>4903728</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2046,16 +2046,16 @@
         <v>0.999619</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.000273197988556073</v>
+        <v>-1.0095703799062e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02731</v>
+        <v>-0.00101</v>
       </c>
       <c r="N17" t="n">
-        <v>45856167</v>
+        <v>45051540</v>
       </c>
       <c r="O17" t="n">
-        <v>0.57895</v>
+        <v>0.5686099999999999</v>
       </c>
       <c r="P17" t="n">
         <v>7966345532.087534</v>
@@ -2089,7 +2089,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.611Z</t>
+          <t>2025-04-06T02:20:05.481Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2118,19 +2118,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.252548</v>
+        <v>0.252452</v>
       </c>
       <c r="F18" t="n">
-        <v>7776588515</v>
+        <v>7776514843</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>12633231172</v>
+        <v>12633111489</v>
       </c>
       <c r="I18" t="n">
-        <v>130542423</v>
+        <v>131498211</v>
       </c>
       <c r="J18" t="n">
         <v>0.260093</v>
@@ -2139,16 +2139,16 @@
         <v>0.248809</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007196232738529096</v>
+        <v>-0.00706878794976401</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.77051</v>
+        <v>-2.72378</v>
       </c>
       <c r="N18" t="n">
-        <v>-226758364.6515379</v>
+        <v>-214753393.7651396</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.83329</v>
+        <v>-2.68735</v>
       </c>
       <c r="P18" t="n">
         <v>30779403653.5592</v>
@@ -2184,7 +2184,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.640Z</t>
+          <t>2025-04-06T02:20:04.667Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2213,19 +2213,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2169.74</v>
+        <v>2170.05</v>
       </c>
       <c r="F19" t="n">
-        <v>7776260607</v>
+        <v>7773843909</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>7776260607</v>
+        <v>7773843909</v>
       </c>
       <c r="I19" t="n">
-        <v>14113615</v>
+        <v>13968595</v>
       </c>
       <c r="J19" t="n">
         <v>2180.76</v>
@@ -2234,16 +2234,16 @@
         <v>2134.8</v>
       </c>
       <c r="L19" t="n">
-        <v>-9.027550806395084</v>
+        <v>-7.029630472333338</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.41434</v>
+        <v>-0.32289</v>
       </c>
       <c r="N19" t="n">
-        <v>-40949753.01813793</v>
+        <v>-43366450.95974064</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.52384</v>
+        <v>-0.55476</v>
       </c>
       <c r="P19" t="n">
         <v>3585585.128889133</v>
@@ -2277,7 +2277,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.629Z</t>
+          <t>2025-04-06T02:20:06.952Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2306,37 +2306,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.57</v>
+        <v>17.58</v>
       </c>
       <c r="F20" t="n">
-        <v>7303826183</v>
+        <v>7301559374</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>7948763732</v>
+        <v>7946296762</v>
       </c>
       <c r="I20" t="n">
-        <v>150637893</v>
+        <v>151405328</v>
       </c>
       <c r="J20" t="n">
         <v>18.32</v>
       </c>
       <c r="K20" t="n">
-        <v>17.6</v>
+        <v>17.56</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.6701531120157682</v>
+        <v>-0.6343833619599124</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.67371</v>
+        <v>-3.48336</v>
       </c>
       <c r="N20" t="n">
-        <v>-275830045.2409182</v>
+        <v>-266421745.3701363</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.63908</v>
+        <v>-3.52038</v>
       </c>
       <c r="P20" t="n">
         <v>415276786.5199986</v>
@@ -2372,7 +2372,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.752Z</t>
+          <t>2025-04-06T02:20:10.891Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         <v>1.23e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>7252978269</v>
+        <v>7250979885</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>7256105171</v>
+        <v>7254105925</v>
       </c>
       <c r="I21" t="n">
-        <v>98801408</v>
+        <v>100881400</v>
       </c>
       <c r="J21" t="n">
         <v>1.24e-05</v>
@@ -2422,16 +2422,16 @@
         <v>1.208e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.2647831013e-08</v>
+        <v>-5.2926672214e-08</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.42613</v>
+        <v>-0.42849</v>
       </c>
       <c r="N21" t="n">
-        <v>-39572731.35680676</v>
+        <v>-29973010.28739929</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.54265</v>
+        <v>-0.41166</v>
       </c>
       <c r="P21" t="n">
         <v>589250627953270.5</v>
@@ -2465,7 +2465,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.370Z</t>
+          <t>2025-04-06T02:20:08.884Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2497,16 +2497,16 @@
         <v>2.2</v>
       </c>
       <c r="F22" t="n">
-        <v>7153227885</v>
+        <v>7146351465</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>22010047756</v>
+        <v>21988889431</v>
       </c>
       <c r="I22" t="n">
-        <v>427693815</v>
+        <v>453551459</v>
       </c>
       <c r="J22" t="n">
         <v>2.26</v>
@@ -2515,16 +2515,16 @@
         <v>2.18</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0558738901320317</v>
+        <v>-0.05472362736285774</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.47856</v>
+        <v>-2.43128</v>
       </c>
       <c r="N22" t="n">
-        <v>-178768850.019268</v>
+        <v>-175844735.3806152</v>
       </c>
       <c r="O22" t="n">
-        <v>-2.4382</v>
+        <v>-2.40153</v>
       </c>
       <c r="P22" t="n">
         <v>3249982900.458887</v>
@@ -2560,7 +2560,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:36.208Z</t>
+          <t>2025-04-06T02:20:06.730Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2589,19 +2589,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.161401</v>
+        <v>0.161258</v>
       </c>
       <c r="F23" t="n">
-        <v>6822051274</v>
+        <v>6813831186</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>8077581117</v>
+        <v>8067848205</v>
       </c>
       <c r="I23" t="n">
-        <v>100460969</v>
+        <v>100180247</v>
       </c>
       <c r="J23" t="n">
         <v>0.163565</v>
@@ -2610,16 +2610,16 @@
         <v>0.15903</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.001951353563980657</v>
+        <v>-0.002066879300771429</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.19456</v>
+        <v>-1.2655</v>
       </c>
       <c r="N23" t="n">
-        <v>-87466626.8973465</v>
+        <v>-80477081.59330082</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.26589</v>
+        <v>-1.1673</v>
       </c>
       <c r="P23" t="n">
         <v>42228305571.10435</v>
@@ -2655,7 +2655,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.923Z</t>
+          <t>2025-04-06T02:20:12.965Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2684,19 +2684,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>82.59</v>
+        <v>82.42</v>
       </c>
       <c r="F24" t="n">
-        <v>6256281455</v>
+        <v>6249893485</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>6256281455</v>
+        <v>6249893485</v>
       </c>
       <c r="I24" t="n">
-        <v>195473301</v>
+        <v>195202694</v>
       </c>
       <c r="J24" t="n">
         <v>84.87</v>
@@ -2705,16 +2705,16 @@
         <v>81.88</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.905026338141852</v>
+        <v>-2.130010602288877</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.25456</v>
+        <v>-2.51913</v>
       </c>
       <c r="N24" t="n">
-        <v>-149025545.4704809</v>
+        <v>-148585686.0988684</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.32659</v>
+        <v>-2.3222</v>
       </c>
       <c r="P24" t="n">
         <v>75714351.98347135</v>
@@ -2750,7 +2750,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.297Z</t>
+          <t>2025-04-06T02:20:14.101Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2779,19 +2779,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.24</v>
+        <v>6.23</v>
       </c>
       <c r="F25" t="n">
-        <v>6024044124</v>
+        <v>6023861619</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>11320907716</v>
+        <v>11320564736</v>
       </c>
       <c r="I25" t="n">
-        <v>40181678</v>
+        <v>40294919</v>
       </c>
       <c r="J25" t="n">
         <v>6.3</v>
@@ -2800,16 +2800,16 @@
         <v>6.19</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.02802734024097475</v>
+        <v>-0.02748781640829367</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.44723</v>
+        <v>-0.43909</v>
       </c>
       <c r="N25" t="n">
-        <v>-35230637.04942417</v>
+        <v>-26901217.520854</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.58143</v>
+        <v>-0.44459</v>
       </c>
       <c r="P25" t="n">
         <v>965773412.7300001</v>
@@ -2843,7 +2843,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.338Z</t>
+          <t>2025-04-06T02:20:08.479Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2853,92 +2853,90 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bch</t>
+          <t>dot</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/780/large/bitcoin-cash-circle.png?1696501932</t>
+          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>301.98</v>
+        <v>3.93</v>
       </c>
       <c r="F26" t="n">
-        <v>6000187411</v>
+        <v>5996265320</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>6000218580</v>
+        <v>5996265320</v>
       </c>
       <c r="I26" t="n">
-        <v>91275932</v>
+        <v>106664391</v>
       </c>
       <c r="J26" t="n">
-        <v>306.64</v>
+        <v>4.04</v>
       </c>
       <c r="K26" t="n">
-        <v>297.07</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>0.097084</v>
+        <v>-0.09912990233697894</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03216</v>
+        <v>-2.45752</v>
       </c>
       <c r="N26" t="n">
-        <v>13287060</v>
+        <v>-148388039.4125595</v>
       </c>
       <c r="O26" t="n">
-        <v>0.22194</v>
+        <v>-2.41491</v>
       </c>
       <c r="P26" t="n">
-        <v>19852024.89665078</v>
+        <v>1522267060</v>
       </c>
       <c r="Q26" t="n">
-        <v>19852128.02165078</v>
-      </c>
-      <c r="R26" t="n">
-        <v>21000000</v>
-      </c>
+        <v>1522267060</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>3785.82</v>
+        <v>54.98</v>
       </c>
       <c r="T26" t="n">
-        <v>-92.01213</v>
+        <v>-92.82476</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2017-12-20T00:00:00.000Z</t>
+          <t>2021-11-04T14:10:09.301Z</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>76.93000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="W26" t="n">
-        <v>293.06839</v>
+        <v>46.24943</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2018-12-16T00:00:00.000Z</t>
+          <t>2020-08-20T05:48:11.359Z</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.320Z</t>
+          <t>2025-04-06T02:20:10.274Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2948,90 +2946,92 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>bch</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12171/large/polkadot.png?1696512008</t>
+          <t>https://coin-images.coingecko.com/coins/images/780/large/bitcoin-cash-circle.png?1696501932</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.94</v>
+        <v>301.69</v>
       </c>
       <c r="F27" t="n">
-        <v>5997567000</v>
+        <v>5994388194</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>5997567000</v>
+        <v>5994419333</v>
       </c>
       <c r="I27" t="n">
-        <v>106429768</v>
+        <v>91680215</v>
       </c>
       <c r="J27" t="n">
-        <v>4.04</v>
+        <v>306.64</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>297.07</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.09878610316765579</v>
+        <v>0.241686</v>
       </c>
       <c r="M27" t="n">
-        <v>-2.44693</v>
+        <v>0.08017000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>-155567425.8299627</v>
+        <v>2040974</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.52826</v>
+        <v>0.03406</v>
       </c>
       <c r="P27" t="n">
-        <v>1522267060</v>
+        <v>19852024.89665078</v>
       </c>
       <c r="Q27" t="n">
-        <v>1522267060</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
+        <v>19852128.02165078</v>
+      </c>
+      <c r="R27" t="n">
+        <v>21000000</v>
+      </c>
       <c r="S27" t="n">
-        <v>54.98</v>
+        <v>3785.82</v>
       </c>
       <c r="T27" t="n">
-        <v>-92.82476</v>
+        <v>-92.01213</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2021-11-04T14:10:09.301Z</t>
+          <t>2017-12-20T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.7</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="W27" t="n">
-        <v>46.24943</v>
+        <v>293.06839</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2020-08-20T05:48:11.359Z</t>
+          <t>2018-12-16T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.819Z</t>
+          <t>2025-04-06T02:20:10.644Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3063,16 +3063,16 @@
         <v>4.45</v>
       </c>
       <c r="F28" t="n">
-        <v>5341326655</v>
+        <v>5344217410</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>5341326655</v>
+        <v>5344217410</v>
       </c>
       <c r="I28" t="n">
-        <v>33556523</v>
+        <v>34160678</v>
       </c>
       <c r="J28" t="n">
         <v>4.55</v>
@@ -3081,16 +3081,16 @@
         <v>4.41</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0739994565785187</v>
+        <v>-0.07468309562852316</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.63476</v>
+        <v>-1.64929</v>
       </c>
       <c r="N28" t="n">
-        <v>-91267927.88787365</v>
+        <v>-87934510.16805553</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.68001</v>
+        <v>-1.61878</v>
       </c>
       <c r="P28" t="n">
         <v>1199999994.2</v>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.659Z</t>
+          <t>2025-04-06T02:20:10.459Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,19 +3155,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.998908</v>
+        <v>0.999224</v>
       </c>
       <c r="F29" t="n">
-        <v>5220501384</v>
+        <v>5221878902</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5220501384</v>
+        <v>5221878902</v>
       </c>
       <c r="I29" t="n">
-        <v>55508254</v>
+        <v>55967689</v>
       </c>
       <c r="J29" t="n">
         <v>0.999543</v>
@@ -3176,16 +3176,16 @@
         <v>0.998435</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.000203704341662392</v>
+        <v>0.00016887</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.02039</v>
+        <v>0.0169</v>
       </c>
       <c r="N29" t="n">
-        <v>-22809935.73746586</v>
+        <v>-21121272.23185635</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.43503</v>
+        <v>-0.40285</v>
       </c>
       <c r="P29" t="n">
         <v>5226655940.584564</v>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.840Z</t>
+          <t>2025-04-06T02:20:11.858Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,19 +3248,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.998978</v>
+        <v>0.999587</v>
       </c>
       <c r="F30" t="n">
-        <v>5182184782</v>
+        <v>5181117243</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5182184782</v>
+        <v>5181117243</v>
       </c>
       <c r="I30" t="n">
-        <v>88477932</v>
+        <v>78488186</v>
       </c>
       <c r="J30" t="n">
         <v>1.002</v>
@@ -3269,16 +3269,16 @@
         <v>0.996806</v>
       </c>
       <c r="L30" t="n">
-        <v>3.527e-05</v>
+        <v>-0.000319428215862172</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00353</v>
+        <v>-0.03195</v>
       </c>
       <c r="N30" t="n">
-        <v>-6540523.687609673</v>
+        <v>-2786014.073074341</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.12605</v>
+        <v>-0.05374</v>
       </c>
       <c r="P30" t="n">
         <v>5184994301.618546</v>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.309Z</t>
+          <t>2025-04-06T02:20:12.103Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3341,19 +3341,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1809.35</v>
+        <v>1808.81</v>
       </c>
       <c r="F31" t="n">
-        <v>5176427218</v>
+        <v>5173005860</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5176427218</v>
+        <v>5173005860</v>
       </c>
       <c r="I31" t="n">
-        <v>192787799</v>
+        <v>22189687</v>
       </c>
       <c r="J31" t="n">
         <v>1821.08</v>
@@ -3362,16 +3362,16 @@
         <v>1780.07</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.170566814605309</v>
+        <v>-7.277089066124063</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.50429</v>
+        <v>-0.4007</v>
       </c>
       <c r="N31" t="n">
-        <v>-34861860.6446867</v>
+        <v>-33263328.05488777</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.66897</v>
+        <v>-0.63891</v>
       </c>
       <c r="P31" t="n">
         <v>2860033.103552378</v>
@@ -3405,7 +3405,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.903Z</t>
+          <t>2025-04-06T02:20:07.841Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3434,7 +3434,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.661936</v>
+        <v>0.657509</v>
       </c>
       <c r="F32" t="n">
         <v>4518089568</v>
@@ -3446,7 +3446,7 @@
         <v>6950907027</v>
       </c>
       <c r="I32" t="n">
-        <v>1518829889</v>
+        <v>1525079395</v>
       </c>
       <c r="J32" t="n">
         <v>0.7604</v>
@@ -3455,10 +3455,10 @@
         <v>0.406999</v>
       </c>
       <c r="L32" t="n">
-        <v>0.166129</v>
+        <v>0.16949</v>
       </c>
       <c r="M32" t="n">
-        <v>33.50672</v>
+        <v>34.73015</v>
       </c>
       <c r="N32" t="n">
         <v>1127676436</v>
@@ -3500,7 +3500,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:31.224Z</t>
+          <t>2025-04-06T02:20:09.389Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3529,19 +3529,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1924.06</v>
+        <v>1923.62</v>
       </c>
       <c r="F33" t="n">
-        <v>4109061769</v>
+        <v>4108223964</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>4109061769</v>
+        <v>4108223964</v>
       </c>
       <c r="I33" t="n">
-        <v>4832929</v>
+        <v>4831820</v>
       </c>
       <c r="J33" t="n">
         <v>1935.45</v>
@@ -3550,16 +3550,16 @@
         <v>1894.35</v>
       </c>
       <c r="L33" t="n">
-        <v>-10.24806637349775</v>
+        <v>-8.40999481606309</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.52981</v>
+        <v>-0.43529</v>
       </c>
       <c r="N33" t="n">
-        <v>-30244080.10313463</v>
+        <v>-26351464.95898628</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.73066</v>
+        <v>-0.63734</v>
       </c>
       <c r="P33" t="n">
         <v>2135503.57141975</v>
@@ -3593,7 +3593,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.496Z</t>
+          <t>2025-04-06T02:20:07.537Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3625,16 +3625,16 @@
         <v>28.06</v>
       </c>
       <c r="F34" t="n">
-        <v>4043428115</v>
+        <v>4044483212</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9202379969</v>
+        <v>9204781247</v>
       </c>
       <c r="I34" t="n">
-        <v>16978888</v>
+        <v>14632606</v>
       </c>
       <c r="J34" t="n">
         <v>28.22</v>
@@ -3643,16 +3643,16 @@
         <v>27.25</v>
       </c>
       <c r="L34" t="n">
-        <v>0.537871</v>
+        <v>0.531627</v>
       </c>
       <c r="M34" t="n">
-        <v>1.95401</v>
+        <v>1.93147</v>
       </c>
       <c r="N34" t="n">
-        <v>76435134</v>
+        <v>77198077</v>
       </c>
       <c r="O34" t="n">
-        <v>1.92678</v>
+        <v>1.94587</v>
       </c>
       <c r="P34" t="n">
         <v>144118517.1081541</v>
@@ -3688,7 +3688,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.515Z</t>
+          <t>2025-04-06T02:20:12.693Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3698,92 +3698,90 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>hype</t>
+          <t>xmr</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/50882/large/hyperliquid.jpg?1729431300</t>
+          <t>https://coin-images.coingecko.com/coins/images/69/large/monero_logo.png?1696501460</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.91</v>
+        <v>215.54</v>
       </c>
       <c r="F35" t="n">
-        <v>3975876610</v>
+        <v>3976444376</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>11906268007</v>
+        <v>3976444376</v>
       </c>
       <c r="I35" t="n">
-        <v>43406003</v>
+        <v>47102685</v>
       </c>
       <c r="J35" t="n">
-        <v>12.18</v>
+        <v>218.98</v>
       </c>
       <c r="K35" t="n">
-        <v>11.44</v>
+        <v>210.93</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.2335950103829614</v>
+        <v>-1.316625603938945</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.92432</v>
+        <v>-0.60714</v>
       </c>
       <c r="N35" t="n">
-        <v>-83045948.00714922</v>
+        <v>-22614607.46158743</v>
       </c>
       <c r="O35" t="n">
-        <v>-2.04601</v>
+        <v>-0.5655</v>
       </c>
       <c r="P35" t="n">
-        <v>333928180</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="Q35" t="n">
-        <v>999990391</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>18446744.07370955</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>34.96</v>
+        <v>542.33</v>
       </c>
       <c r="T35" t="n">
-        <v>-65.81927</v>
+        <v>-60.23685</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2024-12-22T03:56:00.276Z</t>
+          <t>2018-01-09T00:00:00.000Z</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>3.81</v>
+        <v>0.216177</v>
       </c>
       <c r="W35" t="n">
-        <v>213.73501</v>
+        <v>99654.3888</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2024-11-29T09:30:30.871Z</t>
+          <t>2015-01-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.014Z</t>
+          <t>2025-04-06T02:20:09.980Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3793,90 +3791,92 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>xmr</t>
+          <t>hype</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/69/large/monero_logo.png?1696501460</t>
+          <t>https://coin-images.coingecko.com/coins/images/50882/large/hyperliquid.jpg?1729431300</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>215.5</v>
+        <v>11.89</v>
       </c>
       <c r="F36" t="n">
-        <v>3971329846</v>
+        <v>3973677564</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>3971329846</v>
+        <v>11899682682</v>
       </c>
       <c r="I36" t="n">
-        <v>47192823</v>
+        <v>43427454</v>
       </c>
       <c r="J36" t="n">
-        <v>218.98</v>
+        <v>12.18</v>
       </c>
       <c r="K36" t="n">
-        <v>210.93</v>
+        <v>11.44</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.410901579052506</v>
+        <v>-0.2292919076740123</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.65046</v>
+        <v>-1.89206</v>
       </c>
       <c r="N36" t="n">
-        <v>-28935155.77831554</v>
+        <v>-69364453.4093008</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.72333</v>
+        <v>-1.71565</v>
       </c>
       <c r="P36" t="n">
-        <v>18446744.07370955</v>
+        <v>333928180</v>
       </c>
       <c r="Q36" t="n">
-        <v>18446744.07370955</v>
-      </c>
-      <c r="R36" t="inlineStr"/>
+        <v>999990391</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S36" t="n">
-        <v>542.33</v>
+        <v>34.96</v>
       </c>
       <c r="T36" t="n">
-        <v>-60.23685</v>
+        <v>-65.81927</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2018-01-09T00:00:00.000Z</t>
+          <t>2024-12-22T03:56:00.276Z</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>0.216177</v>
+        <v>3.81</v>
       </c>
       <c r="W36" t="n">
-        <v>99654.3888</v>
+        <v>213.73501</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2015-01-14T00:00:00.000Z</t>
+          <t>2024-11-29T09:30:30.871Z</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.678Z</t>
+          <t>2025-04-06T02:20:12.658Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,19 +3905,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="F37" t="n">
-        <v>3512416965</v>
+        <v>3510309964</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>5849318855</v>
+        <v>5845810011</v>
       </c>
       <c r="I37" t="n">
-        <v>65193507</v>
+        <v>65039452</v>
       </c>
       <c r="J37" t="n">
         <v>5.93</v>
@@ -3926,16 +3926,16 @@
         <v>5.77</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.04693589506700224</v>
+        <v>-0.05517478463948144</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.7962</v>
+        <v>-0.93613</v>
       </c>
       <c r="N37" t="n">
-        <v>-33460834.47622108</v>
+        <v>-29212533.37698221</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.94365</v>
+        <v>-0.8253200000000001</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.257Z</t>
+          <t>2025-04-06T02:20:05.851Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -4000,19 +4000,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.999963</v>
+        <v>0.999935</v>
       </c>
       <c r="F38" t="n">
-        <v>3158527813</v>
+        <v>3158320444</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3158527813</v>
+        <v>3158320444</v>
       </c>
       <c r="I38" t="n">
-        <v>54306747</v>
+        <v>54152470</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -4021,16 +4021,16 @@
         <v>0.999711</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.6555315699218e-05</v>
+        <v>-4.9046495567473e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.00166</v>
+        <v>-0.0049</v>
       </c>
       <c r="N38" t="n">
-        <v>20362773</v>
+        <v>19746094</v>
       </c>
       <c r="O38" t="n">
-        <v>0.64888</v>
+        <v>0.62914</v>
       </c>
       <c r="P38" t="n">
         <v>3158646971.849539</v>
@@ -4064,7 +4064,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.385Z</t>
+          <t>2025-04-06T02:20:12.106Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4093,19 +4093,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.39</v>
+        <v>52.38</v>
       </c>
       <c r="F39" t="n">
-        <v>3143909739</v>
+        <v>3142560525</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>12363827746</v>
+        <v>12358521790</v>
       </c>
       <c r="I39" t="n">
-        <v>18266223</v>
+        <v>19232189</v>
       </c>
       <c r="J39" t="n">
         <v>52.79</v>
@@ -4114,16 +4114,16 @@
         <v>50.34</v>
       </c>
       <c r="L39" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="M39" t="n">
-        <v>3.33226</v>
+        <v>3.20248</v>
       </c>
       <c r="N39" t="n">
-        <v>105647842</v>
+        <v>102413047</v>
       </c>
       <c r="O39" t="n">
-        <v>3.47725</v>
+        <v>3.36869</v>
       </c>
       <c r="P39" t="n">
         <v>60000000</v>
@@ -4159,7 +4159,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.782Z</t>
+          <t>2025-04-06T02:20:09.138Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4191,16 +4191,16 @@
         <v>1.047</v>
       </c>
       <c r="F40" t="n">
-        <v>3038227428</v>
+        <v>3037963150</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>3038227428</v>
+        <v>3037963150</v>
       </c>
       <c r="I40" t="n">
-        <v>10850175</v>
+        <v>10848805</v>
       </c>
       <c r="J40" t="n">
         <v>1.048</v>
@@ -4209,16 +4209,16 @@
         <v>1.045</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00092484</v>
+        <v>0.00083389</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08839</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="N40" t="n">
-        <v>15333172</v>
+        <v>15139738</v>
       </c>
       <c r="O40" t="n">
-        <v>0.50723</v>
+        <v>0.50085</v>
       </c>
       <c r="P40" t="n">
         <v>2901183766.747292</v>
@@ -4252,7 +4252,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.684Z</t>
+          <t>2025-04-06T02:20:03.985Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4281,19 +4281,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7.04e-06</v>
+        <v>7.03e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>2967079108</v>
+        <v>2963429054</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>2967079108</v>
+        <v>2963429054</v>
       </c>
       <c r="I41" t="n">
-        <v>391043362</v>
+        <v>388931419</v>
       </c>
       <c r="J41" t="n">
         <v>7.27e-06</v>
@@ -4302,16 +4302,16 @@
         <v>6.95e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.884359709e-07</v>
+        <v>-2.03717844475e-07</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.60549</v>
+        <v>-2.81619</v>
       </c>
       <c r="N41" t="n">
-        <v>-83044882.31920719</v>
+        <v>-80507789.46628952</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.72267</v>
+        <v>-2.64486</v>
       </c>
       <c r="P41" t="n">
         <v>420690000000000</v>
@@ -4347,7 +4347,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.285Z</t>
+          <t>2025-04-06T02:20:09.767Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4376,19 +4376,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="F42" t="n">
-        <v>2945599922</v>
+        <v>2942829124</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>5585921553</v>
+        <v>5580667119</v>
       </c>
       <c r="I42" t="n">
-        <v>81660169</v>
+        <v>81920774</v>
       </c>
       <c r="J42" t="n">
         <v>4.93</v>
@@ -4397,16 +4397,16 @@
         <v>4.79</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.02288372469085242</v>
+        <v>-0.0200047119097837</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.46816</v>
+        <v>-0.40987</v>
       </c>
       <c r="N42" t="n">
-        <v>-10031215.83299589</v>
+        <v>-11998635.13953447</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.33939</v>
+        <v>-0.40607</v>
       </c>
       <c r="P42" t="n">
         <v>604693139.5470227</v>
@@ -4440,7 +4440,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.247Z</t>
+          <t>2025-04-06T02:20:10.004Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4472,16 +4472,16 @@
         <v>2.44</v>
       </c>
       <c r="F43" t="n">
-        <v>2928215356</v>
+        <v>2925037194</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>3035392633</v>
+        <v>3032098146</v>
       </c>
       <c r="I43" t="n">
-        <v>86293471</v>
+        <v>86252391</v>
       </c>
       <c r="J43" t="n">
         <v>2.51</v>
@@ -4490,16 +4490,16 @@
         <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.06083509250893604</v>
+        <v>-0.06230200611544623</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.43369</v>
+        <v>-2.49408</v>
       </c>
       <c r="N43" t="n">
-        <v>-75197428.61391258</v>
+        <v>-72776666.65761089</v>
       </c>
       <c r="O43" t="n">
-        <v>-2.50373</v>
+        <v>-2.42766</v>
       </c>
       <c r="P43" t="n">
         <v>1199729377</v>
@@ -4533,7 +4533,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:31.187Z</t>
+          <t>2025-04-06T02:20:09.837Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4565,16 +4565,16 @@
         <v>22.54</v>
       </c>
       <c r="F44" t="n">
-        <v>2773610514</v>
+        <v>2769930495</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>6769824872</v>
+        <v>6760842688</v>
       </c>
       <c r="I44" t="n">
-        <v>5364520</v>
+        <v>5326272</v>
       </c>
       <c r="J44" t="n">
         <v>22.61</v>
@@ -4583,16 +4583,16 @@
         <v>22.12</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.01030612771948114</v>
+        <v>-0.02300320313468518</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.04569</v>
+        <v>-0.10197</v>
       </c>
       <c r="N44" t="n">
-        <v>2368475</v>
+        <v>-1311543.790179253</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08547</v>
+        <v>-0.04733</v>
       </c>
       <c r="P44" t="n">
         <v>122910587.7676574</v>
@@ -4626,7 +4626,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.324Z</t>
+          <t>2025-04-06T02:20:12.372Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4655,19 +4655,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>83313</v>
+        <v>83359</v>
       </c>
       <c r="F45" t="n">
-        <v>2709441731</v>
+        <v>2709554195</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>2709441731</v>
+        <v>2709554195</v>
       </c>
       <c r="I45" t="n">
-        <v>173141999</v>
+        <v>173112878</v>
       </c>
       <c r="J45" t="n">
         <v>84060</v>
@@ -4676,16 +4676,16 @@
         <v>82295</v>
       </c>
       <c r="L45" t="n">
-        <v>-697.8192557226284</v>
+        <v>-534.2444938845729</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.83063</v>
+        <v>-0.6368200000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>-49448855.39236975</v>
+        <v>-51109265.91518641</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.79235</v>
+        <v>-1.85134</v>
       </c>
       <c r="P45" t="n">
         <v>32502.22396771</v>
@@ -4719,7 +4719,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.390Z</t>
+          <t>2025-04-06T02:20:11.460Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4748,19 +4748,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.37</v>
+        <v>32.4</v>
       </c>
       <c r="F46" t="n">
-        <v>2591187817</v>
+        <v>2591916360</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>3239146768</v>
+        <v>3240057492</v>
       </c>
       <c r="I46" t="n">
-        <v>20709426</v>
+        <v>20710772</v>
       </c>
       <c r="J46" t="n">
         <v>33.46</v>
@@ -4769,16 +4769,16 @@
         <v>32.28</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.9774877149616259</v>
+        <v>-0.9459407843350647</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.9312</v>
+        <v>-2.83695</v>
       </c>
       <c r="N46" t="n">
-        <v>-79400005.2141099</v>
+        <v>-75515425.88484001</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.97313</v>
+        <v>-2.83102</v>
       </c>
       <c r="P46" t="n">
         <v>79995999.05112354</v>
@@ -4814,11 +4814,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:36.095Z</t>
+          <t>2025-04-06T02:20:05.821Z</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>110.4291209273309</v>
+        <v>110.5237060653749</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>11042.91209273309</v>
+        <v>11052.37060653749</v>
       </c>
     </row>
     <row r="47">
@@ -4851,19 +4851,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.80821</v>
+        <v>0.807291</v>
       </c>
       <c r="F47" t="n">
-        <v>2553460118</v>
+        <v>2551572218</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>8082852813</v>
+        <v>8076876759</v>
       </c>
       <c r="I47" t="n">
-        <v>78239161</v>
+        <v>68673278</v>
       </c>
       <c r="J47" t="n">
         <v>0.820931</v>
@@ -4872,16 +4872,16 @@
         <v>0.795376</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.009866803525394596</v>
+        <v>-0.009335087118767071</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.2061</v>
+        <v>-1.14313</v>
       </c>
       <c r="N47" t="n">
-        <v>-32893507.88409042</v>
+        <v>-34781407.6334672</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.27181</v>
+        <v>-1.3448</v>
       </c>
       <c r="P47" t="n">
         <v>3159107529</v>
@@ -4917,7 +4917,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:31.784Z</t>
+          <t>2025-04-06T02:20:09.040Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4946,19 +4946,19 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.74033</v>
+        <v>0.739794</v>
       </c>
       <c r="F48" t="n">
-        <v>2491897426</v>
+        <v>2490716174</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>4606034829</v>
+        <v>4603851396</v>
       </c>
       <c r="I48" t="n">
-        <v>173313845</v>
+        <v>173180025</v>
       </c>
       <c r="J48" t="n">
         <v>0.744278</v>
@@ -4967,16 +4967,16 @@
         <v>0.730614</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00272268</v>
+        <v>0.00318372</v>
       </c>
       <c r="M48" t="n">
-        <v>0.36912</v>
+        <v>0.43221</v>
       </c>
       <c r="N48" t="n">
-        <v>9158199</v>
+        <v>9488325</v>
       </c>
       <c r="O48" t="n">
-        <v>0.36887</v>
+        <v>0.3824</v>
       </c>
       <c r="P48" t="n">
         <v>3364694382.83684</v>
@@ -5012,7 +5012,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.964Z</t>
+          <t>2025-04-06T02:20:13.880Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5041,19 +5041,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.090688</v>
+        <v>0.09063599999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2490465181</v>
+        <v>2486392880</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>8844502919</v>
+        <v>8830040770</v>
       </c>
       <c r="I49" t="n">
-        <v>23021916</v>
+        <v>22922124</v>
       </c>
       <c r="J49" t="n">
         <v>0.094995</v>
@@ -5062,16 +5062,16 @@
         <v>0.09055000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.002727136845546679</v>
+        <v>-0.003011963567861486</v>
       </c>
       <c r="M49" t="n">
-        <v>-2.91938</v>
+        <v>-3.21628</v>
       </c>
       <c r="N49" t="n">
-        <v>-75543521.52614403</v>
+        <v>-77784775.56262159</v>
       </c>
       <c r="O49" t="n">
-        <v>-2.94401</v>
+        <v>-3.03352</v>
       </c>
       <c r="P49" t="n">
         <v>27436500990.17432</v>
@@ -5105,7 +5105,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:35.312Z</t>
+          <t>2025-04-06T02:20:11.710Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5137,16 +5137,16 @@
         <v>5.03</v>
       </c>
       <c r="F50" t="n">
-        <v>2431496961</v>
+        <v>2429168913</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>2677551608</v>
+        <v>2674987974</v>
       </c>
       <c r="I50" t="n">
-        <v>50914335</v>
+        <v>50773517</v>
       </c>
       <c r="J50" t="n">
         <v>5.09</v>
@@ -5155,16 +5155,16 @@
         <v>4.96</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.04423423382949654</v>
+        <v>-0.04426509847851179</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.8711</v>
+        <v>-0.8726</v>
       </c>
       <c r="N50" t="n">
-        <v>-21403986.27477646</v>
+        <v>-20802374.57440948</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.8726</v>
+        <v>-0.84909</v>
       </c>
       <c r="P50" t="n">
         <v>482989219.9683003</v>
@@ -5198,7 +5198,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.875Z</t>
+          <t>2025-04-06T02:20:13.813Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5227,19 +5227,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.87</v>
+        <v>15.84</v>
       </c>
       <c r="F51" t="n">
-        <v>2401816539</v>
+        <v>2401377335</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>2401842181</v>
+        <v>2401402972</v>
       </c>
       <c r="I51" t="n">
-        <v>46434364</v>
+        <v>46357194</v>
       </c>
       <c r="J51" t="n">
         <v>16.36</v>
@@ -5248,16 +5248,16 @@
         <v>15.72</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.3725527320425055</v>
+        <v>-0.391453150451845</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.29431</v>
+        <v>-2.41239</v>
       </c>
       <c r="N51" t="n">
-        <v>-56267870.64668274</v>
+        <v>-54537780.25086975</v>
       </c>
       <c r="O51" t="n">
-        <v>-2.28909</v>
+        <v>-2.22067</v>
       </c>
       <c r="P51" t="n">
         <v>151406495.4711831</v>
@@ -5293,11 +5293,11 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.998Z</t>
+          <t>2025-04-06T02:20:12.138Z</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>34.25675272604264</v>
+        <v>34.18965008045862</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>3425.675272604265</v>
+        <v>3418.965008045862</v>
       </c>
     </row>
     <row r="52">
@@ -5330,19 +5330,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>151.18</v>
+        <v>151.02</v>
       </c>
       <c r="F52" t="n">
-        <v>2284526979</v>
+        <v>2282561893</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2421096372</v>
+        <v>2419013629</v>
       </c>
       <c r="I52" t="n">
-        <v>149304894</v>
+        <v>148951171</v>
       </c>
       <c r="J52" t="n">
         <v>154.74</v>
@@ -5351,19 +5351,19 @@
         <v>149.56</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.568622401379031</v>
+        <v>-1.610680928471538</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.02696</v>
+        <v>-1.05531</v>
       </c>
       <c r="N52" t="n">
-        <v>-22995128.70437193</v>
+        <v>-23170087.82708311</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.99653</v>
+        <v>-1.00489</v>
       </c>
       <c r="P52" t="n">
-        <v>15097470.75411124</v>
+        <v>15097471.89517718</v>
       </c>
       <c r="Q52" t="n">
         <v>16000000</v>
@@ -5396,7 +5396,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.618Z</t>
+          <t>2025-04-06T02:20:10.042Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5428,16 +5428,16 @@
         <v>1.16</v>
       </c>
       <c r="F53" t="n">
-        <v>2262357139</v>
+        <v>2262320139</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2262357139</v>
+        <v>2262320139</v>
       </c>
       <c r="I53" t="n">
-        <v>5749582</v>
+        <v>5739661</v>
       </c>
       <c r="J53" t="n">
         <v>1.17</v>
@@ -5446,16 +5446,16 @@
         <v>1.16</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.000303546166818824</v>
+        <v>-0.000271121353931036</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.02609</v>
+        <v>-0.0233</v>
       </c>
       <c r="N53" t="n">
-        <v>-6351456.101997375</v>
+        <v>-5976684.792705536</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.27996</v>
+        <v>-0.26349</v>
       </c>
       <c r="P53" t="n">
         <v>1944687253.066791</v>
@@ -5489,7 +5489,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.920Z</t>
+          <t>2025-04-06T02:20:11.661Z</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -5518,19 +5518,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.994638</v>
+        <v>0.994248</v>
       </c>
       <c r="F54" t="n">
-        <v>2176459721</v>
+        <v>2176018323</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>2176459721</v>
+        <v>2176018323</v>
       </c>
       <c r="I54" t="n">
-        <v>1339689288</v>
+        <v>1148579726</v>
       </c>
       <c r="J54" t="n">
         <v>0.9965079999999999</v>
@@ -5539,16 +5539,16 @@
         <v>0.991821</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.00072307042984554</v>
+        <v>-0.001194515606914415</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.07264</v>
+        <v>-0.12</v>
       </c>
       <c r="N54" t="n">
-        <v>-1518250.789221287</v>
+        <v>-2319576.730710506</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.06970999999999999</v>
+        <v>-0.10648</v>
       </c>
       <c r="P54" t="n">
         <v>2188129088.971388</v>
@@ -5582,7 +5582,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.432Z</t>
+          <t>2025-04-06T02:20:12.797Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5614,16 +5614,16 @@
         <v>4.79</v>
       </c>
       <c r="F55" t="n">
-        <v>2124874791</v>
+        <v>2126201082</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>2124874791</v>
+        <v>2126201082</v>
       </c>
       <c r="I55" t="n">
-        <v>116086981</v>
+        <v>115495765</v>
       </c>
       <c r="J55" t="n">
         <v>4.99</v>
@@ -5632,16 +5632,16 @@
         <v>4.77</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.1889358315179459</v>
+        <v>-0.1823619000438361</v>
       </c>
       <c r="M55" t="n">
-        <v>-3.79433</v>
+        <v>-3.66659</v>
       </c>
       <c r="N55" t="n">
-        <v>-82808017.11834812</v>
+        <v>-79929176.13297462</v>
       </c>
       <c r="O55" t="n">
-        <v>-3.7509</v>
+        <v>-3.62305</v>
       </c>
       <c r="P55" t="n">
         <v>443645515.642958</v>
@@ -5675,11 +5675,11 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.561Z</t>
+          <t>2025-04-06T02:20:12.036Z</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>46.9049298654142</v>
+        <v>46.91254149788031</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>4690.49298654142</v>
+        <v>4691.254149788031</v>
       </c>
     </row>
     <row r="56">
@@ -5776,7 +5776,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:05:05.687Z</t>
+          <t>2025-04-06T02:20:05.906Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>218.61</v>
+        <v>218.51</v>
       </c>
       <c r="F57" t="n">
-        <v>1873095843</v>
+        <v>1871931486</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>4594661049</v>
+        <v>4591804909</v>
       </c>
       <c r="I57" t="n">
-        <v>41916362</v>
+        <v>41949843</v>
       </c>
       <c r="J57" t="n">
         <v>220.29</v>
@@ -5826,16 +5826,16 @@
         <v>212.94</v>
       </c>
       <c r="L57" t="n">
-        <v>0.089959</v>
+        <v>0.212217</v>
       </c>
       <c r="M57" t="n">
-        <v>0.04117</v>
+        <v>0.09721</v>
       </c>
       <c r="N57" t="n">
-        <v>2245221</v>
+        <v>2299604</v>
       </c>
       <c r="O57" t="n">
-        <v>0.12001</v>
+        <v>0.123</v>
       </c>
       <c r="P57" t="n">
         <v>8561026</v>
@@ -5871,7 +5871,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.992Z</t>
+          <t>2025-04-06T02:20:11.640Z</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr"/>
@@ -5900,19 +5900,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.02166326</v>
+        <v>0.02163758</v>
       </c>
       <c r="F58" t="n">
-        <v>1863464392</v>
+        <v>1861886114</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>1863464392</v>
+        <v>1861886114</v>
       </c>
       <c r="I58" t="n">
-        <v>29704372</v>
+        <v>29701723</v>
       </c>
       <c r="J58" t="n">
         <v>0.02223187</v>
@@ -5921,16 +5921,16 @@
         <v>0.02151757</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.00045703059572981</v>
+        <v>-0.000441178710499767</v>
       </c>
       <c r="M58" t="n">
-        <v>-2.06611</v>
+        <v>-1.9982</v>
       </c>
       <c r="N58" t="n">
-        <v>-38601286.63915896</v>
+        <v>-36930838.41498375</v>
       </c>
       <c r="O58" t="n">
-        <v>-2.02944</v>
+        <v>-1.94494</v>
       </c>
       <c r="P58" t="n">
         <v>85985041177</v>
@@ -5966,11 +5966,11 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.945Z</t>
+          <t>2025-04-06T02:20:05.734Z</t>
         </is>
       </c>
       <c r="AA58" t="n">
-        <v>3.188860012016925</v>
+        <v>3.187500640414658</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>318.8860012016925</v>
+        <v>318.7500640414658</v>
       </c>
     </row>
     <row r="59">
@@ -6003,19 +6003,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.18</v>
+        <v>9.17</v>
       </c>
       <c r="F59" t="n">
-        <v>1835846999</v>
+        <v>1834499994</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>9179236065</v>
+        <v>9172501040</v>
       </c>
       <c r="I59" t="n">
-        <v>164196497</v>
+        <v>168655686</v>
       </c>
       <c r="J59" t="n">
         <v>9.4</v>
@@ -6024,16 +6024,16 @@
         <v>9.08</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.2207661395769289</v>
+        <v>-0.2096550127919272</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.34961</v>
+        <v>-2.23421</v>
       </c>
       <c r="N59" t="n">
-        <v>-43848198.69005227</v>
+        <v>-43188921.53267264</v>
       </c>
       <c r="O59" t="n">
-        <v>-2.33273</v>
+        <v>-2.30011</v>
       </c>
       <c r="P59" t="n">
         <v>199999976.636</v>
@@ -6069,7 +6069,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:31.574Z</t>
+          <t>2025-04-06T02:20:09.566Z</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
@@ -6098,19 +6098,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>83166</v>
+        <v>83151</v>
       </c>
       <c r="F60" t="n">
-        <v>1769124760</v>
+        <v>1769636380</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>1769124760</v>
+        <v>1769636380</v>
       </c>
       <c r="I60" t="n">
-        <v>17757253</v>
+        <v>17756819</v>
       </c>
       <c r="J60" t="n">
         <v>83836</v>
@@ -6119,16 +6119,16 @@
         <v>82164</v>
       </c>
       <c r="L60" t="n">
-        <v>-469.6272812807874</v>
+        <v>-460.3884499691922</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.56152</v>
+        <v>-0.55063</v>
       </c>
       <c r="N60" t="n">
-        <v>-9511015.920071125</v>
+        <v>-8568110.660968542</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.53474</v>
+        <v>-0.48184</v>
       </c>
       <c r="P60" t="n">
         <v>21271.7536461179</v>
@@ -6162,7 +6162,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.832Z</t>
+          <t>2025-04-06T02:20:13.375Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6191,37 +6191,37 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.314378</v>
+        <v>0.314211</v>
       </c>
       <c r="F61" t="n">
-        <v>1748079668</v>
+        <v>1744466116</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>4721880926</v>
+        <v>4712120065</v>
       </c>
       <c r="I61" t="n">
-        <v>131972769</v>
+        <v>131381007</v>
       </c>
       <c r="J61" t="n">
         <v>0.331774</v>
       </c>
       <c r="K61" t="n">
-        <v>0.314472</v>
+        <v>0.314141</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.008811048913652308</v>
+        <v>-0.008663898814613658</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.72628</v>
+        <v>-2.68336</v>
       </c>
       <c r="N61" t="n">
-        <v>-49734679.77878261</v>
+        <v>-51196238.06017804</v>
       </c>
       <c r="O61" t="n">
-        <v>-2.7664</v>
+        <v>-2.85111</v>
       </c>
       <c r="P61" t="n">
         <v>5553125000</v>
@@ -6255,7 +6255,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.949Z</t>
+          <t>2025-04-06T02:20:12.354Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6284,19 +6284,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="F62" t="n">
-        <v>1739638519</v>
+        <v>1738274227</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>5266840980</v>
+        <v>5262710520</v>
       </c>
       <c r="I62" t="n">
-        <v>96516060</v>
+        <v>103121450</v>
       </c>
       <c r="J62" t="n">
         <v>2.76</v>
@@ -6305,16 +6305,16 @@
         <v>2.66</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.07199225804561848</v>
+        <v>-0.07563084033286982</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.60927</v>
+        <v>-2.74071</v>
       </c>
       <c r="N62" t="n">
-        <v>-48032242.45096469</v>
+        <v>-45882803.44894028</v>
       </c>
       <c r="O62" t="n">
-        <v>-2.68686</v>
+        <v>-2.57168</v>
       </c>
       <c r="P62" t="n">
         <v>647248540</v>
@@ -6350,7 +6350,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:28.021Z</t>
+          <t>2025-04-06T02:20:12.671Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6382,16 +6382,16 @@
         <v>4.04</v>
       </c>
       <c r="F63" t="n">
-        <v>1735839046</v>
+        <v>1736729533</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>3513714561</v>
+        <v>3515517099</v>
       </c>
       <c r="I63" t="n">
-        <v>48674296</v>
+        <v>46781842</v>
       </c>
       <c r="J63" t="n">
         <v>4.05</v>
@@ -6400,16 +6400,16 @@
         <v>4.02</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.005271430417851164</v>
+        <v>-0.002717267064162421</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.13044</v>
+        <v>-0.06725</v>
       </c>
       <c r="N63" t="n">
-        <v>-3404522.20476222</v>
+        <v>-1696044.50533843</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.19575</v>
+        <v>-0.09755999999999999</v>
       </c>
       <c r="P63" t="n">
         <v>430162637</v>
@@ -6445,7 +6445,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.814Z</t>
+          <t>2025-04-06T02:20:12.046Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6474,19 +6474,19 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.06357699999999999</v>
+        <v>0.063528</v>
       </c>
       <c r="F64" t="n">
-        <v>1647585604</v>
+        <v>1645594906</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1652452490</v>
+        <v>1650455912</v>
       </c>
       <c r="I64" t="n">
-        <v>43015255</v>
+        <v>42987292</v>
       </c>
       <c r="J64" t="n">
         <v>0.065138</v>
@@ -6495,16 +6495,16 @@
         <v>0.062958</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.001263430161559845</v>
+        <v>-0.001290230882213875</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.94853</v>
+        <v>-1.99054</v>
       </c>
       <c r="N64" t="n">
-        <v>-36698389.85136938</v>
+        <v>-35056127.18423724</v>
       </c>
       <c r="O64" t="n">
-        <v>-2.17887</v>
+        <v>-2.08587</v>
       </c>
       <c r="P64" t="n">
         <v>25900045779.39798</v>
@@ -6540,7 +6540,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.339Z</t>
+          <t>2025-04-06T02:20:13.381Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6572,16 +6572,16 @@
         <v>3.14</v>
       </c>
       <c r="F65" t="n">
-        <v>1628584640</v>
+        <v>1623487634</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1675015819</v>
+        <v>1669773496</v>
       </c>
       <c r="I65" t="n">
-        <v>87070462</v>
+        <v>87302836</v>
       </c>
       <c r="J65" t="n">
         <v>3.22</v>
@@ -6590,16 +6590,16 @@
         <v>3.1</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.06828579879276564</v>
+        <v>-0.07159954932048107</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.12563</v>
+        <v>-2.23245</v>
       </c>
       <c r="N65" t="n">
-        <v>-40005346.88455415</v>
+        <v>-37089480.00858188</v>
       </c>
       <c r="O65" t="n">
-        <v>-2.39755</v>
+        <v>-2.23353</v>
       </c>
       <c r="P65" t="n">
         <v>517716590.0562826</v>
@@ -6633,7 +6633,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.676Z</t>
+          <t>2025-04-06T02:20:03.539Z</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr"/>
@@ -6662,19 +6662,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.187233</v>
+        <v>0.186917</v>
       </c>
       <c r="F66" t="n">
-        <v>1622861346</v>
+        <v>1620414554</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1950565432</v>
+        <v>1947624560</v>
       </c>
       <c r="I66" t="n">
-        <v>40177560</v>
+        <v>42271528</v>
       </c>
       <c r="J66" t="n">
         <v>0.190957</v>
@@ -6683,16 +6683,16 @@
         <v>0.186379</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.00250049403058597</v>
+        <v>-0.00258817931661437</v>
       </c>
       <c r="M66" t="n">
-        <v>-1.31789</v>
+        <v>-1.36575</v>
       </c>
       <c r="N66" t="n">
-        <v>-17853522.25465965</v>
+        <v>-20300314.12660623</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.08816</v>
+        <v>-1.23728</v>
       </c>
       <c r="P66" t="n">
         <v>8651792087.256233</v>
@@ -6726,7 +6726,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.098Z</t>
+          <t>2025-04-06T02:20:09.997Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.184243</v>
+        <v>0.183695</v>
       </c>
       <c r="F67" t="n">
-        <v>1577986872</v>
+        <v>1575620640</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>1577991978</v>
+        <v>1575625738</v>
       </c>
       <c r="I67" t="n">
-        <v>51285283</v>
+        <v>47920534</v>
       </c>
       <c r="J67" t="n">
         <v>0.189656</v>
@@ -6776,16 +6776,16 @@
         <v>0.180705</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.002269424478438697</v>
+        <v>-0.002666996042831909</v>
       </c>
       <c r="M67" t="n">
-        <v>-1.21677</v>
+        <v>-1.43108</v>
       </c>
       <c r="N67" t="n">
-        <v>-15894346.80593657</v>
+        <v>-16220488.98876023</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.99721</v>
+        <v>-1.01898</v>
       </c>
       <c r="P67" t="n">
         <v>8558640568.187729</v>
@@ -6821,11 +6821,11 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.055Z</t>
+          <t>2025-04-06T02:20:10.522Z</t>
         </is>
       </c>
       <c r="AA67" t="n">
-        <v>-0.923232170468389</v>
+        <v>-0.9234603104790526</v>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
@@ -6833,96 +6833,96 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>-92.32321704683889</v>
+        <v>-92.34603104790526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>sonic-3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tia</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.66</v>
+        <v>0.492999</v>
       </c>
       <c r="F68" t="n">
-        <v>1567177217</v>
+        <v>1566035514</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>2967938428</v>
+        <v>1566035514</v>
       </c>
       <c r="I68" t="n">
-        <v>43820853</v>
+        <v>82376327</v>
       </c>
       <c r="J68" t="n">
-        <v>2.79</v>
+        <v>0.507891</v>
       </c>
       <c r="K68" t="n">
-        <v>2.64</v>
+        <v>0.490128</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.06989450739747305</v>
+        <v>-0.008789425207434809</v>
       </c>
       <c r="M68" t="n">
-        <v>-2.55782</v>
+        <v>-1.75162</v>
       </c>
       <c r="N68" t="n">
-        <v>-36489547.29414225</v>
+        <v>-30711012.06650996</v>
       </c>
       <c r="O68" t="n">
-        <v>-2.27538</v>
+        <v>-1.92335</v>
       </c>
       <c r="P68" t="n">
-        <v>587939919.143268</v>
+        <v>3175000000</v>
       </c>
       <c r="Q68" t="n">
-        <v>1113447452.054445</v>
+        <v>3175000000</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>20.85</v>
+        <v>1.029</v>
       </c>
       <c r="T68" t="n">
-        <v>-87.20635</v>
+        <v>-52.05907</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2024-02-10T14:30:02.495Z</t>
+          <t>2025-01-04T21:35:44.705Z</t>
         </is>
       </c>
       <c r="V68" t="n">
-        <v>2.08</v>
+        <v>0.359647</v>
       </c>
       <c r="W68" t="n">
-        <v>28.034</v>
+        <v>37.22855</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>2023-10-31T15:14:31.951Z</t>
+          <t>2025-02-03T02:11:37.229Z</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.982Z</t>
+          <t>2025-04-06T02:20:03.474Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6932,90 +6932,90 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sonic-3</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>tia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.493244</v>
+        <v>2.66</v>
       </c>
       <c r="F69" t="n">
-        <v>1566466338</v>
+        <v>1565883492</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>1566466338</v>
+        <v>2965488356</v>
       </c>
       <c r="I69" t="n">
-        <v>82803590</v>
+        <v>42478300</v>
       </c>
       <c r="J69" t="n">
-        <v>0.507891</v>
+        <v>2.79</v>
       </c>
       <c r="K69" t="n">
-        <v>0.490128</v>
+        <v>2.64</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.009722393241893779</v>
+        <v>-0.06619422371348582</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.93301</v>
+        <v>-2.42502</v>
       </c>
       <c r="N69" t="n">
-        <v>-32966049.43929148</v>
+        <v>-35815193.16794181</v>
       </c>
       <c r="O69" t="n">
-        <v>-2.06111</v>
+        <v>-2.23608</v>
       </c>
       <c r="P69" t="n">
-        <v>3175000000</v>
+        <v>587939919.143268</v>
       </c>
       <c r="Q69" t="n">
-        <v>3175000000</v>
+        <v>1113447452.054445</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>1.029</v>
+        <v>20.85</v>
       </c>
       <c r="T69" t="n">
-        <v>-52.05907</v>
+        <v>-87.20635</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2025-01-04T21:35:44.705Z</t>
+          <t>2024-02-10T14:30:02.495Z</t>
         </is>
       </c>
       <c r="V69" t="n">
-        <v>0.359647</v>
+        <v>2.08</v>
       </c>
       <c r="W69" t="n">
-        <v>37.22855</v>
+        <v>28.034</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2025-02-03T02:11:37.229Z</t>
+          <t>2023-10-31T15:14:31.951Z</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.224Z</t>
+          <t>2025-04-06T02:20:11.408Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7044,19 +7044,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.306618</v>
+        <v>0.306457</v>
       </c>
       <c r="F70" t="n">
-        <v>1416759271</v>
+        <v>1415409898</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>3067964182</v>
+        <v>3065042141</v>
       </c>
       <c r="I70" t="n">
-        <v>57978869</v>
+        <v>58070725</v>
       </c>
       <c r="J70" t="n">
         <v>0.31501</v>
@@ -7065,16 +7065,16 @@
         <v>0.306116</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.006449936661598432</v>
+        <v>-0.006324502285932954</v>
       </c>
       <c r="M70" t="n">
-        <v>-2.06024</v>
+        <v>-2.02202</v>
       </c>
       <c r="N70" t="n">
-        <v>-31699002.68670678</v>
+        <v>-30265028.54024816</v>
       </c>
       <c r="O70" t="n">
-        <v>-2.18847</v>
+        <v>-2.09349</v>
       </c>
       <c r="P70" t="n">
         <v>4617913336</v>
@@ -7110,7 +7110,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.981Z</t>
+          <t>2025-04-06T02:20:11.500Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7139,19 +7139,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>83245</v>
+        <v>83276</v>
       </c>
       <c r="F71" t="n">
-        <v>1313925714</v>
+        <v>1313210551</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>1313925714</v>
+        <v>1313210551</v>
       </c>
       <c r="I71" t="n">
-        <v>1296252</v>
+        <v>1760112</v>
       </c>
       <c r="J71" t="n">
         <v>83851</v>
@@ -7160,16 +7160,16 @@
         <v>82210</v>
       </c>
       <c r="L71" t="n">
-        <v>-586.7590510158043</v>
+        <v>-528.4267947559565</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.69992</v>
+        <v>-0.6305500000000001</v>
       </c>
       <c r="N71" t="n">
-        <v>-2654682.605297089</v>
+        <v>-3455361.617720604</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.20163</v>
+        <v>-0.26243</v>
       </c>
       <c r="P71" t="n">
         <v>15766.06345339603</v>
@@ -7205,7 +7205,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.133Z</t>
+          <t>2025-04-06T02:20:03.127Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7234,19 +7234,19 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.640000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="F72" t="n">
-        <v>1206961512</v>
+        <v>1206458456</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>1375876777</v>
+        <v>1375303317</v>
       </c>
       <c r="I72" t="n">
-        <v>80893</v>
+        <v>80237</v>
       </c>
       <c r="J72" t="n">
         <v>10.2</v>
@@ -7255,16 +7255,16 @@
         <v>9.65</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.4925295707835016</v>
+        <v>-0.4281805632438385</v>
       </c>
       <c r="M72" t="n">
-        <v>-4.86082</v>
+        <v>-4.23718</v>
       </c>
       <c r="N72" t="n">
-        <v>-60100918.52323055</v>
+        <v>-60662980.22399187</v>
       </c>
       <c r="O72" t="n">
-        <v>-4.74333</v>
+        <v>-4.78746</v>
       </c>
       <c r="P72" t="n">
         <v>125043917.8513356</v>
@@ -7298,7 +7298,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.675Z</t>
+          <t>2025-04-06T02:20:13.520Z</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr"/>
@@ -7327,19 +7327,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.692015</v>
+        <v>0.6917219999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>1146194964</v>
+        <v>1146613425</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>2970736933</v>
+        <v>2971821512</v>
       </c>
       <c r="I73" t="n">
-        <v>66858309</v>
+        <v>66669826</v>
       </c>
       <c r="J73" t="n">
         <v>0.7140879999999999</v>
@@ -7348,16 +7348,16 @@
         <v>0.687344</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.01641461145922574</v>
+        <v>-0.01611588712441081</v>
       </c>
       <c r="M73" t="n">
-        <v>-2.31704</v>
+        <v>-2.27678</v>
       </c>
       <c r="N73" t="n">
-        <v>-30196776.05124187</v>
+        <v>-27573706.44544101</v>
       </c>
       <c r="O73" t="n">
-        <v>-2.5669</v>
+        <v>-2.34832</v>
       </c>
       <c r="P73" t="n">
         <v>1657120774</v>
@@ -7393,7 +7393,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:31.739Z</t>
+          <t>2025-04-06T02:20:09.958Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7422,19 +7422,19 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.753109</v>
+        <v>0.7536389999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1143166779</v>
+        <v>1142786000</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1582617658</v>
+        <v>1582090503</v>
       </c>
       <c r="I74" t="n">
-        <v>226906993</v>
+        <v>226655634</v>
       </c>
       <c r="J74" t="n">
         <v>0.806179</v>
@@ -7443,16 +7443,16 @@
         <v>0.748765</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.05096326517411764</v>
+        <v>-0.04978341135563114</v>
       </c>
       <c r="M74" t="n">
-        <v>-6.33814</v>
+        <v>-6.19642</v>
       </c>
       <c r="N74" t="n">
-        <v>-77106727.08407688</v>
+        <v>-78600767.74578166</v>
       </c>
       <c r="O74" t="n">
-        <v>-6.31881</v>
+        <v>-6.43537</v>
       </c>
       <c r="P74" t="n">
         <v>1516885789.1746</v>
@@ -7488,11 +7488,11 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.377Z</t>
+          <t>2025-04-06T02:20:13.557Z</t>
         </is>
       </c>
       <c r="AA74" t="n">
-        <v>-0.2392834577388757</v>
+        <v>-0.2387483672861265</v>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>-23.92834577388756</v>
+        <v>-23.87483672861265</v>
       </c>
     </row>
     <row r="75">
@@ -7525,19 +7525,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1349.08</v>
+        <v>1353.96</v>
       </c>
       <c r="F75" t="n">
-        <v>1138308808</v>
+        <v>1140668744</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1173642454</v>
+        <v>1176075644</v>
       </c>
       <c r="I75" t="n">
-        <v>51016345</v>
+        <v>51635069</v>
       </c>
       <c r="J75" t="n">
         <v>1359.42</v>
@@ -7546,16 +7546,16 @@
         <v>1309.31</v>
       </c>
       <c r="L75" t="n">
-        <v>20.19</v>
+        <v>26.22</v>
       </c>
       <c r="M75" t="n">
-        <v>1.51963</v>
+        <v>1.9744</v>
       </c>
       <c r="N75" t="n">
-        <v>14696152</v>
+        <v>18072727</v>
       </c>
       <c r="O75" t="n">
-        <v>1.30794</v>
+        <v>1.6099</v>
       </c>
       <c r="P75" t="n">
         <v>844816.8962146143</v>
@@ -7591,7 +7591,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.853Z</t>
+          <t>2025-04-06T02:20:13.934Z</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr"/>
@@ -7620,19 +7620,19 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.427897</v>
+        <v>0.427043</v>
       </c>
       <c r="F76" t="n">
-        <v>1114913172</v>
+        <v>1113449357</v>
       </c>
       <c r="G76" t="n">
         <v>75</v>
       </c>
       <c r="H76" t="n">
-        <v>1161793661</v>
+        <v>1160268295</v>
       </c>
       <c r="I76" t="n">
-        <v>61409582</v>
+        <v>61520823</v>
       </c>
       <c r="J76" t="n">
         <v>0.444148</v>
@@ -7641,16 +7641,16 @@
         <v>0.426708</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.01548641953631547</v>
+        <v>-0.01548046965977812</v>
       </c>
       <c r="M76" t="n">
-        <v>-3.49278</v>
+        <v>-3.49823</v>
       </c>
       <c r="N76" t="n">
-        <v>-40102451.53040886</v>
+        <v>-39081616.27973509</v>
       </c>
       <c r="O76" t="n">
-        <v>-3.47203</v>
+        <v>-3.39094</v>
       </c>
       <c r="P76" t="n">
         <v>2604959126.672</v>
@@ -7686,11 +7686,11 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.570Z</t>
+          <t>2025-04-06T02:20:12.484Z</t>
         </is>
       </c>
       <c r="AA76" t="n">
-        <v>3.935372265895008</v>
+        <v>3.925520968093275</v>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>393.5372265895008</v>
+        <v>392.5520968093275</v>
       </c>
     </row>
     <row r="77">
@@ -7723,19 +7723,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.070164</v>
+        <v>0.070255</v>
       </c>
       <c r="F77" t="n">
-        <v>1102603257</v>
+        <v>1102537903</v>
       </c>
       <c r="G77" t="n">
         <v>76</v>
       </c>
       <c r="H77" t="n">
-        <v>2667585170</v>
+        <v>2667427055</v>
       </c>
       <c r="I77" t="n">
-        <v>29718368</v>
+        <v>30977221</v>
       </c>
       <c r="J77" t="n">
         <v>0.07026300000000001</v>
@@ -7744,16 +7744,16 @@
         <v>0.067193</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0021355</v>
+        <v>0.00229521</v>
       </c>
       <c r="M77" t="n">
-        <v>3.13911</v>
+        <v>3.37729</v>
       </c>
       <c r="N77" t="n">
-        <v>33366465</v>
+        <v>35755733</v>
       </c>
       <c r="O77" t="n">
-        <v>3.12059</v>
+        <v>3.35174</v>
       </c>
       <c r="P77" t="n">
         <v>15699793640.4</v>
@@ -7787,11 +7787,11 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.804Z</t>
+          <t>2025-04-06T02:20:07.083Z</t>
         </is>
       </c>
       <c r="AA77" t="n">
-        <v>4.154688799526135</v>
+        <v>4.165809536195851</v>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="AC77" t="n">
-        <v>415.4688799526136</v>
+        <v>416.5809536195851</v>
       </c>
     </row>
     <row r="78">
@@ -7824,7 +7824,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.23</v>
+        <v>4.22</v>
       </c>
       <c r="F78" t="n">
         <v>1095814286</v>
@@ -7836,7 +7836,7 @@
         <v>4236951486</v>
       </c>
       <c r="I78" t="n">
-        <v>42333196</v>
+        <v>42215107</v>
       </c>
       <c r="J78" t="n">
         <v>4.33</v>
@@ -7845,10 +7845,10 @@
         <v>4.09</v>
       </c>
       <c r="L78" t="n">
-        <v>0.063735</v>
+        <v>0.055786</v>
       </c>
       <c r="M78" t="n">
-        <v>1.53135</v>
+        <v>1.339</v>
       </c>
       <c r="N78" t="n">
         <v>16180943</v>
@@ -7888,7 +7888,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.596Z</t>
+          <t>2025-04-06T02:20:03.622Z</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr"/>
@@ -7898,92 +7898,90 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>jupiter-exchange-solana</t>
+          <t>binance-peg-weth</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jup</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Binance-Peg WETH</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
+          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.384724</v>
+        <v>1808.34</v>
       </c>
       <c r="F79" t="n">
-        <v>1095804839</v>
+        <v>1094769338</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>2696756739</v>
+        <v>1094769338</v>
       </c>
       <c r="I79" t="n">
-        <v>38849074</v>
+        <v>20934105</v>
       </c>
       <c r="J79" t="n">
-        <v>0.403322</v>
+        <v>1820.25</v>
       </c>
       <c r="K79" t="n">
-        <v>0.379246</v>
+        <v>1776.91</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.01823183485825358</v>
+        <v>-8.330463888693203</v>
       </c>
       <c r="M79" t="n">
-        <v>-4.52452</v>
+        <v>-0.45856</v>
       </c>
       <c r="N79" t="n">
-        <v>-48996285.54678631</v>
+        <v>-4354506.666629553</v>
       </c>
       <c r="O79" t="n">
-        <v>-4.27989</v>
+        <v>-0.39618</v>
       </c>
       <c r="P79" t="n">
-        <v>2844383333.32</v>
+        <v>604999.999959841</v>
       </c>
       <c r="Q79" t="n">
-        <v>6999978144.445098</v>
-      </c>
-      <c r="R79" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>604999.999959841</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>4098.26</v>
       </c>
       <c r="T79" t="n">
-        <v>-80.75774</v>
+        <v>-55.83173</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2024-01-31T15:02:47.304Z</t>
+          <t>2024-12-06T20:27:27.286Z</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>0.359458</v>
+        <v>1755.76</v>
       </c>
       <c r="W79" t="n">
-        <v>7.06347</v>
+        <v>3.09649</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2025-04-03T14:56:10.674Z</t>
+          <t>2025-04-03T14:57:46.428Z</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.275Z</t>
+          <t>2025-04-06T02:20:11.310Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -7993,90 +7991,92 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>binance-peg-weth</t>
+          <t>jupiter-exchange-solana</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>jup</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Binance-Peg WETH</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
+          <t>https://coin-images.coingecko.com/coins/images/34188/large/jup.png?1704266489</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1809.93</v>
+        <v>0.383966</v>
       </c>
       <c r="F80" t="n">
-        <v>1095150435</v>
+        <v>1093628983</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>1095150435</v>
+        <v>2691401996</v>
       </c>
       <c r="I80" t="n">
-        <v>20640448</v>
+        <v>39220362</v>
       </c>
       <c r="J80" t="n">
-        <v>1820.25</v>
+        <v>0.403322</v>
       </c>
       <c r="K80" t="n">
-        <v>1776.91</v>
+        <v>0.379246</v>
       </c>
       <c r="L80" t="n">
-        <v>-7.151140189068201</v>
+        <v>-0.01902005812973728</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.39355</v>
+        <v>-4.71978</v>
       </c>
       <c r="N80" t="n">
-        <v>-5430357.719687223</v>
+        <v>-52377166.22168779</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.49341</v>
+        <v>-4.57041</v>
       </c>
       <c r="P80" t="n">
-        <v>604999.999959841</v>
+        <v>2844383333.32</v>
       </c>
       <c r="Q80" t="n">
-        <v>604999.999959841</v>
-      </c>
-      <c r="R80" t="inlineStr"/>
+        <v>6999978144.445098</v>
+      </c>
+      <c r="R80" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S80" t="n">
-        <v>4098.26</v>
+        <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>-55.83173</v>
+        <v>-80.75774</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2024-12-06T20:27:27.286Z</t>
+          <t>2024-01-31T15:02:47.304Z</t>
         </is>
       </c>
       <c r="V80" t="n">
-        <v>1755.76</v>
+        <v>0.359458</v>
       </c>
       <c r="W80" t="n">
-        <v>3.09649</v>
+        <v>7.06347</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>2025-04-03T14:57:46.428Z</t>
+          <t>2025-04-03T14:56:10.674Z</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.876Z</t>
+          <t>2025-04-06T02:20:13.737Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8105,19 +8105,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1880.81</v>
+        <v>1880.27</v>
       </c>
       <c r="F81" t="n">
-        <v>1063459700</v>
+        <v>1063070379</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1063459700</v>
+        <v>1063070379</v>
       </c>
       <c r="I81" t="n">
-        <v>1595866</v>
+        <v>1595408</v>
       </c>
       <c r="J81" t="n">
         <v>1893.88</v>
@@ -8126,16 +8126,16 @@
         <v>1851.29</v>
       </c>
       <c r="L81" t="n">
-        <v>-10.12107054378794</v>
+        <v>-8.455266539720014</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.53524</v>
+        <v>-0.44767</v>
       </c>
       <c r="N81" t="n">
-        <v>-5948214.172766328</v>
+        <v>-5005986.565858841</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.55622</v>
+        <v>-0.46869</v>
       </c>
       <c r="P81" t="n">
         <v>565329.8323006504</v>
@@ -8169,7 +8169,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.302Z</t>
+          <t>2025-04-06T02:20:12.895Z</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr"/>
@@ -8201,16 +8201,16 @@
         <v>1.057</v>
       </c>
       <c r="F82" t="n">
-        <v>1057383289</v>
+        <v>1057285597</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>1057383289</v>
+        <v>1057285597</v>
       </c>
       <c r="I82" t="n">
-        <v>9815446</v>
+        <v>9824003</v>
       </c>
       <c r="J82" t="n">
         <v>1.083</v>
@@ -8219,16 +8219,16 @@
         <v>1.04</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.02277284685700276</v>
+        <v>-0.02287251017183034</v>
       </c>
       <c r="M82" t="n">
-        <v>-2.10861</v>
+        <v>-2.11788</v>
       </c>
       <c r="N82" t="n">
-        <v>-24466232.6059891</v>
+        <v>-22800627.92845297</v>
       </c>
       <c r="O82" t="n">
-        <v>-2.26152</v>
+        <v>-2.111</v>
       </c>
       <c r="P82" t="n">
         <v>1000000000</v>
@@ -8264,11 +8264,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.836Z</t>
+          <t>2025-04-06T02:20:09.511Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>9.572191147413889</v>
+        <v>9.57100804537845</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>957.219114741389</v>
+        <v>957.100804537845</v>
       </c>
     </row>
     <row r="83">
@@ -8301,19 +8301,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>68.14</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>991900845</v>
+        <v>990657333</v>
       </c>
       <c r="G83" t="n">
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>996559997</v>
+        <v>995310644</v>
       </c>
       <c r="I83" t="n">
-        <v>18156543</v>
+        <v>18201345</v>
       </c>
       <c r="J83" t="n">
         <v>69.19</v>
@@ -8322,16 +8322,16 @@
         <v>67.20999999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>0.298999</v>
+        <v>0.378851</v>
       </c>
       <c r="M83" t="n">
-        <v>0.44076</v>
+        <v>0.5597</v>
       </c>
       <c r="N83" t="n">
-        <v>4868509</v>
+        <v>5465270</v>
       </c>
       <c r="O83" t="n">
-        <v>0.49325</v>
+        <v>0.55474</v>
       </c>
       <c r="P83" t="n">
         <v>14544176.16409109</v>
@@ -8367,11 +8367,11 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.311Z</t>
+          <t>2025-04-06T02:20:02.203Z</t>
         </is>
       </c>
       <c r="AA83" t="n">
-        <v>15.19378336132732</v>
+        <v>15.18395323084336</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="AC83" t="n">
-        <v>1519.378336132732</v>
+        <v>1518.395323084336</v>
       </c>
     </row>
     <row r="84">
@@ -8404,19 +8404,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>125.4</v>
+        <v>125.58</v>
       </c>
       <c r="F84" t="n">
-        <v>981302665</v>
+        <v>982442714</v>
       </c>
       <c r="G84" t="n">
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>981302665</v>
+        <v>982442714</v>
       </c>
       <c r="I84" t="n">
-        <v>3490241</v>
+        <v>3486625</v>
       </c>
       <c r="J84" t="n">
         <v>127.06</v>
@@ -8425,16 +8425,16 @@
         <v>122.33</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.633846344176632</v>
+        <v>-0.9216512523959608</v>
       </c>
       <c r="M84" t="n">
-        <v>-1.2862</v>
+        <v>-0.72854</v>
       </c>
       <c r="N84" t="n">
-        <v>-10500981.62534201</v>
+        <v>-8946228.865375757</v>
       </c>
       <c r="O84" t="n">
-        <v>-1.05878</v>
+        <v>-0.90239</v>
       </c>
       <c r="P84" t="n">
         <v>7821819.123379225</v>
@@ -8468,7 +8468,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.359Z</t>
+          <t>2025-04-06T02:20:10.239Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.998679</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>979958893</v>
+        <v>981416878</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>979958893</v>
+        <v>981416878</v>
       </c>
       <c r="I85" t="n">
-        <v>40603306</v>
+        <v>40729905</v>
       </c>
       <c r="J85" t="n">
         <v>1.005</v>
@@ -8518,16 +8518,16 @@
         <v>0.997779</v>
       </c>
       <c r="L85" t="n">
-        <v>-9.869263472017699e-05</v>
+        <v>0.00103658</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.00988</v>
+        <v>0.10375</v>
       </c>
       <c r="N85" t="n">
-        <v>3788642</v>
+        <v>5782124</v>
       </c>
       <c r="O85" t="n">
-        <v>0.38811</v>
+        <v>0.59265</v>
       </c>
       <c r="P85" t="n">
         <v>981253938.184608</v>
@@ -8561,7 +8561,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.330Z</t>
+          <t>2025-04-06T02:20:05.913Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8590,19 +8590,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.600936</v>
+        <v>0.601032</v>
       </c>
       <c r="F86" t="n">
-        <v>914535162</v>
+        <v>913830457</v>
       </c>
       <c r="G86" t="n">
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>914535162</v>
+        <v>913830457</v>
       </c>
       <c r="I86" t="n">
-        <v>26919920</v>
+        <v>26967352</v>
       </c>
       <c r="J86" t="n">
         <v>0.614383</v>
@@ -8611,16 +8611,16 @@
         <v>0.591054</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.00362705129330676</v>
+        <v>-0.003200178467560377</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.59995</v>
+        <v>-0.52963</v>
       </c>
       <c r="N86" t="n">
-        <v>-6596849.716976762</v>
+        <v>-5122476.29480803</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.71617</v>
+        <v>-0.55743</v>
       </c>
       <c r="P86" t="n">
         <v>1520233864.63612</v>
@@ -8656,11 +8656,11 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.126Z</t>
+          <t>2025-04-06T02:20:11.284Z</t>
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>4.007799485693423</v>
+        <v>4.008599802611283</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>400.7799485693423</v>
+        <v>400.8599802611283</v>
       </c>
     </row>
     <row r="87">
@@ -8693,19 +8693,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.372298</v>
+        <v>0.372505</v>
       </c>
       <c r="F87" t="n">
-        <v>912806503</v>
+        <v>911737700</v>
       </c>
       <c r="G87" t="n">
         <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>3725740830</v>
+        <v>3721378366</v>
       </c>
       <c r="I87" t="n">
-        <v>25174543</v>
+        <v>30823152</v>
       </c>
       <c r="J87" t="n">
         <v>0.387882</v>
@@ -8714,16 +8714,16 @@
         <v>0.370039</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.005013744644653206</v>
+        <v>-0.004192359497037002</v>
       </c>
       <c r="M87" t="n">
-        <v>-1.32881</v>
+        <v>-1.11293</v>
       </c>
       <c r="N87" t="n">
-        <v>-12459642.65908337</v>
+        <v>-12595751.19664717</v>
       </c>
       <c r="O87" t="n">
-        <v>-1.3466</v>
+        <v>-1.36268</v>
       </c>
       <c r="P87" t="n">
         <v>2450000000</v>
@@ -8759,7 +8759,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:30.824Z</t>
+          <t>2025-04-06T02:20:08.567Z</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr"/>
@@ -8788,19 +8788,19 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.734461</v>
+        <v>0.733374</v>
       </c>
       <c r="F88" t="n">
-        <v>906305181</v>
+        <v>905614099</v>
       </c>
       <c r="G88" t="n">
         <v>87</v>
       </c>
       <c r="H88" t="n">
-        <v>7347207305</v>
+        <v>7341604860</v>
       </c>
       <c r="I88" t="n">
-        <v>54593455</v>
+        <v>54447583</v>
       </c>
       <c r="J88" t="n">
         <v>0.7586540000000001</v>
@@ -8809,16 +8809,16 @@
         <v>0.730341</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.02151430502340024</v>
+        <v>-0.02119483613824058</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.8459</v>
+        <v>-2.80887</v>
       </c>
       <c r="N88" t="n">
-        <v>-24080114.36696041</v>
+        <v>-23854523.74777269</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.58819</v>
+        <v>-2.56647</v>
       </c>
       <c r="P88" t="n">
         <v>1233536966.006985</v>
@@ -8854,7 +8854,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.722Z</t>
+          <t>2025-04-06T02:20:07.048Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8883,19 +8883,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2047.7</v>
+        <v>2048.94</v>
       </c>
       <c r="F89" t="n">
-        <v>888551781</v>
+        <v>888287894</v>
       </c>
       <c r="G89" t="n">
         <v>88</v>
       </c>
       <c r="H89" t="n">
-        <v>888551781</v>
+        <v>888287894</v>
       </c>
       <c r="I89" t="n">
-        <v>7424019</v>
+        <v>7418706</v>
       </c>
       <c r="J89" t="n">
         <v>2057.02</v>
@@ -8904,16 +8904,16 @@
         <v>2013.14</v>
       </c>
       <c r="L89" t="n">
-        <v>-7.599899639306159</v>
+        <v>-4.375277140741218</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.36977</v>
+        <v>-0.21308</v>
       </c>
       <c r="N89" t="n">
-        <v>-5318229.923535824</v>
+        <v>-4729188.834861636</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.59497</v>
+        <v>-0.52957</v>
       </c>
       <c r="P89" t="n">
         <v>433662.2520111651</v>
@@ -8947,7 +8947,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.985Z</t>
+          <t>2025-04-06T02:20:02.064Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8976,19 +8976,19 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>14.9</v>
+        <v>14.96</v>
       </c>
       <c r="F90" t="n">
-        <v>851032083</v>
+        <v>852418210</v>
       </c>
       <c r="G90" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H90" t="n">
-        <v>1438232601</v>
+        <v>1440575136</v>
       </c>
       <c r="I90" t="n">
-        <v>8404030</v>
+        <v>9115741</v>
       </c>
       <c r="J90" t="n">
         <v>14.93</v>
@@ -8997,16 +8997,16 @@
         <v>14.41</v>
       </c>
       <c r="L90" t="n">
-        <v>0.287114</v>
+        <v>0.321229</v>
       </c>
       <c r="M90" t="n">
-        <v>1.96421</v>
+        <v>2.19478</v>
       </c>
       <c r="N90" t="n">
-        <v>14911718</v>
+        <v>17674358</v>
       </c>
       <c r="O90" t="n">
-        <v>1.78344</v>
+        <v>2.11734</v>
       </c>
       <c r="P90" t="n">
         <v>57103774.56313077</v>
@@ -9040,7 +9040,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:36.015Z</t>
+          <t>2025-04-06T02:20:11.698Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9069,19 +9069,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.097e-05</v>
+        <v>1.096e-05</v>
       </c>
       <c r="F91" t="n">
-        <v>850579000</v>
+        <v>849479222</v>
       </c>
       <c r="G91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>976105984</v>
+        <v>974843903</v>
       </c>
       <c r="I91" t="n">
-        <v>47866512</v>
+        <v>49260371</v>
       </c>
       <c r="J91" t="n">
         <v>1.135e-05</v>
@@ -9090,16 +9090,16 @@
         <v>1.092e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>-3.16276953952e-07</v>
+        <v>-3.16010285468e-07</v>
       </c>
       <c r="M91" t="n">
-        <v>-2.80157</v>
+        <v>-2.80138</v>
       </c>
       <c r="N91" t="n">
-        <v>-25101047.01274896</v>
+        <v>-23831882.00474501</v>
       </c>
       <c r="O91" t="n">
-        <v>-2.86646</v>
+        <v>-2.72891</v>
       </c>
       <c r="P91" t="n">
         <v>77419592329436.58</v>
@@ -9135,7 +9135,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.532Z</t>
+          <t>2025-04-06T02:20:11.092Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9164,19 +9164,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.999387</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>848941823</v>
+        <v>848589124</v>
       </c>
       <c r="G92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>848941823</v>
+        <v>848589124</v>
       </c>
       <c r="I92" t="n">
-        <v>16342595</v>
+        <v>16283607</v>
       </c>
       <c r="J92" t="n">
         <v>1.002</v>
@@ -9185,16 +9185,16 @@
         <v>0.997636</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.00074421946772496</v>
+        <v>-0.000110980659036253</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.07441</v>
+        <v>-0.0111</v>
       </c>
       <c r="N92" t="n">
-        <v>-940958.7596414089</v>
+        <v>-592643.7641938925</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.11072</v>
+        <v>-0.06979</v>
       </c>
       <c r="P92" t="n">
         <v>848999999.8398039</v>
@@ -9228,7 +9228,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:34.001Z</t>
+          <t>2025-04-06T02:20:10.626Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9257,19 +9257,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.997719</v>
+        <v>0.997735</v>
       </c>
       <c r="F93" t="n">
-        <v>815637844</v>
+        <v>815611362</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>815637844</v>
+        <v>815611362</v>
       </c>
       <c r="I93" t="n">
-        <v>26248800</v>
+        <v>26249199</v>
       </c>
       <c r="J93" t="n">
         <v>0.998074</v>
@@ -9278,16 +9278,16 @@
         <v>0.997403</v>
       </c>
       <c r="L93" t="n">
-        <v>-6.111997977720201e-05</v>
+        <v>-3.9105356979818e-05</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.00613</v>
+        <v>-0.00392</v>
       </c>
       <c r="N93" t="n">
-        <v>-8148300.867354512</v>
+        <v>-8175957.335260272</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.98913</v>
+        <v>-0.99248</v>
       </c>
       <c r="P93" t="n">
         <v>817494402.340997</v>
@@ -9321,7 +9321,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:26.442Z</t>
+          <t>2025-04-06T02:20:05.102Z</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -9350,19 +9350,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.999046</v>
+        <v>0.999507</v>
       </c>
       <c r="F94" t="n">
-        <v>814599332</v>
+        <v>814289844</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>814599332</v>
+        <v>814289844</v>
       </c>
       <c r="I94" t="n">
-        <v>8282507</v>
+        <v>8305207</v>
       </c>
       <c r="J94" t="n">
         <v>1.001</v>
@@ -9371,16 +9371,16 @@
         <v>0.997638</v>
       </c>
       <c r="L94" t="n">
-        <v>0.00033041</v>
+        <v>-0.000244725729563355</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03308</v>
+        <v>-0.02448</v>
       </c>
       <c r="N94" t="n">
-        <v>45257</v>
+        <v>-245906.0360710621</v>
       </c>
       <c r="O94" t="n">
-        <v>0.00556</v>
+        <v>-0.03019</v>
       </c>
       <c r="P94" t="n">
         <v>815001581.802994</v>
@@ -9414,7 +9414,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:32.368Z</t>
+          <t>2025-04-06T02:20:10.309Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9443,19 +9443,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.0130961</v>
+        <v>0.01311543</v>
       </c>
       <c r="F95" t="n">
-        <v>806139005</v>
+        <v>807670793</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>1351042440</v>
+        <v>1353609628</v>
       </c>
       <c r="I95" t="n">
-        <v>11137592</v>
+        <v>11071260</v>
       </c>
       <c r="J95" t="n">
         <v>0.01361337</v>
@@ -9464,16 +9464,16 @@
         <v>0.01293927</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.000307305979264767</v>
+        <v>-0.000281915939200343</v>
       </c>
       <c r="M95" t="n">
-        <v>-2.29274</v>
+        <v>-2.10427</v>
       </c>
       <c r="N95" t="n">
-        <v>-13559313.26382887</v>
+        <v>-10798910.94250989</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.65418</v>
+        <v>-1.3194</v>
       </c>
       <c r="P95" t="n">
         <v>61590752031.68212</v>
@@ -9507,7 +9507,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:27.307Z</t>
+          <t>2025-04-06T02:20:12.112Z</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
@@ -9536,19 +9536,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8.19</v>
+        <v>8.17</v>
       </c>
       <c r="F96" t="n">
-        <v>799583845</v>
+        <v>800181917</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>818179257</v>
+        <v>818791238</v>
       </c>
       <c r="I96" t="n">
-        <v>39517334</v>
+        <v>38992327</v>
       </c>
       <c r="J96" t="n">
         <v>8.380000000000001</v>
@@ -9557,16 +9557,16 @@
         <v>8.09</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.0769752048675123</v>
+        <v>-0.1011245451044367</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.93121</v>
+        <v>-1.2228</v>
       </c>
       <c r="N96" t="n">
-        <v>-10099184.64021194</v>
+        <v>-7675085.947787642</v>
       </c>
       <c r="O96" t="n">
-        <v>-1.2473</v>
+        <v>-0.95006</v>
       </c>
       <c r="P96" t="n">
         <v>97727220.33</v>
@@ -9600,7 +9600,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.518Z</t>
+          <t>2025-04-06T02:20:07.738Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9629,19 +9629,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.162265</v>
+        <v>0.162275</v>
       </c>
       <c r="F97" t="n">
-        <v>792640309</v>
+        <v>792701628</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>1623477435</v>
+        <v>1623603027</v>
       </c>
       <c r="I97" t="n">
-        <v>29905579</v>
+        <v>29846756</v>
       </c>
       <c r="J97" t="n">
         <v>0.165753</v>
@@ -9650,16 +9650,16 @@
         <v>0.161572</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002343433829857022</v>
+        <v>-0.002223625664021928</v>
       </c>
       <c r="M97" t="n">
-        <v>-1.42365</v>
+        <v>-1.35176</v>
       </c>
       <c r="N97" t="n">
-        <v>-11035293.31348491</v>
+        <v>-10973974.56896806</v>
       </c>
       <c r="O97" t="n">
-        <v>-1.3731</v>
+        <v>-1.36547</v>
       </c>
       <c r="P97" t="n">
         <v>4882361111</v>
@@ -9693,7 +9693,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:33.496Z</t>
+          <t>2025-04-06T02:20:04.311Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9722,19 +9722,19 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.081593</v>
+        <v>0.081497</v>
       </c>
       <c r="F98" t="n">
-        <v>778996463</v>
+        <v>778230578</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>880116194</v>
+        <v>879250891</v>
       </c>
       <c r="I98" t="n">
-        <v>27738751</v>
+        <v>27946488</v>
       </c>
       <c r="J98" t="n">
         <v>0.083314</v>
@@ -9743,16 +9743,16 @@
         <v>0.080349</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.001658358390331932</v>
+        <v>-0.001750149497569353</v>
       </c>
       <c r="M98" t="n">
-        <v>-1.992</v>
+        <v>-2.10234</v>
       </c>
       <c r="N98" t="n">
-        <v>-16132810.91096413</v>
+        <v>-16329853.07136464</v>
       </c>
       <c r="O98" t="n">
-        <v>-2.02895</v>
+        <v>-2.05521</v>
       </c>
       <c r="P98" t="n">
         <v>9548531509.16547</v>
@@ -9788,7 +9788,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:36.101Z</t>
+          <t>2025-04-06T02:20:06.145Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9817,19 +9817,19 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.77599</v>
+        <v>0.7746729999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>775894718</v>
+        <v>775604971</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>775894718</v>
+        <v>775604971</v>
       </c>
       <c r="I99" t="n">
-        <v>12993913</v>
+        <v>13001372</v>
       </c>
       <c r="J99" t="n">
         <v>0.799049</v>
@@ -9838,16 +9838,16 @@
         <v>0.764868</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.01598288282117177</v>
+        <v>-0.01694020894052362</v>
       </c>
       <c r="M99" t="n">
-        <v>-2.01811</v>
+        <v>-2.13996</v>
       </c>
       <c r="N99" t="n">
-        <v>-15884416.79001129</v>
+        <v>-15933492.97492075</v>
       </c>
       <c r="O99" t="n">
-        <v>-2.00617</v>
+        <v>-2.01298</v>
       </c>
       <c r="P99" t="n">
         <v>1000000000</v>
@@ -9883,11 +9883,11 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.283Z</t>
+          <t>2025-04-06T02:20:04.929Z</t>
         </is>
       </c>
       <c r="AA99" t="n">
-        <v>4.173263981822756</v>
+        <v>4.164484333482971</v>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="AC99" t="n">
-        <v>417.3263981822756</v>
+        <v>416.448433348297</v>
       </c>
     </row>
     <row r="100">
@@ -9920,19 +9920,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3048.78</v>
+        <v>3049.94</v>
       </c>
       <c r="F100" t="n">
-        <v>751600804</v>
+        <v>751660107</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>751600804</v>
+        <v>751660107</v>
       </c>
       <c r="I100" t="n">
-        <v>23576628</v>
+        <v>23293964</v>
       </c>
       <c r="J100" t="n">
         <v>3052.62</v>
@@ -9941,16 +9941,16 @@
         <v>3038.32</v>
       </c>
       <c r="L100" t="n">
-        <v>3.69</v>
+        <v>8.1</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1213</v>
+        <v>0.26628</v>
       </c>
       <c r="N100" t="n">
-        <v>913022</v>
+        <v>972324</v>
       </c>
       <c r="O100" t="n">
-        <v>0.12162</v>
+        <v>0.12952</v>
       </c>
       <c r="P100" t="n">
         <v>246524.33</v>
@@ -9984,7 +9984,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:25.639Z</t>
+          <t>2025-04-06T02:20:04.568Z</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr"/>
@@ -10013,19 +10013,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.418626</v>
+        <v>0.418384</v>
       </c>
       <c r="F101" t="n">
-        <v>751215664</v>
+        <v>750116325</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>838019966</v>
+        <v>836793596</v>
       </c>
       <c r="I101" t="n">
-        <v>46427913</v>
+        <v>46620885</v>
       </c>
       <c r="J101" t="n">
         <v>0.445928</v>
@@ -10034,16 +10034,16 @@
         <v>0.417536</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.02246358442734042</v>
+        <v>-0.02250733886399192</v>
       </c>
       <c r="M101" t="n">
-        <v>-5.09274</v>
+        <v>-5.10496</v>
       </c>
       <c r="N101" t="n">
-        <v>-43487699.74982083</v>
+        <v>-40699474.14039648</v>
       </c>
       <c r="O101" t="n">
-        <v>-5.47219</v>
+        <v>-5.14652</v>
       </c>
       <c r="P101" t="n">
         <v>1792834764.389814</v>
@@ -10079,7 +10079,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:14:29.290Z</t>
+          <t>2025-04-06T02:20:13.187Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -602,43 +602,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83352</v>
+        <v>82430</v>
       </c>
       <c r="F2" t="n">
-        <v>1654458378418</v>
+        <v>1637888083257</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1654458378418</v>
+        <v>1637888083257</v>
       </c>
       <c r="I2" t="n">
-        <v>14729830395</v>
+        <v>14114038014</v>
       </c>
       <c r="J2" t="n">
-        <v>84040</v>
+        <v>83668</v>
       </c>
       <c r="K2" t="n">
-        <v>82395</v>
+        <v>82219</v>
       </c>
       <c r="L2" t="n">
-        <v>-528.0367113004613</v>
+        <v>-256.6822970464564</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.62951</v>
+        <v>-0.31043</v>
       </c>
       <c r="N2" t="n">
-        <v>-10167555348.60278</v>
+        <v>-202997686.6213379</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6108</v>
+        <v>-0.01239</v>
       </c>
       <c r="P2" t="n">
-        <v>19847275</v>
+        <v>19847518</v>
       </c>
       <c r="Q2" t="n">
-        <v>19847275</v>
+        <v>19847518</v>
       </c>
       <c r="R2" t="n">
         <v>21000000</v>
@@ -647,7 +647,7 @@
         <v>108786</v>
       </c>
       <c r="T2" t="n">
-        <v>-23.34073</v>
+        <v>-24.14039</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>67.81</v>
       </c>
       <c r="W2" t="n">
-        <v>122883.95315</v>
+        <v>121601.0642</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.341Z</t>
+          <t>2025-04-06T16:04:15.073Z</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
@@ -697,37 +697,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1808.34</v>
+        <v>1757.92</v>
       </c>
       <c r="F3" t="n">
-        <v>218323536164</v>
+        <v>212393475844</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>218323536164</v>
+        <v>212393475844</v>
       </c>
       <c r="I3" t="n">
-        <v>6745421071</v>
+        <v>8277211991</v>
       </c>
       <c r="J3" t="n">
-        <v>1821.42</v>
+        <v>1813.53</v>
       </c>
       <c r="K3" t="n">
-        <v>1778.36</v>
+        <v>1748.09</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.270935364847901</v>
+        <v>-25.67161747020259</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.40047</v>
+        <v>-1.43932</v>
       </c>
       <c r="N3" t="n">
-        <v>-776801973.2576294</v>
+        <v>-2457452354.458191</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.35454</v>
+        <v>-1.14379</v>
       </c>
       <c r="P3" t="n">
         <v>120672033.7083664</v>
@@ -740,7 +740,7 @@
         <v>4878.26</v>
       </c>
       <c r="T3" t="n">
-        <v>-62.92173</v>
+        <v>-63.92063</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>0.432979</v>
       </c>
       <c r="W3" t="n">
-        <v>417651.26102</v>
+        <v>406396.85656</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -761,11 +761,11 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:14.207Z</t>
+          <t>2025-04-06T16:04:16.255Z</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>28.00538836416485</v>
+        <v>27.50620443961228</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2800.538836416485</v>
+        <v>2750.620443961228</v>
       </c>
     </row>
     <row r="4">
@@ -798,37 +798,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.99962</v>
+        <v>0.999547</v>
       </c>
       <c r="F4" t="n">
-        <v>144031459424</v>
+        <v>144022133207</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>144031459424</v>
+        <v>144022133207</v>
       </c>
       <c r="I4" t="n">
-        <v>25168602786</v>
+        <v>18992908748</v>
       </c>
       <c r="J4" t="n">
-        <v>0.999759</v>
+        <v>0.999627</v>
       </c>
       <c r="K4" t="n">
-        <v>0.999529</v>
+        <v>0.999421</v>
       </c>
       <c r="L4" t="n">
-        <v>6.58e-06</v>
+        <v>-4.2457225861603e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00066</v>
+        <v>-0.00425</v>
       </c>
       <c r="N4" t="n">
-        <v>-35157.6494140625</v>
+        <v>-5886124.359619141</v>
       </c>
       <c r="O4" t="n">
-        <v>-2e-05</v>
+        <v>-0.00409</v>
       </c>
       <c r="P4" t="n">
         <v>144086679997.8651</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="T4" t="n">
-        <v>-24.44806</v>
+        <v>-24.45351</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>0.5725209999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>74.60043</v>
+        <v>74.58784</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:06.615Z</t>
+          <t>2025-04-06T16:04:17.130Z</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -891,37 +891,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="F5" t="n">
-        <v>124695149607</v>
+        <v>120904748102</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>213947821177</v>
+        <v>207444375406</v>
       </c>
       <c r="I5" t="n">
-        <v>1893368650</v>
+        <v>1927403699</v>
       </c>
       <c r="J5" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01571056</v>
+        <v>-0.05431567595553188</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7400099999999999</v>
+        <v>-2.55531</v>
       </c>
       <c r="N5" t="n">
-        <v>974794503</v>
+        <v>-2915103762.066193</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7879</v>
+        <v>-2.35431</v>
       </c>
       <c r="P5" t="n">
         <v>58274974538</v>
@@ -936,7 +936,7 @@
         <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>-36.89152</v>
+        <v>-38.95077</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>0.00268621</v>
       </c>
       <c r="W5" t="n">
-        <v>79741.58817</v>
+        <v>77136.33099</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.697Z</t>
+          <t>2025-04-06T16:04:14.106Z</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr"/>
@@ -986,37 +986,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>591.38</v>
+        <v>580.21</v>
       </c>
       <c r="F6" t="n">
-        <v>86276943242</v>
+        <v>84727469952</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>86276943242</v>
+        <v>84727469952</v>
       </c>
       <c r="I6" t="n">
-        <v>335632358</v>
+        <v>444626430</v>
       </c>
       <c r="J6" t="n">
-        <v>598.1799999999999</v>
+        <v>594.09</v>
       </c>
       <c r="K6" t="n">
-        <v>590.4299999999999</v>
+        <v>579.98</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.466353134939027</v>
+        <v>-12.30459545002122</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.91588</v>
+        <v>-2.07669</v>
       </c>
       <c r="N6" t="n">
-        <v>-802230330.4858551</v>
+        <v>-1641723992.362473</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.92127</v>
+        <v>-1.90082</v>
       </c>
       <c r="P6" t="n">
         <v>145887575.79</v>
@@ -1031,7 +1031,7 @@
         <v>788.84</v>
       </c>
       <c r="T6" t="n">
-        <v>-25.0384</v>
+        <v>-26.3767</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>0.0398177</v>
       </c>
       <c r="W6" t="n">
-        <v>1484992.81594</v>
+        <v>1458479.40097</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.982Z</t>
+          <t>2025-04-06T16:04:15.781Z</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr"/>
@@ -1062,90 +1062,90 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sol</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4128/large/solana.png?1718769756</t>
+          <t>https://coin-images.coingecko.com/coins/images/6319/large/usdc.png?1696506694</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120.23</v>
+        <v>0.99987</v>
       </c>
       <c r="F7" t="n">
-        <v>61883798272</v>
+        <v>60465591602</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>71894845423</v>
+        <v>60466332287</v>
       </c>
       <c r="I7" t="n">
-        <v>1882319798</v>
+        <v>4285152002</v>
       </c>
       <c r="J7" t="n">
-        <v>121.84</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>117.2</v>
+        <v>0.999776</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.102417123154609</v>
+        <v>-9.528604095143699e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.90857</v>
+        <v>-0.00953</v>
       </c>
       <c r="N7" t="n">
-        <v>-618023418.4528885</v>
+        <v>-74139983.71858978</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.98881</v>
+        <v>-0.12247</v>
       </c>
       <c r="P7" t="n">
-        <v>514589174.9243327</v>
+        <v>60472751555.44874</v>
       </c>
       <c r="Q7" t="n">
-        <v>597835139.7453557</v>
+        <v>60473492328.42173</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>293.31</v>
+        <v>1.17</v>
       </c>
       <c r="T7" t="n">
-        <v>-58.97715</v>
+        <v>-14.73861</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2025-01-19T11:15:27.957Z</t>
+          <t>2019-05-08T00:40:28.300Z</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0.5008010000000001</v>
+        <v>0.877647</v>
       </c>
       <c r="W7" t="n">
-        <v>23926.48522</v>
+        <v>13.92575</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2020-05-11T19:35:23.449Z</t>
+          <t>2023-03-11T08:02:13.981Z</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:04.201Z</t>
+          <t>2025-04-06T16:04:17.595Z</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr"/>
@@ -1155,90 +1155,90 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>sol</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/6319/large/usdc.png?1696506694</t>
+          <t>https://coin-images.coingecko.com/coins/images/4128/large/solana.png?1718769756</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.999931</v>
+        <v>114.84</v>
       </c>
       <c r="F8" t="n">
-        <v>60530564701</v>
+        <v>59097311051</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>60530588256</v>
+        <v>68657589737</v>
       </c>
       <c r="I8" t="n">
-        <v>4896445848</v>
+        <v>2012231353</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>120.84</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9998629999999999</v>
+        <v>114.58</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.5635389939958e-05</v>
+        <v>-2.893137911810868</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00456</v>
+        <v>-2.45735</v>
       </c>
       <c r="N8" t="n">
-        <v>-34268001.62757111</v>
+        <v>-1339228590.392799</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.05658</v>
+        <v>-2.21593</v>
       </c>
       <c r="P8" t="n">
-        <v>60532972417.32211</v>
+        <v>514588665.3895275</v>
       </c>
       <c r="Q8" t="n">
-        <v>60532995972.75019</v>
+        <v>597834602.6840283</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.17</v>
+        <v>293.31</v>
       </c>
       <c r="T8" t="n">
-        <v>-14.73639</v>
+        <v>-60.81797</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2019-05-08T00:40:28.300Z</t>
+          <t>2025-01-19T11:15:27.957Z</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0.877647</v>
+        <v>0.5008010000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>13.92873</v>
+        <v>22848.34273</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2023-03-11T08:02:13.981Z</t>
+          <t>2020-05-11T19:35:23.449Z</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.465Z</t>
+          <t>2025-04-06T16:04:14.233Z</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr"/>
@@ -1267,50 +1267,50 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.168429</v>
+        <v>0.161673</v>
       </c>
       <c r="F9" t="n">
-        <v>25057697797</v>
+        <v>24074861974</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>25062864278</v>
+        <v>24081125863</v>
       </c>
       <c r="I9" t="n">
-        <v>600608211</v>
+        <v>630185148</v>
       </c>
       <c r="J9" t="n">
-        <v>0.170693</v>
+        <v>0.16983</v>
       </c>
       <c r="K9" t="n">
-        <v>0.166499</v>
+        <v>0.159997</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001689564515439945</v>
+        <v>-0.00576799544120199</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.99317</v>
+        <v>-3.4448</v>
       </c>
       <c r="N9" t="n">
-        <v>-267915323.336338</v>
+        <v>-753568813.4566612</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.05788</v>
+        <v>-3.0351</v>
       </c>
       <c r="P9" t="n">
         <v>148702566383.7052</v>
       </c>
       <c r="Q9" t="n">
-        <v>148733226383.7052</v>
+        <v>148741256383.7052</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
         <v>0.731578</v>
       </c>
       <c r="T9" t="n">
-        <v>-76.9472</v>
+        <v>-77.86987999999999</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>8.69e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>193964.40069</v>
+        <v>186197.01567</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.441Z</t>
+          <t>2025-04-06T16:04:18.656Z</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr"/>
@@ -1341,198 +1341,198 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ada</t>
+          <t>trx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/975/large/cardano.png?1696502090</t>
+          <t>https://coin-images.coingecko.com/coins/images/1094/large/tron-logo.png?1696502193</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.648027</v>
+        <v>0.238888</v>
       </c>
       <c r="F10" t="n">
-        <v>23348153302</v>
+        <v>22699112781</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>29188469139</v>
+        <v>22699118701</v>
       </c>
       <c r="I10" t="n">
-        <v>384879012</v>
+        <v>351867523</v>
       </c>
       <c r="J10" t="n">
-        <v>0.662964</v>
+        <v>0.239814</v>
       </c>
       <c r="K10" t="n">
-        <v>0.646239</v>
+        <v>0.235565</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01338816913418628</v>
+        <v>0.0009053899999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.02417</v>
+        <v>0.38044</v>
       </c>
       <c r="N10" t="n">
-        <v>-456229155.6594925</v>
+        <v>90577397</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.91658</v>
+        <v>0.40063</v>
       </c>
       <c r="P10" t="n">
-        <v>35995957636.81128</v>
+        <v>94979700067.07162</v>
       </c>
       <c r="Q10" t="n">
-        <v>45000000000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>45000000000</v>
-      </c>
+        <v>94979724835.34042</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>3.09</v>
+        <v>0.431288</v>
       </c>
       <c r="T10" t="n">
-        <v>-78.93691</v>
+        <v>-44.58743</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2021-09-02T06:00:10.474Z</t>
+          <t>2024-12-04T00:10:40.323Z</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0.01925275</v>
+        <v>0.00180434</v>
       </c>
       <c r="W10" t="n">
-        <v>3277.17503</v>
+        <v>13145.16086</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2020-03-13T02:22:55.044Z</t>
+          <t>2017-11-12T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.971Z</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+          <t>2025-04-06T16:04:16.875Z</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>124.7307542666839</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>12473.07542666839</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trx</t>
+          <t>ada</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1094/large/tron-logo.png?1696502193</t>
+          <t>https://coin-images.coingecko.com/coins/images/975/large/cardano.png?1696502090</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.236002</v>
+        <v>0.6264729999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>22423591263</v>
+        <v>22562892300</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>22423703074</v>
+        <v>28206782654</v>
       </c>
       <c r="I11" t="n">
-        <v>334309099</v>
+        <v>458367776</v>
       </c>
       <c r="J11" t="n">
-        <v>0.238844</v>
+        <v>0.656219</v>
       </c>
       <c r="K11" t="n">
-        <v>0.235916</v>
+        <v>0.620415</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00243689676508721</v>
+        <v>-0.02166237014644845</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.02202</v>
+        <v>-3.34226</v>
       </c>
       <c r="N11" t="n">
-        <v>-214251378.4805794</v>
+        <v>-744833473.2363091</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.94643</v>
+        <v>-3.19565</v>
       </c>
       <c r="P11" t="n">
-        <v>94979380176.64734</v>
+        <v>35995957636.81128</v>
       </c>
       <c r="Q11" t="n">
-        <v>94979853772.37912</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+        <v>45000000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>45000000000</v>
+      </c>
       <c r="S11" t="n">
-        <v>0.431288</v>
+        <v>3.09</v>
       </c>
       <c r="T11" t="n">
-        <v>-45.22993</v>
+        <v>-79.69435</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2024-12-04T00:10:40.323Z</t>
+          <t>2021-09-02T06:00:10.474Z</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0.00180434</v>
+        <v>0.01925275</v>
       </c>
       <c r="W11" t="n">
-        <v>12991.58574</v>
+        <v>3155.72966</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2017-11-12T00:00:00.000Z</t>
+          <t>2020-03-13T02:22:55.044Z</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.929Z</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>123.2113691020883</v>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC11" t="n">
-        <v>12321.13691020883</v>
-      </c>
+          <t>2025-04-06T16:04:17.014Z</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1556,50 +1556,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1807.44</v>
+        <v>1756.23</v>
       </c>
       <c r="F12" t="n">
-        <v>16922830264</v>
+        <v>16453400637</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>16922830264</v>
+        <v>16453400637</v>
       </c>
       <c r="I12" t="n">
-        <v>15453838</v>
+        <v>11926745</v>
       </c>
       <c r="J12" t="n">
-        <v>1820.17</v>
+        <v>1812.86</v>
       </c>
       <c r="K12" t="n">
-        <v>1778.27</v>
+        <v>1746.99</v>
       </c>
       <c r="L12" t="n">
-        <v>-8.349953936470229</v>
+        <v>-25.74584882945555</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.45985</v>
+        <v>-1.44479</v>
       </c>
       <c r="N12" t="n">
-        <v>-131564218.2286968</v>
+        <v>-230547695.8755779</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.77144</v>
+        <v>-1.38185</v>
       </c>
       <c r="P12" t="n">
-        <v>9370767.051120227</v>
+        <v>9365000.516946748</v>
       </c>
       <c r="Q12" t="n">
-        <v>9370767.051120227</v>
+        <v>9365000.516946748</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>4829.57</v>
       </c>
       <c r="T12" t="n">
-        <v>-62.58766</v>
+        <v>-63.56102</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>482.9</v>
       </c>
       <c r="W12" t="n">
-        <v>274.17057</v>
+        <v>264.43571</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.365Z</t>
+          <t>2025-04-06T16:04:13.068Z</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr"/>
@@ -1649,37 +1649,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>83316</v>
+        <v>82332</v>
       </c>
       <c r="F13" t="n">
-        <v>10735026110</v>
+        <v>10626391478</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>10735026110</v>
+        <v>10626391478</v>
       </c>
       <c r="I13" t="n">
-        <v>260879051</v>
+        <v>136703796</v>
       </c>
       <c r="J13" t="n">
-        <v>83929</v>
+        <v>83703</v>
       </c>
       <c r="K13" t="n">
-        <v>82237</v>
+        <v>82086</v>
       </c>
       <c r="L13" t="n">
-        <v>-526.9373266981565</v>
+        <v>-94.97878443531226</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.62848</v>
+        <v>-0.11523</v>
       </c>
       <c r="N13" t="n">
-        <v>-74460077.90328026</v>
+        <v>17086150</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.68884</v>
+        <v>0.16105</v>
       </c>
       <c r="P13" t="n">
         <v>128915.05657878</v>
@@ -1694,7 +1694,7 @@
         <v>108368</v>
       </c>
       <c r="T13" t="n">
-        <v>-23.10542</v>
+        <v>-23.96858</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>3139.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2554.48917</v>
+        <v>2524.69179</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.069Z</t>
+          <t>2025-04-06T16:04:17.085Z</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
@@ -1744,40 +1744,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.140000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>8438041301</v>
+        <v>8358031876</v>
       </c>
       <c r="G14" t="n">
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>8999342965</v>
+        <v>8914079399</v>
       </c>
       <c r="I14" t="n">
-        <v>2114724</v>
+        <v>2150241</v>
       </c>
       <c r="J14" t="n">
-        <v>9.23</v>
+        <v>9.16</v>
       </c>
       <c r="K14" t="n">
-        <v>8.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0517905529583782</v>
+        <v>0.06177</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.56358</v>
+        <v>0.68765</v>
       </c>
       <c r="N14" t="n">
-        <v>-45859925.7747364</v>
+        <v>66633269</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.54055</v>
+        <v>0.80364</v>
       </c>
       <c r="P14" t="n">
-        <v>923788731.9</v>
+        <v>923781672.9</v>
       </c>
       <c r="Q14" t="n">
         <v>985239504</v>
@@ -1787,7 +1787,7 @@
         <v>10.14</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.86233</v>
+        <v>-10.72986</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>0.799859</v>
       </c>
       <c r="W14" t="n">
-        <v>1042.14498</v>
+        <v>1031.15247</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:14.048Z</t>
+          <t>2025-04-06T16:04:19.342Z</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1818,92 +1818,90 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>the-open-network</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/877/large/chainlink-new-logo.png?1696502009</t>
+          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.81</v>
+        <v>3.31</v>
       </c>
       <c r="F15" t="n">
-        <v>8177450033</v>
+        <v>8188606382</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>12815311705</v>
+        <v>16973492686</v>
       </c>
       <c r="I15" t="n">
-        <v>205761682</v>
+        <v>132230088</v>
       </c>
       <c r="J15" t="n">
-        <v>13.02</v>
+        <v>3.33</v>
       </c>
       <c r="K15" t="n">
-        <v>12.59</v>
+        <v>3.23</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1085592848990515</v>
+        <v>0.07442699999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.84051</v>
+        <v>2.30307</v>
       </c>
       <c r="N15" t="n">
-        <v>-63582488.09615231</v>
+        <v>206272923</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.77154</v>
+        <v>2.58412</v>
       </c>
       <c r="P15" t="n">
-        <v>638099971.4505637</v>
+        <v>2473215345.916049</v>
       </c>
       <c r="Q15" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>5126525885.993448</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>52.7</v>
+        <v>8.25</v>
       </c>
       <c r="T15" t="n">
-        <v>-75.67892000000001</v>
+        <v>-59.95755</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2021-05-10T00:13:57.214Z</t>
+          <t>2024-06-15T00:36:51.509Z</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0.148183</v>
+        <v>0.519364</v>
       </c>
       <c r="W15" t="n">
-        <v>8549.011469999999</v>
+        <v>536.3451700000001</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2017-11-29T00:00:00.000Z</t>
+          <t>2021-09-21T00:33:11.092Z</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.473Z</t>
+          <t>2025-04-06T16:04:16.960Z</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
@@ -1913,90 +1911,90 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the-open-network</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>usds</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>USDS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/17980/large/photo_2024-09-10_17.09.00.jpeg?1725963446</t>
+          <t>https://coin-images.coingecko.com/coins/images/39926/large/usds.webp?1726666683</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.24</v>
+        <v>0.999871</v>
       </c>
       <c r="F16" t="n">
-        <v>8022247224</v>
+        <v>7936039417</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>16628891610</v>
+        <v>7936039417</v>
       </c>
       <c r="I16" t="n">
-        <v>126392289</v>
+        <v>4345594</v>
       </c>
       <c r="J16" t="n">
-        <v>3.33</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.22</v>
+        <v>0.999576</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08300955225948803</v>
+        <v>2.36e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.49525</v>
+        <v>0.00024</v>
       </c>
       <c r="N16" t="n">
-        <v>-207812961.8624811</v>
+        <v>-21836245.95311737</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.52505</v>
+        <v>-0.2744</v>
       </c>
       <c r="P16" t="n">
-        <v>2473171370.653241</v>
+        <v>7937609323.990239</v>
       </c>
       <c r="Q16" t="n">
-        <v>5126506015.987388</v>
+        <v>7937609323.990239</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>8.25</v>
+        <v>1.057</v>
       </c>
       <c r="T16" t="n">
-        <v>-60.76233</v>
+        <v>-5.43429</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2024-06-15T00:36:51.509Z</t>
+          <t>2024-10-29T05:40:51.197Z</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>0.519364</v>
+        <v>0.948265</v>
       </c>
       <c r="W16" t="n">
-        <v>523.55578</v>
+        <v>5.44142</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2021-09-21T00:33:11.092Z</t>
+          <t>2024-10-03T13:19:28.826Z</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.639Z</t>
+          <t>2025-04-06T16:04:16.026Z</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr"/>
@@ -2006,90 +2004,92 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>usds</t>
+          <t>link</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>USDS</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39926/large/usds.webp?1726666683</t>
+          <t>https://coin-images.coingecko.com/coins/images/877/large/chainlink-new-logo.png?1696502009</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.999954</v>
+        <v>12.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7968142969</v>
+        <v>7852917627</v>
       </c>
       <c r="G17" t="n">
         <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>7968142969</v>
+        <v>12306719917</v>
       </c>
       <c r="I17" t="n">
-        <v>4903728</v>
+        <v>231334633</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>12.93</v>
       </c>
       <c r="K17" t="n">
-        <v>0.999619</v>
+        <v>12.14</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.0095703799062e-05</v>
+        <v>-0.3389409955306775</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.00101</v>
+        <v>-2.68124</v>
       </c>
       <c r="N17" t="n">
-        <v>45051540</v>
+        <v>-199038237.6380558</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5686099999999999</v>
+        <v>-2.47192</v>
       </c>
       <c r="P17" t="n">
-        <v>7966345532.087534</v>
+        <v>638099971.4505637</v>
       </c>
       <c r="Q17" t="n">
-        <v>7966345532.087534</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
+        <v>1000000000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S17" t="n">
-        <v>1.057</v>
+        <v>52.7</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.44154</v>
+        <v>-76.64314</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2024-10-29T05:40:51.197Z</t>
+          <t>2021-05-10T00:13:57.214Z</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>0.948265</v>
+        <v>0.148183</v>
       </c>
       <c r="W17" t="n">
-        <v>5.43333</v>
+        <v>8206.11886</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2024-10-03T13:19:28.826Z</t>
+          <t>2017-11-29T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.481Z</t>
+          <t>2025-04-06T16:04:15.685Z</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
@@ -2118,40 +2118,40 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.252452</v>
+        <v>0.251808</v>
       </c>
       <c r="F18" t="n">
-        <v>7776514843</v>
+        <v>7742854183</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>12633111489</v>
+        <v>12578432277</v>
       </c>
       <c r="I18" t="n">
-        <v>131498211</v>
+        <v>146449686</v>
       </c>
       <c r="J18" t="n">
-        <v>0.260093</v>
+        <v>0.254085</v>
       </c>
       <c r="K18" t="n">
-        <v>0.248809</v>
+        <v>0.245302</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.00706878794976401</v>
+        <v>3.739e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.72378</v>
+        <v>0.01485</v>
       </c>
       <c r="N18" t="n">
-        <v>-214753393.7651396</v>
+        <v>-8395303.306846619</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.68735</v>
+        <v>-0.10831</v>
       </c>
       <c r="P18" t="n">
-        <v>30779403653.5592</v>
+        <v>30779395734.53694</v>
       </c>
       <c r="Q18" t="n">
         <v>50001786892.81792</v>
@@ -2163,7 +2163,7 @@
         <v>0.875563</v>
       </c>
       <c r="T18" t="n">
-        <v>-71.14042999999999</v>
+        <v>-71.26891999999999</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>0.00047612</v>
       </c>
       <c r="W18" t="n">
-        <v>52971.06274</v>
+        <v>52734.76525</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:04.667Z</t>
+          <t>2025-04-06T16:04:14.660Z</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr"/>
@@ -2213,50 +2213,50 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2170.05</v>
+        <v>2110.13</v>
       </c>
       <c r="F19" t="n">
-        <v>7773843909</v>
+        <v>7566359788</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>7773843909</v>
+        <v>7566359788</v>
       </c>
       <c r="I19" t="n">
-        <v>13968595</v>
+        <v>13460456</v>
       </c>
       <c r="J19" t="n">
-        <v>2180.76</v>
+        <v>2170.77</v>
       </c>
       <c r="K19" t="n">
-        <v>2134.8</v>
+        <v>2103.13</v>
       </c>
       <c r="L19" t="n">
-        <v>-7.029630472333338</v>
+        <v>-25.47317397115739</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.32289</v>
+        <v>-1.19278</v>
       </c>
       <c r="N19" t="n">
-        <v>-43366450.95974064</v>
+        <v>-100542984.8294172</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.55476</v>
+        <v>-1.31139</v>
       </c>
       <c r="P19" t="n">
-        <v>3585585.128889133</v>
+        <v>3584621.843315601</v>
       </c>
       <c r="Q19" t="n">
-        <v>3585585.128889133</v>
+        <v>3584621.843315601</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
         <v>7256.02</v>
       </c>
       <c r="T19" t="n">
-        <v>-70.08999</v>
+        <v>-70.92995999999999</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>558.54</v>
       </c>
       <c r="W19" t="n">
-        <v>288.5624</v>
+        <v>277.65027</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:06.952Z</t>
+          <t>2025-04-06T16:04:16.884Z</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr"/>
@@ -2306,43 +2306,43 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.58</v>
+        <v>17.26</v>
       </c>
       <c r="F20" t="n">
-        <v>7301559374</v>
+        <v>7173025744</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>7946296762</v>
+        <v>7806408915</v>
       </c>
       <c r="I20" t="n">
-        <v>151405328</v>
+        <v>216127730</v>
       </c>
       <c r="J20" t="n">
-        <v>18.32</v>
+        <v>17.97</v>
       </c>
       <c r="K20" t="n">
-        <v>17.56</v>
+        <v>16.91</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.6343833619599124</v>
+        <v>-0.5961188764439598</v>
       </c>
       <c r="M20" t="n">
-        <v>-3.48336</v>
+        <v>-3.33804</v>
       </c>
       <c r="N20" t="n">
-        <v>-266421745.3701363</v>
+        <v>-238027114.1905155</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.52038</v>
+        <v>-3.21179</v>
       </c>
       <c r="P20" t="n">
-        <v>415276786.5199986</v>
+        <v>415280030.4364068</v>
       </c>
       <c r="Q20" t="n">
-        <v>451946278.1432614</v>
+        <v>451949546.4745732</v>
       </c>
       <c r="R20" t="n">
         <v>720000000</v>
@@ -2351,7 +2351,7 @@
         <v>144.96</v>
       </c>
       <c r="T20" t="n">
-        <v>-87.82566</v>
+        <v>-88.08371</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>2.8</v>
       </c>
       <c r="W20" t="n">
-        <v>530.04887</v>
+        <v>516.69403</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.891Z</t>
+          <t>2025-04-06T16:04:15.243Z</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr"/>
@@ -2401,37 +2401,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.23e-05</v>
+        <v>1.195e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>7250979885</v>
+        <v>7040616908</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>7254105925</v>
+        <v>7043652257</v>
       </c>
       <c r="I21" t="n">
-        <v>100881400</v>
+        <v>119999840</v>
       </c>
       <c r="J21" t="n">
-        <v>1.24e-05</v>
+        <v>1.237e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.208e-05</v>
+        <v>1.177e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.2926672214e-08</v>
+        <v>-1.86325887404e-07</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.42849</v>
+        <v>-1.53574</v>
       </c>
       <c r="N21" t="n">
-        <v>-29973010.28739929</v>
+        <v>-98789153.47073364</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.41166</v>
+        <v>-1.38372</v>
       </c>
       <c r="P21" t="n">
         <v>589250627953270.5</v>
@@ -2444,7 +2444,7 @@
         <v>8.616e-05</v>
       </c>
       <c r="T21" t="n">
-        <v>-85.71392</v>
+        <v>-86.13427</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>5.6366e-11</v>
       </c>
       <c r="W21" t="n">
-        <v>21836879.87154</v>
+        <v>21194356.20437</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:08.884Z</t>
+          <t>2025-04-06T16:04:13.564Z</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr"/>
@@ -2494,37 +2494,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="F22" t="n">
-        <v>7146351465</v>
+        <v>6781620472</v>
       </c>
       <c r="G22" t="n">
         <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>21988889431</v>
+        <v>20866634317</v>
       </c>
       <c r="I22" t="n">
-        <v>453551459</v>
+        <v>421139188</v>
       </c>
       <c r="J22" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="K22" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05472362736285774</v>
+        <v>-0.1183451474446042</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.43128</v>
+        <v>-5.37603</v>
       </c>
       <c r="N22" t="n">
-        <v>-175844735.3806152</v>
+        <v>-348970171.2388716</v>
       </c>
       <c r="O22" t="n">
-        <v>-2.40153</v>
+        <v>-4.89399</v>
       </c>
       <c r="P22" t="n">
         <v>3249982900.458887</v>
@@ -2539,7 +2539,7 @@
         <v>5.35</v>
       </c>
       <c r="T22" t="n">
-        <v>-58.80033</v>
+        <v>-60.81859</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>0.364846</v>
       </c>
       <c r="W22" t="n">
-        <v>503.75241</v>
+        <v>474.17613</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:06.730Z</t>
+          <t>2025-04-06T16:04:15.914Z</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -2589,40 +2589,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.161258</v>
+        <v>0.154473</v>
       </c>
       <c r="F23" t="n">
-        <v>6813831186</v>
+        <v>6521871483</v>
       </c>
       <c r="G23" t="n">
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>8067848205</v>
+        <v>7722156259</v>
       </c>
       <c r="I23" t="n">
-        <v>100180247</v>
+        <v>111813354</v>
       </c>
       <c r="J23" t="n">
-        <v>0.163565</v>
+        <v>0.1624</v>
       </c>
       <c r="K23" t="n">
-        <v>0.15903</v>
+        <v>0.153231</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.002066879300771429</v>
+        <v>-0.005689319588904063</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.2655</v>
+        <v>-3.55222</v>
       </c>
       <c r="N23" t="n">
-        <v>-80477081.59330082</v>
+        <v>-233642682.4563112</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.1673</v>
+        <v>-3.45855</v>
       </c>
       <c r="P23" t="n">
-        <v>42228305571.10435</v>
+        <v>42228305571.12092</v>
       </c>
       <c r="Q23" t="n">
         <v>50000000000</v>
@@ -2634,7 +2634,7 @@
         <v>0.569229</v>
       </c>
       <c r="T23" t="n">
-        <v>-71.60101</v>
+        <v>-72.82666</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>0.009861109999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>1539.32093</v>
+        <v>1468.571</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.965Z</t>
+          <t>2025-04-06T16:04:19.157Z</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -2684,43 +2684,43 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>82.42</v>
+        <v>78.77</v>
       </c>
       <c r="F24" t="n">
-        <v>6249893485</v>
+        <v>5970665893</v>
       </c>
       <c r="G24" t="n">
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>6249893485</v>
+        <v>5970665893</v>
       </c>
       <c r="I24" t="n">
-        <v>195202694</v>
+        <v>274961552</v>
       </c>
       <c r="J24" t="n">
-        <v>84.87</v>
+        <v>82.98</v>
       </c>
       <c r="K24" t="n">
-        <v>81.88</v>
+        <v>78.47</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.130010602288877</v>
+        <v>-3.552981944388378</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.51913</v>
+        <v>-4.31596</v>
       </c>
       <c r="N24" t="n">
-        <v>-148585686.0988684</v>
+        <v>-254037392.7226171</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.3222</v>
+        <v>-4.08112</v>
       </c>
       <c r="P24" t="n">
-        <v>75714351.98347135</v>
+        <v>75716526.98347135</v>
       </c>
       <c r="Q24" t="n">
-        <v>75714351.98347135</v>
+        <v>75716526.98347135</v>
       </c>
       <c r="R24" t="n">
         <v>84000000</v>
@@ -2729,7 +2729,7 @@
         <v>410.26</v>
       </c>
       <c r="T24" t="n">
-        <v>-79.87116</v>
+        <v>-80.77934</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>7088.15168</v>
+        <v>6763.83646</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:14.101Z</t>
+          <t>2025-04-06T16:04:11.078Z</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
@@ -2779,50 +2779,50 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.23</v>
+        <v>6.15</v>
       </c>
       <c r="F25" t="n">
-        <v>6023861619</v>
+        <v>5947959447</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>11320564736</v>
+        <v>11177534220</v>
       </c>
       <c r="I25" t="n">
-        <v>40294919</v>
+        <v>38893916</v>
       </c>
       <c r="J25" t="n">
         <v>6.3</v>
       </c>
       <c r="K25" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.02748781640829367</v>
+        <v>-0.1225820836610803</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.43909</v>
+        <v>-1.95486</v>
       </c>
       <c r="N25" t="n">
-        <v>-26901217.520854</v>
+        <v>-97843549.83905792</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.44459</v>
+        <v>-1.61837</v>
       </c>
       <c r="P25" t="n">
-        <v>965773412.7300001</v>
+        <v>965850938.3799998</v>
       </c>
       <c r="Q25" t="n">
-        <v>1814965404.39</v>
+        <v>1815048002.72</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
         <v>8.99</v>
       </c>
       <c r="T25" t="n">
-        <v>-30.45478</v>
+        <v>-31.51599</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>0.01726188</v>
       </c>
       <c r="W25" t="n">
-        <v>36100.53131</v>
+        <v>35548.13999</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:08.479Z</t>
+          <t>2025-04-06T16:04:13.570Z</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr"/>
@@ -2872,37 +2872,37 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="F26" t="n">
-        <v>5996265320</v>
+        <v>5924312468</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>5996265320</v>
+        <v>5924312468</v>
       </c>
       <c r="I26" t="n">
-        <v>106664391</v>
+        <v>96563847</v>
       </c>
       <c r="J26" t="n">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.09912990233697894</v>
+        <v>-0.0217093825316752</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.45752</v>
+        <v>-0.55465</v>
       </c>
       <c r="N26" t="n">
-        <v>-148388039.4125595</v>
+        <v>-28156711.10253143</v>
       </c>
       <c r="O26" t="n">
-        <v>-2.41491</v>
+        <v>-0.47303</v>
       </c>
       <c r="P26" t="n">
         <v>1522267060</v>
@@ -2915,7 +2915,7 @@
         <v>54.98</v>
       </c>
       <c r="T26" t="n">
-        <v>-92.82476</v>
+        <v>-92.92281</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>2.7</v>
       </c>
       <c r="W26" t="n">
-        <v>46.24943</v>
+        <v>44.25084</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.274Z</t>
+          <t>2025-04-06T16:04:13.389Z</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr"/>
@@ -2965,43 +2965,43 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>301.69</v>
+        <v>294.75</v>
       </c>
       <c r="F27" t="n">
-        <v>5994388194</v>
+        <v>5857925752</v>
       </c>
       <c r="G27" t="n">
         <v>26</v>
       </c>
       <c r="H27" t="n">
-        <v>5994419333</v>
+        <v>5857963559</v>
       </c>
       <c r="I27" t="n">
-        <v>91680215</v>
+        <v>113759684</v>
       </c>
       <c r="J27" t="n">
         <v>306.64</v>
       </c>
       <c r="K27" t="n">
-        <v>297.07</v>
+        <v>289.66</v>
       </c>
       <c r="L27" t="n">
-        <v>0.241686</v>
+        <v>-2.989208016540886</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08017000000000001</v>
+        <v>-1.00395</v>
       </c>
       <c r="N27" t="n">
-        <v>2040974</v>
+        <v>-49776064.9946394</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03406</v>
+        <v>-0.84256</v>
       </c>
       <c r="P27" t="n">
-        <v>19852024.89665078</v>
+        <v>19852221.77165078</v>
       </c>
       <c r="Q27" t="n">
-        <v>19852128.02165078</v>
+        <v>19852349.89665078</v>
       </c>
       <c r="R27" t="n">
         <v>21000000</v>
@@ -3010,7 +3010,7 @@
         <v>3785.82</v>
       </c>
       <c r="T27" t="n">
-        <v>-92.01213</v>
+        <v>-92.20574000000001</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>76.93000000000001</v>
       </c>
       <c r="W27" t="n">
-        <v>293.06839</v>
+        <v>283.54113</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.644Z</t>
+          <t>2025-04-06T16:04:16.227Z</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr"/>
@@ -3060,37 +3060,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
       <c r="F28" t="n">
-        <v>5344217410</v>
+        <v>5209562115</v>
       </c>
       <c r="G28" t="n">
         <v>27</v>
       </c>
       <c r="H28" t="n">
-        <v>5344217410</v>
+        <v>5209562115</v>
       </c>
       <c r="I28" t="n">
-        <v>34160678</v>
+        <v>99450160</v>
       </c>
       <c r="J28" t="n">
-        <v>4.55</v>
+        <v>4.47</v>
       </c>
       <c r="K28" t="n">
-        <v>4.41</v>
+        <v>4.34</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.07468309562852316</v>
+        <v>-0.09173097061073054</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.64929</v>
+        <v>-2.07037</v>
       </c>
       <c r="N28" t="n">
-        <v>-87934510.16805553</v>
+        <v>-100489251.5881052</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.61878</v>
+        <v>-1.89243</v>
       </c>
       <c r="P28" t="n">
         <v>1199999994.2</v>
@@ -3105,7 +3105,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>-47.29782</v>
+        <v>-48.58996</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>0.0142795</v>
       </c>
       <c r="W28" t="n">
-        <v>31088.09415</v>
+        <v>30323.43229</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.459Z</t>
+          <t>2025-04-06T16:04:14.459Z</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr"/>
@@ -3155,50 +3155,50 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.999224</v>
+        <v>0.998926</v>
       </c>
       <c r="F29" t="n">
-        <v>5221878902</v>
+        <v>5205421762</v>
       </c>
       <c r="G29" t="n">
         <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>5221878902</v>
+        <v>5205421762</v>
       </c>
       <c r="I29" t="n">
-        <v>55967689</v>
+        <v>54290439</v>
       </c>
       <c r="J29" t="n">
-        <v>0.999543</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.998435</v>
+        <v>0.99436</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00016887</v>
+        <v>-0.000142063411950666</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0169</v>
+        <v>-0.01422</v>
       </c>
       <c r="N29" t="n">
-        <v>-21121272.23185635</v>
+        <v>-23608330.25108147</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.40285</v>
+        <v>-0.45149</v>
       </c>
       <c r="P29" t="n">
-        <v>5226655940.584564</v>
+        <v>5211434561.313514</v>
       </c>
       <c r="Q29" t="n">
-        <v>5226655940.584564</v>
+        <v>5211434561.313514</v>
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>1.032</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.22431</v>
+        <v>-3.19952</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>0.929486</v>
       </c>
       <c r="W29" t="n">
-        <v>7.45773</v>
+        <v>7.48526</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.858Z</t>
+          <t>2025-04-06T16:04:18.753Z</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr"/>
@@ -3248,37 +3248,37 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.999587</v>
+        <v>0.998553</v>
       </c>
       <c r="F30" t="n">
-        <v>5181117243</v>
+        <v>5176975234</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>5181117243</v>
+        <v>5176975234</v>
       </c>
       <c r="I30" t="n">
-        <v>78488186</v>
+        <v>96264318</v>
       </c>
       <c r="J30" t="n">
-        <v>1.002</v>
+        <v>1.004</v>
       </c>
       <c r="K30" t="n">
-        <v>0.996806</v>
+        <v>0.997112</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.000319428215862172</v>
+        <v>-0.001064915911235031</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.03195</v>
+        <v>-0.10653</v>
       </c>
       <c r="N30" t="n">
-        <v>-2786014.073074341</v>
+        <v>-6875835.651043892</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.05374</v>
+        <v>-0.13264</v>
       </c>
       <c r="P30" t="n">
         <v>5184994301.618546</v>
@@ -3291,7 +3291,7 @@
         <v>1.05</v>
       </c>
       <c r="T30" t="n">
-        <v>-4.79693</v>
+        <v>-4.85769</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>0.942186</v>
       </c>
       <c r="W30" t="n">
-        <v>6.0932</v>
+        <v>6.02549</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.103Z</t>
+          <t>2025-04-06T16:04:16.756Z</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
@@ -3341,50 +3341,50 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1808.81</v>
+        <v>1757.53</v>
       </c>
       <c r="F31" t="n">
-        <v>5173005860</v>
+        <v>5030738485</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>5173005860</v>
+        <v>5030738485</v>
       </c>
       <c r="I31" t="n">
-        <v>22189687</v>
+        <v>157681093</v>
       </c>
       <c r="J31" t="n">
-        <v>1821.08</v>
+        <v>1813.43</v>
       </c>
       <c r="K31" t="n">
-        <v>1780.07</v>
+        <v>1748.94</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.277089066124063</v>
+        <v>-25.52424366319269</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.4007</v>
+        <v>-1.43149</v>
       </c>
       <c r="N31" t="n">
-        <v>-33263328.05488777</v>
+        <v>-72888786.2633791</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.63891</v>
+        <v>-1.42818</v>
       </c>
       <c r="P31" t="n">
-        <v>2860033.103552378</v>
+        <v>2860479.549215742</v>
       </c>
       <c r="Q31" t="n">
-        <v>2860033.103552378</v>
+        <v>2860479.549215742</v>
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
         <v>4799.89</v>
       </c>
       <c r="T31" t="n">
-        <v>-62.3302</v>
+        <v>-63.35902</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>82.09999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>2102.23484</v>
+        <v>2042.08878</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.841Z</t>
+          <t>2025-04-06T16:04:17.961Z</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
@@ -3434,43 +3434,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.657509</v>
+        <v>0.615681</v>
       </c>
       <c r="F32" t="n">
-        <v>4518089568</v>
+        <v>4225381207</v>
       </c>
       <c r="G32" t="n">
         <v>31</v>
       </c>
       <c r="H32" t="n">
-        <v>6950907027</v>
+        <v>6500134882</v>
       </c>
       <c r="I32" t="n">
-        <v>1525079395</v>
+        <v>673372835</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7604</v>
+        <v>0.676551</v>
       </c>
       <c r="K32" t="n">
-        <v>0.406999</v>
+        <v>0.550478</v>
       </c>
       <c r="L32" t="n">
-        <v>0.16949</v>
+        <v>-0.009661757409992644</v>
       </c>
       <c r="M32" t="n">
-        <v>34.73015</v>
+        <v>-1.54503</v>
       </c>
       <c r="N32" t="n">
-        <v>1127676436</v>
+        <v>46247806</v>
       </c>
       <c r="O32" t="n">
-        <v>33.26074</v>
+        <v>1.10664</v>
       </c>
       <c r="P32" t="n">
-        <v>6825568879.840378</v>
+        <v>6835474447.507971</v>
       </c>
       <c r="Q32" t="n">
-        <v>10500875199.75442</v>
+        <v>10515383990.39733</v>
       </c>
       <c r="R32" t="n">
         <v>100000000000</v>
@@ -3479,7 +3479,7 @@
         <v>2.99</v>
       </c>
       <c r="T32" t="n">
-        <v>-78.06792</v>
+        <v>-79.23944</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>0.406999</v>
       </c>
       <c r="W32" t="n">
-        <v>60.99443</v>
+        <v>52.39475</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.389Z</t>
+          <t>2025-04-06T16:04:11.883Z</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr"/>
@@ -3510,90 +3510,92 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wrapped-eeth</t>
+          <t>whitebit</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>weeth</t>
+          <t>wbt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wrapped eETH</t>
+          <t>WhiteBIT Coin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
+          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1923.62</v>
+        <v>28.12</v>
       </c>
       <c r="F33" t="n">
-        <v>4108223964</v>
+        <v>4054972430</v>
       </c>
       <c r="G33" t="n">
         <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>4108223964</v>
+        <v>9228653509</v>
       </c>
       <c r="I33" t="n">
-        <v>4831820</v>
+        <v>13253834</v>
       </c>
       <c r="J33" t="n">
-        <v>1935.45</v>
+        <v>28.27</v>
       </c>
       <c r="K33" t="n">
-        <v>1894.35</v>
+        <v>27.95</v>
       </c>
       <c r="L33" t="n">
-        <v>-8.40999481606309</v>
+        <v>0.02469765</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.43529</v>
+        <v>0.08791</v>
       </c>
       <c r="N33" t="n">
-        <v>-26351464.95898628</v>
+        <v>10440618</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.63734</v>
+        <v>0.25814</v>
       </c>
       <c r="P33" t="n">
-        <v>2135503.57141975</v>
+        <v>144118517.1081541</v>
       </c>
       <c r="Q33" t="n">
-        <v>2135503.57141975</v>
-      </c>
-      <c r="R33" t="inlineStr"/>
+        <v>327997263</v>
+      </c>
+      <c r="R33" t="n">
+        <v>400000000</v>
+      </c>
       <c r="S33" t="n">
-        <v>4311.81</v>
+        <v>31.28</v>
       </c>
       <c r="T33" t="n">
-        <v>-55.38161</v>
+        <v>-9.96053</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2024-12-06T20:32:25.758Z</t>
+          <t>2025-03-02T22:22:36.852Z</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>1863.73</v>
+        <v>3.06</v>
       </c>
       <c r="W33" t="n">
-        <v>3.22644</v>
+        <v>819.76031</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2025-04-03T15:11:50.320Z</t>
+          <t>2023-02-13T19:01:21.899Z</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.537Z</t>
+          <t>2025-04-06T16:04:16.721Z</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3603,92 +3605,90 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>whitebit</t>
+          <t>wrapped-eeth</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>wbt</t>
+          <t>weeth</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WhiteBIT Coin</t>
+          <t>Wrapped eETH</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/27045/large/wbt_token.png?1696526096</t>
+          <t>https://coin-images.coingecko.com/coins/images/33033/large/weETH.png?1701438396</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.06</v>
+        <v>1871.62</v>
       </c>
       <c r="F34" t="n">
-        <v>4044483212</v>
+        <v>3998574432</v>
       </c>
       <c r="G34" t="n">
         <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>9204781247</v>
+        <v>3998574432</v>
       </c>
       <c r="I34" t="n">
-        <v>14632606</v>
+        <v>6237848</v>
       </c>
       <c r="J34" t="n">
-        <v>28.22</v>
+        <v>1928.53</v>
       </c>
       <c r="K34" t="n">
-        <v>27.25</v>
+        <v>1860.75</v>
       </c>
       <c r="L34" t="n">
-        <v>0.531627</v>
+        <v>-25.04926216601712</v>
       </c>
       <c r="M34" t="n">
-        <v>1.93147</v>
+        <v>-1.3207</v>
       </c>
       <c r="N34" t="n">
-        <v>77198077</v>
+        <v>-46629119.06641722</v>
       </c>
       <c r="O34" t="n">
-        <v>1.94587</v>
+        <v>-1.1527</v>
       </c>
       <c r="P34" t="n">
-        <v>144118517.1081541</v>
+        <v>2134548.5378589</v>
       </c>
       <c r="Q34" t="n">
-        <v>327997263</v>
-      </c>
-      <c r="R34" t="n">
-        <v>400000000</v>
-      </c>
+        <v>2134548.5378589</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>31.28</v>
+        <v>4311.81</v>
       </c>
       <c r="T34" t="n">
-        <v>-10.25417</v>
+        <v>-56.49019</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2025-03-02T22:22:36.852Z</t>
+          <t>2024-12-06T20:32:25.758Z</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>3.06</v>
+        <v>1860.75</v>
       </c>
       <c r="W34" t="n">
-        <v>816.7607400000001</v>
+        <v>0.8228</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2023-02-13T19:01:21.899Z</t>
+          <t>2025-04-06T14:06:18.973Z</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.693Z</t>
+          <t>2025-04-06T16:04:17.051Z</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -3717,37 +3717,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>215.54</v>
+        <v>211.12</v>
       </c>
       <c r="F35" t="n">
-        <v>3976444376</v>
+        <v>3896902321</v>
       </c>
       <c r="G35" t="n">
         <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>3976444376</v>
+        <v>3896902321</v>
       </c>
       <c r="I35" t="n">
-        <v>47102685</v>
+        <v>44073126</v>
       </c>
       <c r="J35" t="n">
-        <v>218.98</v>
+        <v>216.31</v>
       </c>
       <c r="K35" t="n">
         <v>210.93</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.316625603938945</v>
+        <v>-4.756838636459236</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.60714</v>
+        <v>-2.20352</v>
       </c>
       <c r="N35" t="n">
-        <v>-22614607.46158743</v>
+        <v>-84275862.90749979</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.5655</v>
+        <v>-2.11686</v>
       </c>
       <c r="P35" t="n">
         <v>18446744.07370955</v>
@@ -3760,7 +3760,7 @@
         <v>542.33</v>
       </c>
       <c r="T35" t="n">
-        <v>-60.23685</v>
+        <v>-61.04649</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>0.216177</v>
       </c>
       <c r="W35" t="n">
-        <v>99654.3888</v>
+        <v>97623.23477</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.980Z</t>
+          <t>2025-04-06T16:04:10.786Z</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr"/>
@@ -3810,37 +3810,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>11.89</v>
+        <v>11.4</v>
       </c>
       <c r="F36" t="n">
-        <v>3973677564</v>
+        <v>3809930563</v>
       </c>
       <c r="G36" t="n">
         <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>11899682682</v>
+        <v>11409321470</v>
       </c>
       <c r="I36" t="n">
-        <v>43427454</v>
+        <v>43575433</v>
       </c>
       <c r="J36" t="n">
-        <v>12.18</v>
+        <v>12.07</v>
       </c>
       <c r="K36" t="n">
-        <v>11.44</v>
+        <v>11.11</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2292919076740123</v>
+        <v>-0.155669984612242</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.89206</v>
+        <v>-1.34738</v>
       </c>
       <c r="N36" t="n">
-        <v>-69364453.4093008</v>
+        <v>-17233701.44738626</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.71565</v>
+        <v>-0.4503</v>
       </c>
       <c r="P36" t="n">
         <v>333928180</v>
@@ -3855,7 +3855,7 @@
         <v>34.96</v>
       </c>
       <c r="T36" t="n">
-        <v>-65.81927</v>
+        <v>-67.40236</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>3.81</v>
       </c>
       <c r="W36" t="n">
-        <v>213.73501</v>
+        <v>199.20424</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.658Z</t>
+          <t>2025-04-06T16:04:18.763Z</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr"/>
@@ -3905,37 +3905,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.84</v>
+        <v>5.62</v>
       </c>
       <c r="F37" t="n">
-        <v>3510309964</v>
+        <v>3378865022</v>
       </c>
       <c r="G37" t="n">
         <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>5845810011</v>
+        <v>5626911348</v>
       </c>
       <c r="I37" t="n">
-        <v>65039452</v>
+        <v>92527690</v>
       </c>
       <c r="J37" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="K37" t="n">
-        <v>5.77</v>
+        <v>5.59</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.05517478463948144</v>
+        <v>-0.180594654931137</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.93613</v>
+        <v>-3.11455</v>
       </c>
       <c r="N37" t="n">
-        <v>-29212533.37698221</v>
+        <v>-101950809.5065565</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.8253200000000001</v>
+        <v>-2.92893</v>
       </c>
       <c r="P37" t="n">
         <v>600483073.71</v>
@@ -3950,7 +3950,7 @@
         <v>44.92</v>
       </c>
       <c r="T37" t="n">
-        <v>-86.97256</v>
+        <v>-87.48345</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>1.03</v>
       </c>
       <c r="W37" t="n">
-        <v>468.0292</v>
+        <v>445.75322</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.851Z</t>
+          <t>2025-04-06T16:04:17.090Z</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr"/>
@@ -3981,90 +3981,92 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/9956/large/Badge_Dai.png?1696509996</t>
+          <t>https://coin-images.coingecko.com/coins/images/4463/large/WeChat_Image_20220118095654.png?1696505053</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.999935</v>
+        <v>54</v>
       </c>
       <c r="F38" t="n">
-        <v>3158320444</v>
+        <v>3242556196</v>
       </c>
       <c r="G38" t="n">
         <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3158320444</v>
+        <v>12751767573</v>
       </c>
       <c r="I38" t="n">
-        <v>54152470</v>
+        <v>37642866</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>55.26</v>
       </c>
       <c r="K38" t="n">
-        <v>0.999711</v>
+        <v>50.66</v>
       </c>
       <c r="L38" t="n">
-        <v>-4.9046495567473e-05</v>
+        <v>3.34</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0049</v>
+        <v>6.59698</v>
       </c>
       <c r="N38" t="n">
-        <v>19746094</v>
+        <v>203847111</v>
       </c>
       <c r="O38" t="n">
-        <v>0.62914</v>
+        <v>6.70835</v>
       </c>
       <c r="P38" t="n">
-        <v>3158646971.849539</v>
+        <v>60000000</v>
       </c>
       <c r="Q38" t="n">
-        <v>3158646971.849539</v>
-      </c>
-      <c r="R38" t="inlineStr"/>
+        <v>235957685.3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>300000000</v>
+      </c>
       <c r="S38" t="n">
-        <v>1.22</v>
+        <v>73.8</v>
       </c>
       <c r="T38" t="n">
-        <v>-17.9625</v>
+        <v>-26.71052</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2020-03-13T03:02:50.373Z</t>
+          <t>2024-03-14T00:30:12.502Z</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>0.88196</v>
+        <v>0.580608</v>
       </c>
       <c r="W38" t="n">
-        <v>13.38158</v>
+        <v>9216.110909999999</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2023-03-11T07:50:50.514Z</t>
+          <t>2019-01-14T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.106Z</t>
+          <t>2025-04-06T16:04:11.093Z</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4074,92 +4076,90 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/4463/large/WeChat_Image_20220118095654.png?1696505053</t>
+          <t>https://coin-images.coingecko.com/coins/images/9956/large/Badge_Dai.png?1696509996</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.38</v>
+        <v>0.999855</v>
       </c>
       <c r="F39" t="n">
-        <v>3142560525</v>
+        <v>3156654554</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>12358521790</v>
+        <v>3156654554</v>
       </c>
       <c r="I39" t="n">
-        <v>19232189</v>
+        <v>59925104</v>
       </c>
       <c r="J39" t="n">
-        <v>52.79</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>50.34</v>
+        <v>0.999512</v>
       </c>
       <c r="L39" t="n">
-        <v>1.63</v>
+        <v>2.8e-06</v>
       </c>
       <c r="M39" t="n">
-        <v>3.20248</v>
+        <v>0.00028</v>
       </c>
       <c r="N39" t="n">
-        <v>102413047</v>
+        <v>22438526</v>
       </c>
       <c r="O39" t="n">
-        <v>3.36869</v>
+        <v>0.71592</v>
       </c>
       <c r="P39" t="n">
-        <v>60000000</v>
+        <v>3157252929.519005</v>
       </c>
       <c r="Q39" t="n">
-        <v>235957685.3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>300000000</v>
-      </c>
+        <v>3157252929.519005</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>73.8</v>
+        <v>1.22</v>
       </c>
       <c r="T39" t="n">
-        <v>-28.96433</v>
+        <v>-17.97641</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2024-03-14T00:30:12.502Z</t>
+          <t>2020-03-13T03:02:50.373Z</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>0.580608</v>
+        <v>0.88196</v>
       </c>
       <c r="W39" t="n">
-        <v>8929.620779999999</v>
+        <v>13.36236</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2019-01-14T00:00:00.000Z</t>
+          <t>2023-03-11T07:50:50.514Z</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.138Z</t>
+          <t>2025-04-06T16:04:16.532Z</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr"/>
@@ -4191,16 +4191,16 @@
         <v>1.047</v>
       </c>
       <c r="F40" t="n">
-        <v>3037963150</v>
+        <v>3044139158</v>
       </c>
       <c r="G40" t="n">
         <v>39</v>
       </c>
       <c r="H40" t="n">
-        <v>3037963150</v>
+        <v>3044139158</v>
       </c>
       <c r="I40" t="n">
-        <v>10848805</v>
+        <v>1930876</v>
       </c>
       <c r="J40" t="n">
         <v>1.048</v>
@@ -4209,29 +4209,29 @@
         <v>1.045</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00083389</v>
+        <v>3.374e-05</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.00322</v>
       </c>
       <c r="N40" t="n">
-        <v>15139738</v>
+        <v>7608428</v>
       </c>
       <c r="O40" t="n">
-        <v>0.50085</v>
+        <v>0.25056</v>
       </c>
       <c r="P40" t="n">
-        <v>2901183766.747292</v>
+        <v>2907748974.990364</v>
       </c>
       <c r="Q40" t="n">
-        <v>2901183766.747292</v>
+        <v>2907748974.990364</v>
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
         <v>1.088</v>
       </c>
       <c r="T40" t="n">
-        <v>-3.74466</v>
+        <v>-3.77381</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>0.961716</v>
       </c>
       <c r="W40" t="n">
-        <v>8.88616</v>
+        <v>8.85319</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.985Z</t>
+          <t>2025-04-06T16:04:14.623Z</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr"/>
@@ -4281,37 +4281,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7.03e-06</v>
+        <v>6.85e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>2963429054</v>
+        <v>2880019092</v>
       </c>
       <c r="G41" t="n">
         <v>40</v>
       </c>
       <c r="H41" t="n">
-        <v>2963429054</v>
+        <v>2880019092</v>
       </c>
       <c r="I41" t="n">
-        <v>388931419</v>
+        <v>330365337</v>
       </c>
       <c r="J41" t="n">
-        <v>7.27e-06</v>
+        <v>7.11e-06</v>
       </c>
       <c r="K41" t="n">
-        <v>6.95e-06</v>
+        <v>6.75e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.03717844475e-07</v>
+        <v>-1.25436004814e-07</v>
       </c>
       <c r="M41" t="n">
-        <v>-2.81619</v>
+        <v>-1.79864</v>
       </c>
       <c r="N41" t="n">
-        <v>-80507789.46628952</v>
+        <v>-50402976.76693439</v>
       </c>
       <c r="O41" t="n">
-        <v>-2.64486</v>
+        <v>-1.71999</v>
       </c>
       <c r="P41" t="n">
         <v>420690000000000</v>
@@ -4326,7 +4326,7 @@
         <v>2.803e-05</v>
       </c>
       <c r="T41" t="n">
-        <v>-74.82655</v>
+        <v>-75.44709</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>5.5142e-08</v>
       </c>
       <c r="W41" t="n">
-        <v>12695.3484</v>
+        <v>12379.938</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.767Z</t>
+          <t>2025-04-06T16:04:15.705Z</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr"/>
@@ -4376,50 +4376,50 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.86</v>
+        <v>4.64</v>
       </c>
       <c r="F42" t="n">
-        <v>2942829124</v>
+        <v>2813173618</v>
       </c>
       <c r="G42" t="n">
         <v>41</v>
       </c>
       <c r="H42" t="n">
-        <v>5580667119</v>
+        <v>5334495992</v>
       </c>
       <c r="I42" t="n">
-        <v>81920774</v>
+        <v>105810661</v>
       </c>
       <c r="J42" t="n">
-        <v>4.93</v>
+        <v>4.91</v>
       </c>
       <c r="K42" t="n">
-        <v>4.79</v>
+        <v>4.63</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0200047119097837</v>
+        <v>-0.1600773422974928</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.40987</v>
+        <v>-3.33184</v>
       </c>
       <c r="N42" t="n">
-        <v>-11998635.13953447</v>
+        <v>-89962264.50057125</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.40607</v>
+        <v>-3.0988</v>
       </c>
       <c r="P42" t="n">
-        <v>604693139.5470227</v>
+        <v>604756251.8197917</v>
       </c>
       <c r="Q42" t="n">
-        <v>1146716638.485991</v>
+        <v>1146772378.679757</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
         <v>19.92</v>
       </c>
       <c r="T42" t="n">
-        <v>-75.54617</v>
+        <v>-76.56005999999999</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>3.08</v>
       </c>
       <c r="W42" t="n">
-        <v>58.16962</v>
+        <v>51.61169</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.004Z</t>
+          <t>2025-04-06T16:04:13.833Z</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr"/>
@@ -4469,50 +4469,50 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="F43" t="n">
-        <v>2925037194</v>
+        <v>2803659029</v>
       </c>
       <c r="G43" t="n">
         <v>42</v>
       </c>
       <c r="H43" t="n">
-        <v>3032098146</v>
+        <v>2906215534</v>
       </c>
       <c r="I43" t="n">
-        <v>86252391</v>
+        <v>89567175</v>
       </c>
       <c r="J43" t="n">
-        <v>2.51</v>
+        <v>2.45</v>
       </c>
       <c r="K43" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.06230200611544623</v>
+        <v>-0.1013198383228984</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.49408</v>
+        <v>-4.16043</v>
       </c>
       <c r="N43" t="n">
-        <v>-72776666.65761089</v>
+        <v>-109019071.8746991</v>
       </c>
       <c r="O43" t="n">
-        <v>-2.42766</v>
+        <v>-3.74292</v>
       </c>
       <c r="P43" t="n">
-        <v>1199729377</v>
+        <v>1199843857</v>
       </c>
       <c r="Q43" t="n">
-        <v>1243641355</v>
+        <v>1243733571</v>
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
         <v>20.44</v>
       </c>
       <c r="T43" t="n">
-        <v>-88.07144</v>
+        <v>-88.57477</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>0.526762</v>
       </c>
       <c r="W43" t="n">
-        <v>362.82215</v>
+        <v>343.29319</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.837Z</t>
+          <t>2025-04-06T16:04:11.388Z</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr"/>
@@ -4562,37 +4562,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.54</v>
+        <v>22.05</v>
       </c>
       <c r="F44" t="n">
-        <v>2769930495</v>
+        <v>2711561556</v>
       </c>
       <c r="G44" t="n">
         <v>43</v>
       </c>
       <c r="H44" t="n">
-        <v>6760842688</v>
+        <v>6618375858</v>
       </c>
       <c r="I44" t="n">
-        <v>5326272</v>
+        <v>6172683</v>
       </c>
       <c r="J44" t="n">
         <v>22.61</v>
       </c>
       <c r="K44" t="n">
-        <v>22.12</v>
+        <v>21.95</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.02300320313468518</v>
+        <v>-0.1220632879347079</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.10197</v>
+        <v>-0.55061</v>
       </c>
       <c r="N44" t="n">
-        <v>-1311543.790179253</v>
+        <v>-13204057.23250484</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.04733</v>
+        <v>-0.48459</v>
       </c>
       <c r="P44" t="n">
         <v>122910587.7676574</v>
@@ -4605,7 +4605,7 @@
         <v>25.94</v>
       </c>
       <c r="T44" t="n">
-        <v>-13.04173</v>
+        <v>-14.95091</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>0.25754</v>
       </c>
       <c r="W44" t="n">
-        <v>8658.42769</v>
+        <v>8466.13516</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.372Z</t>
+          <t>2025-04-06T16:04:18.532Z</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr"/>
@@ -4655,50 +4655,50 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>83359</v>
+        <v>82371</v>
       </c>
       <c r="F45" t="n">
-        <v>2709554195</v>
+        <v>2690431717</v>
       </c>
       <c r="G45" t="n">
         <v>44</v>
       </c>
       <c r="H45" t="n">
-        <v>2709554195</v>
+        <v>2690431717</v>
       </c>
       <c r="I45" t="n">
-        <v>173112878</v>
+        <v>133702921</v>
       </c>
       <c r="J45" t="n">
-        <v>84060</v>
+        <v>83732</v>
       </c>
       <c r="K45" t="n">
-        <v>82295</v>
+        <v>82156</v>
       </c>
       <c r="L45" t="n">
-        <v>-534.2444938845729</v>
+        <v>-237.7542457025265</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.6368200000000001</v>
+        <v>-0.28781</v>
       </c>
       <c r="N45" t="n">
-        <v>-51109265.91518641</v>
+        <v>-1934944.825254917</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.85134</v>
+        <v>-0.07187</v>
       </c>
       <c r="P45" t="n">
-        <v>32502.22396771</v>
+        <v>32624.65832826</v>
       </c>
       <c r="Q45" t="n">
-        <v>32502.22396771</v>
+        <v>32624.65832826</v>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
         <v>108953</v>
       </c>
       <c r="T45" t="n">
-        <v>-23.45043</v>
+        <v>-24.21218</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>57439</v>
       </c>
       <c r="W45" t="n">
-        <v>45.2032</v>
+        <v>43.75828</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.460Z</t>
+          <t>2025-04-06T16:04:15.913Z</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr"/>
@@ -4748,37 +4748,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.4</v>
+        <v>32.26</v>
       </c>
       <c r="F46" t="n">
-        <v>2591916360</v>
+        <v>2578743378</v>
       </c>
       <c r="G46" t="n">
         <v>45</v>
       </c>
       <c r="H46" t="n">
-        <v>3240057492</v>
+        <v>3223590440</v>
       </c>
       <c r="I46" t="n">
-        <v>20710772</v>
+        <v>20000089</v>
       </c>
       <c r="J46" t="n">
-        <v>33.46</v>
+        <v>32.64</v>
       </c>
       <c r="K46" t="n">
-        <v>32.28</v>
+        <v>32.19</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.9459407843350647</v>
+        <v>-0.2908997140634</v>
       </c>
       <c r="M46" t="n">
-        <v>-2.83695</v>
+        <v>-0.89371</v>
       </c>
       <c r="N46" t="n">
-        <v>-75515425.88484001</v>
+        <v>-28557040.11490965</v>
       </c>
       <c r="O46" t="n">
-        <v>-2.83102</v>
+        <v>-1.09527</v>
       </c>
       <c r="P46" t="n">
         <v>79995999.05112354</v>
@@ -4793,7 +4793,7 @@
         <v>50.43</v>
       </c>
       <c r="T46" t="n">
-        <v>-35.58679</v>
+        <v>-36.01842</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>0.111255</v>
       </c>
       <c r="W46" t="n">
-        <v>29098.27141</v>
+        <v>28902.61144</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -4814,11 +4814,11 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.821Z</t>
+          <t>2025-04-06T16:04:15.775Z</t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>110.5237060653749</v>
+        <v>110.0451694743462</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>11052.37060653749</v>
+        <v>11004.51694743462</v>
       </c>
     </row>
     <row r="47">
@@ -4851,37 +4851,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.807291</v>
+        <v>0.781054</v>
       </c>
       <c r="F47" t="n">
-        <v>2551572218</v>
+        <v>2468230260</v>
       </c>
       <c r="G47" t="n">
         <v>46</v>
       </c>
       <c r="H47" t="n">
-        <v>8076876759</v>
+        <v>7813061878</v>
       </c>
       <c r="I47" t="n">
-        <v>68673278</v>
+        <v>72883632</v>
       </c>
       <c r="J47" t="n">
-        <v>0.820931</v>
+        <v>0.814801</v>
       </c>
       <c r="K47" t="n">
-        <v>0.795376</v>
+        <v>0.773652</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.009335087118767071</v>
+        <v>-0.01828289694762564</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.14313</v>
+        <v>-2.28726</v>
       </c>
       <c r="N47" t="n">
-        <v>-34781407.6334672</v>
+        <v>-50653252.64469862</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.3448</v>
+        <v>-2.01094</v>
       </c>
       <c r="P47" t="n">
         <v>3159107529</v>
@@ -4896,7 +4896,7 @@
         <v>2.14</v>
       </c>
       <c r="T47" t="n">
-        <v>-62.19382</v>
+        <v>-63.40706</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>0.08217099999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>884.66779</v>
+        <v>853.0687799999999</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.040Z</t>
+          <t>2025-04-06T16:04:11.617Z</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr"/>
@@ -4946,37 +4946,37 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.739794</v>
+        <v>0.727541</v>
       </c>
       <c r="F48" t="n">
-        <v>2490716174</v>
+        <v>2448255786</v>
       </c>
       <c r="G48" t="n">
         <v>47</v>
       </c>
       <c r="H48" t="n">
-        <v>4603851396</v>
+        <v>4525367417</v>
       </c>
       <c r="I48" t="n">
-        <v>173180025</v>
+        <v>129889272</v>
       </c>
       <c r="J48" t="n">
-        <v>0.744278</v>
+        <v>0.742092</v>
       </c>
       <c r="K48" t="n">
-        <v>0.730614</v>
+        <v>0.7271300000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00318372</v>
+        <v>-0.007253293514921655</v>
       </c>
       <c r="M48" t="n">
-        <v>0.43221</v>
+        <v>-0.98712</v>
       </c>
       <c r="N48" t="n">
-        <v>9488325</v>
+        <v>-23314325.80867243</v>
       </c>
       <c r="O48" t="n">
-        <v>0.3824</v>
+        <v>-0.9433</v>
       </c>
       <c r="P48" t="n">
         <v>3364694382.83684</v>
@@ -4991,7 +4991,7 @@
         <v>1.54</v>
       </c>
       <c r="T48" t="n">
-        <v>-51.8411</v>
+        <v>-52.66289</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>0.307978</v>
       </c>
       <c r="W48" t="n">
-        <v>140.61084</v>
+        <v>136.50503</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.880Z</t>
+          <t>2025-04-06T16:04:19.824Z</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr"/>
@@ -5041,50 +5041,50 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.09063599999999999</v>
+        <v>0.088545</v>
       </c>
       <c r="F49" t="n">
-        <v>2486392880</v>
+        <v>2428672793</v>
       </c>
       <c r="G49" t="n">
         <v>48</v>
       </c>
       <c r="H49" t="n">
-        <v>8830040770</v>
+        <v>8624719235</v>
       </c>
       <c r="I49" t="n">
-        <v>22922124</v>
+        <v>23624483</v>
       </c>
       <c r="J49" t="n">
-        <v>0.094995</v>
+        <v>0.091974</v>
       </c>
       <c r="K49" t="n">
-        <v>0.09055000000000001</v>
+        <v>0.08860899999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.003011963567861486</v>
+        <v>-0.00319536766500747</v>
       </c>
       <c r="M49" t="n">
-        <v>-3.21628</v>
+        <v>-3.48304</v>
       </c>
       <c r="N49" t="n">
-        <v>-77784775.56262159</v>
+        <v>-83691383.31352282</v>
       </c>
       <c r="O49" t="n">
-        <v>-3.03352</v>
+        <v>-3.33118</v>
       </c>
       <c r="P49" t="n">
-        <v>27436500990.17432</v>
+        <v>27437995679.14755</v>
       </c>
       <c r="Q49" t="n">
-        <v>97436500990.17432</v>
+        <v>97437995679.14755</v>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
         <v>0.965407</v>
       </c>
       <c r="T49" t="n">
-        <v>-90.58548</v>
+        <v>-90.8169</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>0.0121196</v>
       </c>
       <c r="W49" t="n">
-        <v>649.9291899999999</v>
+        <v>631.49526</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.710Z</t>
+          <t>2025-04-06T16:04:15.640Z</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr"/>
@@ -5134,50 +5134,50 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.03</v>
+        <v>4.93</v>
       </c>
       <c r="F50" t="n">
-        <v>2429168913</v>
+        <v>2380467306</v>
       </c>
       <c r="G50" t="n">
         <v>49</v>
       </c>
       <c r="H50" t="n">
-        <v>2674987974</v>
+        <v>2621357091</v>
       </c>
       <c r="I50" t="n">
-        <v>50773517</v>
+        <v>46963463</v>
       </c>
       <c r="J50" t="n">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="K50" t="n">
-        <v>4.96</v>
+        <v>4.87</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.04426509847851179</v>
+        <v>-0.05704187363943447</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.8726</v>
+        <v>-1.14414</v>
       </c>
       <c r="N50" t="n">
-        <v>-20802374.57440948</v>
+        <v>-25330581.28624296</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.84909</v>
+        <v>-1.0529</v>
       </c>
       <c r="P50" t="n">
-        <v>482989219.9683003</v>
+        <v>482991317.1446098</v>
       </c>
       <c r="Q50" t="n">
-        <v>531865177.3995068</v>
+        <v>531867298.0478967</v>
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
         <v>700.65</v>
       </c>
       <c r="T50" t="n">
-        <v>-99.28049</v>
+        <v>-99.2968</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>2.87</v>
       </c>
       <c r="W50" t="n">
-        <v>75.95749000000001</v>
+        <v>71.96921</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.813Z</t>
+          <t>2025-04-06T16:04:19.731Z</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr"/>
@@ -5227,43 +5227,43 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.84</v>
+        <v>15.54</v>
       </c>
       <c r="F51" t="n">
-        <v>2401377335</v>
+        <v>2352976737</v>
       </c>
       <c r="G51" t="n">
         <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>2401402972</v>
+        <v>2353114044</v>
       </c>
       <c r="I51" t="n">
-        <v>46357194</v>
+        <v>54467605</v>
       </c>
       <c r="J51" t="n">
-        <v>16.36</v>
+        <v>15.96</v>
       </c>
       <c r="K51" t="n">
-        <v>15.72</v>
+        <v>15.33</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.391453150451845</v>
+        <v>-0.3873413248169246</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.41239</v>
+        <v>-2.43257</v>
       </c>
       <c r="N51" t="n">
-        <v>-54537780.25086975</v>
+        <v>-58777175.09262085</v>
       </c>
       <c r="O51" t="n">
-        <v>-2.22067</v>
+        <v>-2.43711</v>
       </c>
       <c r="P51" t="n">
         <v>151406495.4711831</v>
       </c>
       <c r="Q51" t="n">
-        <v>151408111.9191831</v>
+        <v>151415330.7351831</v>
       </c>
       <c r="R51" t="n">
         <v>210700000</v>
@@ -5272,7 +5272,7 @@
         <v>167.09</v>
       </c>
       <c r="T51" t="n">
-        <v>-90.51049</v>
+        <v>-90.69941</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>0.615038</v>
       </c>
       <c r="W51" t="n">
-        <v>2477.98354</v>
+        <v>2426.6612</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5293,11 +5293,11 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.138Z</t>
+          <t>2025-04-06T16:04:18.798Z</t>
         </is>
       </c>
       <c r="AA51" t="n">
-        <v>34.18965008045862</v>
+        <v>33.52399054202927</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -5305,98 +5305,96 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>3418.965008045862</v>
+        <v>3352.399054202927</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethena-staked-usde</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>susde</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ethena Staked USDe</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
+          <t>https://coin-images.coingecko.com/coins/images/33669/large/sUSDe-Symbol-Color.png?1716307680</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>151.02</v>
+        <v>1.16</v>
       </c>
       <c r="F52" t="n">
-        <v>2282561893</v>
+        <v>2260647057</v>
       </c>
       <c r="G52" t="n">
         <v>51</v>
       </c>
       <c r="H52" t="n">
-        <v>2419013629</v>
+        <v>2260647057</v>
       </c>
       <c r="I52" t="n">
-        <v>148951171</v>
+        <v>10528441</v>
       </c>
       <c r="J52" t="n">
-        <v>154.74</v>
+        <v>1.17</v>
       </c>
       <c r="K52" t="n">
-        <v>149.56</v>
+        <v>1.15</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.610680928471538</v>
+        <v>-0.001690309423300729</v>
       </c>
       <c r="M52" t="n">
-        <v>-1.05531</v>
+        <v>-0.14517</v>
       </c>
       <c r="N52" t="n">
-        <v>-23170087.82708311</v>
+        <v>-2005235.214123726</v>
       </c>
       <c r="O52" t="n">
-        <v>-1.00489</v>
+        <v>-0.08862</v>
       </c>
       <c r="P52" t="n">
-        <v>15097471.89517718</v>
+        <v>1944014659.287963</v>
       </c>
       <c r="Q52" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="R52" t="n">
-        <v>16000000</v>
-      </c>
+        <v>1944014659.287963</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>661.6900000000001</v>
+        <v>1.29</v>
       </c>
       <c r="T52" t="n">
-        <v>-77.13554000000001</v>
+        <v>-9.860799999999999</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2021-05-18T21:19:59.514Z</t>
+          <t>2025-01-29T17:52:32.991Z</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>26.02</v>
+        <v>1.012</v>
       </c>
       <c r="W52" t="n">
-        <v>481.3741</v>
+        <v>14.95194</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>2020-11-05T09:20:11.928Z</t>
+          <t>2024-04-03T14:23:03.162Z</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.042Z</t>
+          <t>2025-04-06T16:04:18.326Z</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr"/>
@@ -5406,90 +5404,90 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ethena-staked-usde</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>susde</t>
+          <t>fdusd</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ethena Staked USDe</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/33669/large/sUSDe-Symbol-Color.png?1716307680</t>
+          <t>https://coin-images.coingecko.com/coins/images/31079/large/FDUSD_icon_black.png?1731097953</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.16</v>
+        <v>0.995256</v>
       </c>
       <c r="F53" t="n">
-        <v>2262320139</v>
+        <v>2177146557</v>
       </c>
       <c r="G53" t="n">
         <v>52</v>
       </c>
       <c r="H53" t="n">
-        <v>2262320139</v>
+        <v>2177146557</v>
       </c>
       <c r="I53" t="n">
-        <v>5739661</v>
+        <v>1224817033</v>
       </c>
       <c r="J53" t="n">
-        <v>1.17</v>
+        <v>0.998178</v>
       </c>
       <c r="K53" t="n">
-        <v>1.16</v>
+        <v>0.992424</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.000271121353931036</v>
+        <v>9.71e-05</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0233</v>
+        <v>0.00976</v>
       </c>
       <c r="N53" t="n">
-        <v>-5976684.792705536</v>
+        <v>328730</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.26349</v>
+        <v>0.0151</v>
       </c>
       <c r="P53" t="n">
-        <v>1944687253.066791</v>
+        <v>2188129088.971388</v>
       </c>
       <c r="Q53" t="n">
-        <v>1944687253.066791</v>
+        <v>2188129088.971388</v>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="T53" t="n">
-        <v>-9.8581</v>
+        <v>-13.65274</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2025-01-29T17:52:32.991Z</t>
+          <t>2025-02-03T02:30:49.959Z</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>1.012</v>
+        <v>0.940377</v>
       </c>
       <c r="W53" t="n">
-        <v>14.9554</v>
+        <v>5.7176</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>2024-04-03T14:23:03.162Z</t>
+          <t>2024-12-05T22:30:51.394Z</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.661Z</t>
+          <t>2025-04-06T16:04:18.828Z</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -5499,90 +5497,92 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fdusd</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31079/large/FDUSD_icon_black.png?1731097953</t>
+          <t>https://coin-images.coingecko.com/coins/images/12645/large/aave-token-round.png?1720472354</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.994248</v>
+        <v>143.78</v>
       </c>
       <c r="F54" t="n">
-        <v>2176018323</v>
+        <v>2176704532</v>
       </c>
       <c r="G54" t="n">
         <v>53</v>
       </c>
       <c r="H54" t="n">
-        <v>2176018323</v>
+        <v>2306805771</v>
       </c>
       <c r="I54" t="n">
-        <v>1148579726</v>
+        <v>147458978</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9965079999999999</v>
+        <v>152.87</v>
       </c>
       <c r="K54" t="n">
-        <v>0.991821</v>
+        <v>142.62</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.001194515606914415</v>
+        <v>-6.969987372593522</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.12</v>
+        <v>-4.62355</v>
       </c>
       <c r="N54" t="n">
-        <v>-2319576.730710506</v>
+        <v>-97175295.14236975</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.10648</v>
+        <v>-4.27355</v>
       </c>
       <c r="P54" t="n">
-        <v>2188129088.971388</v>
+        <v>15097618.0799139</v>
       </c>
       <c r="Q54" t="n">
-        <v>2188129088.971388</v>
-      </c>
-      <c r="R54" t="inlineStr"/>
+        <v>16000000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>16000000</v>
+      </c>
       <c r="S54" t="n">
-        <v>1.15</v>
+        <v>661.6900000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>-13.55776</v>
+        <v>-78.25445000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2025-02-03T02:30:49.959Z</t>
+          <t>2021-05-18T21:19:59.514Z</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>0.940377</v>
+        <v>26.02</v>
       </c>
       <c r="W54" t="n">
-        <v>5.83389</v>
+        <v>452.92369</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:51.394Z</t>
+          <t>2020-11-05T09:20:11.928Z</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.797Z</t>
+          <t>2025-04-06T16:04:13.889Z</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
@@ -5611,50 +5611,50 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.79</v>
+        <v>4.74</v>
       </c>
       <c r="F55" t="n">
-        <v>2126201082</v>
+        <v>2102451180</v>
       </c>
       <c r="G55" t="n">
         <v>54</v>
       </c>
       <c r="H55" t="n">
-        <v>2126201082</v>
+        <v>2102451180</v>
       </c>
       <c r="I55" t="n">
-        <v>115495765</v>
+        <v>108254636</v>
       </c>
       <c r="J55" t="n">
-        <v>4.99</v>
+        <v>4.89</v>
       </c>
       <c r="K55" t="n">
-        <v>4.77</v>
+        <v>4.67</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.1823619000438361</v>
+        <v>-0.1432577810006981</v>
       </c>
       <c r="M55" t="n">
-        <v>-3.66659</v>
+        <v>-2.93403</v>
       </c>
       <c r="N55" t="n">
-        <v>-79929176.13297462</v>
+        <v>-62260754.82135558</v>
       </c>
       <c r="O55" t="n">
-        <v>-3.62305</v>
+        <v>-2.87617</v>
       </c>
       <c r="P55" t="n">
-        <v>443645515.642958</v>
+        <v>443733490.310578</v>
       </c>
       <c r="Q55" t="n">
-        <v>443645515.642958</v>
+        <v>443733490.310578</v>
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
         <v>44.45</v>
       </c>
       <c r="T55" t="n">
-        <v>-89.23623000000001</v>
+        <v>-89.33837</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>312.41733</v>
+        <v>308.50384</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5675,11 +5675,11 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.036Z</t>
+          <t>2025-04-06T16:04:16.610Z</t>
         </is>
       </c>
       <c r="AA55" t="n">
-        <v>46.91254149788031</v>
+        <v>46.39365327728476</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>4691.254149788031</v>
+        <v>4639.365327728476</v>
       </c>
     </row>
     <row r="56">
@@ -5776,7 +5776,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.906Z</t>
+          <t>2025-04-06T16:00:22.413Z</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr"/>
@@ -5786,200 +5786,200 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tao</t>
+          <t>vet</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28452/large/ARUsPeNQ_400x400.jpeg?1696527447</t>
+          <t>https://coin-images.coingecko.com/coins/images/1167/large/VET.png?1742383283</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>218.51</v>
+        <v>0.02120357</v>
       </c>
       <c r="F57" t="n">
-        <v>1871931486</v>
+        <v>1823749513</v>
       </c>
       <c r="G57" t="n">
         <v>56</v>
       </c>
       <c r="H57" t="n">
-        <v>4591804909</v>
+        <v>1823749513</v>
       </c>
       <c r="I57" t="n">
-        <v>41949843</v>
+        <v>33359841</v>
       </c>
       <c r="J57" t="n">
-        <v>220.29</v>
+        <v>0.02200921</v>
       </c>
       <c r="K57" t="n">
-        <v>212.94</v>
+        <v>0.02093903</v>
       </c>
       <c r="L57" t="n">
-        <v>0.212217</v>
+        <v>-0.00037535820043472</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09721</v>
+        <v>-1.73947</v>
       </c>
       <c r="N57" t="n">
-        <v>2299604</v>
+        <v>-29351758.36143255</v>
       </c>
       <c r="O57" t="n">
-        <v>0.123</v>
+        <v>-1.58393</v>
       </c>
       <c r="P57" t="n">
-        <v>8561026</v>
+        <v>85985041177</v>
       </c>
       <c r="Q57" t="n">
-        <v>21000000</v>
+        <v>85985041177</v>
       </c>
       <c r="R57" t="n">
-        <v>21000000</v>
+        <v>86712634466</v>
       </c>
       <c r="S57" t="n">
-        <v>757.6</v>
+        <v>0.280991</v>
       </c>
       <c r="T57" t="n">
-        <v>-71.11947000000001</v>
+        <v>-92.45072999999999</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2024-03-07T18:45:36.466Z</t>
+          <t>2021-04-19T01:08:21.675Z</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>30.83</v>
+        <v>0.00191713</v>
       </c>
       <c r="W57" t="n">
-        <v>609.70016</v>
+        <v>1006.48468</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>2023-05-14T08:57:53.732Z</t>
+          <t>2020-03-13T02:29:59.652Z</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.640Z</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
+          <t>2025-04-06T16:04:16.593Z</t>
+        </is>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.221637589918151</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>322.163758991815</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vet</t>
+          <t>tao</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1167/large/VET.png?1742383283</t>
+          <t>https://coin-images.coingecko.com/coins/images/28452/large/ARUsPeNQ_400x400.jpeg?1696527447</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.02163758</v>
+        <v>208.19</v>
       </c>
       <c r="F58" t="n">
-        <v>1861886114</v>
+        <v>1783423679</v>
       </c>
       <c r="G58" t="n">
         <v>57</v>
       </c>
       <c r="H58" t="n">
-        <v>1861886114</v>
+        <v>4374697292</v>
       </c>
       <c r="I58" t="n">
-        <v>29701723</v>
+        <v>43163007</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02223187</v>
+        <v>220.29</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02151757</v>
+        <v>206.23</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.000441178710499767</v>
+        <v>-6.745834776220903</v>
       </c>
       <c r="M58" t="n">
-        <v>-1.9982</v>
+        <v>-3.13857</v>
       </c>
       <c r="N58" t="n">
-        <v>-36930838.41498375</v>
+        <v>-48372411.7046113</v>
       </c>
       <c r="O58" t="n">
-        <v>-1.94494</v>
+        <v>-2.64071</v>
       </c>
       <c r="P58" t="n">
-        <v>85985041177</v>
+        <v>8561026</v>
       </c>
       <c r="Q58" t="n">
-        <v>85985041177</v>
+        <v>21000000</v>
       </c>
       <c r="R58" t="n">
-        <v>86712634466</v>
+        <v>21000000</v>
       </c>
       <c r="S58" t="n">
-        <v>0.280991</v>
+        <v>757.6</v>
       </c>
       <c r="T58" t="n">
-        <v>-92.28363</v>
+        <v>-72.47687000000001</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2021-04-19T01:08:21.675Z</t>
+          <t>2024-03-07T18:45:36.466Z</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>0.00191713</v>
+        <v>30.83</v>
       </c>
       <c r="W58" t="n">
-        <v>1030.976</v>
+        <v>576.34392</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>2020-03-13T02:29:59.652Z</t>
+          <t>2023-05-14T08:57:53.732Z</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.734Z</t>
-        </is>
-      </c>
-      <c r="AA58" t="n">
-        <v>3.187500640414658</v>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="AC58" t="n">
-        <v>318.7500640414658</v>
-      </c>
+          <t>2025-04-06T16:04:14.605Z</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6003,37 +6003,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.17</v>
+        <v>8.83</v>
       </c>
       <c r="F59" t="n">
-        <v>1834499994</v>
+        <v>1766851419</v>
       </c>
       <c r="G59" t="n">
         <v>58</v>
       </c>
       <c r="H59" t="n">
-        <v>9172501040</v>
+        <v>8834258127</v>
       </c>
       <c r="I59" t="n">
-        <v>168655686</v>
+        <v>229202508</v>
       </c>
       <c r="J59" t="n">
-        <v>9.4</v>
+        <v>9.26</v>
       </c>
       <c r="K59" t="n">
-        <v>9.08</v>
+        <v>8.66</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.2096550127919272</v>
+        <v>-0.3385984548737451</v>
       </c>
       <c r="M59" t="n">
-        <v>-2.23421</v>
+        <v>-3.69258</v>
       </c>
       <c r="N59" t="n">
-        <v>-43188921.53267264</v>
+        <v>-66135978.33096457</v>
       </c>
       <c r="O59" t="n">
-        <v>-2.30011</v>
+        <v>-3.6081</v>
       </c>
       <c r="P59" t="n">
         <v>199999976.636</v>
@@ -6048,7 +6048,7 @@
         <v>73.43000000000001</v>
       </c>
       <c r="T59" t="n">
-        <v>-87.47702</v>
+        <v>-87.9327</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>4.29</v>
       </c>
       <c r="W59" t="n">
-        <v>114.31833</v>
+        <v>106.51978</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.566Z</t>
+          <t>2025-04-06T16:04:12.495Z</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr"/>
@@ -6098,50 +6098,50 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>83151</v>
+        <v>82294</v>
       </c>
       <c r="F60" t="n">
-        <v>1769636380</v>
+        <v>1753034716</v>
       </c>
       <c r="G60" t="n">
         <v>59</v>
       </c>
       <c r="H60" t="n">
-        <v>1769636380</v>
+        <v>1753034716</v>
       </c>
       <c r="I60" t="n">
-        <v>17756819</v>
+        <v>8785382</v>
       </c>
       <c r="J60" t="n">
         <v>83836</v>
       </c>
       <c r="K60" t="n">
-        <v>82164</v>
+        <v>81559</v>
       </c>
       <c r="L60" t="n">
-        <v>-460.3884499691922</v>
+        <v>-263.3946475668927</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.55063</v>
+        <v>-0.31905</v>
       </c>
       <c r="N60" t="n">
-        <v>-8568110.660968542</v>
+        <v>5098009</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.48184</v>
+        <v>0.29166</v>
       </c>
       <c r="P60" t="n">
-        <v>21271.7536461179</v>
+        <v>21304.39889157805</v>
       </c>
       <c r="Q60" t="n">
-        <v>21271.7536461179</v>
+        <v>21304.39889157805</v>
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
         <v>114576</v>
       </c>
       <c r="T60" t="n">
-        <v>-27.41765</v>
+        <v>-27.97315</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>52119</v>
       </c>
       <c r="W60" t="n">
-        <v>59.56012</v>
+        <v>58.33895</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.375Z</t>
+          <t>2025-04-06T16:04:19.554Z</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr"/>
@@ -6172,90 +6172,92 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>fasttoken</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ena</t>
+          <t>ftn</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Fasttoken</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
+          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.314211</v>
+        <v>4.03</v>
       </c>
       <c r="F61" t="n">
-        <v>1744466116</v>
+        <v>1734890646</v>
       </c>
       <c r="G61" t="n">
         <v>60</v>
       </c>
       <c r="H61" t="n">
-        <v>4712120065</v>
+        <v>3511794793</v>
       </c>
       <c r="I61" t="n">
-        <v>131381007</v>
+        <v>49696724</v>
       </c>
       <c r="J61" t="n">
-        <v>0.331774</v>
+        <v>4.05</v>
       </c>
       <c r="K61" t="n">
-        <v>0.314141</v>
+        <v>4.02</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.008663898814613658</v>
+        <v>-0.0128341985527145</v>
       </c>
       <c r="M61" t="n">
-        <v>-2.68336</v>
+        <v>-0.31749</v>
       </c>
       <c r="N61" t="n">
-        <v>-51196238.06017804</v>
+        <v>-3824608.293471813</v>
       </c>
       <c r="O61" t="n">
-        <v>-2.85111</v>
+        <v>-0.21997</v>
       </c>
       <c r="P61" t="n">
-        <v>5553125000</v>
+        <v>430162637</v>
       </c>
       <c r="Q61" t="n">
-        <v>15000000000</v>
-      </c>
-      <c r="R61" t="inlineStr"/>
+        <v>870742437</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S61" t="n">
-        <v>1.52</v>
+        <v>4.09</v>
       </c>
       <c r="T61" t="n">
-        <v>-79.26434</v>
+        <v>-1.35926</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2024-04-11T13:15:15.057Z</t>
+          <t>2025-04-02T20:15:55.922Z</t>
         </is>
       </c>
       <c r="V61" t="n">
-        <v>0.195078</v>
+        <v>0.398142</v>
       </c>
       <c r="W61" t="n">
-        <v>61.32293</v>
+        <v>914.30635</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2024-09-06T21:04:48.253Z</t>
+          <t>2023-01-21T10:15:39.503Z</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.354Z</t>
+          <t>2025-04-06T16:04:18.358Z</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr"/>
@@ -6284,52 +6286,52 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="F62" t="n">
-        <v>1738274227</v>
+        <v>1680100390</v>
       </c>
       <c r="G62" t="n">
         <v>61</v>
       </c>
       <c r="H62" t="n">
-        <v>5262710520</v>
+        <v>5086512628</v>
       </c>
       <c r="I62" t="n">
-        <v>103121450</v>
+        <v>88881196</v>
       </c>
       <c r="J62" t="n">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="K62" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.07563084033286982</v>
+        <v>-0.07331606223673814</v>
       </c>
       <c r="M62" t="n">
-        <v>-2.74071</v>
+        <v>-2.74558</v>
       </c>
       <c r="N62" t="n">
-        <v>-45882803.44894028</v>
+        <v>-46220292.90013266</v>
       </c>
       <c r="O62" t="n">
-        <v>-2.57168</v>
+        <v>-2.67739</v>
       </c>
       <c r="P62" t="n">
-        <v>647248540</v>
+        <v>647257708</v>
       </c>
       <c r="Q62" t="n">
-        <v>1959576715</v>
+        <v>1959576062</v>
       </c>
       <c r="R62" t="n">
-        <v>1959576715</v>
+        <v>1959576062</v>
       </c>
       <c r="S62" t="n">
         <v>236.84</v>
       </c>
       <c r="T62" t="n">
-        <v>-98.86363</v>
+        <v>-98.90337</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6340,7 +6342,7 @@
         <v>2.48</v>
       </c>
       <c r="W62" t="n">
-        <v>8.63888</v>
+        <v>4.83965</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6350,7 +6352,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.671Z</t>
+          <t>2025-04-06T16:04:19.175Z</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -6360,92 +6362,90 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fasttoken</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ftn</t>
+          <t>ena</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fasttoken</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28478/large/lightenicon_200x200.png?1696527472</t>
+          <t>https://coin-images.coingecko.com/coins/images/36530/large/ethena.png?1711701436</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4.04</v>
+        <v>0.292604</v>
       </c>
       <c r="F63" t="n">
-        <v>1736729533</v>
+        <v>1623859861</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
       </c>
       <c r="H63" t="n">
-        <v>3515517099</v>
+        <v>4386340649</v>
       </c>
       <c r="I63" t="n">
-        <v>46781842</v>
+        <v>108813431</v>
       </c>
       <c r="J63" t="n">
-        <v>4.05</v>
+        <v>0.319865</v>
       </c>
       <c r="K63" t="n">
-        <v>4.02</v>
+        <v>0.291233</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.002717267064162421</v>
+        <v>-0.02444100331660598</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.06725</v>
+        <v>-7.70899</v>
       </c>
       <c r="N63" t="n">
-        <v>-1696044.50533843</v>
+        <v>-134799264.6119831</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.09755999999999999</v>
+        <v>-7.66489</v>
       </c>
       <c r="P63" t="n">
-        <v>430162637</v>
+        <v>5553125000</v>
       </c>
       <c r="Q63" t="n">
-        <v>870742437</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>15000000000</v>
+      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>4.09</v>
+        <v>1.52</v>
       </c>
       <c r="T63" t="n">
-        <v>-1.35931</v>
+        <v>-80.62118</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2025-04-02T20:15:55.922Z</t>
+          <t>2024-04-11T13:15:15.057Z</t>
         </is>
       </c>
       <c r="V63" t="n">
-        <v>0.398142</v>
+        <v>0.195078</v>
       </c>
       <c r="W63" t="n">
-        <v>914.30584</v>
+        <v>50.76673</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2023-01-21T10:15:39.503Z</t>
+          <t>2024-09-06T21:04:48.253Z</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.046Z</t>
+          <t>2025-04-06T16:04:18.674Z</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr"/>
@@ -6455,92 +6455,90 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>kas</t>
+          <t>pol</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>POL (ex-MATIC)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
+          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.063528</v>
+        <v>0.182113</v>
       </c>
       <c r="F64" t="n">
-        <v>1645594906</v>
+        <v>1578823905</v>
       </c>
       <c r="G64" t="n">
         <v>63</v>
       </c>
       <c r="H64" t="n">
-        <v>1650455912</v>
+        <v>1897621922</v>
       </c>
       <c r="I64" t="n">
-        <v>42987292</v>
+        <v>46851388</v>
       </c>
       <c r="J64" t="n">
-        <v>0.065138</v>
+        <v>0.188087</v>
       </c>
       <c r="K64" t="n">
-        <v>0.062958</v>
+        <v>0.180742</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.001290230882213875</v>
+        <v>-0.004905985746663538</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.99054</v>
+        <v>-2.62325</v>
       </c>
       <c r="N64" t="n">
-        <v>-35056127.18423724</v>
+        <v>-37194148.61621881</v>
       </c>
       <c r="O64" t="n">
-        <v>-2.08587</v>
+        <v>-2.30159</v>
       </c>
       <c r="P64" t="n">
-        <v>25900045779.39798</v>
+        <v>8651854080.326403</v>
       </c>
       <c r="Q64" t="n">
-        <v>25976553233.51165</v>
-      </c>
-      <c r="R64" t="n">
-        <v>28704026601</v>
-      </c>
+        <v>10398846835.30774</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>0.207411</v>
+        <v>1.29</v>
       </c>
       <c r="T64" t="n">
-        <v>-69.28869</v>
+        <v>-85.80495000000001</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2024-08-01T00:40:47.164Z</t>
+          <t>2024-03-13T18:55:06.692Z</t>
         </is>
       </c>
       <c r="V64" t="n">
-        <v>0.00017105</v>
+        <v>0.179065</v>
       </c>
       <c r="W64" t="n">
-        <v>37139.87243</v>
+        <v>2.06929</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>2022-05-26T14:42:59.316Z</t>
+          <t>2025-04-03T13:07:44.614Z</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.381Z</t>
+          <t>2025-04-06T16:04:12.270Z</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr"/>
@@ -6550,90 +6548,92 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>render-token</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>kas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
+          <t>https://coin-images.coingecko.com/coins/images/25751/large/kaspa-icon-exchanges.png?1696524837</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.14</v>
+        <v>0.060443</v>
       </c>
       <c r="F65" t="n">
-        <v>1623487634</v>
+        <v>1565352776</v>
       </c>
       <c r="G65" t="n">
         <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>1669773496</v>
+        <v>1570153828</v>
       </c>
       <c r="I65" t="n">
-        <v>87302836</v>
+        <v>68977468</v>
       </c>
       <c r="J65" t="n">
-        <v>3.22</v>
+        <v>0.064155</v>
       </c>
       <c r="K65" t="n">
-        <v>3.1</v>
+        <v>0.060155</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.07159954932048107</v>
+        <v>-0.003559342911277165</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.23245</v>
+        <v>-5.56131</v>
       </c>
       <c r="N65" t="n">
-        <v>-37089480.00858188</v>
+        <v>-92214116.58722353</v>
       </c>
       <c r="O65" t="n">
-        <v>-2.23353</v>
+        <v>-5.56322</v>
       </c>
       <c r="P65" t="n">
-        <v>517716590.0562826</v>
+        <v>25900045779.39798</v>
       </c>
       <c r="Q65" t="n">
-        <v>532476763.3362826</v>
-      </c>
-      <c r="R65" t="inlineStr"/>
+        <v>25979483131.02277</v>
+      </c>
+      <c r="R65" t="n">
+        <v>28704026601</v>
+      </c>
       <c r="S65" t="n">
-        <v>13.53</v>
+        <v>0.207411</v>
       </c>
       <c r="T65" t="n">
-        <v>-76.78727000000001</v>
+        <v>-70.73455</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2024-03-17T16:30:24.636Z</t>
+          <t>2024-08-01T00:40:47.164Z</t>
         </is>
       </c>
       <c r="V65" t="n">
-        <v>0.03665669</v>
+        <v>0.00017105</v>
       </c>
       <c r="W65" t="n">
-        <v>8470.79868</v>
+        <v>35386.64404</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2020-06-16T13:22:25.900Z</t>
+          <t>2022-05-26T14:42:59.316Z</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.539Z</t>
+          <t>2025-04-06T16:04:19.197Z</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr"/>
@@ -6643,90 +6643,90 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>render-token</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pol</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>POL (ex-MATIC)</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/32440/large/polygon.png?1698233684</t>
+          <t>https://coin-images.coingecko.com/coins/images/11636/large/rndr.png?1696511529</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.186917</v>
+        <v>2.99</v>
       </c>
       <c r="F66" t="n">
-        <v>1620414554</v>
+        <v>1548695781</v>
       </c>
       <c r="G66" t="n">
         <v>65</v>
       </c>
       <c r="H66" t="n">
-        <v>1947624560</v>
+        <v>1592849317</v>
       </c>
       <c r="I66" t="n">
-        <v>42271528</v>
+        <v>111408207</v>
       </c>
       <c r="J66" t="n">
-        <v>0.190957</v>
+        <v>3.17</v>
       </c>
       <c r="K66" t="n">
-        <v>0.186379</v>
+        <v>2.95</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.00258817931661437</v>
+        <v>-0.1194391663239966</v>
       </c>
       <c r="M66" t="n">
-        <v>-1.36575</v>
+        <v>-3.84001</v>
       </c>
       <c r="N66" t="n">
-        <v>-20300314.12660623</v>
+        <v>-61511362.78849578</v>
       </c>
       <c r="O66" t="n">
-        <v>-1.23728</v>
+        <v>-3.82009</v>
       </c>
       <c r="P66" t="n">
-        <v>8651792087.256233</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="Q66" t="n">
-        <v>10398846835.30774</v>
+        <v>532476763.3362826</v>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>1.29</v>
+        <v>13.53</v>
       </c>
       <c r="T66" t="n">
-        <v>-85.43577999999999</v>
+        <v>-77.88064</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>2024-03-13T18:55:06.692Z</t>
+          <t>2024-03-17T16:30:24.636Z</t>
         </is>
       </c>
       <c r="V66" t="n">
-        <v>0.179065</v>
+        <v>0.03665669</v>
       </c>
       <c r="W66" t="n">
-        <v>4.72378</v>
+        <v>8067.09851</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2025-04-03T13:07:44.614Z</t>
+          <t>2020-06-16T13:22:25.900Z</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.997Z</t>
+          <t>2025-04-06T16:04:12.872Z</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr"/>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.183695</v>
+        <v>0.176633</v>
       </c>
       <c r="F67" t="n">
-        <v>1575620640</v>
+        <v>1510513010</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>1575625738</v>
+        <v>1510536751</v>
       </c>
       <c r="I67" t="n">
-        <v>47920534</v>
+        <v>51889950</v>
       </c>
       <c r="J67" t="n">
-        <v>0.189656</v>
+        <v>0.184912</v>
       </c>
       <c r="K67" t="n">
-        <v>0.180705</v>
+        <v>0.173941</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.002666996042831909</v>
+        <v>-0.005027013770163818</v>
       </c>
       <c r="M67" t="n">
-        <v>-1.43108</v>
+        <v>-2.76726</v>
       </c>
       <c r="N67" t="n">
-        <v>-16220488.98876023</v>
+        <v>-43284764.21322083</v>
       </c>
       <c r="O67" t="n">
-        <v>-1.01898</v>
+        <v>-2.78574</v>
       </c>
       <c r="P67" t="n">
         <v>8558640568.187729</v>
       </c>
       <c r="Q67" t="n">
-        <v>8558668261.538824</v>
+        <v>8558775085.382488</v>
       </c>
       <c r="R67" t="n">
         <v>10000000000</v>
@@ -6800,7 +6800,7 @@
         <v>3.56</v>
       </c>
       <c r="T67" t="n">
-        <v>-94.82854</v>
+        <v>-95.04666</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>0.08751299999999999</v>
       </c>
       <c r="W67" t="n">
-        <v>110.44037</v>
+        <v>101.5645</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6821,11 +6821,11 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.522Z</t>
+          <t>2025-04-06T16:04:14.052Z</t>
         </is>
       </c>
       <c r="AA67" t="n">
-        <v>-0.9234603104790526</v>
+        <v>-0.9264028353574012</v>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
@@ -6833,96 +6833,96 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>-92.34603104790526</v>
+        <v>-92.64028353574012</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sonic-3</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>tia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
+          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.492999</v>
+        <v>2.53</v>
       </c>
       <c r="F68" t="n">
-        <v>1566035514</v>
+        <v>1489232625</v>
       </c>
       <c r="G68" t="n">
         <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>1566035514</v>
+        <v>2815085114</v>
       </c>
       <c r="I68" t="n">
-        <v>82376327</v>
+        <v>54397184</v>
       </c>
       <c r="J68" t="n">
-        <v>0.507891</v>
+        <v>2.7</v>
       </c>
       <c r="K68" t="n">
-        <v>0.490128</v>
+        <v>2.49</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.008789425207434809</v>
+        <v>-0.1384057406618009</v>
       </c>
       <c r="M68" t="n">
-        <v>-1.75162</v>
+        <v>-5.19142</v>
       </c>
       <c r="N68" t="n">
-        <v>-30711012.06650996</v>
+        <v>-76777749.60158324</v>
       </c>
       <c r="O68" t="n">
-        <v>-1.92335</v>
+        <v>-4.90276</v>
       </c>
       <c r="P68" t="n">
-        <v>3175000000</v>
+        <v>589147209.769979</v>
       </c>
       <c r="Q68" t="n">
-        <v>3175000000</v>
+        <v>1113660493.150335</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>1.029</v>
+        <v>20.85</v>
       </c>
       <c r="T68" t="n">
-        <v>-52.05907</v>
+        <v>-87.85014</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>2025-01-04T21:35:44.705Z</t>
+          <t>2024-02-10T14:30:02.495Z</t>
         </is>
       </c>
       <c r="V68" t="n">
-        <v>0.359647</v>
+        <v>2.08</v>
       </c>
       <c r="W68" t="n">
-        <v>37.22855</v>
+        <v>21.59114</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>2025-02-03T02:11:37.229Z</t>
+          <t>2023-10-31T15:14:31.951Z</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.474Z</t>
+          <t>2025-04-06T16:04:15.706Z</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr"/>
@@ -6932,90 +6932,90 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>sonic-3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tia</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31967/large/tia.jpg?1696530772</t>
+          <t>https://coin-images.coingecko.com/coins/images/38108/large/200x200_Sonic_Logo.png?1734679256</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2.66</v>
+        <v>0.466258</v>
       </c>
       <c r="F69" t="n">
-        <v>1565883492</v>
+        <v>1482737205</v>
       </c>
       <c r="G69" t="n">
         <v>68</v>
       </c>
       <c r="H69" t="n">
-        <v>2965488356</v>
+        <v>1482737205</v>
       </c>
       <c r="I69" t="n">
-        <v>42478300</v>
+        <v>83157860</v>
       </c>
       <c r="J69" t="n">
-        <v>2.79</v>
+        <v>0.50017</v>
       </c>
       <c r="K69" t="n">
-        <v>2.64</v>
+        <v>0.464087</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.06619422371348582</v>
+        <v>-0.02535216645429866</v>
       </c>
       <c r="M69" t="n">
-        <v>-2.42502</v>
+        <v>-5.15697</v>
       </c>
       <c r="N69" t="n">
-        <v>-35815193.16794181</v>
+        <v>-74228936.75892091</v>
       </c>
       <c r="O69" t="n">
-        <v>-2.23608</v>
+        <v>-4.76754</v>
       </c>
       <c r="P69" t="n">
-        <v>587939919.143268</v>
+        <v>3175000000</v>
       </c>
       <c r="Q69" t="n">
-        <v>1113447452.054445</v>
+        <v>3175000000</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>20.85</v>
+        <v>1.029</v>
       </c>
       <c r="T69" t="n">
-        <v>-87.20635</v>
+        <v>-54.60977</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2024-02-10T14:30:02.495Z</t>
+          <t>2025-01-04T21:35:44.705Z</t>
         </is>
       </c>
       <c r="V69" t="n">
-        <v>2.08</v>
+        <v>0.359647</v>
       </c>
       <c r="W69" t="n">
-        <v>28.034</v>
+        <v>29.92729</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2023-10-31T15:14:31.951Z</t>
+          <t>2025-02-03T02:11:37.229Z</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.408Z</t>
+          <t>2025-04-06T16:04:13.479Z</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr"/>
@@ -7044,37 +7044,37 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.306457</v>
+        <v>0.29546</v>
       </c>
       <c r="F70" t="n">
-        <v>1415409898</v>
+        <v>1364454503</v>
       </c>
       <c r="G70" t="n">
         <v>69</v>
       </c>
       <c r="H70" t="n">
-        <v>3065042141</v>
+        <v>2954699241</v>
       </c>
       <c r="I70" t="n">
-        <v>58070725</v>
+        <v>69912758</v>
       </c>
       <c r="J70" t="n">
-        <v>0.31501</v>
+        <v>0.309344</v>
       </c>
       <c r="K70" t="n">
-        <v>0.306116</v>
+        <v>0.29314</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.006324502285932954</v>
+        <v>-0.01188319905333363</v>
       </c>
       <c r="M70" t="n">
-        <v>-2.02202</v>
+        <v>-3.86643</v>
       </c>
       <c r="N70" t="n">
-        <v>-30265028.54024816</v>
+        <v>-54224668.2153511</v>
       </c>
       <c r="O70" t="n">
-        <v>-2.09349</v>
+        <v>-3.82219</v>
       </c>
       <c r="P70" t="n">
         <v>4617913336</v>
@@ -7089,7 +7089,7 @@
         <v>2.39</v>
       </c>
       <c r="T70" t="n">
-        <v>-87.15665</v>
+        <v>-87.63628</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -7097,20 +7097,20 @@
         </is>
       </c>
       <c r="V70" t="n">
-        <v>0.295397</v>
+        <v>0.29314</v>
       </c>
       <c r="W70" t="n">
-        <v>3.92522</v>
+        <v>0.81459</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>2025-04-03T12:50:45.734Z</t>
+          <t>2025-04-06T14:05:36.704Z</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.500Z</t>
+          <t>2025-04-06T16:04:14.503Z</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr"/>
@@ -7139,43 +7139,43 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>83276</v>
+        <v>82110</v>
       </c>
       <c r="F71" t="n">
-        <v>1313210551</v>
+        <v>1296570927</v>
       </c>
       <c r="G71" t="n">
         <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>1313210551</v>
+        <v>1321294630</v>
       </c>
       <c r="I71" t="n">
-        <v>1760112</v>
+        <v>2525587</v>
       </c>
       <c r="J71" t="n">
-        <v>83851</v>
+        <v>83508</v>
       </c>
       <c r="K71" t="n">
-        <v>82210</v>
+        <v>82005</v>
       </c>
       <c r="L71" t="n">
-        <v>-528.4267947559565</v>
+        <v>-153.8567996663623</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.6305500000000001</v>
+        <v>-0.18703</v>
       </c>
       <c r="N71" t="n">
-        <v>-3455361.617720604</v>
+        <v>-1475486.299015522</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.26243</v>
+        <v>-0.11367</v>
       </c>
       <c r="P71" t="n">
-        <v>15766.06345339603</v>
+        <v>15787.02058751459</v>
       </c>
       <c r="Q71" t="n">
-        <v>15766.06345339603</v>
+        <v>16088.05587942009</v>
       </c>
       <c r="R71" t="n">
         <v>21000000</v>
@@ -7184,7 +7184,7 @@
         <v>108929</v>
       </c>
       <c r="T71" t="n">
-        <v>-23.5398</v>
+        <v>-24.5061</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>49058</v>
       </c>
       <c r="W71" t="n">
-        <v>69.77433000000001</v>
+        <v>67.62873</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.127Z</t>
+          <t>2025-04-06T16:04:13.115Z</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr"/>
@@ -7215,185 +7215,193 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kucoin-shares</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>kcs</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>KuCoin</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1047/large/sa9z79.png?1696502152</t>
+          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.68</v>
+        <v>0.765691</v>
       </c>
       <c r="F72" t="n">
-        <v>1206458456</v>
+        <v>1161780115</v>
       </c>
       <c r="G72" t="n">
         <v>71</v>
       </c>
       <c r="H72" t="n">
-        <v>1375303317</v>
+        <v>1608386247</v>
       </c>
       <c r="I72" t="n">
-        <v>80237</v>
+        <v>204049280</v>
       </c>
       <c r="J72" t="n">
-        <v>10.2</v>
+        <v>0.776353</v>
       </c>
       <c r="K72" t="n">
-        <v>9.65</v>
+        <v>0.7380100000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.4281805632438385</v>
+        <v>-0.007260765099344146</v>
       </c>
       <c r="M72" t="n">
-        <v>-4.23718</v>
+        <v>-0.93936</v>
       </c>
       <c r="N72" t="n">
-        <v>-60662980.22399187</v>
+        <v>-7907926.492557287</v>
       </c>
       <c r="O72" t="n">
-        <v>-4.78746</v>
+        <v>-0.6760699999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>125043917.8513356</v>
+        <v>1516885789.1746</v>
       </c>
       <c r="Q72" t="n">
-        <v>142543917.8513356</v>
-      </c>
-      <c r="R72" t="inlineStr"/>
+        <v>2100000000</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2100000000</v>
+      </c>
       <c r="S72" t="n">
-        <v>28.83</v>
+        <v>22.71</v>
       </c>
       <c r="T72" t="n">
-        <v>-66.47189</v>
+        <v>-96.62768</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2021-12-01T15:09:35.541Z</t>
+          <t>2018-04-29T07:50:33.540Z</t>
         </is>
       </c>
       <c r="V72" t="n">
-        <v>0.342863</v>
+        <v>0.402746</v>
       </c>
       <c r="W72" t="n">
-        <v>2719.23509</v>
+        <v>90.16891</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2019-02-07T00:00:00.000Z</t>
+          <t>2024-11-04T21:55:59.771Z</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.520Z</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
+          <t>2025-04-06T16:04:19.145Z</t>
+        </is>
+      </c>
+      <c r="AA72" t="n">
+        <v>-0.2265744185949055</v>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC72" t="n">
+        <v>-22.65744185949055</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>kucoin-shares</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>kcs</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>KuCoin</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
+          <t>https://coin-images.coingecko.com/coins/images/1047/large/sa9z79.png?1696502152</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.6917219999999999</v>
+        <v>9.16</v>
       </c>
       <c r="F73" t="n">
-        <v>1146613425</v>
+        <v>1138867923</v>
       </c>
       <c r="G73" t="n">
         <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>2971821512</v>
+        <v>1298253434</v>
       </c>
       <c r="I73" t="n">
-        <v>66669826</v>
+        <v>171273</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7140879999999999</v>
+        <v>10.04</v>
       </c>
       <c r="K73" t="n">
-        <v>0.687344</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.01611588712441081</v>
+        <v>-0.8545426842642385</v>
       </c>
       <c r="M73" t="n">
-        <v>-2.27678</v>
+        <v>-8.533569999999999</v>
       </c>
       <c r="N73" t="n">
-        <v>-27573706.44544101</v>
+        <v>-112345342.9593432</v>
       </c>
       <c r="O73" t="n">
-        <v>-2.34832</v>
+        <v>-8.978910000000001</v>
       </c>
       <c r="P73" t="n">
-        <v>1657120774</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="Q73" t="n">
-        <v>4294967296</v>
-      </c>
-      <c r="R73" t="n">
-        <v>4294967296</v>
-      </c>
+        <v>142543917.8513356</v>
+      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>4.84</v>
+        <v>28.83</v>
       </c>
       <c r="T73" t="n">
-        <v>-85.72131</v>
+        <v>-68.40868</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>2024-03-06T08:35:50.817Z</t>
+          <t>2021-12-01T15:09:35.541Z</t>
         </is>
       </c>
       <c r="V73" t="n">
-        <v>0.402159</v>
+        <v>0.342863</v>
       </c>
       <c r="W73" t="n">
-        <v>71.99763</v>
+        <v>2556.37918</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>2022-06-18T20:54:52.178Z</t>
+          <t>2019-02-07T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.958Z</t>
+          <t>2025-04-06T16:04:19.550Z</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr"/>
@@ -7403,585 +7411,577 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>mkr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/738/large/CG_EOS_Icon.png?1731705232</t>
+          <t>https://coin-images.coingecko.com/coins/images/1364/large/Mark_Maker.png?1696502423</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.7536389999999999</v>
+        <v>1307.3</v>
       </c>
       <c r="F74" t="n">
-        <v>1142786000</v>
+        <v>1105909807</v>
       </c>
       <c r="G74" t="n">
         <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>1582090503</v>
+        <v>1140231285</v>
       </c>
       <c r="I74" t="n">
-        <v>226655634</v>
+        <v>56872616</v>
       </c>
       <c r="J74" t="n">
-        <v>0.806179</v>
+        <v>1363.32</v>
       </c>
       <c r="K74" t="n">
-        <v>0.748765</v>
+        <v>1305.41</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.04978341135563114</v>
+        <v>-9.706208585006607</v>
       </c>
       <c r="M74" t="n">
-        <v>-6.19642</v>
+        <v>-0.73699</v>
       </c>
       <c r="N74" t="n">
-        <v>-78600767.74578166</v>
+        <v>-5453415.598157167</v>
       </c>
       <c r="O74" t="n">
-        <v>-6.43537</v>
+        <v>-0.4907</v>
       </c>
       <c r="P74" t="n">
-        <v>1516885789.1746</v>
+        <v>844824.5024561699</v>
       </c>
       <c r="Q74" t="n">
-        <v>2100000000</v>
+        <v>871043.2997628152</v>
       </c>
       <c r="R74" t="n">
-        <v>2100000000</v>
+        <v>1005577</v>
       </c>
       <c r="S74" t="n">
-        <v>22.71</v>
+        <v>6292.31</v>
       </c>
       <c r="T74" t="n">
-        <v>-96.68531</v>
+        <v>-79.18221</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2018-04-29T07:50:33.540Z</t>
+          <t>2021-05-03T21:54:29.333Z</t>
         </is>
       </c>
       <c r="V74" t="n">
-        <v>0.402746</v>
+        <v>168.36</v>
       </c>
       <c r="W74" t="n">
-        <v>86.91916999999999</v>
+        <v>678.0589199999999</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>2024-11-04T21:55:59.771Z</t>
+          <t>2020-03-16T20:52:36.527Z</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.557Z</t>
-        </is>
-      </c>
-      <c r="AA74" t="n">
-        <v>-0.2387483672861265</v>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC74" t="n">
-        <v>-23.87483672861265</v>
-      </c>
+          <t>2025-04-06T16:04:14.589Z</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>xdce-crowd-sale</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mkr</t>
+          <t>xdc</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>XDC Network</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/1364/large/Mark_Maker.png?1696502423</t>
+          <t>https://coin-images.coingecko.com/coins/images/2912/large/xdc-icon.png?1696503661</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1353.96</v>
+        <v>0.068609</v>
       </c>
       <c r="F75" t="n">
-        <v>1140668744</v>
+        <v>1077281114</v>
       </c>
       <c r="G75" t="n">
         <v>74</v>
       </c>
       <c r="H75" t="n">
-        <v>1176075644</v>
+        <v>2606309895</v>
       </c>
       <c r="I75" t="n">
-        <v>51635069</v>
+        <v>37118261</v>
       </c>
       <c r="J75" t="n">
-        <v>1359.42</v>
+        <v>0.07126200000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>1309.31</v>
+        <v>0.067193</v>
       </c>
       <c r="L75" t="n">
-        <v>26.22</v>
+        <v>0.00038344</v>
       </c>
       <c r="M75" t="n">
-        <v>1.9744</v>
+        <v>0.56201</v>
       </c>
       <c r="N75" t="n">
-        <v>18072727</v>
+        <v>5736556</v>
       </c>
       <c r="O75" t="n">
-        <v>1.6099</v>
+        <v>0.53535</v>
       </c>
       <c r="P75" t="n">
-        <v>844816.8962146143</v>
+        <v>15699920679.9</v>
       </c>
       <c r="Q75" t="n">
-        <v>871040.4143447198</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1005577</v>
-      </c>
+        <v>37983454916.7</v>
+      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>6292.31</v>
+        <v>0.192754</v>
       </c>
       <c r="T75" t="n">
-        <v>-78.55103</v>
+        <v>-64.39367</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2021-05-03T21:54:29.333Z</t>
+          <t>2021-08-21T04:39:48.324Z</t>
         </is>
       </c>
       <c r="V75" t="n">
-        <v>168.36</v>
+        <v>0.00039532</v>
       </c>
       <c r="W75" t="n">
-        <v>701.64906</v>
+        <v>17261.38172</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>2020-03-16T20:52:36.527Z</t>
+          <t>2019-07-22T00:00:00.000Z</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.934Z</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
+          <t>2025-04-06T16:04:18.203Z</t>
+        </is>
+      </c>
+      <c r="AA75" t="n">
+        <v>4.189980396559468</v>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>eth</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
+        <v>418.9980396559468</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>fetch-ai</t>
+          <t>binance-peg-weth</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fet</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Binance-Peg WETH</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/5681/large/ASI.png?1719827289</t>
+          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.427043</v>
+        <v>1757.36</v>
       </c>
       <c r="F76" t="n">
-        <v>1113449357</v>
+        <v>1065021683</v>
       </c>
       <c r="G76" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H76" t="n">
-        <v>1160268295</v>
+        <v>1065021683</v>
       </c>
       <c r="I76" t="n">
-        <v>61520823</v>
+        <v>24038895</v>
       </c>
       <c r="J76" t="n">
-        <v>0.444148</v>
+        <v>1812.47</v>
       </c>
       <c r="K76" t="n">
-        <v>0.426708</v>
+        <v>1750.19</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.01548046965977812</v>
+        <v>-24.55861708708744</v>
       </c>
       <c r="M76" t="n">
-        <v>-3.49823</v>
+        <v>-1.37822</v>
       </c>
       <c r="N76" t="n">
-        <v>-39081616.27973509</v>
+        <v>-12572895.89026201</v>
       </c>
       <c r="O76" t="n">
-        <v>-3.39094</v>
+        <v>-1.16676</v>
       </c>
       <c r="P76" t="n">
-        <v>2604959126.672</v>
+        <v>604999.999959841</v>
       </c>
       <c r="Q76" t="n">
-        <v>2714493896.672</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2714493896.672</v>
-      </c>
+        <v>604999.999959841</v>
+      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>3.45</v>
+        <v>4098.26</v>
       </c>
       <c r="T76" t="n">
-        <v>-87.61877</v>
+        <v>-57.00932</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>2024-03-28T17:21:18.050Z</t>
+          <t>2024-12-06T20:27:27.286Z</t>
         </is>
       </c>
       <c r="V76" t="n">
-        <v>0.008169589999999999</v>
+        <v>1750.19</v>
       </c>
       <c r="W76" t="n">
-        <v>5134.85164</v>
+        <v>0.6673</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>2020-03-13T02:24:18.347Z</t>
+          <t>2025-04-06T13:57:36.211Z</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.484Z</t>
-        </is>
-      </c>
-      <c r="AA76" t="n">
-        <v>3.925520968093275</v>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC76" t="n">
-        <v>392.5520968093275</v>
-      </c>
+          <t>2025-04-06T16:04:14.845Z</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>xdce-crowd-sale</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>xdc</t>
+          <t>op</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>XDC Network</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2912/large/xdc-icon.png?1696503661</t>
+          <t>https://coin-images.coingecko.com/coins/images/25244/large/Optimism.png?1696524385</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.070255</v>
+        <v>0.640122</v>
       </c>
       <c r="F77" t="n">
-        <v>1102537903</v>
+        <v>1062395883</v>
       </c>
       <c r="G77" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H77" t="n">
-        <v>2667427055</v>
+        <v>2753544367</v>
       </c>
       <c r="I77" t="n">
-        <v>30977221</v>
+        <v>90083438</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07026300000000001</v>
+        <v>0.697798</v>
       </c>
       <c r="K77" t="n">
-        <v>0.067193</v>
+        <v>0.638587</v>
       </c>
       <c r="L77" t="n">
-        <v>0.00229521</v>
+        <v>-0.04967647549101128</v>
       </c>
       <c r="M77" t="n">
-        <v>3.37729</v>
+        <v>-7.20159</v>
       </c>
       <c r="N77" t="n">
-        <v>35755733</v>
+        <v>-79471399.1753056</v>
       </c>
       <c r="O77" t="n">
-        <v>3.35174</v>
+        <v>-6.95978</v>
       </c>
       <c r="P77" t="n">
-        <v>15699793640.4</v>
+        <v>1657120774</v>
       </c>
       <c r="Q77" t="n">
-        <v>37983323931.15</v>
-      </c>
-      <c r="R77" t="inlineStr"/>
+        <v>4294967296</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4294967296</v>
+      </c>
       <c r="S77" t="n">
-        <v>0.192754</v>
+        <v>4.84</v>
       </c>
       <c r="T77" t="n">
-        <v>-63.71254</v>
+        <v>-86.69919</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2021-08-21T04:39:48.324Z</t>
+          <t>2024-03-06T08:35:50.817Z</t>
         </is>
       </c>
       <c r="V77" t="n">
-        <v>0.00039532</v>
+        <v>0.402159</v>
       </c>
       <c r="W77" t="n">
-        <v>17593.49292</v>
+        <v>60.21824</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2019-07-22T00:00:00.000Z</t>
+          <t>2022-06-18T20:54:52.178Z</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.083Z</t>
-        </is>
-      </c>
-      <c r="AA77" t="n">
-        <v>4.165809536195851</v>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>eth</t>
-        </is>
-      </c>
-      <c r="AC77" t="n">
-        <v>416.5809536195851</v>
-      </c>
+          <t>2025-04-06T16:04:11.743Z</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>story-2</t>
+          <t>fetch-ai</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>fet</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
+          <t>https://coin-images.coingecko.com/coins/images/5681/large/ASI.png?1719827289</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.22</v>
+        <v>0.407862</v>
       </c>
       <c r="F78" t="n">
-        <v>1095814286</v>
+        <v>1062246905</v>
       </c>
       <c r="G78" t="n">
         <v>77</v>
       </c>
       <c r="H78" t="n">
-        <v>4236951486</v>
+        <v>1106912854</v>
       </c>
       <c r="I78" t="n">
-        <v>42215107</v>
+        <v>62977956</v>
       </c>
       <c r="J78" t="n">
-        <v>4.33</v>
+        <v>0.433016</v>
       </c>
       <c r="K78" t="n">
-        <v>4.09</v>
+        <v>0.403514</v>
       </c>
       <c r="L78" t="n">
-        <v>0.055786</v>
+        <v>-0.02092512360322385</v>
       </c>
       <c r="M78" t="n">
-        <v>1.339</v>
+        <v>-4.88007</v>
       </c>
       <c r="N78" t="n">
-        <v>16180943</v>
+        <v>-54253540.46722484</v>
       </c>
       <c r="O78" t="n">
-        <v>1.49874</v>
+        <v>-4.85925</v>
       </c>
       <c r="P78" t="n">
-        <v>259218618.17</v>
+        <v>2604959126.672</v>
       </c>
       <c r="Q78" t="n">
-        <v>1002265368.43</v>
-      </c>
-      <c r="R78" t="inlineStr"/>
+        <v>2714493896.672</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2714493896.672</v>
+      </c>
       <c r="S78" t="n">
-        <v>7.31</v>
+        <v>3.45</v>
       </c>
       <c r="T78" t="n">
-        <v>-42.04166</v>
+        <v>-88.18161000000001</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2025-02-26T16:11:25.410Z</t>
+          <t>2024-03-28T17:21:18.050Z</t>
         </is>
       </c>
       <c r="V78" t="n">
-        <v>1</v>
+        <v>0.008169589999999999</v>
       </c>
       <c r="W78" t="n">
-        <v>323.75564</v>
+        <v>4896.87828</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2025-02-14T03:11:08.309Z</t>
+          <t>2020-03-13T02:24:18.347Z</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:03.622Z</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
+          <t>2025-04-06T16:04:19.216Z</t>
+        </is>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.704295323221777</v>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>370.4295323221777</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>binance-peg-weth</t>
+          <t>story-2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Binance-Peg WETH</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/39580/large/weth.png?1723006716</t>
+          <t>https://coin-images.coingecko.com/coins/images/54035/large/Transparent_bg.png?1738075331</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1808.34</v>
+        <v>4.09</v>
       </c>
       <c r="F79" t="n">
-        <v>1094769338</v>
+        <v>1061754986</v>
       </c>
       <c r="G79" t="n">
         <v>78</v>
       </c>
       <c r="H79" t="n">
-        <v>1094769338</v>
+        <v>4104774479</v>
       </c>
       <c r="I79" t="n">
-        <v>20934105</v>
+        <v>36552709</v>
       </c>
       <c r="J79" t="n">
-        <v>1820.25</v>
+        <v>4.33</v>
       </c>
       <c r="K79" t="n">
-        <v>1776.91</v>
+        <v>4.11</v>
       </c>
       <c r="L79" t="n">
-        <v>-8.330463888693203</v>
+        <v>-0.1270383439016811</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.45856</v>
+        <v>-3.01131</v>
       </c>
       <c r="N79" t="n">
-        <v>-4354506.666629553</v>
+        <v>-29468828.28748822</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.39618</v>
+        <v>-2.70053</v>
       </c>
       <c r="P79" t="n">
-        <v>604999.999959841</v>
+        <v>259260411.65</v>
       </c>
       <c r="Q79" t="n">
-        <v>604999.999959841</v>
+        <v>1002308004.21</v>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>4098.26</v>
+        <v>7.31</v>
       </c>
       <c r="T79" t="n">
-        <v>-55.83173</v>
+        <v>-43.4295</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2024-12-06T20:27:27.286Z</t>
+          <t>2025-02-26T16:11:25.410Z</t>
         </is>
       </c>
       <c r="V79" t="n">
-        <v>1755.76</v>
+        <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>3.09649</v>
+        <v>313.60863</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2025-04-03T14:57:46.428Z</t>
+          <t>2025-02-14T03:11:08.309Z</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.310Z</t>
+          <t>2025-04-06T16:04:16.327Z</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr"/>
@@ -8010,43 +8010,43 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.383966</v>
+        <v>0.368259</v>
       </c>
       <c r="F80" t="n">
-        <v>1093628983</v>
+        <v>1046412581</v>
       </c>
       <c r="G80" t="n">
         <v>79</v>
       </c>
       <c r="H80" t="n">
-        <v>2691401996</v>
+        <v>2575203247</v>
       </c>
       <c r="I80" t="n">
-        <v>39220362</v>
+        <v>41204592</v>
       </c>
       <c r="J80" t="n">
-        <v>0.403322</v>
+        <v>0.390648</v>
       </c>
       <c r="K80" t="n">
-        <v>0.379246</v>
+        <v>0.363566</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.01902005812973728</v>
+        <v>-0.01752824516141405</v>
       </c>
       <c r="M80" t="n">
-        <v>-4.71978</v>
+        <v>-4.5435</v>
       </c>
       <c r="N80" t="n">
-        <v>-52377166.22168779</v>
+        <v>-49502255.01127422</v>
       </c>
       <c r="O80" t="n">
-        <v>-4.57041</v>
+        <v>-4.51698</v>
       </c>
       <c r="P80" t="n">
         <v>2844383333.32</v>
       </c>
       <c r="Q80" t="n">
-        <v>6999978144.445098</v>
+        <v>6999978144.431001</v>
       </c>
       <c r="R80" t="n">
         <v>10000000000</v>
@@ -8055,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>-80.75774</v>
+        <v>-81.50277</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>0.359458</v>
       </c>
       <c r="W80" t="n">
-        <v>7.06347</v>
+        <v>2.91815</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.737Z</t>
+          <t>2025-04-06T16:04:09.828Z</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr"/>
@@ -8105,50 +8105,50 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1880.27</v>
+        <v>1826.64</v>
       </c>
       <c r="F81" t="n">
-        <v>1063070379</v>
+        <v>1028583722</v>
       </c>
       <c r="G81" t="n">
         <v>80</v>
       </c>
       <c r="H81" t="n">
-        <v>1063070379</v>
+        <v>1028583722</v>
       </c>
       <c r="I81" t="n">
-        <v>1595408</v>
+        <v>419916</v>
       </c>
       <c r="J81" t="n">
-        <v>1893.88</v>
+        <v>1887.21</v>
       </c>
       <c r="K81" t="n">
-        <v>1851.29</v>
+        <v>1821.83</v>
       </c>
       <c r="L81" t="n">
-        <v>-8.455266539720014</v>
+        <v>-27.32382099909773</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.44767</v>
+        <v>-1.47381</v>
       </c>
       <c r="N81" t="n">
-        <v>-5005986.565858841</v>
+        <v>-17952913.56040108</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.46869</v>
+        <v>-1.71546</v>
       </c>
       <c r="P81" t="n">
-        <v>565329.8323006504</v>
+        <v>562603.1118724894</v>
       </c>
       <c r="Q81" t="n">
-        <v>565329.8323006504</v>
+        <v>562603.1118724894</v>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
         <v>4216.2</v>
       </c>
       <c r="T81" t="n">
-        <v>-55.38077</v>
+        <v>-56.50194</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -8156,20 +8156,20 @@
         </is>
       </c>
       <c r="V81" t="n">
-        <v>1825.99</v>
+        <v>1821.83</v>
       </c>
       <c r="W81" t="n">
-        <v>3.02585</v>
+        <v>0.66635</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>2025-04-03T15:11:13.082Z</t>
+          <t>2025-04-06T14:35:33.761Z</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.895Z</t>
+          <t>2025-04-06T16:04:18.985Z</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr"/>
@@ -8198,37 +8198,37 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.057</v>
+        <v>1.011</v>
       </c>
       <c r="F82" t="n">
-        <v>1057285597</v>
+        <v>1010843905</v>
       </c>
       <c r="G82" t="n">
         <v>81</v>
       </c>
       <c r="H82" t="n">
-        <v>1057285597</v>
+        <v>1010843905</v>
       </c>
       <c r="I82" t="n">
-        <v>9824003</v>
+        <v>12457826</v>
       </c>
       <c r="J82" t="n">
-        <v>1.083</v>
+        <v>1.066</v>
       </c>
       <c r="K82" t="n">
-        <v>1.04</v>
+        <v>0.998329</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.02287251017183034</v>
+        <v>-0.03279962471882314</v>
       </c>
       <c r="M82" t="n">
-        <v>-2.11788</v>
+        <v>-3.14264</v>
       </c>
       <c r="N82" t="n">
-        <v>-22800627.92845297</v>
+        <v>-34045562.54103792</v>
       </c>
       <c r="O82" t="n">
-        <v>-2.111</v>
+        <v>-3.25829</v>
       </c>
       <c r="P82" t="n">
         <v>1000000000</v>
@@ -8243,7 +8243,7 @@
         <v>4.07</v>
       </c>
       <c r="T82" t="n">
-        <v>-74.05548</v>
+        <v>-75.13262</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>0.04515276</v>
       </c>
       <c r="W82" t="n">
-        <v>2237.4327</v>
+        <v>2140.38963</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8264,11 +8264,11 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:09.511Z</t>
+          <t>2025-04-06T16:04:11.156Z</t>
         </is>
       </c>
       <c r="AA82" t="n">
-        <v>9.57100804537845</v>
+        <v>9.108972642779911</v>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>957.100804537845</v>
+        <v>910.897264277991</v>
       </c>
     </row>
     <row r="83">
@@ -8301,37 +8301,37 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>68.06999999999999</v>
+        <v>68.27</v>
       </c>
       <c r="F83" t="n">
-        <v>990657333</v>
+        <v>992710904</v>
       </c>
       <c r="G83" t="n">
         <v>82</v>
       </c>
       <c r="H83" t="n">
-        <v>995310644</v>
+        <v>997373861</v>
       </c>
       <c r="I83" t="n">
-        <v>18201345</v>
+        <v>21770400</v>
       </c>
       <c r="J83" t="n">
-        <v>69.19</v>
+        <v>68.75</v>
       </c>
       <c r="K83" t="n">
-        <v>67.20999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="L83" t="n">
-        <v>0.378851</v>
+        <v>0.410514</v>
       </c>
       <c r="M83" t="n">
-        <v>0.5597</v>
+        <v>0.60494</v>
       </c>
       <c r="N83" t="n">
-        <v>5465270</v>
+        <v>7144326</v>
       </c>
       <c r="O83" t="n">
-        <v>0.55474</v>
+        <v>0.7249</v>
       </c>
       <c r="P83" t="n">
         <v>14544176.16409109</v>
@@ -8346,7 +8346,7 @@
         <v>427.42</v>
       </c>
       <c r="T83" t="n">
-        <v>-84.044</v>
+        <v>-84.04268</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>0.215773</v>
       </c>
       <c r="W83" t="n">
-        <v>31507.0253</v>
+        <v>31509.62789</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:02.203Z</t>
+          <t>2025-04-06T16:04:13.269Z</t>
         </is>
       </c>
       <c r="AA83" t="n">
-        <v>15.18395323084336</v>
+        <v>15.69970344880172</v>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
@@ -8379,96 +8379,96 @@
         </is>
       </c>
       <c r="AC83" t="n">
-        <v>1518.395323084336</v>
+        <v>1569.970344880172</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>binance-staked-sol</t>
+          <t>usdt0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bnsol</t>
+          <t>usdt0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Binance Staked SOL</t>
+          <t>USDT0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
+          <t>https://coin-images.coingecko.com/coins/images/53705/large/usdt0.jpg?1737086183</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>125.58</v>
+        <v>0.9984420000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>982442714</v>
+        <v>985098512</v>
       </c>
       <c r="G84" t="n">
         <v>83</v>
       </c>
       <c r="H84" t="n">
-        <v>982442714</v>
+        <v>985098512</v>
       </c>
       <c r="I84" t="n">
-        <v>3486625</v>
+        <v>48184616</v>
       </c>
       <c r="J84" t="n">
-        <v>127.06</v>
+        <v>1.005</v>
       </c>
       <c r="K84" t="n">
-        <v>122.33</v>
+        <v>0.997767</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.9216512523959608</v>
+        <v>-0.002227243975272519</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.72854</v>
+        <v>-0.22258</v>
       </c>
       <c r="N84" t="n">
-        <v>-8946228.865375757</v>
+        <v>4686768</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.90239</v>
+        <v>0.47804</v>
       </c>
       <c r="P84" t="n">
-        <v>7821819.123379225</v>
+        <v>986358988.9663531</v>
       </c>
       <c r="Q84" t="n">
-        <v>7821819.123379225</v>
+        <v>986358988.9663531</v>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>297.96</v>
+        <v>1.052</v>
       </c>
       <c r="T84" t="n">
-        <v>-57.87244</v>
+        <v>-4.99575</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2025-01-19T11:30:53.744Z</t>
+          <t>2025-01-23T22:34:53.341Z</t>
         </is>
       </c>
       <c r="V84" t="n">
-        <v>117.19</v>
+        <v>0.975737</v>
       </c>
       <c r="W84" t="n">
-        <v>7.10573</v>
+        <v>2.4334</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2025-04-03T14:51:22.777Z</t>
+          <t>2025-02-28T01:35:58.101Z</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.239Z</t>
+          <t>2025-04-06T16:04:17.043Z</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr"/>
@@ -8478,90 +8478,90 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>usdt0</t>
+          <t>binance-staked-sol</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>usdt0</t>
+          <t>bnsol</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>USDT0</t>
+          <t>Binance Staked SOL</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/53705/large/usdt0.jpg?1737086183</t>
+          <t>https://coin-images.coingecko.com/coins/images/40132/large/bnsol.png?1725968367</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>119.92</v>
       </c>
       <c r="F85" t="n">
-        <v>981416878</v>
+        <v>938474235</v>
       </c>
       <c r="G85" t="n">
         <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>981416878</v>
+        <v>938474235</v>
       </c>
       <c r="I85" t="n">
-        <v>40729905</v>
+        <v>3072449</v>
       </c>
       <c r="J85" t="n">
-        <v>1.005</v>
+        <v>126.22</v>
       </c>
       <c r="K85" t="n">
-        <v>0.997779</v>
+        <v>119.55</v>
       </c>
       <c r="L85" t="n">
-        <v>0.00103658</v>
+        <v>-2.706504553755522</v>
       </c>
       <c r="M85" t="n">
-        <v>0.10375</v>
+        <v>-2.20704</v>
       </c>
       <c r="N85" t="n">
-        <v>5782124</v>
+        <v>-19902881.69780779</v>
       </c>
       <c r="O85" t="n">
-        <v>0.59265</v>
+        <v>-2.07673</v>
       </c>
       <c r="P85" t="n">
-        <v>981253938.184608</v>
+        <v>7818743.230690161</v>
       </c>
       <c r="Q85" t="n">
-        <v>981253938.184608</v>
+        <v>7818743.230690161</v>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>1.052</v>
+        <v>297.96</v>
       </c>
       <c r="T85" t="n">
-        <v>-5.07553</v>
+        <v>-59.6809</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2025-01-23T22:34:53.341Z</t>
+          <t>2025-01-19T11:30:53.744Z</t>
         </is>
       </c>
       <c r="V85" t="n">
-        <v>0.975737</v>
+        <v>117.19</v>
       </c>
       <c r="W85" t="n">
-        <v>2.34739</v>
+        <v>2.50788</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2025-02-28T01:35:58.101Z</t>
+          <t>2025-04-03T14:51:22.777Z</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.913Z</t>
+          <t>2025-04-06T16:04:14.776Z</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr"/>
@@ -8590,43 +8590,43 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.601032</v>
+        <v>0.590059</v>
       </c>
       <c r="F86" t="n">
-        <v>913830457</v>
+        <v>897081369</v>
       </c>
       <c r="G86" t="n">
         <v>85</v>
       </c>
       <c r="H86" t="n">
-        <v>913830457</v>
+        <v>897081369</v>
       </c>
       <c r="I86" t="n">
-        <v>26967352</v>
+        <v>32287233</v>
       </c>
       <c r="J86" t="n">
-        <v>0.614383</v>
+        <v>0.610133</v>
       </c>
       <c r="K86" t="n">
-        <v>0.591054</v>
+        <v>0.588175</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.003200178467560377</v>
+        <v>-0.002697916217180074</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.52963</v>
+        <v>-0.45515</v>
       </c>
       <c r="N86" t="n">
-        <v>-5122476.29480803</v>
+        <v>-3511867.262409329</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.55743</v>
+        <v>-0.38995</v>
       </c>
       <c r="P86" t="n">
-        <v>1520233864.63612</v>
+        <v>1520320855.05593</v>
       </c>
       <c r="Q86" t="n">
-        <v>1520233864.63612</v>
+        <v>1520320855.05593</v>
       </c>
       <c r="R86" t="n">
         <v>1818000000</v>
@@ -8635,7 +8635,7 @@
         <v>3.86</v>
       </c>
       <c r="T86" t="n">
-        <v>-84.44239</v>
+        <v>-84.72683000000001</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>0.04559639</v>
       </c>
       <c r="W86" t="n">
-        <v>1218.51686</v>
+        <v>1194.4107</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8656,11 +8656,11 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.284Z</t>
+          <t>2025-04-06T16:04:14.947Z</t>
         </is>
       </c>
       <c r="AA86" t="n">
-        <v>4.008599802611283</v>
+        <v>3.917155770206556</v>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="AC86" t="n">
-        <v>400.8599802611283</v>
+        <v>391.7155770206556</v>
       </c>
     </row>
     <row r="87">
@@ -8693,37 +8693,37 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.372505</v>
+        <v>0.353753</v>
       </c>
       <c r="F87" t="n">
-        <v>911737700</v>
+        <v>866481260</v>
       </c>
       <c r="G87" t="n">
         <v>86</v>
       </c>
       <c r="H87" t="n">
-        <v>3721378366</v>
+        <v>3536658204</v>
       </c>
       <c r="I87" t="n">
-        <v>30823152</v>
+        <v>24729922</v>
       </c>
       <c r="J87" t="n">
-        <v>0.387882</v>
+        <v>0.37631</v>
       </c>
       <c r="K87" t="n">
-        <v>0.370039</v>
+        <v>0.350351</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.004192359497037002</v>
+        <v>-0.01689769170256833</v>
       </c>
       <c r="M87" t="n">
-        <v>-1.11293</v>
+        <v>-4.55893</v>
       </c>
       <c r="N87" t="n">
-        <v>-12595751.19664717</v>
+        <v>-41572831.83298278</v>
       </c>
       <c r="O87" t="n">
-        <v>-1.36268</v>
+        <v>-4.57823</v>
       </c>
       <c r="P87" t="n">
         <v>2450000000</v>
@@ -8738,7 +8738,7 @@
         <v>1.45</v>
       </c>
       <c r="T87" t="n">
-        <v>-74.30988000000001</v>
+        <v>-75.50178</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8746,20 +8746,20 @@
         </is>
       </c>
       <c r="V87" t="n">
-        <v>0.369212</v>
+        <v>0.350351</v>
       </c>
       <c r="W87" t="n">
-        <v>0.88248</v>
+        <v>1.38119</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2025-04-04T12:10:49.917Z</t>
+          <t>2025-04-06T14:35:46.466Z</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:08.567Z</t>
+          <t>2025-04-06T16:04:10.774Z</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr"/>
@@ -8769,92 +8769,90 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>worldcoin-wld</t>
+          <t>rocket-pool-eth</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>wld</t>
+          <t>reth</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Rocket Pool ETH</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
+          <t>https://coin-images.coingecko.com/coins/images/20764/large/reth.png?1696520159</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.733374</v>
+        <v>1989.28</v>
       </c>
       <c r="F88" t="n">
-        <v>905614099</v>
+        <v>863756603</v>
       </c>
       <c r="G88" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="n">
-        <v>7341604860</v>
+        <v>863756603</v>
       </c>
       <c r="I88" t="n">
-        <v>54447583</v>
+        <v>11545905</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7586540000000001</v>
+        <v>2053.29</v>
       </c>
       <c r="K88" t="n">
-        <v>0.730341</v>
+        <v>1985.12</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.02119483613824058</v>
+        <v>-27.25577895123911</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.80887</v>
+        <v>-1.35161</v>
       </c>
       <c r="N88" t="n">
-        <v>-23854523.74777269</v>
+        <v>-11682595.80917704</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.56647</v>
+        <v>-1.33448</v>
       </c>
       <c r="P88" t="n">
-        <v>1233536966.006985</v>
+        <v>433532.8214167111</v>
       </c>
       <c r="Q88" t="n">
-        <v>10000000000</v>
-      </c>
-      <c r="R88" t="n">
-        <v>10000000000</v>
-      </c>
+        <v>433532.8214167111</v>
+      </c>
+      <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>11.74</v>
+        <v>4814.31</v>
       </c>
       <c r="T88" t="n">
-        <v>-93.73672999999999</v>
+        <v>-58.66004</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2024-03-10T00:10:42.330Z</t>
+          <t>2021-12-01T08:03:50.749Z</t>
         </is>
       </c>
       <c r="V88" t="n">
-        <v>0.707238</v>
+        <v>887.26</v>
       </c>
       <c r="W88" t="n">
-        <v>3.97437</v>
+        <v>124.31149</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2025-04-03T14:55:50.534Z</t>
+          <t>2022-06-18T20:55:45.957Z</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.048Z</t>
+          <t>2025-04-06T16:04:12.252Z</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr"/>
@@ -8864,90 +8862,92 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>rocket-pool-eth</t>
+          <t>worldcoin-wld</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>reth</t>
+          <t>wld</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rocket Pool ETH</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/20764/large/reth.png?1696520159</t>
+          <t>https://coin-images.coingecko.com/coins/images/31069/large/worldcoin.jpeg?1696529903</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2048.94</v>
+        <v>0.700001</v>
       </c>
       <c r="F89" t="n">
-        <v>888287894</v>
+        <v>863243172</v>
       </c>
       <c r="G89" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H89" t="n">
-        <v>888287894</v>
+        <v>6994584693</v>
       </c>
       <c r="I89" t="n">
-        <v>7418706</v>
+        <v>77367902</v>
       </c>
       <c r="J89" t="n">
-        <v>2057.02</v>
+        <v>0.746163</v>
       </c>
       <c r="K89" t="n">
-        <v>2013.14</v>
+        <v>0.693726</v>
       </c>
       <c r="L89" t="n">
-        <v>-4.375277140741218</v>
+        <v>-0.03566554370048458</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.21308</v>
+        <v>-4.84806</v>
       </c>
       <c r="N89" t="n">
-        <v>-4729188.834861636</v>
+        <v>-42294864.41939592</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.52957</v>
+        <v>-4.67069</v>
       </c>
       <c r="P89" t="n">
-        <v>433662.2520111651</v>
+        <v>1234159295.708123</v>
       </c>
       <c r="Q89" t="n">
-        <v>433662.2520111651</v>
-      </c>
-      <c r="R89" t="inlineStr"/>
+        <v>10000000000</v>
+      </c>
+      <c r="R89" t="n">
+        <v>10000000000</v>
+      </c>
       <c r="S89" t="n">
-        <v>4814.31</v>
+        <v>11.74</v>
       </c>
       <c r="T89" t="n">
-        <v>-57.44844</v>
+        <v>-94.01655</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2021-12-01T08:03:50.749Z</t>
+          <t>2024-03-10T00:10:42.330Z</t>
         </is>
       </c>
       <c r="V89" t="n">
-        <v>887.26</v>
+        <v>0.693726</v>
       </c>
       <c r="W89" t="n">
-        <v>130.88563</v>
+        <v>1.26388</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2022-06-18T20:55:45.957Z</t>
+          <t>2025-04-06T14:35:12.974Z</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:02.064Z</t>
+          <t>2025-04-06T16:04:17.036Z</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr"/>
@@ -8976,37 +8976,37 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>14.96</v>
+        <v>14.93</v>
       </c>
       <c r="F90" t="n">
-        <v>852418210</v>
+        <v>851861145</v>
       </c>
       <c r="G90" t="n">
         <v>89</v>
       </c>
       <c r="H90" t="n">
-        <v>1440575136</v>
+        <v>1439633703</v>
       </c>
       <c r="I90" t="n">
-        <v>9115741</v>
+        <v>9104304</v>
       </c>
       <c r="J90" t="n">
-        <v>14.93</v>
+        <v>15.03</v>
       </c>
       <c r="K90" t="n">
-        <v>14.41</v>
+        <v>14.52</v>
       </c>
       <c r="L90" t="n">
-        <v>0.321229</v>
+        <v>0.362299</v>
       </c>
       <c r="M90" t="n">
-        <v>2.19478</v>
+        <v>2.48723</v>
       </c>
       <c r="N90" t="n">
-        <v>17674358</v>
+        <v>22962638</v>
       </c>
       <c r="O90" t="n">
-        <v>2.11734</v>
+        <v>2.77026</v>
       </c>
       <c r="P90" t="n">
         <v>57103774.56313077</v>
@@ -9019,7 +9019,7 @@
         <v>32.38</v>
       </c>
       <c r="T90" t="n">
-        <v>-54.14572</v>
+        <v>-53.93867</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>0.671563</v>
       </c>
       <c r="W90" t="n">
-        <v>2110.96843</v>
+        <v>2120.95194</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.698Z</t>
+          <t>2025-04-06T16:04:18.262Z</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr"/>
@@ -9050,92 +9050,90 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>binance-bridged-usdc-bnb-smart-chain</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Binance Bridged USDC (BNB Smart Chain)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
+          <t>https://coin-images.coingecko.com/coins/images/35220/large/USDC.jpg?1707919050</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.096e-05</v>
+        <v>0.999272</v>
       </c>
       <c r="F91" t="n">
-        <v>849479222</v>
+        <v>848428678</v>
       </c>
       <c r="G91" t="n">
         <v>90</v>
       </c>
       <c r="H91" t="n">
-        <v>974843903</v>
+        <v>848428678</v>
       </c>
       <c r="I91" t="n">
-        <v>49260371</v>
+        <v>17038158</v>
       </c>
       <c r="J91" t="n">
-        <v>1.135e-05</v>
+        <v>1.004</v>
       </c>
       <c r="K91" t="n">
-        <v>1.092e-05</v>
+        <v>0.997386</v>
       </c>
       <c r="L91" t="n">
-        <v>-3.16010285468e-07</v>
+        <v>-0.000709353633515097</v>
       </c>
       <c r="M91" t="n">
-        <v>-2.80138</v>
+        <v>-0.07094</v>
       </c>
       <c r="N91" t="n">
-        <v>-23831882.00474501</v>
+        <v>-628955.7669320107</v>
       </c>
       <c r="O91" t="n">
-        <v>-2.72891</v>
+        <v>-0.07407999999999999</v>
       </c>
       <c r="P91" t="n">
-        <v>77419592329436.58</v>
+        <v>848999999.8398039</v>
       </c>
       <c r="Q91" t="n">
-        <v>88845042464439.94</v>
-      </c>
-      <c r="R91" t="n">
-        <v>88845042464439.94</v>
-      </c>
+        <v>848999999.8398039</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>5.825e-05</v>
+        <v>1.031</v>
       </c>
       <c r="T91" t="n">
-        <v>-81.12178</v>
+        <v>-3.07739</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2024-11-20T04:01:06.465Z</t>
+          <t>2024-03-05T20:15:29.285Z</t>
         </is>
       </c>
       <c r="V91" t="n">
-        <v>8.6142e-08</v>
+        <v>0.942892</v>
       </c>
       <c r="W91" t="n">
-        <v>12665.59048</v>
+        <v>5.98572</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>2022-12-29T22:48:46.755Z</t>
+          <t>2024-12-05T22:30:25.440Z</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:11.092Z</t>
+          <t>2025-04-06T16:04:14.859Z</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr"/>
@@ -9145,90 +9143,92 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>binance-bridged-usdc-bnb-smart-chain</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Binance Bridged USDC (BNB Smart Chain)</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/35220/large/USDC.jpg?1707919050</t>
+          <t>https://coin-images.coingecko.com/coins/images/28600/large/bonk.jpg?1696527587</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>1.056e-05</v>
       </c>
       <c r="F92" t="n">
-        <v>848589124</v>
+        <v>817030651</v>
       </c>
       <c r="G92" t="n">
         <v>91</v>
       </c>
       <c r="H92" t="n">
-        <v>848589124</v>
+        <v>937603842</v>
       </c>
       <c r="I92" t="n">
-        <v>16283607</v>
+        <v>46621212</v>
       </c>
       <c r="J92" t="n">
-        <v>1.002</v>
+        <v>1.115e-05</v>
       </c>
       <c r="K92" t="n">
-        <v>0.997636</v>
+        <v>1.049e-05</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.000110980659036253</v>
+        <v>-4.30470706922e-07</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.0111</v>
+        <v>-3.91819</v>
       </c>
       <c r="N92" t="n">
-        <v>-592643.7641938925</v>
+        <v>-33608519.96796811</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.06979</v>
+        <v>-3.95097</v>
       </c>
       <c r="P92" t="n">
-        <v>848999999.8398039</v>
+        <v>77419592329436.58</v>
       </c>
       <c r="Q92" t="n">
-        <v>848999999.8398039</v>
-      </c>
-      <c r="R92" t="inlineStr"/>
+        <v>88844778514463.3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>88844778514463.3</v>
+      </c>
       <c r="S92" t="n">
-        <v>1.031</v>
+        <v>5.825e-05</v>
       </c>
       <c r="T92" t="n">
-        <v>-3.0123</v>
+        <v>-81.77567000000001</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2024-03-05T20:15:29.285Z</t>
+          <t>2024-11-20T04:01:06.465Z</t>
         </is>
       </c>
       <c r="V92" t="n">
-        <v>0.942892</v>
+        <v>8.6142e-08</v>
       </c>
       <c r="W92" t="n">
-        <v>6.0569</v>
+        <v>12223.42564</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2024-12-05T22:30:25.440Z</t>
+          <t>2022-12-29T22:48:46.755Z</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.626Z</t>
+          <t>2025-04-06T16:04:18.150Z</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr"/>
@@ -9257,50 +9257,50 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.997735</v>
+        <v>0.9978089999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>815611362</v>
+        <v>810915722</v>
       </c>
       <c r="G93" t="n">
         <v>92</v>
       </c>
       <c r="H93" t="n">
-        <v>815611362</v>
+        <v>810915722</v>
       </c>
       <c r="I93" t="n">
-        <v>26249199</v>
+        <v>28288077</v>
       </c>
       <c r="J93" t="n">
-        <v>0.998074</v>
+        <v>0.998122</v>
       </c>
       <c r="K93" t="n">
-        <v>0.997403</v>
+        <v>0.997492</v>
       </c>
       <c r="L93" t="n">
-        <v>-3.9105356979818e-05</v>
+        <v>8.626e-05</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.00392</v>
+        <v>0.00865</v>
       </c>
       <c r="N93" t="n">
-        <v>-8175957.335260272</v>
+        <v>-10354120.20773697</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.99248</v>
+        <v>-1.26075</v>
       </c>
       <c r="P93" t="n">
-        <v>817494402.340997</v>
+        <v>812726941.6944315</v>
       </c>
       <c r="Q93" t="n">
-        <v>817494402.340997</v>
+        <v>812726941.6944315</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
         <v>1.33</v>
       </c>
       <c r="T93" t="n">
-        <v>-24.74181</v>
+        <v>-24.75014</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>0.976415</v>
       </c>
       <c r="W93" t="n">
-        <v>2.1797</v>
+        <v>2.1684</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:05.102Z</t>
+          <t>2025-04-06T16:04:15.929Z</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr"/>
@@ -9350,50 +9350,50 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.999507</v>
+        <v>0.999648</v>
       </c>
       <c r="F94" t="n">
-        <v>814289844</v>
+        <v>803982930</v>
       </c>
       <c r="G94" t="n">
         <v>93</v>
       </c>
       <c r="H94" t="n">
-        <v>814289844</v>
+        <v>803982930</v>
       </c>
       <c r="I94" t="n">
-        <v>8305207</v>
+        <v>8791654</v>
       </c>
       <c r="J94" t="n">
         <v>1.001</v>
       </c>
       <c r="K94" t="n">
-        <v>0.997638</v>
+        <v>0.997675</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.000244725729563355</v>
+        <v>0.00010603</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.02448</v>
+        <v>0.01061</v>
       </c>
       <c r="N94" t="n">
-        <v>-245906.0360710621</v>
+        <v>-10999259.99134851</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.03019</v>
+        <v>-1.34963</v>
       </c>
       <c r="P94" t="n">
-        <v>815001581.802994</v>
+        <v>805045716.093353</v>
       </c>
       <c r="Q94" t="n">
-        <v>815001581.802994</v>
+        <v>805045716.093353</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
         <v>1.027</v>
       </c>
       <c r="T94" t="n">
-        <v>-2.66734</v>
+        <v>-2.65083</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>0.945933</v>
       </c>
       <c r="W94" t="n">
-        <v>5.65184</v>
+        <v>5.66977</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:10.309Z</t>
+          <t>2025-04-06T16:04:15.445Z</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr"/>
@@ -9443,50 +9443,50 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01311543</v>
+        <v>0.01296658</v>
       </c>
       <c r="F95" t="n">
-        <v>807670793</v>
+        <v>799728411</v>
       </c>
       <c r="G95" t="n">
         <v>94</v>
       </c>
       <c r="H95" t="n">
-        <v>1353609628</v>
+        <v>1340298138</v>
       </c>
       <c r="I95" t="n">
-        <v>11071260</v>
+        <v>8436727</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01361337</v>
+        <v>0.01319493</v>
       </c>
       <c r="K95" t="n">
-        <v>0.01293927</v>
+        <v>0.01292931</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.000281915939200343</v>
+        <v>-1.3956836417767e-05</v>
       </c>
       <c r="M95" t="n">
-        <v>-2.10427</v>
+        <v>-0.10752</v>
       </c>
       <c r="N95" t="n">
-        <v>-10798910.94250989</v>
+        <v>5810055</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.3194</v>
+        <v>0.73182</v>
       </c>
       <c r="P95" t="n">
-        <v>61590752031.68212</v>
+        <v>61590774394.37847</v>
       </c>
       <c r="Q95" t="n">
-        <v>103222545189.3694</v>
+        <v>103222542949.104</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
         <v>0.150073</v>
       </c>
       <c r="T95" t="n">
-        <v>-91.27144</v>
+        <v>-91.31198000000001</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>0.00827405</v>
       </c>
       <c r="W95" t="n">
-        <v>58.31663</v>
+        <v>57.58134</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:12.112Z</t>
+          <t>2025-04-06T16:04:18.315Z</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr"/>
@@ -9536,37 +9536,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8.17</v>
+        <v>7.88</v>
       </c>
       <c r="F96" t="n">
-        <v>800181917</v>
+        <v>770221038</v>
       </c>
       <c r="G96" t="n">
         <v>95</v>
       </c>
       <c r="H96" t="n">
-        <v>818791238</v>
+        <v>788133578</v>
       </c>
       <c r="I96" t="n">
-        <v>38992327</v>
+        <v>42777609</v>
       </c>
       <c r="J96" t="n">
-        <v>8.380000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>8.09</v>
+        <v>7.79</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.1011245451044367</v>
+        <v>-0.2459268949745335</v>
       </c>
       <c r="M96" t="n">
-        <v>-1.2228</v>
+        <v>-3.02532</v>
       </c>
       <c r="N96" t="n">
-        <v>-7675085.947787642</v>
+        <v>-23188472.30330694</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.95006</v>
+        <v>-2.92264</v>
       </c>
       <c r="P96" t="n">
         <v>97727220.33</v>
@@ -9579,7 +9579,7 @@
         <v>52.62</v>
       </c>
       <c r="T96" t="n">
-        <v>-84.40734999999999</v>
+        <v>-85.01166000000001</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>0.657401</v>
       </c>
       <c r="W96" t="n">
-        <v>1148.09076</v>
+        <v>1099.71914</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:07.738Z</t>
+          <t>2025-04-06T16:04:10.015Z</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr"/>
@@ -9629,37 +9629,37 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.162275</v>
+        <v>0.156275</v>
       </c>
       <c r="F97" t="n">
-        <v>792701628</v>
+        <v>764026997</v>
       </c>
       <c r="G97" t="n">
         <v>96</v>
       </c>
       <c r="H97" t="n">
-        <v>1623603027</v>
+        <v>1564871953</v>
       </c>
       <c r="I97" t="n">
-        <v>29846756</v>
+        <v>37012857</v>
       </c>
       <c r="J97" t="n">
-        <v>0.165753</v>
+        <v>0.163137</v>
       </c>
       <c r="K97" t="n">
-        <v>0.161572</v>
+        <v>0.15533</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.002223625664021928</v>
+        <v>-0.006149519286625799</v>
       </c>
       <c r="M97" t="n">
-        <v>-1.35176</v>
+        <v>-3.78607</v>
       </c>
       <c r="N97" t="n">
-        <v>-10973974.56896806</v>
+        <v>-28845040.49985278</v>
       </c>
       <c r="O97" t="n">
-        <v>-1.36547</v>
+        <v>-3.63804</v>
       </c>
       <c r="P97" t="n">
         <v>4882361111</v>
@@ -9672,7 +9672,7 @@
         <v>1.14</v>
       </c>
       <c r="T97" t="n">
-        <v>-85.75285</v>
+        <v>-86.26356</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>0.095364</v>
       </c>
       <c r="W97" t="n">
-        <v>70.27158</v>
+        <v>64.16793</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:04.311Z</t>
+          <t>2025-04-06T16:04:12.994Z</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr"/>
@@ -9722,37 +9722,37 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.081497</v>
+        <v>0.079556</v>
       </c>
       <c r="F98" t="n">
-        <v>778230578</v>
+        <v>759577226</v>
       </c>
       <c r="G98" t="n">
         <v>97</v>
       </c>
       <c r="H98" t="n">
-        <v>879250891</v>
+        <v>858176191</v>
       </c>
       <c r="I98" t="n">
-        <v>27946488</v>
+        <v>26068950</v>
       </c>
       <c r="J98" t="n">
-        <v>0.083314</v>
+        <v>0.082389</v>
       </c>
       <c r="K98" t="n">
-        <v>0.080349</v>
+        <v>0.078685</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.001750149497569353</v>
+        <v>-0.000897194313621244</v>
       </c>
       <c r="M98" t="n">
-        <v>-2.10234</v>
+        <v>-1.11517</v>
       </c>
       <c r="N98" t="n">
-        <v>-16329853.07136464</v>
+        <v>-8452398.112743258</v>
       </c>
       <c r="O98" t="n">
-        <v>-2.05521</v>
+        <v>-1.10053</v>
       </c>
       <c r="P98" t="n">
         <v>9548531509.16547</v>
@@ -9767,7 +9767,7 @@
         <v>2.84</v>
       </c>
       <c r="T98" t="n">
-        <v>-97.12752</v>
+        <v>-97.19953</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>0.052051</v>
       </c>
       <c r="W98" t="n">
-        <v>56.81073</v>
+        <v>52.87966</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:06.145Z</t>
+          <t>2025-04-06T16:04:16.687Z</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr"/>
@@ -9798,288 +9798,288 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>theta-token</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>xaut</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/2538/large/theta-token-logo.png?1696503349</t>
+          <t>https://coin-images.coingecko.com/coins/images/10481/large/Tether_Gold.png?1696510471</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.7746729999999999</v>
+        <v>3053.68</v>
       </c>
       <c r="F99" t="n">
-        <v>775604971</v>
+        <v>753563310</v>
       </c>
       <c r="G99" t="n">
         <v>98</v>
       </c>
       <c r="H99" t="n">
-        <v>775604971</v>
+        <v>753563310</v>
       </c>
       <c r="I99" t="n">
-        <v>13001372</v>
+        <v>19346114</v>
       </c>
       <c r="J99" t="n">
-        <v>0.799049</v>
+        <v>3062.17</v>
       </c>
       <c r="K99" t="n">
-        <v>0.764868</v>
+        <v>3043.53</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.01694020894052362</v>
+        <v>9.93</v>
       </c>
       <c r="M99" t="n">
-        <v>-2.13996</v>
+        <v>0.32637</v>
       </c>
       <c r="N99" t="n">
-        <v>-15933492.97492075</v>
+        <v>3002430</v>
       </c>
       <c r="O99" t="n">
-        <v>-2.01298</v>
+        <v>0.40002</v>
       </c>
       <c r="P99" t="n">
-        <v>1000000000</v>
+        <v>246524.33</v>
       </c>
       <c r="Q99" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="R99" t="n">
-        <v>1000000000</v>
-      </c>
+        <v>246524.33</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>15.72</v>
+        <v>3190.62</v>
       </c>
       <c r="T99" t="n">
-        <v>-95.06056</v>
+        <v>-4.18905</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>2021-04-16T13:15:11.190Z</t>
+          <t>2025-04-01T00:42:40.216Z</t>
         </is>
       </c>
       <c r="V99" t="n">
-        <v>0.04039979</v>
+        <v>1447.84</v>
       </c>
       <c r="W99" t="n">
-        <v>1821.95697</v>
+        <v>111.1394</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>2020-03-13T02:24:16.483Z</t>
+          <t>2020-03-19T13:45:41.821Z</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:04.929Z</t>
-        </is>
-      </c>
-      <c r="AA99" t="n">
-        <v>4.164484333482971</v>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>usd</t>
-        </is>
-      </c>
-      <c r="AC99" t="n">
-        <v>416.448433348297</v>
-      </c>
+          <t>2025-04-06T16:04:15.936Z</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>theta-token</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>xaut</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/10481/large/Tether_Gold.png?1696510471</t>
+          <t>https://coin-images.coingecko.com/coins/images/2538/large/theta-token-logo.png?1696503349</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3049.94</v>
+        <v>0.745682</v>
       </c>
       <c r="F100" t="n">
-        <v>751660107</v>
+        <v>745972262</v>
       </c>
       <c r="G100" t="n">
         <v>99</v>
       </c>
       <c r="H100" t="n">
-        <v>751660107</v>
+        <v>745972262</v>
       </c>
       <c r="I100" t="n">
-        <v>23293964</v>
+        <v>16824037</v>
       </c>
       <c r="J100" t="n">
-        <v>3052.62</v>
+        <v>0.78142</v>
       </c>
       <c r="K100" t="n">
-        <v>3038.32</v>
+        <v>0.737778</v>
       </c>
       <c r="L100" t="n">
-        <v>8.1</v>
+        <v>-0.02216046817768158</v>
       </c>
       <c r="M100" t="n">
-        <v>0.26628</v>
+        <v>-2.88607</v>
       </c>
       <c r="N100" t="n">
-        <v>972324</v>
+        <v>-20396774.18346989</v>
       </c>
       <c r="O100" t="n">
-        <v>0.12952</v>
+        <v>-2.66148</v>
       </c>
       <c r="P100" t="n">
-        <v>246524.33</v>
+        <v>1000000000</v>
       </c>
       <c r="Q100" t="n">
-        <v>246524.33</v>
-      </c>
-      <c r="R100" t="inlineStr"/>
+        <v>1000000000</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1000000000</v>
+      </c>
       <c r="S100" t="n">
-        <v>3190.62</v>
+        <v>15.72</v>
       </c>
       <c r="T100" t="n">
-        <v>-4.4139</v>
+        <v>-95.25342999999999</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>2025-04-01T00:42:40.216Z</t>
+          <t>2021-04-16T13:15:11.190Z</t>
         </is>
       </c>
       <c r="V100" t="n">
-        <v>1447.84</v>
+        <v>0.04039979</v>
       </c>
       <c r="W100" t="n">
-        <v>110.6439</v>
+        <v>1746.91017</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>2020-03-19T13:45:41.821Z</t>
+          <t>2020-03-13T02:24:16.483Z</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:04.568Z</t>
-        </is>
-      </c>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
+          <t>2025-04-06T16:04:16.059Z</t>
+        </is>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.971211244160809</v>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>usd</t>
+        </is>
+      </c>
+      <c r="AC100" t="n">
+        <v>397.1211244160809</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>solv-protocol-solvbtc-bbn</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>imx</t>
+          <t>solvbtc.bbn</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Immutable</t>
+          <t>Solv Protocol SolvBTC.BBN</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://coin-images.coingecko.com/coins/images/17233/large/immutableX-symbol-BLK-RGB.png?1696516787</t>
+          <t>https://coin-images.coingecko.com/coins/images/39384/large/unnamed.png?1721961640</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.418384</v>
+        <v>81877</v>
       </c>
       <c r="F101" t="n">
-        <v>750116325</v>
+        <v>734870188</v>
       </c>
       <c r="G101" t="n">
         <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>836793596</v>
+        <v>734870188</v>
       </c>
       <c r="I101" t="n">
-        <v>46620885</v>
+        <v>830834</v>
       </c>
       <c r="J101" t="n">
-        <v>0.445928</v>
+        <v>85703</v>
       </c>
       <c r="K101" t="n">
-        <v>0.417536</v>
+        <v>81765</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.02250733886399192</v>
+        <v>-11.29458623254322</v>
       </c>
       <c r="M101" t="n">
-        <v>-5.10496</v>
+        <v>-0.01379</v>
       </c>
       <c r="N101" t="n">
-        <v>-40699474.14039648</v>
+        <v>-2117231.898470879</v>
       </c>
       <c r="O101" t="n">
-        <v>-5.14652</v>
+        <v>-0.28728</v>
       </c>
       <c r="P101" t="n">
-        <v>1792834764.389814</v>
+        <v>8987.172926682115</v>
       </c>
       <c r="Q101" t="n">
-        <v>2000000000</v>
+        <v>8987.172926682115</v>
       </c>
       <c r="R101" t="n">
-        <v>2000000000</v>
+        <v>21000000</v>
       </c>
       <c r="S101" t="n">
-        <v>9.52</v>
+        <v>117077</v>
       </c>
       <c r="T101" t="n">
-        <v>-95.59378</v>
+        <v>-30.06709</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>2021-11-26T01:03:01.536Z</t>
+          <t>2025-01-20T07:15:49.114Z</t>
         </is>
       </c>
       <c r="V101" t="n">
-        <v>0.378055</v>
+        <v>11402.13</v>
       </c>
       <c r="W101" t="n">
-        <v>10.95458</v>
+        <v>618.06818</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>2022-12-31T07:36:37.649Z</t>
+          <t>2024-09-10T17:58:43.974Z</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-04-06T02:20:13.187Z</t>
+          <t>2025-04-06T16:04:12.759Z</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr"/>
